--- a/Distribution/ACQ.Options.xlsx
+++ b/Distribution/ACQ.Options.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ACQ\ACQ.Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62923DEF-3E85-4466-8AC6-E8FEE85A4D6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C65C6E-DF89-43CF-8FB0-640BDB852364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="900" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Utils" sheetId="3" r:id="rId1"/>
     <sheet name="Black" sheetId="13" r:id="rId2"/>
-    <sheet name="BlackScholes" sheetId="14" r:id="rId3"/>
-    <sheet name="Description" sheetId="7" r:id="rId4"/>
-    <sheet name="Special" sheetId="9" r:id="rId5"/>
+    <sheet name="Bachelier" sheetId="15" r:id="rId3"/>
+    <sheet name="BlackScholes" sheetId="14" r:id="rId4"/>
+    <sheet name="Description" sheetId="7" r:id="rId5"/>
+    <sheet name="Special" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -75,6 +76,64 @@
     <author>chirokov</author>
   </authors>
   <commentList>
+    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{1DA27116-B172-4294-B6BF-AFA92AD645F0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Normal Vol</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AH31" authorId="0" shapeId="0" xr:uid="{AD526814-FE43-498D-A598-17F7DED3D277}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Theta = -dP/dt</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>chirokov</author>
+  </authors>
+  <commentList>
     <comment ref="AJ31" authorId="0" shapeId="0" xr:uid="{667BBBA4-BB59-4469-8ECC-7D8DECCBF6D7}">
       <text>
         <r>
@@ -104,7 +163,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="135">
   <si>
     <t>x</t>
   </si>
@@ -489,6 +548,27 @@
   <si>
     <t>Epsilon</t>
   </si>
+  <si>
+    <t>Bachelier Option Greeks</t>
+  </si>
+  <si>
+    <t>Black Option Greeks</t>
+  </si>
+  <si>
+    <t>Black-Scholes Option Greeks</t>
+  </si>
+  <si>
+    <t>Normal to LogNormal Volatility</t>
+  </si>
+  <si>
+    <t>Black Vol</t>
+  </si>
+  <si>
+    <t>Vol * Fwd</t>
+  </si>
+  <si>
+    <t>Black Price</t>
+  </si>
 </sst>
 </file>
 
@@ -499,7 +579,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -565,6 +645,14 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -607,7 +695,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -808,8 +896,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
@@ -818,8 +915,9 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -869,12 +967,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="8" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="9">
     <cellStyle name="20% - Accent3" xfId="7" builtinId="38"/>
     <cellStyle name="40% - Accent4" xfId="5" builtinId="43"/>
     <cellStyle name="40% - Accent5" xfId="6" builtinId="47"/>
     <cellStyle name="Calculation" xfId="4" builtinId="22"/>
+    <cellStyle name="Heading 1" xfId="8" builtinId="16"/>
     <cellStyle name="Heading 3" xfId="3" builtinId="18"/>
     <cellStyle name="Input" xfId="2" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1651,7 +1753,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>BlackScholes!$G$3</c:f>
+              <c:f>Bachelier!$G$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1686,7 +1788,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>BlackScholes!$F$4:$F$20</c:f>
+              <c:f>Bachelier!$F$4:$F$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -1746,60 +1848,60 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>BlackScholes!$G$4:$G$20</c:f>
+              <c:f>Bachelier!$G$4:$G$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>67.951423633268391</c:v>
+                  <c:v>61.905980844851676</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>58.439140539429779</c:v>
+                  <c:v>53.260424710089758</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>48.930017522733479</c:v>
+                  <c:v>44.802859030336755</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>39.486891153219823</c:v>
+                  <c:v>36.668203786672954</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30.407825878286992</c:v>
+                  <c:v>29.036244876207263</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22.243713555485982</c:v>
+                  <c:v>22.113553006114746</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15.493266899479522</c:v>
+                  <c:v>16.097838958966797</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.344030423896939</c:v>
+                  <c:v>11.13328317746625</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.6735100356443873</c:v>
+                  <c:v>7.2728699331208437</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.1927508505818558</c:v>
+                  <c:v>4.4636149544228356</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.5824603613674348</c:v>
+                  <c:v>2.5613377986694004</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.5680166226316086</c:v>
+                  <c:v>1.3683276832891289</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.94268348074284525</c:v>
+                  <c:v>0.67801390110697701</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.56310882469903589</c:v>
+                  <c:v>0.31061055501403678</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.33513215782642281</c:v>
+                  <c:v>0.13119766392999382</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.19914227463693535</c:v>
+                  <c:v>5.0973689315626326E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.11834665039209358</c:v>
+                  <c:v>1.8180439338268729E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1807,7 +1909,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E046-4D5C-BA28-87A3A791FED2}"/>
+              <c16:uniqueId val="{00000000-46ED-4FA0-AA4A-2A1B299EB08E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1816,7 +1918,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>BlackScholes!$H$3</c:f>
+              <c:f>Bachelier!$H$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1851,7 +1953,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>BlackScholes!$F$4:$F$20</c:f>
+              <c:f>Bachelier!$F$4:$F$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -1911,60 +2013,60 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>BlackScholes!$H$4:$H$20</c:f>
+              <c:f>Bachelier!$H$4:$H$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>2.0306811757882426E-11</c:v>
+                  <c:v>0.13119766392999382</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1151188853304376E-5</c:v>
+                  <c:v>0.31061055501403678</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.1823794996912805E-3</c:v>
+                  <c:v>0.67801390110697701</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.2350254993173713E-2</c:v>
+                  <c:v>1.3683276832891289</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.50557922506749309</c:v>
+                  <c:v>2.5613377986694004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.8537611472736195</c:v>
+                  <c:v>4.4636149544228356</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.6156087362742966</c:v>
+                  <c:v>7.2728699331208437</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.9786665056988539</c:v>
+                  <c:v>11.13328317746625</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>14.820440362453446</c:v>
+                  <c:v>16.097838958966797</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>21.851975422398048</c:v>
+                  <c:v>22.113553006114746</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>29.753979178190775</c:v>
+                  <c:v>29.036244876207263</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>38.251829684462081</c:v>
+                  <c:v>36.668203786672954</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>47.138790787580461</c:v>
+                  <c:v>44.802859030336755</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>56.271510376543773</c:v>
+                  <c:v>53.260424710089758</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>65.555827954678307</c:v>
+                  <c:v>61.905980844851676</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>74.932132316495967</c:v>
+                  <c:v>70.650725896083259</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>84.363630937258236</c:v>
+                  <c:v>79.442901671951859</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1972,7 +2074,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E046-4D5C-BA28-87A3A791FED2}"/>
+              <c16:uniqueId val="{00000001-46ED-4FA0-AA4A-2A1B299EB08E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2270,6 +2372,1156 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Bachelier!$Q$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Vol * Fwd</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Bachelier!$M$34:$M$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Bachelier!$Q$34:$Q$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>4.1925341293792382</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.5160991000895505</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.3047670271975864</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.7916114048857441</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.077214089676684</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.216431818444882</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.243191870494238</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.180231197819593</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.043668504368728</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15.845418088831126</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16.59457612628745</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B735-44C1-AE56-FCE92E6D296E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Bachelier!$O$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Vol</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Bachelier!$M$34:$M$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Bachelier!$O$34:$O$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>14.999999999999959</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.999999999999984</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.999999999999885</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.999999999981359</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.99999999780432</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.999999999999131</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.999999999983274</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14.999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.999999999983274</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14.999999999999133</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B735-44C1-AE56-FCE92E6D296E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1968834384"/>
+        <c:axId val="1968840624"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1968834384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1968840624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1968840624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1968834384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Option Price</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BlackScholes!$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Call Price</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>BlackScholes!$F$4:$F$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>BlackScholes!$G$4:$G$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>67.951423633268391</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>58.439140539429779</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48.930017522733479</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39.486891153219823</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30.407825878286992</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.243713555485982</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.493266899479522</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.344030423896939</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.6735100356443873</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.1927508505818558</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.5824603613674348</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.5680166226316086</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.94268348074284525</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.56310882469903589</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.33513215782642281</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.19914227463693535</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.11834665039209358</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E046-4D5C-BA28-87A3A791FED2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BlackScholes!$H$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Put Price</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>BlackScholes!$F$4:$F$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>BlackScholes!$H$4:$H$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>2.0306811757882426E-11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1151188853304376E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1823794996912805E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.2350254993173713E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.50557922506749309</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8537611472736195</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.6156087362742966</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.9786665056988539</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14.820440362453446</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21.851975422398048</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>29.753979178190775</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>38.251829684462081</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>47.138790787580461</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>56.271510376543773</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>65.555827954678307</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>74.932132316495967</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>84.363630937258236</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E046-4D5C-BA28-87A3A791FED2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2121072976"/>
+        <c:axId val="16680224"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2121072976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Strike</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="16680224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="16680224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2121072976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
           <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
@@ -6225,6 +7477,86 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7296,6 +8628,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -7357,6 +9721,85 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D82D01DA-48CF-489B-90F7-B2778C2CA95B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>433387</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>623887</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACB5B362-802C-4D9B-86A3-BD2CA7AA65EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71FC4350-3AD5-4ED5-9B17-F3CE16293EB3}"/>
             </a:ext>
           </a:extLst>
@@ -7380,7 +9823,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7736,8 +10179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B2:C21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7768,7 +10211,7 @@
       </c>
       <c r="C4" s="6" t="str">
         <f>_xll.acq_version()</f>
-        <v>1.3.8022.40530</v>
+        <v>1.3.8023.26993</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
@@ -7863,10 +10306,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDB465FF-8B5A-499F-AD9B-C82D6914A8E1}">
-  <dimension ref="B2:AQ43"/>
+  <dimension ref="A1:AQ43"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="AC16" sqref="AC16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7880,7 +10323,15 @@
     <col min="32" max="32" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:43" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="45" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+    </row>
+    <row r="2" spans="1:43" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F2" s="44" t="s">
         <v>97</v>
       </c>
@@ -7911,7 +10362,7 @@
       <c r="AD2" s="3"/>
       <c r="AE2" s="3"/>
     </row>
-    <row r="3" spans="2:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>92</v>
       </c>
@@ -7983,7 +10434,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>86</v>
       </c>
@@ -8018,11 +10469,11 @@
       </c>
       <c r="O4">
         <f>_xll.acq_options_black_vol($C$4,$C$5,$C$6,$C$8,M4,TRUE)</f>
-        <v>0</v>
+        <v>1.0000000000000001E-15</v>
       </c>
       <c r="P4">
         <f>_xll.acq_options_black_vol($C$4,$C$5,$C$6,$C$8,N4,FALSE)</f>
-        <v>0</v>
+        <v>1.0000000000000001E-15</v>
       </c>
       <c r="Q4" s="11"/>
       <c r="R4" s="13">
@@ -8070,7 +10521,7 @@
       <c r="AP4" s="11"/>
       <c r="AQ4" s="11"/>
     </row>
-    <row r="5" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>87</v>
       </c>
@@ -8105,11 +10556,11 @@
       </c>
       <c r="O5">
         <f>_xll.acq_options_black_vol($C$4,$C$5,$C$6,$C$8,M5,TRUE)</f>
-        <v>5.000000000000239E-2</v>
+        <v>5.0000000000002709E-2</v>
       </c>
       <c r="P5">
         <f>_xll.acq_options_black_vol($C$4,$C$5,$C$6,$C$8,N5,FALSE)</f>
-        <v>5.0000000000002209E-2</v>
+        <v>5.000000000000264E-2</v>
       </c>
       <c r="Q5" s="11"/>
       <c r="R5" s="13">
@@ -8174,7 +10625,7 @@
       <c r="AP5" s="11"/>
       <c r="AQ5" s="11"/>
     </row>
-    <row r="6" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>88</v>
       </c>
@@ -8209,11 +10660,11 @@
       </c>
       <c r="O6">
         <f>_xll.acq_options_black_vol($C$4,$C$5,$C$6,$C$8,M6,TRUE)</f>
-        <v>9.99999999999997E-2</v>
+        <v>9.9999999999999811E-2</v>
       </c>
       <c r="P6">
         <f>_xll.acq_options_black_vol($C$4,$C$5,$C$6,$C$8,N6,FALSE)</f>
-        <v>9.9999999999999742E-2</v>
+        <v>0.10000000000000013</v>
       </c>
       <c r="Q6" s="11"/>
       <c r="R6" s="13">
@@ -8272,7 +10723,7 @@
       <c r="AI6" s="11"/>
       <c r="AL6" s="11"/>
     </row>
-    <row r="7" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>89</v>
       </c>
@@ -8307,11 +10758,11 @@
       </c>
       <c r="O7">
         <f>_xll.acq_options_black_vol($C$4,$C$5,$C$6,$C$8,M7,TRUE)</f>
-        <v>0.149999999998884</v>
+        <v>0.14999999999888375</v>
       </c>
       <c r="P7">
         <f>_xll.acq_options_black_vol($C$4,$C$5,$C$6,$C$8,N7,FALSE)</f>
-        <v>0.14999999999888403</v>
+        <v>0.14999999999888408</v>
       </c>
       <c r="Q7" s="11"/>
       <c r="R7" s="13">
@@ -8368,7 +10819,7 @@
       <c r="AH7" s="11"/>
       <c r="AI7" s="11"/>
     </row>
-    <row r="8" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>90</v>
       </c>
@@ -8407,7 +10858,7 @@
       </c>
       <c r="P8">
         <f>_xll.acq_options_black_vol($C$4,$C$5,$C$6,$C$8,N8,FALSE)</f>
-        <v>0.20000000000000021</v>
+        <v>0.20000000000000018</v>
       </c>
       <c r="Q8" s="11"/>
       <c r="R8" s="13">
@@ -8450,7 +10901,7 @@
       <c r="AH8" s="11"/>
       <c r="AI8" s="11"/>
     </row>
-    <row r="9" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>91</v>
       </c>
@@ -8485,7 +10936,7 @@
       </c>
       <c r="O9">
         <f>_xll.acq_options_black_vol($C$4,$C$5,$C$6,$C$8,M9,TRUE)</f>
-        <v>0.25000000000001732</v>
+        <v>0.25000000000001737</v>
       </c>
       <c r="P9">
         <f>_xll.acq_options_black_vol($C$4,$C$5,$C$6,$C$8,N9,FALSE)</f>
@@ -8548,7 +10999,7 @@
       <c r="AH9" s="11"/>
       <c r="AI9" s="11"/>
     </row>
-    <row r="10" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="F10">
         <v>70</v>
       </c>
@@ -8577,11 +11028,11 @@
       </c>
       <c r="O10">
         <f>_xll.acq_options_black_vol($C$4,$C$5,$C$6,$C$8,M10,TRUE)</f>
-        <v>0.29999999999999988</v>
+        <v>0.29999999999999982</v>
       </c>
       <c r="P10">
         <f>_xll.acq_options_black_vol($C$4,$C$5,$C$6,$C$8,N10,FALSE)</f>
-        <v>0.30000000000000021</v>
+        <v>0.3000000000000001</v>
       </c>
       <c r="Q10" s="11"/>
       <c r="R10" s="13">
@@ -8637,7 +11088,7 @@
       <c r="AH10" s="11"/>
       <c r="AI10" s="11"/>
     </row>
-    <row r="11" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="F11">
         <v>80</v>
       </c>
@@ -8713,7 +11164,7 @@
       <c r="AH11" s="11"/>
       <c r="AI11" s="11"/>
     </row>
-    <row r="12" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
       <c r="F12">
         <v>90</v>
       </c>
@@ -8742,7 +11193,7 @@
       </c>
       <c r="O12">
         <f>_xll.acq_options_black_vol($C$4,$C$5,$C$6,$C$8,M12,TRUE)</f>
-        <v>0.40000000000000008</v>
+        <v>0.4</v>
       </c>
       <c r="P12">
         <f>_xll.acq_options_black_vol($C$4,$C$5,$C$6,$C$8,N12,FALSE)</f>
@@ -8790,7 +11241,7 @@
       <c r="AI12" s="11"/>
       <c r="AL12" s="11"/>
     </row>
-    <row r="13" spans="2:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F13">
         <v>100</v>
       </c>
@@ -8819,11 +11270,11 @@
       </c>
       <c r="O13">
         <f>_xll.acq_options_black_vol($C$4,$C$5,$C$6,$C$8,M13,TRUE)</f>
-        <v>0.4499999999999999</v>
+        <v>0.44999999999999996</v>
       </c>
       <c r="P13">
         <f>_xll.acq_options_black_vol($C$4,$C$5,$C$6,$C$8,N13,FALSE)</f>
-        <v>0.45</v>
+        <v>0.45000000000000007</v>
       </c>
       <c r="R13" s="13">
         <v>100</v>
@@ -8870,7 +11321,7 @@
       <c r="AI13" s="11"/>
       <c r="AL13" s="11"/>
     </row>
-    <row r="14" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
       <c r="F14">
         <v>110</v>
       </c>
@@ -8954,7 +11405,7 @@
       </c>
       <c r="AL14" s="11"/>
     </row>
-    <row r="15" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
       <c r="F15">
         <v>120</v>
       </c>
@@ -8987,10 +11438,10 @@
       </c>
       <c r="P15">
         <f>_xll.acq_options_black_vol($C$4,$C$5,$C$6,$C$8,N15,FALSE)</f>
-        <v>0.55000000000012572</v>
-      </c>
-    </row>
-    <row r="16" spans="2:43" x14ac:dyDescent="0.25">
+        <v>0.55000000000012583</v>
+      </c>
+    </row>
+    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
       <c r="F16">
         <v>130</v>
       </c>
@@ -9019,7 +11470,7 @@
       </c>
       <c r="O16">
         <f>_xll.acq_options_black_vol($C$4,$C$5,$C$6,$C$8,M16,TRUE)</f>
-        <v>0.60000000002893572</v>
+        <v>0.60000000002893583</v>
       </c>
       <c r="P16">
         <f>_xll.acq_options_black_vol($C$4,$C$5,$C$6,$C$8,N16,FALSE)</f>
@@ -9135,7 +11586,7 @@
       </c>
       <c r="O18">
         <f>_xll.acq_options_black_vol($C$4,$C$5,$C$6,$C$8,M18,TRUE)</f>
-        <v>0.69999999999999984</v>
+        <v>0.7</v>
       </c>
       <c r="P18">
         <f>_xll.acq_options_black_vol($C$4,$C$5,$C$6,$C$8,N18,FALSE)</f>
@@ -9296,7 +11747,7 @@
       </c>
       <c r="O20">
         <f>_xll.acq_options_black_vol($C$4,$C$5,$C$6,$C$8,M20,TRUE)</f>
-        <v>0.80000000000000038</v>
+        <v>0.80000000000000027</v>
       </c>
       <c r="P20">
         <f>_xll.acq_options_black_vol($C$4,$C$5,$C$6,$C$8,N20,FALSE)</f>
@@ -9370,11 +11821,11 @@
       </c>
       <c r="O21">
         <f>_xll.acq_options_black_vol($C$4,$C$5,$C$6,$C$8,M21,TRUE)</f>
-        <v>0.8500000000000002</v>
+        <v>0.85</v>
       </c>
       <c r="P21">
         <f>_xll.acq_options_black_vol($C$4,$C$5,$C$6,$C$8,N21,FALSE)</f>
-        <v>0.8500000000000002</v>
+        <v>0.84999999999999987</v>
       </c>
       <c r="R21" s="13">
         <v>30</v>
@@ -9445,7 +11896,7 @@
       </c>
       <c r="P22">
         <f>_xll.acq_options_black_vol($C$4,$C$5,$C$6,$C$8,N22,FALSE)</f>
-        <v>0.90000000002088265</v>
+        <v>0.90000000002088276</v>
       </c>
       <c r="R22" s="13">
         <v>40</v>
@@ -9619,7 +12070,7 @@
       </c>
       <c r="P25">
         <f>_xll.acq_options_black_vol($C$4,$C$5,$C$6,$C$8,N25,FALSE)</f>
-        <v>1.0500000000004821</v>
+        <v>1.0500000000004819</v>
       </c>
       <c r="R25" s="13">
         <v>70</v>
@@ -9749,7 +12200,7 @@
       </c>
       <c r="P27">
         <f>_xll.acq_options_black_vol($C$4,$C$5,$C$6,$C$8,N27,FALSE)</f>
-        <v>1.1500000000010207</v>
+        <v>1.15000000000102</v>
       </c>
       <c r="R27" s="13">
         <v>90</v>
@@ -10234,11 +12685,12 @@
       <c r="AF43" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="L2:P2"/>
     <mergeCell ref="S2:Z2"/>
     <mergeCell ref="S17:Z17"/>
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10247,11 +12699,2768 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E1ECCF0-931A-41E3-AFEA-2FABAE8E4DC6}">
+  <dimension ref="A1:AQ44"/>
+  <sheetViews>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="Z12" sqref="Z12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="8.7109375" customWidth="1"/>
+    <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:43" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="45" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+    </row>
+    <row r="2" spans="1:43" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F2" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="L2" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="S2" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="44"/>
+      <c r="W2" s="44"/>
+      <c r="X2" s="44"/>
+      <c r="Y2" s="44"/>
+      <c r="Z2" s="44"/>
+      <c r="AB2" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="3"/>
+    </row>
+    <row r="3" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="F3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I3" t="s">
+        <v>95</v>
+      </c>
+      <c r="L3" t="s">
+        <v>96</v>
+      </c>
+      <c r="M3" t="s">
+        <v>93</v>
+      </c>
+      <c r="N3" t="s">
+        <v>94</v>
+      </c>
+      <c r="O3" t="s">
+        <v>121</v>
+      </c>
+      <c r="P3" t="s">
+        <v>122</v>
+      </c>
+      <c r="R3" t="s">
+        <v>109</v>
+      </c>
+      <c r="S3" t="s">
+        <v>99</v>
+      </c>
+      <c r="T3" t="s">
+        <v>100</v>
+      </c>
+      <c r="U3" t="s">
+        <v>101</v>
+      </c>
+      <c r="V3" t="s">
+        <v>102</v>
+      </c>
+      <c r="W3" t="s">
+        <v>103</v>
+      </c>
+      <c r="X3" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>99</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>100</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="5">
+        <v>80</v>
+      </c>
+      <c r="F4">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <f>_xll.acq_options_bachelier_price($C$4,F4,$C$6,$C$8,$C$7,TRUE)</f>
+        <v>61.905980844851676</v>
+      </c>
+      <c r="H4">
+        <f>_xll.acq_options_bachelier_price($C$4,F4,$C$6,$C$8,$C$7,FALSE)</f>
+        <v>0.13119766392999382</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I20" si="0">G4-H4 +(F4-$C$4)*EXP(-$C$6*$C$8)</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <f>_xll.acq_options_bachelier_price($C$4,$C$5,$C$6,$C$8,L4,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <f>_xll.acq_options_bachelier_price($C$4,$C$5,$C$6,$C$8,L4,FALSE)</f>
+        <v>8.8249690258459541</v>
+      </c>
+      <c r="O4">
+        <f>_xll.acq_options_bachelier_vol($C$4,$C$5,$C$6,$C$8,M4,TRUE)</f>
+        <v>1.0000000000000001E-15</v>
+      </c>
+      <c r="P4">
+        <f>_xll.acq_options_bachelier_vol($C$4,$C$5,$C$6,$C$8,N4,FALSE)</f>
+        <v>1.0000000000000001E-15</v>
+      </c>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="13">
+        <v>10</v>
+      </c>
+      <c r="S4">
+        <f>_xll.acq_options_bachelier_greeks(S$3,$R4,$C$5,$C$6,$C$8,$C$7,TRUE)</f>
+        <v>5.0973689315626326E-2</v>
+      </c>
+      <c r="T4">
+        <f>_xll.acq_options_bachelier_greeks(T$3,$R4,$C$5,$C$6,$C$8,$C$7,TRUE)</f>
+        <v>5.0355433814145822E-3</v>
+      </c>
+      <c r="U4">
+        <f>_xll.acq_options_bachelier_greeks(U$3,$R4,$C$5,$C$6,$C$8,$C$7,TRUE)</f>
+        <v>4.5381715982879286E-4</v>
+      </c>
+      <c r="V4">
+        <f>_xll.acq_options_bachelier_greeks(V$3,$R4,$C$5,$C$6,$C$8,$C$7,TRUE)</f>
+        <v>2.2690857991439647E-2</v>
+      </c>
+      <c r="W4">
+        <f>_xll.acq_options_bachelier_greeks(W$3,$R4,$C$5,$C$6,$C$8,$C$7,TRUE)</f>
+        <v>7.261074557260684E-3</v>
+      </c>
+      <c r="X4">
+        <f>_xll.acq_options_bachelier_greeks(X$3,$R4,$C$5,$C$6,$C$8,$C$7,TRUE)</f>
+        <v>1.8152686393151714E-3</v>
+      </c>
+      <c r="Y4">
+        <f>_xll.acq_options_bachelier_greeks(Y$3,$R4,$C$5,$C$6,$C$8,$C$7,TRUE)</f>
+        <v>-0.12743422328906581</v>
+      </c>
+      <c r="Z4">
+        <f>_xll.acq_options_bachelier_greeks(Z$3,$R4,$C$5,$C$6,$C$8,$C$7,TRUE)</f>
+        <v>-8.8214747499977264E-2</v>
+      </c>
+      <c r="AH4" s="11"/>
+      <c r="AI4" s="11"/>
+      <c r="AK4" s="11"/>
+      <c r="AL4" s="11"/>
+      <c r="AM4" s="11"/>
+      <c r="AN4" s="11"/>
+      <c r="AO4" s="11"/>
+      <c r="AP4" s="11"/>
+      <c r="AQ4" s="11"/>
+    </row>
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="5">
+        <v>90</v>
+      </c>
+      <c r="F5">
+        <v>20</v>
+      </c>
+      <c r="G5">
+        <f>_xll.acq_options_bachelier_price($C$4,F5,$C$6,$C$8,$C$7,TRUE)</f>
+        <v>53.260424710089758</v>
+      </c>
+      <c r="H5">
+        <f>_xll.acq_options_bachelier_price($C$4,F5,$C$6,$C$8,$C$7,FALSE)</f>
+        <v>0.31061055501403678</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L5" s="12">
+        <v>2</v>
+      </c>
+      <c r="M5">
+        <f>_xll.acq_options_bachelier_price($C$4,$C$5,$C$6,$C$8,L5,TRUE)</f>
+        <v>5.9423397762684862E-4</v>
+      </c>
+      <c r="N5">
+        <f>_xll.acq_options_bachelier_price($C$4,$C$5,$C$6,$C$8,L5,FALSE)</f>
+        <v>8.825563259823582</v>
+      </c>
+      <c r="O5">
+        <f>_xll.acq_options_bachelier_vol($C$4,$C$5,$C$6,$C$8,M5,TRUE)</f>
+        <v>2</v>
+      </c>
+      <c r="P5">
+        <f>_xll.acq_options_bachelier_vol($C$4,$C$5,$C$6,$C$8,N5,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="13">
+        <v>20</v>
+      </c>
+      <c r="S5">
+        <f>_xll.acq_options_bachelier_greeks(S$3,$R5,$C$5,$C$6,$C$8,$C$7,TRUE)</f>
+        <v>0.13119766392999382</v>
+      </c>
+      <c r="T5">
+        <f>_xll.acq_options_bachelier_greeks(T$3,$R5,$C$5,$C$6,$C$8,$C$7,TRUE)</f>
+        <v>1.185047529952395E-2</v>
+      </c>
+      <c r="U5">
+        <f>_xll.acq_options_bachelier_greeks(U$3,$R5,$C$5,$C$6,$C$8,$C$7,TRUE)</f>
+        <v>9.6073093489667009E-4</v>
+      </c>
+      <c r="V5">
+        <f>_xll.acq_options_bachelier_greeks(V$3,$R5,$C$5,$C$6,$C$8,$C$7,TRUE)</f>
+        <v>4.8036546744833514E-2</v>
+      </c>
+      <c r="W5">
+        <f>_xll.acq_options_bachelier_greeks(W$3,$R5,$C$5,$C$6,$C$8,$C$7,TRUE)</f>
+        <v>1.1768953952484212E-2</v>
+      </c>
+      <c r="X5">
+        <f>_xll.acq_options_bachelier_greeks(X$3,$R5,$C$5,$C$6,$C$8,$C$7,TRUE)</f>
+        <v>3.3625582721383456E-3</v>
+      </c>
+      <c r="Y5">
+        <f>_xll.acq_options_bachelier_greeks(Y$3,$R5,$C$5,$C$6,$C$8,$C$7,TRUE)</f>
+        <v>-0.32799415982498453</v>
+      </c>
+      <c r="Z5">
+        <f>_xll.acq_options_bachelier_greeks(Z$3,$R5,$C$5,$C$6,$C$8,$C$7,TRUE)</f>
+        <v>-0.18558630378283433</v>
+      </c>
+      <c r="AB5" s="15">
+        <f>AB6-AC9</f>
+        <v>79.999899999999997</v>
+      </c>
+      <c r="AC5" s="13">
+        <f>_xll.acq_options_bachelier_greeks(AC$3,$AB5,$C$5,$C$6,$C$8,$C$7,$C$9)</f>
+        <v>7.2728367588076281</v>
+      </c>
+      <c r="AD5" s="13">
+        <f>_xll.acq_options_bachelier_greeks(AD$3,$AB5,$C$5,$C$6,$C$8,$C$7,$C$9)</f>
+        <v>0.3317426026282605</v>
+      </c>
+      <c r="AE5" s="13">
+        <f>_xll.acq_options_bachelier_greeks(AE$3,$AB5,$C$5,$C$6,$C$8,$C$7,$C$9)</f>
+        <v>1.0590295959350494E-2</v>
+      </c>
+      <c r="AF5" s="11"/>
+      <c r="AH5" s="11"/>
+      <c r="AI5" s="11"/>
+      <c r="AK5" s="11"/>
+      <c r="AL5" s="11"/>
+      <c r="AM5" s="11"/>
+      <c r="AN5" s="11"/>
+      <c r="AO5" s="11"/>
+      <c r="AP5" s="11"/>
+      <c r="AQ5" s="11"/>
+    </row>
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F6">
+        <v>30</v>
+      </c>
+      <c r="G6">
+        <f>_xll.acq_options_bachelier_price($C$4,F6,$C$6,$C$8,$C$7,TRUE)</f>
+        <v>44.802859030336755</v>
+      </c>
+      <c r="H6">
+        <f>_xll.acq_options_bachelier_price($C$4,F6,$C$6,$C$8,$C$7,FALSE)</f>
+        <v>0.67801390110697701</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L6" s="12">
+        <v>4</v>
+      </c>
+      <c r="M6">
+        <f>_xll.acq_options_bachelier_price($C$4,$C$5,$C$6,$C$8,L6,TRUE)</f>
+        <v>0.13560278022139546</v>
+      </c>
+      <c r="N6">
+        <f>_xll.acq_options_bachelier_price($C$4,$C$5,$C$6,$C$8,L6,FALSE)</f>
+        <v>8.9605718060673496</v>
+      </c>
+      <c r="O6">
+        <f>_xll.acq_options_bachelier_vol($C$4,$C$5,$C$6,$C$8,M6,TRUE)</f>
+        <v>4</v>
+      </c>
+      <c r="P6">
+        <f>_xll.acq_options_bachelier_vol($C$4,$C$5,$C$6,$C$8,N6,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="13">
+        <v>30</v>
+      </c>
+      <c r="S6">
+        <f>_xll.acq_options_bachelier_greeks(S$3,$R6,$C$5,$C$6,$C$8,$C$7,TRUE)</f>
+        <v>0.31061055501403678</v>
+      </c>
+      <c r="T6">
+        <f>_xll.acq_options_bachelier_greeks(T$3,$R6,$C$5,$C$6,$C$8,$C$7,TRUE)</f>
+        <v>2.5495146274620451E-2</v>
+      </c>
+      <c r="U6">
+        <f>_xll.acq_options_bachelier_greeks(U$3,$R6,$C$5,$C$6,$C$8,$C$7,TRUE)</f>
+        <v>1.8403193314912635E-3</v>
+      </c>
+      <c r="V6">
+        <f>_xll.acq_options_bachelier_greeks(V$3,$R6,$C$5,$C$6,$C$8,$C$7,TRUE)</f>
+        <v>9.2015966574563179E-2</v>
+      </c>
+      <c r="W6">
+        <f>_xll.acq_options_bachelier_greeks(W$3,$R6,$C$5,$C$6,$C$8,$C$7,TRUE)</f>
+        <v>1.6562873983421374E-2</v>
+      </c>
+      <c r="X6">
+        <f>_xll.acq_options_bachelier_greeks(X$3,$R6,$C$5,$C$6,$C$8,$C$7,TRUE)</f>
+        <v>5.5209579944737906E-3</v>
+      </c>
+      <c r="Y6">
+        <f>_xll.acq_options_bachelier_greeks(Y$3,$R6,$C$5,$C$6,$C$8,$C$7,TRUE)</f>
+        <v>-0.77652638753509184</v>
+      </c>
+      <c r="Z6">
+        <f>_xll.acq_options_bachelier_greeks(Z$3,$R6,$C$5,$C$6,$C$8,$C$7,TRUE)</f>
+        <v>-0.35253333854755087</v>
+      </c>
+      <c r="AB6" s="16">
+        <f>C4</f>
+        <v>80</v>
+      </c>
+      <c r="AC6" s="13">
+        <f>_xll.acq_options_bachelier_greeks(AC$3,$AB6,$C$5,$C$6,$C$8,$C$7,$C$9)</f>
+        <v>7.2728699331208437</v>
+      </c>
+      <c r="AD6" s="13">
+        <f>_xll.acq_options_bachelier_greeks(AD$3,$AB6,$C$5,$C$6,$C$8,$C$7,$C$9)</f>
+        <v>0.33174366165838592</v>
+      </c>
+      <c r="AE6" s="13">
+        <f>_xll.acq_options_bachelier_greeks(AE$3,$AB6,$C$5,$C$6,$C$8,$C$7,$C$9)</f>
+        <v>1.0590306549704701E-2</v>
+      </c>
+      <c r="AF6" s="11"/>
+      <c r="AH6" s="11"/>
+      <c r="AI6" s="11"/>
+      <c r="AL6" s="11"/>
+    </row>
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="5">
+        <v>20</v>
+      </c>
+      <c r="F7">
+        <v>40</v>
+      </c>
+      <c r="G7">
+        <f>_xll.acq_options_bachelier_price($C$4,F7,$C$6,$C$8,$C$7,TRUE)</f>
+        <v>36.668203786672954</v>
+      </c>
+      <c r="H7">
+        <f>_xll.acq_options_bachelier_price($C$4,F7,$C$6,$C$8,$C$7,FALSE)</f>
+        <v>1.3683276832891289</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="12">
+        <v>6</v>
+      </c>
+      <c r="M7">
+        <f>_xll.acq_options_bachelier_price($C$4,$C$5,$C$6,$C$8,L7,TRUE)</f>
+        <v>0.6285859064429673</v>
+      </c>
+      <c r="N7">
+        <f>_xll.acq_options_bachelier_price($C$4,$C$5,$C$6,$C$8,L7,FALSE)</f>
+        <v>9.4535549322889221</v>
+      </c>
+      <c r="O7">
+        <f>_xll.acq_options_bachelier_vol($C$4,$C$5,$C$6,$C$8,M7,TRUE)</f>
+        <v>6.000000000000262</v>
+      </c>
+      <c r="P7">
+        <f>_xll.acq_options_bachelier_vol($C$4,$C$5,$C$6,$C$8,N7,FALSE)</f>
+        <v>6.0000000000002647</v>
+      </c>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="13">
+        <v>40</v>
+      </c>
+      <c r="S7">
+        <f>_xll.acq_options_bachelier_greeks(S$3,$R7,$C$5,$C$6,$C$8,$C$7,TRUE)</f>
+        <v>0.67801390110697701</v>
+      </c>
+      <c r="T7">
+        <f>_xll.acq_options_bachelier_greeks(T$3,$R7,$C$5,$C$6,$C$8,$C$7,TRUE)</f>
+        <v>5.0234502680799265E-2</v>
+      </c>
+      <c r="U7">
+        <f>_xll.acq_options_bachelier_greeks(U$3,$R7,$C$5,$C$6,$C$8,$C$7,TRUE)</f>
+        <v>3.1897390351469396E-3</v>
+      </c>
+      <c r="V7">
+        <f>_xll.acq_options_bachelier_greeks(V$3,$R7,$C$5,$C$6,$C$8,$C$7,TRUE)</f>
+        <v>0.15948695175734701</v>
+      </c>
+      <c r="W7">
+        <f>_xll.acq_options_bachelier_greeks(W$3,$R7,$C$5,$C$6,$C$8,$C$7,TRUE)</f>
+        <v>1.9935868969668372E-2</v>
+      </c>
+      <c r="X7">
+        <f>_xll.acq_options_bachelier_greeks(X$3,$R7,$C$5,$C$6,$C$8,$C$7,TRUE)</f>
+        <v>7.97434758786735E-3</v>
+      </c>
+      <c r="Y7">
+        <f>_xll.acq_options_bachelier_greeks(Y$3,$R7,$C$5,$C$6,$C$8,$C$7,TRUE)</f>
+        <v>-1.6950347527674425</v>
+      </c>
+      <c r="Z7">
+        <f>_xll.acq_options_bachelier_greeks(Z$3,$R7,$C$5,$C$6,$C$8,$C$7,TRUE)</f>
+        <v>-0.60404711197403915</v>
+      </c>
+      <c r="AB7" s="15">
+        <f>AB6+AC9</f>
+        <v>80.000100000000003</v>
+      </c>
+      <c r="AC7" s="13">
+        <f>_xll.acq_options_bachelier_greeks(AC$3,$AB7,$C$5,$C$6,$C$8,$C$7,$C$9)</f>
+        <v>7.2729031075399622</v>
+      </c>
+      <c r="AD7" s="13">
+        <f>_xll.acq_options_bachelier_greeks(AD$3,$AB7,$C$5,$C$6,$C$8,$C$7,$C$9)</f>
+        <v>0.33174472068957045</v>
+      </c>
+      <c r="AE7" s="13">
+        <f>_xll.acq_options_bachelier_greeks(AE$3,$AB7,$C$5,$C$6,$C$8,$C$7,$C$9)</f>
+        <v>1.0590317139963593E-2</v>
+      </c>
+      <c r="AH7" s="11"/>
+      <c r="AI7" s="11"/>
+    </row>
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="F8">
+        <v>50</v>
+      </c>
+      <c r="G8">
+        <f>_xll.acq_options_bachelier_price($C$4,F8,$C$6,$C$8,$C$7,TRUE)</f>
+        <v>29.036244876207263</v>
+      </c>
+      <c r="H8">
+        <f>_xll.acq_options_bachelier_price($C$4,F8,$C$6,$C$8,$C$7,FALSE)</f>
+        <v>2.5613377986694004</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="12">
+        <v>8</v>
+      </c>
+      <c r="M8">
+        <f>_xll.acq_options_bachelier_price($C$4,$C$5,$C$6,$C$8,L8,TRUE)</f>
+        <v>1.3642959734368496</v>
+      </c>
+      <c r="N8">
+        <f>_xll.acq_options_bachelier_price($C$4,$C$5,$C$6,$C$8,L8,FALSE)</f>
+        <v>10.189264999282804</v>
+      </c>
+      <c r="O8">
+        <f>_xll.acq_options_bachelier_vol($C$4,$C$5,$C$6,$C$8,M8,TRUE)</f>
+        <v>8</v>
+      </c>
+      <c r="P8">
+        <f>_xll.acq_options_bachelier_vol($C$4,$C$5,$C$6,$C$8,N8,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="13">
+        <v>50</v>
+      </c>
+      <c r="S8">
+        <f>_xll.acq_options_bachelier_greeks(S$3,$R8,$C$5,$C$6,$C$8,$C$7,TRUE)</f>
+        <v>1.3683276832891289</v>
+      </c>
+      <c r="T8">
+        <f>_xll.acq_options_bachelier_greeks(T$3,$R8,$C$5,$C$6,$C$8,$C$7,TRUE)</f>
+        <v>9.0854472851636808E-2</v>
+      </c>
+      <c r="U8">
+        <f>_xll.acq_options_bachelier_greeks(U$3,$R8,$C$5,$C$6,$C$8,$C$7,TRUE)</f>
+        <v>5.002506597354601E-3</v>
+      </c>
+      <c r="V8">
+        <f>_xll.acq_options_bachelier_greeks(V$3,$R8,$C$5,$C$6,$C$8,$C$7,TRUE)</f>
+        <v>0.25012532986773006</v>
+      </c>
+      <c r="W8">
+        <f>_xll.acq_options_bachelier_greeks(W$3,$R8,$C$5,$C$6,$C$8,$C$7,TRUE)</f>
+        <v>2.0010026389418397E-2</v>
+      </c>
+      <c r="X8">
+        <f>_xll.acq_options_bachelier_greeks(X$3,$R8,$C$5,$C$6,$C$8,$C$7,TRUE)</f>
+        <v>1.0005013194709202E-2</v>
+      </c>
+      <c r="Y8">
+        <f>_xll.acq_options_bachelier_greeks(Y$3,$R8,$C$5,$C$6,$C$8,$C$7,TRUE)</f>
+        <v>-3.4208192082228224</v>
+      </c>
+      <c r="Z8">
+        <f>_xll.acq_options_bachelier_greeks(Z$3,$R8,$C$5,$C$6,$C$8,$C$7,TRUE)</f>
+        <v>-0.93208493530646375</v>
+      </c>
+      <c r="AD8" s="11"/>
+      <c r="AE8" s="11"/>
+      <c r="AH8" s="11"/>
+      <c r="AI8" s="11"/>
+    </row>
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>60</v>
+      </c>
+      <c r="G9">
+        <f>_xll.acq_options_bachelier_price($C$4,F9,$C$6,$C$8,$C$7,TRUE)</f>
+        <v>22.113553006114746</v>
+      </c>
+      <c r="H9">
+        <f>_xll.acq_options_bachelier_price($C$4,F9,$C$6,$C$8,$C$7,FALSE)</f>
+        <v>4.4636149544228356</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L9" s="12">
+        <v>10</v>
+      </c>
+      <c r="M9">
+        <f>_xll.acq_options_bachelier_price($C$4,$C$5,$C$6,$C$8,L9,TRUE)</f>
+        <v>2.2318074772114178</v>
+      </c>
+      <c r="N9">
+        <f>_xll.acq_options_bachelier_price($C$4,$C$5,$C$6,$C$8,L9,FALSE)</f>
+        <v>11.056776503057373</v>
+      </c>
+      <c r="O9">
+        <f>_xll.acq_options_bachelier_vol($C$4,$C$5,$C$6,$C$8,M9,TRUE)</f>
+        <v>10</v>
+      </c>
+      <c r="P9">
+        <f>_xll.acq_options_bachelier_vol($C$4,$C$5,$C$6,$C$8,N9,FALSE)</f>
+        <v>10.000000000000004</v>
+      </c>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="13">
+        <v>60</v>
+      </c>
+      <c r="S9">
+        <f>_xll.acq_options_bachelier_greeks(S$3,$R9,$C$5,$C$6,$C$8,$C$7,TRUE)</f>
+        <v>2.5613377986694004</v>
+      </c>
+      <c r="T9">
+        <f>_xll.acq_options_bachelier_greeks(T$3,$R9,$C$5,$C$6,$C$8,$C$7,TRUE)</f>
+        <v>0.15125189917533968</v>
+      </c>
+      <c r="U9">
+        <f>_xll.acq_options_bachelier_greeks(U$3,$R9,$C$5,$C$6,$C$8,$C$7,TRUE)</f>
+        <v>7.0988947739295885E-3</v>
+      </c>
+      <c r="V9">
+        <f>_xll.acq_options_bachelier_greeks(V$3,$R9,$C$5,$C$6,$C$8,$C$7,TRUE)</f>
+        <v>0.35494473869647947</v>
+      </c>
+      <c r="W9">
+        <f>_xll.acq_options_bachelier_greeks(W$3,$R9,$C$5,$C$6,$C$8,$C$7,TRUE)</f>
+        <v>1.5972513241341576E-2</v>
+      </c>
+      <c r="X9">
+        <f>_xll.acq_options_bachelier_greeks(X$3,$R9,$C$5,$C$6,$C$8,$C$7,TRUE)</f>
+        <v>1.0648342160894383E-2</v>
+      </c>
+      <c r="Y9">
+        <f>_xll.acq_options_bachelier_greeks(Y$3,$R9,$C$5,$C$6,$C$8,$C$7,TRUE)</f>
+        <v>-6.4033444966735003</v>
+      </c>
+      <c r="Z9">
+        <f>_xll.acq_options_bachelier_greeks(Z$3,$R9,$C$5,$C$6,$C$8,$C$7,TRUE)</f>
+        <v>-1.2917120648524476</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC9" s="14">
+        <v>1E-4</v>
+      </c>
+      <c r="AD9" s="17">
+        <f>_xll.acq_diff1_c3pt(AB5:AB7,AC5:AC7)</f>
+        <v>0.33174366165909031</v>
+      </c>
+      <c r="AE9" s="17">
+        <f>_xll.acq_diff2_c3pt(AB5:AB7,AC5:AC7)</f>
+        <v>1.0590284204784852E-2</v>
+      </c>
+      <c r="AF9" s="17">
+        <f>_xll.acq_diff1_c3pt(AB5:AB7,AD5:AD7)</f>
+        <v>1.0590306549411E-2</v>
+      </c>
+      <c r="AH9" s="11"/>
+      <c r="AI9" s="11"/>
+    </row>
+    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <v>70</v>
+      </c>
+      <c r="G10">
+        <f>_xll.acq_options_bachelier_price($C$4,F10,$C$6,$C$8,$C$7,TRUE)</f>
+        <v>16.097838958966797</v>
+      </c>
+      <c r="H10">
+        <f>_xll.acq_options_bachelier_price($C$4,F10,$C$6,$C$8,$C$7,FALSE)</f>
+        <v>7.2728699331208437</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L10" s="12">
+        <v>12</v>
+      </c>
+      <c r="M10">
+        <f>_xll.acq_options_bachelier_price($C$4,$C$5,$C$6,$C$8,L10,TRUE)</f>
+        <v>3.1743648312387092</v>
+      </c>
+      <c r="N10">
+        <f>_xll.acq_options_bachelier_price($C$4,$C$5,$C$6,$C$8,L10,FALSE)</f>
+        <v>11.999333857084665</v>
+      </c>
+      <c r="O10">
+        <f>_xll.acq_options_bachelier_vol($C$4,$C$5,$C$6,$C$8,M10,TRUE)</f>
+        <v>11.999999999991012</v>
+      </c>
+      <c r="P10">
+        <f>_xll.acq_options_bachelier_vol($C$4,$C$5,$C$6,$C$8,N10,FALSE)</f>
+        <v>11.999999999991015</v>
+      </c>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="13">
+        <v>70</v>
+      </c>
+      <c r="S10">
+        <f>_xll.acq_options_bachelier_greeks(S$3,$R10,$C$5,$C$6,$C$8,$C$7,TRUE)</f>
+        <v>4.4636149544228356</v>
+      </c>
+      <c r="T10">
+        <f>_xll.acq_options_bachelier_greeks(T$3,$R10,$C$5,$C$6,$C$8,$C$7,TRUE)</f>
+        <v>0.2325773182847268</v>
+      </c>
+      <c r="U10">
+        <f>_xll.acq_options_bachelier_greeks(U$3,$R10,$C$5,$C$6,$C$8,$C$7,TRUE)</f>
+        <v>9.1151613201173702E-3</v>
+      </c>
+      <c r="V10">
+        <f>_xll.acq_options_bachelier_greeks(V$3,$R10,$C$5,$C$6,$C$8,$C$7,TRUE)</f>
+        <v>0.45575806600586855</v>
+      </c>
+      <c r="W10">
+        <f>_xll.acq_options_bachelier_greeks(W$3,$R10,$C$5,$C$6,$C$8,$C$7,TRUE)</f>
+        <v>9.1151613201173702E-3</v>
+      </c>
+      <c r="X10">
+        <f>_xll.acq_options_bachelier_greeks(X$3,$R10,$C$5,$C$6,$C$8,$C$7,TRUE)</f>
+        <v>9.1151613201173702E-3</v>
+      </c>
+      <c r="Y10">
+        <f>_xll.acq_options_bachelier_greeks(Y$3,$R10,$C$5,$C$6,$C$8,$C$7,TRUE)</f>
+        <v>-11.15903738605709</v>
+      </c>
+      <c r="Z10">
+        <f>_xll.acq_options_bachelier_greeks(Z$3,$R10,$C$5,$C$6,$C$8,$C$7,TRUE)</f>
+        <v>-1.5998515163023321</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD10" s="36">
+        <f>AD6-AD9</f>
+        <v>-7.0438099797343057E-13</v>
+      </c>
+      <c r="AE10" s="36">
+        <f>AE6-AE9</f>
+        <v>2.2344919848454881E-8</v>
+      </c>
+      <c r="AF10" s="36">
+        <f>AE6-AF9</f>
+        <v>2.9370082754720528E-13</v>
+      </c>
+      <c r="AH10" s="11"/>
+      <c r="AI10" s="11"/>
+    </row>
+    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <v>80</v>
+      </c>
+      <c r="G11">
+        <f>_xll.acq_options_bachelier_price($C$4,F11,$C$6,$C$8,$C$7,TRUE)</f>
+        <v>11.13328317746625</v>
+      </c>
+      <c r="H11">
+        <f>_xll.acq_options_bachelier_price($C$4,F11,$C$6,$C$8,$C$7,FALSE)</f>
+        <v>11.13328317746625</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="12">
+        <v>14</v>
+      </c>
+      <c r="M11">
+        <f>_xll.acq_options_bachelier_price($C$4,$C$5,$C$6,$C$8,L11,TRUE)</f>
+        <v>4.1627948850277594</v>
+      </c>
+      <c r="N11">
+        <f>_xll.acq_options_bachelier_price($C$4,$C$5,$C$6,$C$8,L11,FALSE)</f>
+        <v>12.987763910873714</v>
+      </c>
+      <c r="O11">
+        <f>_xll.acq_options_bachelier_vol($C$4,$C$5,$C$6,$C$8,M11,TRUE)</f>
+        <v>14</v>
+      </c>
+      <c r="P11">
+        <f>_xll.acq_options_bachelier_vol($C$4,$C$5,$C$6,$C$8,N11,FALSE)</f>
+        <v>14</v>
+      </c>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="13">
+        <v>80</v>
+      </c>
+      <c r="S11">
+        <f>_xll.acq_options_bachelier_greeks(S$3,$R11,$C$5,$C$6,$C$8,$C$7,TRUE)</f>
+        <v>7.2728699331208437</v>
+      </c>
+      <c r="T11">
+        <f>_xll.acq_options_bachelier_greeks(T$3,$R11,$C$5,$C$6,$C$8,$C$7,TRUE)</f>
+        <v>0.33174366165838592</v>
+      </c>
+      <c r="U11">
+        <f>_xll.acq_options_bachelier_greeks(U$3,$R11,$C$5,$C$6,$C$8,$C$7,TRUE)</f>
+        <v>1.0590306549704701E-2</v>
+      </c>
+      <c r="V11">
+        <f>_xll.acq_options_bachelier_greeks(V$3,$R11,$C$5,$C$6,$C$8,$C$7,TRUE)</f>
+        <v>0.52951532748523511</v>
+      </c>
+      <c r="W11">
+        <f>_xll.acq_options_bachelier_greeks(W$3,$R11,$C$5,$C$6,$C$8,$C$7,TRUE)</f>
+        <v>2.6475766374261748E-3</v>
+      </c>
+      <c r="X11">
+        <f>_xll.acq_options_bachelier_greeks(X$3,$R11,$C$5,$C$6,$C$8,$C$7,TRUE)</f>
+        <v>5.2951532748523504E-3</v>
+      </c>
+      <c r="Y11">
+        <f>_xll.acq_options_bachelier_greeks(Y$3,$R11,$C$5,$C$6,$C$8,$C$7,TRUE)</f>
+        <v>-18.182174832802108</v>
+      </c>
+      <c r="Z11">
+        <f>_xll.acq_options_bachelier_greeks(Z$3,$R11,$C$5,$C$6,$C$8,$C$7,TRUE)</f>
+        <v>-1.7544178132848978</v>
+      </c>
+      <c r="AD11" s="11"/>
+      <c r="AE11" s="11"/>
+      <c r="AH11" s="11"/>
+      <c r="AI11" s="11"/>
+    </row>
+    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <v>90</v>
+      </c>
+      <c r="G12">
+        <f>_xll.acq_options_bachelier_price($C$4,F12,$C$6,$C$8,$C$7,TRUE)</f>
+        <v>7.2728699331208437</v>
+      </c>
+      <c r="H12">
+        <f>_xll.acq_options_bachelier_price($C$4,F12,$C$6,$C$8,$C$7,FALSE)</f>
+        <v>16.097838958966797</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="12">
+        <v>16</v>
+      </c>
+      <c r="M12">
+        <f>_xll.acq_options_bachelier_price($C$4,$C$5,$C$6,$C$8,L12,TRUE)</f>
+        <v>5.1810515543758058</v>
+      </c>
+      <c r="N12">
+        <f>_xll.acq_options_bachelier_price($C$4,$C$5,$C$6,$C$8,L12,FALSE)</f>
+        <v>14.00602058022176</v>
+      </c>
+      <c r="O12">
+        <f>_xll.acq_options_bachelier_vol($C$4,$C$5,$C$6,$C$8,M12,TRUE)</f>
+        <v>16</v>
+      </c>
+      <c r="P12">
+        <f>_xll.acq_options_bachelier_vol($C$4,$C$5,$C$6,$C$8,N12,FALSE)</f>
+        <v>16</v>
+      </c>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="13">
+        <v>90</v>
+      </c>
+      <c r="S12">
+        <f>_xll.acq_options_bachelier_greeks(S$3,$R12,$C$5,$C$6,$C$8,$C$7,TRUE)</f>
+        <v>11.13328317746625</v>
+      </c>
+      <c r="T12">
+        <f>_xll.acq_options_bachelier_greeks(T$3,$R12,$C$5,$C$6,$C$8,$C$7,TRUE)</f>
+        <v>0.44124845129229773</v>
+      </c>
+      <c r="U12">
+        <f>_xll.acq_options_bachelier_greeks(U$3,$R12,$C$5,$C$6,$C$8,$C$7,TRUE)</f>
+        <v>1.1133283177466249E-2</v>
+      </c>
+      <c r="V12">
+        <f>_xll.acq_options_bachelier_greeks(V$3,$R12,$C$5,$C$6,$C$8,$C$7,TRUE)</f>
+        <v>0.55666415887331255</v>
+      </c>
+      <c r="W12">
+        <f>_xll.acq_options_bachelier_greeks(W$3,$R12,$C$5,$C$6,$C$8,$C$7,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <f>_xll.acq_options_bachelier_greeks(X$3,$R12,$C$5,$C$6,$C$8,$C$7,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <f>_xll.acq_options_bachelier_greeks(Y$3,$R12,$C$5,$C$6,$C$8,$C$7,TRUE)</f>
+        <v>-27.833207943665627</v>
+      </c>
+      <c r="Z12">
+        <f>_xll.acq_options_bachelier_greeks(Z$3,$R12,$C$5,$C$6,$C$8,$C$7,TRUE)</f>
+        <v>-1.6699924766199372</v>
+      </c>
+      <c r="AD12" s="11"/>
+      <c r="AE12" s="11"/>
+      <c r="AH12" s="11"/>
+      <c r="AI12" s="11"/>
+      <c r="AL12" s="11"/>
+    </row>
+    <row r="13" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F13">
+        <v>100</v>
+      </c>
+      <c r="G13">
+        <f>_xll.acq_options_bachelier_price($C$4,F13,$C$6,$C$8,$C$7,TRUE)</f>
+        <v>4.4636149544228356</v>
+      </c>
+      <c r="H13">
+        <f>_xll.acq_options_bachelier_price($C$4,F13,$C$6,$C$8,$C$7,FALSE)</f>
+        <v>22.113553006114746</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="12">
+        <v>18</v>
+      </c>
+      <c r="M13">
+        <f>_xll.acq_options_bachelier_price($C$4,$C$5,$C$6,$C$8,L13,TRUE)</f>
+        <v>6.2197004502263091</v>
+      </c>
+      <c r="N13">
+        <f>_xll.acq_options_bachelier_price($C$4,$C$5,$C$6,$C$8,L13,FALSE)</f>
+        <v>15.044669476072263</v>
+      </c>
+      <c r="O13">
+        <f>_xll.acq_options_bachelier_vol($C$4,$C$5,$C$6,$C$8,M13,TRUE)</f>
+        <v>17.999999999999996</v>
+      </c>
+      <c r="P13">
+        <f>_xll.acq_options_bachelier_vol($C$4,$C$5,$C$6,$C$8,N13,FALSE)</f>
+        <v>17.999999999999996</v>
+      </c>
+      <c r="R13" s="13">
+        <v>100</v>
+      </c>
+      <c r="S13">
+        <f>_xll.acq_options_bachelier_greeks(S$3,$R13,$C$5,$C$6,$C$8,$C$7,TRUE)</f>
+        <v>16.097838958966797</v>
+      </c>
+      <c r="T13">
+        <f>_xll.acq_options_bachelier_greeks(T$3,$R13,$C$5,$C$6,$C$8,$C$7,TRUE)</f>
+        <v>0.55075324092620948</v>
+      </c>
+      <c r="U13">
+        <f>_xll.acq_options_bachelier_greeks(U$3,$R13,$C$5,$C$6,$C$8,$C$7,TRUE)</f>
+        <v>1.0590306549704701E-2</v>
+      </c>
+      <c r="V13">
+        <f>_xll.acq_options_bachelier_greeks(V$3,$R13,$C$5,$C$6,$C$8,$C$7,TRUE)</f>
+        <v>0.52951532748523511</v>
+      </c>
+      <c r="W13">
+        <f>_xll.acq_options_bachelier_greeks(W$3,$R13,$C$5,$C$6,$C$8,$C$7,TRUE)</f>
+        <v>2.6475766374261748E-3</v>
+      </c>
+      <c r="X13">
+        <f>_xll.acq_options_bachelier_greeks(X$3,$R13,$C$5,$C$6,$C$8,$C$7,TRUE)</f>
+        <v>-5.2951532748523504E-3</v>
+      </c>
+      <c r="Y13">
+        <f>_xll.acq_options_bachelier_greeks(Y$3,$R13,$C$5,$C$6,$C$8,$C$7,TRUE)</f>
+        <v>-40.244597397416996</v>
+      </c>
+      <c r="Z13">
+        <f>_xll.acq_options_bachelier_greeks(Z$3,$R13,$C$5,$C$6,$C$8,$C$7,TRUE)</f>
+        <v>-1.3131693619926001</v>
+      </c>
+      <c r="AB13" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC13" s="3"/>
+      <c r="AD13" s="3"/>
+      <c r="AE13" s="3"/>
+      <c r="AH13" s="11"/>
+      <c r="AI13" s="11"/>
+      <c r="AL13" s="11"/>
+    </row>
+    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <v>110</v>
+      </c>
+      <c r="G14">
+        <f>_xll.acq_options_bachelier_price($C$4,F14,$C$6,$C$8,$C$7,TRUE)</f>
+        <v>2.5613377986694004</v>
+      </c>
+      <c r="H14">
+        <f>_xll.acq_options_bachelier_price($C$4,F14,$C$6,$C$8,$C$7,FALSE)</f>
+        <v>29.036244876207263</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="12">
+        <v>20</v>
+      </c>
+      <c r="M14">
+        <f>_xll.acq_options_bachelier_price($C$4,$C$5,$C$6,$C$8,L14,TRUE)</f>
+        <v>7.2728699331208437</v>
+      </c>
+      <c r="N14">
+        <f>_xll.acq_options_bachelier_price($C$4,$C$5,$C$6,$C$8,L14,FALSE)</f>
+        <v>16.097838958966797</v>
+      </c>
+      <c r="O14">
+        <f>_xll.acq_options_bachelier_vol($C$4,$C$5,$C$6,$C$8,M14,TRUE)</f>
+        <v>19.999999999999979</v>
+      </c>
+      <c r="P14">
+        <f>_xll.acq_options_bachelier_vol($C$4,$C$5,$C$6,$C$8,N14,FALSE)</f>
+        <v>19.999999999999972</v>
+      </c>
+      <c r="R14" s="13">
+        <v>110</v>
+      </c>
+      <c r="S14">
+        <f>_xll.acq_options_bachelier_greeks(S$3,$R14,$C$5,$C$6,$C$8,$C$7,TRUE)</f>
+        <v>22.113553006114746</v>
+      </c>
+      <c r="T14">
+        <f>_xll.acq_options_bachelier_greeks(T$3,$R14,$C$5,$C$6,$C$8,$C$7,TRUE)</f>
+        <v>0.64991958429986862</v>
+      </c>
+      <c r="U14">
+        <f>_xll.acq_options_bachelier_greeks(U$3,$R14,$C$5,$C$6,$C$8,$C$7,TRUE)</f>
+        <v>9.1151613201173702E-3</v>
+      </c>
+      <c r="V14">
+        <f>_xll.acq_options_bachelier_greeks(V$3,$R14,$C$5,$C$6,$C$8,$C$7,TRUE)</f>
+        <v>0.45575806600586855</v>
+      </c>
+      <c r="W14">
+        <f>_xll.acq_options_bachelier_greeks(W$3,$R14,$C$5,$C$6,$C$8,$C$7,TRUE)</f>
+        <v>9.1151613201173702E-3</v>
+      </c>
+      <c r="X14">
+        <f>_xll.acq_options_bachelier_greeks(X$3,$R14,$C$5,$C$6,$C$8,$C$7,TRUE)</f>
+        <v>-9.1151613201173702E-3</v>
+      </c>
+      <c r="Y14">
+        <f>_xll.acq_options_bachelier_greeks(Y$3,$R14,$C$5,$C$6,$C$8,$C$7,TRUE)</f>
+        <v>-55.283882515286862</v>
+      </c>
+      <c r="Z14">
+        <f>_xll.acq_options_bachelier_greeks(Z$3,$R14,$C$5,$C$6,$C$8,$C$7,TRUE)</f>
+        <v>-0.71735461371773668</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>99</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AL14" s="11"/>
+    </row>
+    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <v>120</v>
+      </c>
+      <c r="G15">
+        <f>_xll.acq_options_bachelier_price($C$4,F15,$C$6,$C$8,$C$7,TRUE)</f>
+        <v>1.3683276832891289</v>
+      </c>
+      <c r="H15">
+        <f>_xll.acq_options_bachelier_price($C$4,F15,$C$6,$C$8,$C$7,FALSE)</f>
+        <v>36.668203786672954</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="12">
+        <v>22</v>
+      </c>
+      <c r="M15">
+        <f>_xll.acq_options_bachelier_price($C$4,$C$5,$C$6,$C$8,L15,TRUE)</f>
+        <v>8.3367286508944236</v>
+      </c>
+      <c r="N15">
+        <f>_xll.acq_options_bachelier_price($C$4,$C$5,$C$6,$C$8,L15,FALSE)</f>
+        <v>17.161697676740378</v>
+      </c>
+      <c r="O15">
+        <f>_xll.acq_options_bachelier_vol($C$4,$C$5,$C$6,$C$8,M15,TRUE)</f>
+        <v>22</v>
+      </c>
+      <c r="P15">
+        <f>_xll.acq_options_bachelier_vol($C$4,$C$5,$C$6,$C$8,N15,FALSE)</f>
+        <v>21.999999999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>130</v>
+      </c>
+      <c r="G16">
+        <f>_xll.acq_options_bachelier_price($C$4,F16,$C$6,$C$8,$C$7,TRUE)</f>
+        <v>0.67801390110697701</v>
+      </c>
+      <c r="H16">
+        <f>_xll.acq_options_bachelier_price($C$4,F16,$C$6,$C$8,$C$7,FALSE)</f>
+        <v>44.802859030336755</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="12">
+        <v>24</v>
+      </c>
+      <c r="M16">
+        <f>_xll.acq_options_bachelier_price($C$4,$C$5,$C$6,$C$8,L16,TRUE)</f>
+        <v>9.4086760966105665</v>
+      </c>
+      <c r="N16">
+        <f>_xll.acq_options_bachelier_price($C$4,$C$5,$C$6,$C$8,L16,FALSE)</f>
+        <v>18.233645122456522</v>
+      </c>
+      <c r="O16">
+        <f>_xll.acq_options_bachelier_vol($C$4,$C$5,$C$6,$C$8,M16,TRUE)</f>
+        <v>23.999999999503142</v>
+      </c>
+      <c r="P16">
+        <f>_xll.acq_options_bachelier_vol($C$4,$C$5,$C$6,$C$8,N16,FALSE)</f>
+        <v>23.999999999503146</v>
+      </c>
+      <c r="AB16" s="15">
+        <f>AB17-AC20</f>
+        <v>19.9999</v>
+      </c>
+      <c r="AC16">
+        <f>_xll.acq_options_bachelier_greeks(AC$14,$C$4,$C$5,$C$6,$C$8,$AB16,$C$9)</f>
+        <v>7.2728169816013324</v>
+      </c>
+      <c r="AD16">
+        <f>_xll.acq_options_bachelier_greeks(AD$14,$C$4,$C$5,$C$6,$C$8,$AB16,$C$9)</f>
+        <v>0.52951506272565185</v>
+      </c>
+      <c r="AE16">
+        <f>_xll.acq_options_bachelier_greeks(AE$14,$C$4,$C$5,$C$6,$C$8,$AB16,$C$9)</f>
+        <v>2.6476150276551033E-3</v>
+      </c>
+      <c r="AF16" s="11"/>
+    </row>
+    <row r="17" spans="6:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F17">
+        <v>140</v>
+      </c>
+      <c r="G17">
+        <f>_xll.acq_options_bachelier_price($C$4,F17,$C$6,$C$8,$C$7,TRUE)</f>
+        <v>0.31061055501403678</v>
+      </c>
+      <c r="H17">
+        <f>_xll.acq_options_bachelier_price($C$4,F17,$C$6,$C$8,$C$7,FALSE)</f>
+        <v>53.260424710089758</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="12">
+        <v>26</v>
+      </c>
+      <c r="M17">
+        <f>_xll.acq_options_bachelier_price($C$4,$C$5,$C$6,$C$8,L17,TRUE)</f>
+        <v>10.486887789415132</v>
+      </c>
+      <c r="N17">
+        <f>_xll.acq_options_bachelier_price($C$4,$C$5,$C$6,$C$8,L17,FALSE)</f>
+        <v>19.311856815261084</v>
+      </c>
+      <c r="O17">
+        <f>_xll.acq_options_bachelier_vol($C$4,$C$5,$C$6,$C$8,M17,TRUE)</f>
+        <v>25.999999999962558</v>
+      </c>
+      <c r="P17">
+        <f>_xll.acq_options_bachelier_vol($C$4,$C$5,$C$6,$C$8,N17,FALSE)</f>
+        <v>25.999999999962554</v>
+      </c>
+      <c r="S17" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="T17" s="44"/>
+      <c r="U17" s="44"/>
+      <c r="V17" s="44"/>
+      <c r="W17" s="44"/>
+      <c r="X17" s="44"/>
+      <c r="Y17" s="44"/>
+      <c r="Z17" s="44"/>
+      <c r="AB17" s="16">
+        <f>C7</f>
+        <v>20</v>
+      </c>
+      <c r="AC17">
+        <f>_xll.acq_options_bachelier_greeks(AC$14,$C$4,$C$5,$C$6,$C$8,$AB17,$C$9)</f>
+        <v>7.2728699331208437</v>
+      </c>
+      <c r="AD17">
+        <f>_xll.acq_options_bachelier_greeks(AD$14,$C$4,$C$5,$C$6,$C$8,$AB17,$C$9)</f>
+        <v>0.52951532748523511</v>
+      </c>
+      <c r="AE17">
+        <f>_xll.acq_options_bachelier_greeks(AE$14,$C$4,$C$5,$C$6,$C$8,$AB17,$C$9)</f>
+        <v>2.6475766374261748E-3</v>
+      </c>
+      <c r="AF17" s="11"/>
+    </row>
+    <row r="18" spans="6:43" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <v>150</v>
+      </c>
+      <c r="G18">
+        <f>_xll.acq_options_bachelier_price($C$4,F18,$C$6,$C$8,$C$7,TRUE)</f>
+        <v>0.13119766392999382</v>
+      </c>
+      <c r="H18">
+        <f>_xll.acq_options_bachelier_price($C$4,F18,$C$6,$C$8,$C$7,FALSE)</f>
+        <v>61.905980844851676</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="12">
+        <v>28</v>
+      </c>
+      <c r="M18">
+        <f>_xll.acq_options_bachelier_price($C$4,$C$5,$C$6,$C$8,L18,TRUE)</f>
+        <v>11.570047228425405</v>
+      </c>
+      <c r="N18">
+        <f>_xll.acq_options_bachelier_price($C$4,$C$5,$C$6,$C$8,L18,FALSE)</f>
+        <v>20.395016254271361</v>
+      </c>
+      <c r="O18">
+        <f>_xll.acq_options_bachelier_vol($C$4,$C$5,$C$6,$C$8,M18,TRUE)</f>
+        <v>27.999999999998519</v>
+      </c>
+      <c r="P18">
+        <f>_xll.acq_options_bachelier_vol($C$4,$C$5,$C$6,$C$8,N18,FALSE)</f>
+        <v>27.999999999998515</v>
+      </c>
+      <c r="R18" t="s">
+        <v>109</v>
+      </c>
+      <c r="S18" t="s">
+        <v>99</v>
+      </c>
+      <c r="T18" t="s">
+        <v>100</v>
+      </c>
+      <c r="U18" t="s">
+        <v>101</v>
+      </c>
+      <c r="V18" t="s">
+        <v>102</v>
+      </c>
+      <c r="W18" t="s">
+        <v>103</v>
+      </c>
+      <c r="X18" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB18" s="15">
+        <f>AB17+AC20</f>
+        <v>20.0001</v>
+      </c>
+      <c r="AC18">
+        <f>_xll.acq_options_bachelier_greeks(AC$14,$C$4,$C$5,$C$6,$C$8,$AB18,$C$9)</f>
+        <v>7.272922884666829</v>
+      </c>
+      <c r="AD18">
+        <f>_xll.acq_options_bachelier_greeks(AD$14,$C$4,$C$5,$C$6,$C$8,$AB18,$C$9)</f>
+        <v>0.52951559224097933</v>
+      </c>
+      <c r="AE18">
+        <f>_xll.acq_options_bachelier_greeks(AE$14,$C$4,$C$5,$C$6,$C$8,$AB18,$C$9)</f>
+        <v>2.647538247932612E-3</v>
+      </c>
+      <c r="AH18" s="11"/>
+      <c r="AI18" s="11"/>
+      <c r="AK18" s="11"/>
+      <c r="AL18" s="11"/>
+      <c r="AM18" s="11"/>
+      <c r="AN18" s="11"/>
+      <c r="AO18" s="11"/>
+      <c r="AP18" s="11"/>
+      <c r="AQ18" s="11"/>
+    </row>
+    <row r="19" spans="6:43" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <v>160</v>
+      </c>
+      <c r="G19">
+        <f>_xll.acq_options_bachelier_price($C$4,F19,$C$6,$C$8,$C$7,TRUE)</f>
+        <v>5.0973689315626326E-2</v>
+      </c>
+      <c r="H19">
+        <f>_xll.acq_options_bachelier_price($C$4,F19,$C$6,$C$8,$C$7,FALSE)</f>
+        <v>70.650725896083259</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="12">
+        <v>30</v>
+      </c>
+      <c r="M19">
+        <f>_xll.acq_options_bachelier_price($C$4,$C$5,$C$6,$C$8,L19,TRUE)</f>
+        <v>12.657181297760285</v>
+      </c>
+      <c r="N19">
+        <f>_xll.acq_options_bachelier_price($C$4,$C$5,$C$6,$C$8,L19,FALSE)</f>
+        <v>21.482150323606241</v>
+      </c>
+      <c r="O19">
+        <f>_xll.acq_options_bachelier_vol($C$4,$C$5,$C$6,$C$8,M19,TRUE)</f>
+        <v>29.999999999999986</v>
+      </c>
+      <c r="P19">
+        <f>_xll.acq_options_bachelier_vol($C$4,$C$5,$C$6,$C$8,N19,FALSE)</f>
+        <v>29.999999999999989</v>
+      </c>
+      <c r="R19" s="13">
+        <v>10</v>
+      </c>
+      <c r="S19">
+        <f>_xll.acq_options_bachelier_greeks(S$3,$R19,$C$5,$C$6,$C$8,$C$7,FALSE)</f>
+        <v>70.650725896083259</v>
+      </c>
+      <c r="T19">
+        <f>_xll.acq_options_bachelier_greeks(T$3,$R19,$C$5,$C$6,$C$8,$C$7,FALSE)</f>
+        <v>-0.8774613592031808</v>
+      </c>
+      <c r="U19">
+        <f>_xll.acq_options_bachelier_greeks(U$3,$R19,$C$5,$C$6,$C$8,$C$7,FALSE)</f>
+        <v>4.5381715982879286E-4</v>
+      </c>
+      <c r="V19">
+        <f>_xll.acq_options_bachelier_greeks(V$3,$R19,$C$5,$C$6,$C$8,$C$7,FALSE)</f>
+        <v>2.2690857991439647E-2</v>
+      </c>
+      <c r="W19">
+        <f>_xll.acq_options_bachelier_greeks(W$3,$R19,$C$5,$C$6,$C$8,$C$7,FALSE)</f>
+        <v>7.261074557260684E-3</v>
+      </c>
+      <c r="X19">
+        <f>_xll.acq_options_bachelier_greeks(X$3,$R19,$C$5,$C$6,$C$8,$C$7,FALSE)</f>
+        <v>1.8152686393151714E-3</v>
+      </c>
+      <c r="Y19">
+        <f>_xll.acq_options_bachelier_greeks(Y$3,$R19,$C$5,$C$6,$C$8,$C$7,FALSE)</f>
+        <v>-176.62681474020815</v>
+      </c>
+      <c r="Z19">
+        <f>_xll.acq_options_bachelier_greeks(Z$3,$R19,$C$5,$C$6,$C$8,$C$7,FALSE)</f>
+        <v>3.4417728628384046</v>
+      </c>
+      <c r="AD19" s="11"/>
+      <c r="AE19" s="11"/>
+    </row>
+    <row r="20" spans="6:43" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <v>170</v>
+      </c>
+      <c r="G20">
+        <f>_xll.acq_options_bachelier_price($C$4,F20,$C$6,$C$8,$C$7,TRUE)</f>
+        <v>1.8180439338268729E-2</v>
+      </c>
+      <c r="H20">
+        <f>_xll.acq_options_bachelier_price($C$4,F20,$C$6,$C$8,$C$7,FALSE)</f>
+        <v>79.442901671951859</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="12">
+        <v>32</v>
+      </c>
+      <c r="M20">
+        <f>_xll.acq_options_bachelier_price($C$4,$C$5,$C$6,$C$8,L20,TRUE)</f>
+        <v>13.747555542774755</v>
+      </c>
+      <c r="N20">
+        <f>_xll.acq_options_bachelier_price($C$4,$C$5,$C$6,$C$8,L20,FALSE)</f>
+        <v>22.572524568620711</v>
+      </c>
+      <c r="O20">
+        <f>_xll.acq_options_bachelier_vol($C$4,$C$5,$C$6,$C$8,M20,TRUE)</f>
+        <v>32</v>
+      </c>
+      <c r="P20">
+        <f>_xll.acq_options_bachelier_vol($C$4,$C$5,$C$6,$C$8,N20,FALSE)</f>
+        <v>32</v>
+      </c>
+      <c r="R20" s="13">
+        <v>20</v>
+      </c>
+      <c r="S20">
+        <f>_xll.acq_options_bachelier_greeks(S$3,$R20,$C$5,$C$6,$C$8,$C$7,FALSE)</f>
+        <v>61.905980844851676</v>
+      </c>
+      <c r="T20">
+        <f>_xll.acq_options_bachelier_greeks(T$3,$R20,$C$5,$C$6,$C$8,$C$7,FALSE)</f>
+        <v>-0.87064642728507147</v>
+      </c>
+      <c r="U20">
+        <f>_xll.acq_options_bachelier_greeks(U$3,$R20,$C$5,$C$6,$C$8,$C$7,FALSE)</f>
+        <v>9.6073093489667009E-4</v>
+      </c>
+      <c r="V20">
+        <f>_xll.acq_options_bachelier_greeks(V$3,$R20,$C$5,$C$6,$C$8,$C$7,FALSE)</f>
+        <v>4.8036546744833514E-2</v>
+      </c>
+      <c r="W20">
+        <f>_xll.acq_options_bachelier_greeks(W$3,$R20,$C$5,$C$6,$C$8,$C$7,FALSE)</f>
+        <v>1.1768953952484212E-2</v>
+      </c>
+      <c r="X20">
+        <f>_xll.acq_options_bachelier_greeks(X$3,$R20,$C$5,$C$6,$C$8,$C$7,FALSE)</f>
+        <v>3.3625582721383456E-3</v>
+      </c>
+      <c r="Y20">
+        <f>_xll.acq_options_bachelier_greeks(Y$3,$R20,$C$5,$C$6,$C$8,$C$7,FALSE)</f>
+        <v>-154.76495211212918</v>
+      </c>
+      <c r="Z20">
+        <f>_xll.acq_options_bachelier_greeks(Z$3,$R20,$C$5,$C$6,$C$8,$C$7,FALSE)</f>
+        <v>2.90315285526325</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>113</v>
+      </c>
+      <c r="AC20" s="14">
+        <v>1E-4</v>
+      </c>
+      <c r="AD20" s="17">
+        <f>_xll.acq_diff1_c3pt(AB16:AB18,AC16:AC18)</f>
+        <v>0.52951532748436625</v>
+      </c>
+      <c r="AE20" s="17">
+        <f>_xll.acq_diff2_c3pt(AB16:AB18,AC16:AC18)</f>
+        <v>2.6473934156063333E-3</v>
+      </c>
+      <c r="AF20" s="17">
+        <f>_xll.acq_diff1_c3pt(AB16:AB18,AD16:AD18)</f>
+        <v>2.6475766373774221E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="6:43" x14ac:dyDescent="0.25">
+      <c r="L21" s="12">
+        <v>34</v>
+      </c>
+      <c r="M21">
+        <f>_xll.acq_options_bachelier_price($C$4,$C$5,$C$6,$C$8,L21,TRUE)</f>
+        <v>14.84060544833453</v>
+      </c>
+      <c r="N21">
+        <f>_xll.acq_options_bachelier_price($C$4,$C$5,$C$6,$C$8,L21,FALSE)</f>
+        <v>23.665574474180485</v>
+      </c>
+      <c r="O21">
+        <f>_xll.acq_options_bachelier_vol($C$4,$C$5,$C$6,$C$8,M21,TRUE)</f>
+        <v>34.000000000000007</v>
+      </c>
+      <c r="P21">
+        <f>_xll.acq_options_bachelier_vol($C$4,$C$5,$C$6,$C$8,N21,FALSE)</f>
+        <v>34.000000000000007</v>
+      </c>
+      <c r="R21" s="13">
+        <v>30</v>
+      </c>
+      <c r="S21">
+        <f>_xll.acq_options_bachelier_greeks(S$3,$R21,$C$5,$C$6,$C$8,$C$7,FALSE)</f>
+        <v>53.260424710089758</v>
+      </c>
+      <c r="T21">
+        <f>_xll.acq_options_bachelier_greeks(T$3,$R21,$C$5,$C$6,$C$8,$C$7,FALSE)</f>
+        <v>-0.85700175630997499</v>
+      </c>
+      <c r="U21">
+        <f>_xll.acq_options_bachelier_greeks(U$3,$R21,$C$5,$C$6,$C$8,$C$7,FALSE)</f>
+        <v>1.8403193314912635E-3</v>
+      </c>
+      <c r="V21">
+        <f>_xll.acq_options_bachelier_greeks(V$3,$R21,$C$5,$C$6,$C$8,$C$7,FALSE)</f>
+        <v>9.2015966574563179E-2</v>
+      </c>
+      <c r="W21">
+        <f>_xll.acq_options_bachelier_greeks(W$3,$R21,$C$5,$C$6,$C$8,$C$7,FALSE)</f>
+        <v>1.6562873983421374E-2</v>
+      </c>
+      <c r="X21">
+        <f>_xll.acq_options_bachelier_greeks(X$3,$R21,$C$5,$C$6,$C$8,$C$7,FALSE)</f>
+        <v>5.5209579944737906E-3</v>
+      </c>
+      <c r="Y21">
+        <f>_xll.acq_options_bachelier_greeks(Y$3,$R21,$C$5,$C$6,$C$8,$C$7,FALSE)</f>
+        <v>-133.15106177522441</v>
+      </c>
+      <c r="Z21">
+        <f>_xll.acq_options_bachelier_greeks(Z$3,$R21,$C$5,$C$6,$C$8,$C$7,FALSE)</f>
+        <v>2.2949573692062355</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD21" s="36">
+        <f>AD17-AD20</f>
+        <v>8.6886053907164751E-13</v>
+      </c>
+      <c r="AE21" s="36">
+        <f>AE17-AE20</f>
+        <v>1.8322181984152877E-7</v>
+      </c>
+      <c r="AF21" s="36">
+        <f>AE17-AF20</f>
+        <v>4.8752668568852187E-14</v>
+      </c>
+    </row>
+    <row r="22" spans="6:43" x14ac:dyDescent="0.25">
+      <c r="L22" s="12">
+        <v>36</v>
+      </c>
+      <c r="M22">
+        <f>_xll.acq_options_bachelier_price($C$4,$C$5,$C$6,$C$8,L22,TRUE)</f>
+        <v>15.935890104474446</v>
+      </c>
+      <c r="N22">
+        <f>_xll.acq_options_bachelier_price($C$4,$C$5,$C$6,$C$8,L22,FALSE)</f>
+        <v>24.760859130320402</v>
+      </c>
+      <c r="O22">
+        <f>_xll.acq_options_bachelier_vol($C$4,$C$5,$C$6,$C$8,M22,TRUE)</f>
+        <v>35.999999999783128</v>
+      </c>
+      <c r="P22">
+        <f>_xll.acq_options_bachelier_vol($C$4,$C$5,$C$6,$C$8,N22,FALSE)</f>
+        <v>35.999999999783135</v>
+      </c>
+      <c r="R22" s="13">
+        <v>40</v>
+      </c>
+      <c r="S22">
+        <f>_xll.acq_options_bachelier_greeks(S$3,$R22,$C$5,$C$6,$C$8,$C$7,FALSE)</f>
+        <v>44.802859030336755</v>
+      </c>
+      <c r="T22">
+        <f>_xll.acq_options_bachelier_greeks(T$3,$R22,$C$5,$C$6,$C$8,$C$7,FALSE)</f>
+        <v>-0.83226239990379614</v>
+      </c>
+      <c r="U22">
+        <f>_xll.acq_options_bachelier_greeks(U$3,$R22,$C$5,$C$6,$C$8,$C$7,FALSE)</f>
+        <v>3.1897390351469396E-3</v>
+      </c>
+      <c r="V22">
+        <f>_xll.acq_options_bachelier_greeks(V$3,$R22,$C$5,$C$6,$C$8,$C$7,FALSE)</f>
+        <v>0.15948695175734701</v>
+      </c>
+      <c r="W22">
+        <f>_xll.acq_options_bachelier_greeks(W$3,$R22,$C$5,$C$6,$C$8,$C$7,FALSE)</f>
+        <v>1.9935868969668372E-2</v>
+      </c>
+      <c r="X22">
+        <f>_xll.acq_options_bachelier_greeks(X$3,$R22,$C$5,$C$6,$C$8,$C$7,FALSE)</f>
+        <v>7.97434758786735E-3</v>
+      </c>
+      <c r="Y22">
+        <f>_xll.acq_options_bachelier_greeks(Y$3,$R22,$C$5,$C$6,$C$8,$C$7,FALSE)</f>
+        <v>-112.00714757584187</v>
+      </c>
+      <c r="Z22">
+        <f>_xll.acq_options_bachelier_greeks(Z$3,$R22,$C$5,$C$6,$C$8,$C$7,FALSE)</f>
+        <v>1.6021951444874498</v>
+      </c>
+    </row>
+    <row r="23" spans="6:43" x14ac:dyDescent="0.25">
+      <c r="L23" s="12">
+        <v>38</v>
+      </c>
+      <c r="M23">
+        <f>_xll.acq_options_bachelier_price($C$4,$C$5,$C$6,$C$8,L23,TRUE)</f>
+        <v>17.033060210934188</v>
+      </c>
+      <c r="N23">
+        <f>_xll.acq_options_bachelier_price($C$4,$C$5,$C$6,$C$8,L23,FALSE)</f>
+        <v>25.858029236780144</v>
+      </c>
+      <c r="O23">
+        <f>_xll.acq_options_bachelier_vol($C$4,$C$5,$C$6,$C$8,M23,TRUE)</f>
+        <v>37.999999999921087</v>
+      </c>
+      <c r="P23">
+        <f>_xll.acq_options_bachelier_vol($C$4,$C$5,$C$6,$C$8,N23,FALSE)</f>
+        <v>37.999999999921094</v>
+      </c>
+      <c r="R23" s="13">
+        <v>50</v>
+      </c>
+      <c r="S23">
+        <f>_xll.acq_options_bachelier_greeks(S$3,$R23,$C$5,$C$6,$C$8,$C$7,FALSE)</f>
+        <v>36.668203786672954</v>
+      </c>
+      <c r="T23">
+        <f>_xll.acq_options_bachelier_greeks(T$3,$R23,$C$5,$C$6,$C$8,$C$7,FALSE)</f>
+        <v>-0.79164242973295862</v>
+      </c>
+      <c r="U23">
+        <f>_xll.acq_options_bachelier_greeks(U$3,$R23,$C$5,$C$6,$C$8,$C$7,FALSE)</f>
+        <v>5.002506597354601E-3</v>
+      </c>
+      <c r="V23">
+        <f>_xll.acq_options_bachelier_greeks(V$3,$R23,$C$5,$C$6,$C$8,$C$7,FALSE)</f>
+        <v>0.25012532986773006</v>
+      </c>
+      <c r="W23">
+        <f>_xll.acq_options_bachelier_greeks(W$3,$R23,$C$5,$C$6,$C$8,$C$7,FALSE)</f>
+        <v>2.0010026389418397E-2</v>
+      </c>
+      <c r="X23">
+        <f>_xll.acq_options_bachelier_greeks(X$3,$R23,$C$5,$C$6,$C$8,$C$7,FALSE)</f>
+        <v>1.0005013194709202E-2</v>
+      </c>
+      <c r="Y23">
+        <f>_xll.acq_options_bachelier_greeks(Y$3,$R23,$C$5,$C$6,$C$8,$C$7,FALSE)</f>
+        <v>-91.670509466682375</v>
+      </c>
+      <c r="Z23">
+        <f>_xll.acq_options_bachelier_greeks(Z$3,$R23,$C$5,$C$6,$C$8,$C$7,FALSE)</f>
+        <v>0.83290886986272761</v>
+      </c>
+    </row>
+    <row r="24" spans="6:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L24" s="12">
+        <v>40</v>
+      </c>
+      <c r="M24">
+        <f>_xll.acq_options_bachelier_price($C$4,$C$5,$C$6,$C$8,L24,TRUE)</f>
+        <v>18.131835509364066</v>
+      </c>
+      <c r="N24">
+        <f>_xll.acq_options_bachelier_price($C$4,$C$5,$C$6,$C$8,L24,FALSE)</f>
+        <v>26.956804535210019</v>
+      </c>
+      <c r="O24">
+        <f>_xll.acq_options_bachelier_vol($C$4,$C$5,$C$6,$C$8,M24,TRUE)</f>
+        <v>39.999999999971429</v>
+      </c>
+      <c r="P24">
+        <f>_xll.acq_options_bachelier_vol($C$4,$C$5,$C$6,$C$8,N24,FALSE)</f>
+        <v>39.999999999971422</v>
+      </c>
+      <c r="R24" s="13">
+        <v>60</v>
+      </c>
+      <c r="S24">
+        <f>_xll.acq_options_bachelier_greeks(S$3,$R24,$C$5,$C$6,$C$8,$C$7,FALSE)</f>
+        <v>29.036244876207263</v>
+      </c>
+      <c r="T24">
+        <f>_xll.acq_options_bachelier_greeks(T$3,$R24,$C$5,$C$6,$C$8,$C$7,FALSE)</f>
+        <v>-0.7312450034092558</v>
+      </c>
+      <c r="U24">
+        <f>_xll.acq_options_bachelier_greeks(U$3,$R24,$C$5,$C$6,$C$8,$C$7,FALSE)</f>
+        <v>7.0988947739295885E-3</v>
+      </c>
+      <c r="V24">
+        <f>_xll.acq_options_bachelier_greeks(V$3,$R24,$C$5,$C$6,$C$8,$C$7,FALSE)</f>
+        <v>0.35494473869647947</v>
+      </c>
+      <c r="W24">
+        <f>_xll.acq_options_bachelier_greeks(W$3,$R24,$C$5,$C$6,$C$8,$C$7,FALSE)</f>
+        <v>1.5972513241341576E-2</v>
+      </c>
+      <c r="X24">
+        <f>_xll.acq_options_bachelier_greeks(X$3,$R24,$C$5,$C$6,$C$8,$C$7,FALSE)</f>
+        <v>1.0648342160894383E-2</v>
+      </c>
+      <c r="Y24">
+        <f>_xll.acq_options_bachelier_greeks(Y$3,$R24,$C$5,$C$6,$C$8,$C$7,FALSE)</f>
+        <v>-72.590612190518144</v>
+      </c>
+      <c r="Z24">
+        <f>_xll.acq_options_bachelier_greeks(Z$3,$R24,$C$5,$C$6,$C$8,$C$7,FALSE)</f>
+        <v>3.2033289024445466E-2</v>
+      </c>
+      <c r="AB24" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="AF24" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="6:43" x14ac:dyDescent="0.25">
+      <c r="L25" s="12">
+        <v>42</v>
+      </c>
+      <c r="M25">
+        <f>_xll.acq_options_bachelier_price($C$4,$C$5,$C$6,$C$8,L25,TRUE)</f>
+        <v>19.231988560615267</v>
+      </c>
+      <c r="N25">
+        <f>_xll.acq_options_bachelier_price($C$4,$C$5,$C$6,$C$8,L25,FALSE)</f>
+        <v>28.056957586461223</v>
+      </c>
+      <c r="O25">
+        <f>_xll.acq_options_bachelier_vol($C$4,$C$5,$C$6,$C$8,M25,TRUE)</f>
+        <v>41.999999999989804</v>
+      </c>
+      <c r="P25">
+        <f>_xll.acq_options_bachelier_vol($C$4,$C$5,$C$6,$C$8,N25,FALSE)</f>
+        <v>41.999999999989804</v>
+      </c>
+      <c r="R25" s="13">
+        <v>70</v>
+      </c>
+      <c r="S25">
+        <f>_xll.acq_options_bachelier_greeks(S$3,$R25,$C$5,$C$6,$C$8,$C$7,FALSE)</f>
+        <v>22.113553006114746</v>
+      </c>
+      <c r="T25">
+        <f>_xll.acq_options_bachelier_greeks(T$3,$R25,$C$5,$C$6,$C$8,$C$7,FALSE)</f>
+        <v>-0.64991958429986862</v>
+      </c>
+      <c r="U25">
+        <f>_xll.acq_options_bachelier_greeks(U$3,$R25,$C$5,$C$6,$C$8,$C$7,FALSE)</f>
+        <v>9.1151613201173702E-3</v>
+      </c>
+      <c r="V25">
+        <f>_xll.acq_options_bachelier_greeks(V$3,$R25,$C$5,$C$6,$C$8,$C$7,FALSE)</f>
+        <v>0.45575806600586855</v>
+      </c>
+      <c r="W25">
+        <f>_xll.acq_options_bachelier_greeks(W$3,$R25,$C$5,$C$6,$C$8,$C$7,FALSE)</f>
+        <v>9.1151613201173702E-3</v>
+      </c>
+      <c r="X25">
+        <f>_xll.acq_options_bachelier_greeks(X$3,$R25,$C$5,$C$6,$C$8,$C$7,FALSE)</f>
+        <v>9.1151613201173702E-3</v>
+      </c>
+      <c r="Y25">
+        <f>_xll.acq_options_bachelier_greeks(Y$3,$R25,$C$5,$C$6,$C$8,$C$7,FALSE)</f>
+        <v>-55.283882515286862</v>
+      </c>
+      <c r="Z25">
+        <f>_xll.acq_options_bachelier_greeks(Z$3,$R25,$C$5,$C$6,$C$8,$C$7,FALSE)</f>
+        <v>-0.71735461371773668</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>99</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>105</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="26" spans="6:43" x14ac:dyDescent="0.25">
+      <c r="L26" s="12">
+        <v>44</v>
+      </c>
+      <c r="M26">
+        <f>_xll.acq_options_bachelier_price($C$4,$C$5,$C$6,$C$8,L26,TRUE)</f>
+        <v>20.333332882812851</v>
+      </c>
+      <c r="N26">
+        <f>_xll.acq_options_bachelier_price($C$4,$C$5,$C$6,$C$8,L26,FALSE)</f>
+        <v>29.158301908658807</v>
+      </c>
+      <c r="O26">
+        <f>_xll.acq_options_bachelier_vol($C$4,$C$5,$C$6,$C$8,M26,TRUE)</f>
+        <v>43.99999999999644</v>
+      </c>
+      <c r="P26">
+        <f>_xll.acq_options_bachelier_vol($C$4,$C$5,$C$6,$C$8,N26,FALSE)</f>
+        <v>43.999999999996454</v>
+      </c>
+      <c r="R26" s="13">
+        <v>80</v>
+      </c>
+      <c r="S26">
+        <f>_xll.acq_options_bachelier_greeks(S$3,$R26,$C$5,$C$6,$C$8,$C$7,FALSE)</f>
+        <v>16.097838958966797</v>
+      </c>
+      <c r="T26">
+        <f>_xll.acq_options_bachelier_greeks(T$3,$R26,$C$5,$C$6,$C$8,$C$7,FALSE)</f>
+        <v>-0.55075324092620948</v>
+      </c>
+      <c r="U26">
+        <f>_xll.acq_options_bachelier_greeks(U$3,$R26,$C$5,$C$6,$C$8,$C$7,FALSE)</f>
+        <v>1.0590306549704701E-2</v>
+      </c>
+      <c r="V26">
+        <f>_xll.acq_options_bachelier_greeks(V$3,$R26,$C$5,$C$6,$C$8,$C$7,FALSE)</f>
+        <v>0.52951532748523511</v>
+      </c>
+      <c r="W26">
+        <f>_xll.acq_options_bachelier_greeks(W$3,$R26,$C$5,$C$6,$C$8,$C$7,FALSE)</f>
+        <v>2.6475766374261748E-3</v>
+      </c>
+      <c r="X26">
+        <f>_xll.acq_options_bachelier_greeks(X$3,$R26,$C$5,$C$6,$C$8,$C$7,FALSE)</f>
+        <v>5.2951532748523504E-3</v>
+      </c>
+      <c r="Y26">
+        <f>_xll.acq_options_bachelier_greeks(Y$3,$R26,$C$5,$C$6,$C$8,$C$7,FALSE)</f>
+        <v>-40.244597397416996</v>
+      </c>
+      <c r="Z26">
+        <f>_xll.acq_options_bachelier_greeks(Z$3,$R26,$C$5,$C$6,$C$8,$C$7,FALSE)</f>
+        <v>-1.3131693619926001</v>
+      </c>
+    </row>
+    <row r="27" spans="6:43" x14ac:dyDescent="0.25">
+      <c r="L27" s="12">
+        <v>46</v>
+      </c>
+      <c r="M27">
+        <f>_xll.acq_options_bachelier_price($C$4,$C$5,$C$6,$C$8,L27,TRUE)</f>
+        <v>21.435714143551927</v>
+      </c>
+      <c r="N27">
+        <f>_xll.acq_options_bachelier_price($C$4,$C$5,$C$6,$C$8,L27,FALSE)</f>
+        <v>30.260683169397883</v>
+      </c>
+      <c r="O27">
+        <f>_xll.acq_options_bachelier_vol($C$4,$C$5,$C$6,$C$8,M27,TRUE)</f>
+        <v>45.999999999998806</v>
+      </c>
+      <c r="P27">
+        <f>_xll.acq_options_bachelier_vol($C$4,$C$5,$C$6,$C$8,N27,FALSE)</f>
+        <v>45.99999999999882</v>
+      </c>
+      <c r="R27" s="13">
+        <v>90</v>
+      </c>
+      <c r="S27">
+        <f>_xll.acq_options_bachelier_greeks(S$3,$R27,$C$5,$C$6,$C$8,$C$7,FALSE)</f>
+        <v>11.13328317746625</v>
+      </c>
+      <c r="T27">
+        <f>_xll.acq_options_bachelier_greeks(T$3,$R27,$C$5,$C$6,$C$8,$C$7,FALSE)</f>
+        <v>-0.44124845129229773</v>
+      </c>
+      <c r="U27">
+        <f>_xll.acq_options_bachelier_greeks(U$3,$R27,$C$5,$C$6,$C$8,$C$7,FALSE)</f>
+        <v>1.1133283177466249E-2</v>
+      </c>
+      <c r="V27">
+        <f>_xll.acq_options_bachelier_greeks(V$3,$R27,$C$5,$C$6,$C$8,$C$7,FALSE)</f>
+        <v>0.55666415887331255</v>
+      </c>
+      <c r="W27">
+        <f>_xll.acq_options_bachelier_greeks(W$3,$R27,$C$5,$C$6,$C$8,$C$7,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <f>_xll.acq_options_bachelier_greeks(X$3,$R27,$C$5,$C$6,$C$8,$C$7,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <f>_xll.acq_options_bachelier_greeks(Y$3,$R27,$C$5,$C$6,$C$8,$C$7,FALSE)</f>
+        <v>-27.833207943665627</v>
+      </c>
+      <c r="Z27">
+        <f>_xll.acq_options_bachelier_greeks(Z$3,$R27,$C$5,$C$6,$C$8,$C$7,FALSE)</f>
+        <v>-1.6699924766199372</v>
+      </c>
+      <c r="AB27" s="15">
+        <f>AB28-AC31</f>
+        <v>4.9999000000000002E-2</v>
+      </c>
+      <c r="AC27">
+        <f>_xll.acq_options_bachelier_greeks(AC$25,$C$4,$C$5,$C$6,$AB27,$C$7,$C$9)</f>
+        <v>7.2728881153184046</v>
+      </c>
+      <c r="AD27">
+        <f>_xll.acq_options_bachelier_greeks(AD$25,$C$4,$C$5,$C$6,$AB27,$C$7,$C$9)</f>
+        <v>-18.182220288296008</v>
+      </c>
+      <c r="AE27" s="13"/>
+      <c r="AF27" s="15">
+        <f>AF28-AG31</f>
+        <v>2.4999899999999999</v>
+      </c>
+      <c r="AG27">
+        <f>_xll.acq_options_bachelier_greeks(AG$25,$C$4,$C$5,$AF27,$C$8,$C$7,$C$9)</f>
+        <v>7.2728523889139636</v>
+      </c>
+      <c r="AH27">
+        <f>_xll.acq_options_bachelier_greeks(AH$25,$C$4,$C$5,$AF27,$C$8,$C$7,$C$9)</f>
+        <v>-1.7544235620486348</v>
+      </c>
+    </row>
+    <row r="28" spans="6:43" x14ac:dyDescent="0.25">
+      <c r="R28" s="13">
+        <v>100</v>
+      </c>
+      <c r="S28">
+        <f>_xll.acq_options_bachelier_greeks(S$3,$R28,$C$5,$C$6,$C$8,$C$7,FALSE)</f>
+        <v>7.2728699331208437</v>
+      </c>
+      <c r="T28">
+        <f>_xll.acq_options_bachelier_greeks(T$3,$R28,$C$5,$C$6,$C$8,$C$7,FALSE)</f>
+        <v>-0.33174366165838592</v>
+      </c>
+      <c r="U28">
+        <f>_xll.acq_options_bachelier_greeks(U$3,$R28,$C$5,$C$6,$C$8,$C$7,FALSE)</f>
+        <v>1.0590306549704701E-2</v>
+      </c>
+      <c r="V28">
+        <f>_xll.acq_options_bachelier_greeks(V$3,$R28,$C$5,$C$6,$C$8,$C$7,FALSE)</f>
+        <v>0.52951532748523511</v>
+      </c>
+      <c r="W28">
+        <f>_xll.acq_options_bachelier_greeks(W$3,$R28,$C$5,$C$6,$C$8,$C$7,FALSE)</f>
+        <v>2.6475766374261748E-3</v>
+      </c>
+      <c r="X28">
+        <f>_xll.acq_options_bachelier_greeks(X$3,$R28,$C$5,$C$6,$C$8,$C$7,FALSE)</f>
+        <v>-5.2951532748523504E-3</v>
+      </c>
+      <c r="Y28">
+        <f>_xll.acq_options_bachelier_greeks(Y$3,$R28,$C$5,$C$6,$C$8,$C$7,FALSE)</f>
+        <v>-18.182174832802108</v>
+      </c>
+      <c r="Z28">
+        <f>_xll.acq_options_bachelier_greeks(Z$3,$R28,$C$5,$C$6,$C$8,$C$7,FALSE)</f>
+        <v>-1.7544178132848978</v>
+      </c>
+      <c r="AB28" s="16">
+        <f>C8</f>
+        <v>0.05</v>
+      </c>
+      <c r="AC28">
+        <f>_xll.acq_options_bachelier_greeks(AC$25,$C$4,$C$5,$C$6,$AB28,$C$7,$C$9)</f>
+        <v>7.2728699331208437</v>
+      </c>
+      <c r="AD28">
+        <f>_xll.acq_options_bachelier_greeks(AD$25,$C$4,$C$5,$C$6,$AB28,$C$7,$C$9)</f>
+        <v>-18.182174832802108</v>
+      </c>
+      <c r="AE28" s="13"/>
+      <c r="AF28" s="16">
+        <f>C6</f>
+        <v>2.5</v>
+      </c>
+      <c r="AG28">
+        <f>_xll.acq_options_bachelier_greeks(AG$25,$C$4,$C$5,$AF28,$C$8,$C$7,$C$9)</f>
+        <v>7.2728699331208437</v>
+      </c>
+      <c r="AH28">
+        <f>_xll.acq_options_bachelier_greeks(AH$25,$C$4,$C$5,$AF28,$C$8,$C$7,$C$9)</f>
+        <v>-1.7544178132848978</v>
+      </c>
+    </row>
+    <row r="29" spans="6:43" x14ac:dyDescent="0.25">
+      <c r="R29" s="13">
+        <v>110</v>
+      </c>
+      <c r="S29">
+        <f>_xll.acq_options_bachelier_greeks(S$3,$R29,$C$5,$C$6,$C$8,$C$7,FALSE)</f>
+        <v>4.4636149544228356</v>
+      </c>
+      <c r="T29">
+        <f>_xll.acq_options_bachelier_greeks(T$3,$R29,$C$5,$C$6,$C$8,$C$7,FALSE)</f>
+        <v>-0.2325773182847268</v>
+      </c>
+      <c r="U29">
+        <f>_xll.acq_options_bachelier_greeks(U$3,$R29,$C$5,$C$6,$C$8,$C$7,FALSE)</f>
+        <v>9.1151613201173702E-3</v>
+      </c>
+      <c r="V29">
+        <f>_xll.acq_options_bachelier_greeks(V$3,$R29,$C$5,$C$6,$C$8,$C$7,FALSE)</f>
+        <v>0.45575806600586855</v>
+      </c>
+      <c r="W29">
+        <f>_xll.acq_options_bachelier_greeks(W$3,$R29,$C$5,$C$6,$C$8,$C$7,FALSE)</f>
+        <v>9.1151613201173702E-3</v>
+      </c>
+      <c r="X29">
+        <f>_xll.acq_options_bachelier_greeks(X$3,$R29,$C$5,$C$6,$C$8,$C$7,FALSE)</f>
+        <v>-9.1151613201173702E-3</v>
+      </c>
+      <c r="Y29">
+        <f>_xll.acq_options_bachelier_greeks(Y$3,$R29,$C$5,$C$6,$C$8,$C$7,FALSE)</f>
+        <v>-11.15903738605709</v>
+      </c>
+      <c r="Z29">
+        <f>_xll.acq_options_bachelier_greeks(Z$3,$R29,$C$5,$C$6,$C$8,$C$7,FALSE)</f>
+        <v>-1.5998515163023321</v>
+      </c>
+      <c r="AB29" s="15">
+        <f>AB28+AC31</f>
+        <v>5.0001000000000004E-2</v>
+      </c>
+      <c r="AC29">
+        <f>_xll.acq_options_bachelier_greeks(AC$25,$C$4,$C$5,$C$6,$AB29,$C$7,$C$9)</f>
+        <v>7.272851750968738</v>
+      </c>
+      <c r="AD29">
+        <f>_xll.acq_options_bachelier_greeks(AD$25,$C$4,$C$5,$C$6,$AB29,$C$7,$C$9)</f>
+        <v>-18.182129377421845</v>
+      </c>
+      <c r="AE29" s="13"/>
+      <c r="AF29" s="15">
+        <f>AF28+AG31</f>
+        <v>2.5000100000000001</v>
+      </c>
+      <c r="AG29">
+        <f>_xll.acq_options_bachelier_greeks(AG$25,$C$4,$C$5,$AF29,$C$8,$C$7,$C$9)</f>
+        <v>7.2728874772702312</v>
+      </c>
+      <c r="AH29">
+        <f>_xll.acq_options_bachelier_greeks(AH$25,$C$4,$C$5,$AF29,$C$8,$C$7,$C$9)</f>
+        <v>-1.7544120645487959</v>
+      </c>
+    </row>
+    <row r="30" spans="6:43" x14ac:dyDescent="0.25">
+      <c r="AD30" s="11"/>
+      <c r="AE30" s="11"/>
+      <c r="AH30" s="11"/>
+    </row>
+    <row r="31" spans="6:43" x14ac:dyDescent="0.25">
+      <c r="AB31" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC31" s="14">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="AD31" s="17">
+        <f>_xll.acq_diff1_c3pt(AB27:AB29,AC27:AC29)</f>
+        <v>-18.182174833274026</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>118</v>
+      </c>
+      <c r="AG31" s="14">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AH31" s="17">
+        <f>-_xll.acq_diff1_c3pt(AF27:AF29,AG27:AG29)</f>
+        <v>-1.7544178133706541</v>
+      </c>
+    </row>
+    <row r="32" spans="6:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L32" s="44" t="s">
+        <v>131</v>
+      </c>
+      <c r="M32" s="44"/>
+      <c r="N32" s="44"/>
+      <c r="O32" s="44"/>
+      <c r="P32" s="44"/>
+      <c r="Q32" s="44"/>
+      <c r="AB32" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD32" s="36">
+        <f>AD28-AD31</f>
+        <v>4.7191761609610694E-10</v>
+      </c>
+      <c r="AE32" s="11"/>
+      <c r="AF32" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH32" s="36">
+        <f>AH28-AH31</f>
+        <v>8.5756290957306192E-11</v>
+      </c>
+    </row>
+    <row r="33" spans="12:43" x14ac:dyDescent="0.25">
+      <c r="L33" t="s">
+        <v>96</v>
+      </c>
+      <c r="M33" t="s">
+        <v>109</v>
+      </c>
+      <c r="N33" t="s">
+        <v>99</v>
+      </c>
+      <c r="O33" t="s">
+        <v>96</v>
+      </c>
+      <c r="P33" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>133</v>
+      </c>
+      <c r="R33" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="S33" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="T33" s="12"/>
+      <c r="U33" s="11"/>
+      <c r="W33" s="11"/>
+      <c r="X33" s="11"/>
+      <c r="Y33" s="11"/>
+      <c r="Z33" s="11"/>
+      <c r="AA33" s="11"/>
+      <c r="AB33" s="11"/>
+      <c r="AC33" s="11"/>
+      <c r="AD33" s="11"/>
+      <c r="AE33" s="11"/>
+    </row>
+    <row r="34" spans="12:43" x14ac:dyDescent="0.25">
+      <c r="L34" s="13">
+        <v>15</v>
+      </c>
+      <c r="M34">
+        <v>10</v>
+      </c>
+      <c r="N34">
+        <f>_xll.acq_options_bachelier_price(M34,$C$5,$C$6,$C$8,L34,$C$9)</f>
+        <v>2.0131592811431349E-3</v>
+      </c>
+      <c r="O34">
+        <f>_xll.acq_options_bachelier_vol(M34,$C$5,$C$6,$C$8,N34,$C$9)</f>
+        <v>14.999999999999959</v>
+      </c>
+      <c r="P34">
+        <f>_xll.acq_options_black_vol(M34,$C$5,$C$6,$C$8,N34,$C$9)</f>
+        <v>0.41925341293792379</v>
+      </c>
+      <c r="Q34">
+        <f>P34*M34</f>
+        <v>4.1925341293792382</v>
+      </c>
+      <c r="R34">
+        <f>_xll.acq_options_black_price(M34,$C$5,$C$6,$C$8,P34,$C$9)</f>
+        <v>2.0131592811394945E-3</v>
+      </c>
+      <c r="S34">
+        <f>R34-N34</f>
+        <v>-3.6403172143373297E-15</v>
+      </c>
+      <c r="T34" s="12"/>
+    </row>
+    <row r="35" spans="12:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L35" s="13">
+        <v>15</v>
+      </c>
+      <c r="M35">
+        <v>20</v>
+      </c>
+      <c r="N35">
+        <f>_xll.acq_options_bachelier_price(M35,$C$5,$C$6,$C$8,L35,$C$9)</f>
+        <v>9.4848058973276278E-3</v>
+      </c>
+      <c r="O35">
+        <f>_xll.acq_options_bachelier_vol(M35,$C$5,$C$6,$C$8,N35,$C$9)</f>
+        <v>14.999999999999984</v>
+      </c>
+      <c r="P35">
+        <f>_xll.acq_options_black_vol(M35,$C$5,$C$6,$C$8,N35,$C$9)</f>
+        <v>0.32580495500447754</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" ref="Q35:Q44" si="1">P35*M35</f>
+        <v>6.5160991000895505</v>
+      </c>
+      <c r="R35">
+        <f>_xll.acq_options_black_price(M35,$C$5,$C$6,$C$8,P35,$C$9)</f>
+        <v>9.4848058971470205E-3</v>
+      </c>
+      <c r="S35">
+        <f t="shared" ref="S35:S44" si="2">R35-N35</f>
+        <v>-1.8060726525437332E-13</v>
+      </c>
+      <c r="T35" s="12"/>
+      <c r="AB35" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="36" spans="12:43" x14ac:dyDescent="0.25">
+      <c r="L36" s="13">
+        <v>15</v>
+      </c>
+      <c r="M36">
+        <v>30</v>
+      </c>
+      <c r="N36">
+        <f>_xll.acq_options_bachelier_price(M36,$C$5,$C$6,$C$8,L36,$C$9)</f>
+        <v>3.8230266986719816E-2</v>
+      </c>
+      <c r="O36">
+        <f>_xll.acq_options_bachelier_vol(M36,$C$5,$C$6,$C$8,N36,$C$9)</f>
+        <v>14.999999999999885</v>
+      </c>
+      <c r="P36">
+        <f>_xll.acq_options_black_vol(M36,$C$5,$C$6,$C$8,N36,$C$9)</f>
+        <v>0.27682556757325288</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="1"/>
+        <v>8.3047670271975864</v>
+      </c>
+      <c r="R36">
+        <f>_xll.acq_options_black_price(M36,$C$5,$C$6,$C$8,P36,$C$9)</f>
+        <v>3.8230266986681312E-2</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="2"/>
+        <v>-3.850392227278121E-14</v>
+      </c>
+      <c r="T36" s="12"/>
+      <c r="AG36" t="s">
+        <v>100</v>
+      </c>
+      <c r="AK36" t="s">
+        <v>102</v>
+      </c>
+      <c r="AO36" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="37" spans="12:43" x14ac:dyDescent="0.25">
+      <c r="L37" s="13">
+        <v>15</v>
+      </c>
+      <c r="M37">
+        <v>40</v>
+      </c>
+      <c r="N37">
+        <f>_xll.acq_options_bachelier_price(M37,$C$5,$C$6,$C$8,L37,$C$9)</f>
+        <v>0.13235361008593996</v>
+      </c>
+      <c r="O37">
+        <f>_xll.acq_options_bachelier_vol(M37,$C$5,$C$6,$C$8,N37,$C$9)</f>
+        <v>14.999999999999996</v>
+      </c>
+      <c r="P37">
+        <f>_xll.acq_options_black_vol(M37,$C$5,$C$6,$C$8,N37,$C$9)</f>
+        <v>0.2447902851221436</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="1"/>
+        <v>9.7916114048857441</v>
+      </c>
+      <c r="R37">
+        <f>_xll.acq_options_black_price(M37,$C$5,$C$6,$C$8,P37,$C$9)</f>
+        <v>0.13235361008600149</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="2"/>
+        <v>6.1534111139849301E-14</v>
+      </c>
+      <c r="T37" s="12"/>
+      <c r="AB37" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC37" s="30">
+        <f>AD37-AC42</f>
+        <v>19.9999</v>
+      </c>
+      <c r="AD37" s="31">
+        <f>C7</f>
+        <v>20</v>
+      </c>
+      <c r="AE37" s="32">
+        <f>AD37+AC42</f>
+        <v>20.0001</v>
+      </c>
+    </row>
+    <row r="38" spans="12:43" x14ac:dyDescent="0.25">
+      <c r="L38" s="13">
+        <v>15</v>
+      </c>
+      <c r="M38">
+        <v>50</v>
+      </c>
+      <c r="N38">
+        <f>_xll.acq_options_bachelier_price(M38,$C$5,$C$6,$C$8,L38,$C$9)</f>
+        <v>0.39549502137976517</v>
+      </c>
+      <c r="O38">
+        <f>_xll.acq_options_bachelier_vol(M38,$C$5,$C$6,$C$8,N38,$C$9)</f>
+        <v>14.999999999981359</v>
+      </c>
+      <c r="P38">
+        <f>_xll.acq_options_black_vol(M38,$C$5,$C$6,$C$8,N38,$C$9)</f>
+        <v>0.22154428179353367</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="1"/>
+        <v>11.077214089676684</v>
+      </c>
+      <c r="R38">
+        <f>_xll.acq_options_black_price(M38,$C$5,$C$6,$C$8,P38,$C$9)</f>
+        <v>0.39549502116753965</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="2"/>
+        <v>-2.1222551493949027E-10</v>
+      </c>
+      <c r="T38" s="12"/>
+      <c r="AB38" s="26">
+        <f>AB39-AC42</f>
+        <v>79.999899999999997</v>
+      </c>
+      <c r="AC38" s="20">
+        <f>_xll.acq_options_bachelier_price($AB38,$C$5,$C$6,$C$8,AC$37,$C$9)</f>
+        <v>7.2727838073410682</v>
+      </c>
+      <c r="AD38" s="21">
+        <f>_xll.acq_options_bachelier_price($AB38,$C$5,$C$6,$C$8,AD$37,$C$9)</f>
+        <v>7.2728367588076281</v>
+      </c>
+      <c r="AE38" s="33">
+        <f>_xll.acq_options_bachelier_price($AB38,$C$5,$C$6,$C$8,AE$37,$C$9)</f>
+        <v>7.272889710300662</v>
+      </c>
+      <c r="AG38">
+        <f>_xll.acq_options_bachelier_greeks($AG$36,$AB38,$C$5,$C$6,$C$8,AC$37,$C$9)</f>
+        <v>0.33174207310565207</v>
+      </c>
+      <c r="AH38">
+        <f>_xll.acq_options_bachelier_greeks($AG$36,$AB38,$C$5,$C$6,$C$8,AD$37,$C$9)</f>
+        <v>0.3317426026282605</v>
+      </c>
+      <c r="AI38">
+        <f>_xll.acq_options_bachelier_greeks($AG$36,$AB38,$C$5,$C$6,$C$8,AE$37,$C$9)</f>
+        <v>0.33174313214583839</v>
+      </c>
+      <c r="AK38">
+        <f>_xll.acq_options_bachelier_greeks($AK$36,$AB38,$C$5,$C$6,$C$8,AC$37,$C$9)</f>
+        <v>0.52951453320291109</v>
+      </c>
+      <c r="AL38" s="19">
+        <f>_xll.acq_options_bachelier_greeks($AK$36,$AB38,$C$5,$C$6,$C$8,AD$37,$C$9)</f>
+        <v>0.52951479796752488</v>
+      </c>
+      <c r="AM38">
+        <f>_xll.acq_options_bachelier_greeks($AK$36,$AB38,$C$5,$C$6,$C$8,AE$37,$C$9)</f>
+        <v>0.5295150627282994</v>
+      </c>
+      <c r="AO38">
+        <f>_xll.acq_options_bachelier_greeks($AO$36,$AB38,$C$5,$C$6,$C$8,AC$37,$C$9)</f>
+        <v>5.2952512358624103E-3</v>
+      </c>
+      <c r="AP38">
+        <f>_xll.acq_options_bachelier_greeks($AO$36,$AB38,$C$5,$C$6,$C$8,AD$37,$C$9)</f>
+        <v>5.2952009311550462E-3</v>
+      </c>
+      <c r="AQ38">
+        <f>_xll.acq_options_bachelier_greeks($AO$36,$AB38,$C$5,$C$6,$C$8,AE$37,$C$9)</f>
+        <v>5.295150627150619E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="12:43" x14ac:dyDescent="0.25">
+      <c r="L39" s="13">
+        <v>15</v>
+      </c>
+      <c r="M39">
+        <v>60</v>
+      </c>
+      <c r="N39">
+        <f>_xll.acq_options_bachelier_price(M39,$C$5,$C$6,$C$8,L39,$C$9)</f>
+        <v>1.0262457624668468</v>
+      </c>
+      <c r="O39">
+        <f>_xll.acq_options_bachelier_vol(M39,$C$5,$C$6,$C$8,N39,$C$9)</f>
+        <v>14.99999999780432</v>
+      </c>
+      <c r="P39">
+        <f>_xll.acq_options_black_vol(M39,$C$5,$C$6,$C$8,N39,$C$9)</f>
+        <v>0.20360719697408136</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="1"/>
+        <v>12.216431818444882</v>
+      </c>
+      <c r="R39">
+        <f>_xll.acq_options_black_price(M39,$C$5,$C$6,$C$8,P39,$C$9)</f>
+        <v>1.0262457624660521</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="2"/>
+        <v>-7.9469764102668705E-13</v>
+      </c>
+      <c r="T39" s="12"/>
+      <c r="AB39" s="27">
+        <f>C4</f>
+        <v>80</v>
+      </c>
+      <c r="AC39" s="34">
+        <f>_xll.acq_options_bachelier_price($AB39,$C$5,$C$6,$C$8,AC$37,$C$9)</f>
+        <v>7.2728169816013324</v>
+      </c>
+      <c r="AD39" s="22">
+        <f>_xll.acq_options_bachelier_price($AB39,$C$5,$C$6,$C$8,AD$37,$C$9)</f>
+        <v>7.2728699331208437</v>
+      </c>
+      <c r="AE39" s="23">
+        <f>_xll.acq_options_bachelier_price($AB39,$C$5,$C$6,$C$8,AE$37,$C$9)</f>
+        <v>7.272922884666829</v>
+      </c>
+      <c r="AG39">
+        <f>_xll.acq_options_bachelier_greeks($AG$36,$AB39,$C$5,$C$6,$C$8,AC$37,$C$9)</f>
+        <v>0.3317431321405433</v>
+      </c>
+      <c r="AH39">
+        <f>_xll.acq_options_bachelier_greeks($AG$36,$AB39,$C$5,$C$6,$C$8,AD$37,$C$9)</f>
+        <v>0.33174366165838592</v>
+      </c>
+      <c r="AI39">
+        <f>_xll.acq_options_bachelier_greeks($AG$36,$AB39,$C$5,$C$6,$C$8,AE$37,$C$9)</f>
+        <v>0.33174419117119824</v>
+      </c>
+      <c r="AK39">
+        <f>_xll.acq_options_bachelier_greeks($AK$36,$AB39,$C$5,$C$6,$C$8,AC$37,$C$9)</f>
+        <v>0.52951506272565185</v>
+      </c>
+      <c r="AL39" s="19">
+        <f>_xll.acq_options_bachelier_greeks($AK$36,$AB39,$C$5,$C$6,$C$8,AD$37,$C$9)</f>
+        <v>0.52951532748523511</v>
+      </c>
+      <c r="AM39">
+        <f>_xll.acq_options_bachelier_greeks($AK$36,$AB39,$C$5,$C$6,$C$8,AE$37,$C$9)</f>
+        <v>0.52951559224097933</v>
+      </c>
+      <c r="AO39">
+        <f>_xll.acq_options_bachelier_greeks($AO$36,$AB39,$C$5,$C$6,$C$8,AC$37,$C$9)</f>
+        <v>5.2952035791599301E-3</v>
+      </c>
+      <c r="AP39" s="19">
+        <f>_xll.acq_options_bachelier_greeks($AO$36,$AB39,$C$5,$C$6,$C$8,AD$37,$C$9)</f>
+        <v>5.2951532748523504E-3</v>
+      </c>
+      <c r="AQ39">
+        <f>_xll.acq_options_bachelier_greeks($AO$36,$AB39,$C$5,$C$6,$C$8,AE$37,$C$9)</f>
+        <v>5.2951029712477032E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="12:43" x14ac:dyDescent="0.25">
+      <c r="L40" s="13">
+        <v>15</v>
+      </c>
+      <c r="M40">
+        <v>70</v>
+      </c>
+      <c r="N40">
+        <f>_xll.acq_options_bachelier_price(M40,$C$5,$C$6,$C$8,L40,$C$9)</f>
+        <v>2.3296938786038028</v>
+      </c>
+      <c r="O40">
+        <f>_xll.acq_options_bachelier_vol(M40,$C$5,$C$6,$C$8,N40,$C$9)</f>
+        <v>14.999999999999131</v>
+      </c>
+      <c r="P40">
+        <f>_xll.acq_options_black_vol(M40,$C$5,$C$6,$C$8,N40,$C$9)</f>
+        <v>0.18918845529277484</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="1"/>
+        <v>13.243191870494238</v>
+      </c>
+      <c r="R40">
+        <f>_xll.acq_options_black_price(M40,$C$5,$C$6,$C$8,P40,$C$9)</f>
+        <v>2.3296938786038002</v>
+      </c>
+      <c r="S40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T40" s="12"/>
+      <c r="AB40" s="28">
+        <f>AB39+AC42</f>
+        <v>80.000100000000003</v>
+      </c>
+      <c r="AC40" s="35">
+        <f>_xll.acq_options_bachelier_price($AB40,$C$5,$C$6,$C$8,AC$37,$C$9)</f>
+        <v>7.2728501559674976</v>
+      </c>
+      <c r="AD40" s="24">
+        <f>_xll.acq_options_bachelier_price($AB40,$C$5,$C$6,$C$8,AD$37,$C$9)</f>
+        <v>7.2729031075399622</v>
+      </c>
+      <c r="AE40" s="25">
+        <f>_xll.acq_options_bachelier_price($AB40,$C$5,$C$6,$C$8,AE$37,$C$9)</f>
+        <v>7.2729560591388971</v>
+      </c>
+      <c r="AG40">
+        <f>_xll.acq_options_bachelier_greeks($AG$36,$AB40,$C$5,$C$6,$C$8,AC$37,$C$9)</f>
+        <v>0.33174419117649345</v>
+      </c>
+      <c r="AH40">
+        <f>_xll.acq_options_bachelier_greeks($AG$36,$AB40,$C$5,$C$6,$C$8,AD$37,$C$9)</f>
+        <v>0.33174472068957045</v>
+      </c>
+      <c r="AI40">
+        <f>_xll.acq_options_bachelier_greeks($AG$36,$AB40,$C$5,$C$6,$C$8,AE$37,$C$9)</f>
+        <v>0.33174525019761714</v>
+      </c>
+      <c r="AK40">
+        <f>_xll.acq_options_bachelier_greeks($AK$36,$AB40,$C$5,$C$6,$C$8,AC$37,$C$9)</f>
+        <v>0.52951559224362699</v>
+      </c>
+      <c r="AL40" s="19">
+        <f>_xll.acq_options_bachelier_greeks($AK$36,$AB40,$C$5,$C$6,$C$8,AD$37,$C$9)</f>
+        <v>0.52951585699817971</v>
+      </c>
+      <c r="AM40">
+        <f>_xll.acq_options_bachelier_greeks($AK$36,$AB40,$C$5,$C$6,$C$8,AE$37,$C$9)</f>
+        <v>0.52951612174889373</v>
+      </c>
+      <c r="AO40">
+        <f>_xll.acq_options_bachelier_greeks($AO$36,$AB40,$C$5,$C$6,$C$8,AC$37,$C$9)</f>
+        <v>5.2951559223038862E-3</v>
+      </c>
+      <c r="AP40">
+        <f>_xll.acq_options_bachelier_greeks($AO$36,$AB40,$C$5,$C$6,$C$8,AD$37,$C$9)</f>
+        <v>5.2951056183960952E-3</v>
+      </c>
+      <c r="AQ40">
+        <f>_xll.acq_options_bachelier_greeks($AO$36,$AB40,$C$5,$C$6,$C$8,AE$37,$C$9)</f>
+        <v>5.2950553151912315E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="12:43" x14ac:dyDescent="0.25">
+      <c r="L41" s="13">
+        <v>15</v>
+      </c>
+      <c r="M41">
+        <v>80</v>
+      </c>
+      <c r="N41">
+        <f>_xll.acq_options_bachelier_price(M41,$C$5,$C$6,$C$8,L41,$C$9)</f>
+        <v>4.6688933344611057</v>
+      </c>
+      <c r="O41">
+        <f>_xll.acq_options_bachelier_vol(M41,$C$5,$C$6,$C$8,N41,$C$9)</f>
+        <v>14.999999999983274</v>
+      </c>
+      <c r="P41">
+        <f>_xll.acq_options_black_vol(M41,$C$5,$C$6,$C$8,N41,$C$9)</f>
+        <v>0.17725288997274491</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="1"/>
+        <v>14.180231197819593</v>
+      </c>
+      <c r="R41">
+        <f>_xll.acq_options_black_price(M41,$C$5,$C$6,$C$8,P41,$C$9)</f>
+        <v>4.6688933344573389</v>
+      </c>
+      <c r="S41">
+        <f t="shared" si="2"/>
+        <v>-3.7667646779482311E-12</v>
+      </c>
+      <c r="T41" s="12"/>
+    </row>
+    <row r="42" spans="12:43" x14ac:dyDescent="0.25">
+      <c r="L42" s="13">
+        <v>15</v>
+      </c>
+      <c r="M42">
+        <v>90</v>
+      </c>
+      <c r="N42">
+        <f>_xll.acq_options_bachelier_price(M42,$C$5,$C$6,$C$8,L42,$C$9)</f>
+        <v>8.3499623830996867</v>
+      </c>
+      <c r="O42">
+        <f>_xll.acq_options_bachelier_vol(M42,$C$5,$C$6,$C$8,N42,$C$9)</f>
+        <v>14.999999999999998</v>
+      </c>
+      <c r="P42">
+        <f>_xll.acq_options_black_vol(M42,$C$5,$C$6,$C$8,N42,$C$9)</f>
+        <v>0.16715187227076364</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="1"/>
+        <v>15.043668504368728</v>
+      </c>
+      <c r="R42">
+        <f>_xll.acq_options_black_price(M42,$C$5,$C$6,$C$8,P42,$C$9)</f>
+        <v>8.349962383108144</v>
+      </c>
+      <c r="S42">
+        <f t="shared" si="2"/>
+        <v>8.4572349123845925E-12</v>
+      </c>
+      <c r="T42" s="12"/>
+      <c r="AB42" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC42" s="14">
+        <v>1E-4</v>
+      </c>
+      <c r="AD42" s="17">
+        <f>_xll.acq_diff1_c3pt(AC37:AE37,AG39:AI39)</f>
+        <v>5.2951532747548442E-3</v>
+      </c>
+      <c r="AE42" s="17">
+        <f>_xll.acq_diff1_c3pt(AB38:AB40,AL38:AL40)</f>
+        <v>5.2951532740116106E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="12:43" x14ac:dyDescent="0.25">
+      <c r="L43" s="13">
+        <v>15</v>
+      </c>
+      <c r="M43">
+        <v>100</v>
+      </c>
+      <c r="N43">
+        <f>_xll.acq_options_bachelier_price(M43,$C$5,$C$6,$C$8,L43,$C$9)</f>
+        <v>13.493862360307061</v>
+      </c>
+      <c r="O43">
+        <f>_xll.acq_options_bachelier_vol(M43,$C$5,$C$6,$C$8,N43,$C$9)</f>
+        <v>14.999999999983274</v>
+      </c>
+      <c r="P43">
+        <f>_xll.acq_options_black_vol(M43,$C$5,$C$6,$C$8,N43,$C$9)</f>
+        <v>0.15845418088831126</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="1"/>
+        <v>15.845418088831126</v>
+      </c>
+      <c r="R43">
+        <f>_xll.acq_options_black_price(M43,$C$5,$C$6,$C$8,P43,$C$9)</f>
+        <v>13.49386236030082</v>
+      </c>
+      <c r="S43">
+        <f t="shared" si="2"/>
+        <v>-6.2403415768130799E-12</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD43" s="36">
+        <f>AP39-AD42</f>
+        <v>9.7506204499442362E-14</v>
+      </c>
+      <c r="AE43" s="36">
+        <f>AP39-AE42</f>
+        <v>8.4073980416432548E-13</v>
+      </c>
+      <c r="AF43" s="11"/>
+    </row>
+    <row r="44" spans="12:43" x14ac:dyDescent="0.25">
+      <c r="L44" s="13">
+        <v>15</v>
+      </c>
+      <c r="M44">
+        <v>110</v>
+      </c>
+      <c r="N44">
+        <f>_xll.acq_options_bachelier_price(M44,$C$5,$C$6,$C$8,L44,$C$9)</f>
+        <v>19.979631930295714</v>
+      </c>
+      <c r="O44">
+        <f>_xll.acq_options_bachelier_vol(M44,$C$5,$C$6,$C$8,N44,$C$9)</f>
+        <v>14.999999999999133</v>
+      </c>
+      <c r="P44">
+        <f>_xll.acq_options_black_vol(M44,$C$5,$C$6,$C$8,N44,$C$9)</f>
+        <v>0.15085978296624955</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="1"/>
+        <v>16.59457612628745</v>
+      </c>
+      <c r="R44">
+        <f>_xll.acq_options_black_price(M44,$C$5,$C$6,$C$8,P44,$C$9)</f>
+        <v>19.979631930295717</v>
+      </c>
+      <c r="S44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="L32:Q32"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="L2:P2"/>
+    <mergeCell ref="S2:Z2"/>
+    <mergeCell ref="S17:Z17"/>
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEC30C1E-5BFB-47EF-8AD5-509FD4075E48}">
-  <dimension ref="B2:AS56"/>
+  <dimension ref="A1:AS56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10265,7 +15474,15 @@
     <col min="34" max="34" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:45" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+    </row>
+    <row r="2" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F2" s="44" t="s">
         <v>97</v>
       </c>
@@ -10298,7 +15515,7 @@
       <c r="AF2" s="3"/>
       <c r="AG2" s="3"/>
     </row>
-    <row r="3" spans="2:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>92</v>
       </c>
@@ -10376,7 +15593,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>124</v>
       </c>
@@ -10411,11 +15628,11 @@
       </c>
       <c r="O4" s="12">
         <f>_xll.acq_options_blackscholes_vol($C$4,$C$5,$C$6,$C$8,$C$9,$M4,TRUE)</f>
-        <v>0</v>
+        <v>1.0000000000000001E-15</v>
       </c>
       <c r="P4" s="12">
         <f>_xll.acq_options_blackscholes_vol($C$4,$C$5,$C$6,$C$8,$C$9,$N4,FALSE)</f>
-        <v>0</v>
+        <v>1.0000000000000001E-15</v>
       </c>
       <c r="Q4" s="11"/>
       <c r="R4" s="13">
@@ -10471,7 +15688,7 @@
       <c r="AR4" s="11"/>
       <c r="AS4" s="11"/>
     </row>
-    <row r="5" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>87</v>
       </c>
@@ -10506,11 +15723,11 @@
       </c>
       <c r="O5" s="12">
         <f>_xll.acq_options_blackscholes_vol($C$4,$C$5,$C$6,$C$8,$C$9,$M5,TRUE)</f>
-        <v>4.9999999999985792E-2</v>
+        <v>4.9999999999985709E-2</v>
       </c>
       <c r="P5" s="12">
         <f>_xll.acq_options_blackscholes_vol($C$4,$C$5,$C$6,$C$8,$C$9,$N5,FALSE)</f>
-        <v>4.999999999998038E-2</v>
+        <v>4.9999999999985993E-2</v>
       </c>
       <c r="Q5" s="11"/>
       <c r="R5" s="13">
@@ -10583,7 +15800,7 @@
       <c r="AR5" s="11"/>
       <c r="AS5" s="11"/>
     </row>
-    <row r="6" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>88</v>
       </c>
@@ -10618,11 +15835,11 @@
       </c>
       <c r="O6" s="12">
         <f>_xll.acq_options_blackscholes_vol($C$4,$C$5,$C$6,$C$8,$C$9,$M6,TRUE)</f>
-        <v>0.10000000000021601</v>
+        <v>0.10000000000021597</v>
       </c>
       <c r="P6" s="12">
         <f>_xll.acq_options_blackscholes_vol($C$4,$C$5,$C$6,$C$8,$C$9,$N6,FALSE)</f>
-        <v>0.10000000000021683</v>
+        <v>0.10000000000021661</v>
       </c>
       <c r="Q6" s="11"/>
       <c r="R6" s="13">
@@ -10689,7 +15906,7 @@
       <c r="AK6" s="11"/>
       <c r="AN6" s="11"/>
     </row>
-    <row r="7" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>89</v>
       </c>
@@ -10724,11 +15941,11 @@
       </c>
       <c r="O7" s="12">
         <f>_xll.acq_options_blackscholes_vol($C$4,$C$5,$C$6,$C$8,$C$9,$M7,TRUE)</f>
-        <v>0.15000000000000008</v>
+        <v>0.15000000000000033</v>
       </c>
       <c r="P7" s="12">
         <f>_xll.acq_options_blackscholes_vol($C$4,$C$5,$C$6,$C$8,$C$9,$N7,FALSE)</f>
-        <v>0.15000000000000038</v>
+        <v>0.15</v>
       </c>
       <c r="Q7" s="11"/>
       <c r="R7" s="13">
@@ -10793,7 +16010,7 @@
       <c r="AJ7" s="11"/>
       <c r="AK7" s="11"/>
     </row>
-    <row r="8" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>90</v>
       </c>
@@ -10828,11 +16045,11 @@
       </c>
       <c r="O8" s="12">
         <f>_xll.acq_options_blackscholes_vol($C$4,$C$5,$C$6,$C$8,$C$9,$M8,TRUE)</f>
-        <v>0.20000000000000029</v>
+        <v>0.2</v>
       </c>
       <c r="P8" s="12">
         <f>_xll.acq_options_blackscholes_vol($C$4,$C$5,$C$6,$C$8,$C$9,$N8,FALSE)</f>
-        <v>0.19999999999999996</v>
+        <v>0.19999999999999993</v>
       </c>
       <c r="Q8" s="11"/>
       <c r="R8" s="13">
@@ -10883,7 +16100,7 @@
       <c r="AJ8" s="11"/>
       <c r="AK8" s="11"/>
     </row>
-    <row r="9" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>123</v>
       </c>
@@ -10989,7 +16206,7 @@
       <c r="AJ9" s="11"/>
       <c r="AK9" s="11"/>
     </row>
-    <row r="10" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>91</v>
       </c>
@@ -11028,7 +16245,7 @@
       </c>
       <c r="P10" s="12">
         <f>_xll.acq_options_blackscholes_vol($C$4,$C$5,$C$6,$C$8,$C$9,$N10,FALSE)</f>
-        <v>0.29999999999999383</v>
+        <v>0.29999999999999388</v>
       </c>
       <c r="Q10" s="11"/>
       <c r="R10" s="13">
@@ -11092,7 +16309,7 @@
       <c r="AJ10" s="11"/>
       <c r="AK10" s="11"/>
     </row>
-    <row r="11" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
       <c r="F11">
         <v>80</v>
       </c>
@@ -11125,7 +16342,7 @@
       </c>
       <c r="P11" s="12">
         <f>_xll.acq_options_blackscholes_vol($C$4,$C$5,$C$6,$C$8,$C$9,$N11,FALSE)</f>
-        <v>0.3500000000000002</v>
+        <v>0.35000000000000026</v>
       </c>
       <c r="Q11" s="11"/>
       <c r="R11" s="13">
@@ -11176,7 +16393,7 @@
       <c r="AJ11" s="11"/>
       <c r="AK11" s="11"/>
     </row>
-    <row r="12" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
       <c r="F12">
         <v>90</v>
       </c>
@@ -11205,7 +16422,7 @@
       </c>
       <c r="O12" s="12">
         <f>_xll.acq_options_blackscholes_vol($C$4,$C$5,$C$6,$C$8,$C$9,$M12,TRUE)</f>
-        <v>0.39999999999999886</v>
+        <v>0.39999999999999891</v>
       </c>
       <c r="P12" s="12">
         <f>_xll.acq_options_blackscholes_vol($C$4,$C$5,$C$6,$C$8,$C$9,$N12,FALSE)</f>
@@ -11261,7 +16478,7 @@
       <c r="AK12" s="11"/>
       <c r="AN12" s="11"/>
     </row>
-    <row r="13" spans="2:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F13">
         <v>100</v>
       </c>
@@ -11294,7 +16511,7 @@
       </c>
       <c r="P13" s="12">
         <f>_xll.acq_options_blackscholes_vol($C$4,$C$5,$C$6,$C$8,$C$9,$N13,FALSE)</f>
-        <v>0.45000000000001406</v>
+        <v>0.45000000000001394</v>
       </c>
       <c r="R13" s="13">
         <v>100</v>
@@ -11349,7 +16566,7 @@
       <c r="AK13" s="11"/>
       <c r="AN13" s="11"/>
     </row>
-    <row r="14" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
       <c r="F14">
         <v>110</v>
       </c>
@@ -11441,7 +16658,7 @@
       </c>
       <c r="AN14" s="11"/>
     </row>
-    <row r="15" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
       <c r="F15">
         <v>120</v>
       </c>
@@ -11470,14 +16687,14 @@
       </c>
       <c r="O15" s="12">
         <f>_xll.acq_options_blackscholes_vol($C$4,$C$5,$C$6,$C$8,$C$9,$M15,TRUE)</f>
-        <v>0.5500000000000006</v>
+        <v>0.55000000000000049</v>
       </c>
       <c r="P15" s="12">
         <f>_xll.acq_options_blackscholes_vol($C$4,$C$5,$C$6,$C$8,$C$9,$N15,FALSE)</f>
-        <v>0.55000000000000082</v>
-      </c>
-    </row>
-    <row r="16" spans="2:45" x14ac:dyDescent="0.25">
+        <v>0.55000000000000071</v>
+      </c>
+    </row>
+    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
       <c r="F16">
         <v>130</v>
       </c>
@@ -11799,7 +17016,7 @@
       </c>
       <c r="O20" s="12">
         <f>_xll.acq_options_blackscholes_vol($C$4,$C$5,$C$6,$C$8,$C$9,$M20,TRUE)</f>
-        <v>0.79999999999996818</v>
+        <v>0.79999999999996807</v>
       </c>
       <c r="P20" s="12">
         <f>_xll.acq_options_blackscholes_vol($C$4,$C$5,$C$6,$C$8,$C$9,$N20,FALSE)</f>
@@ -11881,11 +17098,11 @@
       </c>
       <c r="O21" s="12">
         <f>_xll.acq_options_blackscholes_vol($C$4,$C$5,$C$6,$C$8,$C$9,$M21,TRUE)</f>
-        <v>0.85</v>
+        <v>0.84999999999999987</v>
       </c>
       <c r="P21" s="12">
         <f>_xll.acq_options_blackscholes_vol($C$4,$C$5,$C$6,$C$8,$C$9,$N21,FALSE)</f>
-        <v>0.84999999999999987</v>
+        <v>0.84999999999999964</v>
       </c>
       <c r="R21" s="13">
         <v>30</v>
@@ -11960,11 +17177,11 @@
       </c>
       <c r="O22" s="12">
         <f>_xll.acq_options_blackscholes_vol($C$4,$C$5,$C$6,$C$8,$C$9,$M22,TRUE)</f>
-        <v>0.90000000000002334</v>
+        <v>0.90000000000002345</v>
       </c>
       <c r="P22" s="12">
         <f>_xll.acq_options_blackscholes_vol($C$4,$C$5,$C$6,$C$8,$C$9,$N22,FALSE)</f>
-        <v>0.90000000000002334</v>
+        <v>0.90000000000002356</v>
       </c>
       <c r="R22" s="13">
         <v>40</v>
@@ -12308,7 +17525,7 @@
       </c>
       <c r="P27" s="12">
         <f>_xll.acq_options_blackscholes_vol($C$4,$C$5,$C$6,$C$8,$C$9,$N27,FALSE)</f>
-        <v>1.1500000000002679</v>
+        <v>1.1500000000002681</v>
       </c>
       <c r="R27" s="13">
         <v>90</v>
@@ -13165,11 +18382,12 @@
       <c r="Y56" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="L2:P2"/>
     <mergeCell ref="S2:Z2"/>
     <mergeCell ref="S17:Z17"/>
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -13177,7 +18395,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B1:E26"/>
   <sheetViews>
@@ -13548,7 +18766,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <tabColor theme="2"/>

--- a/Distribution/ACQ.Options.xlsx
+++ b/Distribution/ACQ.Options.xlsx
@@ -2,23 +2,24 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ACQ\ACQ.Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C65C6E-DF89-43CF-8FB0-640BDB852364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B7F5C1E-DBC1-4186-9C59-68CFE7638148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="900" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Utils" sheetId="3" r:id="rId1"/>
     <sheet name="Black" sheetId="13" r:id="rId2"/>
     <sheet name="Bachelier" sheetId="15" r:id="rId3"/>
     <sheet name="BlackScholes" sheetId="14" r:id="rId4"/>
-    <sheet name="Description" sheetId="7" r:id="rId5"/>
-    <sheet name="Special" sheetId="9" r:id="rId6"/>
+    <sheet name="BjerksundStensland2002" sheetId="16" r:id="rId5"/>
+    <sheet name="Description" sheetId="7" r:id="rId6"/>
+    <sheet name="Special" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -163,7 +164,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="142">
   <si>
     <t>x</t>
   </si>
@@ -569,6 +570,27 @@
   <si>
     <t>Black Price</t>
   </si>
+  <si>
+    <t>Bjerksund Stensland (2002) Option Greeks</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Black-Scholes</t>
+  </si>
+  <si>
+    <t>Put</t>
+  </si>
+  <si>
+    <t>Bjerksund Stensland (2002)</t>
+  </si>
+  <si>
+    <t>Call Option</t>
+  </si>
+  <si>
+    <t>Put Option</t>
+  </si>
 </sst>
 </file>
 
@@ -654,7 +676,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -692,6 +714,12 @@
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -917,7 +945,7 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -964,6 +992,7 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -10177,9 +10206,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -10211,7 +10241,7 @@
       </c>
       <c r="C4" s="6" t="str">
         <f>_xll.acq_version()</f>
-        <v>1.3.8023.26993</v>
+        <v>1.3.8023.34857</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
@@ -10306,6 +10336,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDB465FF-8B5A-499F-AD9B-C82D6914A8E1}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AQ43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10324,37 +10355,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
     </row>
     <row r="2" spans="1:43" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="44" t="s">
+      <c r="F2" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="L2" s="44" t="s">
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="L2" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="S2" s="44" t="s">
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="S2" s="45" t="s">
         <v>107</v>
       </c>
-      <c r="T2" s="44"/>
-      <c r="U2" s="44"/>
-      <c r="V2" s="44"/>
-      <c r="W2" s="44"/>
-      <c r="X2" s="44"/>
-      <c r="Y2" s="44"/>
-      <c r="Z2" s="44"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="45"/>
+      <c r="V2" s="45"/>
+      <c r="W2" s="45"/>
+      <c r="X2" s="45"/>
+      <c r="Y2" s="45"/>
+      <c r="Z2" s="45"/>
       <c r="AB2" s="3" t="s">
         <v>112</v>
       </c>
@@ -11529,16 +11560,16 @@
         <f>_xll.acq_options_black_vol($C$4,$C$5,$C$6,$C$8,N17,FALSE)</f>
         <v>0.65000000000000013</v>
       </c>
-      <c r="S17" s="44" t="s">
+      <c r="S17" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="T17" s="44"/>
-      <c r="U17" s="44"/>
-      <c r="V17" s="44"/>
-      <c r="W17" s="44"/>
-      <c r="X17" s="44"/>
-      <c r="Y17" s="44"/>
-      <c r="Z17" s="44"/>
+      <c r="T17" s="45"/>
+      <c r="U17" s="45"/>
+      <c r="V17" s="45"/>
+      <c r="W17" s="45"/>
+      <c r="X17" s="45"/>
+      <c r="Y17" s="45"/>
+      <c r="Z17" s="45"/>
       <c r="AB17" s="16">
         <f>C7</f>
         <v>0.2</v>
@@ -12700,10 +12731,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E1ECCF0-931A-41E3-AFEA-2FABAE8E4DC6}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AQ44"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="Z12" sqref="Z12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12718,37 +12750,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>128</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
     </row>
     <row r="2" spans="1:43" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="44" t="s">
+      <c r="F2" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="L2" s="44" t="s">
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="L2" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="S2" s="44" t="s">
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="S2" s="45" t="s">
         <v>107</v>
       </c>
-      <c r="T2" s="44"/>
-      <c r="U2" s="44"/>
-      <c r="V2" s="44"/>
-      <c r="W2" s="44"/>
-      <c r="X2" s="44"/>
-      <c r="Y2" s="44"/>
-      <c r="Z2" s="44"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="45"/>
+      <c r="V2" s="45"/>
+      <c r="W2" s="45"/>
+      <c r="X2" s="45"/>
+      <c r="Y2" s="45"/>
+      <c r="Z2" s="45"/>
       <c r="AB2" s="3" t="s">
         <v>112</v>
       </c>
@@ -13923,16 +13955,16 @@
         <f>_xll.acq_options_bachelier_vol($C$4,$C$5,$C$6,$C$8,N17,FALSE)</f>
         <v>25.999999999962554</v>
       </c>
-      <c r="S17" s="44" t="s">
+      <c r="S17" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="T17" s="44"/>
-      <c r="U17" s="44"/>
-      <c r="V17" s="44"/>
-      <c r="W17" s="44"/>
-      <c r="X17" s="44"/>
-      <c r="Y17" s="44"/>
-      <c r="Z17" s="44"/>
+      <c r="T17" s="45"/>
+      <c r="U17" s="45"/>
+      <c r="V17" s="45"/>
+      <c r="W17" s="45"/>
+      <c r="X17" s="45"/>
+      <c r="Y17" s="45"/>
+      <c r="Z17" s="45"/>
       <c r="AB17" s="16">
         <f>C7</f>
         <v>20</v>
@@ -14809,14 +14841,14 @@
       </c>
     </row>
     <row r="32" spans="6:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L32" s="44" t="s">
+      <c r="L32" s="45" t="s">
         <v>131</v>
       </c>
-      <c r="M32" s="44"/>
-      <c r="N32" s="44"/>
-      <c r="O32" s="44"/>
-      <c r="P32" s="44"/>
-      <c r="Q32" s="44"/>
+      <c r="M32" s="45"/>
+      <c r="N32" s="45"/>
+      <c r="O32" s="45"/>
+      <c r="P32" s="45"/>
+      <c r="Q32" s="45"/>
       <c r="AB32" t="s">
         <v>111</v>
       </c>
@@ -15442,12 +15474,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A1:D1"/>
     <mergeCell ref="L32:Q32"/>
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="L2:P2"/>
     <mergeCell ref="S2:Z2"/>
     <mergeCell ref="S17:Z17"/>
-    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -15457,10 +15489,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEC30C1E-5BFB-47EF-8AD5-509FD4075E48}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AS56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15475,37 +15508,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
     </row>
     <row r="2" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="44" t="s">
+      <c r="F2" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="L2" s="44" t="s">
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="L2" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="S2" s="44" t="s">
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="S2" s="45" t="s">
         <v>107</v>
       </c>
-      <c r="T2" s="44"/>
-      <c r="U2" s="44"/>
-      <c r="V2" s="44"/>
-      <c r="W2" s="44"/>
-      <c r="X2" s="44"/>
-      <c r="Y2" s="44"/>
-      <c r="Z2" s="44"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="45"/>
+      <c r="V2" s="45"/>
+      <c r="W2" s="45"/>
+      <c r="X2" s="45"/>
+      <c r="Y2" s="45"/>
+      <c r="Z2" s="45"/>
       <c r="AA2" s="38"/>
       <c r="AB2" s="38"/>
       <c r="AD2" s="3" t="s">
@@ -16782,16 +16815,16 @@
         <f>_xll.acq_options_blackscholes_vol($C$4,$C$5,$C$6,$C$8,$C$9,$N17,FALSE)</f>
         <v>0.65</v>
       </c>
-      <c r="S17" s="44" t="s">
+      <c r="S17" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="T17" s="44"/>
-      <c r="U17" s="44"/>
-      <c r="V17" s="44"/>
-      <c r="W17" s="44"/>
-      <c r="X17" s="44"/>
-      <c r="Y17" s="44"/>
-      <c r="Z17" s="44"/>
+      <c r="T17" s="45"/>
+      <c r="U17" s="45"/>
+      <c r="V17" s="45"/>
+      <c r="W17" s="45"/>
+      <c r="X17" s="45"/>
+      <c r="Y17" s="45"/>
+      <c r="Z17" s="45"/>
       <c r="AA17" s="38"/>
       <c r="AB17" s="38"/>
       <c r="AD17" s="16">
@@ -18396,7 +18429,5126 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{937DB880-8B2C-4D2D-B567-C1990F7A61F3}">
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="A1:AX34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:50" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="46" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+    </row>
+    <row r="2" spans="1:50" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="M2" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="F3" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="J3" s="45"/>
+      <c r="M3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" s="5">
+        <v>80</v>
+      </c>
+      <c r="F4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H4" t="s">
+        <v>138</v>
+      </c>
+      <c r="I4" t="s">
+        <v>91</v>
+      </c>
+      <c r="J4" t="s">
+        <v>138</v>
+      </c>
+      <c r="L4" t="s">
+        <v>125</v>
+      </c>
+      <c r="M4" s="44">
+        <v>0.1</v>
+      </c>
+      <c r="N4" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="O4" s="44">
+        <v>1</v>
+      </c>
+      <c r="P4" s="44">
+        <v>1.5</v>
+      </c>
+      <c r="Q4" s="44">
+        <v>2</v>
+      </c>
+      <c r="R4" s="44">
+        <v>2.5</v>
+      </c>
+      <c r="S4" s="44">
+        <v>3</v>
+      </c>
+      <c r="T4" s="44">
+        <v>3.5</v>
+      </c>
+      <c r="U4" s="44">
+        <v>4</v>
+      </c>
+      <c r="V4" s="44">
+        <v>4.5</v>
+      </c>
+      <c r="W4" s="44">
+        <v>5</v>
+      </c>
+      <c r="X4" s="44">
+        <v>5.5</v>
+      </c>
+      <c r="Y4" s="44">
+        <v>6</v>
+      </c>
+      <c r="Z4" s="44">
+        <v>6.5</v>
+      </c>
+      <c r="AA4" s="44">
+        <v>7</v>
+      </c>
+      <c r="AB4" s="44">
+        <v>7.5</v>
+      </c>
+      <c r="AC4" s="44">
+        <v>8</v>
+      </c>
+      <c r="AD4" s="44">
+        <v>8.5</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG4" s="44">
+        <v>0.1</v>
+      </c>
+      <c r="AH4" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="AI4" s="44">
+        <v>1</v>
+      </c>
+      <c r="AJ4" s="44">
+        <v>1.5</v>
+      </c>
+      <c r="AK4" s="44">
+        <v>2</v>
+      </c>
+      <c r="AL4" s="44">
+        <v>2.5</v>
+      </c>
+      <c r="AM4" s="44">
+        <v>3</v>
+      </c>
+      <c r="AN4" s="44">
+        <v>3.5</v>
+      </c>
+      <c r="AO4" s="44">
+        <v>4</v>
+      </c>
+      <c r="AP4" s="44">
+        <v>4.5</v>
+      </c>
+      <c r="AQ4" s="44">
+        <v>5</v>
+      </c>
+      <c r="AR4" s="44">
+        <v>5.5</v>
+      </c>
+      <c r="AS4" s="44">
+        <v>6</v>
+      </c>
+      <c r="AT4" s="44">
+        <v>6.5</v>
+      </c>
+      <c r="AU4" s="44">
+        <v>7</v>
+      </c>
+      <c r="AV4" s="44">
+        <v>7.5</v>
+      </c>
+      <c r="AW4" s="44">
+        <v>8</v>
+      </c>
+      <c r="AX4" s="44">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="5">
+        <v>90</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <f>_xll.acq_options_bjerksund_price_approx($C$4,F5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>70</v>
+      </c>
+      <c r="H5">
+        <f>_xll.acq_options_bjerksund_price_approx($C$4,F5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>1.7394086171407253E-11</v>
+      </c>
+      <c r="I5">
+        <f>_xll.acq_options_blackscholes_price($C$4,F5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>68.51249871727687</v>
+      </c>
+      <c r="J5">
+        <f>_xll.acq_options_blackscholes_price($C$4,G5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>4.470579186763576</v>
+      </c>
+      <c r="L5" s="44">
+        <v>150</v>
+      </c>
+      <c r="M5">
+        <f>_xll.acq_options_bjerksund_price_approx($L5,$C$5,M$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>60.029895702725661</v>
+      </c>
+      <c r="N5">
+        <f>_xll.acq_options_bjerksund_price_approx($L5,$C$5,N$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>60.149311128337409</v>
+      </c>
+      <c r="O5">
+        <f>_xll.acq_options_bjerksund_price_approx($L5,$C$5,O$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>60.333120662658622</v>
+      </c>
+      <c r="P5">
+        <f>_xll.acq_options_bjerksund_price_approx($L5,$C$5,P$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>60.61302180027652</v>
+      </c>
+      <c r="Q5">
+        <f>_xll.acq_options_bjerksund_price_approx($L5,$C$5,Q$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>60.986921363184784</v>
+      </c>
+      <c r="R5">
+        <f>_xll.acq_options_bjerksund_price_approx($L5,$C$5,R$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>61.427741387463584</v>
+      </c>
+      <c r="S5">
+        <f>_xll.acq_options_bjerksund_price_approx($L5,$C$5,S$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>61.910844283276425</v>
+      </c>
+      <c r="T5">
+        <f>_xll.acq_options_bjerksund_price_approx($L5,$C$5,T$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>62.41825240361873</v>
+      </c>
+      <c r="U5">
+        <f>_xll.acq_options_bjerksund_price_approx($L5,$C$5,U$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>62.937568038972188</v>
+      </c>
+      <c r="V5">
+        <f>_xll.acq_options_bjerksund_price_approx($L5,$C$5,V$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>63.46037955353669</v>
+      </c>
+      <c r="W5">
+        <f>_xll.acq_options_bjerksund_price_approx($L5,$C$5,W$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>63.981012192352047</v>
+      </c>
+      <c r="X5">
+        <f>_xll.acq_options_bjerksund_price_approx($L5,$C$5,X$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>64.495657905802233</v>
+      </c>
+      <c r="Y5">
+        <f>_xll.acq_options_bjerksund_price_approx($L5,$C$5,Y$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>65.001787077777777</v>
+      </c>
+      <c r="Z5">
+        <f>_xll.acq_options_bjerksund_price_approx($L5,$C$5,Z$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>65.497752038240634</v>
+      </c>
+      <c r="AA5">
+        <f>_xll.acq_options_bjerksund_price_approx($L5,$C$5,AA$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>65.982518062664582</v>
+      </c>
+      <c r="AB5">
+        <f>_xll.acq_options_bjerksund_price_approx($L5,$C$5,AB$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>66.455479031763559</v>
+      </c>
+      <c r="AC5">
+        <f>_xll.acq_options_bjerksund_price_approx($L5,$C$5,AC$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>66.916329736215062</v>
+      </c>
+      <c r="AD5">
+        <f>_xll.acq_options_bjerksund_price_approx($L5,$C$5,AD$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>67.364976493162942</v>
+      </c>
+      <c r="AF5" s="44">
+        <v>150</v>
+      </c>
+      <c r="AG5">
+        <f>_xll.acq_options_bjerksund_price_approx($L5,$C$5,AG$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>-2.8421709430404007E-14</v>
+      </c>
+      <c r="AH5">
+        <f>_xll.acq_options_bjerksund_price_approx($L5,$C$5,AH$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>5.2423704602233556E-4</v>
+      </c>
+      <c r="AI5">
+        <f>_xll.acq_options_bjerksund_price_approx($L5,$C$5,AI$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>3.2956499857846211E-2</v>
+      </c>
+      <c r="AJ5">
+        <f>_xll.acq_options_bjerksund_price_approx($L5,$C$5,AJ$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>0.15743120822392598</v>
+      </c>
+      <c r="AK5">
+        <f>_xll.acq_options_bjerksund_price_approx($L5,$C$5,AK$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>0.37286390789105894</v>
+      </c>
+      <c r="AL5">
+        <f>_xll.acq_options_bjerksund_price_approx($L5,$C$5,AL$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>0.65362194661997819</v>
+      </c>
+      <c r="AM5">
+        <f>_xll.acq_options_bjerksund_price_approx($L5,$C$5,AM$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>0.97650082959876272</v>
+      </c>
+      <c r="AN5">
+        <f>_xll.acq_options_bjerksund_price_approx($L5,$C$5,AN$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>1.3247488243186751</v>
+      </c>
+      <c r="AO5">
+        <f>_xll.acq_options_bjerksund_price_approx($L5,$C$5,AO$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>1.6869237577565741</v>
+      </c>
+      <c r="AP5">
+        <f>_xll.acq_options_bjerksund_price_approx($L5,$C$5,AP$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>2.0553095471105678</v>
+      </c>
+      <c r="AQ5">
+        <f>_xll.acq_options_bjerksund_price_approx($L5,$C$5,AQ$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>2.4247074345020394</v>
+      </c>
+      <c r="AR5">
+        <f>_xll.acq_options_bjerksund_price_approx($L5,$C$5,AR$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>2.7916122495678053</v>
+      </c>
+      <c r="AS5">
+        <f>_xll.acq_options_bjerksund_price_approx($L5,$C$5,AS$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>3.1536662532126627</v>
+      </c>
+      <c r="AT5">
+        <f>_xll.acq_options_bjerksund_price_approx($L5,$C$5,AT$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>3.5092972558975362</v>
+      </c>
+      <c r="AU5">
+        <f>_xll.acq_options_bjerksund_price_approx($L5,$C$5,AU$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>3.8574766524037898</v>
+      </c>
+      <c r="AV5">
+        <f>_xll.acq_options_bjerksund_price_approx($L5,$C$5,AV$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>4.1975556070452598</v>
+      </c>
+      <c r="AW5">
+        <f>_xll.acq_options_bjerksund_price_approx($L5,$C$5,AW$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>4.5291526706319161</v>
+      </c>
+      <c r="AX5">
+        <f>_xll.acq_options_bjerksund_price_approx($L5,$C$5,AX$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>4.8520756860833387</v>
+      </c>
+    </row>
+    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F6">
+        <v>20</v>
+      </c>
+      <c r="G6">
+        <f>_xll.acq_options_bjerksund_price_approx($C$4,F6,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>60</v>
+      </c>
+      <c r="H6">
+        <f>_xll.acq_options_bjerksund_price_approx($C$4,F6,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>1.0021636072110596E-5</v>
+      </c>
+      <c r="I6">
+        <f>_xll.acq_options_blackscholes_price($C$4,F6,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>59.000214491198946</v>
+      </c>
+      <c r="J6">
+        <f>_xll.acq_options_blackscholes_price($C$4,G6,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>1.7818945893580391</v>
+      </c>
+      <c r="L6" s="44">
+        <v>145</v>
+      </c>
+      <c r="M6">
+        <f>_xll.acq_options_bjerksund_price_approx($L6,$C$5,M$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>55.034892658549218</v>
+      </c>
+      <c r="N6">
+        <f>_xll.acq_options_bjerksund_price_approx($L6,$C$5,N$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>55.174378618866022</v>
+      </c>
+      <c r="O6">
+        <f>_xll.acq_options_bjerksund_price_approx($L6,$C$5,O$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>55.401113099243979</v>
+      </c>
+      <c r="P6">
+        <f>_xll.acq_options_bjerksund_price_approx($L6,$C$5,P$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>55.747792867114477</v>
+      </c>
+      <c r="Q6">
+        <f>_xll.acq_options_bjerksund_price_approx($L6,$C$5,Q$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>56.195095079861389</v>
+      </c>
+      <c r="R6">
+        <f>_xll.acq_options_bjerksund_price_approx($L6,$C$5,R$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>56.706624918025192</v>
+      </c>
+      <c r="S6">
+        <f>_xll.acq_options_bjerksund_price_approx($L6,$C$5,S$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>57.254677618842294</v>
+      </c>
+      <c r="T6">
+        <f>_xll.acq_options_bjerksund_price_approx($L6,$C$5,T$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>57.820772408251273</v>
+      </c>
+      <c r="U6">
+        <f>_xll.acq_options_bjerksund_price_approx($L6,$C$5,U$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>58.39290930798979</v>
+      </c>
+      <c r="V6">
+        <f>_xll.acq_options_bjerksund_price_approx($L6,$C$5,V$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>58.96332865841832</v>
+      </c>
+      <c r="W6">
+        <f>_xll.acq_options_bjerksund_price_approx($L6,$C$5,W$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>59.527023786065513</v>
+      </c>
+      <c r="X6">
+        <f>_xll.acq_options_bjerksund_price_approx($L6,$C$5,X$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>60.08079112489996</v>
+      </c>
+      <c r="Y6">
+        <f>_xll.acq_options_bjerksund_price_approx($L6,$C$5,Y$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>60.622622748678978</v>
+      </c>
+      <c r="Z6">
+        <f>_xll.acq_options_bjerksund_price_approx($L6,$C$5,Z$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>61.151312780089256</v>
+      </c>
+      <c r="AA6">
+        <f>_xll.acq_options_bjerksund_price_approx($L6,$C$5,AA$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>61.666198280291468</v>
+      </c>
+      <c r="AB6">
+        <f>_xll.acq_options_bjerksund_price_approx($L6,$C$5,AB$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>62.166985974069419</v>
+      </c>
+      <c r="AC6">
+        <f>_xll.acq_options_bjerksund_price_approx($L6,$C$5,AC$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>62.653634710753714</v>
+      </c>
+      <c r="AD6">
+        <f>_xll.acq_options_bjerksund_price_approx($L6,$C$5,AD$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>63.126274736328838</v>
+      </c>
+      <c r="AF6" s="44">
+        <v>145</v>
+      </c>
+      <c r="AG6">
+        <f>_xll.acq_options_bjerksund_price_approx($L6,$C$5,AG$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>2.8421709430404007E-14</v>
+      </c>
+      <c r="AH6">
+        <f>_xll.acq_options_bjerksund_price_approx($L6,$C$5,AH$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>1.3456070146560251E-3</v>
+      </c>
+      <c r="AI6">
+        <f>_xll.acq_options_bjerksund_price_approx($L6,$C$5,AI$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>5.4953157607968706E-2</v>
+      </c>
+      <c r="AJ6">
+        <f>_xll.acq_options_bjerksund_price_approx($L6,$C$5,AJ$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>0.22636147050107525</v>
+      </c>
+      <c r="AK6">
+        <f>_xll.acq_options_bjerksund_price_approx($L6,$C$5,AK$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>0.49680385331933508</v>
+      </c>
+      <c r="AL6">
+        <f>_xll.acq_options_bjerksund_price_approx($L6,$C$5,AL$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>0.83099703557758176</v>
+      </c>
+      <c r="AM6">
+        <f>_xll.acq_options_bjerksund_price_approx($L6,$C$5,AM$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>1.2023913709940359</v>
+      </c>
+      <c r="AN6">
+        <f>_xll.acq_options_bjerksund_price_approx($L6,$C$5,AN$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>1.5935235890466402</v>
+      </c>
+      <c r="AO6">
+        <f>_xll.acq_options_bjerksund_price_approx($L6,$C$5,AO$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>1.9932077434910411</v>
+      </c>
+      <c r="AP6">
+        <f>_xll.acq_options_bjerksund_price_approx($L6,$C$5,AP$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>2.3942901619579402</v>
+      </c>
+      <c r="AQ6">
+        <f>_xll.acq_options_bjerksund_price_approx($L6,$C$5,AQ$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>2.7921864538705563</v>
+      </c>
+      <c r="AR6">
+        <f>_xll.acq_options_bjerksund_price_approx($L6,$C$5,AR$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>3.1839652740036826</v>
+      </c>
+      <c r="AS6">
+        <f>_xll.acq_options_bjerksund_price_approx($L6,$C$5,AS$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>3.5677739896503482</v>
+      </c>
+      <c r="AT6">
+        <f>_xll.acq_options_bjerksund_price_approx($L6,$C$5,AT$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>3.9424737903659377</v>
+      </c>
+      <c r="AU6">
+        <f>_xll.acq_options_bjerksund_price_approx($L6,$C$5,AU$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>4.3074038850911336</v>
+      </c>
+      <c r="AV6">
+        <f>_xll.acq_options_bjerksund_price_approx($L6,$C$5,AV$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>4.6622264734135399</v>
+      </c>
+      <c r="AW6">
+        <f>_xll.acq_options_bjerksund_price_approx($L6,$C$5,AW$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>5.0068231697543837</v>
+      </c>
+      <c r="AX6">
+        <f>_xll.acq_options_bjerksund_price_approx($L6,$C$5,AX$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>5.3412247996944586</v>
+      </c>
+    </row>
+    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="F7">
+        <v>30</v>
+      </c>
+      <c r="G7">
+        <f>_xll.acq_options_bjerksund_price_approx($C$4,F7,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>50</v>
+      </c>
+      <c r="H7">
+        <f>_xll.acq_options_bjerksund_price_approx($C$4,F7,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>2.9398085981995337E-3</v>
+      </c>
+      <c r="I7">
+        <f>_xll.acq_options_blackscholes_price($C$4,F7,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>49.490846647233283</v>
+      </c>
+      <c r="J7">
+        <f>_xll.acq_options_blackscholes_price($C$4,G7,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>0.48120239598688475</v>
+      </c>
+      <c r="L7" s="44">
+        <v>140</v>
+      </c>
+      <c r="M7">
+        <f>_xll.acq_options_bjerksund_price_approx($L7,$C$5,M$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>50.039890101200164</v>
+      </c>
+      <c r="N7">
+        <f>_xll.acq_options_bjerksund_price_approx($L7,$C$5,N$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>50.200977753407635</v>
+      </c>
+      <c r="O7">
+        <f>_xll.acq_options_bjerksund_price_approx($L7,$C$5,O$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>50.484213345761454</v>
+      </c>
+      <c r="P7">
+        <f>_xll.acq_options_bjerksund_price_approx($L7,$C$5,P$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>50.913431691159758</v>
+      </c>
+      <c r="Q7">
+        <f>_xll.acq_options_bjerksund_price_approx($L7,$C$5,Q$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>51.445680904430013</v>
+      </c>
+      <c r="R7">
+        <f>_xll.acq_options_bjerksund_price_approx($L7,$C$5,R$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>52.03553261232787</v>
+      </c>
+      <c r="S7">
+        <f>_xll.acq_options_bjerksund_price_approx($L7,$C$5,S$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>52.653363145365226</v>
+      </c>
+      <c r="T7">
+        <f>_xll.acq_options_bjerksund_price_approx($L7,$C$5,T$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>53.281100002939894</v>
+      </c>
+      <c r="U7">
+        <f>_xll.acq_options_bjerksund_price_approx($L7,$C$5,U$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>53.907760813925591</v>
+      </c>
+      <c r="V7">
+        <f>_xll.acq_options_bjerksund_price_approx($L7,$C$5,V$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>54.526648340359642</v>
+      </c>
+      <c r="W7">
+        <f>_xll.acq_options_bjerksund_price_approx($L7,$C$5,W$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>55.133696849558859</v>
+      </c>
+      <c r="X7">
+        <f>_xll.acq_options_bjerksund_price_approx($L7,$C$5,X$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>55.726490876232639</v>
+      </c>
+      <c r="Y7">
+        <f>_xll.acq_options_bjerksund_price_approx($L7,$C$5,Y$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>56.303669420308253</v>
+      </c>
+      <c r="Z7">
+        <f>_xll.acq_options_bjerksund_price_approx($L7,$C$5,Z$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>56.864554875687254</v>
+      </c>
+      <c r="AA7">
+        <f>_xll.acq_options_bjerksund_price_approx($L7,$C$5,AA$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>57.408916426905932</v>
+      </c>
+      <c r="AB7">
+        <f>_xll.acq_options_bjerksund_price_approx($L7,$C$5,AB$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>57.936816081290949</v>
+      </c>
+      <c r="AC7">
+        <f>_xll.acq_options_bjerksund_price_approx($L7,$C$5,AC$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>58.448506760084094</v>
+      </c>
+      <c r="AD7">
+        <f>_xll.acq_options_bjerksund_price_approx($L7,$C$5,AD$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>58.944363920860035</v>
+      </c>
+      <c r="AF7" s="44">
+        <v>140</v>
+      </c>
+      <c r="AG7">
+        <f>_xll.acq_options_bjerksund_price_approx($L7,$C$5,AG$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>1.2505552149377763E-12</v>
+      </c>
+      <c r="AH7">
+        <f>_xll.acq_options_bjerksund_price_approx($L7,$C$5,AH$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>3.3814043360393953E-3</v>
+      </c>
+      <c r="AI7">
+        <f>_xll.acq_options_bjerksund_price_approx($L7,$C$5,AI$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>9.092499986797975E-2</v>
+      </c>
+      <c r="AJ7">
+        <f>_xll.acq_options_bjerksund_price_approx($L7,$C$5,AJ$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>0.32425211009154964</v>
+      </c>
+      <c r="AK7">
+        <f>_xll.acq_options_bjerksund_price_approx($L7,$C$5,AK$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>0.66063930552834904</v>
+      </c>
+      <c r="AL7">
+        <f>_xll.acq_options_bjerksund_price_approx($L7,$C$5,AL$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>1.0554515236365205</v>
+      </c>
+      <c r="AM7">
+        <f>_xll.acq_options_bjerksund_price_approx($L7,$C$5,AM$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>1.4799264240529055</v>
+      </c>
+      <c r="AN7">
+        <f>_xll.acq_options_bjerksund_price_approx($L7,$C$5,AN$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>1.9167723064650772</v>
+      </c>
+      <c r="AO7">
+        <f>_xll.acq_options_bjerksund_price_approx($L7,$C$5,AO$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>2.3556482439609852</v>
+      </c>
+      <c r="AP7">
+        <f>_xll.acq_options_bjerksund_price_approx($L7,$C$5,AP$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>2.7903448583539046</v>
+      </c>
+      <c r="AQ7">
+        <f>_xll.acq_options_bjerksund_price_approx($L7,$C$5,AQ$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>3.217141096033302</v>
+      </c>
+      <c r="AR7">
+        <f>_xll.acq_options_bjerksund_price_approx($L7,$C$5,AR$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>3.6338441683202944</v>
+      </c>
+      <c r="AS7">
+        <f>_xll.acq_options_bjerksund_price_approx($L7,$C$5,AS$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>4.0392174045080509</v>
+      </c>
+      <c r="AT7">
+        <f>_xll.acq_options_bjerksund_price_approx($L7,$C$5,AT$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>4.4326312043716598</v>
+      </c>
+      <c r="AU7">
+        <f>_xll.acq_options_bjerksund_price_approx($L7,$C$5,AU$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>4.8138452353644823</v>
+      </c>
+      <c r="AV7">
+        <f>_xll.acq_options_bjerksund_price_approx($L7,$C$5,AV$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>5.1828697496073772</v>
+      </c>
+      <c r="AW7">
+        <f>_xll.acq_options_bjerksund_price_approx($L7,$C$5,AW$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>5.5398757321653846</v>
+      </c>
+      <c r="AX7">
+        <f>_xll.acq_options_bjerksund_price_approx($L7,$C$5,AX$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>5.8851358444770767</v>
+      </c>
+    </row>
+    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="F8">
+        <v>40</v>
+      </c>
+      <c r="G8">
+        <f>_xll.acq_options_bjerksund_price_approx($C$4,F8,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>40.182001258943721</v>
+      </c>
+      <c r="H8">
+        <f>_xll.acq_options_bjerksund_price_approx($C$4,F8,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>6.8180472490496413E-2</v>
+      </c>
+      <c r="I8">
+        <f>_xll.acq_options_blackscholes_price($C$4,F8,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>40.043583872529908</v>
+      </c>
+      <c r="J8">
+        <f>_xll.acq_options_blackscholes_price($C$4,G8,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>7.1017782438979493E-2</v>
+      </c>
+      <c r="L8" s="44">
+        <v>135</v>
+      </c>
+      <c r="M8">
+        <f>_xll.acq_options_bjerksund_price_approx($L8,$C$5,M$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>45.044887597740647</v>
+      </c>
+      <c r="N8">
+        <f>_xll.acq_options_bjerksund_price_approx($L8,$C$5,N$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>45.230639158274975</v>
+      </c>
+      <c r="O8">
+        <f>_xll.acq_options_bjerksund_price_approx($L8,$C$5,O$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>45.590343781497623</v>
+      </c>
+      <c r="P8">
+        <f>_xll.acq_options_bjerksund_price_approx($L8,$C$5,P$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>46.120807616908252</v>
+      </c>
+      <c r="Q8">
+        <f>_xll.acq_options_bjerksund_price_approx($L8,$C$5,Q$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>46.750139359026143</v>
+      </c>
+      <c r="R8">
+        <f>_xll.acq_options_bjerksund_price_approx($L8,$C$5,R$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>47.425616169949784</v>
+      </c>
+      <c r="S8">
+        <f>_xll.acq_options_bjerksund_price_approx($L8,$C$5,S$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>48.117452842250117</v>
+      </c>
+      <c r="T8">
+        <f>_xll.acq_options_bjerksund_price_approx($L8,$C$5,T$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>48.809126969988924</v>
+      </c>
+      <c r="U8">
+        <f>_xll.acq_options_bjerksund_price_approx($L8,$C$5,U$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>49.491377326324013</v>
+      </c>
+      <c r="V8">
+        <f>_xll.acq_options_bjerksund_price_approx($L8,$C$5,V$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>50.159006635552636</v>
+      </c>
+      <c r="W8">
+        <f>_xll.acq_options_bjerksund_price_approx($L8,$C$5,W$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>50.809168296447311</v>
+      </c>
+      <c r="X8">
+        <f>_xll.acq_options_bjerksund_price_approx($L8,$C$5,X$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>51.440415841163841</v>
+      </c>
+      <c r="Y8">
+        <f>_xll.acq_options_bjerksund_price_approx($L8,$C$5,Y$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>52.052155134953253</v>
+      </c>
+      <c r="Z8">
+        <f>_xll.acq_options_bjerksund_price_approx($L8,$C$5,Z$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>52.644317611050667</v>
+      </c>
+      <c r="AA8">
+        <f>_xll.acq_options_bjerksund_price_approx($L8,$C$5,AA$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>53.217159596794964</v>
+      </c>
+      <c r="AB8">
+        <f>_xll.acq_options_bjerksund_price_approx($L8,$C$5,AB$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>53.771136141018239</v>
+      </c>
+      <c r="AC8">
+        <f>_xll.acq_options_bjerksund_price_approx($L8,$C$5,AC$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>54.306820232012669</v>
+      </c>
+      <c r="AD8">
+        <f>_xll.acq_options_bjerksund_price_approx($L8,$C$5,AD$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>54.824850405116564</v>
+      </c>
+      <c r="AF8" s="44">
+        <v>135</v>
+      </c>
+      <c r="AG8">
+        <f>_xll.acq_options_bjerksund_price_approx($L8,$C$5,AG$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>6.7473138187779114E-11</v>
+      </c>
+      <c r="AH8">
+        <f>_xll.acq_options_bjerksund_price_approx($L8,$C$5,AH$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>8.2947972643978574E-3</v>
+      </c>
+      <c r="AI8">
+        <f>_xll.acq_options_bjerksund_price_approx($L8,$C$5,AI$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>0.14911390113007883</v>
+      </c>
+      <c r="AJ8">
+        <f>_xll.acq_options_bjerksund_price_approx($L8,$C$5,AJ$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>0.46244231943057912</v>
+      </c>
+      <c r="AK8">
+        <f>_xll.acq_options_bjerksund_price_approx($L8,$C$5,AK$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>0.8764233714890679</v>
+      </c>
+      <c r="AL8">
+        <f>_xll.acq_options_bjerksund_price_approx($L8,$C$5,AL$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>1.3388230819856233</v>
+      </c>
+      <c r="AM8">
+        <f>_xll.acq_options_bjerksund_price_approx($L8,$C$5,AM$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>1.8204118537042433</v>
+      </c>
+      <c r="AN8">
+        <f>_xll.acq_options_bjerksund_price_approx($L8,$C$5,AN$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>2.3051901713713931</v>
+      </c>
+      <c r="AO8">
+        <f>_xll.acq_options_bjerksund_price_approx($L8,$C$5,AO$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>2.7843413208650389</v>
+      </c>
+      <c r="AP8">
+        <f>_xll.acq_options_bjerksund_price_approx($L8,$C$5,AP$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>3.2530142625000167</v>
+      </c>
+      <c r="AQ8">
+        <f>_xll.acq_options_bjerksund_price_approx($L8,$C$5,AQ$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>3.7086089386330769</v>
+      </c>
+      <c r="AR8">
+        <f>_xll.acq_options_bjerksund_price_approx($L8,$C$5,AR$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>4.1498351625423027</v>
+      </c>
+      <c r="AS8">
+        <f>_xll.acq_options_bjerksund_price_approx($L8,$C$5,AS$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>4.5761789090931302</v>
+      </c>
+      <c r="AT8">
+        <f>_xll.acq_options_bjerksund_price_approx($L8,$C$5,AT$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>4.9875904524205481</v>
+      </c>
+      <c r="AU8">
+        <f>_xll.acq_options_bjerksund_price_approx($L8,$C$5,AU$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>5.3842974359156273</v>
+      </c>
+      <c r="AV8">
+        <f>_xll.acq_options_bjerksund_price_approx($L8,$C$5,AV$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>5.7666904923380713</v>
+      </c>
+      <c r="AW8">
+        <f>_xll.acq_options_bjerksund_price_approx($L8,$C$5,AW$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>6.1352521509988946</v>
+      </c>
+      <c r="AX8">
+        <f>_xll.acq_options_bjerksund_price_approx($L8,$C$5,AX$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>6.4905121829301606</v>
+      </c>
+    </row>
+    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9" s="37">
+        <v>0.01</v>
+      </c>
+      <c r="F9">
+        <v>50</v>
+      </c>
+      <c r="G9">
+        <f>_xll.acq_options_bjerksund_price_approx($C$4,F9,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>30.982267186677173</v>
+      </c>
+      <c r="H9">
+        <f>_xll.acq_options_bjerksund_price_approx($C$4,F9,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>0.48432077797187389</v>
+      </c>
+      <c r="I9">
+        <f>_xll.acq_options_blackscholes_price($C$4,F9,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>30.944524133217804</v>
+      </c>
+      <c r="J9">
+        <f>_xll.acq_options_blackscholes_price($C$4,G9,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>4.3272291157355619E-3</v>
+      </c>
+      <c r="L9" s="44">
+        <v>130</v>
+      </c>
+      <c r="M9">
+        <f>_xll.acq_options_bjerksund_price_approx($L9,$C$5,M$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>40.049885101363046</v>
+      </c>
+      <c r="N9">
+        <f>_xll.acq_options_bjerksund_price_approx($L9,$C$5,N$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>40.266989691557718</v>
+      </c>
+      <c r="O9">
+        <f>_xll.acq_options_bjerksund_price_approx($L9,$C$5,O$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>40.73176903647412</v>
+      </c>
+      <c r="P9">
+        <f>_xll.acq_options_bjerksund_price_approx($L9,$C$5,P$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>41.384677603624837</v>
+      </c>
+      <c r="Q9">
+        <f>_xll.acq_options_bjerksund_price_approx($L9,$C$5,Q$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>42.123067952299934</v>
+      </c>
+      <c r="R9">
+        <f>_xll.acq_options_bjerksund_price_approx($L9,$C$5,R$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>42.890554826325214</v>
+      </c>
+      <c r="S9">
+        <f>_xll.acq_options_bjerksund_price_approx($L9,$C$5,S$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>43.659572936767717</v>
+      </c>
+      <c r="T9">
+        <f>_xll.acq_options_bjerksund_price_approx($L9,$C$5,T$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>44.416483778390472</v>
+      </c>
+      <c r="U9">
+        <f>_xll.acq_options_bjerksund_price_approx($L9,$C$5,U$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>45.154500229827825</v>
+      </c>
+      <c r="V9">
+        <f>_xll.acq_options_bjerksund_price_approx($L9,$C$5,V$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>45.870365169533599</v>
+      </c>
+      <c r="W9">
+        <f>_xll.acq_options_bjerksund_price_approx($L9,$C$5,W$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>46.562717894933328</v>
+      </c>
+      <c r="X9">
+        <f>_xll.acq_options_bjerksund_price_approx($L9,$C$5,X$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>47.23124762411701</v>
+      </c>
+      <c r="Y9">
+        <f>_xll.acq_options_bjerksund_price_approx($L9,$C$5,Y$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>47.876233755813494</v>
+      </c>
+      <c r="Z9">
+        <f>_xll.acq_options_bjerksund_price_approx($L9,$C$5,Z$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>48.498286197953355</v>
+      </c>
+      <c r="AA9">
+        <f>_xll.acq_options_bjerksund_price_approx($L9,$C$5,AA$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>49.098194092674618</v>
+      </c>
+      <c r="AB9">
+        <f>_xll.acq_options_bjerksund_price_approx($L9,$C$5,AB$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>49.6768356766257</v>
+      </c>
+      <c r="AC9">
+        <f>_xll.acq_options_bjerksund_price_approx($L9,$C$5,AC$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>50.235123814900042</v>
+      </c>
+      <c r="AD9">
+        <f>_xll.acq_options_bjerksund_price_approx($L9,$C$5,AD$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>50.773972946265111</v>
+      </c>
+      <c r="AF9" s="44">
+        <v>130</v>
+      </c>
+      <c r="AG9">
+        <f>_xll.acq_options_bjerksund_price_approx($L9,$C$5,AG$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>3.076877419516677E-9</v>
+      </c>
+      <c r="AH9">
+        <f>_xll.acq_options_bjerksund_price_approx($L9,$C$5,AH$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>1.9799382725949499E-2</v>
+      </c>
+      <c r="AI9">
+        <f>_xll.acq_options_bjerksund_price_approx($L9,$C$5,AI$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>0.24207534720095225</v>
+      </c>
+      <c r="AJ9">
+        <f>_xll.acq_options_bjerksund_price_approx($L9,$C$5,AJ$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>0.65618027562490511</v>
+      </c>
+      <c r="AK9">
+        <f>_xll.acq_options_bjerksund_price_approx($L9,$C$5,AK$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>1.1594160201749588</v>
+      </c>
+      <c r="AL9">
+        <f>_xll.acq_options_bjerksund_price_approx($L9,$C$5,AL$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>1.6955879064294379</v>
+      </c>
+      <c r="AM9">
+        <f>_xll.acq_options_bjerksund_price_approx($L9,$C$5,AM$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>2.2373719762246225</v>
+      </c>
+      <c r="AN9">
+        <f>_xll.acq_options_bjerksund_price_approx($L9,$C$5,AN$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>2.7713812339412129</v>
+      </c>
+      <c r="AO9">
+        <f>_xll.acq_options_bjerksund_price_approx($L9,$C$5,AO$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>3.2910596434546591</v>
+      </c>
+      <c r="AP9">
+        <f>_xll.acq_options_bjerksund_price_approx($L9,$C$5,AP$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>3.793337494657294</v>
+      </c>
+      <c r="AQ9">
+        <f>_xll.acq_options_bjerksund_price_approx($L9,$C$5,AQ$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>4.2769864631817711</v>
+      </c>
+      <c r="AR9">
+        <f>_xll.acq_options_bjerksund_price_approx($L9,$C$5,AR$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>4.7417718006371388</v>
+      </c>
+      <c r="AS9">
+        <f>_xll.acq_options_bjerksund_price_approx($L9,$C$5,AS$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>5.1879974322887108</v>
+      </c>
+      <c r="AT9">
+        <f>_xll.acq_options_bjerksund_price_approx($L9,$C$5,AT$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>5.6162539688630346</v>
+      </c>
+      <c r="AU9">
+        <f>_xll.acq_options_bjerksund_price_approx($L9,$C$5,AU$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>6.0272758295015194</v>
+      </c>
+      <c r="AV9">
+        <f>_xll.acq_options_bjerksund_price_approx($L9,$C$5,AV$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>6.4218590545830523</v>
+      </c>
+      <c r="AW9">
+        <f>_xll.acq_options_bjerksund_price_approx($L9,$C$5,AW$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>6.8008138222140673</v>
+      </c>
+      <c r="AX9">
+        <f>_xll.acq_options_bjerksund_price_approx($L9,$C$5,AX$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>7.1649372480679574</v>
+      </c>
+    </row>
+    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>60</v>
+      </c>
+      <c r="G10">
+        <f>_xll.acq_options_bjerksund_price_approx($C$4,F10,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>22.743099839948815</v>
+      </c>
+      <c r="H10">
+        <f>_xll.acq_options_bjerksund_price_approx($C$4,F10,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>1.8019645673627593</v>
+      </c>
+      <c r="I10">
+        <f>_xll.acq_options_blackscholes_price($C$4,F10,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>22.732922081581798</v>
+      </c>
+      <c r="J10">
+        <f>_xll.acq_options_blackscholes_price($C$4,G10,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>7.1356538435241664E-5</v>
+      </c>
+      <c r="L10" s="44">
+        <v>125</v>
+      </c>
+      <c r="M10">
+        <f>_xll.acq_options_bjerksund_price_approx($L10,$C$5,M$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>35.054882712867659</v>
+      </c>
+      <c r="N10">
+        <f>_xll.acq_options_bjerksund_price_approx($L10,$C$5,N$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>35.317902483239905</v>
+      </c>
+      <c r="O10">
+        <f>_xll.acq_options_bjerksund_price_approx($L10,$C$5,O$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>35.926883490306047</v>
+      </c>
+      <c r="P10">
+        <f>_xll.acq_options_bjerksund_price_approx($L10,$C$5,P$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>36.724675744616775</v>
+      </c>
+      <c r="Q10">
+        <f>_xll.acq_options_bjerksund_price_approx($L10,$C$5,Q$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>37.582789702242536</v>
+      </c>
+      <c r="R10">
+        <f>_xll.acq_options_bjerksund_price_approx($L10,$C$5,R$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>38.446942791664512</v>
+      </c>
+      <c r="S10">
+        <f>_xll.acq_options_bjerksund_price_approx($L10,$C$5,S$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>39.29470180736017</v>
+      </c>
+      <c r="T10">
+        <f>_xll.acq_options_bjerksund_price_approx($L10,$C$5,T$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>40.116752521292355</v>
+      </c>
+      <c r="U10">
+        <f>_xll.acq_options_bjerksund_price_approx($L10,$C$5,U$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>40.909528976804467</v>
+      </c>
+      <c r="V10">
+        <f>_xll.acq_options_bjerksund_price_approx($L10,$C$5,V$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>41.6721224606136</v>
+      </c>
+      <c r="W10">
+        <f>_xll.acq_options_bjerksund_price_approx($L10,$C$5,W$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>42.404891514014899</v>
+      </c>
+      <c r="X10">
+        <f>_xll.acq_options_bjerksund_price_approx($L10,$C$5,X$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>43.108799135149958</v>
+      </c>
+      <c r="Y10">
+        <f>_xll.acq_options_bjerksund_price_approx($L10,$C$5,Y$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>43.785081977971217</v>
+      </c>
+      <c r="Z10">
+        <f>_xll.acq_options_bjerksund_price_approx($L10,$C$5,Z$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>44.435079852403454</v>
+      </c>
+      <c r="AA10">
+        <f>_xll.acq_options_bjerksund_price_approx($L10,$C$5,AA$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>45.060146329247516</v>
+      </c>
+      <c r="AB10">
+        <f>_xll.acq_options_bjerksund_price_approx($L10,$C$5,AB$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>45.661601975301139</v>
+      </c>
+      <c r="AC10">
+        <f>_xll.acq_options_bjerksund_price_approx($L10,$C$5,AC$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>46.240710671607701</v>
+      </c>
+      <c r="AD10">
+        <f>_xll.acq_options_bjerksund_price_approx($L10,$C$5,AD$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>46.798668695058502</v>
+      </c>
+      <c r="AF10" s="44">
+        <v>125</v>
+      </c>
+      <c r="AG10">
+        <f>_xll.acq_options_bjerksund_price_approx($L10,$C$5,AG$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>1.1375576036698476E-7</v>
+      </c>
+      <c r="AH10">
+        <f>_xll.acq_options_bjerksund_price_approx($L10,$C$5,AH$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>4.582491854456805E-2</v>
+      </c>
+      <c r="AI10">
+        <f>_xll.acq_options_bjerksund_price_approx($L10,$C$5,AI$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>0.38848950637319035</v>
+      </c>
+      <c r="AJ10">
+        <f>_xll.acq_options_bjerksund_price_approx($L10,$C$5,AJ$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>0.92564463392963603</v>
+      </c>
+      <c r="AK10">
+        <f>_xll.acq_options_bjerksund_price_approx($L10,$C$5,AK$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>1.5287092339243884</v>
+      </c>
+      <c r="AL10">
+        <f>_xll.acq_options_bjerksund_price_approx($L10,$C$5,AL$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>2.1432874328358054</v>
+      </c>
+      <c r="AM10">
+        <f>_xll.acq_options_bjerksund_price_approx($L10,$C$5,AM$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>2.746868775366238</v>
+      </c>
+      <c r="AN10">
+        <f>_xll.acq_options_bjerksund_price_approx($L10,$C$5,AN$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>3.3301145701135084</v>
+      </c>
+      <c r="AO10">
+        <f>_xll.acq_options_bjerksund_price_approx($L10,$C$5,AO$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>3.8894690398800122</v>
+      </c>
+      <c r="AP10">
+        <f>_xll.acq_options_bjerksund_price_approx($L10,$C$5,AP$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>4.4240423252642529</v>
+      </c>
+      <c r="AQ10">
+        <f>_xll.acq_options_bjerksund_price_approx($L10,$C$5,AQ$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>4.9342007403686381</v>
+      </c>
+      <c r="AR10">
+        <f>_xll.acq_options_bjerksund_price_approx($L10,$C$5,AR$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>5.4208931552133635</v>
+      </c>
+      <c r="AS10">
+        <f>_xll.acq_options_bjerksund_price_approx($L10,$C$5,AS$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>5.8853164636791035</v>
+      </c>
+      <c r="AT10">
+        <f>_xll.acq_options_bjerksund_price_approx($L10,$C$5,AT$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>6.3287458020866865</v>
+      </c>
+      <c r="AU10">
+        <f>_xll.acq_options_bjerksund_price_approx($L10,$C$5,AU$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>6.7524481993386587</v>
+      </c>
+      <c r="AV10">
+        <f>_xll.acq_options_bjerksund_price_approx($L10,$C$5,AV$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>7.1576397850057987</v>
+      </c>
+      <c r="AW10">
+        <f>_xll.acq_options_bjerksund_price_approx($L10,$C$5,AW$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>7.5454661924539295</v>
+      </c>
+      <c r="AX10">
+        <f>_xll.acq_options_bjerksund_price_approx($L10,$C$5,AX$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>7.916995414277622</v>
+      </c>
+    </row>
+    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <v>70</v>
+      </c>
+      <c r="G11">
+        <f>_xll.acq_options_bjerksund_price_approx($C$4,F11,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>15.912100339992442</v>
+      </c>
+      <c r="H11">
+        <f>_xll.acq_options_bjerksund_price_approx($C$4,F11,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>4.548180464971459</v>
+      </c>
+      <c r="I11">
+        <f>_xll.acq_options_blackscholes_price($C$4,F11,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>15.909312433980197</v>
+      </c>
+      <c r="J11">
+        <f>_xll.acq_options_blackscholes_price($C$4,G11,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>2.0842521666130062E-7</v>
+      </c>
+      <c r="L11" s="44">
+        <v>120</v>
+      </c>
+      <c r="M11">
+        <f>_xll.acq_options_bjerksund_price_approx($L11,$C$5,M$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>30.059883415215879</v>
+      </c>
+      <c r="N11">
+        <f>_xll.acq_options_bjerksund_price_approx($L11,$C$5,N$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>30.399402076570158</v>
+      </c>
+      <c r="O11">
+        <f>_xll.acq_options_bjerksund_price_approx($L11,$C$5,O$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>31.202389512898421</v>
+      </c>
+      <c r="P11">
+        <f>_xll.acq_options_bjerksund_price_approx($L11,$C$5,P$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>32.166349964963139</v>
+      </c>
+      <c r="Q11">
+        <f>_xll.acq_options_bjerksund_price_approx($L11,$C$5,Q$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>33.151923157077107</v>
+      </c>
+      <c r="R11">
+        <f>_xll.acq_options_bjerksund_price_approx($L11,$C$5,R$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>34.114649759923196</v>
+      </c>
+      <c r="S11">
+        <f>_xll.acq_options_bjerksund_price_approx($L11,$C$5,S$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>35.040424663066354</v>
+      </c>
+      <c r="T11">
+        <f>_xll.acq_options_bjerksund_price_approx($L11,$C$5,T$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>35.92566218520281</v>
+      </c>
+      <c r="U11">
+        <f>_xll.acq_options_bjerksund_price_approx($L11,$C$5,U$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>36.770679865547507</v>
+      </c>
+      <c r="V11">
+        <f>_xll.acq_options_bjerksund_price_approx($L11,$C$5,V$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>37.577248552446093</v>
+      </c>
+      <c r="W11">
+        <f>_xll.acq_options_bjerksund_price_approx($L11,$C$5,W$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>38.34761878941886</v>
+      </c>
+      <c r="X11">
+        <f>_xll.acq_options_bjerksund_price_approx($L11,$C$5,X$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>39.084119749494405</v>
+      </c>
+      <c r="Y11">
+        <f>_xll.acq_options_bjerksund_price_approx($L11,$C$5,Y$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>39.788994911780591</v>
+      </c>
+      <c r="Z11">
+        <f>_xll.acq_options_bjerksund_price_approx($L11,$C$5,Z$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>40.464339817822541</v>
+      </c>
+      <c r="AA11">
+        <f>_xll.acq_options_bjerksund_price_approx($L11,$C$5,AA$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>41.112084736151118</v>
+      </c>
+      <c r="AB11">
+        <f>_xll.acq_options_bjerksund_price_approx($L11,$C$5,AB$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>41.733996931094296</v>
+      </c>
+      <c r="AC11">
+        <f>_xll.acq_options_bjerksund_price_approx($L11,$C$5,AC$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>42.331691022997632</v>
+      </c>
+      <c r="AD11">
+        <f>_xll.acq_options_bjerksund_price_approx($L11,$C$5,AD$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>42.906642136370472</v>
+      </c>
+      <c r="AF11" s="44">
+        <v>120</v>
+      </c>
+      <c r="AG11">
+        <f>_xll.acq_options_bjerksund_price_approx($L11,$C$5,AG$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>3.3152822709325847E-6</v>
+      </c>
+      <c r="AH11">
+        <f>_xll.acq_options_bjerksund_price_approx($L11,$C$5,AH$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>0.1024427767448941</v>
+      </c>
+      <c r="AI11">
+        <f>_xll.acq_options_bjerksund_price_approx($L11,$C$5,AI$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>0.61538408094742181</v>
+      </c>
+      <c r="AJ11">
+        <f>_xll.acq_options_bjerksund_price_approx($L11,$C$5,AJ$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>1.2970356770050273</v>
+      </c>
+      <c r="AK11">
+        <f>_xll.acq_options_bjerksund_price_approx($L11,$C$5,AK$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>2.0078543458621141</v>
+      </c>
+      <c r="AL11">
+        <f>_xll.acq_options_bjerksund_price_approx($L11,$C$5,AL$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>2.7029468510441035</v>
+      </c>
+      <c r="AM11">
+        <f>_xll.acq_options_bjerksund_price_approx($L11,$C$5,AM$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>3.3678149844288754</v>
+      </c>
+      <c r="AN11">
+        <f>_xll.acq_options_bjerksund_price_approx($L11,$C$5,AN$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>3.9985786205663345</v>
+      </c>
+      <c r="AO11">
+        <f>_xll.acq_options_bjerksund_price_approx($L11,$C$5,AO$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>4.5953473129556386</v>
+      </c>
+      <c r="AP11">
+        <f>_xll.acq_options_bjerksund_price_approx($L11,$C$5,AP$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>5.1597409934069702</v>
+      </c>
+      <c r="AQ11">
+        <f>_xll.acq_options_bjerksund_price_approx($L11,$C$5,AQ$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>5.6938894871545642</v>
+      </c>
+      <c r="AR11">
+        <f>_xll.acq_options_bjerksund_price_approx($L11,$C$5,AR$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>6.200012554274835</v>
+      </c>
+      <c r="AS11">
+        <f>_xll.acq_options_bjerksund_price_approx($L11,$C$5,AS$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>6.6802443031227057</v>
+      </c>
+      <c r="AT11">
+        <f>_xll.acq_options_bjerksund_price_approx($L11,$C$5,AT$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>7.1365653059148997</v>
+      </c>
+      <c r="AU11">
+        <f>_xll.acq_options_bjerksund_price_approx($L11,$C$5,AU$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>7.5707832430535689</v>
+      </c>
+      <c r="AV11">
+        <f>_xll.acq_options_bjerksund_price_approx($L11,$C$5,AV$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>7.984535252831904</v>
+      </c>
+      <c r="AW11">
+        <f>_xll.acq_options_bjerksund_price_approx($L11,$C$5,AW$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>8.3792994549324362</v>
+      </c>
+      <c r="AX11">
+        <f>_xll.acq_options_bjerksund_price_approx($L11,$C$5,AX$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>8.7564097134914078</v>
+      </c>
+    </row>
+    <row r="12" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <v>80</v>
+      </c>
+      <c r="G12">
+        <f>_xll.acq_options_bjerksund_price_approx($C$4,F12,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>10.675461246347382</v>
+      </c>
+      <c r="H12">
+        <f>_xll.acq_options_bjerksund_price_approx($C$4,F12,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>8.963084488971802</v>
+      </c>
+      <c r="I12">
+        <f>_xll.acq_options_blackscholes_price($C$4,F12,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>10.674677194964687</v>
+      </c>
+      <c r="J12">
+        <f>_xll.acq_options_blackscholes_price($C$4,G12,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>7.3893855328354254E-11</v>
+      </c>
+      <c r="L12" s="44">
+        <v>115</v>
+      </c>
+      <c r="M12">
+        <f>_xll.acq_options_bjerksund_price_approx($L12,$C$5,M$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>25.064951411640838</v>
+      </c>
+      <c r="N12">
+        <f>_xll.acq_options_bjerksund_price_approx($L12,$C$5,N$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>25.54204810814716</v>
+      </c>
+      <c r="O12">
+        <f>_xll.acq_options_bjerksund_price_approx($L12,$C$5,O$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>26.595671712794129</v>
+      </c>
+      <c r="P12">
+        <f>_xll.acq_options_bjerksund_price_approx($L12,$C$5,P$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>27.742107557631176</v>
+      </c>
+      <c r="Q12">
+        <f>_xll.acq_options_bjerksund_price_approx($L12,$C$5,Q$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>28.857851461955907</v>
+      </c>
+      <c r="R12">
+        <f>_xll.acq_options_bjerksund_price_approx($L12,$C$5,R$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>29.917102877124218</v>
+      </c>
+      <c r="S12">
+        <f>_xll.acq_options_bjerksund_price_approx($L12,$C$5,S$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>30.917130720907288</v>
+      </c>
+      <c r="T12">
+        <f>_xll.acq_options_bjerksund_price_approx($L12,$C$5,T$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>31.861242365140296</v>
+      </c>
+      <c r="U12">
+        <f>_xll.acq_options_bjerksund_price_approx($L12,$C$5,U$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>32.754114884143561</v>
+      </c>
+      <c r="V12">
+        <f>_xll.acq_options_bjerksund_price_approx($L12,$C$5,V$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>33.600398159483689</v>
+      </c>
+      <c r="W12">
+        <f>_xll.acq_options_bjerksund_price_approx($L12,$C$5,W$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>34.404315495642713</v>
+      </c>
+      <c r="X12">
+        <f>_xll.acq_options_bjerksund_price_approx($L12,$C$5,X$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>35.169589767413896</v>
+      </c>
+      <c r="Y12">
+        <f>_xll.acq_options_bjerksund_price_approx($L12,$C$5,Y$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>35.899474417345644</v>
+      </c>
+      <c r="Z12">
+        <f>_xll.acq_options_bjerksund_price_approx($L12,$C$5,Z$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>36.596812763138182</v>
+      </c>
+      <c r="AA12">
+        <f>_xll.acq_options_bjerksund_price_approx($L12,$C$5,AA$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>37.264099054118461</v>
+      </c>
+      <c r="AB12">
+        <f>_xll.acq_options_bjerksund_price_approx($L12,$C$5,AB$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>37.90353285043728</v>
+      </c>
+      <c r="AC12">
+        <f>_xll.acq_options_bjerksund_price_approx($L12,$C$5,AC$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>38.517064925961435</v>
+      </c>
+      <c r="AD12">
+        <f>_xll.acq_options_bjerksund_price_approx($L12,$C$5,AD$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>39.106435199974499</v>
+      </c>
+      <c r="AF12" s="44">
+        <v>115</v>
+      </c>
+      <c r="AG12">
+        <f>_xll.acq_options_bjerksund_price_approx($L12,$C$5,AG$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>7.3811555395764117E-5</v>
+      </c>
+      <c r="AH12">
+        <f>_xll.acq_options_bjerksund_price_approx($L12,$C$5,AH$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>0.22028370466465219</v>
+      </c>
+      <c r="AI12">
+        <f>_xll.acq_options_bjerksund_price_approx($L12,$C$5,AI$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>0.96058671319268285</v>
+      </c>
+      <c r="AJ12">
+        <f>_xll.acq_options_bjerksund_price_approx($L12,$C$5,AJ$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>1.8036075905552735</v>
+      </c>
+      <c r="AK12">
+        <f>_xll.acq_options_bjerksund_price_approx($L12,$C$5,AK$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>2.6254169164864294</v>
+      </c>
+      <c r="AL12">
+        <f>_xll.acq_options_bjerksund_price_approx($L12,$C$5,AL$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>3.39944038025655</v>
+      </c>
+      <c r="AM12">
+        <f>_xll.acq_options_bjerksund_price_approx($L12,$C$5,AM$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>4.1222525337616389</v>
+      </c>
+      <c r="AN12">
+        <f>_xll.acq_options_bjerksund_price_approx($L12,$C$5,AN$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>4.7966150393034326</v>
+      </c>
+      <c r="AO12">
+        <f>_xll.acq_options_bjerksund_price_approx($L12,$C$5,AO$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>5.4267928930945999</v>
+      </c>
+      <c r="AP12">
+        <f>_xll.acq_options_bjerksund_price_approx($L12,$C$5,AP$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>6.0171234223003154</v>
+      </c>
+      <c r="AQ12">
+        <f>_xll.acq_options_bjerksund_price_approx($L12,$C$5,AQ$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>6.5715841365104524</v>
+      </c>
+      <c r="AR12">
+        <f>_xll.acq_options_bjerksund_price_approx($L12,$C$5,AR$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>7.0936935669623438</v>
+      </c>
+      <c r="AS12">
+        <f>_xll.acq_options_bjerksund_price_approx($L12,$C$5,AS$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>7.5865248380169135</v>
+      </c>
+      <c r="AT12">
+        <f>_xll.acq_options_bjerksund_price_approx($L12,$C$5,AT$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>8.0527539173760943</v>
+      </c>
+      <c r="AU12">
+        <f>_xll.acq_options_bjerksund_price_approx($L12,$C$5,AU$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>8.4947141668525887</v>
+      </c>
+      <c r="AV12">
+        <f>_xll.acq_options_bjerksund_price_approx($L12,$C$5,AV$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>8.9144472322062285</v>
+      </c>
+      <c r="AW12">
+        <f>_xll.acq_options_bjerksund_price_approx($L12,$C$5,AW$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>9.3137473426373845</v>
+      </c>
+      <c r="AX12">
+        <f>_xll.acq_options_bjerksund_price_approx($L12,$C$5,AX$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>9.6941987528297062</v>
+      </c>
+    </row>
+    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <v>90</v>
+      </c>
+      <c r="G13">
+        <f>_xll.acq_options_bjerksund_price_approx($C$4,F13,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>6.9215587387001705</v>
+      </c>
+      <c r="H13">
+        <f>_xll.acq_options_bjerksund_price_approx($C$4,F13,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>14.979697998457091</v>
+      </c>
+      <c r="I13">
+        <f>_xll.acq_options_blackscholes_price($C$4,F13,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>6.9213312636179189</v>
+      </c>
+      <c r="J13">
+        <f>_xll.acq_options_blackscholes_price($C$4,G13,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>2.3497521755308832E-15</v>
+      </c>
+      <c r="L13" s="44">
+        <v>110</v>
+      </c>
+      <c r="M13">
+        <f>_xll.acq_options_bjerksund_price_approx($L13,$C$5,M$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>20.071088338757349</v>
+      </c>
+      <c r="N13">
+        <f>_xll.acq_options_bjerksund_price_approx($L13,$C$5,N$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>20.799938692044318</v>
+      </c>
+      <c r="O13">
+        <f>_xll.acq_options_bjerksund_price_approx($L13,$C$5,O$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>22.156906044311977</v>
+      </c>
+      <c r="P13">
+        <f>_xll.acq_options_bjerksund_price_approx($L13,$C$5,P$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>23.491839827175202</v>
+      </c>
+      <c r="Q13">
+        <f>_xll.acq_options_bjerksund_price_approx($L13,$C$5,Q$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>24.732966847878963</v>
+      </c>
+      <c r="R13">
+        <f>_xll.acq_options_bjerksund_price_approx($L13,$C$5,R$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>25.881415965763022</v>
+      </c>
+      <c r="S13">
+        <f>_xll.acq_options_bjerksund_price_approx($L13,$C$5,S$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>26.948104482933108</v>
+      </c>
+      <c r="T13">
+        <f>_xll.acq_options_bjerksund_price_approx($L13,$C$5,T$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>27.943901917301204</v>
+      </c>
+      <c r="U13">
+        <f>_xll.acq_options_bjerksund_price_approx($L13,$C$5,U$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>28.878016405019888</v>
+      </c>
+      <c r="V13">
+        <f>_xll.acq_options_bjerksund_price_approx($L13,$C$5,V$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>29.757984271690631</v>
+      </c>
+      <c r="W13">
+        <f>_xll.acq_options_bjerksund_price_approx($L13,$C$5,W$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>30.589956849185381</v>
+      </c>
+      <c r="X13">
+        <f>_xll.acq_options_bjerksund_price_approx($L13,$C$5,X$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>31.378993479781652</v>
+      </c>
+      <c r="Y13">
+        <f>_xll.acq_options_bjerksund_price_approx($L13,$C$5,Y$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>32.129301777246859</v>
+      </c>
+      <c r="Z13">
+        <f>_xll.acq_options_bjerksund_price_approx($L13,$C$5,Z$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>32.844422872693883</v>
+      </c>
+      <c r="AA13">
+        <f>_xll.acq_options_bjerksund_price_approx($L13,$C$5,AA$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>33.527371677920016</v>
+      </c>
+      <c r="AB13">
+        <f>_xll.acq_options_bjerksund_price_approx($L13,$C$5,AB$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>34.18074292352901</v>
+      </c>
+      <c r="AC13">
+        <f>_xll.acq_options_bjerksund_price_approx($L13,$C$5,AC$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>34.806791785534195</v>
+      </c>
+      <c r="AD13">
+        <f>_xll.acq_options_bjerksund_price_approx($L13,$C$5,AD$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>35.407495755314315</v>
+      </c>
+      <c r="AF13" s="44">
+        <v>110</v>
+      </c>
+      <c r="AG13">
+        <f>_xll.acq_options_bjerksund_price_approx($L13,$C$5,AG$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>1.2132692772155451E-3</v>
+      </c>
+      <c r="AH13">
+        <f>_xll.acq_options_bjerksund_price_approx($L13,$C$5,AH$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>0.453613384752245</v>
+      </c>
+      <c r="AI13">
+        <f>_xll.acq_options_bjerksund_price_approx($L13,$C$5,AI$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>1.4749646401712369</v>
+      </c>
+      <c r="AJ13">
+        <f>_xll.acq_options_bjerksund_price_approx($L13,$C$5,AJ$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>2.4864248683086885</v>
+      </c>
+      <c r="AK13">
+        <f>_xll.acq_options_bjerksund_price_approx($L13,$C$5,AK$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>3.4153452877612978</v>
+      </c>
+      <c r="AL13">
+        <f>_xll.acq_options_bjerksund_price_approx($L13,$C$5,AL$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>4.2617372573542127</v>
+      </c>
+      <c r="AM13">
+        <f>_xll.acq_options_bjerksund_price_approx($L13,$C$5,AM$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>5.0355551499580855</v>
+      </c>
+      <c r="AN13">
+        <f>_xll.acq_options_bjerksund_price_approx($L13,$C$5,AN$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>5.7469050943069107</v>
+      </c>
+      <c r="AO13">
+        <f>_xll.acq_options_bjerksund_price_approx($L13,$C$5,AO$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>6.404405233078478</v>
+      </c>
+      <c r="AP13">
+        <f>_xll.acq_options_bjerksund_price_approx($L13,$C$5,AP$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>7.0151356032888685</v>
+      </c>
+      <c r="AQ13">
+        <f>_xll.acq_options_bjerksund_price_approx($L13,$C$5,AQ$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>7.5848877746839776</v>
+      </c>
+      <c r="AR13">
+        <f>_xll.acq_options_bjerksund_price_approx($L13,$C$5,AR$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>8.1184280622307057</v>
+      </c>
+      <c r="AS13">
+        <f>_xll.acq_options_bjerksund_price_approx($L13,$C$5,AS$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>8.6197158782121477</v>
+      </c>
+      <c r="AT13">
+        <f>_xll.acq_options_bjerksund_price_approx($L13,$C$5,AT$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>9.0920737559599161</v>
+      </c>
+      <c r="AU13">
+        <f>_xll.acq_options_bjerksund_price_approx($L13,$C$5,AU$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>9.5383174771023107</v>
+      </c>
+      <c r="AV13">
+        <f>_xll.acq_options_bjerksund_price_approx($L13,$C$5,AV$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>9.96085559983959</v>
+      </c>
+      <c r="AW13">
+        <f>_xll.acq_options_bjerksund_price_approx($L13,$C$5,AW$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>10.361766050430347</v>
+      </c>
+      <c r="AX13">
+        <f>_xll.acq_options_bjerksund_price_approx($L13,$C$5,AX$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>10.74285559097676</v>
+      </c>
+    </row>
+    <row r="14" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <v>100</v>
+      </c>
+      <c r="G14">
+        <f>_xll.acq_options_bjerksund_price_approx($C$4,F14,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>4.3699303981775302</v>
+      </c>
+      <c r="H14">
+        <f>_xll.acq_options_bjerksund_price_approx($C$4,F14,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>22.347858028126087</v>
+      </c>
+      <c r="I14">
+        <f>_xll.acq_options_blackscholes_price($C$4,F14,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>4.3698621738224297</v>
+      </c>
+      <c r="J14">
+        <f>_xll.acq_options_blackscholes_price($C$4,G14,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>5.3853439862500383E-21</v>
+      </c>
+      <c r="L14" s="44">
+        <v>105</v>
+      </c>
+      <c r="M14">
+        <f>_xll.acq_options_bjerksund_price_approx($L14,$C$5,M$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>15.089078908761955</v>
+      </c>
+      <c r="N14">
+        <f>_xll.acq_options_bjerksund_price_approx($L14,$C$5,N$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>16.260663806201435</v>
+      </c>
+      <c r="O14">
+        <f>_xll.acq_options_bjerksund_price_approx($L14,$C$5,O$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>17.950079179012075</v>
+      </c>
+      <c r="P14">
+        <f>_xll.acq_options_bjerksund_price_approx($L14,$C$5,P$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>19.462888717153561</v>
+      </c>
+      <c r="Q14">
+        <f>_xll.acq_options_bjerksund_price_approx($L14,$C$5,Q$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>20.814520104240263</v>
+      </c>
+      <c r="R14">
+        <f>_xll.acq_options_bjerksund_price_approx($L14,$C$5,R$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>22.038265918649081</v>
+      </c>
+      <c r="S14">
+        <f>_xll.acq_options_bjerksund_price_approx($L14,$C$5,S$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>23.159446202401693</v>
+      </c>
+      <c r="T14">
+        <f>_xll.acq_options_bjerksund_price_approx($L14,$C$5,T$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>24.196387525812924</v>
+      </c>
+      <c r="U14">
+        <f>_xll.acq_options_bjerksund_price_approx($L14,$C$5,U$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>25.162575007575825</v>
+      </c>
+      <c r="V14">
+        <f>_xll.acq_options_bjerksund_price_approx($L14,$C$5,V$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>26.06818762947627</v>
+      </c>
+      <c r="W14">
+        <f>_xll.acq_options_bjerksund_price_approx($L14,$C$5,W$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>26.921102808915833</v>
+      </c>
+      <c r="X14">
+        <f>_xll.acq_options_bjerksund_price_approx($L14,$C$5,X$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>27.727555990902914</v>
+      </c>
+      <c r="Y14">
+        <f>_xll.acq_options_bjerksund_price_approx($L14,$C$5,Y$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>28.492582900496203</v>
+      </c>
+      <c r="Z14">
+        <f>_xll.acq_options_bjerksund_price_approx($L14,$C$5,Z$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>29.220323139942984</v>
+      </c>
+      <c r="AA14">
+        <f>_xll.acq_options_bjerksund_price_approx($L14,$C$5,AA$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>29.914233361114562</v>
+      </c>
+      <c r="AB14">
+        <f>_xll.acq_options_bjerksund_price_approx($L14,$C$5,AB$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>30.577240101665012</v>
+      </c>
+      <c r="AC14">
+        <f>_xll.acq_options_bjerksund_price_approx($L14,$C$5,AC$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>31.211851483314732</v>
+      </c>
+      <c r="AD14">
+        <f>_xll.acq_options_bjerksund_price_approx($L14,$C$5,AD$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>31.820240299030523</v>
+      </c>
+      <c r="AF14" s="44">
+        <v>105</v>
+      </c>
+      <c r="AG14">
+        <f>_xll.acq_options_bjerksund_price_approx($L14,$C$5,AG$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>1.4207392407001862E-2</v>
+      </c>
+      <c r="AH14">
+        <f>_xll.acq_options_bjerksund_price_approx($L14,$C$5,AH$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>0.89044786480191362</v>
+      </c>
+      <c r="AI14">
+        <f>_xll.acq_options_bjerksund_price_approx($L14,$C$5,AI$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>2.2236524093033694</v>
+      </c>
+      <c r="AJ14">
+        <f>_xll.acq_options_bjerksund_price_approx($L14,$C$5,AJ$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>3.3945209620445524</v>
+      </c>
+      <c r="AK14">
+        <f>_xll.acq_options_bjerksund_price_approx($L14,$C$5,AK$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>4.4169937942329796</v>
+      </c>
+      <c r="AL14">
+        <f>_xll.acq_options_bjerksund_price_approx($L14,$C$5,AL$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>5.3229379173855307</v>
+      </c>
+      <c r="AM14">
+        <f>_xll.acq_options_bjerksund_price_approx($L14,$C$5,AM$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>6.1364987349191011</v>
+      </c>
+      <c r="AN14">
+        <f>_xll.acq_options_bjerksund_price_approx($L14,$C$5,AN$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>6.8750715244478044</v>
+      </c>
+      <c r="AO14">
+        <f>_xll.acq_options_bjerksund_price_approx($L14,$C$5,AO$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>7.5514117745629221</v>
+      </c>
+      <c r="AP14">
+        <f>_xll.acq_options_bjerksund_price_approx($L14,$C$5,AP$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>8.1751258847823181</v>
+      </c>
+      <c r="AQ14">
+        <f>_xll.acq_options_bjerksund_price_approx($L14,$C$5,AQ$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>8.7536362110172092</v>
+      </c>
+      <c r="AR14">
+        <f>_xll.acq_options_bjerksund_price_approx($L14,$C$5,AR$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>9.2928086363881874</v>
+      </c>
+      <c r="AS14">
+        <f>_xll.acq_options_bjerksund_price_approx($L14,$C$5,AS$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>9.797370383220823</v>
+      </c>
+      <c r="AT14">
+        <f>_xll.acq_options_bjerksund_price_approx($L14,$C$5,AT$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>10.271195732686728</v>
+      </c>
+      <c r="AU14">
+        <f>_xll.acq_options_bjerksund_price_approx($L14,$C$5,AU$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>10.717506521863193</v>
+      </c>
+      <c r="AV14">
+        <f>_xll.acq_options_bjerksund_price_approx($L14,$C$5,AV$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>11.139016202777313</v>
+      </c>
+      <c r="AW14">
+        <f>_xll.acq_options_bjerksund_price_approx($L14,$C$5,AW$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>11.538035575976537</v>
+      </c>
+      <c r="AX14">
+        <f>_xll.acq_options_bjerksund_price_approx($L14,$C$5,AX$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>11.916551887694268</v>
+      </c>
+    </row>
+    <row r="15" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <v>110</v>
+      </c>
+      <c r="G15">
+        <f>_xll.acq_options_bjerksund_price_approx($C$4,F15,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>2.7044189274234327</v>
+      </c>
+      <c r="H15">
+        <f>_xll.acq_options_bjerksund_price_approx($C$4,F15,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>30.759866281838111</v>
+      </c>
+      <c r="I15">
+        <f>_xll.acq_options_blackscholes_price($C$4,F15,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>2.7043977636541268</v>
+      </c>
+      <c r="J15">
+        <f>_xll.acq_options_blackscholes_price($C$4,G15,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>7.729405664180053E-28</v>
+      </c>
+      <c r="L15" s="44">
+        <v>100</v>
+      </c>
+      <c r="M15">
+        <f>_xll.acq_options_bjerksund_price_approx($L15,$C$5,M$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>10.194368747525944</v>
+      </c>
+      <c r="N15">
+        <f>_xll.acq_options_bjerksund_price_approx($L15,$C$5,N$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>12.051174689778254</v>
+      </c>
+      <c r="O15">
+        <f>_xll.acq_options_bjerksund_price_approx($L15,$C$5,O$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>14.051712504142905</v>
+      </c>
+      <c r="P15">
+        <f>_xll.acq_options_bjerksund_price_approx($L15,$C$5,P$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>15.708918520645621</v>
+      </c>
+      <c r="Q15">
+        <f>_xll.acq_options_bjerksund_price_approx($L15,$C$5,Q$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>17.143860472714529</v>
+      </c>
+      <c r="R15">
+        <f>_xll.acq_options_bjerksund_price_approx($L15,$C$5,R$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>18.421390388216167</v>
+      </c>
+      <c r="S15">
+        <f>_xll.acq_options_bjerksund_price_approx($L15,$C$5,S$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>19.579739194710804</v>
+      </c>
+      <c r="T15">
+        <f>_xll.acq_options_bjerksund_price_approx($L15,$C$5,T$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>20.643564382435464</v>
+      </c>
+      <c r="U15">
+        <f>_xll.acq_options_bjerksund_price_approx($L15,$C$5,U$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>21.629847875355793</v>
+      </c>
+      <c r="V15">
+        <f>_xll.acq_options_bjerksund_price_approx($L15,$C$5,V$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>22.550869675298109</v>
+      </c>
+      <c r="W15">
+        <f>_xll.acq_options_bjerksund_price_approx($L15,$C$5,W$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>23.415850109563259</v>
+      </c>
+      <c r="X15">
+        <f>_xll.acq_options_bjerksund_price_approx($L15,$C$5,X$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>24.231923736588293</v>
+      </c>
+      <c r="Y15">
+        <f>_xll.acq_options_bjerksund_price_approx($L15,$C$5,Y$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>25.004749907192519</v>
+      </c>
+      <c r="Z15">
+        <f>_xll.acq_options_bjerksund_price_approx($L15,$C$5,Z$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>25.738912726088586</v>
+      </c>
+      <c r="AA15">
+        <f>_xll.acq_options_bjerksund_price_approx($L15,$C$5,AA$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>26.438192507625203</v>
+      </c>
+      <c r="AB15">
+        <f>_xll.acq_options_bjerksund_price_approx($L15,$C$5,AB$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>27.105755490658865</v>
+      </c>
+      <c r="AC15">
+        <f>_xll.acq_options_bjerksund_price_approx($L15,$C$5,AC$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>27.744289756075467</v>
+      </c>
+      <c r="AD15">
+        <f>_xll.acq_options_bjerksund_price_approx($L15,$C$5,AD$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>28.356104715142486</v>
+      </c>
+      <c r="AF15" s="44">
+        <v>100</v>
+      </c>
+      <c r="AG15">
+        <f>_xll.acq_options_bjerksund_price_approx($L15,$C$5,AG$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>0.11452387484486337</v>
+      </c>
+      <c r="AH15">
+        <f>_xll.acq_options_bjerksund_price_approx($L15,$C$5,AH$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>1.6587625040039171</v>
+      </c>
+      <c r="AI15">
+        <f>_xll.acq_options_bjerksund_price_approx($L15,$C$5,AI$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>3.2850903385475476</v>
+      </c>
+      <c r="AJ15">
+        <f>_xll.acq_options_bjerksund_price_approx($L15,$C$5,AJ$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>4.5840377894816413</v>
+      </c>
+      <c r="AK15">
+        <f>_xll.acq_options_bjerksund_price_approx($L15,$C$5,AK$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>5.6745976871329162</v>
+      </c>
+      <c r="AL15">
+        <f>_xll.acq_options_bjerksund_price_approx($L15,$C$5,AL$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>6.6199845150037504</v>
+      </c>
+      <c r="AM15">
+        <f>_xll.acq_options_bjerksund_price_approx($L15,$C$5,AM$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>7.4571264959484651</v>
+      </c>
+      <c r="AN15">
+        <f>_xll.acq_options_bjerksund_price_approx($L15,$C$5,AN$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>8.2096470746318033</v>
+      </c>
+      <c r="AO15">
+        <f>_xll.acq_options_bjerksund_price_approx($L15,$C$5,AO$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>8.8937078720868854</v>
+      </c>
+      <c r="AP15">
+        <f>_xll.acq_options_bjerksund_price_approx($L15,$C$5,AP$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>9.5209357399215833</v>
+      </c>
+      <c r="AQ15">
+        <f>_xll.acq_options_bjerksund_price_approx($L15,$C$5,AQ$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>10.100025976314051</v>
+      </c>
+      <c r="AR15">
+        <f>_xll.acq_options_bjerksund_price_approx($L15,$C$5,AR$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>10.63768454011965</v>
+      </c>
+      <c r="AS15">
+        <f>_xll.acq_options_bjerksund_price_approx($L15,$C$5,AS$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>11.139213781867618</v>
+      </c>
+      <c r="AT15">
+        <f>_xll.acq_options_bjerksund_price_approx($L15,$C$5,AT$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>11.608893554822394</v>
+      </c>
+      <c r="AU15">
+        <f>_xll.acq_options_bjerksund_price_approx($L15,$C$5,AU$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>12.050238715139059</v>
+      </c>
+      <c r="AV15">
+        <f>_xll.acq_options_bjerksund_price_approx($L15,$C$5,AV$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>12.466178701236245</v>
+      </c>
+      <c r="AW15">
+        <f>_xll.acq_options_bjerksund_price_approx($L15,$C$5,AW$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>12.859186195395665</v>
+      </c>
+      <c r="AX15">
+        <f>_xll.acq_options_bjerksund_price_approx($L15,$C$5,AX$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>13.231371472905231</v>
+      </c>
+    </row>
+    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>120</v>
+      </c>
+      <c r="G16">
+        <f>_xll.acq_options_bjerksund_price_approx($C$4,F16,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>1.6496000715474821</v>
+      </c>
+      <c r="H16">
+        <f>_xll.acq_options_bjerksund_price_approx($C$4,F16,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>40</v>
+      </c>
+      <c r="I16">
+        <f>_xll.acq_options_blackscholes_price($C$4,F16,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>1.649593283674097</v>
+      </c>
+      <c r="J16">
+        <f>_xll.acq_options_blackscholes_price($C$4,G16,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>6.4476133838922641E-36</v>
+      </c>
+      <c r="L16" s="44">
+        <v>95</v>
+      </c>
+      <c r="M16">
+        <f>_xll.acq_options_bjerksund_price_approx($L16,$C$5,M$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>5.703304743837748</v>
+      </c>
+      <c r="N16">
+        <f>_xll.acq_options_bjerksund_price_approx($L16,$C$5,N$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>8.3307618593992956</v>
+      </c>
+      <c r="O16">
+        <f>_xll.acq_options_bjerksund_price_approx($L16,$C$5,O$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>10.545885266967815</v>
+      </c>
+      <c r="P16">
+        <f>_xll.acq_options_bjerksund_price_approx($L16,$C$5,P$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>12.287211050316898</v>
+      </c>
+      <c r="Q16">
+        <f>_xll.acq_options_bjerksund_price_approx($L16,$C$5,Q$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>13.764826214757043</v>
+      </c>
+      <c r="R16">
+        <f>_xll.acq_options_bjerksund_price_approx($L16,$C$5,R$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>15.066562003383858</v>
+      </c>
+      <c r="S16">
+        <f>_xll.acq_options_bjerksund_price_approx($L16,$C$5,S$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>16.239366458938932</v>
+      </c>
+      <c r="T16">
+        <f>_xll.acq_options_bjerksund_price_approx($L16,$C$5,T$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>17.311948681304401</v>
+      </c>
+      <c r="U16">
+        <f>_xll.acq_options_bjerksund_price_approx($L16,$C$5,U$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>18.303434804014671</v>
+      </c>
+      <c r="V16">
+        <f>_xll.acq_options_bjerksund_price_approx($L16,$C$5,V$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>19.227347838211692</v>
+      </c>
+      <c r="W16">
+        <f>_xll.acq_options_bjerksund_price_approx($L16,$C$5,W$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>20.093678356600485</v>
+      </c>
+      <c r="X16">
+        <f>_xll.acq_options_bjerksund_price_approx($L16,$C$5,X$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>20.910062326950239</v>
+      </c>
+      <c r="Y16">
+        <f>_xll.acq_options_bjerksund_price_approx($L16,$C$5,Y$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>21.682497543904823</v>
+      </c>
+      <c r="Z16">
+        <f>_xll.acq_options_bjerksund_price_approx($L16,$C$5,Z$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>22.415802603676198</v>
+      </c>
+      <c r="AA16">
+        <f>_xll.acq_options_bjerksund_price_approx($L16,$C$5,AA$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>23.113923271129423</v>
+      </c>
+      <c r="AB16">
+        <f>_xll.acq_options_bjerksund_price_approx($L16,$C$5,AB$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>23.780143905274784</v>
+      </c>
+      <c r="AC16">
+        <f>_xll.acq_options_bjerksund_price_approx($L16,$C$5,AC$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>24.417237451557483</v>
+      </c>
+      <c r="AD16">
+        <f>_xll.acq_options_bjerksund_price_approx($L16,$C$5,AD$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>25.027574372888331</v>
+      </c>
+      <c r="AF16" s="44">
+        <v>95</v>
+      </c>
+      <c r="AG16">
+        <f>_xll.acq_options_bjerksund_price_approx($L16,$C$5,AG$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>0.61881182602388662</v>
+      </c>
+      <c r="AH16">
+        <f>_xll.acq_options_bjerksund_price_approx($L16,$C$5,AH$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>2.9200868595792642</v>
+      </c>
+      <c r="AI16">
+        <f>_xll.acq_options_bjerksund_price_approx($L16,$C$5,AI$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>4.7464869827151404</v>
+      </c>
+      <c r="AJ16">
+        <f>_xll.acq_options_bjerksund_price_approx($L16,$C$5,AJ$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>6.115873602200196</v>
+      </c>
+      <c r="AK16">
+        <f>_xll.acq_options_bjerksund_price_approx($L16,$C$5,AK$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>7.235967584162637</v>
+      </c>
+      <c r="AL16">
+        <f>_xll.acq_options_bjerksund_price_approx($L16,$C$5,AL$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>8.192908710278715</v>
+      </c>
+      <c r="AM16">
+        <f>_xll.acq_options_bjerksund_price_approx($L16,$C$5,AM$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>9.0323196120225333</v>
+      </c>
+      <c r="AN16">
+        <f>_xll.acq_options_bjerksund_price_approx($L16,$C$5,AN$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>9.7818484876693717</v>
+      </c>
+      <c r="AO16">
+        <f>_xll.acq_options_bjerksund_price_approx($L16,$C$5,AO$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>10.459766534512077</v>
+      </c>
+      <c r="AP16">
+        <f>_xll.acq_options_bjerksund_price_approx($L16,$C$5,AP$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>11.078904382604456</v>
+      </c>
+      <c r="AQ16">
+        <f>_xll.acq_options_bjerksund_price_approx($L16,$C$5,AQ$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>11.64868771447933</v>
+      </c>
+      <c r="AR16">
+        <f>_xll.acq_options_bjerksund_price_approx($L16,$C$5,AR$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>12.176286432836527</v>
+      </c>
+      <c r="AS16">
+        <f>_xll.acq_options_bjerksund_price_approx($L16,$C$5,AS$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>12.667308042476343</v>
+      </c>
+      <c r="AT16">
+        <f>_xll.acq_options_bjerksund_price_approx($L16,$C$5,AT$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>13.126238520130705</v>
+      </c>
+      <c r="AU16">
+        <f>_xll.acq_options_bjerksund_price_approx($L16,$C$5,AU$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>13.556734767325388</v>
+      </c>
+      <c r="AV16">
+        <f>_xll.acq_options_bjerksund_price_approx($L16,$C$5,AV$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>13.961825530319416</v>
+      </c>
+      <c r="AW16">
+        <f>_xll.acq_options_bjerksund_price_approx($L16,$C$5,AW$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>14.344053567414264</v>
+      </c>
+      <c r="AX16">
+        <f>_xll.acq_options_bjerksund_price_approx($L16,$C$5,AX$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>14.705578809370422</v>
+      </c>
+    </row>
+    <row r="17" spans="6:50" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <v>130</v>
+      </c>
+      <c r="G17">
+        <f>_xll.acq_options_bjerksund_price_approx($C$4,F17,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0.99608945520580505</v>
+      </c>
+      <c r="H17">
+        <f>_xll.acq_options_bjerksund_price_approx($C$4,F17,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="I17">
+        <f>_xll.acq_options_blackscholes_price($C$4,F17,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0.99608720630772662</v>
+      </c>
+      <c r="J17">
+        <f>_xll.acq_options_blackscholes_price($C$4,G17,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>3.0562561526478039E-45</v>
+      </c>
+      <c r="L17" s="44">
+        <v>90</v>
+      </c>
+      <c r="M17">
+        <f>_xll.acq_options_bjerksund_price_approx($L17,$C$5,M$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>2.3122538636149486</v>
+      </c>
+      <c r="N17">
+        <f>_xll.acq_options_bjerksund_price_approx($L17,$C$5,N$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>5.2620456969511764</v>
+      </c>
+      <c r="O17">
+        <f>_xll.acq_options_bjerksund_price_approx($L17,$C$5,O$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>7.5144666588364188</v>
+      </c>
+      <c r="P17">
+        <f>_xll.acq_options_bjerksund_price_approx($L17,$C$5,P$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>9.2539881321619006</v>
+      </c>
+      <c r="Q17">
+        <f>_xll.acq_options_bjerksund_price_approx($L17,$C$5,Q$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>10.721066242375976</v>
+      </c>
+      <c r="R17">
+        <f>_xll.acq_options_bjerksund_price_approx($L17,$C$5,R$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>12.00989390214081</v>
+      </c>
+      <c r="S17">
+        <f>_xll.acq_options_bjerksund_price_approx($L17,$C$5,S$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>13.169371832595488</v>
+      </c>
+      <c r="T17">
+        <f>_xll.acq_options_bjerksund_price_approx($L17,$C$5,T$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>14.228912411370359</v>
+      </c>
+      <c r="U17">
+        <f>_xll.acq_options_bjerksund_price_approx($L17,$C$5,U$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>15.207909478047128</v>
+      </c>
+      <c r="V17">
+        <f>_xll.acq_options_bjerksund_price_approx($L17,$C$5,V$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>16.119983163362114</v>
+      </c>
+      <c r="W17">
+        <f>_xll.acq_options_bjerksund_price_approx($L17,$C$5,W$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>16.975149440473729</v>
+      </c>
+      <c r="X17">
+        <f>_xll.acq_options_bjerksund_price_approx($L17,$C$5,X$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>17.78103809677021</v>
+      </c>
+      <c r="Y17">
+        <f>_xll.acq_options_bjerksund_price_approx($L17,$C$5,Y$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>18.543626426412274</v>
+      </c>
+      <c r="Z17">
+        <f>_xll.acq_options_bjerksund_price_approx($L17,$C$5,Z$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>19.267705982745873</v>
+      </c>
+      <c r="AA17">
+        <f>_xll.acq_options_bjerksund_price_approx($L17,$C$5,AA$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>19.957192619910131</v>
+      </c>
+      <c r="AB17">
+        <f>_xll.acq_options_bjerksund_price_approx($L17,$C$5,AB$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>20.615339753660507</v>
+      </c>
+      <c r="AC17">
+        <f>_xll.acq_options_bjerksund_price_approx($L17,$C$5,AC$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>21.244889332957847</v>
+      </c>
+      <c r="AD17">
+        <f>_xll.acq_options_bjerksund_price_approx($L17,$C$5,AD$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>21.848181331582815</v>
+      </c>
+      <c r="AF17" s="44">
+        <v>90</v>
+      </c>
+      <c r="AG17">
+        <f>_xll.acq_options_bjerksund_price_approx($L17,$C$5,AG$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>2.2256935677552718</v>
+      </c>
+      <c r="AH17">
+        <f>_xll.acq_options_bjerksund_price_approx($L17,$C$5,AH$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>4.8413900329811526</v>
+      </c>
+      <c r="AI17">
+        <f>_xll.acq_options_bjerksund_price_approx($L17,$C$5,AI$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>6.694590878796447</v>
+      </c>
+      <c r="AJ17">
+        <f>_xll.acq_options_bjerksund_price_approx($L17,$C$5,AJ$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>8.0514280916784813</v>
+      </c>
+      <c r="AK17">
+        <f>_xll.acq_options_bjerksund_price_approx($L17,$C$5,AK$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>9.1501765392402206</v>
+      </c>
+      <c r="AL17">
+        <f>_xll.acq_options_bjerksund_price_approx($L17,$C$5,AL$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>10.083470050093297</v>
+      </c>
+      <c r="AM17">
+        <f>_xll.acq_options_bjerksund_price_approx($L17,$C$5,AM$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>10.898971681884824</v>
+      </c>
+      <c r="AN17">
+        <f>_xll.acq_options_bjerksund_price_approx($L17,$C$5,AN$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>11.62508294360218</v>
+      </c>
+      <c r="AO17">
+        <f>_xll.acq_options_bjerksund_price_approx($L17,$C$5,AO$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>12.280364894034768</v>
+      </c>
+      <c r="AP17">
+        <f>_xll.acq_options_bjerksund_price_approx($L17,$C$5,AP$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>12.877748684489433</v>
+      </c>
+      <c r="AQ17">
+        <f>_xll.acq_options_bjerksund_price_approx($L17,$C$5,AQ$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>13.42667743745308</v>
+      </c>
+      <c r="AR17">
+        <f>_xll.acq_options_bjerksund_price_approx($L17,$C$5,AR$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>13.934301017286401</v>
+      </c>
+      <c r="AS17">
+        <f>_xll.acq_options_bjerksund_price_approx($L17,$C$5,AS$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>14.406190381315128</v>
+      </c>
+      <c r="AT17">
+        <f>_xll.acq_options_bjerksund_price_approx($L17,$C$5,AT$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>14.846788529156719</v>
+      </c>
+      <c r="AU17">
+        <f>_xll.acq_options_bjerksund_price_approx($L17,$C$5,AU$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>15.259707909441829</v>
+      </c>
+      <c r="AV17">
+        <f>_xll.acq_options_bjerksund_price_approx($L17,$C$5,AV$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>15.647933767266586</v>
+      </c>
+      <c r="AW17">
+        <f>_xll.acq_options_bjerksund_price_approx($L17,$C$5,AW$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>16.013967453147345</v>
+      </c>
+      <c r="AX17">
+        <f>_xll.acq_options_bjerksund_price_approx($L17,$C$5,AX$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>16.359930058076593</v>
+      </c>
+    </row>
+    <row r="18" spans="6:50" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <v>140</v>
+      </c>
+      <c r="G18">
+        <f>_xll.acq_options_bjerksund_price_approx($C$4,F18,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0.59751018234248932</v>
+      </c>
+      <c r="H18">
+        <f>_xll.acq_options_bjerksund_price_approx($C$4,F18,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="I18">
+        <f>_xll.acq_options_blackscholes_price($C$4,F18,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0.59750941360066445</v>
+      </c>
+      <c r="J18">
+        <f>_xll.acq_options_blackscholes_price($C$4,G18,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>8.3727825450387222E-56</v>
+      </c>
+      <c r="L18" s="44">
+        <v>85</v>
+      </c>
+      <c r="M18">
+        <f>_xll.acq_options_bjerksund_price_approx($L18,$C$5,M$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0.56691725446628993</v>
+      </c>
+      <c r="N18">
+        <f>_xll.acq_options_bjerksund_price_approx($L18,$C$5,N$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>2.9597266454155076</v>
+      </c>
+      <c r="O18">
+        <f>_xll.acq_options_bjerksund_price_approx($L18,$C$5,O$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>5.0226766893934638</v>
+      </c>
+      <c r="P18">
+        <f>_xll.acq_options_bjerksund_price_approx($L18,$C$5,P$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>6.6576742930445292</v>
+      </c>
+      <c r="Q18">
+        <f>_xll.acq_options_bjerksund_price_approx($L18,$C$5,Q$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>8.052174832467081</v>
+      </c>
+      <c r="R18">
+        <f>_xll.acq_options_bjerksund_price_approx($L18,$C$5,R$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>9.2853665630578206</v>
+      </c>
+      <c r="S18">
+        <f>_xll.acq_options_bjerksund_price_approx($L18,$C$5,S$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>10.399770703220533</v>
+      </c>
+      <c r="T18">
+        <f>_xll.acq_options_bjerksund_price_approx($L18,$C$5,T$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>11.4214801019817</v>
+      </c>
+      <c r="U18">
+        <f>_xll.acq_options_bjerksund_price_approx($L18,$C$5,U$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>12.367938292488994</v>
+      </c>
+      <c r="V18">
+        <f>_xll.acq_options_bjerksund_price_approx($L18,$C$5,V$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>13.251523087948449</v>
+      </c>
+      <c r="W18">
+        <f>_xll.acq_options_bjerksund_price_approx($L18,$C$5,W$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>14.081411779608565</v>
+      </c>
+      <c r="X18">
+        <f>_xll.acq_options_bjerksund_price_approx($L18,$C$5,X$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>14.864642084975628</v>
+      </c>
+      <c r="Y18">
+        <f>_xll.acq_options_bjerksund_price_approx($L18,$C$5,Y$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>15.606757830955146</v>
+      </c>
+      <c r="Z18">
+        <f>_xll.acq_options_bjerksund_price_approx($L18,$C$5,Z$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>16.312223259320682</v>
+      </c>
+      <c r="AA18">
+        <f>_xll.acq_options_bjerksund_price_approx($L18,$C$5,AA$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>16.98470032930696</v>
+      </c>
+      <c r="AB18">
+        <f>_xll.acq_options_bjerksund_price_approx($L18,$C$5,AB$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>17.627240786665482</v>
+      </c>
+      <c r="AC18">
+        <f>_xll.acq_options_bjerksund_price_approx($L18,$C$5,AC$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>18.242423006720443</v>
+      </c>
+      <c r="AD18">
+        <f>_xll.acq_options_bjerksund_price_approx($L18,$C$5,AD$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>18.832451826933266</v>
+      </c>
+      <c r="AF18" s="44">
+        <v>85</v>
+      </c>
+      <c r="AG18">
+        <f>_xll.acq_options_bjerksund_price_approx($L18,$C$5,AG$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>5.4878682693698551</v>
+      </c>
+      <c r="AH18">
+        <f>_xll.acq_options_bjerksund_price_approx($L18,$C$5,AH$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>7.5445846618882371</v>
+      </c>
+      <c r="AI18">
+        <f>_xll.acq_options_bjerksund_price_approx($L18,$C$5,AI$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>9.201731103505324</v>
+      </c>
+      <c r="AJ18">
+        <f>_xll.acq_options_bjerksund_price_approx($L18,$C$5,AJ$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>10.446273507573316</v>
+      </c>
+      <c r="AK18">
+        <f>_xll.acq_options_bjerksund_price_approx($L18,$C$5,AK$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>11.464074341652022</v>
+      </c>
+      <c r="AL18">
+        <f>_xll.acq_options_bjerksund_price_approx($L18,$C$5,AL$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>12.333049201459026</v>
+      </c>
+      <c r="AM18">
+        <f>_xll.acq_options_bjerksund_price_approx($L18,$C$5,AM$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>13.094660416311413</v>
+      </c>
+      <c r="AN18">
+        <f>_xll.acq_options_bjerksund_price_approx($L18,$C$5,AN$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>13.774104879304758</v>
+      </c>
+      <c r="AO18">
+        <f>_xll.acq_options_bjerksund_price_approx($L18,$C$5,AO$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>14.388065085952022</v>
+      </c>
+      <c r="AP18">
+        <f>_xll.acq_options_bjerksund_price_approx($L18,$C$5,AP$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>14.948271936423602</v>
+      </c>
+      <c r="AQ18">
+        <f>_xll.acq_options_bjerksund_price_approx($L18,$C$5,AQ$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>15.463351993869257</v>
+      </c>
+      <c r="AR18">
+        <f>_xll.acq_options_bjerksund_price_approx($L18,$C$5,AR$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>15.939872340802616</v>
+      </c>
+      <c r="AS18">
+        <f>_xll.acq_options_bjerksund_price_approx($L18,$C$5,AS$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>16.382971985284115</v>
+      </c>
+      <c r="AT18">
+        <f>_xll.acq_options_bjerksund_price_approx($L18,$C$5,AT$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>16.796763831895568</v>
+      </c>
+      <c r="AU18">
+        <f>_xll.acq_options_bjerksund_price_approx($L18,$C$5,AU$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>17.184601619142736</v>
+      </c>
+      <c r="AV18">
+        <f>_xll.acq_options_bjerksund_price_approx($L18,$C$5,AV$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>17.549263483962854</v>
+      </c>
+      <c r="AW18">
+        <f>_xll.acq_options_bjerksund_price_approx($L18,$C$5,AW$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>17.893081958850516</v>
+      </c>
+      <c r="AX18">
+        <f>_xll.acq_options_bjerksund_price_approx($L18,$C$5,AX$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>18.218038373608408</v>
+      </c>
+    </row>
+    <row r="19" spans="6:50" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <v>150</v>
+      </c>
+      <c r="G19">
+        <f>_xll.acq_options_bjerksund_price_approx($C$4,F19,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0.35703269044384456</v>
+      </c>
+      <c r="H19">
+        <f>_xll.acq_options_bjerksund_price_approx($C$4,F19,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>70</v>
+      </c>
+      <c r="I19">
+        <f>_xll.acq_options_blackscholes_price($C$4,F19,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0.35703241968582766</v>
+      </c>
+      <c r="J19">
+        <f>_xll.acq_options_blackscholes_price($C$4,G19,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>1.3877350979763694E-67</v>
+      </c>
+      <c r="L19" s="44">
+        <v>80</v>
+      </c>
+      <c r="M19">
+        <f>_xll.acq_options_bjerksund_price_approx($L19,$C$5,M$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>6.7961521561883842E-2</v>
+      </c>
+      <c r="N19">
+        <f>_xll.acq_options_bjerksund_price_approx($L19,$C$5,N$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>1.4359194232125816</v>
+      </c>
+      <c r="O19">
+        <f>_xll.acq_options_bjerksund_price_approx($L19,$C$5,O$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>3.1023483863125563</v>
+      </c>
+      <c r="P19">
+        <f>_xll.acq_options_bjerksund_price_approx($L19,$C$5,P$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>4.5306196354173878</v>
+      </c>
+      <c r="Q19">
+        <f>_xll.acq_options_bjerksund_price_approx($L19,$C$5,Q$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>5.7887438392251624</v>
+      </c>
+      <c r="R19">
+        <f>_xll.acq_options_bjerksund_price_approx($L19,$C$5,R$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>6.9215587387001705</v>
+      </c>
+      <c r="S19">
+        <f>_xll.acq_options_bjerksund_price_approx($L19,$C$5,S$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>7.9572550882385755</v>
+      </c>
+      <c r="T19">
+        <f>_xll.acq_options_bjerksund_price_approx($L19,$C$5,T$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>8.9146526330505225</v>
+      </c>
+      <c r="U19">
+        <f>_xll.acq_options_bjerksund_price_approx($L19,$C$5,U$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>9.8070225250203293</v>
+      </c>
+      <c r="V19">
+        <f>_xll.acq_options_bjerksund_price_approx($L19,$C$5,V$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>10.644139673767441</v>
+      </c>
+      <c r="W19">
+        <f>_xll.acq_options_bjerksund_price_approx($L19,$C$5,W$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>11.433455398564348</v>
+      </c>
+      <c r="X19">
+        <f>_xll.acq_options_bjerksund_price_approx($L19,$C$5,X$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>12.180808256353906</v>
+      </c>
+      <c r="Y19">
+        <f>_xll.acq_options_bjerksund_price_approx($L19,$C$5,Y$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>12.890877324188409</v>
+      </c>
+      <c r="Z19">
+        <f>_xll.acq_options_bjerksund_price_approx($L19,$C$5,Z$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>13.567483763510985</v>
+      </c>
+      <c r="AA19">
+        <f>_xll.acq_options_bjerksund_price_approx($L19,$C$5,AA$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>14.213798640800526</v>
+      </c>
+      <c r="AB19">
+        <f>_xll.acq_options_bjerksund_price_approx($L19,$C$5,AB$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>14.832490407156612</v>
+      </c>
+      <c r="AC19">
+        <f>_xll.acq_options_bjerksund_price_approx($L19,$C$5,AC$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>15.425832161277469</v>
+      </c>
+      <c r="AD19">
+        <f>_xll.acq_options_bjerksund_price_approx($L19,$C$5,AD$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>15.995781304610539</v>
+      </c>
+      <c r="AF19" s="44">
+        <v>80</v>
+      </c>
+      <c r="AG19">
+        <f>_xll.acq_options_bjerksund_price_approx($L19,$C$5,AG$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="AH19">
+        <f>_xll.acq_options_bjerksund_price_approx($L19,$C$5,AH$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>11.050582200833432</v>
+      </c>
+      <c r="AI19">
+        <f>_xll.acq_options_bjerksund_price_approx($L19,$C$5,AI$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>12.308947707276282</v>
+      </c>
+      <c r="AJ19">
+        <f>_xll.acq_options_bjerksund_price_approx($L19,$C$5,AJ$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>13.342012017076023</v>
+      </c>
+      <c r="AK19">
+        <f>_xll.acq_options_bjerksund_price_approx($L19,$C$5,AK$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>14.217591470517842</v>
+      </c>
+      <c r="AL19">
+        <f>_xll.acq_options_bjerksund_price_approx($L19,$C$5,AL$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>14.979697998457091</v>
+      </c>
+      <c r="AM19">
+        <f>_xll.acq_options_bjerksund_price_approx($L19,$C$5,AM$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>15.655716877240625</v>
+      </c>
+      <c r="AN19">
+        <f>_xll.acq_options_bjerksund_price_approx($L19,$C$5,AN$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>16.263737296279967</v>
+      </c>
+      <c r="AO19">
+        <f>_xll.acq_options_bjerksund_price_approx($L19,$C$5,AO$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>16.81638047336925</v>
+      </c>
+      <c r="AP19">
+        <f>_xll.acq_options_bjerksund_price_approx($L19,$C$5,AP$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>17.32284846034791</v>
+      </c>
+      <c r="AQ19">
+        <f>_xll.acq_options_bjerksund_price_approx($L19,$C$5,AQ$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>17.790090036700168</v>
+      </c>
+      <c r="AR19">
+        <f>_xll.acq_options_bjerksund_price_approx($L19,$C$5,AR$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>18.223503406266662</v>
+      </c>
+      <c r="AS19">
+        <f>_xll.acq_options_bjerksund_price_approx($L19,$C$5,AS$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>18.627380991943244</v>
+      </c>
+      <c r="AT19">
+        <f>_xll.acq_options_bjerksund_price_approx($L19,$C$5,AT$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>19.005202831819727</v>
+      </c>
+      <c r="AU19">
+        <f>_xll.acq_options_bjerksund_price_approx($L19,$C$5,AU$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>19.359836966014367</v>
+      </c>
+      <c r="AV19">
+        <f>_xll.acq_options_bjerksund_price_approx($L19,$C$5,AV$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>19.693680418970551</v>
+      </c>
+      <c r="AW19">
+        <f>_xll.acq_options_bjerksund_price_approx($L19,$C$5,AW$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>20.008760950375439</v>
+      </c>
+      <c r="AX19">
+        <f>_xll.acq_options_bjerksund_price_approx($L19,$C$5,AX$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>20.306812135955674</v>
+      </c>
+    </row>
+    <row r="20" spans="6:50" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <v>160</v>
+      </c>
+      <c r="G20">
+        <f>_xll.acq_options_bjerksund_price_approx($C$4,F20,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0.21296899569676953</v>
+      </c>
+      <c r="H20">
+        <f>_xll.acq_options_bjerksund_price_approx($C$4,F20,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>80</v>
+      </c>
+      <c r="I20">
+        <f>_xll.acq_options_blackscholes_price($C$4,F20,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0.2129688975753421</v>
+      </c>
+      <c r="J20">
+        <f>_xll.acq_options_blackscholes_price($C$4,G20,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>1.4866366536092016E-80</v>
+      </c>
+      <c r="L20" s="44">
+        <v>75</v>
+      </c>
+      <c r="M20">
+        <f>_xll.acq_options_bjerksund_price_approx($L20,$C$5,M$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>3.1464582990707868E-3</v>
+      </c>
+      <c r="N20">
+        <f>_xll.acq_options_bjerksund_price_approx($L20,$C$5,N$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0.5777083292358185</v>
+      </c>
+      <c r="O20">
+        <f>_xll.acq_options_bjerksund_price_approx($L20,$C$5,O$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>1.738019675711044</v>
+      </c>
+      <c r="P20">
+        <f>_xll.acq_options_bjerksund_price_approx($L20,$C$5,P$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>2.8806882501430806</v>
+      </c>
+      <c r="Q20">
+        <f>_xll.acq_options_bjerksund_price_approx($L20,$C$5,Q$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>3.9468041815703785</v>
+      </c>
+      <c r="R20">
+        <f>_xll.acq_options_bjerksund_price_approx($L20,$C$5,R$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>4.9377378428312326</v>
+      </c>
+      <c r="S20">
+        <f>_xll.acq_options_bjerksund_price_approx($L20,$C$5,S$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>5.86232360465754</v>
+      </c>
+      <c r="T20">
+        <f>_xll.acq_options_bjerksund_price_approx($L20,$C$5,T$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>6.7292359159444999</v>
+      </c>
+      <c r="U20">
+        <f>_xll.acq_options_bjerksund_price_approx($L20,$C$5,U$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>7.5458195479135313</v>
+      </c>
+      <c r="V20">
+        <f>_xll.acq_options_bjerksund_price_approx($L20,$C$5,V$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>8.3181108665467676</v>
+      </c>
+      <c r="W20">
+        <f>_xll.acq_options_bjerksund_price_approx($L20,$C$5,W$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>9.0510639664895649</v>
+      </c>
+      <c r="X20">
+        <f>_xll.acq_options_bjerksund_price_approx($L20,$C$5,X$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>9.7487738534226693</v>
+      </c>
+      <c r="Y20">
+        <f>_xll.acq_options_bjerksund_price_approx($L20,$C$5,Y$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>10.414658365943779</v>
+      </c>
+      <c r="Z20">
+        <f>_xll.acq_options_bjerksund_price_approx($L20,$C$5,Z$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>11.051599285474452</v>
+      </c>
+      <c r="AA20">
+        <f>_xll.acq_options_bjerksund_price_approx($L20,$C$5,AA$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>11.66205054724859</v>
+      </c>
+      <c r="AB20">
+        <f>_xll.acq_options_bjerksund_price_approx($L20,$C$5,AB$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>12.248121379736752</v>
+      </c>
+      <c r="AC20">
+        <f>_xll.acq_options_bjerksund_price_approx($L20,$C$5,AC$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>12.811640620586559</v>
+      </c>
+      <c r="AD20">
+        <f>_xll.acq_options_bjerksund_price_approx($L20,$C$5,AD$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>13.354206899879237</v>
+      </c>
+      <c r="AF20" s="44">
+        <v>75</v>
+      </c>
+      <c r="AG20">
+        <f>_xll.acq_options_bjerksund_price_approx($L20,$C$5,AG$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>15</v>
+      </c>
+      <c r="AH20">
+        <f>_xll.acq_options_bjerksund_price_approx($L20,$C$5,AH$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>15.246818187947017</v>
+      </c>
+      <c r="AI20">
+        <f>_xll.acq_options_bjerksund_price_approx($L20,$C$5,AI$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>16.00978757865439</v>
+      </c>
+      <c r="AJ20">
+        <f>_xll.acq_options_bjerksund_price_approx($L20,$C$5,AJ$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>16.757068232395795</v>
+      </c>
+      <c r="AK20">
+        <f>_xll.acq_options_bjerksund_price_approx($L20,$C$5,AK$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>17.437963129758209</v>
+      </c>
+      <c r="AL20">
+        <f>_xll.acq_options_bjerksund_price_approx($L20,$C$5,AL$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>18.054308869287123</v>
+      </c>
+      <c r="AM20">
+        <f>_xll.acq_options_bjerksund_price_approx($L20,$C$5,AM$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>18.614612375857927</v>
+      </c>
+      <c r="AN20">
+        <f>_xll.acq_options_bjerksund_price_approx($L20,$C$5,AN$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>19.127075571025014</v>
+      </c>
+      <c r="AO20">
+        <f>_xll.acq_options_bjerksund_price_approx($L20,$C$5,AO$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>19.598556509741538</v>
+      </c>
+      <c r="AP20">
+        <f>_xll.acq_options_bjerksund_price_approx($L20,$C$5,AP$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>20.0346284583573</v>
+      </c>
+      <c r="AQ20">
+        <f>_xll.acq_options_bjerksund_price_approx($L20,$C$5,AQ$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>20.439818227689148</v>
+      </c>
+      <c r="AR20">
+        <f>_xll.acq_options_bjerksund_price_approx($L20,$C$5,AR$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>20.817832144043908</v>
+      </c>
+      <c r="AS20">
+        <f>_xll.acq_options_bjerksund_price_approx($L20,$C$5,AS$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>21.171736657244736</v>
+      </c>
+      <c r="AT20">
+        <f>_xll.acq_options_bjerksund_price_approx($L20,$C$5,AT$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>21.504096286936324</v>
+      </c>
+      <c r="AU20">
+        <f>_xll.acq_options_bjerksund_price_approx($L20,$C$5,AU$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>21.817077958980818</v>
+      </c>
+      <c r="AV20">
+        <f>_xll.acq_options_bjerksund_price_approx($L20,$C$5,AV$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>22.112530177371838</v>
+      </c>
+      <c r="AW20">
+        <f>_xll.acq_options_bjerksund_price_approx($L20,$C$5,AW$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>22.392043608856678</v>
+      </c>
+      <c r="AX20">
+        <f>_xll.acq_options_bjerksund_price_approx($L20,$C$5,AX$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>22.656997927838486</v>
+      </c>
+    </row>
+    <row r="21" spans="6:50" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <v>170</v>
+      </c>
+      <c r="G21">
+        <f>_xll.acq_options_bjerksund_price_approx($C$4,F21,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0.12702713253929687</v>
+      </c>
+      <c r="H21">
+        <f>_xll.acq_options_bjerksund_price_approx($C$4,F21,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>90</v>
+      </c>
+      <c r="I21">
+        <f>_xll.acq_options_blackscholes_price($C$4,F21,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0.12702709600320783</v>
+      </c>
+      <c r="J21">
+        <f>_xll.acq_options_blackscholes_price($C$4,G21,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>1.114979080970256E-94</v>
+      </c>
+      <c r="L21" s="44">
+        <v>70</v>
+      </c>
+      <c r="M21">
+        <f>_xll.acq_options_bjerksund_price_approx($L21,$C$5,M$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>4.3123563116864716E-5</v>
+      </c>
+      <c r="N21">
+        <f>_xll.acq_options_bjerksund_price_approx($L21,$C$5,N$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0.18358130900431036</v>
+      </c>
+      <c r="O21">
+        <f>_xll.acq_options_bjerksund_price_approx($L21,$C$5,O$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0.86266277135719349</v>
+      </c>
+      <c r="P21">
+        <f>_xll.acq_options_bjerksund_price_approx($L21,$C$5,P$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>1.6850607492621492</v>
+      </c>
+      <c r="Q21">
+        <f>_xll.acq_options_bjerksund_price_approx($L21,$C$5,Q$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>2.5226160082079616</v>
+      </c>
+      <c r="R21">
+        <f>_xll.acq_options_bjerksund_price_approx($L21,$C$5,R$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>3.3397281753279771</v>
+      </c>
+      <c r="S21">
+        <f>_xll.acq_options_bjerksund_price_approx($L21,$C$5,S$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>4.1260137022263521</v>
+      </c>
+      <c r="T21">
+        <f>_xll.acq_options_bjerksund_price_approx($L21,$C$5,T$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>4.8792353628231595</v>
+      </c>
+      <c r="U21">
+        <f>_xll.acq_options_bjerksund_price_approx($L21,$C$5,U$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>5.6000451992627944</v>
+      </c>
+      <c r="V21">
+        <f>_xll.acq_options_bjerksund_price_approx($L21,$C$5,V$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>6.290116911474172</v>
+      </c>
+      <c r="W21">
+        <f>_xll.acq_options_bjerksund_price_approx($L21,$C$5,W$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>6.9514211229817633</v>
+      </c>
+      <c r="X21">
+        <f>_xll.acq_options_bjerksund_price_approx($L21,$C$5,X$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>7.5859327028408856</v>
+      </c>
+      <c r="Y21">
+        <f>_xll.acq_options_bjerksund_price_approx($L21,$C$5,Y$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>8.1955148329917051</v>
+      </c>
+      <c r="Z21">
+        <f>_xll.acq_options_bjerksund_price_approx($L21,$C$5,Z$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>8.7818790377139706</v>
+      </c>
+      <c r="AA21">
+        <f>_xll.acq_options_bjerksund_price_approx($L21,$C$5,AA$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>9.3465784915734744</v>
+      </c>
+      <c r="AB21">
+        <f>_xll.acq_options_bjerksund_price_approx($L21,$C$5,AB$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>9.8910155926597412</v>
+      </c>
+      <c r="AC21">
+        <f>_xll.acq_options_bjerksund_price_approx($L21,$C$5,AC$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>10.416455060520754</v>
+      </c>
+      <c r="AD21">
+        <f>_xll.acq_options_bjerksund_price_approx($L21,$C$5,AD$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>10.924038500077074</v>
+      </c>
+      <c r="AF21" s="44">
+        <v>70</v>
+      </c>
+      <c r="AG21">
+        <f>_xll.acq_options_bjerksund_price_approx($L21,$C$5,AG$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="AH21">
+        <f>_xll.acq_options_bjerksund_price_approx($L21,$C$5,AH$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="AI21">
+        <f>_xll.acq_options_bjerksund_price_approx($L21,$C$5,AI$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>20.238019249382102</v>
+      </c>
+      <c r="AJ21">
+        <f>_xll.acq_options_bjerksund_price_approx($L21,$C$5,AJ$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>20.677356796210439</v>
+      </c>
+      <c r="AK21">
+        <f>_xll.acq_options_bjerksund_price_approx($L21,$C$5,AK$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>21.133125706674903</v>
+      </c>
+      <c r="AL21">
+        <f>_xll.acq_options_bjerksund_price_approx($L21,$C$5,AL$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>21.575927975654391</v>
+      </c>
+      <c r="AM21">
+        <f>_xll.acq_options_bjerksund_price_approx($L21,$C$5,AM$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>21.996612815285655</v>
+      </c>
+      <c r="AN21">
+        <f>_xll.acq_options_bjerksund_price_approx($L21,$C$5,AN$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>22.393106176656673</v>
+      </c>
+      <c r="AO21">
+        <f>_xll.acq_options_bjerksund_price_approx($L21,$C$5,AO$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>22.765903612647875</v>
+      </c>
+      <c r="AP21">
+        <f>_xll.acq_options_bjerksund_price_approx($L21,$C$5,AP$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>23.116413937071684</v>
+      </c>
+      <c r="AQ21">
+        <f>_xll.acq_options_bjerksund_price_approx($L21,$C$5,AQ$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>23.446309656126203</v>
+      </c>
+      <c r="AR21">
+        <f>_xll.acq_options_bjerksund_price_approx($L21,$C$5,AR$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>23.757265031246114</v>
+      </c>
+      <c r="AS21">
+        <f>_xll.acq_options_bjerksund_price_approx($L21,$C$5,AS$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>24.05085342490726</v>
+      </c>
+      <c r="AT21">
+        <f>_xll.acq_options_bjerksund_price_approx($L21,$C$5,AT$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>24.3285127771113</v>
+      </c>
+      <c r="AU21">
+        <f>_xll.acq_options_bjerksund_price_approx($L21,$C$5,AU$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>24.591540559327587</v>
+      </c>
+      <c r="AV21">
+        <f>_xll.acq_options_bjerksund_price_approx($L21,$C$5,AV$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>24.841101102120646</v>
+      </c>
+      <c r="AW21">
+        <f>_xll.acq_options_bjerksund_price_approx($L21,$C$5,AW$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>25.078237540597605</v>
+      </c>
+      <c r="AX21">
+        <f>_xll.acq_options_bjerksund_price_approx($L21,$C$5,AX$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>25.303884850060772</v>
+      </c>
+    </row>
+    <row r="22" spans="6:50" x14ac:dyDescent="0.25">
+      <c r="L22" s="44">
+        <v>65</v>
+      </c>
+      <c r="M22">
+        <f>_xll.acq_options_bjerksund_price_approx($L22,$C$5,M$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>1.278354062606013E-7</v>
+      </c>
+      <c r="N22">
+        <f>_xll.acq_options_bjerksund_price_approx($L22,$C$5,N$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>4.3351146750026714E-2</v>
+      </c>
+      <c r="O22">
+        <f>_xll.acq_options_bjerksund_price_approx($L22,$C$5,O$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0.3682301115310338</v>
+      </c>
+      <c r="P22">
+        <f>_xll.acq_options_bjerksund_price_approx($L22,$C$5,P$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0.88910253052206656</v>
+      </c>
+      <c r="Q22">
+        <f>_xll.acq_options_bjerksund_price_approx($L22,$C$5,Q$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>1.4892548552281113</v>
+      </c>
+      <c r="R22">
+        <f>_xll.acq_options_bjerksund_price_approx($L22,$C$5,R$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>2.1163074144971858</v>
+      </c>
+      <c r="S22">
+        <f>_xll.acq_options_bjerksund_price_approx($L22,$C$5,S$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>2.7466272350816325</v>
+      </c>
+      <c r="T22">
+        <f>_xll.acq_options_bjerksund_price_approx($L22,$C$5,T$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>3.3690126554636493</v>
+      </c>
+      <c r="U22">
+        <f>_xll.acq_options_bjerksund_price_approx($L22,$C$5,U$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>3.9780444605622591</v>
+      </c>
+      <c r="V22">
+        <f>_xll.acq_options_bjerksund_price_approx($L22,$C$5,V$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>4.5711761554887076</v>
+      </c>
+      <c r="W22">
+        <f>_xll.acq_options_bjerksund_price_approx($L22,$C$5,W$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>5.147358852714909</v>
+      </c>
+      <c r="X22">
+        <f>_xll.acq_options_bjerksund_price_approx($L22,$C$5,X$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>5.7063483495186205</v>
+      </c>
+      <c r="Y22">
+        <f>_xll.acq_options_bjerksund_price_approx($L22,$C$5,Y$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>6.2483378636009377</v>
+      </c>
+      <c r="Z22">
+        <f>_xll.acq_options_bjerksund_price_approx($L22,$C$5,Z$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>6.7737557670979882</v>
+      </c>
+      <c r="AA22">
+        <f>_xll.acq_options_bjerksund_price_approx($L22,$C$5,AA$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>7.2831510941197664</v>
+      </c>
+      <c r="AB22">
+        <f>_xll.acq_options_bjerksund_price_approx($L22,$C$5,AB$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>7.7771276126952671</v>
+      </c>
+      <c r="AC22">
+        <f>_xll.acq_options_bjerksund_price_approx($L22,$C$5,AC$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>8.2563056154953145</v>
+      </c>
+      <c r="AD22">
+        <f>_xll.acq_options_bjerksund_price_approx($L22,$C$5,AD$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>8.7212999124197381</v>
+      </c>
+      <c r="AF22" s="44">
+        <v>65</v>
+      </c>
+      <c r="AG22">
+        <f>_xll.acq_options_bjerksund_price_approx($L22,$C$5,AG$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>25</v>
+      </c>
+      <c r="AH22">
+        <f>_xll.acq_options_bjerksund_price_approx($L22,$C$5,AH$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>25</v>
+      </c>
+      <c r="AI22">
+        <f>_xll.acq_options_bjerksund_price_approx($L22,$C$5,AI$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>25</v>
+      </c>
+      <c r="AJ22">
+        <f>_xll.acq_options_bjerksund_price_approx($L22,$C$5,AJ$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>25.047240352019521</v>
+      </c>
+      <c r="AK22">
+        <f>_xll.acq_options_bjerksund_price_approx($L22,$C$5,AK$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>25.284493525612291</v>
+      </c>
+      <c r="AL22">
+        <f>_xll.acq_options_bjerksund_price_approx($L22,$C$5,AL$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>25.546267850900016</v>
+      </c>
+      <c r="AM22">
+        <f>_xll.acq_options_bjerksund_price_approx($L22,$C$5,AM$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>25.815687440303435</v>
+      </c>
+      <c r="AN22">
+        <f>_xll.acq_options_bjerksund_price_approx($L22,$C$5,AN$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>26.083705199864223</v>
+      </c>
+      <c r="AO22">
+        <f>_xll.acq_options_bjerksund_price_approx($L22,$C$5,AO$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>26.345648123579139</v>
+      </c>
+      <c r="AP22">
+        <f>_xll.acq_options_bjerksund_price_approx($L22,$C$5,AP$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>26.599183888004106</v>
+      </c>
+      <c r="AQ22">
+        <f>_xll.acq_options_bjerksund_price_approx($L22,$C$5,AQ$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>26.843249387004445</v>
+      </c>
+      <c r="AR22">
+        <f>_xll.acq_options_bjerksund_price_approx($L22,$C$5,AR$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>27.077481461638129</v>
+      </c>
+      <c r="AS22">
+        <f>_xll.acq_options_bjerksund_price_approx($L22,$C$5,AS$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>27.301906062679773</v>
+      </c>
+      <c r="AT22">
+        <f>_xll.acq_options_bjerksund_price_approx($L22,$C$5,AT$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>27.516763783312431</v>
+      </c>
+      <c r="AU22">
+        <f>_xll.acq_options_bjerksund_price_approx($L22,$C$5,AU$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>27.722409679132792</v>
+      </c>
+      <c r="AV22">
+        <f>_xll.acq_options_bjerksund_price_approx($L22,$C$5,AV$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>27.919254804099499</v>
+      </c>
+      <c r="AW22">
+        <f>_xll.acq_options_bjerksund_price_approx($L22,$C$5,AW$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>28.107731803319954</v>
+      </c>
+      <c r="AX22">
+        <f>_xll.acq_options_bjerksund_price_approx($L22,$C$5,AX$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>28.288274689855538</v>
+      </c>
+    </row>
+    <row r="23" spans="6:50" x14ac:dyDescent="0.25">
+      <c r="L23" s="44">
+        <v>60</v>
+      </c>
+      <c r="M23">
+        <f>_xll.acq_options_bjerksund_price_approx($L23,$C$5,M$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>5.5607074500585441E-11</v>
+      </c>
+      <c r="N23">
+        <f>_xll.acq_options_bjerksund_price_approx($L23,$C$5,N$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>7.0392642051615439E-3</v>
+      </c>
+      <c r="O23">
+        <f>_xll.acq_options_bjerksund_price_approx($L23,$C$5,O$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0.13009118732448144</v>
+      </c>
+      <c r="P23">
+        <f>_xll.acq_options_bjerksund_price_approx($L23,$C$5,P$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0.41251887299291923</v>
+      </c>
+      <c r="Q23">
+        <f>_xll.acq_options_bjerksund_price_approx($L23,$C$5,Q$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0.79667728580740516</v>
+      </c>
+      <c r="R23">
+        <f>_xll.acq_options_bjerksund_price_approx($L23,$C$5,R$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>1.2372000536606294</v>
+      </c>
+      <c r="S23">
+        <f>_xll.acq_options_bjerksund_price_approx($L23,$C$5,S$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>1.7071011218692433</v>
+      </c>
+      <c r="T23">
+        <f>_xll.acq_options_bjerksund_price_approx($L23,$C$5,T$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>2.1905924845782465</v>
+      </c>
+      <c r="U23">
+        <f>_xll.acq_options_bjerksund_price_approx($L23,$C$5,U$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>2.6782517580269598</v>
+      </c>
+      <c r="V23">
+        <f>_xll.acq_options_bjerksund_price_approx($L23,$C$5,V$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>3.1643360271430794</v>
+      </c>
+      <c r="W23">
+        <f>_xll.acq_options_bjerksund_price_approx($L23,$C$5,W$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>3.6452963197868939</v>
+      </c>
+      <c r="X23">
+        <f>_xll.acq_options_bjerksund_price_approx($L23,$C$5,X$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>4.1189323549476384</v>
+      </c>
+      <c r="Y23">
+        <f>_xll.acq_options_bjerksund_price_approx($L23,$C$5,Y$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>4.5838950280227024</v>
+      </c>
+      <c r="Z23">
+        <f>_xll.acq_options_bjerksund_price_approx($L23,$C$5,Z$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>5.0393840341531302</v>
+      </c>
+      <c r="AA23">
+        <f>_xll.acq_options_bjerksund_price_approx($L23,$C$5,AA$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>5.4849588104806273</v>
+      </c>
+      <c r="AB23">
+        <f>_xll.acq_options_bjerksund_price_approx($L23,$C$5,AB$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>5.9204174173382427</v>
+      </c>
+      <c r="AC23">
+        <f>_xll.acq_options_bjerksund_price_approx($L23,$C$5,AC$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>6.3457173282066464</v>
+      </c>
+      <c r="AD23">
+        <f>_xll.acq_options_bjerksund_price_approx($L23,$C$5,AD$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>6.7609227246478909</v>
+      </c>
+      <c r="AF23" s="44">
+        <v>60</v>
+      </c>
+      <c r="AG23">
+        <f>_xll.acq_options_bjerksund_price_approx($L23,$C$5,AG$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="AH23">
+        <f>_xll.acq_options_bjerksund_price_approx($L23,$C$5,AH$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="AI23">
+        <f>_xll.acq_options_bjerksund_price_approx($L23,$C$5,AI$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="AJ23">
+        <f>_xll.acq_options_bjerksund_price_approx($L23,$C$5,AJ$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="AK23">
+        <f>_xll.acq_options_bjerksund_price_approx($L23,$C$5,AK$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="AL23">
+        <f>_xll.acq_options_bjerksund_price_approx($L23,$C$5,AL$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="AM23">
+        <f>_xll.acq_options_bjerksund_price_approx($L23,$C$5,AM$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>30.069733726605051</v>
+      </c>
+      <c r="AN23">
+        <f>_xll.acq_options_bjerksund_price_approx($L23,$C$5,AN$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>30.210063907000588</v>
+      </c>
+      <c r="AO23">
+        <f>_xll.acq_options_bjerksund_price_approx($L23,$C$5,AO$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>30.358348046311821</v>
+      </c>
+      <c r="AP23">
+        <f>_xll.acq_options_bjerksund_price_approx($L23,$C$5,AP$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>30.510325059077847</v>
+      </c>
+      <c r="AQ23">
+        <f>_xll.acq_options_bjerksund_price_approx($L23,$C$5,AQ$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>30.663139108774313</v>
+      </c>
+      <c r="AR23">
+        <f>_xll.acq_options_bjerksund_price_approx($L23,$C$5,AR$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>30.814899459141436</v>
+      </c>
+      <c r="AS23">
+        <f>_xll.acq_options_bjerksund_price_approx($L23,$C$5,AS$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>30.964366172270772</v>
+      </c>
+      <c r="AT23">
+        <f>_xll.acq_options_bjerksund_price_approx($L23,$C$5,AT$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>31.110738362949274</v>
+      </c>
+      <c r="AU23">
+        <f>_xll.acq_options_bjerksund_price_approx($L23,$C$5,AU$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>31.253513153574715</v>
+      </c>
+      <c r="AV23">
+        <f>_xll.acq_options_bjerksund_price_approx($L23,$C$5,AV$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>31.392391336263419</v>
+      </c>
+      <c r="AW23">
+        <f>_xll.acq_options_bjerksund_price_approx($L23,$C$5,AW$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>31.527213672029884</v>
+      </c>
+      <c r="AX23">
+        <f>_xll.acq_options_bjerksund_price_approx($L23,$C$5,AX$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>31.657917400799175</v>
+      </c>
+    </row>
+    <row r="24" spans="6:50" x14ac:dyDescent="0.25">
+      <c r="L24" s="44">
+        <v>55</v>
+      </c>
+      <c r="M24">
+        <f>_xll.acq_options_bjerksund_price_approx($L24,$C$5,M$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>1.4210854715202004E-14</v>
+      </c>
+      <c r="N24">
+        <f>_xll.acq_options_bjerksund_price_approx($L24,$C$5,N$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>7.1065211963627917E-4</v>
+      </c>
+      <c r="O24">
+        <f>_xll.acq_options_bjerksund_price_approx($L24,$C$5,O$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>3.6177115904848733E-2</v>
+      </c>
+      <c r="P24">
+        <f>_xll.acq_options_bjerksund_price_approx($L24,$C$5,P$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0.16276441534573394</v>
+      </c>
+      <c r="Q24">
+        <f>_xll.acq_options_bjerksund_price_approx($L24,$C$5,Q$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0.37657587784406132</v>
+      </c>
+      <c r="R24">
+        <f>_xll.acq_options_bjerksund_price_approx($L24,$C$5,R$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0.65387123928692858</v>
+      </c>
+      <c r="S24">
+        <f>_xll.acq_options_bjerksund_price_approx($L24,$C$5,S$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0.97391395234539857</v>
+      </c>
+      <c r="T24">
+        <f>_xll.acq_options_bjerksund_price_approx($L24,$C$5,T$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>1.3217331674805024</v>
+      </c>
+      <c r="U24">
+        <f>_xll.acq_options_bjerksund_price_approx($L24,$C$5,U$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>1.6869465620332136</v>
+      </c>
+      <c r="V24">
+        <f>_xll.acq_options_bjerksund_price_approx($L24,$C$5,V$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>2.0623758143384379</v>
+      </c>
+      <c r="W24">
+        <f>_xll.acq_options_bjerksund_price_approx($L24,$C$5,W$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>2.4430209585327276</v>
+      </c>
+      <c r="X24">
+        <f>_xll.acq_options_bjerksund_price_approx($L24,$C$5,X$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>2.8253664144711763</v>
+      </c>
+      <c r="Y24">
+        <f>_xll.acq_options_bjerksund_price_approx($L24,$C$5,Y$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>3.2069197521809372</v>
+      </c>
+      <c r="Z24">
+        <f>_xll.acq_options_bjerksund_price_approx($L24,$C$5,Z$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>3.5859036977248451</v>
+      </c>
+      <c r="AA24">
+        <f>_xll.acq_options_bjerksund_price_approx($L24,$C$5,AA$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>3.9610478909659506</v>
+      </c>
+      <c r="AB24">
+        <f>_xll.acq_options_bjerksund_price_approx($L24,$C$5,AB$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>4.3314459897438198</v>
+      </c>
+      <c r="AC24">
+        <f>_xll.acq_options_bjerksund_price_approx($L24,$C$5,AC$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>4.6964561360379591</v>
+      </c>
+      <c r="AD24">
+        <f>_xll.acq_options_bjerksund_price_approx($L24,$C$5,AD$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>5.0556306294256856</v>
+      </c>
+      <c r="AF24" s="44">
+        <v>55</v>
+      </c>
+      <c r="AG24">
+        <f>_xll.acq_options_bjerksund_price_approx($L24,$C$5,AG$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="AH24">
+        <f>_xll.acq_options_bjerksund_price_approx($L24,$C$5,AH$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="AI24">
+        <f>_xll.acq_options_bjerksund_price_approx($L24,$C$5,AI$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="AJ24">
+        <f>_xll.acq_options_bjerksund_price_approx($L24,$C$5,AJ$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="AK24">
+        <f>_xll.acq_options_bjerksund_price_approx($L24,$C$5,AK$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="AL24">
+        <f>_xll.acq_options_bjerksund_price_approx($L24,$C$5,AL$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="AM24">
+        <f>_xll.acq_options_bjerksund_price_approx($L24,$C$5,AM$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="AN24">
+        <f>_xll.acq_options_bjerksund_price_approx($L24,$C$5,AN$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="AO24">
+        <f>_xll.acq_options_bjerksund_price_approx($L24,$C$5,AO$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="AP24">
+        <f>_xll.acq_options_bjerksund_price_approx($L24,$C$5,AP$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="AQ24">
+        <f>_xll.acq_options_bjerksund_price_approx($L24,$C$5,AQ$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="AR24">
+        <f>_xll.acq_options_bjerksund_price_approx($L24,$C$5,AR$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>35.006382786392386</v>
+      </c>
+      <c r="AS24">
+        <f>_xll.acq_options_bjerksund_price_approx($L24,$C$5,AS$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>35.080306342368914</v>
+      </c>
+      <c r="AT24">
+        <f>_xll.acq_options_bjerksund_price_approx($L24,$C$5,AT$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>35.156722326527763</v>
+      </c>
+      <c r="AU24">
+        <f>_xll.acq_options_bjerksund_price_approx($L24,$C$5,AU$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>35.234587291531525</v>
+      </c>
+      <c r="AV24">
+        <f>_xll.acq_options_bjerksund_price_approx($L24,$C$5,AV$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>35.3131035052076</v>
+      </c>
+      <c r="AW24">
+        <f>_xll.acq_options_bjerksund_price_approx($L24,$C$5,AW$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>35.39166316829197</v>
+      </c>
+      <c r="AX24">
+        <f>_xll.acq_options_bjerksund_price_approx($L24,$C$5,AX$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>35.469804758940036</v>
+      </c>
+    </row>
+    <row r="25" spans="6:50" x14ac:dyDescent="0.25">
+      <c r="L25" s="44">
+        <v>50</v>
+      </c>
+      <c r="M25">
+        <f>_xll.acq_options_bjerksund_price_approx($L25,$C$5,M$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <f>_xll.acq_options_bjerksund_price_approx($L25,$C$5,N$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>3.9011742131833671E-5</v>
+      </c>
+      <c r="O25">
+        <f>_xll.acq_options_bjerksund_price_approx($L25,$C$5,O$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>7.4050197555948216E-3</v>
+      </c>
+      <c r="P25">
+        <f>_xll.acq_options_bjerksund_price_approx($L25,$C$5,P$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>5.2216753691595841E-2</v>
+      </c>
+      <c r="Q25">
+        <f>_xll.acq_options_bjerksund_price_approx($L25,$C$5,Q$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0.15205257865831356</v>
+      </c>
+      <c r="R25">
+        <f>_xll.acq_options_bjerksund_price_approx($L25,$C$5,R$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0.30402918865425477</v>
+      </c>
+      <c r="S25">
+        <f>_xll.acq_options_bjerksund_price_approx($L25,$C$5,S$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0.49849782964237477</v>
+      </c>
+      <c r="T25">
+        <f>_xll.acq_options_bjerksund_price_approx($L25,$C$5,T$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0.7255707120744006</v>
+      </c>
+      <c r="U25">
+        <f>_xll.acq_options_bjerksund_price_approx($L25,$C$5,U$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0.97692092619007553</v>
+      </c>
+      <c r="V25">
+        <f>_xll.acq_options_bjerksund_price_approx($L25,$C$5,V$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>1.2459665811071119</v>
+      </c>
+      <c r="W25">
+        <f>_xll.acq_options_bjerksund_price_approx($L25,$C$5,W$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>1.5276191024530448</v>
+      </c>
+      <c r="X25">
+        <f>_xll.acq_options_bjerksund_price_approx($L25,$C$5,X$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>1.8179688817930497</v>
+      </c>
+      <c r="Y25">
+        <f>_xll.acq_options_bjerksund_price_approx($L25,$C$5,Y$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>2.1140109189015988</v>
+      </c>
+      <c r="Z25">
+        <f>_xll.acq_options_bjerksund_price_approx($L25,$C$5,Z$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>2.4134283957528595</v>
+      </c>
+      <c r="AA25">
+        <f>_xll.acq_options_bjerksund_price_approx($L25,$C$5,AA$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>2.7144281247818611</v>
+      </c>
+      <c r="AB25">
+        <f>_xll.acq_options_bjerksund_price_approx($L25,$C$5,AB$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>3.0156170197063972</v>
+      </c>
+      <c r="AC25">
+        <f>_xll.acq_options_bjerksund_price_approx($L25,$C$5,AC$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>3.3159095523980255</v>
+      </c>
+      <c r="AD25">
+        <f>_xll.acq_options_bjerksund_price_approx($L25,$C$5,AD$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>3.6144582124284739</v>
+      </c>
+      <c r="AF25" s="44">
+        <v>50</v>
+      </c>
+      <c r="AG25">
+        <f>_xll.acq_options_bjerksund_price_approx($L25,$C$5,AG$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>40</v>
+      </c>
+      <c r="AH25">
+        <f>_xll.acq_options_bjerksund_price_approx($L25,$C$5,AH$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>40</v>
+      </c>
+      <c r="AI25">
+        <f>_xll.acq_options_bjerksund_price_approx($L25,$C$5,AI$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>40</v>
+      </c>
+      <c r="AJ25">
+        <f>_xll.acq_options_bjerksund_price_approx($L25,$C$5,AJ$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>40</v>
+      </c>
+      <c r="AK25">
+        <f>_xll.acq_options_bjerksund_price_approx($L25,$C$5,AK$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>40</v>
+      </c>
+      <c r="AL25">
+        <f>_xll.acq_options_bjerksund_price_approx($L25,$C$5,AL$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>40</v>
+      </c>
+      <c r="AM25">
+        <f>_xll.acq_options_bjerksund_price_approx($L25,$C$5,AM$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>40</v>
+      </c>
+      <c r="AN25">
+        <f>_xll.acq_options_bjerksund_price_approx($L25,$C$5,AN$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>40</v>
+      </c>
+      <c r="AO25">
+        <f>_xll.acq_options_bjerksund_price_approx($L25,$C$5,AO$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>40</v>
+      </c>
+      <c r="AP25">
+        <f>_xll.acq_options_bjerksund_price_approx($L25,$C$5,AP$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>40</v>
+      </c>
+      <c r="AQ25">
+        <f>_xll.acq_options_bjerksund_price_approx($L25,$C$5,AQ$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>40</v>
+      </c>
+      <c r="AR25">
+        <f>_xll.acq_options_bjerksund_price_approx($L25,$C$5,AR$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>40</v>
+      </c>
+      <c r="AS25">
+        <f>_xll.acq_options_bjerksund_price_approx($L25,$C$5,AS$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>40</v>
+      </c>
+      <c r="AT25">
+        <f>_xll.acq_options_bjerksund_price_approx($L25,$C$5,AT$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>40</v>
+      </c>
+      <c r="AU25">
+        <f>_xll.acq_options_bjerksund_price_approx($L25,$C$5,AU$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>40</v>
+      </c>
+      <c r="AV25">
+        <f>_xll.acq_options_bjerksund_price_approx($L25,$C$5,AV$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>40</v>
+      </c>
+      <c r="AW25">
+        <f>_xll.acq_options_bjerksund_price_approx($L25,$C$5,AW$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>40</v>
+      </c>
+      <c r="AX25">
+        <f>_xll.acq_options_bjerksund_price_approx($L25,$C$5,AX$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="6:50" x14ac:dyDescent="0.25">
+      <c r="L26" s="44">
+        <v>45</v>
+      </c>
+      <c r="M26">
+        <f>_xll.acq_options_bjerksund_price_approx($L26,$C$5,M$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <f>_xll.acq_options_bjerksund_price_approx($L26,$C$5,N$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>9.6946601502168051E-7</v>
+      </c>
+      <c r="O26">
+        <f>_xll.acq_options_bjerksund_price_approx($L26,$C$5,O$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>1.0174551054262793E-3</v>
+      </c>
+      <c r="P26">
+        <f>_xll.acq_options_bjerksund_price_approx($L26,$C$5,P$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>1.2805538427912211E-2</v>
+      </c>
+      <c r="Q26">
+        <f>_xll.acq_options_bjerksund_price_approx($L26,$C$5,Q$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>5.0060743819500431E-2</v>
+      </c>
+      <c r="R26">
+        <f>_xll.acq_options_bjerksund_price_approx($L26,$C$5,R$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0.11979506007942575</v>
+      </c>
+      <c r="S26">
+        <f>_xll.acq_options_bjerksund_price_approx($L26,$C$5,S$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0.22183690354508201</v>
+      </c>
+      <c r="T26">
+        <f>_xll.acq_options_bjerksund_price_approx($L26,$C$5,T$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0.35267852769906938</v>
+      </c>
+      <c r="U26">
+        <f>_xll.acq_options_bjerksund_price_approx($L26,$C$5,U$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0.50784204192041216</v>
+      </c>
+      <c r="V26">
+        <f>_xll.acq_options_bjerksund_price_approx($L26,$C$5,V$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0.68294010107535996</v>
+      </c>
+      <c r="W26">
+        <f>_xll.acq_options_bjerksund_price_approx($L26,$C$5,W$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0.87406581033233977</v>
+      </c>
+      <c r="X26">
+        <f>_xll.acq_options_bjerksund_price_approx($L26,$C$5,X$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>1.0778854968884133</v>
+      </c>
+      <c r="Y26">
+        <f>_xll.acq_options_bjerksund_price_approx($L26,$C$5,Y$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>1.2916121848083577</v>
+      </c>
+      <c r="Z26">
+        <f>_xll.acq_options_bjerksund_price_approx($L26,$C$5,Z$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>1.5129384734107845</v>
+      </c>
+      <c r="AA26">
+        <f>_xll.acq_options_bjerksund_price_approx($L26,$C$5,AA$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>1.7399619303594847</v>
+      </c>
+      <c r="AB26">
+        <f>_xll.acq_options_bjerksund_price_approx($L26,$C$5,AB$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>1.9711158628883396</v>
+      </c>
+      <c r="AC26">
+        <f>_xll.acq_options_bjerksund_price_approx($L26,$C$5,AC$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>2.2051095586935503</v>
+      </c>
+      <c r="AD26">
+        <f>_xll.acq_options_bjerksund_price_approx($L26,$C$5,AD$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>2.4408784398168137</v>
+      </c>
+      <c r="AF26" s="44">
+        <v>45</v>
+      </c>
+      <c r="AG26">
+        <f>_xll.acq_options_bjerksund_price_approx($L26,$C$5,AG$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>45</v>
+      </c>
+      <c r="AH26">
+        <f>_xll.acq_options_bjerksund_price_approx($L26,$C$5,AH$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>45</v>
+      </c>
+      <c r="AI26">
+        <f>_xll.acq_options_bjerksund_price_approx($L26,$C$5,AI$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>45</v>
+      </c>
+      <c r="AJ26">
+        <f>_xll.acq_options_bjerksund_price_approx($L26,$C$5,AJ$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>45</v>
+      </c>
+      <c r="AK26">
+        <f>_xll.acq_options_bjerksund_price_approx($L26,$C$5,AK$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>45</v>
+      </c>
+      <c r="AL26">
+        <f>_xll.acq_options_bjerksund_price_approx($L26,$C$5,AL$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>45</v>
+      </c>
+      <c r="AM26">
+        <f>_xll.acq_options_bjerksund_price_approx($L26,$C$5,AM$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>45</v>
+      </c>
+      <c r="AN26">
+        <f>_xll.acq_options_bjerksund_price_approx($L26,$C$5,AN$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>45</v>
+      </c>
+      <c r="AO26">
+        <f>_xll.acq_options_bjerksund_price_approx($L26,$C$5,AO$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>45</v>
+      </c>
+      <c r="AP26">
+        <f>_xll.acq_options_bjerksund_price_approx($L26,$C$5,AP$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>45</v>
+      </c>
+      <c r="AQ26">
+        <f>_xll.acq_options_bjerksund_price_approx($L26,$C$5,AQ$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>45</v>
+      </c>
+      <c r="AR26">
+        <f>_xll.acq_options_bjerksund_price_approx($L26,$C$5,AR$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>45</v>
+      </c>
+      <c r="AS26">
+        <f>_xll.acq_options_bjerksund_price_approx($L26,$C$5,AS$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>45</v>
+      </c>
+      <c r="AT26">
+        <f>_xll.acq_options_bjerksund_price_approx($L26,$C$5,AT$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>45</v>
+      </c>
+      <c r="AU26">
+        <f>_xll.acq_options_bjerksund_price_approx($L26,$C$5,AU$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>45</v>
+      </c>
+      <c r="AV26">
+        <f>_xll.acq_options_bjerksund_price_approx($L26,$C$5,AV$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>45</v>
+      </c>
+      <c r="AW26">
+        <f>_xll.acq_options_bjerksund_price_approx($L26,$C$5,AW$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>45</v>
+      </c>
+      <c r="AX26">
+        <f>_xll.acq_options_bjerksund_price_approx($L26,$C$5,AX$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="6:50" x14ac:dyDescent="0.25">
+      <c r="L27" s="44">
+        <v>40</v>
+      </c>
+      <c r="M27">
+        <f>_xll.acq_options_bjerksund_price_approx($L27,$C$5,M$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <f>_xll.acq_options_bjerksund_price_approx($L27,$C$5,N$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>8.4164213376425323E-9</v>
+      </c>
+      <c r="O27">
+        <f>_xll.acq_options_bjerksund_price_approx($L27,$C$5,O$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>8.2366539132294747E-5</v>
+      </c>
+      <c r="P27">
+        <f>_xll.acq_options_bjerksund_price_approx($L27,$C$5,P$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>2.1995682308926234E-3</v>
+      </c>
+      <c r="Q27">
+        <f>_xll.acq_options_bjerksund_price_approx($L27,$C$5,Q$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>1.2580572377771659E-2</v>
+      </c>
+      <c r="R27">
+        <f>_xll.acq_options_bjerksund_price_approx($L27,$C$5,R$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>3.7930085788659085E-2</v>
+      </c>
+      <c r="S27">
+        <f>_xll.acq_options_bjerksund_price_approx($L27,$C$5,S$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>8.2085606536708156E-2</v>
+      </c>
+      <c r="T27">
+        <f>_xll.acq_options_bjerksund_price_approx($L27,$C$5,T$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0.14605748183076628</v>
+      </c>
+      <c r="U27">
+        <f>_xll.acq_options_bjerksund_price_approx($L27,$C$5,U$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0.22907246667854508</v>
+      </c>
+      <c r="V27">
+        <f>_xll.acq_options_bjerksund_price_approx($L27,$C$5,V$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0.32945719253855543</v>
+      </c>
+      <c r="W27">
+        <f>_xll.acq_options_bjerksund_price_approx($L27,$C$5,W$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0.44519066553417019</v>
+      </c>
+      <c r="X27">
+        <f>_xll.acq_options_bjerksund_price_approx($L27,$C$5,X$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0.5742083945564076</v>
+      </c>
+      <c r="Y27">
+        <f>_xll.acq_options_bjerksund_price_approx($L27,$C$5,Y$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0.71455446568155878</v>
+      </c>
+      <c r="Z27">
+        <f>_xll.acq_options_bjerksund_price_approx($L27,$C$5,Z$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0.86444794018173354</v>
+      </c>
+      <c r="AA27">
+        <f>_xll.acq_options_bjerksund_price_approx($L27,$C$5,AA$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>1.0223033691936365</v>
+      </c>
+      <c r="AB27">
+        <f>_xll.acq_options_bjerksund_price_approx($L27,$C$5,AB$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>1.1867279690586656</v>
+      </c>
+      <c r="AC27">
+        <f>_xll.acq_options_bjerksund_price_approx($L27,$C$5,AC$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>1.3565078489646112</v>
+      </c>
+      <c r="AD27">
+        <f>_xll.acq_options_bjerksund_price_approx($L27,$C$5,AD$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>1.5305899374787373</v>
+      </c>
+      <c r="AF27" s="44">
+        <v>40</v>
+      </c>
+      <c r="AG27">
+        <f>_xll.acq_options_bjerksund_price_approx($L27,$C$5,AG$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="AH27">
+        <f>_xll.acq_options_bjerksund_price_approx($L27,$C$5,AH$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="AI27">
+        <f>_xll.acq_options_bjerksund_price_approx($L27,$C$5,AI$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="AJ27">
+        <f>_xll.acq_options_bjerksund_price_approx($L27,$C$5,AJ$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="AK27">
+        <f>_xll.acq_options_bjerksund_price_approx($L27,$C$5,AK$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="AL27">
+        <f>_xll.acq_options_bjerksund_price_approx($L27,$C$5,AL$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="AM27">
+        <f>_xll.acq_options_bjerksund_price_approx($L27,$C$5,AM$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="AN27">
+        <f>_xll.acq_options_bjerksund_price_approx($L27,$C$5,AN$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="AO27">
+        <f>_xll.acq_options_bjerksund_price_approx($L27,$C$5,AO$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="AP27">
+        <f>_xll.acq_options_bjerksund_price_approx($L27,$C$5,AP$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="AQ27">
+        <f>_xll.acq_options_bjerksund_price_approx($L27,$C$5,AQ$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="AR27">
+        <f>_xll.acq_options_bjerksund_price_approx($L27,$C$5,AR$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="AS27">
+        <f>_xll.acq_options_bjerksund_price_approx($L27,$C$5,AS$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="AT27">
+        <f>_xll.acq_options_bjerksund_price_approx($L27,$C$5,AT$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="AU27">
+        <f>_xll.acq_options_bjerksund_price_approx($L27,$C$5,AU$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="AV27">
+        <f>_xll.acq_options_bjerksund_price_approx($L27,$C$5,AV$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="AW27">
+        <f>_xll.acq_options_bjerksund_price_approx($L27,$C$5,AW$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="AX27">
+        <f>_xll.acq_options_bjerksund_price_approx($L27,$C$5,AX$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="6:50" x14ac:dyDescent="0.25">
+      <c r="L28" s="44">
+        <v>35</v>
+      </c>
+      <c r="M28">
+        <f>_xll.acq_options_bjerksund_price_approx($L28,$C$5,M$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <f>_xll.acq_options_bjerksund_price_approx($L28,$C$5,N$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>1.7436718735552859E-11</v>
+      </c>
+      <c r="O28">
+        <f>_xll.acq_options_bjerksund_price_approx($L28,$C$5,O$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>3.2425869562757725E-6</v>
+      </c>
+      <c r="P28">
+        <f>_xll.acq_options_bjerksund_price_approx($L28,$C$5,P$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>2.3265593723920119E-4</v>
+      </c>
+      <c r="Q28">
+        <f>_xll.acq_options_bjerksund_price_approx($L28,$C$5,Q$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>2.1897832440771481E-3</v>
+      </c>
+      <c r="R28">
+        <f>_xll.acq_options_bjerksund_price_approx($L28,$C$5,R$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>8.9241818710377174E-3</v>
+      </c>
+      <c r="S28">
+        <f>_xll.acq_options_bjerksund_price_approx($L28,$C$5,S$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>2.3651295807894712E-2</v>
+      </c>
+      <c r="T28">
+        <f>_xll.acq_options_bjerksund_price_approx($L28,$C$5,T$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>4.8697962595269928E-2</v>
+      </c>
+      <c r="U28">
+        <f>_xll.acq_options_bjerksund_price_approx($L28,$C$5,U$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>8.5293044053202038E-2</v>
+      </c>
+      <c r="V28">
+        <f>_xll.acq_options_bjerksund_price_approx($L28,$C$5,V$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0.13376707218438355</v>
+      </c>
+      <c r="W28">
+        <f>_xll.acq_options_bjerksund_price_approx($L28,$C$5,W$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0.19383421882000107</v>
+      </c>
+      <c r="X28">
+        <f>_xll.acq_options_bjerksund_price_approx($L28,$C$5,X$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0.26483249594519975</v>
+      </c>
+      <c r="Y28">
+        <f>_xll.acq_options_bjerksund_price_approx($L28,$C$5,Y$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0.34589728307634005</v>
+      </c>
+      <c r="Z28">
+        <f>_xll.acq_options_bjerksund_price_approx($L28,$C$5,Z$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0.43607673576092054</v>
+      </c>
+      <c r="AA28">
+        <f>_xll.acq_options_bjerksund_price_approx($L28,$C$5,AA$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0.53440437442502287</v>
+      </c>
+      <c r="AB28">
+        <f>_xll.acq_options_bjerksund_price_approx($L28,$C$5,AB$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0.63994240871615204</v>
+      </c>
+      <c r="AC28">
+        <f>_xll.acq_options_bjerksund_price_approx($L28,$C$5,AC$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0.75180588057740749</v>
+      </c>
+      <c r="AD28">
+        <f>_xll.acq_options_bjerksund_price_approx($L28,$C$5,AD$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0.86917459368987693</v>
+      </c>
+      <c r="AF28" s="44">
+        <v>35</v>
+      </c>
+      <c r="AG28">
+        <f>_xll.acq_options_bjerksund_price_approx($L28,$C$5,AG$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>55</v>
+      </c>
+      <c r="AH28">
+        <f>_xll.acq_options_bjerksund_price_approx($L28,$C$5,AH$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>55</v>
+      </c>
+      <c r="AI28">
+        <f>_xll.acq_options_bjerksund_price_approx($L28,$C$5,AI$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>55</v>
+      </c>
+      <c r="AJ28">
+        <f>_xll.acq_options_bjerksund_price_approx($L28,$C$5,AJ$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>55</v>
+      </c>
+      <c r="AK28">
+        <f>_xll.acq_options_bjerksund_price_approx($L28,$C$5,AK$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>55</v>
+      </c>
+      <c r="AL28">
+        <f>_xll.acq_options_bjerksund_price_approx($L28,$C$5,AL$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>55</v>
+      </c>
+      <c r="AM28">
+        <f>_xll.acq_options_bjerksund_price_approx($L28,$C$5,AM$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>55</v>
+      </c>
+      <c r="AN28">
+        <f>_xll.acq_options_bjerksund_price_approx($L28,$C$5,AN$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>55</v>
+      </c>
+      <c r="AO28">
+        <f>_xll.acq_options_bjerksund_price_approx($L28,$C$5,AO$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>55</v>
+      </c>
+      <c r="AP28">
+        <f>_xll.acq_options_bjerksund_price_approx($L28,$C$5,AP$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>55</v>
+      </c>
+      <c r="AQ28">
+        <f>_xll.acq_options_bjerksund_price_approx($L28,$C$5,AQ$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>55</v>
+      </c>
+      <c r="AR28">
+        <f>_xll.acq_options_bjerksund_price_approx($L28,$C$5,AR$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>55</v>
+      </c>
+      <c r="AS28">
+        <f>_xll.acq_options_bjerksund_price_approx($L28,$C$5,AS$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>55</v>
+      </c>
+      <c r="AT28">
+        <f>_xll.acq_options_bjerksund_price_approx($L28,$C$5,AT$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>55</v>
+      </c>
+      <c r="AU28">
+        <f>_xll.acq_options_bjerksund_price_approx($L28,$C$5,AU$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>55</v>
+      </c>
+      <c r="AV28">
+        <f>_xll.acq_options_bjerksund_price_approx($L28,$C$5,AV$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>55</v>
+      </c>
+      <c r="AW28">
+        <f>_xll.acq_options_bjerksund_price_approx($L28,$C$5,AW$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>55</v>
+      </c>
+      <c r="AX28">
+        <f>_xll.acq_options_bjerksund_price_approx($L28,$C$5,AX$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="6:50" x14ac:dyDescent="0.25">
+      <c r="L29" s="44">
+        <v>30</v>
+      </c>
+      <c r="M29">
+        <f>_xll.acq_options_bjerksund_price_approx($L29,$C$5,M$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <f>_xll.acq_options_bjerksund_price_approx($L29,$C$5,N$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <f>_xll.acq_options_bjerksund_price_approx($L29,$C$5,O$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>4.6162938360794215E-8</v>
+      </c>
+      <c r="P29">
+        <f>_xll.acq_options_bjerksund_price_approx($L29,$C$5,P$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>1.2422493767871856E-5</v>
+      </c>
+      <c r="Q29">
+        <f>_xll.acq_options_bjerksund_price_approx($L29,$C$5,Q$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>2.2722104729666626E-4</v>
+      </c>
+      <c r="R29">
+        <f>_xll.acq_options_bjerksund_price_approx($L29,$C$5,R$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>1.3827349218189511E-3</v>
+      </c>
+      <c r="S29">
+        <f>_xll.acq_options_bjerksund_price_approx($L29,$C$5,S$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>4.7951661950378366E-3</v>
+      </c>
+      <c r="T29">
+        <f>_xll.acq_options_bjerksund_price_approx($L29,$C$5,T$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>1.1978004004404852E-2</v>
+      </c>
+      <c r="U29">
+        <f>_xll.acq_options_bjerksund_price_approx($L29,$C$5,U$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>2.4272846203174936E-2</v>
+      </c>
+      <c r="V29">
+        <f>_xll.acq_options_bjerksund_price_approx($L29,$C$5,V$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>4.266977880598688E-2</v>
+      </c>
+      <c r="W29">
+        <f>_xll.acq_options_bjerksund_price_approx($L29,$C$5,W$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>6.7779181916051812E-2</v>
+      </c>
+      <c r="X29">
+        <f>_xll.acq_options_bjerksund_price_approx($L29,$C$5,X$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>9.9879452109703948E-2</v>
+      </c>
+      <c r="Y29">
+        <f>_xll.acq_options_bjerksund_price_approx($L29,$C$5,Y$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0.13898920320161778</v>
+      </c>
+      <c r="Z29">
+        <f>_xll.acq_options_bjerksund_price_approx($L29,$C$5,Z$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0.18493831689758622</v>
+      </c>
+      <c r="AA29">
+        <f>_xll.acq_options_bjerksund_price_approx($L29,$C$5,AA$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0.23742798248999009</v>
+      </c>
+      <c r="AB29">
+        <f>_xll.acq_options_bjerksund_price_approx($L29,$C$5,AB$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0.29607763997400127</v>
+      </c>
+      <c r="AC29">
+        <f>_xll.acq_options_bjerksund_price_approx($L29,$C$5,AC$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0.36045997432206889</v>
+      </c>
+      <c r="AD29">
+        <f>_xll.acq_options_bjerksund_price_approx($L29,$C$5,AD$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0.4301261219136876</v>
+      </c>
+      <c r="AF29" s="44">
+        <v>30</v>
+      </c>
+      <c r="AG29">
+        <f>_xll.acq_options_bjerksund_price_approx($L29,$C$5,AG$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="AH29">
+        <f>_xll.acq_options_bjerksund_price_approx($L29,$C$5,AH$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="AI29">
+        <f>_xll.acq_options_bjerksund_price_approx($L29,$C$5,AI$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="AJ29">
+        <f>_xll.acq_options_bjerksund_price_approx($L29,$C$5,AJ$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="AK29">
+        <f>_xll.acq_options_bjerksund_price_approx($L29,$C$5,AK$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="AL29">
+        <f>_xll.acq_options_bjerksund_price_approx($L29,$C$5,AL$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="AM29">
+        <f>_xll.acq_options_bjerksund_price_approx($L29,$C$5,AM$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="AN29">
+        <f>_xll.acq_options_bjerksund_price_approx($L29,$C$5,AN$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="AO29">
+        <f>_xll.acq_options_bjerksund_price_approx($L29,$C$5,AO$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="AP29">
+        <f>_xll.acq_options_bjerksund_price_approx($L29,$C$5,AP$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="AQ29">
+        <f>_xll.acq_options_bjerksund_price_approx($L29,$C$5,AQ$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="AR29">
+        <f>_xll.acq_options_bjerksund_price_approx($L29,$C$5,AR$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="AS29">
+        <f>_xll.acq_options_bjerksund_price_approx($L29,$C$5,AS$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="AT29">
+        <f>_xll.acq_options_bjerksund_price_approx($L29,$C$5,AT$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="AU29">
+        <f>_xll.acq_options_bjerksund_price_approx($L29,$C$5,AU$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="AV29">
+        <f>_xll.acq_options_bjerksund_price_approx($L29,$C$5,AV$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="AW29">
+        <f>_xll.acq_options_bjerksund_price_approx($L29,$C$5,AW$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="AX29">
+        <f>_xll.acq_options_bjerksund_price_approx($L29,$C$5,AX$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="6:50" x14ac:dyDescent="0.25">
+      <c r="L30" s="44">
+        <v>25</v>
+      </c>
+      <c r="M30">
+        <f>_xll.acq_options_bjerksund_price_approx($L30,$C$5,M$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <f>_xll.acq_options_bjerksund_price_approx($L30,$C$5,N$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <f>_xll.acq_options_bjerksund_price_approx($L30,$C$5,O$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>1.460875864722766E-10</v>
+      </c>
+      <c r="P30">
+        <f>_xll.acq_options_bjerksund_price_approx($L30,$C$5,P$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>2.4156622657756088E-7</v>
+      </c>
+      <c r="Q30">
+        <f>_xll.acq_options_bjerksund_price_approx($L30,$C$5,Q$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>1.0986238763166511E-5</v>
+      </c>
+      <c r="R30">
+        <f>_xll.acq_options_bjerksund_price_approx($L30,$C$5,R$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>1.1571136826660222E-4</v>
+      </c>
+      <c r="S30">
+        <f>_xll.acq_options_bjerksund_price_approx($L30,$C$5,S$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>5.7930440017628371E-4</v>
+      </c>
+      <c r="T30">
+        <f>_xll.acq_options_bjerksund_price_approx($L30,$C$5,T$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>1.8830978408885812E-3</v>
+      </c>
+      <c r="U30">
+        <f>_xll.acq_options_bjerksund_price_approx($L30,$C$5,U$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>4.6533974113032173E-3</v>
+      </c>
+      <c r="V30">
+        <f>_xll.acq_options_bjerksund_price_approx($L30,$C$5,V$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>9.551661908815845E-3</v>
+      </c>
+      <c r="W30">
+        <f>_xll.acq_options_bjerksund_price_approx($L30,$C$5,W$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>1.7184649729060197E-2</v>
+      </c>
+      <c r="X30">
+        <f>_xll.acq_options_bjerksund_price_approx($L30,$C$5,X$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>2.805230246406154E-2</v>
+      </c>
+      <c r="Y30">
+        <f>_xll.acq_options_bjerksund_price_approx($L30,$C$5,Y$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>4.2528160130075321E-2</v>
+      </c>
+      <c r="Z30">
+        <f>_xll.acq_options_bjerksund_price_approx($L30,$C$5,Z$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>6.0861048335752344E-2</v>
+      </c>
+      <c r="AA30">
+        <f>_xll.acq_options_bjerksund_price_approx($L30,$C$5,AA$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>8.3188163679537297E-2</v>
+      </c>
+      <c r="AB30">
+        <f>_xll.acq_options_bjerksund_price_approx($L30,$C$5,AB$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0.10955282589779358</v>
+      </c>
+      <c r="AC30">
+        <f>_xll.acq_options_bjerksund_price_approx($L30,$C$5,AC$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0.13992292459367661</v>
+      </c>
+      <c r="AD30">
+        <f>_xll.acq_options_bjerksund_price_approx($L30,$C$5,AD$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0.17420800219522903</v>
+      </c>
+      <c r="AF30" s="44">
+        <v>25</v>
+      </c>
+      <c r="AG30">
+        <f>_xll.acq_options_bjerksund_price_approx($L30,$C$5,AG$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>65</v>
+      </c>
+      <c r="AH30">
+        <f>_xll.acq_options_bjerksund_price_approx($L30,$C$5,AH$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>65</v>
+      </c>
+      <c r="AI30">
+        <f>_xll.acq_options_bjerksund_price_approx($L30,$C$5,AI$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>65</v>
+      </c>
+      <c r="AJ30">
+        <f>_xll.acq_options_bjerksund_price_approx($L30,$C$5,AJ$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>65</v>
+      </c>
+      <c r="AK30">
+        <f>_xll.acq_options_bjerksund_price_approx($L30,$C$5,AK$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>65</v>
+      </c>
+      <c r="AL30">
+        <f>_xll.acq_options_bjerksund_price_approx($L30,$C$5,AL$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>65</v>
+      </c>
+      <c r="AM30">
+        <f>_xll.acq_options_bjerksund_price_approx($L30,$C$5,AM$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>65</v>
+      </c>
+      <c r="AN30">
+        <f>_xll.acq_options_bjerksund_price_approx($L30,$C$5,AN$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>65</v>
+      </c>
+      <c r="AO30">
+        <f>_xll.acq_options_bjerksund_price_approx($L30,$C$5,AO$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>65</v>
+      </c>
+      <c r="AP30">
+        <f>_xll.acq_options_bjerksund_price_approx($L30,$C$5,AP$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>65</v>
+      </c>
+      <c r="AQ30">
+        <f>_xll.acq_options_bjerksund_price_approx($L30,$C$5,AQ$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>65</v>
+      </c>
+      <c r="AR30">
+        <f>_xll.acq_options_bjerksund_price_approx($L30,$C$5,AR$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>65</v>
+      </c>
+      <c r="AS30">
+        <f>_xll.acq_options_bjerksund_price_approx($L30,$C$5,AS$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>65</v>
+      </c>
+      <c r="AT30">
+        <f>_xll.acq_options_bjerksund_price_approx($L30,$C$5,AT$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>65</v>
+      </c>
+      <c r="AU30">
+        <f>_xll.acq_options_bjerksund_price_approx($L30,$C$5,AU$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>65</v>
+      </c>
+      <c r="AV30">
+        <f>_xll.acq_options_bjerksund_price_approx($L30,$C$5,AV$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>65</v>
+      </c>
+      <c r="AW30">
+        <f>_xll.acq_options_bjerksund_price_approx($L30,$C$5,AW$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>65</v>
+      </c>
+      <c r="AX30">
+        <f>_xll.acq_options_bjerksund_price_approx($L30,$C$5,AX$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="6:50" x14ac:dyDescent="0.25">
+      <c r="L31" s="44">
+        <v>20</v>
+      </c>
+      <c r="M31">
+        <f>_xll.acq_options_bjerksund_price_approx($L31,$C$5,M$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <f>_xll.acq_options_bjerksund_price_approx($L31,$C$5,N$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <f>_xll.acq_options_bjerksund_price_approx($L31,$C$5,O$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>2.8421709430404007E-14</v>
+      </c>
+      <c r="P31">
+        <f>_xll.acq_options_bjerksund_price_approx($L31,$C$5,P$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>9.5455732207483379E-10</v>
+      </c>
+      <c r="Q31">
+        <f>_xll.acq_options_bjerksund_price_approx($L31,$C$5,Q$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>1.5938758224365301E-7</v>
+      </c>
+      <c r="R31">
+        <f>_xll.acq_options_bjerksund_price_approx($L31,$C$5,R$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>3.6701417798212788E-6</v>
+      </c>
+      <c r="S31">
+        <f>_xll.acq_options_bjerksund_price_approx($L31,$C$5,S$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>3.0993242688737155E-5</v>
+      </c>
+      <c r="T31">
+        <f>_xll.acq_options_bjerksund_price_approx($L31,$C$5,T$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>1.4650812374839006E-4</v>
+      </c>
+      <c r="U31">
+        <f>_xll.acq_options_bjerksund_price_approx($L31,$C$5,U$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>4.7982463594564706E-4</v>
+      </c>
+      <c r="V31">
+        <f>_xll.acq_options_bjerksund_price_approx($L31,$C$5,V$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>1.2269169447023387E-3</v>
+      </c>
+      <c r="W31">
+        <f>_xll.acq_options_bjerksund_price_approx($L31,$C$5,W$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>2.6329825971487253E-3</v>
+      </c>
+      <c r="X31">
+        <f>_xll.acq_options_bjerksund_price_approx($L31,$C$5,X$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>4.9672697063982696E-3</v>
+      </c>
+      <c r="Y31">
+        <f>_xll.acq_options_bjerksund_price_approx($L31,$C$5,Y$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>8.4987755389107633E-3</v>
+      </c>
+      <c r="Z31">
+        <f>_xll.acq_options_bjerksund_price_approx($L31,$C$5,Z$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>1.3477397699318772E-2</v>
+      </c>
+      <c r="AA31">
+        <f>_xll.acq_options_bjerksund_price_approx($L31,$C$5,AA$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>2.0121657019032568E-2</v>
+      </c>
+      <c r="AB31">
+        <f>_xll.acq_options_bjerksund_price_approx($L31,$C$5,AB$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>2.8612261598183863E-2</v>
+      </c>
+      <c r="AC31">
+        <f>_xll.acq_options_bjerksund_price_approx($L31,$C$5,AC$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>3.9090120510280713E-2</v>
+      </c>
+      <c r="AD31">
+        <f>_xll.acq_options_bjerksund_price_approx($L31,$C$5,AD$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>5.1657393701319165E-2</v>
+      </c>
+      <c r="AF31" s="44">
+        <v>20</v>
+      </c>
+      <c r="AG31">
+        <f>_xll.acq_options_bjerksund_price_approx($L31,$C$5,AG$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>70</v>
+      </c>
+      <c r="AH31">
+        <f>_xll.acq_options_bjerksund_price_approx($L31,$C$5,AH$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>70</v>
+      </c>
+      <c r="AI31">
+        <f>_xll.acq_options_bjerksund_price_approx($L31,$C$5,AI$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>70</v>
+      </c>
+      <c r="AJ31">
+        <f>_xll.acq_options_bjerksund_price_approx($L31,$C$5,AJ$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>70</v>
+      </c>
+      <c r="AK31">
+        <f>_xll.acq_options_bjerksund_price_approx($L31,$C$5,AK$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>70</v>
+      </c>
+      <c r="AL31">
+        <f>_xll.acq_options_bjerksund_price_approx($L31,$C$5,AL$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>70</v>
+      </c>
+      <c r="AM31">
+        <f>_xll.acq_options_bjerksund_price_approx($L31,$C$5,AM$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>70</v>
+      </c>
+      <c r="AN31">
+        <f>_xll.acq_options_bjerksund_price_approx($L31,$C$5,AN$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>70</v>
+      </c>
+      <c r="AO31">
+        <f>_xll.acq_options_bjerksund_price_approx($L31,$C$5,AO$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>70</v>
+      </c>
+      <c r="AP31">
+        <f>_xll.acq_options_bjerksund_price_approx($L31,$C$5,AP$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>70</v>
+      </c>
+      <c r="AQ31">
+        <f>_xll.acq_options_bjerksund_price_approx($L31,$C$5,AQ$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>70</v>
+      </c>
+      <c r="AR31">
+        <f>_xll.acq_options_bjerksund_price_approx($L31,$C$5,AR$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>70</v>
+      </c>
+      <c r="AS31">
+        <f>_xll.acq_options_bjerksund_price_approx($L31,$C$5,AS$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>70</v>
+      </c>
+      <c r="AT31">
+        <f>_xll.acq_options_bjerksund_price_approx($L31,$C$5,AT$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>70</v>
+      </c>
+      <c r="AU31">
+        <f>_xll.acq_options_bjerksund_price_approx($L31,$C$5,AU$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>70</v>
+      </c>
+      <c r="AV31">
+        <f>_xll.acq_options_bjerksund_price_approx($L31,$C$5,AV$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>70</v>
+      </c>
+      <c r="AW31">
+        <f>_xll.acq_options_bjerksund_price_approx($L31,$C$5,AW$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>70</v>
+      </c>
+      <c r="AX31">
+        <f>_xll.acq_options_bjerksund_price_approx($L31,$C$5,AX$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="6:50" x14ac:dyDescent="0.25">
+      <c r="L32" s="44">
+        <v>15</v>
+      </c>
+      <c r="M32">
+        <f>_xll.acq_options_bjerksund_price_approx($L32,$C$5,M$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <f>_xll.acq_options_bjerksund_price_approx($L32,$C$5,N$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <f>_xll.acq_options_bjerksund_price_approx($L32,$C$5,O$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <f>_xll.acq_options_bjerksund_price_approx($L32,$C$5,P$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>2.4158453015843406E-13</v>
+      </c>
+      <c r="Q32">
+        <f>_xll.acq_options_bjerksund_price_approx($L32,$C$5,Q$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>2.8535396268125623E-10</v>
+      </c>
+      <c r="R32">
+        <f>_xll.acq_options_bjerksund_price_approx($L32,$C$5,R$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>2.1594630084109667E-8</v>
+      </c>
+      <c r="S32">
+        <f>_xll.acq_options_bjerksund_price_approx($L32,$C$5,S$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>4.0358840180942934E-7</v>
+      </c>
+      <c r="T32">
+        <f>_xll.acq_options_bjerksund_price_approx($L32,$C$5,T$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>3.3680742177466527E-6</v>
+      </c>
+      <c r="U32">
+        <f>_xll.acq_options_bjerksund_price_approx($L32,$C$5,U$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>1.6907116744846462E-5</v>
+      </c>
+      <c r="V32">
+        <f>_xll.acq_options_bjerksund_price_approx($L32,$C$5,V$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>6.0301007465568546E-5</v>
+      </c>
+      <c r="W32">
+        <f>_xll.acq_options_bjerksund_price_approx($L32,$C$5,W$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>1.6896615183270569E-4</v>
+      </c>
+      <c r="X32">
+        <f>_xll.acq_options_bjerksund_price_approx($L32,$C$5,X$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>3.9667828029621433E-4</v>
+      </c>
+      <c r="Y32">
+        <f>_xll.acq_options_bjerksund_price_approx($L32,$C$5,Y$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>8.1466411519670601E-4</v>
+      </c>
+      <c r="Z32">
+        <f>_xll.acq_options_bjerksund_price_approx($L32,$C$5,Z$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>1.5082303621056781E-3</v>
+      </c>
+      <c r="AA32">
+        <f>_xll.acq_options_bjerksund_price_approx($L32,$C$5,AA$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>2.5720460623119834E-3</v>
+      </c>
+      <c r="AB32">
+        <f>_xll.acq_options_bjerksund_price_approx($L32,$C$5,AB$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>4.1051059664169998E-3</v>
+      </c>
+      <c r="AC32">
+        <f>_xll.acq_options_bjerksund_price_approx($L32,$C$5,AC$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>6.206091758230059E-3</v>
+      </c>
+      <c r="AD32">
+        <f>_xll.acq_options_bjerksund_price_approx($L32,$C$5,AD$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>8.9695225565264991E-3</v>
+      </c>
+      <c r="AF32" s="44">
+        <v>15</v>
+      </c>
+      <c r="AG32">
+        <f>_xll.acq_options_bjerksund_price_approx($L32,$C$5,AG$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>75</v>
+      </c>
+      <c r="AH32">
+        <f>_xll.acq_options_bjerksund_price_approx($L32,$C$5,AH$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>75</v>
+      </c>
+      <c r="AI32">
+        <f>_xll.acq_options_bjerksund_price_approx($L32,$C$5,AI$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>75</v>
+      </c>
+      <c r="AJ32">
+        <f>_xll.acq_options_bjerksund_price_approx($L32,$C$5,AJ$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>75</v>
+      </c>
+      <c r="AK32">
+        <f>_xll.acq_options_bjerksund_price_approx($L32,$C$5,AK$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>75</v>
+      </c>
+      <c r="AL32">
+        <f>_xll.acq_options_bjerksund_price_approx($L32,$C$5,AL$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>75</v>
+      </c>
+      <c r="AM32">
+        <f>_xll.acq_options_bjerksund_price_approx($L32,$C$5,AM$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>75</v>
+      </c>
+      <c r="AN32">
+        <f>_xll.acq_options_bjerksund_price_approx($L32,$C$5,AN$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>75</v>
+      </c>
+      <c r="AO32">
+        <f>_xll.acq_options_bjerksund_price_approx($L32,$C$5,AO$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>75</v>
+      </c>
+      <c r="AP32">
+        <f>_xll.acq_options_bjerksund_price_approx($L32,$C$5,AP$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>75</v>
+      </c>
+      <c r="AQ32">
+        <f>_xll.acq_options_bjerksund_price_approx($L32,$C$5,AQ$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>75</v>
+      </c>
+      <c r="AR32">
+        <f>_xll.acq_options_bjerksund_price_approx($L32,$C$5,AR$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>75</v>
+      </c>
+      <c r="AS32">
+        <f>_xll.acq_options_bjerksund_price_approx($L32,$C$5,AS$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>75</v>
+      </c>
+      <c r="AT32">
+        <f>_xll.acq_options_bjerksund_price_approx($L32,$C$5,AT$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>75</v>
+      </c>
+      <c r="AU32">
+        <f>_xll.acq_options_bjerksund_price_approx($L32,$C$5,AU$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>75</v>
+      </c>
+      <c r="AV32">
+        <f>_xll.acq_options_bjerksund_price_approx($L32,$C$5,AV$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>75</v>
+      </c>
+      <c r="AW32">
+        <f>_xll.acq_options_bjerksund_price_approx($L32,$C$5,AW$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>75</v>
+      </c>
+      <c r="AX32">
+        <f>_xll.acq_options_bjerksund_price_approx($L32,$C$5,AX$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="12:50" x14ac:dyDescent="0.25">
+      <c r="L33" s="44">
+        <v>10</v>
+      </c>
+      <c r="M33">
+        <f>_xll.acq_options_bjerksund_price_approx($L33,$C$5,M$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <f>_xll.acq_options_bjerksund_price_approx($L33,$C$5,N$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <f>_xll.acq_options_bjerksund_price_approx($L33,$C$5,O$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <f>_xll.acq_options_bjerksund_price_approx($L33,$C$5,P$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <f>_xll.acq_options_bjerksund_price_approx($L33,$C$5,Q$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>1.4210854715202004E-14</v>
+      </c>
+      <c r="R33">
+        <f>_xll.acq_options_bjerksund_price_approx($L33,$C$5,R$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>4.0785153032629751E-12</v>
+      </c>
+      <c r="S33">
+        <f>_xll.acq_options_bjerksund_price_approx($L33,$C$5,S$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>2.9459101824613754E-10</v>
+      </c>
+      <c r="T33">
+        <f>_xll.acq_options_bjerksund_price_approx($L33,$C$5,T$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>6.4615619521646295E-9</v>
+      </c>
+      <c r="U33">
+        <f>_xll.acq_options_bjerksund_price_approx($L33,$C$5,U$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>6.6999248815591272E-8</v>
+      </c>
+      <c r="V33">
+        <f>_xll.acq_options_bjerksund_price_approx($L33,$C$5,V$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>4.2035607350499049E-7</v>
+      </c>
+      <c r="W33">
+        <f>_xll.acq_options_bjerksund_price_approx($L33,$C$5,W$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>1.8515825672693609E-6</v>
+      </c>
+      <c r="X33">
+        <f>_xll.acq_options_bjerksund_price_approx($L33,$C$5,X$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>6.2964979150592626E-6</v>
+      </c>
+      <c r="Y33">
+        <f>_xll.acq_options_bjerksund_price_approx($L33,$C$5,Y$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>1.7615555833572216E-5</v>
+      </c>
+      <c r="Z33">
+        <f>_xll.acq_options_bjerksund_price_approx($L33,$C$5,Z$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>4.2376607424898793E-5</v>
+      </c>
+      <c r="AA33">
+        <f>_xll.acq_options_bjerksund_price_approx($L33,$C$5,AA$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>9.0479591989378605E-5</v>
+      </c>
+      <c r="AB33">
+        <f>_xll.acq_options_bjerksund_price_approx($L33,$C$5,AB$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>1.7550981893066364E-4</v>
+      </c>
+      <c r="AC33">
+        <f>_xll.acq_options_bjerksund_price_approx($L33,$C$5,AC$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>3.1477984845196261E-4</v>
+      </c>
+      <c r="AD33">
+        <f>_xll.acq_options_bjerksund_price_approx($L33,$C$5,AD$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>5.2908225998749003E-4</v>
+      </c>
+      <c r="AF33" s="44">
+        <v>10</v>
+      </c>
+      <c r="AG33">
+        <f>_xll.acq_options_bjerksund_price_approx($L33,$C$5,AG$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>80</v>
+      </c>
+      <c r="AH33">
+        <f>_xll.acq_options_bjerksund_price_approx($L33,$C$5,AH$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>80</v>
+      </c>
+      <c r="AI33">
+        <f>_xll.acq_options_bjerksund_price_approx($L33,$C$5,AI$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>80</v>
+      </c>
+      <c r="AJ33">
+        <f>_xll.acq_options_bjerksund_price_approx($L33,$C$5,AJ$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>80</v>
+      </c>
+      <c r="AK33">
+        <f>_xll.acq_options_bjerksund_price_approx($L33,$C$5,AK$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>80</v>
+      </c>
+      <c r="AL33">
+        <f>_xll.acq_options_bjerksund_price_approx($L33,$C$5,AL$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>80</v>
+      </c>
+      <c r="AM33">
+        <f>_xll.acq_options_bjerksund_price_approx($L33,$C$5,AM$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>80</v>
+      </c>
+      <c r="AN33">
+        <f>_xll.acq_options_bjerksund_price_approx($L33,$C$5,AN$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>80</v>
+      </c>
+      <c r="AO33">
+        <f>_xll.acq_options_bjerksund_price_approx($L33,$C$5,AO$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>80</v>
+      </c>
+      <c r="AP33">
+        <f>_xll.acq_options_bjerksund_price_approx($L33,$C$5,AP$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>80</v>
+      </c>
+      <c r="AQ33">
+        <f>_xll.acq_options_bjerksund_price_approx($L33,$C$5,AQ$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>80</v>
+      </c>
+      <c r="AR33">
+        <f>_xll.acq_options_bjerksund_price_approx($L33,$C$5,AR$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>80</v>
+      </c>
+      <c r="AS33">
+        <f>_xll.acq_options_bjerksund_price_approx($L33,$C$5,AS$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>80</v>
+      </c>
+      <c r="AT33">
+        <f>_xll.acq_options_bjerksund_price_approx($L33,$C$5,AT$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>80</v>
+      </c>
+      <c r="AU33">
+        <f>_xll.acq_options_bjerksund_price_approx($L33,$C$5,AU$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>80</v>
+      </c>
+      <c r="AV33">
+        <f>_xll.acq_options_bjerksund_price_approx($L33,$C$5,AV$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>80</v>
+      </c>
+      <c r="AW33">
+        <f>_xll.acq_options_bjerksund_price_approx($L33,$C$5,AW$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>80</v>
+      </c>
+      <c r="AX33">
+        <f>_xll.acq_options_bjerksund_price_approx($L33,$C$5,AX$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="12:50" x14ac:dyDescent="0.25">
+      <c r="L34" s="44">
+        <v>5</v>
+      </c>
+      <c r="M34">
+        <f>_xll.acq_options_bjerksund_price_approx($L34,$C$5,M$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <f>_xll.acq_options_bjerksund_price_approx($L34,$C$5,N$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <f>_xll.acq_options_bjerksund_price_approx($L34,$C$5,O$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <f>_xll.acq_options_bjerksund_price_approx($L34,$C$5,P$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <f>_xll.acq_options_bjerksund_price_approx($L34,$C$5,Q$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <f>_xll.acq_options_bjerksund_price_approx($L34,$C$5,R$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <f>_xll.acq_options_bjerksund_price_approx($L34,$C$5,S$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <f>_xll.acq_options_bjerksund_price_approx($L34,$C$5,T$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>2.8421709430404007E-14</v>
+      </c>
+      <c r="U34">
+        <f>_xll.acq_options_bjerksund_price_approx($L34,$C$5,U$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>5.4001247917767614E-13</v>
+      </c>
+      <c r="V34">
+        <f>_xll.acq_options_bjerksund_price_approx($L34,$C$5,V$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>1.1738165994756855E-11</v>
+      </c>
+      <c r="W34">
+        <f>_xll.acq_options_bjerksund_price_approx($L34,$C$5,W$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>1.3805845355818747E-10</v>
+      </c>
+      <c r="X34">
+        <f>_xll.acq_options_bjerksund_price_approx($L34,$C$5,X$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>1.0492726687516551E-9</v>
+      </c>
+      <c r="Y34">
+        <f>_xll.acq_options_bjerksund_price_approx($L34,$C$5,Y$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>5.7399347497266717E-9</v>
+      </c>
+      <c r="Z34">
+        <f>_xll.acq_options_bjerksund_price_approx($L34,$C$5,Z$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>2.4360957695535035E-8</v>
+      </c>
+      <c r="AA34">
+        <f>_xll.acq_options_bjerksund_price_approx($L34,$C$5,AA$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>8.4640831232718483E-8</v>
+      </c>
+      <c r="AB34">
+        <f>_xll.acq_options_bjerksund_price_approx($L34,$C$5,AB$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>2.5044309381883068E-7</v>
+      </c>
+      <c r="AC34">
+        <f>_xll.acq_options_bjerksund_price_approx($L34,$C$5,AC$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>6.500866192027388E-7</v>
+      </c>
+      <c r="AD34">
+        <f>_xll.acq_options_bjerksund_price_approx($L34,$C$5,AD$4,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>1.5144178036052836E-6</v>
+      </c>
+      <c r="AF34" s="44">
+        <v>5</v>
+      </c>
+      <c r="AG34">
+        <f>_xll.acq_options_bjerksund_price_approx($L34,$C$5,AG$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>85</v>
+      </c>
+      <c r="AH34">
+        <f>_xll.acq_options_bjerksund_price_approx($L34,$C$5,AH$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>85</v>
+      </c>
+      <c r="AI34">
+        <f>_xll.acq_options_bjerksund_price_approx($L34,$C$5,AI$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>85</v>
+      </c>
+      <c r="AJ34">
+        <f>_xll.acq_options_bjerksund_price_approx($L34,$C$5,AJ$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>85</v>
+      </c>
+      <c r="AK34">
+        <f>_xll.acq_options_bjerksund_price_approx($L34,$C$5,AK$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>85</v>
+      </c>
+      <c r="AL34">
+        <f>_xll.acq_options_bjerksund_price_approx($L34,$C$5,AL$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>85</v>
+      </c>
+      <c r="AM34">
+        <f>_xll.acq_options_bjerksund_price_approx($L34,$C$5,AM$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>85</v>
+      </c>
+      <c r="AN34">
+        <f>_xll.acq_options_bjerksund_price_approx($L34,$C$5,AN$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>85</v>
+      </c>
+      <c r="AO34">
+        <f>_xll.acq_options_bjerksund_price_approx($L34,$C$5,AO$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>85</v>
+      </c>
+      <c r="AP34">
+        <f>_xll.acq_options_bjerksund_price_approx($L34,$C$5,AP$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>85</v>
+      </c>
+      <c r="AQ34">
+        <f>_xll.acq_options_bjerksund_price_approx($L34,$C$5,AQ$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>85</v>
+      </c>
+      <c r="AR34">
+        <f>_xll.acq_options_bjerksund_price_approx($L34,$C$5,AR$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>85</v>
+      </c>
+      <c r="AS34">
+        <f>_xll.acq_options_bjerksund_price_approx($L34,$C$5,AS$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>85</v>
+      </c>
+      <c r="AT34">
+        <f>_xll.acq_options_bjerksund_price_approx($L34,$C$5,AT$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>85</v>
+      </c>
+      <c r="AU34">
+        <f>_xll.acq_options_bjerksund_price_approx($L34,$C$5,AU$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>85</v>
+      </c>
+      <c r="AV34">
+        <f>_xll.acq_options_bjerksund_price_approx($L34,$C$5,AV$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>85</v>
+      </c>
+      <c r="AW34">
+        <f>_xll.acq_options_bjerksund_price_approx($L34,$C$5,AW$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>85</v>
+      </c>
+      <c r="AX34">
+        <f>_xll.acq_options_bjerksund_price_approx($L34,$C$5,AX$4,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="F3:H3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="B1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -18766,9 +23918,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <sheetPr>
+  <sheetPr codeName="Sheet7">
     <tabColor theme="2"/>
   </sheetPr>
   <dimension ref="B1:K202"/>

--- a/Distribution/ACQ.Options.xlsx
+++ b/Distribution/ACQ.Options.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ACQ\ACQ.Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B7F5C1E-DBC1-4186-9C59-68CFE7638148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E7CDFB-437D-4249-9BAD-6D16D0FE1790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="900" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -163,8 +163,33 @@
 </comments>
 </file>
 
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>chirokov</author>
+  </authors>
+  <commentList>
+    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{318E53DF-D189-4CA7-9B6F-B52507DAE4F6}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Numerical Methods versus Bjerksund and Stensland
+Approximations for American Options Pricing
+Marasovic Branka, Aljinovic Zdravka, Poklepovic Tea</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="150">
   <si>
     <t>x</t>
   </si>
@@ -591,6 +616,30 @@
   <si>
     <t>Put Option</t>
   </si>
+  <si>
+    <t>https://downloads.dxfeed.com/specifications/dxLibOptions/Numerical-Methods-versus-Bjerksund-and-Stensland-Approximations-for-American-Options-Pricing-.pdf</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>Spot Price</t>
+  </si>
+  <si>
+    <t>Call Greeks: Bjerksund Stensland Numerical Greeks</t>
+  </si>
+  <si>
+    <t>Call Greeks: Black-Scholes Analyical Greeks</t>
+  </si>
+  <si>
+    <t>Errors</t>
+  </si>
+  <si>
+    <t>Put Greeks: Black-Scholes Analyical Greeks</t>
+  </si>
+  <si>
+    <t>Put Greeks: Bjerksund Stensland Numerical Greeks</t>
+  </si>
 </sst>
 </file>
 
@@ -601,7 +650,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -671,6 +720,14 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -934,7 +991,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
@@ -944,8 +1001,9 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -993,6 +1051,9 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9"/>
+    <xf numFmtId="2" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1000,13 +1061,14 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="10">
     <cellStyle name="20% - Accent3" xfId="7" builtinId="38"/>
     <cellStyle name="40% - Accent4" xfId="5" builtinId="43"/>
     <cellStyle name="40% - Accent5" xfId="6" builtinId="47"/>
     <cellStyle name="Calculation" xfId="4" builtinId="22"/>
     <cellStyle name="Heading 1" xfId="8" builtinId="16"/>
     <cellStyle name="Heading 3" xfId="3" builtinId="18"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8"/>
     <cellStyle name="Input" xfId="2" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="1" builtinId="10"/>
@@ -10241,7 +10303,7 @@
       </c>
       <c r="C4" s="6" t="str">
         <f>_xll.acq_version()</f>
-        <v>1.3.8023.34857</v>
+        <v>1.3.8023.37490</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
@@ -10355,37 +10417,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="49" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
     </row>
     <row r="2" spans="1:43" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="45" t="s">
+      <c r="F2" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="L2" s="45" t="s">
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="L2" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="S2" s="45" t="s">
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="S2" s="48" t="s">
         <v>107</v>
       </c>
-      <c r="T2" s="45"/>
-      <c r="U2" s="45"/>
-      <c r="V2" s="45"/>
-      <c r="W2" s="45"/>
-      <c r="X2" s="45"/>
-      <c r="Y2" s="45"/>
-      <c r="Z2" s="45"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="48"/>
+      <c r="V2" s="48"/>
+      <c r="W2" s="48"/>
+      <c r="X2" s="48"/>
+      <c r="Y2" s="48"/>
+      <c r="Z2" s="48"/>
       <c r="AB2" s="3" t="s">
         <v>112</v>
       </c>
@@ -11560,16 +11622,16 @@
         <f>_xll.acq_options_black_vol($C$4,$C$5,$C$6,$C$8,N17,FALSE)</f>
         <v>0.65000000000000013</v>
       </c>
-      <c r="S17" s="45" t="s">
+      <c r="S17" s="48" t="s">
         <v>108</v>
       </c>
-      <c r="T17" s="45"/>
-      <c r="U17" s="45"/>
-      <c r="V17" s="45"/>
-      <c r="W17" s="45"/>
-      <c r="X17" s="45"/>
-      <c r="Y17" s="45"/>
-      <c r="Z17" s="45"/>
+      <c r="T17" s="48"/>
+      <c r="U17" s="48"/>
+      <c r="V17" s="48"/>
+      <c r="W17" s="48"/>
+      <c r="X17" s="48"/>
+      <c r="Y17" s="48"/>
+      <c r="Z17" s="48"/>
       <c r="AB17" s="16">
         <f>C7</f>
         <v>0.2</v>
@@ -12750,37 +12812,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="49" t="s">
         <v>128</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
     </row>
     <row r="2" spans="1:43" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="45" t="s">
+      <c r="F2" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="L2" s="45" t="s">
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="L2" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="S2" s="45" t="s">
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="S2" s="48" t="s">
         <v>107</v>
       </c>
-      <c r="T2" s="45"/>
-      <c r="U2" s="45"/>
-      <c r="V2" s="45"/>
-      <c r="W2" s="45"/>
-      <c r="X2" s="45"/>
-      <c r="Y2" s="45"/>
-      <c r="Z2" s="45"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="48"/>
+      <c r="V2" s="48"/>
+      <c r="W2" s="48"/>
+      <c r="X2" s="48"/>
+      <c r="Y2" s="48"/>
+      <c r="Z2" s="48"/>
       <c r="AB2" s="3" t="s">
         <v>112</v>
       </c>
@@ -13955,16 +14017,16 @@
         <f>_xll.acq_options_bachelier_vol($C$4,$C$5,$C$6,$C$8,N17,FALSE)</f>
         <v>25.999999999962554</v>
       </c>
-      <c r="S17" s="45" t="s">
+      <c r="S17" s="48" t="s">
         <v>108</v>
       </c>
-      <c r="T17" s="45"/>
-      <c r="U17" s="45"/>
-      <c r="V17" s="45"/>
-      <c r="W17" s="45"/>
-      <c r="X17" s="45"/>
-      <c r="Y17" s="45"/>
-      <c r="Z17" s="45"/>
+      <c r="T17" s="48"/>
+      <c r="U17" s="48"/>
+      <c r="V17" s="48"/>
+      <c r="W17" s="48"/>
+      <c r="X17" s="48"/>
+      <c r="Y17" s="48"/>
+      <c r="Z17" s="48"/>
       <c r="AB17" s="16">
         <f>C7</f>
         <v>20</v>
@@ -14841,14 +14903,14 @@
       </c>
     </row>
     <row r="32" spans="6:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L32" s="45" t="s">
+      <c r="L32" s="48" t="s">
         <v>131</v>
       </c>
-      <c r="M32" s="45"/>
-      <c r="N32" s="45"/>
-      <c r="O32" s="45"/>
-      <c r="P32" s="45"/>
-      <c r="Q32" s="45"/>
+      <c r="M32" s="48"/>
+      <c r="N32" s="48"/>
+      <c r="O32" s="48"/>
+      <c r="P32" s="48"/>
+      <c r="Q32" s="48"/>
       <c r="AB32" t="s">
         <v>111</v>
       </c>
@@ -15493,7 +15555,7 @@
   <dimension ref="A1:AS56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15508,37 +15570,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
     </row>
     <row r="2" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="45" t="s">
+      <c r="F2" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="L2" s="45" t="s">
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="L2" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="S2" s="45" t="s">
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="S2" s="48" t="s">
         <v>107</v>
       </c>
-      <c r="T2" s="45"/>
-      <c r="U2" s="45"/>
-      <c r="V2" s="45"/>
-      <c r="W2" s="45"/>
-      <c r="X2" s="45"/>
-      <c r="Y2" s="45"/>
-      <c r="Z2" s="45"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="48"/>
+      <c r="V2" s="48"/>
+      <c r="W2" s="48"/>
+      <c r="X2" s="48"/>
+      <c r="Y2" s="48"/>
+      <c r="Z2" s="48"/>
       <c r="AA2" s="38"/>
       <c r="AB2" s="38"/>
       <c r="AD2" s="3" t="s">
@@ -16815,16 +16877,16 @@
         <f>_xll.acq_options_blackscholes_vol($C$4,$C$5,$C$6,$C$8,$C$9,$N17,FALSE)</f>
         <v>0.65</v>
       </c>
-      <c r="S17" s="45" t="s">
+      <c r="S17" s="48" t="s">
         <v>108</v>
       </c>
-      <c r="T17" s="45"/>
-      <c r="U17" s="45"/>
-      <c r="V17" s="45"/>
-      <c r="W17" s="45"/>
-      <c r="X17" s="45"/>
-      <c r="Y17" s="45"/>
-      <c r="Z17" s="45"/>
+      <c r="T17" s="48"/>
+      <c r="U17" s="48"/>
+      <c r="V17" s="48"/>
+      <c r="W17" s="48"/>
+      <c r="X17" s="48"/>
+      <c r="Y17" s="48"/>
+      <c r="Z17" s="48"/>
       <c r="AA17" s="38"/>
       <c r="AB17" s="38"/>
       <c r="AD17" s="16">
@@ -18429,58 +18491,64 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{937DB880-8B2C-4D2D-B567-C1990F7A61F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{937DB880-8B2C-4D2D-B567-C1990F7A61F3}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AX34"/>
+  <dimension ref="A1:AI57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:A8"/>
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:28" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="49" t="s">
         <v>135</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-    </row>
-    <row r="2" spans="1:50" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="M2" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+    </row>
+    <row r="2" spans="1:28" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="L2" t="s">
         <v>140</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="U2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>92</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="F3" s="45" t="s">
+      <c r="F3" s="48" t="s">
         <v>139</v>
       </c>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45" t="s">
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48" t="s">
         <v>137</v>
       </c>
-      <c r="J3" s="45"/>
+      <c r="J3" s="48"/>
       <c r="M3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+      <c r="V3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>124</v>
       </c>
@@ -18503,298 +18571,144 @@
         <v>138</v>
       </c>
       <c r="L4" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="M4" s="44">
-        <v>0.1</v>
+        <v>120</v>
       </c>
       <c r="N4" s="44">
-        <v>0.5</v>
+        <v>130</v>
       </c>
       <c r="O4" s="44">
-        <v>1</v>
+        <v>140</v>
       </c>
       <c r="P4" s="44">
-        <v>1.5</v>
+        <v>150</v>
       </c>
       <c r="Q4" s="44">
-        <v>2</v>
+        <v>160</v>
       </c>
       <c r="R4" s="44">
-        <v>2.5</v>
+        <v>170</v>
       </c>
       <c r="S4" s="44">
-        <v>3</v>
-      </c>
-      <c r="T4" s="44">
-        <v>3.5</v>
-      </c>
-      <c r="U4" s="44">
-        <v>4</v>
+        <v>180</v>
+      </c>
+      <c r="U4" t="s">
+        <v>136</v>
       </c>
       <c r="V4" s="44">
-        <v>4.5</v>
+        <v>120</v>
       </c>
       <c r="W4" s="44">
-        <v>5</v>
+        <v>130</v>
       </c>
       <c r="X4" s="44">
-        <v>5.5</v>
+        <v>140</v>
       </c>
       <c r="Y4" s="44">
-        <v>6</v>
+        <v>150</v>
       </c>
       <c r="Z4" s="44">
-        <v>6.5</v>
+        <v>160</v>
       </c>
       <c r="AA4" s="44">
-        <v>7</v>
+        <v>170</v>
       </c>
       <c r="AB4" s="44">
-        <v>7.5</v>
-      </c>
-      <c r="AC4" s="44">
-        <v>8</v>
-      </c>
-      <c r="AD4" s="44">
-        <v>8.5</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>125</v>
-      </c>
-      <c r="AG4" s="44">
-        <v>0.1</v>
-      </c>
-      <c r="AH4" s="44">
-        <v>0.5</v>
-      </c>
-      <c r="AI4" s="44">
-        <v>1</v>
-      </c>
-      <c r="AJ4" s="44">
-        <v>1.5</v>
-      </c>
-      <c r="AK4" s="44">
-        <v>2</v>
-      </c>
-      <c r="AL4" s="44">
-        <v>2.5</v>
-      </c>
-      <c r="AM4" s="44">
-        <v>3</v>
-      </c>
-      <c r="AN4" s="44">
-        <v>3.5</v>
-      </c>
-      <c r="AO4" s="44">
-        <v>4</v>
-      </c>
-      <c r="AP4" s="44">
-        <v>4.5</v>
-      </c>
-      <c r="AQ4" s="44">
-        <v>5</v>
-      </c>
-      <c r="AR4" s="44">
-        <v>5.5</v>
-      </c>
-      <c r="AS4" s="44">
-        <v>6</v>
-      </c>
-      <c r="AT4" s="44">
-        <v>6.5</v>
-      </c>
-      <c r="AU4" s="44">
-        <v>7</v>
-      </c>
-      <c r="AV4" s="44">
-        <v>7.5</v>
-      </c>
-      <c r="AW4" s="44">
-        <v>8</v>
-      </c>
-      <c r="AX4" s="44">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>87</v>
       </c>
       <c r="C5" s="5">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="F5">
         <v>10</v>
       </c>
       <c r="G5">
         <f>_xll.acq_options_bjerksund_price_approx($C$4,F5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>70</v>
+        <v>60.249558470704109</v>
       </c>
       <c r="H5">
         <f>_xll.acq_options_bjerksund_price_approx($C$4,F5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>1.7394086171407253E-11</v>
+        <v>1.45451366506677E-8</v>
       </c>
       <c r="I5">
         <f>_xll.acq_options_blackscholes_price($C$4,F5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>68.51249871727687</v>
+        <v>60.249558470704109</v>
       </c>
       <c r="J5">
         <f>_xll.acq_options_blackscholes_price($C$4,G5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>4.470579186763576</v>
-      </c>
-      <c r="L5" s="44">
-        <v>150</v>
+        <v>3.2409702289365026</v>
+      </c>
+      <c r="L5" s="46">
+        <v>0.05</v>
       </c>
       <c r="M5">
-        <f>_xll.acq_options_bjerksund_price_approx($L5,$C$5,M$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>60.029895702725661</v>
+        <f>_xll.acq_options_bjerksund_price_approx(M$4,$C$5,$L5,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>5.5406465471966558E-5</v>
       </c>
       <c r="N5">
-        <f>_xll.acq_options_bjerksund_price_approx($L5,$C$5,N$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>60.149311128337409</v>
+        <f>_xll.acq_options_bjerksund_price_approx(N$4,$C$5,$L5,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>1.2933090223175903E-2</v>
       </c>
       <c r="O5">
-        <f>_xll.acq_options_bjerksund_price_approx($L5,$C$5,O$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>60.333120662658622</v>
+        <f>_xll.acq_options_bjerksund_price_approx(O$4,$C$5,$L5,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0.42214400501387139</v>
       </c>
       <c r="P5">
-        <f>_xll.acq_options_bjerksund_price_approx($L5,$C$5,P$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>60.61302180027652</v>
+        <f>_xll.acq_options_bjerksund_price_approx(P$4,$C$5,$L5,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>3.334777836621214</v>
       </c>
       <c r="Q5">
-        <f>_xll.acq_options_bjerksund_price_approx($L5,$C$5,Q$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>60.986921363184784</v>
+        <f>_xll.acq_options_bjerksund_price_approx(Q$4,$C$5,$L5,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>10.501286446631354</v>
       </c>
       <c r="R5">
-        <f>_xll.acq_options_bjerksund_price_approx($L5,$C$5,R$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>61.427741387463584</v>
+        <f>_xll.acq_options_bjerksund_price_approx(R$4,$C$5,$L5,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>19.978981172055768</v>
       </c>
       <c r="S5">
-        <f>_xll.acq_options_bjerksund_price_approx($L5,$C$5,S$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>61.910844283276425</v>
-      </c>
-      <c r="T5">
-        <f>_xll.acq_options_bjerksund_price_approx($L5,$C$5,T$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>62.41825240361873</v>
-      </c>
-      <c r="U5">
-        <f>_xll.acq_options_bjerksund_price_approx($L5,$C$5,U$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>62.937568038972188</v>
+        <f>_xll.acq_options_bjerksund_price_approx(S$4,$C$5,$L5,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>29.911482759239618</v>
+      </c>
+      <c r="U5" s="46">
+        <v>0.05</v>
       </c>
       <c r="V5">
-        <f>_xll.acq_options_bjerksund_price_approx($L5,$C$5,V$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>63.46037955353669</v>
+        <f>_xll.acq_options_bjerksund_price_approx(V$4,$C$5,$U5,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>30</v>
       </c>
       <c r="W5">
-        <f>_xll.acq_options_bjerksund_price_approx($L5,$C$5,W$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>63.981012192352047</v>
+        <f>_xll.acq_options_bjerksund_price_approx(W$4,$C$5,$U5,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>20</v>
       </c>
       <c r="X5">
-        <f>_xll.acq_options_bjerksund_price_approx($L5,$C$5,X$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>64.495657905802233</v>
+        <f>_xll.acq_options_bjerksund_price_approx(X$4,$C$5,$U5,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>10.18504362777812</v>
       </c>
       <c r="Y5">
-        <f>_xll.acq_options_bjerksund_price_approx($L5,$C$5,Y$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>65.001787077777777</v>
+        <f>_xll.acq_options_bjerksund_price_approx(Y$4,$C$5,$U5,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>3.1384221077732235</v>
       </c>
       <c r="Z5">
-        <f>_xll.acq_options_bjerksund_price_approx($L5,$C$5,Z$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>65.497752038240634</v>
+        <f>_xll.acq_options_bjerksund_price_approx(Z$4,$C$5,$U5,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>0.47775635971180463</v>
       </c>
       <c r="AA5">
-        <f>_xll.acq_options_bjerksund_price_approx($L5,$C$5,AA$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>65.982518062664582</v>
+        <f>_xll.acq_options_bjerksund_price_approx(AA$4,$C$5,$U5,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>3.3349932689986872E-2</v>
       </c>
       <c r="AB5">
-        <f>_xll.acq_options_bjerksund_price_approx($L5,$C$5,AB$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>66.455479031763559</v>
-      </c>
-      <c r="AC5">
-        <f>_xll.acq_options_bjerksund_price_approx($L5,$C$5,AC$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>66.916329736215062</v>
-      </c>
-      <c r="AD5">
-        <f>_xll.acq_options_bjerksund_price_approx($L5,$C$5,AD$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>67.364976493162942</v>
-      </c>
-      <c r="AF5" s="44">
-        <v>150</v>
-      </c>
-      <c r="AG5">
-        <f>_xll.acq_options_bjerksund_price_approx($L5,$C$5,AG$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>-2.8421709430404007E-14</v>
-      </c>
-      <c r="AH5">
-        <f>_xll.acq_options_bjerksund_price_approx($L5,$C$5,AH$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>5.2423704602233556E-4</v>
-      </c>
-      <c r="AI5">
-        <f>_xll.acq_options_bjerksund_price_approx($L5,$C$5,AI$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>3.2956499857846211E-2</v>
-      </c>
-      <c r="AJ5">
-        <f>_xll.acq_options_bjerksund_price_approx($L5,$C$5,AJ$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>0.15743120822392598</v>
-      </c>
-      <c r="AK5">
-        <f>_xll.acq_options_bjerksund_price_approx($L5,$C$5,AK$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>0.37286390789105894</v>
-      </c>
-      <c r="AL5">
-        <f>_xll.acq_options_bjerksund_price_approx($L5,$C$5,AL$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>0.65362194661997819</v>
-      </c>
-      <c r="AM5">
-        <f>_xll.acq_options_bjerksund_price_approx($L5,$C$5,AM$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>0.97650082959876272</v>
-      </c>
-      <c r="AN5">
-        <f>_xll.acq_options_bjerksund_price_approx($L5,$C$5,AN$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>1.3247488243186751</v>
-      </c>
-      <c r="AO5">
-        <f>_xll.acq_options_bjerksund_price_approx($L5,$C$5,AO$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>1.6869237577565741</v>
-      </c>
-      <c r="AP5">
-        <f>_xll.acq_options_bjerksund_price_approx($L5,$C$5,AP$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>2.0553095471105678</v>
-      </c>
-      <c r="AQ5">
-        <f>_xll.acq_options_bjerksund_price_approx($L5,$C$5,AQ$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>2.4247074345020394</v>
-      </c>
-      <c r="AR5">
-        <f>_xll.acq_options_bjerksund_price_approx($L5,$C$5,AR$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>2.7916122495678053</v>
-      </c>
-      <c r="AS5">
-        <f>_xll.acq_options_bjerksund_price_approx($L5,$C$5,AS$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>3.1536662532126627</v>
-      </c>
-      <c r="AT5">
-        <f>_xll.acq_options_bjerksund_price_approx($L5,$C$5,AT$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>3.5092972558975362</v>
-      </c>
-      <c r="AU5">
-        <f>_xll.acq_options_bjerksund_price_approx($L5,$C$5,AU$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>3.8574766524037898</v>
-      </c>
-      <c r="AV5">
-        <f>_xll.acq_options_bjerksund_price_approx($L5,$C$5,AV$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>4.1975556070452598</v>
-      </c>
-      <c r="AW5">
-        <f>_xll.acq_options_bjerksund_price_approx($L5,$C$5,AW$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>4.5291526706319161</v>
-      </c>
-      <c r="AX5">
-        <f>_xll.acq_options_bjerksund_price_approx($L5,$C$5,AX$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>4.8520756860833387</v>
-      </c>
-    </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
+        <f>_xll.acq_options_bjerksund_price_approx(AB$4,$C$5,$U5,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>1.1017056366426914E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>88</v>
       </c>
@@ -18806,703 +18720,351 @@
       </c>
       <c r="G6">
         <f>_xll.acq_options_bjerksund_price_approx($C$4,F6,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>60</v>
+        <v>51.643238988719183</v>
       </c>
       <c r="H6">
         <f>_xll.acq_options_bjerksund_price_approx($C$4,F6,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>1.0021636072110596E-5</v>
+        <v>1.7144366461252503E-4</v>
       </c>
       <c r="I6">
         <f>_xll.acq_options_blackscholes_price($C$4,F6,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>59.000214491198946</v>
+        <v>51.643238988719183</v>
       </c>
       <c r="J6">
         <f>_xll.acq_options_blackscholes_price($C$4,G6,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>1.7818945893580391</v>
-      </c>
-      <c r="L6" s="44">
-        <v>145</v>
+        <v>1.4604738210067554</v>
+      </c>
+      <c r="L6" s="46">
+        <v>0.1</v>
       </c>
       <c r="M6">
-        <f>_xll.acq_options_bjerksund_price_approx($L6,$C$5,M$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>55.034892658549218</v>
+        <f>_xll.acq_options_bjerksund_price_approx(M$4,$C$5,$L6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>7.4321492242979126E-3</v>
       </c>
       <c r="N6">
-        <f>_xll.acq_options_bjerksund_price_approx($L6,$C$5,N$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>55.174378618866022</v>
+        <f>_xll.acq_options_bjerksund_price_approx(N$4,$C$5,$L6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0.15262645017283294</v>
       </c>
       <c r="O6">
-        <f>_xll.acq_options_bjerksund_price_approx($L6,$C$5,O$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>55.401113099243979</v>
+        <f>_xll.acq_options_bjerksund_price_approx(O$4,$C$5,$L6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>1.2014947001305352</v>
       </c>
       <c r="P6">
-        <f>_xll.acq_options_bjerksund_price_approx($L6,$C$5,P$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>55.747792867114477</v>
+        <f>_xll.acq_options_bjerksund_price_approx(P$4,$C$5,$L6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>4.7013488821066858</v>
       </c>
       <c r="Q6">
-        <f>_xll.acq_options_bjerksund_price_approx($L6,$C$5,Q$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>56.195095079861389</v>
+        <f>_xll.acq_options_bjerksund_price_approx(Q$4,$C$5,$L6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>11.361232793456026</v>
       </c>
       <c r="R6">
-        <f>_xll.acq_options_bjerksund_price_approx($L6,$C$5,R$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>56.706624918025192</v>
+        <f>_xll.acq_options_bjerksund_price_approx(R$4,$C$5,$L6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>20.183594612760373</v>
       </c>
       <c r="S6">
-        <f>_xll.acq_options_bjerksund_price_approx($L6,$C$5,S$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>57.254677618842294</v>
-      </c>
-      <c r="T6">
-        <f>_xll.acq_options_bjerksund_price_approx($L6,$C$5,T$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>57.820772408251273</v>
-      </c>
-      <c r="U6">
-        <f>_xll.acq_options_bjerksund_price_approx($L6,$C$5,U$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>58.39290930798979</v>
+        <f>_xll.acq_options_bjerksund_price_approx(S$4,$C$5,$L6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>29.866937861547115</v>
+      </c>
+      <c r="U6" s="46">
+        <v>0.1</v>
       </c>
       <c r="V6">
-        <f>_xll.acq_options_bjerksund_price_approx($L6,$C$5,V$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>58.96332865841832</v>
+        <f>_xll.acq_options_bjerksund_price_approx(V$4,$C$5,$U6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>30</v>
       </c>
       <c r="W6">
-        <f>_xll.acq_options_bjerksund_price_approx($L6,$C$5,W$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>59.527023786065513</v>
+        <f>_xll.acq_options_bjerksund_price_approx(W$4,$C$5,$U6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>20</v>
       </c>
       <c r="X6">
-        <f>_xll.acq_options_bjerksund_price_approx($L6,$C$5,X$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>60.08079112489996</v>
+        <f>_xll.acq_options_bjerksund_price_approx(X$4,$C$5,$U6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>10.70274525100454</v>
       </c>
       <c r="Y6">
-        <f>_xll.acq_options_bjerksund_price_approx($L6,$C$5,Y$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>60.622622748678978</v>
+        <f>_xll.acq_options_bjerksund_price_approx(Y$4,$C$5,$U6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>4.323515151201903</v>
       </c>
       <c r="Z6">
-        <f>_xll.acq_options_bjerksund_price_approx($L6,$C$5,Z$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>61.151312780089256</v>
+        <f>_xll.acq_options_bjerksund_price_approx(Z$4,$C$5,$U6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>1.2488238283683302</v>
       </c>
       <c r="AA6">
-        <f>_xll.acq_options_bjerksund_price_approx($L6,$C$5,AA$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>61.666198280291468</v>
+        <f>_xll.acq_options_bjerksund_price_approx(AA$4,$C$5,$U6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>0.25445924170767853</v>
       </c>
       <c r="AB6">
-        <f>_xll.acq_options_bjerksund_price_approx($L6,$C$5,AB$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>62.166985974069419</v>
-      </c>
-      <c r="AC6">
-        <f>_xll.acq_options_bjerksund_price_approx($L6,$C$5,AC$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>62.653634710753714</v>
-      </c>
-      <c r="AD6">
-        <f>_xll.acq_options_bjerksund_price_approx($L6,$C$5,AD$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>63.126274736328838</v>
-      </c>
-      <c r="AF6" s="44">
-        <v>145</v>
-      </c>
-      <c r="AG6">
-        <f>_xll.acq_options_bjerksund_price_approx($L6,$C$5,AG$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>2.8421709430404007E-14</v>
-      </c>
-      <c r="AH6">
-        <f>_xll.acq_options_bjerksund_price_approx($L6,$C$5,AH$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>1.3456070146560251E-3</v>
-      </c>
-      <c r="AI6">
-        <f>_xll.acq_options_bjerksund_price_approx($L6,$C$5,AI$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>5.4953157607968706E-2</v>
-      </c>
-      <c r="AJ6">
-        <f>_xll.acq_options_bjerksund_price_approx($L6,$C$5,AJ$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>0.22636147050107525</v>
-      </c>
-      <c r="AK6">
-        <f>_xll.acq_options_bjerksund_price_approx($L6,$C$5,AK$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>0.49680385331933508</v>
-      </c>
-      <c r="AL6">
-        <f>_xll.acq_options_bjerksund_price_approx($L6,$C$5,AL$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>0.83099703557758176</v>
-      </c>
-      <c r="AM6">
-        <f>_xll.acq_options_bjerksund_price_approx($L6,$C$5,AM$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>1.2023913709940359</v>
-      </c>
-      <c r="AN6">
-        <f>_xll.acq_options_bjerksund_price_approx($L6,$C$5,AN$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>1.5935235890466402</v>
-      </c>
-      <c r="AO6">
-        <f>_xll.acq_options_bjerksund_price_approx($L6,$C$5,AO$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>1.9932077434910411</v>
-      </c>
-      <c r="AP6">
-        <f>_xll.acq_options_bjerksund_price_approx($L6,$C$5,AP$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>2.3942901619579402</v>
-      </c>
-      <c r="AQ6">
-        <f>_xll.acq_options_bjerksund_price_approx($L6,$C$5,AQ$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>2.7921864538705563</v>
-      </c>
-      <c r="AR6">
-        <f>_xll.acq_options_bjerksund_price_approx($L6,$C$5,AR$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>3.1839652740036826</v>
-      </c>
-      <c r="AS6">
-        <f>_xll.acq_options_bjerksund_price_approx($L6,$C$5,AS$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>3.5677739896503482</v>
-      </c>
-      <c r="AT6">
-        <f>_xll.acq_options_bjerksund_price_approx($L6,$C$5,AT$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>3.9424737903659377</v>
-      </c>
-      <c r="AU6">
-        <f>_xll.acq_options_bjerksund_price_approx($L6,$C$5,AU$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>4.3074038850911336</v>
-      </c>
-      <c r="AV6">
-        <f>_xll.acq_options_bjerksund_price_approx($L6,$C$5,AV$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>4.6622264734135399</v>
-      </c>
-      <c r="AW6">
-        <f>_xll.acq_options_bjerksund_price_approx($L6,$C$5,AW$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>5.0068231697543837</v>
-      </c>
-      <c r="AX6">
-        <f>_xll.acq_options_bjerksund_price_approx($L6,$C$5,AX$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>5.3412247996944586</v>
-      </c>
-    </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
+        <f>_xll.acq_options_bjerksund_price_approx(AB$4,$C$5,$U6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>3.7185007899296352E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>89</v>
       </c>
       <c r="C7" s="5">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="F7">
         <v>30</v>
       </c>
       <c r="G7">
         <f>_xll.acq_options_bjerksund_price_approx($C$4,F7,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>50</v>
+        <v>43.070218293843979</v>
       </c>
       <c r="H7">
         <f>_xll.acq_options_bjerksund_price_approx($C$4,F7,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>2.9398085981995337E-3</v>
+        <v>1.1270787915449887E-2</v>
       </c>
       <c r="I7">
         <f>_xll.acq_options_blackscholes_price($C$4,F7,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>49.490846647233283</v>
+        <v>43.070218293843979</v>
       </c>
       <c r="J7">
         <f>_xll.acq_options_blackscholes_price($C$4,G7,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>0.48120239598688475</v>
-      </c>
-      <c r="L7" s="44">
-        <v>140</v>
+        <v>0.49501536694438641</v>
+      </c>
+      <c r="L7" s="46">
+        <v>0.15</v>
       </c>
       <c r="M7">
-        <f>_xll.acq_options_bjerksund_price_approx($L7,$C$5,M$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>50.039890101200164</v>
+        <f>_xll.acq_options_bjerksund_price_approx(M$4,$C$5,$L7,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>4.6461255493347009E-2</v>
       </c>
       <c r="N7">
-        <f>_xll.acq_options_bjerksund_price_approx($L7,$C$5,N$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>50.200977753407635</v>
+        <f>_xll.acq_options_bjerksund_price_approx(N$4,$C$5,$L7,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0.41252916144221174</v>
       </c>
       <c r="O7">
-        <f>_xll.acq_options_bjerksund_price_approx($L7,$C$5,O$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>50.484213345761454</v>
+        <f>_xll.acq_options_bjerksund_price_approx(O$4,$C$5,$L7,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>1.9436117065435283</v>
       </c>
       <c r="P7">
-        <f>_xll.acq_options_bjerksund_price_approx($L7,$C$5,P$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>50.913431691159758</v>
+        <f>_xll.acq_options_bjerksund_price_approx(P$4,$C$5,$L7,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>5.7399577137358477</v>
       </c>
       <c r="Q7">
-        <f>_xll.acq_options_bjerksund_price_approx($L7,$C$5,Q$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>51.445680904430013</v>
+        <f>_xll.acq_options_bjerksund_price_approx(Q$4,$C$5,$L7,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>12.155858521118432</v>
       </c>
       <c r="R7">
-        <f>_xll.acq_options_bjerksund_price_approx($L7,$C$5,R$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>52.03553261232787</v>
+        <f>_xll.acq_options_bjerksund_price_approx(R$4,$C$5,$L7,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>20.52879418638193</v>
       </c>
       <c r="S7">
-        <f>_xll.acq_options_bjerksund_price_approx($L7,$C$5,S$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>52.653363145365226</v>
-      </c>
-      <c r="T7">
-        <f>_xll.acq_options_bjerksund_price_approx($L7,$C$5,T$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>53.281100002939894</v>
-      </c>
-      <c r="U7">
-        <f>_xll.acq_options_bjerksund_price_approx($L7,$C$5,U$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>53.907760813925591</v>
+        <f>_xll.acq_options_bjerksund_price_approx(S$4,$C$5,$L7,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>29.91318851001617</v>
+      </c>
+      <c r="U7" s="46">
+        <v>0.15</v>
       </c>
       <c r="V7">
-        <f>_xll.acq_options_bjerksund_price_approx($L7,$C$5,V$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>54.526648340359642</v>
+        <f>_xll.acq_options_bjerksund_price_approx(V$4,$C$5,$U7,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>30</v>
       </c>
       <c r="W7">
-        <f>_xll.acq_options_bjerksund_price_approx($L7,$C$5,W$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>55.133696849558859</v>
+        <f>_xll.acq_options_bjerksund_price_approx(W$4,$C$5,$U7,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>20.001920467055228</v>
       </c>
       <c r="X7">
-        <f>_xll.acq_options_bjerksund_price_approx($L7,$C$5,X$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>55.726490876232639</v>
+        <f>_xll.acq_options_bjerksund_price_approx(X$4,$C$5,$U7,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>11.215430755407048</v>
       </c>
       <c r="Y7">
-        <f>_xll.acq_options_bjerksund_price_approx($L7,$C$5,Y$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>56.303669420308253</v>
+        <f>_xll.acq_options_bjerksund_price_approx(Y$4,$C$5,$U7,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>5.190490800613432</v>
       </c>
       <c r="Z7">
-        <f>_xll.acq_options_bjerksund_price_approx($L7,$C$5,Z$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>56.864554875687254</v>
+        <f>_xll.acq_options_bjerksund_price_approx(Z$4,$C$5,$U7,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>1.9396936783394665</v>
       </c>
       <c r="AA7">
-        <f>_xll.acq_options_bjerksund_price_approx($L7,$C$5,AA$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>57.408916426905932</v>
+        <f>_xll.acq_options_bjerksund_price_approx(AA$4,$C$5,$U7,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>0.58423039563368206</v>
       </c>
       <c r="AB7">
-        <f>_xll.acq_options_bjerksund_price_approx($L7,$C$5,AB$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>57.936816081290949</v>
-      </c>
-      <c r="AC7">
-        <f>_xll.acq_options_bjerksund_price_approx($L7,$C$5,AC$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>58.448506760084094</v>
-      </c>
-      <c r="AD7">
-        <f>_xll.acq_options_bjerksund_price_approx($L7,$C$5,AD$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>58.944363920860035</v>
-      </c>
-      <c r="AF7" s="44">
-        <v>140</v>
-      </c>
-      <c r="AG7">
-        <f>_xll.acq_options_bjerksund_price_approx($L7,$C$5,AG$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>1.2505552149377763E-12</v>
-      </c>
-      <c r="AH7">
-        <f>_xll.acq_options_bjerksund_price_approx($L7,$C$5,AH$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>3.3814043360393953E-3</v>
-      </c>
-      <c r="AI7">
-        <f>_xll.acq_options_bjerksund_price_approx($L7,$C$5,AI$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>9.092499986797975E-2</v>
-      </c>
-      <c r="AJ7">
-        <f>_xll.acq_options_bjerksund_price_approx($L7,$C$5,AJ$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>0.32425211009154964</v>
-      </c>
-      <c r="AK7">
-        <f>_xll.acq_options_bjerksund_price_approx($L7,$C$5,AK$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>0.66063930552834904</v>
-      </c>
-      <c r="AL7">
-        <f>_xll.acq_options_bjerksund_price_approx($L7,$C$5,AL$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>1.0554515236365205</v>
-      </c>
-      <c r="AM7">
-        <f>_xll.acq_options_bjerksund_price_approx($L7,$C$5,AM$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>1.4799264240529055</v>
-      </c>
-      <c r="AN7">
-        <f>_xll.acq_options_bjerksund_price_approx($L7,$C$5,AN$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>1.9167723064650772</v>
-      </c>
-      <c r="AO7">
-        <f>_xll.acq_options_bjerksund_price_approx($L7,$C$5,AO$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>2.3556482439609852</v>
-      </c>
-      <c r="AP7">
-        <f>_xll.acq_options_bjerksund_price_approx($L7,$C$5,AP$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>2.7903448583539046</v>
-      </c>
-      <c r="AQ7">
-        <f>_xll.acq_options_bjerksund_price_approx($L7,$C$5,AQ$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>3.217141096033302</v>
-      </c>
-      <c r="AR7">
-        <f>_xll.acq_options_bjerksund_price_approx($L7,$C$5,AR$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>3.6338441683202944</v>
-      </c>
-      <c r="AS7">
-        <f>_xll.acq_options_bjerksund_price_approx($L7,$C$5,AS$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>4.0392174045080509</v>
-      </c>
-      <c r="AT7">
-        <f>_xll.acq_options_bjerksund_price_approx($L7,$C$5,AT$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>4.4326312043716598</v>
-      </c>
-      <c r="AU7">
-        <f>_xll.acq_options_bjerksund_price_approx($L7,$C$5,AU$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>4.8138452353644823</v>
-      </c>
-      <c r="AV7">
-        <f>_xll.acq_options_bjerksund_price_approx($L7,$C$5,AV$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>5.1828697496073772</v>
-      </c>
-      <c r="AW7">
-        <f>_xll.acq_options_bjerksund_price_approx($L7,$C$5,AW$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>5.5398757321653846</v>
-      </c>
-      <c r="AX7">
-        <f>_xll.acq_options_bjerksund_price_approx($L7,$C$5,AX$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>5.8851358444770767</v>
-      </c>
-    </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
+        <f>_xll.acq_options_bjerksund_price_approx(AB$4,$C$5,$U7,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>0.14353303380678994</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>90</v>
       </c>
       <c r="C8" s="5">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="F8">
         <v>40</v>
       </c>
       <c r="G8">
         <f>_xll.acq_options_bjerksund_price_approx($C$4,F8,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>40.182001258943721</v>
+        <v>34.732350696547442</v>
       </c>
       <c r="H8">
         <f>_xll.acq_options_bjerksund_price_approx($C$4,F8,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>6.8180472490496413E-2</v>
+        <v>0.12687762656902635</v>
       </c>
       <c r="I8">
         <f>_xll.acq_options_blackscholes_price($C$4,F8,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>40.043583872529908</v>
+        <v>34.732350696547442</v>
       </c>
       <c r="J8">
         <f>_xll.acq_options_blackscholes_price($C$4,G8,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>7.1017782438979493E-2</v>
-      </c>
-      <c r="L8" s="44">
-        <v>135</v>
+        <v>0.11085764156847244</v>
+      </c>
+      <c r="L8" s="46">
+        <v>0.2</v>
       </c>
       <c r="M8">
-        <f>_xll.acq_options_bjerksund_price_approx($L8,$C$5,M$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>45.044887597740647</v>
+        <f>_xll.acq_options_bjerksund_price_approx(M$4,$C$5,$L8,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0.12708917162981281</v>
       </c>
       <c r="N8">
-        <f>_xll.acq_options_bjerksund_price_approx($L8,$C$5,N$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>45.230639158274975</v>
+        <f>_xll.acq_options_bjerksund_price_approx(N$4,$C$5,$L8,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0.73204173962328056</v>
       </c>
       <c r="O8">
-        <f>_xll.acq_options_bjerksund_price_approx($L8,$C$5,O$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>45.590343781497623</v>
+        <f>_xll.acq_options_bjerksund_price_approx(O$4,$C$5,$L8,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>2.6237251947986522</v>
       </c>
       <c r="P8">
-        <f>_xll.acq_options_bjerksund_price_approx($L8,$C$5,P$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>46.120807616908252</v>
+        <f>_xll.acq_options_bjerksund_price_approx(P$4,$C$5,$L8,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>6.6072182042030931</v>
       </c>
       <c r="Q8">
-        <f>_xll.acq_options_bjerksund_price_approx($L8,$C$5,Q$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>46.750139359026143</v>
+        <f>_xll.acq_options_bjerksund_price_approx(Q$4,$C$5,$L8,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>12.873137023332717</v>
       </c>
       <c r="R8">
-        <f>_xll.acq_options_bjerksund_price_approx($L8,$C$5,R$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>47.425616169949784</v>
+        <f>_xll.acq_options_bjerksund_price_approx(R$4,$C$5,$L8,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>20.924799488846745</v>
       </c>
       <c r="S8">
-        <f>_xll.acq_options_bjerksund_price_approx($L8,$C$5,S$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>48.117452842250117</v>
-      </c>
-      <c r="T8">
-        <f>_xll.acq_options_bjerksund_price_approx($L8,$C$5,T$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>48.809126969988924</v>
-      </c>
-      <c r="U8">
-        <f>_xll.acq_options_bjerksund_price_approx($L8,$C$5,U$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>49.491377326324013</v>
+        <f>_xll.acq_options_bjerksund_price_approx(S$4,$C$5,$L8,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>30.033950291703007</v>
+      </c>
+      <c r="U8" s="46">
+        <v>0.2</v>
       </c>
       <c r="V8">
-        <f>_xll.acq_options_bjerksund_price_approx($L8,$C$5,V$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>50.159006635552636</v>
+        <f>_xll.acq_options_bjerksund_price_approx(V$4,$C$5,$U8,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>30</v>
       </c>
       <c r="W8">
-        <f>_xll.acq_options_bjerksund_price_approx($L8,$C$5,W$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>50.809168296447311</v>
+        <f>_xll.acq_options_bjerksund_price_approx(W$4,$C$5,$U8,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>20.059879979875106</v>
       </c>
       <c r="X8">
-        <f>_xll.acq_options_bjerksund_price_approx($L8,$C$5,X$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>51.440415841163841</v>
+        <f>_xll.acq_options_bjerksund_price_approx(X$4,$C$5,$U8,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>11.685170289085562</v>
       </c>
       <c r="Y8">
-        <f>_xll.acq_options_bjerksund_price_approx($L8,$C$5,Y$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>52.052155134953253</v>
+        <f>_xll.acq_options_bjerksund_price_approx(Y$4,$C$5,$U8,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>5.8941074536139695</v>
       </c>
       <c r="Z8">
-        <f>_xll.acq_options_bjerksund_price_approx($L8,$C$5,Z$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>52.644317611050667</v>
+        <f>_xll.acq_options_bjerksund_price_approx(Z$4,$C$5,$U8,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>2.5490123498013304</v>
       </c>
       <c r="AA8">
-        <f>_xll.acq_options_bjerksund_price_approx($L8,$C$5,AA$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>53.217159596794964</v>
+        <f>_xll.acq_options_bjerksund_price_approx(AA$4,$C$5,$U8,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>0.94675254931996733</v>
       </c>
       <c r="AB8">
-        <f>_xll.acq_options_bjerksund_price_approx($L8,$C$5,AB$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>53.771136141018239</v>
-      </c>
-      <c r="AC8">
-        <f>_xll.acq_options_bjerksund_price_approx($L8,$C$5,AC$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>54.306820232012669</v>
-      </c>
-      <c r="AD8">
-        <f>_xll.acq_options_bjerksund_price_approx($L8,$C$5,AD$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>54.824850405116564</v>
-      </c>
-      <c r="AF8" s="44">
-        <v>135</v>
-      </c>
-      <c r="AG8">
-        <f>_xll.acq_options_bjerksund_price_approx($L8,$C$5,AG$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>6.7473138187779114E-11</v>
-      </c>
-      <c r="AH8">
-        <f>_xll.acq_options_bjerksund_price_approx($L8,$C$5,AH$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>8.2947972643978574E-3</v>
-      </c>
-      <c r="AI8">
-        <f>_xll.acq_options_bjerksund_price_approx($L8,$C$5,AI$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>0.14911390113007883</v>
-      </c>
-      <c r="AJ8">
-        <f>_xll.acq_options_bjerksund_price_approx($L8,$C$5,AJ$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>0.46244231943057912</v>
-      </c>
-      <c r="AK8">
-        <f>_xll.acq_options_bjerksund_price_approx($L8,$C$5,AK$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>0.8764233714890679</v>
-      </c>
-      <c r="AL8">
-        <f>_xll.acq_options_bjerksund_price_approx($L8,$C$5,AL$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>1.3388230819856233</v>
-      </c>
-      <c r="AM8">
-        <f>_xll.acq_options_bjerksund_price_approx($L8,$C$5,AM$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>1.8204118537042433</v>
-      </c>
-      <c r="AN8">
-        <f>_xll.acq_options_bjerksund_price_approx($L8,$C$5,AN$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>2.3051901713713931</v>
-      </c>
-      <c r="AO8">
-        <f>_xll.acq_options_bjerksund_price_approx($L8,$C$5,AO$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>2.7843413208650389</v>
-      </c>
-      <c r="AP8">
-        <f>_xll.acq_options_bjerksund_price_approx($L8,$C$5,AP$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>3.2530142625000167</v>
-      </c>
-      <c r="AQ8">
-        <f>_xll.acq_options_bjerksund_price_approx($L8,$C$5,AQ$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>3.7086089386330769</v>
-      </c>
-      <c r="AR8">
-        <f>_xll.acq_options_bjerksund_price_approx($L8,$C$5,AR$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>4.1498351625423027</v>
-      </c>
-      <c r="AS8">
-        <f>_xll.acq_options_bjerksund_price_approx($L8,$C$5,AS$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>4.5761789090931302</v>
-      </c>
-      <c r="AT8">
-        <f>_xll.acq_options_bjerksund_price_approx($L8,$C$5,AT$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>4.9875904524205481</v>
-      </c>
-      <c r="AU8">
-        <f>_xll.acq_options_bjerksund_price_approx($L8,$C$5,AU$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>5.3842974359156273</v>
-      </c>
-      <c r="AV8">
-        <f>_xll.acq_options_bjerksund_price_approx($L8,$C$5,AV$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>5.7666904923380713</v>
-      </c>
-      <c r="AW8">
-        <f>_xll.acq_options_bjerksund_price_approx($L8,$C$5,AW$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>6.1352521509988946</v>
-      </c>
-      <c r="AX8">
-        <f>_xll.acq_options_bjerksund_price_approx($L8,$C$5,AX$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>6.4905121829301606</v>
-      </c>
-    </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
+        <f>_xll.acq_options_bjerksund_price_approx(AB$4,$C$5,$U8,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>0.30487700103364546</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>123</v>
       </c>
       <c r="C9" s="37">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="F9">
         <v>50</v>
       </c>
       <c r="G9">
         <f>_xll.acq_options_bjerksund_price_approx($C$4,F9,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>30.982267186677173</v>
+        <v>27.039778414947577</v>
       </c>
       <c r="H9">
         <f>_xll.acq_options_bjerksund_price_approx($C$4,F9,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>0.48432077797187389</v>
+        <v>0.61844884365571318</v>
       </c>
       <c r="I9">
         <f>_xll.acq_options_blackscholes_price($C$4,F9,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>30.944524133217804</v>
+        <v>27.039778414947577</v>
       </c>
       <c r="J9">
         <f>_xll.acq_options_blackscholes_price($C$4,G9,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>4.3272291157355619E-3</v>
-      </c>
-      <c r="L9" s="44">
-        <v>130</v>
+        <v>1.426895703799709E-2</v>
+      </c>
+      <c r="L9" s="46">
+        <v>0.25</v>
       </c>
       <c r="M9">
-        <f>_xll.acq_options_bjerksund_price_approx($L9,$C$5,M$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>40.049885101363046</v>
+        <f>_xll.acq_options_bjerksund_price_approx(M$4,$C$5,$L9,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0.24444161162469946</v>
       </c>
       <c r="N9">
-        <f>_xll.acq_options_bjerksund_price_approx($L9,$C$5,N$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>40.266989691557718</v>
+        <f>_xll.acq_options_bjerksund_price_approx(N$4,$C$5,$L9,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>1.0777160954364895</v>
       </c>
       <c r="O9">
-        <f>_xll.acq_options_bjerksund_price_approx($L9,$C$5,O$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>40.73176903647412</v>
+        <f>_xll.acq_options_bjerksund_price_approx(O$4,$C$5,$L9,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>3.248672450495846</v>
       </c>
       <c r="P9">
-        <f>_xll.acq_options_bjerksund_price_approx($L9,$C$5,P$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>41.384677603624837</v>
+        <f>_xll.acq_options_bjerksund_price_approx(P$4,$C$5,$L9,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>7.364007980336666</v>
       </c>
       <c r="Q9">
-        <f>_xll.acq_options_bjerksund_price_approx($L9,$C$5,Q$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>42.123067952299934</v>
+        <f>_xll.acq_options_bjerksund_price_approx(Q$4,$C$5,$L9,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>13.525614789490845</v>
       </c>
       <c r="R9">
-        <f>_xll.acq_options_bjerksund_price_approx($L9,$C$5,R$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>42.890554826325214</v>
+        <f>_xll.acq_options_bjerksund_price_approx(R$4,$C$5,$L9,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>21.334437719804967</v>
       </c>
       <c r="S9">
-        <f>_xll.acq_options_bjerksund_price_approx($L9,$C$5,S$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>43.659572936767717</v>
-      </c>
-      <c r="T9">
-        <f>_xll.acq_options_bjerksund_price_approx($L9,$C$5,T$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>44.416483778390472</v>
-      </c>
-      <c r="U9">
-        <f>_xll.acq_options_bjerksund_price_approx($L9,$C$5,U$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>45.154500229827825</v>
+        <f>_xll.acq_options_bjerksund_price_approx(S$4,$C$5,$L9,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>30.203730848908037</v>
+      </c>
+      <c r="U9" s="46">
+        <v>0.25</v>
       </c>
       <c r="V9">
-        <f>_xll.acq_options_bjerksund_price_approx($L9,$C$5,V$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>45.870365169533599</v>
+        <f>_xll.acq_options_bjerksund_price_approx(V$4,$C$5,$U9,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>30</v>
       </c>
       <c r="W9">
-        <f>_xll.acq_options_bjerksund_price_approx($L9,$C$5,W$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>46.562717894933328</v>
+        <f>_xll.acq_options_bjerksund_price_approx(W$4,$C$5,$U9,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>20.161734159445849</v>
       </c>
       <c r="X9">
-        <f>_xll.acq_options_bjerksund_price_approx($L9,$C$5,X$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>47.23124762411701</v>
+        <f>_xll.acq_options_bjerksund_price_approx(X$4,$C$5,$U9,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>12.113197097513428</v>
       </c>
       <c r="Y9">
-        <f>_xll.acq_options_bjerksund_price_approx($L9,$C$5,Y$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>47.876233755813494</v>
+        <f>_xll.acq_options_bjerksund_price_approx(Y$4,$C$5,$U9,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>6.4941271274534387</v>
       </c>
       <c r="Z9">
-        <f>_xll.acq_options_bjerksund_price_approx($L9,$C$5,Z$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>48.498286197953355</v>
+        <f>_xll.acq_options_bjerksund_price_approx(Z$4,$C$5,$U9,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>3.0929303826990946</v>
       </c>
       <c r="AA9">
-        <f>_xll.acq_options_bjerksund_price_approx($L9,$C$5,AA$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>49.098194092674618</v>
+        <f>_xll.acq_options_bjerksund_price_approx(AA$4,$C$5,$U9,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>1.3124840209453339</v>
       </c>
       <c r="AB9">
-        <f>_xll.acq_options_bjerksund_price_approx($L9,$C$5,AB$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>49.6768356766257</v>
-      </c>
-      <c r="AC9">
-        <f>_xll.acq_options_bjerksund_price_approx($L9,$C$5,AC$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>50.235123814900042</v>
-      </c>
-      <c r="AD9">
-        <f>_xll.acq_options_bjerksund_price_approx($L9,$C$5,AD$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>50.773972946265111</v>
-      </c>
-      <c r="AF9" s="44">
-        <v>130</v>
-      </c>
-      <c r="AG9">
-        <f>_xll.acq_options_bjerksund_price_approx($L9,$C$5,AG$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>3.076877419516677E-9</v>
-      </c>
-      <c r="AH9">
-        <f>_xll.acq_options_bjerksund_price_approx($L9,$C$5,AH$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>1.9799382725949499E-2</v>
-      </c>
-      <c r="AI9">
-        <f>_xll.acq_options_bjerksund_price_approx($L9,$C$5,AI$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>0.24207534720095225</v>
-      </c>
-      <c r="AJ9">
-        <f>_xll.acq_options_bjerksund_price_approx($L9,$C$5,AJ$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>0.65618027562490511</v>
-      </c>
-      <c r="AK9">
-        <f>_xll.acq_options_bjerksund_price_approx($L9,$C$5,AK$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>1.1594160201749588</v>
-      </c>
-      <c r="AL9">
-        <f>_xll.acq_options_bjerksund_price_approx($L9,$C$5,AL$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>1.6955879064294379</v>
-      </c>
-      <c r="AM9">
-        <f>_xll.acq_options_bjerksund_price_approx($L9,$C$5,AM$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>2.2373719762246225</v>
-      </c>
-      <c r="AN9">
-        <f>_xll.acq_options_bjerksund_price_approx($L9,$C$5,AN$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>2.7713812339412129</v>
-      </c>
-      <c r="AO9">
-        <f>_xll.acq_options_bjerksund_price_approx($L9,$C$5,AO$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>3.2910596434546591</v>
-      </c>
-      <c r="AP9">
-        <f>_xll.acq_options_bjerksund_price_approx($L9,$C$5,AP$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>3.793337494657294</v>
-      </c>
-      <c r="AQ9">
-        <f>_xll.acq_options_bjerksund_price_approx($L9,$C$5,AQ$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>4.2769864631817711</v>
-      </c>
-      <c r="AR9">
-        <f>_xll.acq_options_bjerksund_price_approx($L9,$C$5,AR$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>4.7417718006371388</v>
-      </c>
-      <c r="AS9">
-        <f>_xll.acq_options_bjerksund_price_approx($L9,$C$5,AS$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>5.1879974322887108</v>
-      </c>
-      <c r="AT9">
-        <f>_xll.acq_options_bjerksund_price_approx($L9,$C$5,AT$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>5.6162539688630346</v>
-      </c>
-      <c r="AU9">
-        <f>_xll.acq_options_bjerksund_price_approx($L9,$C$5,AU$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>6.0272758295015194</v>
-      </c>
-      <c r="AV9">
-        <f>_xll.acq_options_bjerksund_price_approx($L9,$C$5,AV$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>6.4218590545830523</v>
-      </c>
-      <c r="AW9">
-        <f>_xll.acq_options_bjerksund_price_approx($L9,$C$5,AW$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>6.8008138222140673</v>
-      </c>
-      <c r="AX9">
-        <f>_xll.acq_options_bjerksund_price_approx($L9,$C$5,AX$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>7.1649372480679574</v>
-      </c>
-    </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
+        <f>_xll.acq_options_bjerksund_price_approx(AB$4,$C$5,$U9,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>0.50014792053050883</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>91</v>
       </c>
@@ -19514,1033 +19076,511 @@
       </c>
       <c r="G10">
         <f>_xll.acq_options_bjerksund_price_approx($C$4,F10,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>22.743099839948815</v>
+        <v>20.390726908197692</v>
       </c>
       <c r="H10">
         <f>_xll.acq_options_bjerksund_price_approx($C$4,F10,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>1.8019645673627593</v>
+        <v>1.8903923326725192</v>
       </c>
       <c r="I10">
         <f>_xll.acq_options_blackscholes_price($C$4,F10,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>22.732922081581798</v>
+        <v>20.390726908197692</v>
       </c>
       <c r="J10">
         <f>_xll.acq_options_blackscholes_price($C$4,G10,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>7.1356538435241664E-5</v>
-      </c>
-      <c r="L10" s="44">
-        <v>125</v>
+        <v>9.3215811534007841E-4</v>
+      </c>
+      <c r="L10" s="46">
+        <v>0.3</v>
       </c>
       <c r="M10">
-        <f>_xll.acq_options_bjerksund_price_approx($L10,$C$5,M$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>35.054882712867659</v>
+        <f>_xll.acq_options_bjerksund_price_approx(M$4,$C$5,$L10,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0.39027254010901835</v>
       </c>
       <c r="N10">
-        <f>_xll.acq_options_bjerksund_price_approx($L10,$C$5,N$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>35.317902483239905</v>
+        <f>_xll.acq_options_bjerksund_price_approx(N$4,$C$5,$L10,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>1.4328005583922518</v>
       </c>
       <c r="O10">
-        <f>_xll.acq_options_bjerksund_price_approx($L10,$C$5,O$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>35.926883490306047</v>
+        <f>_xll.acq_options_bjerksund_price_approx(O$4,$C$5,$L10,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>3.8271849497956225</v>
       </c>
       <c r="P10">
-        <f>_xll.acq_options_bjerksund_price_approx($L10,$C$5,P$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>36.724675744616775</v>
+        <f>_xll.acq_options_bjerksund_price_approx(P$4,$C$5,$L10,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>8.0416556749709116</v>
       </c>
       <c r="Q10">
-        <f>_xll.acq_options_bjerksund_price_approx($L10,$C$5,Q$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>37.582789702242536</v>
+        <f>_xll.acq_options_bjerksund_price_approx(Q$4,$C$5,$L10,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>14.124975956034859</v>
       </c>
       <c r="R10">
-        <f>_xll.acq_options_bjerksund_price_approx($L10,$C$5,R$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>38.446942791664512</v>
+        <f>_xll.acq_options_bjerksund_price_approx(R$4,$C$5,$L10,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>21.742022411399475</v>
       </c>
       <c r="S10">
-        <f>_xll.acq_options_bjerksund_price_approx($L10,$C$5,S$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>39.29470180736017</v>
-      </c>
-      <c r="T10">
-        <f>_xll.acq_options_bjerksund_price_approx($L10,$C$5,T$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>40.116752521292355</v>
-      </c>
-      <c r="U10">
-        <f>_xll.acq_options_bjerksund_price_approx($L10,$C$5,U$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>40.909528976804467</v>
+        <f>_xll.acq_options_bjerksund_price_approx(S$4,$C$5,$L10,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>30.403895162587332</v>
+      </c>
+      <c r="U10" s="46">
+        <v>0.3</v>
       </c>
       <c r="V10">
-        <f>_xll.acq_options_bjerksund_price_approx($L10,$C$5,V$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>41.6721224606136</v>
+        <f>_xll.acq_options_bjerksund_price_approx(V$4,$C$5,$U10,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>30</v>
       </c>
       <c r="W10">
-        <f>_xll.acq_options_bjerksund_price_approx($L10,$C$5,W$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>42.404891514014899</v>
+        <f>_xll.acq_options_bjerksund_price_approx(W$4,$C$5,$U10,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>20.28856722306762</v>
       </c>
       <c r="X10">
-        <f>_xll.acq_options_bjerksund_price_approx($L10,$C$5,X$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>43.108799135149958</v>
+        <f>_xll.acq_options_bjerksund_price_approx(X$4,$C$5,$U10,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>12.50527118864953</v>
       </c>
       <c r="Y10">
-        <f>_xll.acq_options_bjerksund_price_approx($L10,$C$5,Y$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>43.785081977971217</v>
+        <f>_xll.acq_options_bjerksund_price_approx(Y$4,$C$5,$U10,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>7.0210995775381946</v>
       </c>
       <c r="Z10">
-        <f>_xll.acq_options_bjerksund_price_approx($L10,$C$5,Z$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>44.435079852403454</v>
+        <f>_xll.acq_options_bjerksund_price_approx(Z$4,$C$5,$U10,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>3.5847032433122621</v>
       </c>
       <c r="AA10">
-        <f>_xll.acq_options_bjerksund_price_approx($L10,$C$5,AA$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>45.060146329247516</v>
+        <f>_xll.acq_options_bjerksund_price_approx(AA$4,$C$5,$U10,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>1.6699745140907396</v>
       </c>
       <c r="AB10">
-        <f>_xll.acq_options_bjerksund_price_approx($L10,$C$5,AB$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>45.661601975301139</v>
-      </c>
-      <c r="AC10">
-        <f>_xll.acq_options_bjerksund_price_approx($L10,$C$5,AC$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>46.240710671607701</v>
-      </c>
-      <c r="AD10">
-        <f>_xll.acq_options_bjerksund_price_approx($L10,$C$5,AD$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>46.798668695058502</v>
-      </c>
-      <c r="AF10" s="44">
-        <v>125</v>
-      </c>
-      <c r="AG10">
-        <f>_xll.acq_options_bjerksund_price_approx($L10,$C$5,AG$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>1.1375576036698476E-7</v>
-      </c>
-      <c r="AH10">
-        <f>_xll.acq_options_bjerksund_price_approx($L10,$C$5,AH$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>4.582491854456805E-2</v>
-      </c>
-      <c r="AI10">
-        <f>_xll.acq_options_bjerksund_price_approx($L10,$C$5,AI$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>0.38848950637319035</v>
-      </c>
-      <c r="AJ10">
-        <f>_xll.acq_options_bjerksund_price_approx($L10,$C$5,AJ$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>0.92564463392963603</v>
-      </c>
-      <c r="AK10">
-        <f>_xll.acq_options_bjerksund_price_approx($L10,$C$5,AK$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>1.5287092339243884</v>
-      </c>
-      <c r="AL10">
-        <f>_xll.acq_options_bjerksund_price_approx($L10,$C$5,AL$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>2.1432874328358054</v>
-      </c>
-      <c r="AM10">
-        <f>_xll.acq_options_bjerksund_price_approx($L10,$C$5,AM$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>2.746868775366238</v>
-      </c>
-      <c r="AN10">
-        <f>_xll.acq_options_bjerksund_price_approx($L10,$C$5,AN$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>3.3301145701135084</v>
-      </c>
-      <c r="AO10">
-        <f>_xll.acq_options_bjerksund_price_approx($L10,$C$5,AO$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>3.8894690398800122</v>
-      </c>
-      <c r="AP10">
-        <f>_xll.acq_options_bjerksund_price_approx($L10,$C$5,AP$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>4.4240423252642529</v>
-      </c>
-      <c r="AQ10">
-        <f>_xll.acq_options_bjerksund_price_approx($L10,$C$5,AQ$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>4.9342007403686381</v>
-      </c>
-      <c r="AR10">
-        <f>_xll.acq_options_bjerksund_price_approx($L10,$C$5,AR$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>5.4208931552133635</v>
-      </c>
-      <c r="AS10">
-        <f>_xll.acq_options_bjerksund_price_approx($L10,$C$5,AS$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>5.8853164636791035</v>
-      </c>
-      <c r="AT10">
-        <f>_xll.acq_options_bjerksund_price_approx($L10,$C$5,AT$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>6.3287458020866865</v>
-      </c>
-      <c r="AU10">
-        <f>_xll.acq_options_bjerksund_price_approx($L10,$C$5,AU$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>6.7524481993386587</v>
-      </c>
-      <c r="AV10">
-        <f>_xll.acq_options_bjerksund_price_approx($L10,$C$5,AV$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>7.1576397850057987</v>
-      </c>
-      <c r="AW10">
-        <f>_xll.acq_options_bjerksund_price_approx($L10,$C$5,AW$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>7.5454661924539295</v>
-      </c>
-      <c r="AX10">
-        <f>_xll.acq_options_bjerksund_price_approx($L10,$C$5,AX$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>7.916995414277622</v>
-      </c>
-    </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
+        <f>_xll.acq_options_bjerksund_price_approx(AB$4,$C$5,$U10,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>0.7146162868865531</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="F11">
         <v>70</v>
       </c>
       <c r="G11">
         <f>_xll.acq_options_bjerksund_price_approx($C$4,F11,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>15.912100339992442</v>
+        <v>14.980604982041015</v>
       </c>
       <c r="H11">
         <f>_xll.acq_options_bjerksund_price_approx($C$4,F11,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>4.548180464971459</v>
+        <v>4.3382949849802444</v>
       </c>
       <c r="I11">
         <f>_xll.acq_options_blackscholes_price($C$4,F11,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>15.909312433980197</v>
+        <v>14.980604982041015</v>
       </c>
       <c r="J11">
         <f>_xll.acq_options_blackscholes_price($C$4,G11,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>2.0842521666130062E-7</v>
-      </c>
-      <c r="L11" s="44">
-        <v>120</v>
+        <v>2.8027241433398957E-5</v>
+      </c>
+      <c r="L11" s="46">
+        <v>0.35</v>
       </c>
       <c r="M11">
-        <f>_xll.acq_options_bjerksund_price_approx($L11,$C$5,M$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>30.059883415215879</v>
+        <f>_xll.acq_options_bjerksund_price_approx(M$4,$C$5,$L11,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0.55711743962789662</v>
       </c>
       <c r="N11">
-        <f>_xll.acq_options_bjerksund_price_approx($L11,$C$5,N$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>30.399402076570158</v>
+        <f>_xll.acq_options_bjerksund_price_approx(N$4,$C$5,$L11,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>1.7886799574834953</v>
       </c>
       <c r="O11">
-        <f>_xll.acq_options_bjerksund_price_approx($L11,$C$5,O$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>31.202389512898421</v>
+        <f>_xll.acq_options_bjerksund_price_approx(O$4,$C$5,$L11,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>4.3665619494254173</v>
       </c>
       <c r="P11">
-        <f>_xll.acq_options_bjerksund_price_approx($L11,$C$5,P$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>32.166349964963139</v>
+        <f>_xll.acq_options_bjerksund_price_approx(P$4,$C$5,$L11,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>8.6588352118634049</v>
       </c>
       <c r="Q11">
-        <f>_xll.acq_options_bjerksund_price_approx($L11,$C$5,Q$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>33.151923157077107</v>
+        <f>_xll.acq_options_bjerksund_price_approx(Q$4,$C$5,$L11,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>14.68024803329898</v>
       </c>
       <c r="R11">
-        <f>_xll.acq_options_bjerksund_price_approx($L11,$C$5,R$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>34.114649759923196</v>
+        <f>_xll.acq_options_bjerksund_price_approx(R$4,$C$5,$L11,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>22.140673845586747</v>
       </c>
       <c r="S11">
-        <f>_xll.acq_options_bjerksund_price_approx($L11,$C$5,S$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>35.040424663066354</v>
-      </c>
-      <c r="T11">
-        <f>_xll.acq_options_bjerksund_price_approx($L11,$C$5,T$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>35.92566218520281</v>
-      </c>
-      <c r="U11">
-        <f>_xll.acq_options_bjerksund_price_approx($L11,$C$5,U$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>36.770679865547507</v>
+        <f>_xll.acq_options_bjerksund_price_approx(S$4,$C$5,$L11,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>30.622208044236658</v>
+      </c>
+      <c r="U11" s="46">
+        <v>0.35</v>
       </c>
       <c r="V11">
-        <f>_xll.acq_options_bjerksund_price_approx($L11,$C$5,V$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>37.577248552446093</v>
+        <f>_xll.acq_options_bjerksund_price_approx(V$4,$C$5,$U11,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>30</v>
       </c>
       <c r="W11">
-        <f>_xll.acq_options_bjerksund_price_approx($L11,$C$5,W$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>38.34761878941886</v>
+        <f>_xll.acq_options_bjerksund_price_approx(W$4,$C$5,$U11,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>20.429110201976329</v>
       </c>
       <c r="X11">
-        <f>_xll.acq_options_bjerksund_price_approx($L11,$C$5,X$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>39.084119749494405</v>
+        <f>_xll.acq_options_bjerksund_price_approx(X$4,$C$5,$U11,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>12.866860834687323</v>
       </c>
       <c r="Y11">
-        <f>_xll.acq_options_bjerksund_price_approx($L11,$C$5,Y$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>39.788994911780591</v>
+        <f>_xll.acq_options_bjerksund_price_approx(Y$4,$C$5,$U11,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>7.4931101832985831</v>
       </c>
       <c r="Z11">
-        <f>_xll.acq_options_bjerksund_price_approx($L11,$C$5,Z$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>40.464339817822541</v>
+        <f>_xll.acq_options_bjerksund_price_approx(Z$4,$C$5,$U11,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>4.0341331984300837</v>
       </c>
       <c r="AA11">
-        <f>_xll.acq_options_bjerksund_price_approx($L11,$C$5,AA$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>41.112084736151118</v>
+        <f>_xll.acq_options_bjerksund_price_approx(AA$4,$C$5,$U11,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>2.0148616348597272</v>
       </c>
       <c r="AB11">
-        <f>_xll.acq_options_bjerksund_price_approx($L11,$C$5,AB$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>41.733996931094296</v>
-      </c>
-      <c r="AC11">
-        <f>_xll.acq_options_bjerksund_price_approx($L11,$C$5,AC$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>42.331691022997632</v>
-      </c>
-      <c r="AD11">
-        <f>_xll.acq_options_bjerksund_price_approx($L11,$C$5,AD$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>42.906642136370472</v>
-      </c>
-      <c r="AF11" s="44">
-        <v>120</v>
-      </c>
-      <c r="AG11">
-        <f>_xll.acq_options_bjerksund_price_approx($L11,$C$5,AG$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>3.3152822709325847E-6</v>
-      </c>
-      <c r="AH11">
-        <f>_xll.acq_options_bjerksund_price_approx($L11,$C$5,AH$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>0.1024427767448941</v>
-      </c>
-      <c r="AI11">
-        <f>_xll.acq_options_bjerksund_price_approx($L11,$C$5,AI$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>0.61538408094742181</v>
-      </c>
-      <c r="AJ11">
-        <f>_xll.acq_options_bjerksund_price_approx($L11,$C$5,AJ$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>1.2970356770050273</v>
-      </c>
-      <c r="AK11">
-        <f>_xll.acq_options_bjerksund_price_approx($L11,$C$5,AK$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>2.0078543458621141</v>
-      </c>
-      <c r="AL11">
-        <f>_xll.acq_options_bjerksund_price_approx($L11,$C$5,AL$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>2.7029468510441035</v>
-      </c>
-      <c r="AM11">
-        <f>_xll.acq_options_bjerksund_price_approx($L11,$C$5,AM$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>3.3678149844288754</v>
-      </c>
-      <c r="AN11">
-        <f>_xll.acq_options_bjerksund_price_approx($L11,$C$5,AN$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>3.9985786205663345</v>
-      </c>
-      <c r="AO11">
-        <f>_xll.acq_options_bjerksund_price_approx($L11,$C$5,AO$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>4.5953473129556386</v>
-      </c>
-      <c r="AP11">
-        <f>_xll.acq_options_bjerksund_price_approx($L11,$C$5,AP$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>5.1597409934069702</v>
-      </c>
-      <c r="AQ11">
-        <f>_xll.acq_options_bjerksund_price_approx($L11,$C$5,AQ$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>5.6938894871545642</v>
-      </c>
-      <c r="AR11">
-        <f>_xll.acq_options_bjerksund_price_approx($L11,$C$5,AR$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>6.200012554274835</v>
-      </c>
-      <c r="AS11">
-        <f>_xll.acq_options_bjerksund_price_approx($L11,$C$5,AS$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>6.6802443031227057</v>
-      </c>
-      <c r="AT11">
-        <f>_xll.acq_options_bjerksund_price_approx($L11,$C$5,AT$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>7.1365653059148997</v>
-      </c>
-      <c r="AU11">
-        <f>_xll.acq_options_bjerksund_price_approx($L11,$C$5,AU$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>7.5707832430535689</v>
-      </c>
-      <c r="AV11">
-        <f>_xll.acq_options_bjerksund_price_approx($L11,$C$5,AV$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>7.984535252831904</v>
-      </c>
-      <c r="AW11">
-        <f>_xll.acq_options_bjerksund_price_approx($L11,$C$5,AW$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>8.3792994549324362</v>
-      </c>
-      <c r="AX11">
-        <f>_xll.acq_options_bjerksund_price_approx($L11,$C$5,AX$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>8.7564097134914078</v>
-      </c>
-    </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.25">
+        <f>_xll.acq_options_bjerksund_price_approx(AB$4,$C$5,$U11,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>0.93898654017260696</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="F12">
         <v>80</v>
       </c>
       <c r="G12">
         <f>_xll.acq_options_bjerksund_price_approx($C$4,F12,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>10.675461246347382</v>
+        <v>10.788121014927199</v>
       </c>
       <c r="H12">
         <f>_xll.acq_options_bjerksund_price_approx($C$4,F12,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>8.963084488971802</v>
+        <v>8.2510544914383672</v>
       </c>
       <c r="I12">
         <f>_xll.acq_options_blackscholes_price($C$4,F12,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>10.674677194964687</v>
+        <v>10.788121014927199</v>
       </c>
       <c r="J12">
         <f>_xll.acq_options_blackscholes_price($C$4,G12,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>7.3893855328354254E-11</v>
-      </c>
-      <c r="L12" s="44">
-        <v>115</v>
+        <v>3.6218005932214387E-7</v>
+      </c>
+      <c r="L12" s="46">
+        <v>0.4</v>
       </c>
       <c r="M12">
-        <f>_xll.acq_options_bjerksund_price_approx($L12,$C$5,M$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>25.064951411640838</v>
+        <f>_xll.acq_options_bjerksund_price_approx(M$4,$C$5,$L12,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0.73908665875073609</v>
       </c>
       <c r="N12">
-        <f>_xll.acq_options_bjerksund_price_approx($L12,$C$5,N$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>25.54204810814716</v>
+        <f>_xll.acq_options_bjerksund_price_approx(N$4,$C$5,$L12,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>2.1408011079752605</v>
       </c>
       <c r="O12">
-        <f>_xll.acq_options_bjerksund_price_approx($L12,$C$5,O$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>26.595671712794129</v>
+        <f>_xll.acq_options_bjerksund_price_approx(O$4,$C$5,$L12,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>4.8725625175067293</v>
       </c>
       <c r="P12">
-        <f>_xll.acq_options_bjerksund_price_approx($L12,$C$5,P$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>27.742107557631176</v>
+        <f>_xll.acq_options_bjerksund_price_approx(P$4,$C$5,$L12,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>9.227755099494388</v>
       </c>
       <c r="Q12">
-        <f>_xll.acq_options_bjerksund_price_approx($L12,$C$5,Q$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>28.857851461955907</v>
+        <f>_xll.acq_options_bjerksund_price_approx(Q$4,$C$5,$L12,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>15.19829496627456</v>
       </c>
       <c r="R12">
-        <f>_xll.acq_options_bjerksund_price_approx($L12,$C$5,R$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>29.917102877124218</v>
+        <f>_xll.acq_options_bjerksund_price_approx(R$4,$C$5,$L12,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>22.527416601592876</v>
       </c>
       <c r="S12">
-        <f>_xll.acq_options_bjerksund_price_approx($L12,$C$5,S$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>30.917130720907288</v>
-      </c>
-      <c r="T12">
-        <f>_xll.acq_options_bjerksund_price_approx($L12,$C$5,T$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>31.861242365140296</v>
-      </c>
-      <c r="U12">
-        <f>_xll.acq_options_bjerksund_price_approx($L12,$C$5,U$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>32.754114884143561</v>
+        <f>_xll.acq_options_bjerksund_price_approx(S$4,$C$5,$L12,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>30.850737745484096</v>
+      </c>
+      <c r="U12" s="46">
+        <v>0.4</v>
       </c>
       <c r="V12">
-        <f>_xll.acq_options_bjerksund_price_approx($L12,$C$5,V$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>33.600398159483689</v>
+        <f>_xll.acq_options_bjerksund_price_approx(V$4,$C$5,$U12,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>30</v>
       </c>
       <c r="W12">
-        <f>_xll.acq_options_bjerksund_price_approx($L12,$C$5,W$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>34.404315495642713</v>
+        <f>_xll.acq_options_bjerksund_price_approx(W$4,$C$5,$U12,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>20.576702408336132</v>
       </c>
       <c r="X12">
-        <f>_xll.acq_options_bjerksund_price_approx($L12,$C$5,X$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>35.169589767413896</v>
+        <f>_xll.acq_options_bjerksund_price_approx(X$4,$C$5,$U12,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>13.202481650454104</v>
       </c>
       <c r="Y12">
-        <f>_xll.acq_options_bjerksund_price_approx($L12,$C$5,Y$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>35.899474417345644</v>
+        <f>_xll.acq_options_bjerksund_price_approx(Y$4,$C$5,$U12,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>7.9219003176608709</v>
       </c>
       <c r="Z12">
-        <f>_xll.acq_options_bjerksund_price_approx($L12,$C$5,Z$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>36.596812763138182</v>
+        <f>_xll.acq_options_bjerksund_price_approx(Z$4,$C$5,$U12,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>4.448487889031</v>
       </c>
       <c r="AA12">
-        <f>_xll.acq_options_bjerksund_price_approx($L12,$C$5,AA$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>37.264099054118461</v>
+        <f>_xll.acq_options_bjerksund_price_approx(AA$4,$C$5,$U12,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>2.3457563802716948</v>
       </c>
       <c r="AB12">
-        <f>_xll.acq_options_bjerksund_price_approx($L12,$C$5,AB$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>37.90353285043728</v>
-      </c>
-      <c r="AC12">
-        <f>_xll.acq_options_bjerksund_price_approx($L12,$C$5,AC$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>38.517064925961435</v>
-      </c>
-      <c r="AD12">
-        <f>_xll.acq_options_bjerksund_price_approx($L12,$C$5,AD$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>39.106435199974499</v>
-      </c>
-      <c r="AF12" s="44">
-        <v>115</v>
-      </c>
-      <c r="AG12">
-        <f>_xll.acq_options_bjerksund_price_approx($L12,$C$5,AG$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>7.3811555395764117E-5</v>
-      </c>
-      <c r="AH12">
-        <f>_xll.acq_options_bjerksund_price_approx($L12,$C$5,AH$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>0.22028370466465219</v>
-      </c>
-      <c r="AI12">
-        <f>_xll.acq_options_bjerksund_price_approx($L12,$C$5,AI$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>0.96058671319268285</v>
-      </c>
-      <c r="AJ12">
-        <f>_xll.acq_options_bjerksund_price_approx($L12,$C$5,AJ$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>1.8036075905552735</v>
-      </c>
-      <c r="AK12">
-        <f>_xll.acq_options_bjerksund_price_approx($L12,$C$5,AK$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>2.6254169164864294</v>
-      </c>
-      <c r="AL12">
-        <f>_xll.acq_options_bjerksund_price_approx($L12,$C$5,AL$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>3.39944038025655</v>
-      </c>
-      <c r="AM12">
-        <f>_xll.acq_options_bjerksund_price_approx($L12,$C$5,AM$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>4.1222525337616389</v>
-      </c>
-      <c r="AN12">
-        <f>_xll.acq_options_bjerksund_price_approx($L12,$C$5,AN$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>4.7966150393034326</v>
-      </c>
-      <c r="AO12">
-        <f>_xll.acq_options_bjerksund_price_approx($L12,$C$5,AO$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>5.4267928930945999</v>
-      </c>
-      <c r="AP12">
-        <f>_xll.acq_options_bjerksund_price_approx($L12,$C$5,AP$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>6.0171234223003154</v>
-      </c>
-      <c r="AQ12">
-        <f>_xll.acq_options_bjerksund_price_approx($L12,$C$5,AQ$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>6.5715841365104524</v>
-      </c>
-      <c r="AR12">
-        <f>_xll.acq_options_bjerksund_price_approx($L12,$C$5,AR$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>7.0936935669623438</v>
-      </c>
-      <c r="AS12">
-        <f>_xll.acq_options_bjerksund_price_approx($L12,$C$5,AS$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>7.5865248380169135</v>
-      </c>
-      <c r="AT12">
-        <f>_xll.acq_options_bjerksund_price_approx($L12,$C$5,AT$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>8.0527539173760943</v>
-      </c>
-      <c r="AU12">
-        <f>_xll.acq_options_bjerksund_price_approx($L12,$C$5,AU$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>8.4947141668525887</v>
-      </c>
-      <c r="AV12">
-        <f>_xll.acq_options_bjerksund_price_approx($L12,$C$5,AV$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>8.9144472322062285</v>
-      </c>
-      <c r="AW12">
-        <f>_xll.acq_options_bjerksund_price_approx($L12,$C$5,AW$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>9.3137473426373845</v>
-      </c>
-      <c r="AX12">
-        <f>_xll.acq_options_bjerksund_price_approx($L12,$C$5,AX$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>9.6941987528297062</v>
-      </c>
-    </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
+        <f>_xll.acq_options_bjerksund_price_approx(AB$4,$C$5,$U12,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>1.1674803035433001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="F13">
         <v>90</v>
       </c>
       <c r="G13">
         <f>_xll.acq_options_bjerksund_price_approx($C$4,F13,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>6.9215587387001705</v>
+        <v>7.6566957498111279</v>
       </c>
       <c r="H13">
         <f>_xll.acq_options_bjerksund_price_approx($C$4,F13,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>14.979697998457091</v>
+        <v>13.793321561722518</v>
       </c>
       <c r="I13">
         <f>_xll.acq_options_blackscholes_price($C$4,F13,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>6.9213312636179189</v>
+        <v>7.6566957498111279</v>
       </c>
       <c r="J13">
         <f>_xll.acq_options_blackscholes_price($C$4,G13,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>2.3497521755308832E-15</v>
-      </c>
-      <c r="L13" s="44">
-        <v>110</v>
+        <v>1.9304414708222245E-9</v>
+      </c>
+      <c r="L13" s="46">
+        <v>0.45</v>
       </c>
       <c r="M13">
-        <f>_xll.acq_options_bjerksund_price_approx($L13,$C$5,M$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>20.071088338757349</v>
+        <f>_xll.acq_options_bjerksund_price_approx(M$4,$C$5,$L13,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0.93172725196149564</v>
       </c>
       <c r="N13">
-        <f>_xll.acq_options_bjerksund_price_approx($L13,$C$5,N$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>20.799938692044318</v>
+        <f>_xll.acq_options_bjerksund_price_approx(N$4,$C$5,$L13,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>2.4867387486766575</v>
       </c>
       <c r="O13">
-        <f>_xll.acq_options_bjerksund_price_approx($L13,$C$5,O$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>22.156906044311977</v>
+        <f>_xll.acq_options_bjerksund_price_approx(O$4,$C$5,$L13,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>5.3497205066058342</v>
       </c>
       <c r="P13">
-        <f>_xll.acq_options_bjerksund_price_approx($L13,$C$5,P$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>23.491839827175202</v>
+        <f>_xll.acq_options_bjerksund_price_approx(P$4,$C$5,$L13,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>9.7569243809158763</v>
       </c>
       <c r="Q13">
-        <f>_xll.acq_options_bjerksund_price_approx($L13,$C$5,Q$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>24.732966847878963</v>
+        <f>_xll.acq_options_bjerksund_price_approx(Q$4,$C$5,$L13,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>15.684404035736932</v>
       </c>
       <c r="R13">
-        <f>_xll.acq_options_bjerksund_price_approx($L13,$C$5,R$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>25.881415965763022</v>
+        <f>_xll.acq_options_bjerksund_price_approx(R$4,$C$5,$L13,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>22.901118497951956</v>
       </c>
       <c r="S13">
-        <f>_xll.acq_options_bjerksund_price_approx($L13,$C$5,S$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>26.948104482933108</v>
-      </c>
-      <c r="T13">
-        <f>_xll.acq_options_bjerksund_price_approx($L13,$C$5,T$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>27.943901917301204</v>
-      </c>
-      <c r="U13">
-        <f>_xll.acq_options_bjerksund_price_approx($L13,$C$5,U$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>28.878016405019888</v>
+        <f>_xll.acq_options_bjerksund_price_approx(S$4,$C$5,$L13,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>31.084295825844606</v>
+      </c>
+      <c r="U13" s="46">
+        <v>0.45</v>
       </c>
       <c r="V13">
-        <f>_xll.acq_options_bjerksund_price_approx($L13,$C$5,V$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>29.757984271690631</v>
+        <f>_xll.acq_options_bjerksund_price_approx(V$4,$C$5,$U13,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>30</v>
       </c>
       <c r="W13">
-        <f>_xll.acq_options_bjerksund_price_approx($L13,$C$5,W$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>30.589956849185381</v>
+        <f>_xll.acq_options_bjerksund_price_approx(W$4,$C$5,$U13,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>20.727323879111289</v>
       </c>
       <c r="X13">
-        <f>_xll.acq_options_bjerksund_price_approx($L13,$C$5,X$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>31.378993479781652</v>
+        <f>_xll.acq_options_bjerksund_price_approx(X$4,$C$5,$U13,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>13.51576476330748</v>
       </c>
       <c r="Y13">
-        <f>_xll.acq_options_bjerksund_price_approx($L13,$C$5,Y$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>32.129301777246859</v>
+        <f>_xll.acq_options_bjerksund_price_approx(Y$4,$C$5,$U13,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>8.3155956253103511</v>
       </c>
       <c r="Z13">
-        <f>_xll.acq_options_bjerksund_price_approx($L13,$C$5,Z$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>32.844422872693883</v>
+        <f>_xll.acq_options_bjerksund_price_approx(Z$4,$C$5,$U13,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>4.8332655650513772</v>
       </c>
       <c r="AA13">
-        <f>_xll.acq_options_bjerksund_price_approx($L13,$C$5,AA$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>33.527371677920016</v>
+        <f>_xll.acq_options_bjerksund_price_approx(AA$4,$C$5,$U13,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>2.662572789779432</v>
       </c>
       <c r="AB13">
-        <f>_xll.acq_options_bjerksund_price_approx($L13,$C$5,AB$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>34.18074292352901</v>
-      </c>
-      <c r="AC13">
-        <f>_xll.acq_options_bjerksund_price_approx($L13,$C$5,AC$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>34.806791785534195</v>
-      </c>
-      <c r="AD13">
-        <f>_xll.acq_options_bjerksund_price_approx($L13,$C$5,AD$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>35.407495755314315</v>
-      </c>
-      <c r="AF13" s="44">
-        <v>110</v>
-      </c>
-      <c r="AG13">
-        <f>_xll.acq_options_bjerksund_price_approx($L13,$C$5,AG$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>1.2132692772155451E-3</v>
-      </c>
-      <c r="AH13">
-        <f>_xll.acq_options_bjerksund_price_approx($L13,$C$5,AH$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>0.453613384752245</v>
-      </c>
-      <c r="AI13">
-        <f>_xll.acq_options_bjerksund_price_approx($L13,$C$5,AI$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>1.4749646401712369</v>
-      </c>
-      <c r="AJ13">
-        <f>_xll.acq_options_bjerksund_price_approx($L13,$C$5,AJ$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>2.4864248683086885</v>
-      </c>
-      <c r="AK13">
-        <f>_xll.acq_options_bjerksund_price_approx($L13,$C$5,AK$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>3.4153452877612978</v>
-      </c>
-      <c r="AL13">
-        <f>_xll.acq_options_bjerksund_price_approx($L13,$C$5,AL$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>4.2617372573542127</v>
-      </c>
-      <c r="AM13">
-        <f>_xll.acq_options_bjerksund_price_approx($L13,$C$5,AM$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>5.0355551499580855</v>
-      </c>
-      <c r="AN13">
-        <f>_xll.acq_options_bjerksund_price_approx($L13,$C$5,AN$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>5.7469050943069107</v>
-      </c>
-      <c r="AO13">
-        <f>_xll.acq_options_bjerksund_price_approx($L13,$C$5,AO$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>6.404405233078478</v>
-      </c>
-      <c r="AP13">
-        <f>_xll.acq_options_bjerksund_price_approx($L13,$C$5,AP$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>7.0151356032888685</v>
-      </c>
-      <c r="AQ13">
-        <f>_xll.acq_options_bjerksund_price_approx($L13,$C$5,AQ$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>7.5848877746839776</v>
-      </c>
-      <c r="AR13">
-        <f>_xll.acq_options_bjerksund_price_approx($L13,$C$5,AR$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>8.1184280622307057</v>
-      </c>
-      <c r="AS13">
-        <f>_xll.acq_options_bjerksund_price_approx($L13,$C$5,AS$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>8.6197158782121477</v>
-      </c>
-      <c r="AT13">
-        <f>_xll.acq_options_bjerksund_price_approx($L13,$C$5,AT$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>9.0920737559599161</v>
-      </c>
-      <c r="AU13">
-        <f>_xll.acq_options_bjerksund_price_approx($L13,$C$5,AU$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>9.5383174771023107</v>
-      </c>
-      <c r="AV13">
-        <f>_xll.acq_options_bjerksund_price_approx($L13,$C$5,AV$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>9.96085559983959</v>
-      </c>
-      <c r="AW13">
-        <f>_xll.acq_options_bjerksund_price_approx($L13,$C$5,AW$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>10.361766050430347</v>
-      </c>
-      <c r="AX13">
-        <f>_xll.acq_options_bjerksund_price_approx($L13,$C$5,AX$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>10.74285559097676</v>
-      </c>
-    </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.25">
+        <f>_xll.acq_options_bjerksund_price_approx(AB$4,$C$5,$U13,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>1.3964938482637308</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>143</v>
+      </c>
       <c r="F14">
         <v>100</v>
       </c>
       <c r="G14">
         <f>_xll.acq_options_bjerksund_price_approx($C$4,F14,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>4.3699303981775302</v>
+        <v>5.3796450816355517</v>
       </c>
       <c r="H14">
         <f>_xll.acq_options_bjerksund_price_approx($C$4,F14,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>22.347858028126087</v>
+        <v>21.034358320176022</v>
       </c>
       <c r="I14">
         <f>_xll.acq_options_blackscholes_price($C$4,F14,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>4.3698621738224297</v>
+        <v>5.3796450816355517</v>
       </c>
       <c r="J14">
         <f>_xll.acq_options_blackscholes_price($C$4,G14,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>5.3853439862500383E-21</v>
-      </c>
-      <c r="L14" s="44">
-        <v>105</v>
+        <v>4.167517628471426E-12</v>
+      </c>
+      <c r="L14" s="46">
+        <v>0.5</v>
       </c>
       <c r="M14">
-        <f>_xll.acq_options_bjerksund_price_approx($L14,$C$5,M$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>15.089078908761955</v>
+        <f>_xll.acq_options_bjerksund_price_approx(M$4,$C$5,$L14,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>1.1317126138357825</v>
       </c>
       <c r="N14">
-        <f>_xll.acq_options_bjerksund_price_approx($L14,$C$5,N$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>16.260663806201435</v>
+        <f>_xll.acq_options_bjerksund_price_approx(N$4,$C$5,$L14,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>2.825231535228955</v>
       </c>
       <c r="O14">
-        <f>_xll.acq_options_bjerksund_price_approx($L14,$C$5,O$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>17.950079179012075</v>
+        <f>_xll.acq_options_bjerksund_price_approx(O$4,$C$5,$L14,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>5.801645731668323</v>
       </c>
       <c r="P14">
-        <f>_xll.acq_options_bjerksund_price_approx($L14,$C$5,P$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>19.462888717153561</v>
+        <f>_xll.acq_options_bjerksund_price_approx(P$4,$C$5,$L14,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>10.252559729951784</v>
       </c>
       <c r="Q14">
-        <f>_xll.acq_options_bjerksund_price_approx($L14,$C$5,Q$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>20.814520104240263</v>
+        <f>_xll.acq_options_bjerksund_price_approx(Q$4,$C$5,$L14,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>16.142724570029145</v>
       </c>
       <c r="R14">
-        <f>_xll.acq_options_bjerksund_price_approx($L14,$C$5,R$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>22.038265918649081</v>
+        <f>_xll.acq_options_bjerksund_price_approx(R$4,$C$5,$L14,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>23.261552607007062</v>
       </c>
       <c r="S14">
-        <f>_xll.acq_options_bjerksund_price_approx($L14,$C$5,S$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>23.159446202401693</v>
-      </c>
-      <c r="T14">
-        <f>_xll.acq_options_bjerksund_price_approx($L14,$C$5,T$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>24.196387525812924</v>
-      </c>
-      <c r="U14">
-        <f>_xll.acq_options_bjerksund_price_approx($L14,$C$5,U$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>25.162575007575825</v>
+        <f>_xll.acq_options_bjerksund_price_approx(S$4,$C$5,$L14,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>31.319444688823182</v>
+      </c>
+      <c r="U14" s="46">
+        <v>0.5</v>
       </c>
       <c r="V14">
-        <f>_xll.acq_options_bjerksund_price_approx($L14,$C$5,V$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>26.06818762947627</v>
+        <f>_xll.acq_options_bjerksund_price_approx(V$4,$C$5,$U14,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>30</v>
       </c>
       <c r="W14">
-        <f>_xll.acq_options_bjerksund_price_approx($L14,$C$5,W$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>26.921102808915833</v>
+        <f>_xll.acq_options_bjerksund_price_approx(W$4,$C$5,$U14,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>20.878498091942536</v>
       </c>
       <c r="X14">
-        <f>_xll.acq_options_bjerksund_price_approx($L14,$C$5,X$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>27.727555990902914</v>
+        <f>_xll.acq_options_bjerksund_price_approx(X$4,$C$5,$U14,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>13.809632330257585</v>
       </c>
       <c r="Y14">
-        <f>_xll.acq_options_bjerksund_price_approx($L14,$C$5,Y$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>28.492582900496203</v>
+        <f>_xll.acq_options_bjerksund_price_approx(Y$4,$C$5,$U14,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>8.6800903822513931</v>
       </c>
       <c r="Z14">
-        <f>_xll.acq_options_bjerksund_price_approx($L14,$C$5,Z$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>29.220323139942984</v>
+        <f>_xll.acq_options_bjerksund_price_approx(Z$4,$C$5,$U14,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>5.1927188835421703</v>
       </c>
       <c r="AA14">
-        <f>_xll.acq_options_bjerksund_price_approx($L14,$C$5,AA$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>29.914233361114562</v>
+        <f>_xll.acq_options_bjerksund_price_approx(AA$4,$C$5,$U14,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>2.9657980624896823</v>
       </c>
       <c r="AB14">
-        <f>_xll.acq_options_bjerksund_price_approx($L14,$C$5,AB$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>30.577240101665012</v>
-      </c>
-      <c r="AC14">
-        <f>_xll.acq_options_bjerksund_price_approx($L14,$C$5,AC$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>31.211851483314732</v>
-      </c>
-      <c r="AD14">
-        <f>_xll.acq_options_bjerksund_price_approx($L14,$C$5,AD$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>31.820240299030523</v>
-      </c>
-      <c r="AF14" s="44">
-        <v>105</v>
-      </c>
-      <c r="AG14">
-        <f>_xll.acq_options_bjerksund_price_approx($L14,$C$5,AG$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>1.4207392407001862E-2</v>
-      </c>
-      <c r="AH14">
-        <f>_xll.acq_options_bjerksund_price_approx($L14,$C$5,AH$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>0.89044786480191362</v>
-      </c>
-      <c r="AI14">
-        <f>_xll.acq_options_bjerksund_price_approx($L14,$C$5,AI$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>2.2236524093033694</v>
-      </c>
-      <c r="AJ14">
-        <f>_xll.acq_options_bjerksund_price_approx($L14,$C$5,AJ$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>3.3945209620445524</v>
-      </c>
-      <c r="AK14">
-        <f>_xll.acq_options_bjerksund_price_approx($L14,$C$5,AK$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>4.4169937942329796</v>
-      </c>
-      <c r="AL14">
-        <f>_xll.acq_options_bjerksund_price_approx($L14,$C$5,AL$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>5.3229379173855307</v>
-      </c>
-      <c r="AM14">
-        <f>_xll.acq_options_bjerksund_price_approx($L14,$C$5,AM$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>6.1364987349191011</v>
-      </c>
-      <c r="AN14">
-        <f>_xll.acq_options_bjerksund_price_approx($L14,$C$5,AN$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>6.8750715244478044</v>
-      </c>
-      <c r="AO14">
-        <f>_xll.acq_options_bjerksund_price_approx($L14,$C$5,AO$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>7.5514117745629221</v>
-      </c>
-      <c r="AP14">
-        <f>_xll.acq_options_bjerksund_price_approx($L14,$C$5,AP$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>8.1751258847823181</v>
-      </c>
-      <c r="AQ14">
-        <f>_xll.acq_options_bjerksund_price_approx($L14,$C$5,AQ$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>8.7536362110172092</v>
-      </c>
-      <c r="AR14">
-        <f>_xll.acq_options_bjerksund_price_approx($L14,$C$5,AR$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>9.2928086363881874</v>
-      </c>
-      <c r="AS14">
-        <f>_xll.acq_options_bjerksund_price_approx($L14,$C$5,AS$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>9.797370383220823</v>
-      </c>
-      <c r="AT14">
-        <f>_xll.acq_options_bjerksund_price_approx($L14,$C$5,AT$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>10.271195732686728</v>
-      </c>
-      <c r="AU14">
-        <f>_xll.acq_options_bjerksund_price_approx($L14,$C$5,AU$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>10.717506521863193</v>
-      </c>
-      <c r="AV14">
-        <f>_xll.acq_options_bjerksund_price_approx($L14,$C$5,AV$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>11.139016202777313</v>
-      </c>
-      <c r="AW14">
-        <f>_xll.acq_options_bjerksund_price_approx($L14,$C$5,AW$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>11.538035575976537</v>
-      </c>
-      <c r="AX14">
-        <f>_xll.acq_options_bjerksund_price_approx($L14,$C$5,AX$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>11.916551887694268</v>
-      </c>
-    </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.25">
+        <f>_xll.acq_options_bjerksund_price_approx(AB$4,$C$5,$U14,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>1.6237713217188059</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B15" s="45" t="s">
+        <v>142</v>
+      </c>
       <c r="F15">
         <v>110</v>
       </c>
       <c r="G15">
         <f>_xll.acq_options_bjerksund_price_approx($C$4,F15,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>2.7044189274234327</v>
+        <v>3.7550156571442077</v>
       </c>
       <c r="H15">
         <f>_xll.acq_options_bjerksund_price_approx($C$4,F15,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>30.759866281838111</v>
+        <v>30</v>
       </c>
       <c r="I15">
         <f>_xll.acq_options_blackscholes_price($C$4,F15,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>2.7043977636541268</v>
+        <v>3.7550156571442077</v>
       </c>
       <c r="J15">
         <f>_xll.acq_options_blackscholes_price($C$4,G15,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>7.729405664180053E-28</v>
-      </c>
-      <c r="L15" s="44">
-        <v>100</v>
+        <v>3.6428793012235105E-15</v>
+      </c>
+      <c r="L15" s="46">
+        <v>0.55000000000000004</v>
       </c>
       <c r="M15">
-        <f>_xll.acq_options_bjerksund_price_approx($L15,$C$5,M$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>10.194368747525944</v>
+        <f>_xll.acq_options_bjerksund_price_approx(M$4,$C$5,$L15,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>1.3365585025591749</v>
       </c>
       <c r="N15">
-        <f>_xll.acq_options_bjerksund_price_approx($L15,$C$5,N$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>12.051174689778254</v>
+        <f>_xll.acq_options_bjerksund_price_approx(N$4,$C$5,$L15,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>3.1556763506308201</v>
       </c>
       <c r="O15">
-        <f>_xll.acq_options_bjerksund_price_approx($L15,$C$5,O$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>14.051712504142905</v>
+        <f>_xll.acq_options_bjerksund_price_approx(O$4,$C$5,$L15,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>6.2312540008503348</v>
       </c>
       <c r="P15">
-        <f>_xll.acq_options_bjerksund_price_approx($L15,$C$5,P$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>15.708918520645621</v>
+        <f>_xll.acq_options_bjerksund_price_approx(P$4,$C$5,$L15,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>10.719370459089447</v>
       </c>
       <c r="Q15">
-        <f>_xll.acq_options_bjerksund_price_approx($L15,$C$5,Q$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>17.143860472714529</v>
+        <f>_xll.acq_options_bjerksund_price_approx(Q$4,$C$5,$L15,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>16.576573753268661</v>
       </c>
       <c r="R15">
-        <f>_xll.acq_options_bjerksund_price_approx($L15,$C$5,R$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>18.421390388216167</v>
+        <f>_xll.acq_options_bjerksund_price_approx(R$4,$C$5,$L15,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>23.608942745230109</v>
       </c>
       <c r="S15">
-        <f>_xll.acq_options_bjerksund_price_approx($L15,$C$5,S$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>19.579739194710804</v>
-      </c>
-      <c r="T15">
-        <f>_xll.acq_options_bjerksund_price_approx($L15,$C$5,T$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>20.643564382435464</v>
-      </c>
-      <c r="U15">
-        <f>_xll.acq_options_bjerksund_price_approx($L15,$C$5,U$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>21.629847875355793</v>
+        <f>_xll.acq_options_bjerksund_price_approx(S$4,$C$5,$L15,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>31.553881861379864</v>
+      </c>
+      <c r="U15" s="46">
+        <v>0.55000000000000004</v>
       </c>
       <c r="V15">
-        <f>_xll.acq_options_bjerksund_price_approx($L15,$C$5,V$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>22.550869675298109</v>
+        <f>_xll.acq_options_bjerksund_price_approx(V$4,$C$5,$U15,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>30</v>
       </c>
       <c r="W15">
-        <f>_xll.acq_options_bjerksund_price_approx($L15,$C$5,W$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>23.415850109563259</v>
+        <f>_xll.acq_options_bjerksund_price_approx(W$4,$C$5,$U15,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>21.028678254900704</v>
       </c>
       <c r="X15">
-        <f>_xll.acq_options_bjerksund_price_approx($L15,$C$5,X$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>24.231923736588293</v>
+        <f>_xll.acq_options_bjerksund_price_approx(X$4,$C$5,$U15,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>14.086457106078548</v>
       </c>
       <c r="Y15">
-        <f>_xll.acq_options_bjerksund_price_approx($L15,$C$5,Y$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>25.004749907192519</v>
+        <f>_xll.acq_options_bjerksund_price_approx(Y$4,$C$5,$U15,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>9.0198177682868135</v>
       </c>
       <c r="Z15">
-        <f>_xll.acq_options_bjerksund_price_approx($L15,$C$5,Z$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>25.738912726088586</v>
+        <f>_xll.acq_options_bjerksund_price_approx(Z$4,$C$5,$U15,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>5.5302052099230963</v>
       </c>
       <c r="AA15">
-        <f>_xll.acq_options_bjerksund_price_approx($L15,$C$5,AA$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>26.438192507625203</v>
+        <f>_xll.acq_options_bjerksund_price_approx(AA$4,$C$5,$U15,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>3.2561561952630882</v>
       </c>
       <c r="AB15">
-        <f>_xll.acq_options_bjerksund_price_approx($L15,$C$5,AB$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>27.105755490658865</v>
-      </c>
-      <c r="AC15">
-        <f>_xll.acq_options_bjerksund_price_approx($L15,$C$5,AC$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>27.744289756075467</v>
-      </c>
-      <c r="AD15">
-        <f>_xll.acq_options_bjerksund_price_approx($L15,$C$5,AD$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>28.356104715142486</v>
-      </c>
-      <c r="AF15" s="44">
-        <v>100</v>
-      </c>
-      <c r="AG15">
-        <f>_xll.acq_options_bjerksund_price_approx($L15,$C$5,AG$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>0.11452387484486337</v>
-      </c>
-      <c r="AH15">
-        <f>_xll.acq_options_bjerksund_price_approx($L15,$C$5,AH$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>1.6587625040039171</v>
-      </c>
-      <c r="AI15">
-        <f>_xll.acq_options_bjerksund_price_approx($L15,$C$5,AI$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>3.2850903385475476</v>
-      </c>
-      <c r="AJ15">
-        <f>_xll.acq_options_bjerksund_price_approx($L15,$C$5,AJ$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>4.5840377894816413</v>
-      </c>
-      <c r="AK15">
-        <f>_xll.acq_options_bjerksund_price_approx($L15,$C$5,AK$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>5.6745976871329162</v>
-      </c>
-      <c r="AL15">
-        <f>_xll.acq_options_bjerksund_price_approx($L15,$C$5,AL$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>6.6199845150037504</v>
-      </c>
-      <c r="AM15">
-        <f>_xll.acq_options_bjerksund_price_approx($L15,$C$5,AM$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>7.4571264959484651</v>
-      </c>
-      <c r="AN15">
-        <f>_xll.acq_options_bjerksund_price_approx($L15,$C$5,AN$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>8.2096470746318033</v>
-      </c>
-      <c r="AO15">
-        <f>_xll.acq_options_bjerksund_price_approx($L15,$C$5,AO$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>8.8937078720868854</v>
-      </c>
-      <c r="AP15">
-        <f>_xll.acq_options_bjerksund_price_approx($L15,$C$5,AP$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>9.5209357399215833</v>
-      </c>
-      <c r="AQ15">
-        <f>_xll.acq_options_bjerksund_price_approx($L15,$C$5,AQ$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>10.100025976314051</v>
-      </c>
-      <c r="AR15">
-        <f>_xll.acq_options_bjerksund_price_approx($L15,$C$5,AR$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>10.63768454011965</v>
-      </c>
-      <c r="AS15">
-        <f>_xll.acq_options_bjerksund_price_approx($L15,$C$5,AS$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>11.139213781867618</v>
-      </c>
-      <c r="AT15">
-        <f>_xll.acq_options_bjerksund_price_approx($L15,$C$5,AT$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>11.608893554822394</v>
-      </c>
-      <c r="AU15">
-        <f>_xll.acq_options_bjerksund_price_approx($L15,$C$5,AU$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>12.050238715139059</v>
-      </c>
-      <c r="AV15">
-        <f>_xll.acq_options_bjerksund_price_approx($L15,$C$5,AV$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>12.466178701236245</v>
-      </c>
-      <c r="AW15">
-        <f>_xll.acq_options_bjerksund_price_approx($L15,$C$5,AW$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>12.859186195395665</v>
-      </c>
-      <c r="AX15">
-        <f>_xll.acq_options_bjerksund_price_approx($L15,$C$5,AX$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>13.231371472905231</v>
-      </c>
-    </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
+        <f>_xll.acq_options_bjerksund_price_approx(AB$4,$C$5,$U15,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>1.8479046798663319</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="F16">
         <v>120</v>
       </c>
       <c r="G16">
         <f>_xll.acq_options_bjerksund_price_approx($C$4,F16,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>1.6496000715474821</v>
+        <v>2.6109483404114453</v>
       </c>
       <c r="H16">
         <f>_xll.acq_options_bjerksund_price_approx($C$4,F16,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
@@ -20548,170 +19588,82 @@
       </c>
       <c r="I16">
         <f>_xll.acq_options_blackscholes_price($C$4,F16,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>1.649593283674097</v>
+        <v>2.6109483404114453</v>
       </c>
       <c r="J16">
         <f>_xll.acq_options_blackscholes_price($C$4,G16,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>6.4476133838922641E-36</v>
-      </c>
-      <c r="L16" s="44">
-        <v>95</v>
+        <v>1.3059135679790043E-18</v>
+      </c>
+      <c r="L16" s="46">
+        <v>0.6</v>
       </c>
       <c r="M16">
-        <f>_xll.acq_options_bjerksund_price_approx($L16,$C$5,M$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>5.703304743837748</v>
+        <f>_xll.acq_options_bjerksund_price_approx(M$4,$C$5,$L16,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>1.5444021816862641</v>
       </c>
       <c r="N16">
-        <f>_xll.acq_options_bjerksund_price_approx($L16,$C$5,N$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>8.3307618593992956</v>
+        <f>_xll.acq_options_bjerksund_price_approx(N$4,$C$5,$L16,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>3.4778509106740358</v>
       </c>
       <c r="O16">
-        <f>_xll.acq_options_bjerksund_price_approx($L16,$C$5,O$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>10.545885266967815</v>
+        <f>_xll.acq_options_bjerksund_price_approx(O$4,$C$5,$L16,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>6.6409346906283346</v>
       </c>
       <c r="P16">
-        <f>_xll.acq_options_bjerksund_price_approx($L16,$C$5,P$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>12.287211050316898</v>
+        <f>_xll.acq_options_bjerksund_price_approx(P$4,$C$5,$L16,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>11.161027963773662</v>
       </c>
       <c r="Q16">
-        <f>_xll.acq_options_bjerksund_price_approx($L16,$C$5,Q$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>13.764826214757043</v>
+        <f>_xll.acq_options_bjerksund_price_approx(Q$4,$C$5,$L16,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>16.988648850197563</v>
       </c>
       <c r="R16">
-        <f>_xll.acq_options_bjerksund_price_approx($L16,$C$5,R$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>15.066562003383858</v>
+        <f>_xll.acq_options_bjerksund_price_approx(R$4,$C$5,$L16,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>23.943732677531585</v>
       </c>
       <c r="S16">
-        <f>_xll.acq_options_bjerksund_price_approx($L16,$C$5,S$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>16.239366458938932</v>
-      </c>
-      <c r="T16">
-        <f>_xll.acq_options_bjerksund_price_approx($L16,$C$5,T$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>17.311948681304401</v>
-      </c>
-      <c r="U16">
-        <f>_xll.acq_options_bjerksund_price_approx($L16,$C$5,U$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>18.303434804014671</v>
+        <f>_xll.acq_options_bjerksund_price_approx(S$4,$C$5,$L16,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>31.786054869626298</v>
+      </c>
+      <c r="U16" s="46">
+        <v>0.6</v>
       </c>
       <c r="V16">
-        <f>_xll.acq_options_bjerksund_price_approx($L16,$C$5,V$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>19.227347838211692</v>
+        <f>_xll.acq_options_bjerksund_price_approx(V$4,$C$5,$U16,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>30.005345917754727</v>
       </c>
       <c r="W16">
-        <f>_xll.acq_options_bjerksund_price_approx($L16,$C$5,W$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>20.093678356600485</v>
+        <f>_xll.acq_options_bjerksund_price_approx(W$4,$C$5,$U16,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>21.176894025870496</v>
       </c>
       <c r="X16">
-        <f>_xll.acq_options_bjerksund_price_approx($L16,$C$5,X$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>20.910062326950239</v>
+        <f>_xll.acq_options_bjerksund_price_approx(X$4,$C$5,$U16,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>14.348187494698188</v>
       </c>
       <c r="Y16">
-        <f>_xll.acq_options_bjerksund_price_approx($L16,$C$5,Y$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>21.682497543904823</v>
+        <f>_xll.acq_options_bjerksund_price_approx(Y$4,$C$5,$U16,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>9.3382092346537036</v>
       </c>
       <c r="Z16">
-        <f>_xll.acq_options_bjerksund_price_approx($L16,$C$5,Z$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>22.415802603676198</v>
+        <f>_xll.acq_options_bjerksund_price_approx(Z$4,$C$5,$U16,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>5.8484237377127499</v>
       </c>
       <c r="AA16">
-        <f>_xll.acq_options_bjerksund_price_approx($L16,$C$5,AA$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>23.113923271129423</v>
+        <f>_xll.acq_options_bjerksund_price_approx(AA$4,$C$5,$U16,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>3.5344479649784546</v>
       </c>
       <c r="AB16">
-        <f>_xll.acq_options_bjerksund_price_approx($L16,$C$5,AB$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>23.780143905274784</v>
-      </c>
-      <c r="AC16">
-        <f>_xll.acq_options_bjerksund_price_approx($L16,$C$5,AC$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>24.417237451557483</v>
-      </c>
-      <c r="AD16">
-        <f>_xll.acq_options_bjerksund_price_approx($L16,$C$5,AD$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>25.027574372888331</v>
-      </c>
-      <c r="AF16" s="44">
-        <v>95</v>
-      </c>
-      <c r="AG16">
-        <f>_xll.acq_options_bjerksund_price_approx($L16,$C$5,AG$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>0.61881182602388662</v>
-      </c>
-      <c r="AH16">
-        <f>_xll.acq_options_bjerksund_price_approx($L16,$C$5,AH$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>2.9200868595792642</v>
-      </c>
-      <c r="AI16">
-        <f>_xll.acq_options_bjerksund_price_approx($L16,$C$5,AI$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>4.7464869827151404</v>
-      </c>
-      <c r="AJ16">
-        <f>_xll.acq_options_bjerksund_price_approx($L16,$C$5,AJ$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>6.115873602200196</v>
-      </c>
-      <c r="AK16">
-        <f>_xll.acq_options_bjerksund_price_approx($L16,$C$5,AK$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>7.235967584162637</v>
-      </c>
-      <c r="AL16">
-        <f>_xll.acq_options_bjerksund_price_approx($L16,$C$5,AL$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>8.192908710278715</v>
-      </c>
-      <c r="AM16">
-        <f>_xll.acq_options_bjerksund_price_approx($L16,$C$5,AM$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>9.0323196120225333</v>
-      </c>
-      <c r="AN16">
-        <f>_xll.acq_options_bjerksund_price_approx($L16,$C$5,AN$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>9.7818484876693717</v>
-      </c>
-      <c r="AO16">
-        <f>_xll.acq_options_bjerksund_price_approx($L16,$C$5,AO$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>10.459766534512077</v>
-      </c>
-      <c r="AP16">
-        <f>_xll.acq_options_bjerksund_price_approx($L16,$C$5,AP$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>11.078904382604456</v>
-      </c>
-      <c r="AQ16">
-        <f>_xll.acq_options_bjerksund_price_approx($L16,$C$5,AQ$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>11.64868771447933</v>
-      </c>
-      <c r="AR16">
-        <f>_xll.acq_options_bjerksund_price_approx($L16,$C$5,AR$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>12.176286432836527</v>
-      </c>
-      <c r="AS16">
-        <f>_xll.acq_options_bjerksund_price_approx($L16,$C$5,AS$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>12.667308042476343</v>
-      </c>
-      <c r="AT16">
-        <f>_xll.acq_options_bjerksund_price_approx($L16,$C$5,AT$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>13.126238520130705</v>
-      </c>
-      <c r="AU16">
-        <f>_xll.acq_options_bjerksund_price_approx($L16,$C$5,AU$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>13.556734767325388</v>
-      </c>
-      <c r="AV16">
-        <f>_xll.acq_options_bjerksund_price_approx($L16,$C$5,AV$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>13.961825530319416</v>
-      </c>
-      <c r="AW16">
-        <f>_xll.acq_options_bjerksund_price_approx($L16,$C$5,AW$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>14.344053567414264</v>
-      </c>
-      <c r="AX16">
-        <f>_xll.acq_options_bjerksund_price_approx($L16,$C$5,AX$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>14.705578809370422</v>
-      </c>
-    </row>
-    <row r="17" spans="6:50" x14ac:dyDescent="0.25">
+        <f>_xll.acq_options_bjerksund_price_approx(AB$4,$C$5,$U16,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>2.068028069267541</v>
+      </c>
+    </row>
+    <row r="17" spans="6:35" x14ac:dyDescent="0.25">
       <c r="F17">
         <v>130</v>
       </c>
       <c r="G17">
         <f>_xll.acq_options_bjerksund_price_approx($C$4,F17,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>0.99608945520580505</v>
+        <v>1.8122480682922486</v>
       </c>
       <c r="H17">
         <f>_xll.acq_options_bjerksund_price_approx($C$4,F17,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
@@ -20719,170 +19671,82 @@
       </c>
       <c r="I17">
         <f>_xll.acq_options_blackscholes_price($C$4,F17,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>0.99608720630772662</v>
+        <v>1.8122480682922486</v>
       </c>
       <c r="J17">
         <f>_xll.acq_options_blackscholes_price($C$4,G17,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>3.0562561526478039E-45</v>
-      </c>
-      <c r="L17" s="44">
-        <v>90</v>
+        <v>1.9625621136394617E-22</v>
+      </c>
+      <c r="L17" s="46">
+        <v>0.65</v>
       </c>
       <c r="M17">
-        <f>_xll.acq_options_bjerksund_price_approx($L17,$C$5,M$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>2.3122538636149486</v>
+        <f>_xll.acq_options_bjerksund_price_approx(M$4,$C$5,$L17,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>1.7538393451341321</v>
       </c>
       <c r="N17">
-        <f>_xll.acq_options_bjerksund_price_approx($L17,$C$5,N$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>5.2620456969511764</v>
+        <f>_xll.acq_options_bjerksund_price_approx(N$4,$C$5,$L17,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>3.7917558451558833</v>
       </c>
       <c r="O17">
-        <f>_xll.acq_options_bjerksund_price_approx($L17,$C$5,O$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>7.5144666588364188</v>
+        <f>_xll.acq_options_bjerksund_price_approx(O$4,$C$5,$L17,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>7.0326722168859277</v>
       </c>
       <c r="P17">
-        <f>_xll.acq_options_bjerksund_price_approx($L17,$C$5,P$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>9.2539881321619006</v>
+        <f>_xll.acq_options_bjerksund_price_approx(P$4,$C$5,$L17,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>11.580462132074587</v>
       </c>
       <c r="Q17">
-        <f>_xll.acq_options_bjerksund_price_approx($L17,$C$5,Q$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>10.721066242375976</v>
+        <f>_xll.acq_options_bjerksund_price_approx(Q$4,$C$5,$L17,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>17.381176441458152</v>
       </c>
       <c r="R17">
-        <f>_xll.acq_options_bjerksund_price_approx($L17,$C$5,R$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>12.00989390214081</v>
+        <f>_xll.acq_options_bjerksund_price_approx(R$4,$C$5,$L17,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>24.266465058303936</v>
       </c>
       <c r="S17">
-        <f>_xll.acq_options_bjerksund_price_approx($L17,$C$5,S$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>13.169371832595488</v>
-      </c>
-      <c r="T17">
-        <f>_xll.acq_options_bjerksund_price_approx($L17,$C$5,T$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>14.228912411370359</v>
-      </c>
-      <c r="U17">
-        <f>_xll.acq_options_bjerksund_price_approx($L17,$C$5,U$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>15.207909478047128</v>
+        <f>_xll.acq_options_bjerksund_price_approx(S$4,$C$5,$L17,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>32.014915973629982</v>
+      </c>
+      <c r="U17" s="46">
+        <v>0.65</v>
       </c>
       <c r="V17">
-        <f>_xll.acq_options_bjerksund_price_approx($L17,$C$5,V$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>16.119983163362114</v>
+        <f>_xll.acq_options_bjerksund_price_approx(V$4,$C$5,$U17,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>30.019387489338804</v>
       </c>
       <c r="W17">
-        <f>_xll.acq_options_bjerksund_price_approx($L17,$C$5,W$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>16.975149440473729</v>
+        <f>_xll.acq_options_bjerksund_price_approx(W$4,$C$5,$U17,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>21.322541467052218</v>
       </c>
       <c r="X17">
-        <f>_xll.acq_options_bjerksund_price_approx($L17,$C$5,X$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>17.78103809677021</v>
+        <f>_xll.acq_options_bjerksund_price_approx(X$4,$C$5,$U17,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>14.596441833137632</v>
       </c>
       <c r="Y17">
-        <f>_xll.acq_options_bjerksund_price_approx($L17,$C$5,Y$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>18.543626426412274</v>
+        <f>_xll.acq_options_bjerksund_price_approx(Y$4,$C$5,$U17,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>9.637983728017673</v>
       </c>
       <c r="Z17">
-        <f>_xll.acq_options_bjerksund_price_approx($L17,$C$5,Z$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>19.267705982745873</v>
+        <f>_xll.acq_options_bjerksund_price_approx(Z$4,$C$5,$U17,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>6.1495793862091972</v>
       </c>
       <c r="AA17">
-        <f>_xll.acq_options_bjerksund_price_approx($L17,$C$5,AA$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>19.957192619910131</v>
+        <f>_xll.acq_options_bjerksund_price_approx(AA$4,$C$5,$U17,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>3.8014742129426224</v>
       </c>
       <c r="AB17">
-        <f>_xll.acq_options_bjerksund_price_approx($L17,$C$5,AB$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>20.615339753660507</v>
-      </c>
-      <c r="AC17">
-        <f>_xll.acq_options_bjerksund_price_approx($L17,$C$5,AC$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>21.244889332957847</v>
-      </c>
-      <c r="AD17">
-        <f>_xll.acq_options_bjerksund_price_approx($L17,$C$5,AD$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>21.848181331582815</v>
-      </c>
-      <c r="AF17" s="44">
-        <v>90</v>
-      </c>
-      <c r="AG17">
-        <f>_xll.acq_options_bjerksund_price_approx($L17,$C$5,AG$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>2.2256935677552718</v>
-      </c>
-      <c r="AH17">
-        <f>_xll.acq_options_bjerksund_price_approx($L17,$C$5,AH$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>4.8413900329811526</v>
-      </c>
-      <c r="AI17">
-        <f>_xll.acq_options_bjerksund_price_approx($L17,$C$5,AI$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>6.694590878796447</v>
-      </c>
-      <c r="AJ17">
-        <f>_xll.acq_options_bjerksund_price_approx($L17,$C$5,AJ$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>8.0514280916784813</v>
-      </c>
-      <c r="AK17">
-        <f>_xll.acq_options_bjerksund_price_approx($L17,$C$5,AK$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>9.1501765392402206</v>
-      </c>
-      <c r="AL17">
-        <f>_xll.acq_options_bjerksund_price_approx($L17,$C$5,AL$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>10.083470050093297</v>
-      </c>
-      <c r="AM17">
-        <f>_xll.acq_options_bjerksund_price_approx($L17,$C$5,AM$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>10.898971681884824</v>
-      </c>
-      <c r="AN17">
-        <f>_xll.acq_options_bjerksund_price_approx($L17,$C$5,AN$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>11.62508294360218</v>
-      </c>
-      <c r="AO17">
-        <f>_xll.acq_options_bjerksund_price_approx($L17,$C$5,AO$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>12.280364894034768</v>
-      </c>
-      <c r="AP17">
-        <f>_xll.acq_options_bjerksund_price_approx($L17,$C$5,AP$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>12.877748684489433</v>
-      </c>
-      <c r="AQ17">
-        <f>_xll.acq_options_bjerksund_price_approx($L17,$C$5,AQ$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>13.42667743745308</v>
-      </c>
-      <c r="AR17">
-        <f>_xll.acq_options_bjerksund_price_approx($L17,$C$5,AR$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>13.934301017286401</v>
-      </c>
-      <c r="AS17">
-        <f>_xll.acq_options_bjerksund_price_approx($L17,$C$5,AS$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>14.406190381315128</v>
-      </c>
-      <c r="AT17">
-        <f>_xll.acq_options_bjerksund_price_approx($L17,$C$5,AT$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>14.846788529156719</v>
-      </c>
-      <c r="AU17">
-        <f>_xll.acq_options_bjerksund_price_approx($L17,$C$5,AU$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>15.259707909441829</v>
-      </c>
-      <c r="AV17">
-        <f>_xll.acq_options_bjerksund_price_approx($L17,$C$5,AV$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>15.647933767266586</v>
-      </c>
-      <c r="AW17">
-        <f>_xll.acq_options_bjerksund_price_approx($L17,$C$5,AW$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>16.013967453147345</v>
-      </c>
-      <c r="AX17">
-        <f>_xll.acq_options_bjerksund_price_approx($L17,$C$5,AX$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>16.359930058076593</v>
-      </c>
-    </row>
-    <row r="18" spans="6:50" x14ac:dyDescent="0.25">
+        <f>_xll.acq_options_bjerksund_price_approx(AB$4,$C$5,$U17,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>2.283627586778664</v>
+      </c>
+    </row>
+    <row r="18" spans="6:35" x14ac:dyDescent="0.25">
       <c r="F18">
         <v>140</v>
       </c>
       <c r="G18">
         <f>_xll.acq_options_bjerksund_price_approx($C$4,F18,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>0.59751018234248932</v>
+        <v>1.2576425804726288</v>
       </c>
       <c r="H18">
         <f>_xll.acq_options_bjerksund_price_approx($C$4,F18,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
@@ -20890,170 +19754,82 @@
       </c>
       <c r="I18">
         <f>_xll.acq_options_blackscholes_price($C$4,F18,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>0.59750941360066445</v>
+        <v>1.2576425804726288</v>
       </c>
       <c r="J18">
         <f>_xll.acq_options_blackscholes_price($C$4,G18,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>8.3727825450387222E-56</v>
-      </c>
-      <c r="L18" s="44">
-        <v>85</v>
+        <v>1.2715942320358724E-26</v>
+      </c>
+      <c r="L18" s="46">
+        <v>0.7</v>
       </c>
       <c r="M18">
-        <f>_xll.acq_options_bjerksund_price_approx($L18,$C$5,M$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>0.56691725446628993</v>
+        <f>_xll.acq_options_bjerksund_price_approx(M$4,$C$5,$L18,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>1.96380565221979</v>
       </c>
       <c r="N18">
-        <f>_xll.acq_options_bjerksund_price_approx($L18,$C$5,N$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>2.9597266454155076</v>
+        <f>_xll.acq_options_bjerksund_price_approx(N$4,$C$5,$L18,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>4.0975220615232182</v>
       </c>
       <c r="O18">
-        <f>_xll.acq_options_bjerksund_price_approx($L18,$C$5,O$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>5.0226766893934638</v>
+        <f>_xll.acq_options_bjerksund_price_approx(O$4,$C$5,$L18,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>7.40813485023385</v>
       </c>
       <c r="P18">
-        <f>_xll.acq_options_bjerksund_price_approx($L18,$C$5,P$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>6.6576742930445292</v>
+        <f>_xll.acq_options_bjerksund_price_approx(P$4,$C$5,$L18,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>11.980056871550772</v>
       </c>
       <c r="Q18">
-        <f>_xll.acq_options_bjerksund_price_approx($L18,$C$5,Q$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>8.052174832467081</v>
+        <f>_xll.acq_options_bjerksund_price_approx(Q$4,$C$5,$L18,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>17.756019281551474</v>
       </c>
       <c r="R18">
-        <f>_xll.acq_options_bjerksund_price_approx($L18,$C$5,R$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>9.2853665630578206</v>
+        <f>_xll.acq_options_bjerksund_price_approx(R$4,$C$5,$L18,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>24.577716756978504</v>
       </c>
       <c r="S18">
-        <f>_xll.acq_options_bjerksund_price_approx($L18,$C$5,S$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>10.399770703220533</v>
-      </c>
-      <c r="T18">
-        <f>_xll.acq_options_bjerksund_price_approx($L18,$C$5,T$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>11.4214801019817</v>
-      </c>
-      <c r="U18">
-        <f>_xll.acq_options_bjerksund_price_approx($L18,$C$5,U$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>12.367938292488994</v>
+        <f>_xll.acq_options_bjerksund_price_approx(S$4,$C$5,$L18,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>32.239762763653374</v>
+      </c>
+      <c r="U18" s="46">
+        <v>0.7</v>
       </c>
       <c r="V18">
-        <f>_xll.acq_options_bjerksund_price_approx($L18,$C$5,V$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>13.251523087948449</v>
+        <f>_xll.acq_options_bjerksund_price_approx(V$4,$C$5,$U18,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>30.040155624016606</v>
       </c>
       <c r="W18">
-        <f>_xll.acq_options_bjerksund_price_approx($L18,$C$5,W$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>14.081411779608565</v>
+        <f>_xll.acq_options_bjerksund_price_approx(W$4,$C$5,$U18,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>21.465254318063465</v>
       </c>
       <c r="X18">
-        <f>_xll.acq_options_bjerksund_price_approx($L18,$C$5,X$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>14.864642084975628</v>
+        <f>_xll.acq_options_bjerksund_price_approx(X$4,$C$5,$U18,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>14.832578998839985</v>
       </c>
       <c r="Y18">
-        <f>_xll.acq_options_bjerksund_price_approx($L18,$C$5,Y$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>15.606757830955146</v>
+        <f>_xll.acq_options_bjerksund_price_approx(Y$4,$C$5,$U18,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>9.9213379184106572</v>
       </c>
       <c r="Z18">
-        <f>_xll.acq_options_bjerksund_price_approx($L18,$C$5,Z$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>16.312223259320682</v>
+        <f>_xll.acq_options_bjerksund_price_approx(Z$4,$C$5,$U18,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>6.435498641492515</v>
       </c>
       <c r="AA18">
-        <f>_xll.acq_options_bjerksund_price_approx($L18,$C$5,AA$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>16.98470032930696</v>
+        <f>_xll.acq_options_bjerksund_price_approx(AA$4,$C$5,$U18,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>4.0580000145426993</v>
       </c>
       <c r="AB18">
-        <f>_xll.acq_options_bjerksund_price_approx($L18,$C$5,AB$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>17.627240786665482</v>
-      </c>
-      <c r="AC18">
-        <f>_xll.acq_options_bjerksund_price_approx($L18,$C$5,AC$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>18.242423006720443</v>
-      </c>
-      <c r="AD18">
-        <f>_xll.acq_options_bjerksund_price_approx($L18,$C$5,AD$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>18.832451826933266</v>
-      </c>
-      <c r="AF18" s="44">
-        <v>85</v>
-      </c>
-      <c r="AG18">
-        <f>_xll.acq_options_bjerksund_price_approx($L18,$C$5,AG$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>5.4878682693698551</v>
-      </c>
-      <c r="AH18">
-        <f>_xll.acq_options_bjerksund_price_approx($L18,$C$5,AH$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>7.5445846618882371</v>
-      </c>
-      <c r="AI18">
-        <f>_xll.acq_options_bjerksund_price_approx($L18,$C$5,AI$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>9.201731103505324</v>
-      </c>
-      <c r="AJ18">
-        <f>_xll.acq_options_bjerksund_price_approx($L18,$C$5,AJ$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>10.446273507573316</v>
-      </c>
-      <c r="AK18">
-        <f>_xll.acq_options_bjerksund_price_approx($L18,$C$5,AK$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>11.464074341652022</v>
-      </c>
-      <c r="AL18">
-        <f>_xll.acq_options_bjerksund_price_approx($L18,$C$5,AL$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>12.333049201459026</v>
-      </c>
-      <c r="AM18">
-        <f>_xll.acq_options_bjerksund_price_approx($L18,$C$5,AM$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>13.094660416311413</v>
-      </c>
-      <c r="AN18">
-        <f>_xll.acq_options_bjerksund_price_approx($L18,$C$5,AN$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>13.774104879304758</v>
-      </c>
-      <c r="AO18">
-        <f>_xll.acq_options_bjerksund_price_approx($L18,$C$5,AO$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>14.388065085952022</v>
-      </c>
-      <c r="AP18">
-        <f>_xll.acq_options_bjerksund_price_approx($L18,$C$5,AP$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>14.948271936423602</v>
-      </c>
-      <c r="AQ18">
-        <f>_xll.acq_options_bjerksund_price_approx($L18,$C$5,AQ$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>15.463351993869257</v>
-      </c>
-      <c r="AR18">
-        <f>_xll.acq_options_bjerksund_price_approx($L18,$C$5,AR$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>15.939872340802616</v>
-      </c>
-      <c r="AS18">
-        <f>_xll.acq_options_bjerksund_price_approx($L18,$C$5,AS$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>16.382971985284115</v>
-      </c>
-      <c r="AT18">
-        <f>_xll.acq_options_bjerksund_price_approx($L18,$C$5,AT$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>16.796763831895568</v>
-      </c>
-      <c r="AU18">
-        <f>_xll.acq_options_bjerksund_price_approx($L18,$C$5,AU$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>17.184601619142736</v>
-      </c>
-      <c r="AV18">
-        <f>_xll.acq_options_bjerksund_price_approx($L18,$C$5,AV$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>17.549263483962854</v>
-      </c>
-      <c r="AW18">
-        <f>_xll.acq_options_bjerksund_price_approx($L18,$C$5,AW$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>17.893081958850516</v>
-      </c>
-      <c r="AX18">
-        <f>_xll.acq_options_bjerksund_price_approx($L18,$C$5,AX$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>18.218038373608408</v>
-      </c>
-    </row>
-    <row r="19" spans="6:50" x14ac:dyDescent="0.25">
+        <f>_xll.acq_options_bjerksund_price_approx(AB$4,$C$5,$U18,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>2.4944205008523568</v>
+      </c>
+    </row>
+    <row r="19" spans="6:35" x14ac:dyDescent="0.25">
       <c r="F19">
         <v>150</v>
       </c>
       <c r="G19">
         <f>_xll.acq_options_bjerksund_price_approx($C$4,F19,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>0.35703269044384456</v>
+        <v>0.87364917342515458</v>
       </c>
       <c r="H19">
         <f>_xll.acq_options_bjerksund_price_approx($C$4,F19,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
@@ -21061,170 +19837,82 @@
       </c>
       <c r="I19">
         <f>_xll.acq_options_blackscholes_price($C$4,F19,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>0.35703241968582766</v>
+        <v>0.87364917342515458</v>
       </c>
       <c r="J19">
         <f>_xll.acq_options_blackscholes_price($C$4,G19,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>1.3877350979763694E-67</v>
-      </c>
-      <c r="L19" s="44">
-        <v>80</v>
+        <v>3.6669095805321848E-31</v>
+      </c>
+      <c r="L19" s="46">
+        <v>0.75</v>
       </c>
       <c r="M19">
-        <f>_xll.acq_options_bjerksund_price_approx($L19,$C$5,M$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>6.7961521561883842E-2</v>
+        <f>_xll.acq_options_bjerksund_price_approx(M$4,$C$5,$L19,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>2.1734908239105728</v>
       </c>
       <c r="N19">
-        <f>_xll.acq_options_bjerksund_price_approx($L19,$C$5,N$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>1.4359194232125816</v>
+        <f>_xll.acq_options_bjerksund_price_approx(N$4,$C$5,$L19,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>4.3953551181175712</v>
       </c>
       <c r="O19">
-        <f>_xll.acq_options_bjerksund_price_approx($L19,$C$5,O$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>3.1023483863125563</v>
+        <f>_xll.acq_options_bjerksund_price_approx(O$4,$C$5,$L19,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>7.7687405195595787</v>
       </c>
       <c r="P19">
-        <f>_xll.acq_options_bjerksund_price_approx($L19,$C$5,P$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>4.5306196354173878</v>
+        <f>_xll.acq_options_bjerksund_price_approx(P$4,$C$5,$L19,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>12.361783822894068</v>
       </c>
       <c r="Q19">
-        <f>_xll.acq_options_bjerksund_price_approx($L19,$C$5,Q$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>5.7887438392251624</v>
+        <f>_xll.acq_options_bjerksund_price_approx(Q$4,$C$5,$L19,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>18.114754266184605</v>
       </c>
       <c r="R19">
-        <f>_xll.acq_options_bjerksund_price_approx($L19,$C$5,R$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>6.9215587387001705</v>
+        <f>_xll.acq_options_bjerksund_price_approx(R$4,$C$5,$L19,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>24.878064222330167</v>
       </c>
       <c r="S19">
-        <f>_xll.acq_options_bjerksund_price_approx($L19,$C$5,S$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>7.9572550882385755</v>
-      </c>
-      <c r="T19">
-        <f>_xll.acq_options_bjerksund_price_approx($L19,$C$5,T$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>8.9146526330505225</v>
-      </c>
-      <c r="U19">
-        <f>_xll.acq_options_bjerksund_price_approx($L19,$C$5,U$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>9.8070225250203293</v>
+        <f>_xll.acq_options_bjerksund_price_approx(S$4,$C$5,$L19,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>32.460132474437401</v>
+      </c>
+      <c r="U19" s="46">
+        <v>0.75</v>
       </c>
       <c r="V19">
-        <f>_xll.acq_options_bjerksund_price_approx($L19,$C$5,V$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>10.644139673767441</v>
+        <f>_xll.acq_options_bjerksund_price_approx(V$4,$C$5,$U19,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>30.066381381137603</v>
       </c>
       <c r="W19">
-        <f>_xll.acq_options_bjerksund_price_approx($L19,$C$5,W$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>11.433455398564348</v>
+        <f>_xll.acq_options_bjerksund_price_approx(W$4,$C$5,$U19,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>21.604822951440077</v>
       </c>
       <c r="X19">
-        <f>_xll.acq_options_bjerksund_price_approx($L19,$C$5,X$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>12.180808256353906</v>
+        <f>_xll.acq_options_bjerksund_price_approx(X$4,$C$5,$U19,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>15.057751545192005</v>
       </c>
       <c r="Y19">
-        <f>_xll.acq_options_bjerksund_price_approx($L19,$C$5,Y$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>12.890877324188409</v>
+        <f>_xll.acq_options_bjerksund_price_approx(Y$4,$C$5,$U19,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>10.190075896726043</v>
       </c>
       <c r="Z19">
-        <f>_xll.acq_options_bjerksund_price_approx($L19,$C$5,Z$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>13.567483763510985</v>
+        <f>_xll.acq_options_bjerksund_price_approx(Z$4,$C$5,$U19,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>6.7077131968609081</v>
       </c>
       <c r="AA19">
-        <f>_xll.acq_options_bjerksund_price_approx($L19,$C$5,AA$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>14.213798640800526</v>
+        <f>_xll.acq_options_bjerksund_price_approx(AA$4,$C$5,$U19,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>4.3047394093293008</v>
       </c>
       <c r="AB19">
-        <f>_xll.acq_options_bjerksund_price_approx($L19,$C$5,AB$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>14.832490407156612</v>
-      </c>
-      <c r="AC19">
-        <f>_xll.acq_options_bjerksund_price_approx($L19,$C$5,AC$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>15.425832161277469</v>
-      </c>
-      <c r="AD19">
-        <f>_xll.acq_options_bjerksund_price_approx($L19,$C$5,AD$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>15.995781304610539</v>
-      </c>
-      <c r="AF19" s="44">
-        <v>80</v>
-      </c>
-      <c r="AG19">
-        <f>_xll.acq_options_bjerksund_price_approx($L19,$C$5,AG$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>10</v>
-      </c>
-      <c r="AH19">
-        <f>_xll.acq_options_bjerksund_price_approx($L19,$C$5,AH$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>11.050582200833432</v>
-      </c>
-      <c r="AI19">
-        <f>_xll.acq_options_bjerksund_price_approx($L19,$C$5,AI$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>12.308947707276282</v>
-      </c>
-      <c r="AJ19">
-        <f>_xll.acq_options_bjerksund_price_approx($L19,$C$5,AJ$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>13.342012017076023</v>
-      </c>
-      <c r="AK19">
-        <f>_xll.acq_options_bjerksund_price_approx($L19,$C$5,AK$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>14.217591470517842</v>
-      </c>
-      <c r="AL19">
-        <f>_xll.acq_options_bjerksund_price_approx($L19,$C$5,AL$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>14.979697998457091</v>
-      </c>
-      <c r="AM19">
-        <f>_xll.acq_options_bjerksund_price_approx($L19,$C$5,AM$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>15.655716877240625</v>
-      </c>
-      <c r="AN19">
-        <f>_xll.acq_options_bjerksund_price_approx($L19,$C$5,AN$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>16.263737296279967</v>
-      </c>
-      <c r="AO19">
-        <f>_xll.acq_options_bjerksund_price_approx($L19,$C$5,AO$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>16.81638047336925</v>
-      </c>
-      <c r="AP19">
-        <f>_xll.acq_options_bjerksund_price_approx($L19,$C$5,AP$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>17.32284846034791</v>
-      </c>
-      <c r="AQ19">
-        <f>_xll.acq_options_bjerksund_price_approx($L19,$C$5,AQ$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>17.790090036700168</v>
-      </c>
-      <c r="AR19">
-        <f>_xll.acq_options_bjerksund_price_approx($L19,$C$5,AR$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>18.223503406266662</v>
-      </c>
-      <c r="AS19">
-        <f>_xll.acq_options_bjerksund_price_approx($L19,$C$5,AS$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>18.627380991943244</v>
-      </c>
-      <c r="AT19">
-        <f>_xll.acq_options_bjerksund_price_approx($L19,$C$5,AT$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>19.005202831819727</v>
-      </c>
-      <c r="AU19">
-        <f>_xll.acq_options_bjerksund_price_approx($L19,$C$5,AU$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>19.359836966014367</v>
-      </c>
-      <c r="AV19">
-        <f>_xll.acq_options_bjerksund_price_approx($L19,$C$5,AV$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>19.693680418970551</v>
-      </c>
-      <c r="AW19">
-        <f>_xll.acq_options_bjerksund_price_approx($L19,$C$5,AW$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>20.008760950375439</v>
-      </c>
-      <c r="AX19">
-        <f>_xll.acq_options_bjerksund_price_approx($L19,$C$5,AX$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>20.306812135955674</v>
-      </c>
-    </row>
-    <row r="20" spans="6:50" x14ac:dyDescent="0.25">
+        <f>_xll.acq_options_bjerksund_price_approx(AB$4,$C$5,$U19,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>2.7002771269771699</v>
+      </c>
+    </row>
+    <row r="20" spans="6:35" x14ac:dyDescent="0.25">
       <c r="F20">
         <v>160</v>
       </c>
       <c r="G20">
         <f>_xll.acq_options_bjerksund_price_approx($C$4,F20,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>0.21296899569676953</v>
+        <v>0.60806327909027225</v>
       </c>
       <c r="H20">
         <f>_xll.acq_options_bjerksund_price_approx($C$4,F20,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
@@ -21232,170 +19920,89 @@
       </c>
       <c r="I20">
         <f>_xll.acq_options_blackscholes_price($C$4,F20,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>0.2129688975753421</v>
+        <v>0.60806327909027225</v>
       </c>
       <c r="J20">
         <f>_xll.acq_options_blackscholes_price($C$4,G20,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>1.4866366536092016E-80</v>
-      </c>
-      <c r="L20" s="44">
-        <v>75</v>
+        <v>4.868419745828726E-36</v>
+      </c>
+      <c r="L20" s="46">
+        <v>0.8</v>
       </c>
       <c r="M20">
-        <f>_xll.acq_options_bjerksund_price_approx($L20,$C$5,M$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>3.1464582990707868E-3</v>
+        <f>_xll.acq_options_bjerksund_price_approx(M$4,$C$5,$L20,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>2.3822760589289196</v>
       </c>
       <c r="N20">
-        <f>_xll.acq_options_bjerksund_price_approx($L20,$C$5,N$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>0.5777083292358185</v>
+        <f>_xll.acq_options_bjerksund_price_approx(N$4,$C$5,$L20,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>4.6855012429099574</v>
       </c>
       <c r="O20">
-        <f>_xll.acq_options_bjerksund_price_approx($L20,$C$5,O$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>1.738019675711044</v>
+        <f>_xll.acq_options_bjerksund_price_approx(O$4,$C$5,$L20,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>8.1157062758994982</v>
       </c>
       <c r="P20">
-        <f>_xll.acq_options_bjerksund_price_approx($L20,$C$5,P$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>2.8806882501430806</v>
+        <f>_xll.acq_options_bjerksund_price_approx(P$4,$C$5,$L20,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>12.727296608648729</v>
       </c>
       <c r="Q20">
-        <f>_xll.acq_options_bjerksund_price_approx($L20,$C$5,Q$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>3.9468041815703785</v>
+        <f>_xll.acq_options_bjerksund_price_approx(Q$4,$C$5,$L20,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>18.458730355326026</v>
       </c>
       <c r="R20">
-        <f>_xll.acq_options_bjerksund_price_approx($L20,$C$5,R$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>4.9377378428312326</v>
+        <f>_xll.acq_options_bjerksund_price_approx(R$4,$C$5,$L20,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>25.168065289543748</v>
       </c>
       <c r="S20">
-        <f>_xll.acq_options_bjerksund_price_approx($L20,$C$5,S$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>5.86232360465754</v>
-      </c>
-      <c r="T20">
-        <f>_xll.acq_options_bjerksund_price_approx($L20,$C$5,T$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>6.7292359159444999</v>
-      </c>
-      <c r="U20">
-        <f>_xll.acq_options_bjerksund_price_approx($L20,$C$5,U$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>7.5458195479135313</v>
+        <f>_xll.acq_options_bjerksund_price_approx(S$4,$C$5,$L20,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>32.675730604857705</v>
+      </c>
+      <c r="U20" s="46">
+        <v>0.8</v>
       </c>
       <c r="V20">
-        <f>_xll.acq_options_bjerksund_price_approx($L20,$C$5,V$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>8.3181108665467676</v>
+        <f>_xll.acq_options_bjerksund_price_approx(V$4,$C$5,$U20,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>30.097033642388915</v>
       </c>
       <c r="W20">
-        <f>_xll.acq_options_bjerksund_price_approx($L20,$C$5,W$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>9.0510639664895649</v>
+        <f>_xll.acq_options_bjerksund_price_approx(W$4,$C$5,$U20,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>21.741142139247827</v>
       </c>
       <c r="X20">
-        <f>_xll.acq_options_bjerksund_price_approx($L20,$C$5,X$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>9.7487738534226693</v>
+        <f>_xll.acq_options_bjerksund_price_approx(X$4,$C$5,$U20,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>15.2729460671897</v>
       </c>
       <c r="Y20">
-        <f>_xll.acq_options_bjerksund_price_approx($L20,$C$5,Y$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>10.414658365943779</v>
+        <f>_xll.acq_options_bjerksund_price_approx(Y$4,$C$5,$U20,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>10.445700309453485</v>
       </c>
       <c r="Z20">
-        <f>_xll.acq_options_bjerksund_price_approx($L20,$C$5,Z$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>11.051599285474452</v>
+        <f>_xll.acq_options_bjerksund_price_approx(Z$4,$C$5,$U20,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>6.9675215419987353</v>
       </c>
       <c r="AA20">
-        <f>_xll.acq_options_bjerksund_price_approx($L20,$C$5,AA$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>11.66205054724859</v>
+        <f>_xll.acq_options_bjerksund_price_approx(AA$4,$C$5,$U20,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>4.5423505649096114</v>
       </c>
       <c r="AB20">
-        <f>_xll.acq_options_bjerksund_price_approx($L20,$C$5,AB$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>12.248121379736752</v>
-      </c>
-      <c r="AC20">
-        <f>_xll.acq_options_bjerksund_price_approx($L20,$C$5,AC$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>12.811640620586559</v>
+        <f>_xll.acq_options_bjerksund_price_approx(AB$4,$C$5,$U20,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>2.901169441243951</v>
       </c>
       <c r="AD20">
-        <f>_xll.acq_options_bjerksund_price_approx($L20,$C$5,AD$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>13.354206899879237</v>
-      </c>
-      <c r="AF20" s="44">
-        <v>75</v>
-      </c>
-      <c r="AG20">
-        <f>_xll.acq_options_bjerksund_price_approx($L20,$C$5,AG$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>15</v>
-      </c>
-      <c r="AH20">
-        <f>_xll.acq_options_bjerksund_price_approx($L20,$C$5,AH$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>15.246818187947017</v>
-      </c>
-      <c r="AI20">
-        <f>_xll.acq_options_bjerksund_price_approx($L20,$C$5,AI$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>16.00978757865439</v>
-      </c>
-      <c r="AJ20">
-        <f>_xll.acq_options_bjerksund_price_approx($L20,$C$5,AJ$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>16.757068232395795</v>
-      </c>
-      <c r="AK20">
-        <f>_xll.acq_options_bjerksund_price_approx($L20,$C$5,AK$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>17.437963129758209</v>
-      </c>
-      <c r="AL20">
-        <f>_xll.acq_options_bjerksund_price_approx($L20,$C$5,AL$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>18.054308869287123</v>
-      </c>
-      <c r="AM20">
-        <f>_xll.acq_options_bjerksund_price_approx($L20,$C$5,AM$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>18.614612375857927</v>
-      </c>
-      <c r="AN20">
-        <f>_xll.acq_options_bjerksund_price_approx($L20,$C$5,AN$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>19.127075571025014</v>
-      </c>
-      <c r="AO20">
-        <f>_xll.acq_options_bjerksund_price_approx($L20,$C$5,AO$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>19.598556509741538</v>
-      </c>
-      <c r="AP20">
-        <f>_xll.acq_options_bjerksund_price_approx($L20,$C$5,AP$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>20.0346284583573</v>
-      </c>
-      <c r="AQ20">
-        <f>_xll.acq_options_bjerksund_price_approx($L20,$C$5,AQ$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>20.439818227689148</v>
-      </c>
-      <c r="AR20">
-        <f>_xll.acq_options_bjerksund_price_approx($L20,$C$5,AR$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>20.817832144043908</v>
-      </c>
-      <c r="AS20">
-        <f>_xll.acq_options_bjerksund_price_approx($L20,$C$5,AS$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>21.171736657244736</v>
-      </c>
-      <c r="AT20">
-        <f>_xll.acq_options_bjerksund_price_approx($L20,$C$5,AT$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>21.504096286936324</v>
-      </c>
-      <c r="AU20">
-        <f>_xll.acq_options_bjerksund_price_approx($L20,$C$5,AU$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>21.817077958980818</v>
-      </c>
-      <c r="AV20">
-        <f>_xll.acq_options_bjerksund_price_approx($L20,$C$5,AV$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>22.112530177371838</v>
-      </c>
-      <c r="AW20">
-        <f>_xll.acq_options_bjerksund_price_approx($L20,$C$5,AW$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>22.392043608856678</v>
-      </c>
-      <c r="AX20">
-        <f>_xll.acq_options_bjerksund_price_approx($L20,$C$5,AX$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>22.656997927838486</v>
-      </c>
-    </row>
-    <row r="21" spans="6:50" x14ac:dyDescent="0.25">
+        <v>3.4746592085343946</v>
+      </c>
+      <c r="AE20">
+        <f>AD20-AB23</f>
+        <v>-6.7057470687359455E-14</v>
+      </c>
+    </row>
+    <row r="21" spans="6:35" x14ac:dyDescent="0.25">
       <c r="F21">
         <v>170</v>
       </c>
       <c r="G21">
         <f>_xll.acq_options_bjerksund_price_approx($C$4,F21,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>0.12702713253929687</v>
+        <v>0.4243122048375545</v>
       </c>
       <c r="H21">
         <f>_xll.acq_options_bjerksund_price_approx($C$4,F21,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
@@ -21403,2146 +20010,2431 @@
       </c>
       <c r="I21">
         <f>_xll.acq_options_blackscholes_price($C$4,F21,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>0.12702709600320783</v>
+        <v>0.4243122048375545</v>
       </c>
       <c r="J21">
         <f>_xll.acq_options_blackscholes_price($C$4,G21,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>1.114979080970256E-94</v>
-      </c>
-      <c r="L21" s="44">
-        <v>70</v>
+        <v>3.0810353477718544E-41</v>
+      </c>
+      <c r="L21" s="46">
+        <v>0.85</v>
       </c>
       <c r="M21">
-        <f>_xll.acq_options_bjerksund_price_approx($L21,$C$5,M$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>4.3123563116864716E-5</v>
+        <f>_xll.acq_options_bjerksund_price_approx(M$4,$C$5,$L21,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>2.5896880914419889</v>
       </c>
       <c r="N21">
-        <f>_xll.acq_options_bjerksund_price_approx($L21,$C$5,N$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>0.18358130900431036</v>
+        <f>_xll.acq_options_bjerksund_price_approx(N$4,$C$5,$L21,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>4.9682263472148094</v>
       </c>
       <c r="O21">
-        <f>_xll.acq_options_bjerksund_price_approx($L21,$C$5,O$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>0.86266277135719349</v>
+        <f>_xll.acq_options_bjerksund_price_approx(O$4,$C$5,$L21,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>8.4500860099740365</v>
       </c>
       <c r="P21">
-        <f>_xll.acq_options_bjerksund_price_approx($L21,$C$5,P$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>1.6850607492621492</v>
+        <f>_xll.acq_options_bjerksund_price_approx(P$4,$C$5,$L21,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>13.077998996876133</v>
       </c>
       <c r="Q21">
-        <f>_xll.acq_options_bjerksund_price_approx($L21,$C$5,Q$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>2.5226160082079616</v>
+        <f>_xll.acq_options_bjerksund_price_approx(Q$4,$C$5,$L21,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>18.789112332169893</v>
       </c>
       <c r="R21">
-        <f>_xll.acq_options_bjerksund_price_approx($L21,$C$5,R$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>3.3397281753279771</v>
+        <f>_xll.acq_options_bjerksund_price_approx(R$4,$C$5,$L21,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>25.448250155289202</v>
       </c>
       <c r="S21">
-        <f>_xll.acq_options_bjerksund_price_approx($L21,$C$5,S$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>4.1260137022263521</v>
-      </c>
-      <c r="T21">
-        <f>_xll.acq_options_bjerksund_price_approx($L21,$C$5,T$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>4.8792353628231595</v>
-      </c>
-      <c r="U21">
-        <f>_xll.acq_options_bjerksund_price_approx($L21,$C$5,U$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>5.6000451992627944</v>
+        <f>_xll.acq_options_bjerksund_price_approx(S$4,$C$5,$L21,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>32.886381891485414</v>
+      </c>
+      <c r="U21" s="46">
+        <v>0.85</v>
       </c>
       <c r="V21">
-        <f>_xll.acq_options_bjerksund_price_approx($L21,$C$5,V$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>6.290116911474172</v>
+        <f>_xll.acq_options_bjerksund_price_approx(V$4,$C$5,$U21,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>30.131271677953357</v>
       </c>
       <c r="W21">
-        <f>_xll.acq_options_bjerksund_price_approx($L21,$C$5,W$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>6.9514211229817633</v>
+        <f>_xll.acq_options_bjerksund_price_approx(W$4,$C$5,$U21,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>21.874176704910447</v>
       </c>
       <c r="X21">
-        <f>_xll.acq_options_bjerksund_price_approx($L21,$C$5,X$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>7.5859327028408856</v>
+        <f>_xll.acq_options_bjerksund_price_approx(X$4,$C$5,$U21,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>15.479014206765569</v>
       </c>
       <c r="Y21">
-        <f>_xll.acq_options_bjerksund_price_approx($L21,$C$5,Y$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>8.1955148329917051</v>
+        <f>_xll.acq_options_bjerksund_price_approx(Y$4,$C$5,$U21,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>10.689478061153395</v>
       </c>
       <c r="Z21">
-        <f>_xll.acq_options_bjerksund_price_approx($L21,$C$5,Z$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>8.7818790377139706</v>
+        <f>_xll.acq_options_bjerksund_price_approx(Z$4,$C$5,$U21,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>7.2160351309845367</v>
       </c>
       <c r="AA21">
-        <f>_xll.acq_options_bjerksund_price_approx($L21,$C$5,AA$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>9.3465784915734744</v>
+        <f>_xll.acq_options_bjerksund_price_approx(AA$4,$C$5,$U21,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>4.7714361792330635</v>
       </c>
       <c r="AB21">
-        <f>_xll.acq_options_bjerksund_price_approx($L21,$C$5,AB$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>9.8910155926597412</v>
-      </c>
-      <c r="AC21">
-        <f>_xll.acq_options_bjerksund_price_approx($L21,$C$5,AC$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>10.416455060520754</v>
-      </c>
-      <c r="AD21">
-        <f>_xll.acq_options_bjerksund_price_approx($L21,$C$5,AD$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>10.924038500077074</v>
-      </c>
-      <c r="AF21" s="44">
-        <v>70</v>
-      </c>
-      <c r="AG21">
-        <f>_xll.acq_options_bjerksund_price_approx($L21,$C$5,AG$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>20</v>
-      </c>
-      <c r="AH21">
-        <f>_xll.acq_options_bjerksund_price_approx($L21,$C$5,AH$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>20</v>
-      </c>
-      <c r="AI21">
-        <f>_xll.acq_options_bjerksund_price_approx($L21,$C$5,AI$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>20.238019249382102</v>
-      </c>
-      <c r="AJ21">
-        <f>_xll.acq_options_bjerksund_price_approx($L21,$C$5,AJ$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>20.677356796210439</v>
-      </c>
-      <c r="AK21">
-        <f>_xll.acq_options_bjerksund_price_approx($L21,$C$5,AK$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>21.133125706674903</v>
-      </c>
-      <c r="AL21">
-        <f>_xll.acq_options_bjerksund_price_approx($L21,$C$5,AL$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>21.575927975654391</v>
-      </c>
-      <c r="AM21">
-        <f>_xll.acq_options_bjerksund_price_approx($L21,$C$5,AM$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>21.996612815285655</v>
-      </c>
-      <c r="AN21">
-        <f>_xll.acq_options_bjerksund_price_approx($L21,$C$5,AN$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>22.393106176656673</v>
-      </c>
-      <c r="AO21">
-        <f>_xll.acq_options_bjerksund_price_approx($L21,$C$5,AO$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>22.765903612647875</v>
-      </c>
-      <c r="AP21">
-        <f>_xll.acq_options_bjerksund_price_approx($L21,$C$5,AP$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>23.116413937071684</v>
-      </c>
-      <c r="AQ21">
-        <f>_xll.acq_options_bjerksund_price_approx($L21,$C$5,AQ$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>23.446309656126203</v>
-      </c>
-      <c r="AR21">
-        <f>_xll.acq_options_bjerksund_price_approx($L21,$C$5,AR$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>23.757265031246114</v>
-      </c>
-      <c r="AS21">
-        <f>_xll.acq_options_bjerksund_price_approx($L21,$C$5,AS$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>24.05085342490726</v>
-      </c>
-      <c r="AT21">
-        <f>_xll.acq_options_bjerksund_price_approx($L21,$C$5,AT$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>24.3285127771113</v>
-      </c>
-      <c r="AU21">
-        <f>_xll.acq_options_bjerksund_price_approx($L21,$C$5,AU$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>24.591540559327587</v>
-      </c>
-      <c r="AV21">
-        <f>_xll.acq_options_bjerksund_price_approx($L21,$C$5,AV$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>24.841101102120646</v>
-      </c>
-      <c r="AW21">
-        <f>_xll.acq_options_bjerksund_price_approx($L21,$C$5,AW$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>25.078237540597605</v>
-      </c>
-      <c r="AX21">
-        <f>_xll.acq_options_bjerksund_price_approx($L21,$C$5,AX$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>25.303884850060772</v>
-      </c>
-    </row>
-    <row r="22" spans="6:50" x14ac:dyDescent="0.25">
-      <c r="L22" s="44">
-        <v>65</v>
+        <f>_xll.acq_options_bjerksund_price_approx(AB$4,$C$5,$U21,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>3.0971367888594727</v>
+      </c>
+    </row>
+    <row r="22" spans="6:35" x14ac:dyDescent="0.25">
+      <c r="L22" s="46">
+        <v>0.9</v>
       </c>
       <c r="M22">
-        <f>_xll.acq_options_bjerksund_price_approx($L22,$C$5,M$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>1.278354062606013E-7</v>
+        <f>_xll.acq_options_bjerksund_price_approx(M$4,$C$5,$L22,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>2.7953651665542871</v>
       </c>
       <c r="N22">
-        <f>_xll.acq_options_bjerksund_price_approx($L22,$C$5,N$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>4.3351146750026714E-2</v>
+        <f>_xll.acq_options_bjerksund_price_approx(N$4,$C$5,$L22,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>5.2438030119484296</v>
       </c>
       <c r="O22">
-        <f>_xll.acq_options_bjerksund_price_approx($L22,$C$5,O$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>0.3682301115310338</v>
+        <f>_xll.acq_options_bjerksund_price_approx(O$4,$C$5,$L22,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>8.7727996072321659</v>
       </c>
       <c r="P22">
-        <f>_xll.acq_options_bjerksund_price_approx($L22,$C$5,P$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>0.88910253052206656</v>
+        <f>_xll.acq_options_bjerksund_price_approx(P$4,$C$5,$L22,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>13.415095305183144</v>
       </c>
       <c r="Q22">
-        <f>_xll.acq_options_bjerksund_price_approx($L22,$C$5,Q$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>1.4892548552281113</v>
+        <f>_xll.acq_options_bjerksund_price_approx(Q$4,$C$5,$L22,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>19.106914373391973</v>
       </c>
       <c r="R22">
-        <f>_xll.acq_options_bjerksund_price_approx($L22,$C$5,R$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>2.1163074144971858</v>
+        <f>_xll.acq_options_bjerksund_price_approx(R$4,$C$5,$L22,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>25.719117512390625</v>
       </c>
       <c r="S22">
-        <f>_xll.acq_options_bjerksund_price_approx($L22,$C$5,S$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>2.7466272350816325</v>
-      </c>
-      <c r="T22">
-        <f>_xll.acq_options_bjerksund_price_approx($L22,$C$5,T$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>3.3690126554636493</v>
-      </c>
-      <c r="U22">
-        <f>_xll.acq_options_bjerksund_price_approx($L22,$C$5,U$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>3.9780444605622591</v>
+        <f>_xll.acq_options_bjerksund_price_approx(S$4,$C$5,$L22,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>33.091996127090255</v>
+      </c>
+      <c r="U22" s="46">
+        <v>0.9</v>
       </c>
       <c r="V22">
-        <f>_xll.acq_options_bjerksund_price_approx($L22,$C$5,V$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>4.5711761554887076</v>
+        <f>_xll.acq_options_bjerksund_price_approx(V$4,$C$5,$U22,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>30.168407147610274</v>
       </c>
       <c r="W22">
-        <f>_xll.acq_options_bjerksund_price_approx($L22,$C$5,W$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>5.147358852714909</v>
+        <f>_xll.acq_options_bjerksund_price_approx(W$4,$C$5,$U22,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>22.003938547541125</v>
       </c>
       <c r="X22">
-        <f>_xll.acq_options_bjerksund_price_approx($L22,$C$5,X$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>5.7063483495186205</v>
+        <f>_xll.acq_options_bjerksund_price_approx(X$4,$C$5,$U22,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>15.676696740899636</v>
       </c>
       <c r="Y22">
-        <f>_xll.acq_options_bjerksund_price_approx($L22,$C$5,Y$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>6.2483378636009377</v>
+        <f>_xll.acq_options_bjerksund_price_approx(Y$4,$C$5,$U22,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>10.922488741216739</v>
       </c>
       <c r="Z22">
-        <f>_xll.acq_options_bjerksund_price_approx($L22,$C$5,Z$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>6.7737557670979882</v>
+        <f>_xll.acq_options_bjerksund_price_approx(Z$4,$C$5,$U22,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>7.4542135528883051</v>
       </c>
       <c r="AA22">
-        <f>_xll.acq_options_bjerksund_price_approx($L22,$C$5,AA$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>7.2831510941197664</v>
+        <f>_xll.acq_options_bjerksund_price_approx(AA$4,$C$5,$U22,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>4.992546402492394</v>
       </c>
       <c r="AB22">
-        <f>_xll.acq_options_bjerksund_price_approx($L22,$C$5,AB$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>7.7771276126952671</v>
-      </c>
-      <c r="AC22">
-        <f>_xll.acq_options_bjerksund_price_approx($L22,$C$5,AC$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>8.2563056154953145</v>
-      </c>
-      <c r="AD22">
-        <f>_xll.acq_options_bjerksund_price_approx($L22,$C$5,AD$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>8.7212999124197381</v>
-      </c>
-      <c r="AF22" s="44">
-        <v>65</v>
-      </c>
-      <c r="AG22">
-        <f>_xll.acq_options_bjerksund_price_approx($L22,$C$5,AG$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>25</v>
-      </c>
-      <c r="AH22">
-        <f>_xll.acq_options_bjerksund_price_approx($L22,$C$5,AH$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>25</v>
-      </c>
-      <c r="AI22">
-        <f>_xll.acq_options_bjerksund_price_approx($L22,$C$5,AI$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>25</v>
-      </c>
-      <c r="AJ22">
-        <f>_xll.acq_options_bjerksund_price_approx($L22,$C$5,AJ$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>25.047240352019521</v>
-      </c>
-      <c r="AK22">
-        <f>_xll.acq_options_bjerksund_price_approx($L22,$C$5,AK$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>25.284493525612291</v>
-      </c>
-      <c r="AL22">
-        <f>_xll.acq_options_bjerksund_price_approx($L22,$C$5,AL$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>25.546267850900016</v>
-      </c>
-      <c r="AM22">
-        <f>_xll.acq_options_bjerksund_price_approx($L22,$C$5,AM$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>25.815687440303435</v>
-      </c>
-      <c r="AN22">
-        <f>_xll.acq_options_bjerksund_price_approx($L22,$C$5,AN$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>26.083705199864223</v>
-      </c>
-      <c r="AO22">
-        <f>_xll.acq_options_bjerksund_price_approx($L22,$C$5,AO$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>26.345648123579139</v>
-      </c>
-      <c r="AP22">
-        <f>_xll.acq_options_bjerksund_price_approx($L22,$C$5,AP$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>26.599183888004106</v>
-      </c>
-      <c r="AQ22">
-        <f>_xll.acq_options_bjerksund_price_approx($L22,$C$5,AQ$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>26.843249387004445</v>
-      </c>
-      <c r="AR22">
-        <f>_xll.acq_options_bjerksund_price_approx($L22,$C$5,AR$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>27.077481461638129</v>
-      </c>
-      <c r="AS22">
-        <f>_xll.acq_options_bjerksund_price_approx($L22,$C$5,AS$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>27.301906062679773</v>
-      </c>
-      <c r="AT22">
-        <f>_xll.acq_options_bjerksund_price_approx($L22,$C$5,AT$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>27.516763783312431</v>
-      </c>
-      <c r="AU22">
-        <f>_xll.acq_options_bjerksund_price_approx($L22,$C$5,AU$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>27.722409679132792</v>
-      </c>
-      <c r="AV22">
-        <f>_xll.acq_options_bjerksund_price_approx($L22,$C$5,AV$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>27.919254804099499</v>
-      </c>
-      <c r="AW22">
-        <f>_xll.acq_options_bjerksund_price_approx($L22,$C$5,AW$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>28.107731803319954</v>
-      </c>
-      <c r="AX22">
-        <f>_xll.acq_options_bjerksund_price_approx($L22,$C$5,AX$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>28.288274689855538</v>
-      </c>
-    </row>
-    <row r="23" spans="6:50" x14ac:dyDescent="0.25">
-      <c r="L23" s="44">
-        <v>60</v>
+        <f>_xll.acq_options_bjerksund_price_approx(AB$4,$C$5,$U22,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>3.2882627227475894</v>
+      </c>
+    </row>
+    <row r="23" spans="6:35" x14ac:dyDescent="0.25">
+      <c r="L23" s="46">
+        <v>0.95</v>
       </c>
       <c r="M23">
-        <f>_xll.acq_options_bjerksund_price_approx($L23,$C$5,M$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>5.5607074500585441E-11</v>
+        <f>_xll.acq_options_bjerksund_price_approx(M$4,$C$5,$L23,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>2.9990316100764289</v>
       </c>
       <c r="N23">
-        <f>_xll.acq_options_bjerksund_price_approx($L23,$C$5,N$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>7.0392642051615439E-3</v>
+        <f>_xll.acq_options_bjerksund_price_approx(N$4,$C$5,$L23,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>5.5125024519297554</v>
       </c>
       <c r="O23">
-        <f>_xll.acq_options_bjerksund_price_approx($L23,$C$5,O$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>0.13009118732448144</v>
+        <f>_xll.acq_options_bjerksund_price_approx(O$4,$C$5,$L23,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>9.0846557728416073</v>
       </c>
       <c r="P23">
-        <f>_xll.acq_options_bjerksund_price_approx($L23,$C$5,P$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>0.41251887299291923</v>
+        <f>_xll.acq_options_bjerksund_price_approx(P$4,$C$5,$L23,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>13.739628399632494</v>
       </c>
       <c r="Q23">
-        <f>_xll.acq_options_bjerksund_price_approx($L23,$C$5,Q$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>0.79667728580740516</v>
+        <f>_xll.acq_options_bjerksund_price_approx(Q$4,$C$5,$L23,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>19.413026166473443</v>
       </c>
       <c r="R23">
-        <f>_xll.acq_options_bjerksund_price_approx($L23,$C$5,R$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>1.2372000536606294</v>
+        <f>_xll.acq_options_bjerksund_price_approx(R$4,$C$5,$L23,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>25.981133583523786</v>
       </c>
       <c r="S23">
-        <f>_xll.acq_options_bjerksund_price_approx($L23,$C$5,S$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>1.7071011218692433</v>
-      </c>
-      <c r="T23">
-        <f>_xll.acq_options_bjerksund_price_approx($L23,$C$5,T$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>2.1905924845782465</v>
-      </c>
-      <c r="U23">
-        <f>_xll.acq_options_bjerksund_price_approx($L23,$C$5,U$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>2.6782517580269598</v>
+        <f>_xll.acq_options_bjerksund_price_approx(S$4,$C$5,$L23,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>33.292544011466831</v>
+      </c>
+      <c r="U23" s="46">
+        <v>0.95</v>
       </c>
       <c r="V23">
-        <f>_xll.acq_options_bjerksund_price_approx($L23,$C$5,V$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>3.1643360271430794</v>
+        <f>_xll.acq_options_bjerksund_price_approx(V$4,$C$5,$U23,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>30.207874016497883</v>
       </c>
       <c r="W23">
-        <f>_xll.acq_options_bjerksund_price_approx($L23,$C$5,W$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>3.6452963197868939</v>
+        <f>_xll.acq_options_bjerksund_price_approx(W$4,$C$5,$U23,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>22.130471052706028</v>
       </c>
       <c r="X23">
-        <f>_xll.acq_options_bjerksund_price_approx($L23,$C$5,X$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>4.1189323549476384</v>
+        <f>_xll.acq_options_bjerksund_price_approx(X$4,$C$5,$U23,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>15.866642505105219</v>
       </c>
       <c r="Y23">
-        <f>_xll.acq_options_bjerksund_price_approx($L23,$C$5,Y$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>4.5838950280227024</v>
+        <f>_xll.acq_options_bjerksund_price_approx(Y$4,$C$5,$U23,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>11.14566101178896</v>
       </c>
       <c r="Z23">
-        <f>_xll.acq_options_bjerksund_price_approx($L23,$C$5,Z$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>5.0393840341531302</v>
+        <f>_xll.acq_options_bjerksund_price_approx(Z$4,$C$5,$U23,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>7.6828917175824216</v>
       </c>
       <c r="AA23">
-        <f>_xll.acq_options_bjerksund_price_approx($L23,$C$5,AA$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>5.4849588104806273</v>
+        <f>_xll.acq_options_bjerksund_price_approx(AA$4,$C$5,$U23,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>5.2061828422575331</v>
       </c>
       <c r="AB23">
-        <f>_xll.acq_options_bjerksund_price_approx($L23,$C$5,AB$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>5.9204174173382427</v>
-      </c>
-      <c r="AC23">
-        <f>_xll.acq_options_bjerksund_price_approx($L23,$C$5,AC$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>6.3457173282066464</v>
+        <f>_xll.acq_options_bjerksund_price_approx(AB$4,$C$5,$U23,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>3.4746592085344616</v>
       </c>
       <c r="AD23">
-        <f>_xll.acq_options_bjerksund_price_approx($L23,$C$5,AD$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>6.7609227246478909</v>
-      </c>
-      <c r="AF23" s="44">
-        <v>60</v>
-      </c>
-      <c r="AG23">
-        <f>_xll.acq_options_bjerksund_price_approx($L23,$C$5,AG$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>30</v>
-      </c>
-      <c r="AH23">
-        <f>_xll.acq_options_bjerksund_price_approx($L23,$C$5,AH$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>30</v>
-      </c>
-      <c r="AI23">
-        <f>_xll.acq_options_bjerksund_price_approx($L23,$C$5,AI$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>30</v>
-      </c>
-      <c r="AJ23">
-        <f>_xll.acq_options_bjerksund_price_approx($L23,$C$5,AJ$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>30</v>
-      </c>
-      <c r="AK23">
-        <f>_xll.acq_options_bjerksund_price_approx($L23,$C$5,AK$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>30</v>
-      </c>
-      <c r="AL23">
-        <f>_xll.acq_options_bjerksund_price_approx($L23,$C$5,AL$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>30</v>
-      </c>
-      <c r="AM23">
-        <f>_xll.acq_options_bjerksund_price_approx($L23,$C$5,AM$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>30.069733726605051</v>
-      </c>
-      <c r="AN23">
-        <f>_xll.acq_options_bjerksund_price_approx($L23,$C$5,AN$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>30.210063907000588</v>
-      </c>
-      <c r="AO23">
-        <f>_xll.acq_options_bjerksund_price_approx($L23,$C$5,AO$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>30.358348046311821</v>
-      </c>
-      <c r="AP23">
-        <f>_xll.acq_options_bjerksund_price_approx($L23,$C$5,AP$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>30.510325059077847</v>
-      </c>
-      <c r="AQ23">
-        <f>_xll.acq_options_bjerksund_price_approx($L23,$C$5,AQ$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>30.663139108774313</v>
-      </c>
-      <c r="AR23">
-        <f>_xll.acq_options_bjerksund_price_approx($L23,$C$5,AR$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>30.814899459141436</v>
-      </c>
-      <c r="AS23">
-        <f>_xll.acq_options_bjerksund_price_approx($L23,$C$5,AS$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>30.964366172270772</v>
-      </c>
-      <c r="AT23">
-        <f>_xll.acq_options_bjerksund_price_approx($L23,$C$5,AT$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>31.110738362949274</v>
-      </c>
-      <c r="AU23">
-        <f>_xll.acq_options_bjerksund_price_approx($L23,$C$5,AU$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>31.253513153574715</v>
-      </c>
-      <c r="AV23">
-        <f>_xll.acq_options_bjerksund_price_approx($L23,$C$5,AV$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>31.392391336263419</v>
-      </c>
-      <c r="AW23">
-        <f>_xll.acq_options_bjerksund_price_approx($L23,$C$5,AW$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>31.527213672029884</v>
-      </c>
-      <c r="AX23">
-        <f>_xll.acq_options_bjerksund_price_approx($L23,$C$5,AX$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>31.657917400799175</v>
-      </c>
-    </row>
-    <row r="24" spans="6:50" x14ac:dyDescent="0.25">
-      <c r="L24" s="44">
-        <v>55</v>
+        <v>3.4746600000000001</v>
+      </c>
+      <c r="AE23">
+        <f>AB23-AD23</f>
+        <v>-7.9146553844111622E-7</v>
+      </c>
+    </row>
+    <row r="24" spans="6:35" x14ac:dyDescent="0.25">
+      <c r="L24" s="46">
+        <v>1</v>
       </c>
       <c r="M24">
-        <f>_xll.acq_options_bjerksund_price_approx($L24,$C$5,M$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>1.4210854715202004E-14</v>
+        <f>_xll.acq_options_bjerksund_price_approx(M$4,$C$5,$L24,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>3.2004786488600772</v>
       </c>
       <c r="N24">
-        <f>_xll.acq_options_bjerksund_price_approx($L24,$C$5,N$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>7.1065211963627917E-4</v>
+        <f>_xll.acq_options_bjerksund_price_approx(N$4,$C$5,$L24,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>5.7745896314136331</v>
       </c>
       <c r="O24">
-        <f>_xll.acq_options_bjerksund_price_approx($L24,$C$5,O$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>3.6177115904848733E-2</v>
+        <f>_xll.acq_options_bjerksund_price_approx(O$4,$C$5,$L24,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>9.3863701128630979</v>
       </c>
       <c r="P24">
-        <f>_xll.acq_options_bjerksund_price_approx($L24,$C$5,P$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>0.16276441534573394</v>
+        <f>_xll.acq_options_bjerksund_price_approx(P$4,$C$5,$L24,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>14.052508832531942</v>
       </c>
       <c r="Q24">
-        <f>_xll.acq_options_bjerksund_price_approx($L24,$C$5,Q$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>0.37657587784406132</v>
+        <f>_xll.acq_options_bjerksund_price_approx(Q$4,$C$5,$L24,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>19.708233489832239</v>
       </c>
       <c r="R24">
-        <f>_xll.acq_options_bjerksund_price_approx($L24,$C$5,R$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>0.65387123928692858</v>
+        <f>_xll.acq_options_bjerksund_price_approx(R$4,$C$5,$L24,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>26.234732756665451</v>
       </c>
       <c r="S24">
-        <f>_xll.acq_options_bjerksund_price_approx($L24,$C$5,S$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>0.97391395234539857</v>
-      </c>
-      <c r="T24">
-        <f>_xll.acq_options_bjerksund_price_approx($L24,$C$5,T$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>1.3217331674805024</v>
-      </c>
-      <c r="U24">
-        <f>_xll.acq_options_bjerksund_price_approx($L24,$C$5,U$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>1.6869465620332136</v>
+        <f>_xll.acq_options_bjerksund_price_approx(S$4,$C$5,$L24,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>33.488039891384361</v>
+      </c>
+      <c r="U24" s="46">
+        <v>1</v>
       </c>
       <c r="V24">
-        <f>_xll.acq_options_bjerksund_price_approx($L24,$C$5,V$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>2.0623758143384379</v>
+        <f>_xll.acq_options_bjerksund_price_approx(V$4,$C$5,$U24,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>30.249204819926547</v>
       </c>
       <c r="W24">
-        <f>_xll.acq_options_bjerksund_price_approx($L24,$C$5,W$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>2.4430209585327276</v>
+        <f>_xll.acq_options_bjerksund_price_approx(W$4,$C$5,$U24,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>22.253838391226381</v>
       </c>
       <c r="X24">
-        <f>_xll.acq_options_bjerksund_price_approx($L24,$C$5,X$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>2.8253664144711763</v>
+        <f>_xll.acq_options_bjerksund_price_approx(X$4,$C$5,$U24,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>16.049423418172978</v>
       </c>
       <c r="Y24">
-        <f>_xll.acq_options_bjerksund_price_approx($L24,$C$5,Y$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>3.2069197521809372</v>
+        <f>_xll.acq_options_bjerksund_price_approx(Y$4,$C$5,$U24,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>11.359800416866619</v>
       </c>
       <c r="Z24">
-        <f>_xll.acq_options_bjerksund_price_approx($L24,$C$5,Z$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>3.5859036977248451</v>
+        <f>_xll.acq_options_bjerksund_price_approx(Z$4,$C$5,$U24,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>7.902801148209889</v>
       </c>
       <c r="AA24">
-        <f>_xll.acq_options_bjerksund_price_approx($L24,$C$5,AA$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>3.9610478909659506</v>
+        <f>_xll.acq_options_bjerksund_price_approx(AA$4,$C$5,$U24,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>5.412802895372181</v>
       </c>
       <c r="AB24">
-        <f>_xll.acq_options_bjerksund_price_approx($L24,$C$5,AB$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>4.3314459897438198</v>
-      </c>
-      <c r="AC24">
-        <f>_xll.acq_options_bjerksund_price_approx($L24,$C$5,AC$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>4.6964561360379591</v>
-      </c>
-      <c r="AD24">
-        <f>_xll.acq_options_bjerksund_price_approx($L24,$C$5,AD$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>5.0556306294256856</v>
-      </c>
-      <c r="AF24" s="44">
-        <v>55</v>
-      </c>
-      <c r="AG24">
-        <f>_xll.acq_options_bjerksund_price_approx($L24,$C$5,AG$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>35</v>
-      </c>
-      <c r="AH24">
-        <f>_xll.acq_options_bjerksund_price_approx($L24,$C$5,AH$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>35</v>
-      </c>
-      <c r="AI24">
-        <f>_xll.acq_options_bjerksund_price_approx($L24,$C$5,AI$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>35</v>
-      </c>
-      <c r="AJ24">
-        <f>_xll.acq_options_bjerksund_price_approx($L24,$C$5,AJ$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>35</v>
-      </c>
-      <c r="AK24">
-        <f>_xll.acq_options_bjerksund_price_approx($L24,$C$5,AK$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>35</v>
-      </c>
-      <c r="AL24">
-        <f>_xll.acq_options_bjerksund_price_approx($L24,$C$5,AL$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>35</v>
-      </c>
-      <c r="AM24">
-        <f>_xll.acq_options_bjerksund_price_approx($L24,$C$5,AM$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>35</v>
-      </c>
-      <c r="AN24">
-        <f>_xll.acq_options_bjerksund_price_approx($L24,$C$5,AN$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>35</v>
-      </c>
-      <c r="AO24">
-        <f>_xll.acq_options_bjerksund_price_approx($L24,$C$5,AO$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>35</v>
-      </c>
-      <c r="AP24">
-        <f>_xll.acq_options_bjerksund_price_approx($L24,$C$5,AP$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>35</v>
-      </c>
-      <c r="AQ24">
-        <f>_xll.acq_options_bjerksund_price_approx($L24,$C$5,AQ$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>35</v>
-      </c>
-      <c r="AR24">
-        <f>_xll.acq_options_bjerksund_price_approx($L24,$C$5,AR$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>35.006382786392386</v>
-      </c>
-      <c r="AS24">
-        <f>_xll.acq_options_bjerksund_price_approx($L24,$C$5,AS$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>35.080306342368914</v>
-      </c>
-      <c r="AT24">
-        <f>_xll.acq_options_bjerksund_price_approx($L24,$C$5,AT$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>35.156722326527763</v>
-      </c>
-      <c r="AU24">
-        <f>_xll.acq_options_bjerksund_price_approx($L24,$C$5,AU$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>35.234587291531525</v>
-      </c>
-      <c r="AV24">
-        <f>_xll.acq_options_bjerksund_price_approx($L24,$C$5,AV$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>35.3131035052076</v>
-      </c>
-      <c r="AW24">
-        <f>_xll.acq_options_bjerksund_price_approx($L24,$C$5,AW$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>35.39166316829197</v>
-      </c>
-      <c r="AX24">
-        <f>_xll.acq_options_bjerksund_price_approx($L24,$C$5,AX$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>35.469804758940036</v>
-      </c>
-    </row>
-    <row r="25" spans="6:50" x14ac:dyDescent="0.25">
-      <c r="L25" s="44">
+        <f>_xll.acq_options_bjerksund_price_approx(AB$4,$C$5,$U24,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>3.6564557766512564</v>
+      </c>
+    </row>
+    <row r="26" spans="6:35" x14ac:dyDescent="0.25">
+      <c r="V26" s="47"/>
+      <c r="W26" s="47"/>
+      <c r="X26" s="47"/>
+      <c r="Y26" s="47"/>
+    </row>
+    <row r="27" spans="6:35" x14ac:dyDescent="0.25">
+      <c r="V27" s="47"/>
+      <c r="W27" s="47"/>
+      <c r="X27" s="47"/>
+      <c r="Y27" s="47"/>
+      <c r="Z27" s="47"/>
+    </row>
+    <row r="28" spans="6:35" x14ac:dyDescent="0.25">
+      <c r="V28" s="47"/>
+      <c r="W28" s="47"/>
+      <c r="X28" s="47"/>
+      <c r="Y28" s="47"/>
+      <c r="Z28" s="47"/>
+    </row>
+    <row r="29" spans="6:35" x14ac:dyDescent="0.25">
+      <c r="V29" s="47"/>
+      <c r="W29" s="47"/>
+      <c r="X29" s="47"/>
+      <c r="Y29" s="47"/>
+      <c r="Z29" s="47"/>
+    </row>
+    <row r="30" spans="6:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G30" s="48" t="s">
+        <v>145</v>
+      </c>
+      <c r="H30" s="48"/>
+      <c r="I30" s="48"/>
+      <c r="J30" s="48"/>
+      <c r="K30" s="48"/>
+      <c r="L30" s="48"/>
+      <c r="M30" s="48"/>
+      <c r="N30" s="48"/>
+      <c r="S30" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="T30" s="48"/>
+      <c r="U30" s="48"/>
+      <c r="V30" s="48"/>
+      <c r="W30" s="48"/>
+      <c r="X30" s="48"/>
+      <c r="Y30" s="48"/>
+      <c r="Z30" s="48"/>
+      <c r="AC30" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="31" spans="6:35" x14ac:dyDescent="0.25">
+      <c r="F31" t="s">
+        <v>125</v>
+      </c>
+      <c r="G31" t="s">
+        <v>99</v>
+      </c>
+      <c r="H31" t="s">
+        <v>100</v>
+      </c>
+      <c r="I31" t="s">
+        <v>101</v>
+      </c>
+      <c r="J31" t="s">
+        <v>102</v>
+      </c>
+      <c r="K31" t="s">
+        <v>103</v>
+      </c>
+      <c r="L31" t="s">
+        <v>104</v>
+      </c>
+      <c r="M31" t="s">
+        <v>105</v>
+      </c>
+      <c r="N31" t="s">
+        <v>106</v>
+      </c>
+      <c r="R31" t="s">
+        <v>125</v>
+      </c>
+      <c r="S31" t="s">
+        <v>99</v>
+      </c>
+      <c r="T31" t="s">
+        <v>100</v>
+      </c>
+      <c r="U31" t="s">
+        <v>101</v>
+      </c>
+      <c r="V31" t="s">
+        <v>102</v>
+      </c>
+      <c r="W31" t="s">
+        <v>103</v>
+      </c>
+      <c r="X31" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="32" spans="6:35" x14ac:dyDescent="0.25">
+      <c r="F32" s="13">
+        <v>100</v>
+      </c>
+      <c r="G32">
+        <f>_xll.acq_options_bjerksund_greeks(G$31,$F32,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>3.2636854255143088</v>
+      </c>
+      <c r="H32">
+        <f>_xll.acq_options_bjerksund_greeks(H$31,$F32,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0.17541526927900009</v>
+      </c>
+      <c r="I32">
+        <f>_xll.acq_options_bjerksund_greeks(I$31,$F32,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>6.1639582327188691E-3</v>
+      </c>
+      <c r="J32">
+        <f>_xll.acq_options_bjerksund_greeks(J$31,$F32,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>38.532113576183825</v>
+      </c>
+      <c r="K32">
+        <f>_xll.acq_options_bjerksund_greeks(K$31,$F32,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>156.14909596450843</v>
+      </c>
+      <c r="L32">
+        <f>_xll.acq_options_bjerksund_greeks(L$31,$F32,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>1.1925599174844592</v>
+      </c>
+      <c r="M32">
+        <f>_xll.acq_options_bjerksund_greeks(M$31,$F32,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>35.656088692297416</v>
+      </c>
+      <c r="N32">
+        <f>_xll.acq_options_bjerksund_greeks(N$31,$F32,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>-1.7307953841516621</v>
+      </c>
+      <c r="R32" s="13">
+        <v>100</v>
+      </c>
+      <c r="S32">
+        <f>_xll.acq_options_blackscholes_greeks(S$31,$F32,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>46.29908424676718</v>
+      </c>
+      <c r="T32">
+        <f>_xll.acq_options_blackscholes_greeks(T$31,$F32,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0.17541526934222221</v>
+      </c>
+      <c r="U32">
+        <f>_xll.acq_options_blackscholes_greeks(U$31,$F32,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>6.1651385288094013E-3</v>
+      </c>
+      <c r="V32">
+        <f>_xll.acq_options_blackscholes_greeks(V$31,$F32,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>38.532115805058758</v>
+      </c>
+      <c r="W32">
+        <f>_xll.acq_options_blackscholes_greeks(W$31,$F32,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>156.14908813078776</v>
+      </c>
+      <c r="X32">
+        <f>_xll.acq_options_blackscholes_greeks(X$31,$F32,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>1.1925600030594994</v>
+      </c>
+      <c r="Y32">
+        <f>_xll.acq_options_blackscholes_greeks(Y$31,$F32,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>35.694603771769785</v>
+      </c>
+      <c r="Z32">
+        <f>_xll.acq_options_blackscholes_greeks(Z$31,$F32,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>-1.7307846647220793</v>
+      </c>
+      <c r="AB32">
+        <f>G32-S32</f>
+        <v>-43.035398821252869</v>
+      </c>
+      <c r="AC32">
+        <f t="shared" ref="AC32:AI42" si="0">H32-T32</f>
+        <v>-6.3222121982065005E-11</v>
+      </c>
+      <c r="AD32">
+        <f t="shared" si="0"/>
+        <v>-1.1802960905322318E-6</v>
+      </c>
+      <c r="AE32">
+        <f t="shared" si="0"/>
+        <v>-2.2288749335075408E-6</v>
+      </c>
+      <c r="AF32">
+        <f t="shared" si="0"/>
+        <v>7.8337206730338949E-6</v>
+      </c>
+      <c r="AG32">
+        <f t="shared" si="0"/>
+        <v>-8.5575040165153382E-8</v>
+      </c>
+      <c r="AH32">
+        <f t="shared" si="0"/>
+        <v>-3.8515079472368541E-2</v>
+      </c>
+      <c r="AI32">
+        <f t="shared" si="0"/>
+        <v>-1.071942958286165E-5</v>
+      </c>
+    </row>
+    <row r="33" spans="6:35" x14ac:dyDescent="0.25">
+      <c r="F33" s="13">
+        <v>110</v>
+      </c>
+      <c r="G33">
+        <f>_xll.acq_options_bjerksund_greeks(G$31,$F33,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>5.3357296360768061</v>
+      </c>
+      <c r="H33">
+        <f>_xll.acq_options_bjerksund_greeks(H$31,$F33,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0.23979644236504782</v>
+      </c>
+      <c r="I33">
+        <f>_xll.acq_options_bjerksund_greeks(I$31,$F33,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>6.6478378357714973E-3</v>
+      </c>
+      <c r="J33">
+        <f>_xll.acq_options_bjerksund_greeks(J$31,$F33,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>50.269871257656568</v>
+      </c>
+      <c r="K33">
+        <f>_xll.acq_options_bjerksund_greeks(K$31,$F33,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>115.94092050870586</v>
+      </c>
+      <c r="L33">
+        <f>_xll.acq_options_bjerksund_greeks(L$31,$F33,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>1.1356379836513497</v>
+      </c>
+      <c r="M33">
+        <f>_xll.acq_options_bjerksund_greeks(M$31,$F33,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>52.554444882328966</v>
+      </c>
+      <c r="N33">
+        <f>_xll.acq_options_bjerksund_greeks(N$31,$F33,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>-2.1933746518243424</v>
+      </c>
+      <c r="R33" s="13">
+        <v>110</v>
+      </c>
+      <c r="S33">
+        <f>_xll.acq_options_blackscholes_greeks(S$31,$F33,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>5.3357296360768061</v>
+      </c>
+      <c r="T33">
+        <f>_xll.acq_options_blackscholes_greeks(T$31,$F33,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0.23979644241728901</v>
+      </c>
+      <c r="U33">
+        <f>_xll.acq_options_blackscholes_greeks(U$31,$F33,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>6.6472559788822673E-3</v>
+      </c>
+      <c r="V33">
+        <f>_xll.acq_options_blackscholes_greeks(V$31,$F33,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>50.269873340297138</v>
+      </c>
+      <c r="W33">
+        <f>_xll.acq_options_blackscholes_greeks(W$31,$F33,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>115.94090950324943</v>
+      </c>
+      <c r="X33">
+        <f>_xll.acq_options_blackscholes_greeks(X$31,$F33,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>1.1356382729549774</v>
+      </c>
+      <c r="Y33">
+        <f>_xll.acq_options_blackscholes_greeks(Y$31,$F33,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>52.604697574562458</v>
+      </c>
+      <c r="Z33">
+        <f>_xll.acq_options_blackscholes_greeks(Z$31,$F33,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>-2.1933498888502481</v>
+      </c>
+      <c r="AB33">
+        <f t="shared" ref="AB33:AB42" si="1">G33-S33</f>
+        <v>0</v>
+      </c>
+      <c r="AC33">
+        <f t="shared" ref="AC33:AC42" si="2">H33-T33</f>
+        <v>-5.2241183601253738E-11</v>
+      </c>
+      <c r="AD33">
+        <f t="shared" ref="AD33:AD42" si="3">I33-U33</f>
+        <v>5.8185688923007711E-7</v>
+      </c>
+      <c r="AE33">
+        <f t="shared" ref="AE33:AE42" si="4">J33-V33</f>
+        <v>-2.0826405702223383E-6</v>
+      </c>
+      <c r="AF33">
+        <f t="shared" ref="AF33:AF42" si="5">K33-W33</f>
+        <v>1.1005456428847538E-5</v>
+      </c>
+      <c r="AG33">
+        <f t="shared" ref="AG33:AG42" si="6">L33-X33</f>
+        <v>-2.8930362772072726E-7</v>
+      </c>
+      <c r="AH33">
+        <f t="shared" ref="AH33:AH42" si="7">M33-Y33</f>
+        <v>-5.0252692233492269E-2</v>
+      </c>
+      <c r="AI33">
+        <f t="shared" si="0"/>
+        <v>-2.4762974094372225E-5</v>
+      </c>
+    </row>
+    <row r="34" spans="6:35" x14ac:dyDescent="0.25">
+      <c r="F34" s="13">
+        <v>120</v>
+      </c>
+      <c r="G34">
+        <f>_xll.acq_options_bjerksund_greeks(G$31,$F34,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>8.0694676224533275</v>
+      </c>
+      <c r="H34">
+        <f>_xll.acq_options_bjerksund_greeks(H$31,$F34,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0.30715015673976609</v>
+      </c>
+      <c r="I34">
+        <f>_xll.acq_options_bjerksund_greeks(I$31,$F34,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>6.7668537440113141E-3</v>
+      </c>
+      <c r="J34">
+        <f>_xll.acq_options_bjerksund_greeks(J$31,$F34,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>60.910241782383736</v>
+      </c>
+      <c r="K34">
+        <f>_xll.acq_options_bjerksund_greeks(K$31,$F34,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>68.125187979717339</v>
+      </c>
+      <c r="L34">
+        <f>_xll.acq_options_bjerksund_greeks(L$31,$F34,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0.97868468884598769</v>
+      </c>
+      <c r="M34">
+        <f>_xll.acq_options_bjerksund_greeks(M$31,$F34,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>71.910482979671286</v>
+      </c>
+      <c r="N34">
+        <f>_xll.acq_options_bjerksund_greeks(N$31,$F34,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>-2.5613828668369365</v>
+      </c>
+      <c r="R34" s="13">
+        <v>120</v>
+      </c>
+      <c r="S34">
+        <f>_xll.acq_options_blackscholes_greeks(S$31,$F34,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>8.0694676224533275</v>
+      </c>
+      <c r="T34">
+        <f>_xll.acq_options_blackscholes_greeks(T$31,$F34,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0.30715015675424467</v>
+      </c>
+      <c r="U34">
+        <f>_xll.acq_options_blackscholes_greeks(U$31,$F34,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>6.7678048079652378E-3</v>
+      </c>
+      <c r="V34">
+        <f>_xll.acq_options_blackscholes_greeks(V$31,$F34,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>60.91024327168715</v>
+      </c>
+      <c r="W34">
+        <f>_xll.acq_options_blackscholes_greeks(W$31,$F34,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>68.125179693630088</v>
+      </c>
+      <c r="X34">
+        <f>_xll.acq_options_blackscholes_greeks(X$31,$F34,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0.97868484003505463</v>
+      </c>
+      <c r="Y34">
+        <f>_xll.acq_options_blackscholes_greeks(Y$31,$F34,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>71.971377970140097</v>
+      </c>
+      <c r="Z34">
+        <f>_xll.acq_options_blackscholes_greeks(Z$31,$F34,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>-2.5613441062371574</v>
+      </c>
+      <c r="AB34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC34">
+        <f t="shared" si="2"/>
+        <v>-1.447858499759036E-11</v>
+      </c>
+      <c r="AD34">
+        <f t="shared" si="3"/>
+        <v>-9.5106395392365733E-7</v>
+      </c>
+      <c r="AE34">
+        <f t="shared" si="4"/>
+        <v>-1.4893034148144579E-6</v>
+      </c>
+      <c r="AF34">
+        <f t="shared" si="5"/>
+        <v>8.2860872510082118E-6</v>
+      </c>
+      <c r="AG34">
+        <f t="shared" si="6"/>
+        <v>-1.5118906693256662E-7</v>
+      </c>
+      <c r="AH34">
+        <f t="shared" si="7"/>
+        <v>-6.0894990468810306E-2</v>
+      </c>
+      <c r="AI34">
+        <f t="shared" si="0"/>
+        <v>-3.8760599779141813E-5</v>
+      </c>
+    </row>
+    <row r="35" spans="6:35" x14ac:dyDescent="0.25">
+      <c r="F35" s="13">
+        <v>130</v>
+      </c>
+      <c r="G35">
+        <f>_xll.acq_options_bjerksund_greeks(G$31,$F35,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>11.477513762412599</v>
+      </c>
+      <c r="H35">
+        <f>_xll.acq_options_bjerksund_greeks(H$31,$F35,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0.37416443724680448</v>
+      </c>
+      <c r="I35">
+        <f>_xll.acq_options_bjerksund_greeks(I$31,$F35,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>6.5938365878537297E-3</v>
+      </c>
+      <c r="J35">
+        <f>_xll.acq_options_bjerksund_greeks(J$31,$F35,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>69.632493502681427</v>
+      </c>
+      <c r="K35">
+        <f>_xll.acq_options_bjerksund_greeks(K$31,$F35,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>25.623580057754225</v>
+      </c>
+      <c r="L35">
+        <f>_xll.acq_options_bjerksund_greeks(L$31,$F35,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0.75837629509578619</v>
+      </c>
+      <c r="M35">
+        <f>_xll.acq_options_bjerksund_greeks(M$31,$F35,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>92.840036806656201</v>
+      </c>
+      <c r="N35">
+        <f>_xll.acq_options_bjerksund_greeks(N$31,$F35,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>-2.7930243266638399</v>
+      </c>
+      <c r="R35" s="13">
+        <v>130</v>
+      </c>
+      <c r="S35">
+        <f>_xll.acq_options_blackscholes_greeks(S$31,$F35,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>11.477513762412599</v>
+      </c>
+      <c r="T35">
+        <f>_xll.acq_options_blackscholes_greeks(T$31,$F35,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0.3741644372389949</v>
+      </c>
+      <c r="U35">
+        <f>_xll.acq_options_blackscholes_greeks(U$31,$F35,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>6.5924254948707267E-3</v>
+      </c>
+      <c r="V35">
+        <f>_xll.acq_options_blackscholes_greeks(V$31,$F35,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>69.632494289572065</v>
+      </c>
+      <c r="W35">
+        <f>_xll.acq_options_blackscholes_greeks(W$31,$F35,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>25.62357394681667</v>
+      </c>
+      <c r="X35">
+        <f>_xll.acq_options_blackscholes_greeks(X$31,$F35,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0.75837574370535099</v>
+      </c>
+      <c r="Y35">
+        <f>_xll.acq_options_blackscholes_greeks(Y$31,$F35,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>92.909657696641844</v>
+      </c>
+      <c r="Z35">
+        <f>_xll.acq_options_blackscholes_greeks(Z$31,$F35,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>-2.7929738887338473</v>
+      </c>
+      <c r="AB35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC35">
+        <f t="shared" si="2"/>
+        <v>7.8095863109695074E-12</v>
+      </c>
+      <c r="AD35">
+        <f t="shared" si="3"/>
+        <v>1.411092983003015E-6</v>
+      </c>
+      <c r="AE35">
+        <f t="shared" si="4"/>
+        <v>-7.8689063798265124E-7</v>
+      </c>
+      <c r="AF35">
+        <f t="shared" si="5"/>
+        <v>6.1109375550927325E-6</v>
+      </c>
+      <c r="AG35">
+        <f t="shared" si="6"/>
+        <v>5.5139043519947251E-7</v>
+      </c>
+      <c r="AH35">
+        <f t="shared" si="7"/>
+        <v>-6.9620889985642975E-2</v>
+      </c>
+      <c r="AI35">
+        <f t="shared" si="0"/>
+        <v>-5.0437929992597219E-5</v>
+      </c>
+    </row>
+    <row r="36" spans="6:35" x14ac:dyDescent="0.25">
+      <c r="F36" s="13">
+        <v>140</v>
+      </c>
+      <c r="G36">
+        <f>_xll.acq_options_bjerksund_greeks(G$31,$F36,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>15.543021627094788</v>
+      </c>
+      <c r="H36">
+        <f>_xll.acq_options_bjerksund_greeks(H$31,$F36,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0.43828610799323542</v>
+      </c>
+      <c r="I36">
+        <f>_xll.acq_options_bjerksund_greeks(I$31,$F36,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>6.2030380831856746E-3</v>
+      </c>
+      <c r="J36">
+        <f>_xll.acq_options_bjerksund_greeks(J$31,$F36,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>75.988528294290191</v>
+      </c>
+      <c r="K36">
+        <f>_xll.acq_options_bjerksund_greeks(K$31,$F36,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>-2.6135147379591217</v>
+      </c>
+      <c r="L36">
+        <f>_xll.acq_options_bjerksund_greeks(L$31,$F36,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0.51105253362493386</v>
+      </c>
+      <c r="M36">
+        <f>_xll.acq_options_bjerksund_greeks(M$31,$F36,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>114.46660199482039</v>
+      </c>
+      <c r="N36">
+        <f>_xll.acq_options_bjerksund_greeks(N$31,$F36,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>-2.8669034510642177</v>
+      </c>
+      <c r="R36" s="13">
+        <v>140</v>
+      </c>
+      <c r="S36">
+        <f>_xll.acq_options_blackscholes_greeks(S$31,$F36,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>15.543021627094788</v>
+      </c>
+      <c r="T36">
+        <f>_xll.acq_options_blackscholes_greeks(T$31,$F36,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0.43828610798973633</v>
+      </c>
+      <c r="U36">
+        <f>_xll.acq_options_blackscholes_greeks(U$31,$F36,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>6.2031451884485686E-3</v>
+      </c>
+      <c r="V36">
+        <f>_xll.acq_options_blackscholes_greeks(V$31,$F36,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>75.988528558494963</v>
+      </c>
+      <c r="W36">
+        <f>_xll.acq_options_blackscholes_greeks(W$31,$F36,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>-2.6135177115936088</v>
+      </c>
+      <c r="X36">
+        <f>_xll.acq_options_blackscholes_greeks(X$31,$F36,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0.51105236932348352</v>
+      </c>
+      <c r="Y36">
+        <f>_xll.acq_options_blackscholes_greeks(Y$31,$F36,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>114.54258372867073</v>
+      </c>
+      <c r="Z36">
+        <f>_xll.acq_options_blackscholes_greeks(Z$31,$F36,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>-2.8668451302990605</v>
+      </c>
+      <c r="AB36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC36">
+        <f t="shared" si="2"/>
+        <v>3.4990899067111059E-12</v>
+      </c>
+      <c r="AD36">
+        <f t="shared" si="3"/>
+        <v>-1.071052628939459E-7</v>
+      </c>
+      <c r="AE36">
+        <f t="shared" si="4"/>
+        <v>-2.6420477183819457E-7</v>
+      </c>
+      <c r="AF36">
+        <f t="shared" si="5"/>
+        <v>2.9736344870912035E-6</v>
+      </c>
+      <c r="AG36">
+        <f t="shared" si="6"/>
+        <v>1.6430145033385912E-7</v>
+      </c>
+      <c r="AH36">
+        <f t="shared" si="7"/>
+        <v>-7.5981733850341016E-2</v>
+      </c>
+      <c r="AI36">
+        <f t="shared" si="0"/>
+        <v>-5.8320765157215959E-5</v>
+      </c>
+    </row>
+    <row r="37" spans="6:35" x14ac:dyDescent="0.25">
+      <c r="F37" s="13">
+        <v>150</v>
+      </c>
+      <c r="G37">
+        <f>_xll.acq_options_bjerksund_greeks(G$31,$F37,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>20.227726902988501</v>
+      </c>
+      <c r="H37">
+        <f>_xll.acq_options_bjerksund_greeks(H$31,$F37,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0.49777974464149111</v>
+      </c>
+      <c r="I37">
+        <f>_xll.acq_options_bjerksund_greeks(I$31,$F37,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>5.680789172402001E-3</v>
+      </c>
+      <c r="J37">
+        <f>_xll.acq_options_bjerksund_greeks(J$31,$F37,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>79.862856978154454</v>
+      </c>
+      <c r="K37">
+        <f>_xll.acq_options_bjerksund_greeks(K$31,$F37,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>-12.478572131158217</v>
+      </c>
+      <c r="L37">
+        <f>_xll.acq_options_bjerksund_greeks(L$31,$F37,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0.26620927684462004</v>
+      </c>
+      <c r="M37">
+        <f>_xll.acq_options_bjerksund_greeks(M$31,$F37,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>136.01822552182341</v>
+      </c>
+      <c r="N37">
+        <f>_xll.acq_options_bjerksund_greeks(N$31,$F37,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>-2.7795410490227823</v>
+      </c>
+      <c r="R37" s="13">
+        <v>150</v>
+      </c>
+      <c r="S37">
+        <f>_xll.acq_options_blackscholes_greeks(S$31,$F37,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>20.227726902988501</v>
+      </c>
+      <c r="T37">
+        <f>_xll.acq_options_blackscholes_greeks(T$31,$F37,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0.49777974455582391</v>
+      </c>
+      <c r="U37">
+        <f>_xll.acq_options_blackscholes_greeks(U$31,$F37,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>5.6791365019068672E-3</v>
+      </c>
+      <c r="V37">
+        <f>_xll.acq_options_blackscholes_greeks(V$31,$F37,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>79.86285705806533</v>
+      </c>
+      <c r="W37">
+        <f>_xll.acq_options_blackscholes_greeks(W$31,$F37,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>-12.478571415322708</v>
+      </c>
+      <c r="X37">
+        <f>_xll.acq_options_blackscholes_greeks(X$31,$F37,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0.26620952352688443</v>
+      </c>
+      <c r="Y37">
+        <f>_xll.acq_options_blackscholes_greeks(Y$31,$F37,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>136.09808695096271</v>
+      </c>
+      <c r="Z37">
+        <f>_xll.acq_options_blackscholes_greeks(Z$31,$F37,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>-2.7794792387239546</v>
+      </c>
+      <c r="AB37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC37">
+        <f t="shared" si="2"/>
+        <v>8.5667195559580023E-11</v>
+      </c>
+      <c r="AD37">
+        <f t="shared" si="3"/>
+        <v>1.652670495133797E-6</v>
+      </c>
+      <c r="AE37">
+        <f t="shared" si="4"/>
+        <v>-7.9910876138455933E-8</v>
+      </c>
+      <c r="AF37">
+        <f t="shared" si="5"/>
+        <v>-7.1583550820264463E-7</v>
+      </c>
+      <c r="AG37">
+        <f t="shared" si="6"/>
+        <v>-2.4668226439317209E-7</v>
+      </c>
+      <c r="AH37">
+        <f t="shared" si="7"/>
+        <v>-7.9861429139299389E-2</v>
+      </c>
+      <c r="AI37">
+        <f t="shared" si="0"/>
+        <v>-6.1810298827680299E-5</v>
+      </c>
+    </row>
+    <row r="38" spans="6:35" x14ac:dyDescent="0.25">
+      <c r="F38" s="13">
+        <v>160</v>
+      </c>
+      <c r="G38">
+        <f>_xll.acq_options_bjerksund_greeks(G$31,$F38,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>25.479783849233741</v>
+      </c>
+      <c r="H38">
+        <f>_xll.acq_options_bjerksund_greeks(H$31,$F38,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0.55164313309319368</v>
+      </c>
+      <c r="I38">
+        <f>_xll.acq_options_bjerksund_greeks(I$31,$F38,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>5.0874859880423173E-3</v>
+      </c>
+      <c r="J38">
+        <f>_xll.acq_options_bjerksund_greeks(J$31,$F38,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>81.389919636736337</v>
+      </c>
+      <c r="K38">
+        <f>_xll.acq_options_bjerksund_greeks(K$31,$F38,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>-4.0385963018252369</v>
+      </c>
+      <c r="L38">
+        <f>_xll.acq_options_bjerksund_greeks(L$31,$F38,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>4.4231462936750177E-2</v>
+      </c>
+      <c r="M38">
+        <f>_xll.acq_options_bjerksund_greeks(M$31,$F38,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>156.87639973791079</v>
+      </c>
+      <c r="N38">
+        <f>_xll.acq_options_bjerksund_greeks(N$31,$F38,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>-2.5407699952495477</v>
+      </c>
+      <c r="R38" s="13">
+        <v>160</v>
+      </c>
+      <c r="S38">
+        <f>_xll.acq_options_blackscholes_greeks(S$31,$F38,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>25.479783849233741</v>
+      </c>
+      <c r="T38">
+        <f>_xll.acq_options_blackscholes_greeks(T$31,$F38,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0.55164313309694135</v>
+      </c>
+      <c r="U38">
+        <f>_xll.acq_options_blackscholes_greeks(U$31,$F38,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>5.0868699934212263E-3</v>
+      </c>
+      <c r="V38">
+        <f>_xll.acq_options_blackscholes_greeks(V$31,$F38,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>81.389919894739634</v>
+      </c>
+      <c r="W38">
+        <f>_xll.acq_options_blackscholes_greeks(W$31,$F38,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>-4.0385962960226589</v>
+      </c>
+      <c r="X38">
+        <f>_xll.acq_options_blackscholes_greeks(X$31,$F38,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>4.4232097050586193E-2</v>
+      </c>
+      <c r="Y38">
+        <f>_xll.acq_options_blackscholes_greeks(Y$31,$F38,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>156.9577936156922</v>
+      </c>
+      <c r="Z38">
+        <f>_xll.acq_options_blackscholes_greeks(Z$31,$F38,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>-2.5407089637829561</v>
+      </c>
+      <c r="AB38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC38">
+        <f t="shared" si="2"/>
+        <v>-3.7476688419246784E-12</v>
+      </c>
+      <c r="AD38">
+        <f t="shared" si="3"/>
+        <v>6.1599462109103442E-7</v>
+      </c>
+      <c r="AE38">
+        <f t="shared" si="4"/>
+        <v>-2.5800329694902757E-7</v>
+      </c>
+      <c r="AF38">
+        <f t="shared" si="5"/>
+        <v>-5.8025779736681216E-9</v>
+      </c>
+      <c r="AG38">
+        <f t="shared" si="6"/>
+        <v>-6.3411383601635896E-7</v>
+      </c>
+      <c r="AH38">
+        <f t="shared" si="7"/>
+        <v>-8.1393877781408719E-2</v>
+      </c>
+      <c r="AI38">
+        <f t="shared" si="0"/>
+        <v>-6.103146659164338E-5</v>
+      </c>
+    </row>
+    <row r="39" spans="6:35" x14ac:dyDescent="0.25">
+      <c r="F39" s="13">
+        <v>170</v>
+      </c>
+      <c r="G39">
+        <f>_xll.acq_options_bjerksund_greeks(G$31,$F39,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>31.240386486968163</v>
+      </c>
+      <c r="H39">
+        <f>_xll.acq_options_bjerksund_greeks(H$31,$F39,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0.5994597565006643</v>
+      </c>
+      <c r="I39">
+        <f>_xll.acq_options_bjerksund_greeks(I$31,$F39,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>4.4735770643455908E-3</v>
+      </c>
+      <c r="J39">
+        <f>_xll.acq_options_bjerksund_greeks(J$31,$F39,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>80.863442736083286</v>
+      </c>
+      <c r="K39">
+        <f>_xll.acq_options_bjerksund_greeks(K$31,$F39,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>19.79495323212177</v>
+      </c>
+      <c r="L39">
+        <f>_xll.acq_options_bjerksund_greeks(L$31,$F39,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>-0.14319709862320451</v>
+      </c>
+      <c r="M39">
+        <f>_xll.acq_options_bjerksund_greeks(M$31,$F39,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>176.5885578844717</v>
+      </c>
+      <c r="N39">
+        <f>_xll.acq_options_bjerksund_greeks(N$31,$F39,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>-2.1688055781510229</v>
+      </c>
+      <c r="R39" s="13">
+        <v>170</v>
+      </c>
+      <c r="S39">
+        <f>_xll.acq_options_blackscholes_greeks(S$31,$F39,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>31.240386486968163</v>
+      </c>
+      <c r="T39">
+        <f>_xll.acq_options_blackscholes_greeks(T$31,$F39,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0.59945975645114769</v>
+      </c>
+      <c r="U39">
+        <f>_xll.acq_options_blackscholes_greeks(U$31,$F39,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>4.4768688421219201E-3</v>
+      </c>
+      <c r="V39">
+        <f>_xll.acq_options_blackscholes_greeks(V$31,$F39,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>80.863443460827213</v>
+      </c>
+      <c r="W39">
+        <f>_xll.acq_options_blackscholes_greeks(W$31,$F39,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>19.794950167327933</v>
+      </c>
+      <c r="X39">
+        <f>_xll.acq_options_blackscholes_greeks(X$31,$F39,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>-0.14319684567580498</v>
+      </c>
+      <c r="Y39">
+        <f>_xll.acq_options_blackscholes_greeks(Y$31,$F39,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>176.66943027431739</v>
+      </c>
+      <c r="Z39">
+        <f>_xll.acq_options_blackscholes_greeks(Z$31,$F39,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>-2.1687489838232725</v>
+      </c>
+      <c r="AB39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC39">
+        <f t="shared" si="2"/>
+        <v>4.9516613032096757E-11</v>
+      </c>
+      <c r="AD39">
+        <f t="shared" si="3"/>
+        <v>-3.2917777763293368E-6</v>
+      </c>
+      <c r="AE39">
+        <f t="shared" si="4"/>
+        <v>-7.2474392709409585E-7</v>
+      </c>
+      <c r="AF39">
+        <f t="shared" si="5"/>
+        <v>3.0647938373817851E-6</v>
+      </c>
+      <c r="AG39">
+        <f t="shared" si="6"/>
+        <v>-2.5294739952608225E-7</v>
+      </c>
+      <c r="AH39">
+        <f t="shared" si="7"/>
+        <v>-8.087238984569467E-2</v>
+      </c>
+      <c r="AI39">
+        <f t="shared" si="0"/>
+        <v>-5.6594327750403295E-5</v>
+      </c>
+    </row>
+    <row r="40" spans="6:35" x14ac:dyDescent="0.25">
+      <c r="F40" s="13">
+        <v>180</v>
+      </c>
+      <c r="G40">
+        <f>_xll.acq_options_bjerksund_greeks(G$31,$F40,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>37.448826769677652</v>
+      </c>
+      <c r="H40">
+        <f>_xll.acq_options_bjerksund_greeks(H$31,$F40,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0.64124009220734024</v>
+      </c>
+      <c r="I40">
+        <f>_xll.acq_options_bjerksund_greeks(I$31,$F40,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>3.8838265936647076E-3</v>
+      </c>
+      <c r="J40">
+        <f>_xll.acq_options_bjerksund_greeks(J$31,$F40,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>78.657261950931598</v>
+      </c>
+      <c r="K40">
+        <f>_xll.acq_options_bjerksund_greeks(K$31,$F40,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>54.645056479785126</v>
+      </c>
+      <c r="L40">
+        <f>_xll.acq_options_bjerksund_greeks(L$31,$F40,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>-0.29140636570446077</v>
+      </c>
+      <c r="M40">
+        <f>_xll.acq_options_bjerksund_greeks(M$31,$F40,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>194.85730404177559</v>
+      </c>
+      <c r="N40">
+        <f>_xll.acq_options_bjerksund_greeks(N$31,$F40,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>-1.6859829145232652</v>
+      </c>
+      <c r="R40" s="13">
+        <v>180</v>
+      </c>
+      <c r="S40">
+        <f>_xll.acq_options_blackscholes_greeks(S$31,$F40,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>37.448826769677652</v>
+      </c>
+      <c r="T40">
+        <f>_xll.acq_options_blackscholes_greeks(T$31,$F40,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0.64124009219541911</v>
+      </c>
+      <c r="U40">
+        <f>_xll.acq_options_blackscholes_greeks(U$31,$F40,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>3.8843092991744498E-3</v>
+      </c>
+      <c r="V40">
+        <f>_xll.acq_options_blackscholes_greeks(V$31,$F40,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>78.657263308282623</v>
+      </c>
+      <c r="W40">
+        <f>_xll.acq_options_blackscholes_greeks(W$31,$F40,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>54.645044691036254</v>
+      </c>
+      <c r="X40">
+        <f>_xll.acq_options_blackscholes_greeks(X$31,$F40,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>-0.29140679123763585</v>
+      </c>
+      <c r="Y40">
+        <f>_xll.acq_options_blackscholes_greeks(Y$31,$F40,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>194.93597456374454</v>
+      </c>
+      <c r="Z40">
+        <f>_xll.acq_options_blackscholes_greeks(Z$31,$F40,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>-1.6859335592334741</v>
+      </c>
+      <c r="AB40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC40">
+        <f t="shared" si="2"/>
+        <v>1.1921130749215081E-11</v>
+      </c>
+      <c r="AD40">
+        <f t="shared" si="3"/>
+        <v>-4.8270550974220672E-7</v>
+      </c>
+      <c r="AE40">
+        <f t="shared" si="4"/>
+        <v>-1.3573510244668796E-6</v>
+      </c>
+      <c r="AF40">
+        <f t="shared" si="5"/>
+        <v>1.1788748871310872E-5</v>
+      </c>
+      <c r="AG40">
+        <f t="shared" si="6"/>
+        <v>4.2553317508575716E-7</v>
+      </c>
+      <c r="AH40">
+        <f t="shared" si="7"/>
+        <v>-7.8670521968945195E-2</v>
+      </c>
+      <c r="AI40">
+        <f t="shared" si="0"/>
+        <v>-4.9355289791108703E-5</v>
+      </c>
+    </row>
+    <row r="41" spans="6:35" x14ac:dyDescent="0.25">
+      <c r="F41" s="13">
+        <v>190</v>
+      </c>
+      <c r="G41">
+        <f>_xll.acq_options_bjerksund_greeks(G$31,$F41,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>44.046032792087559</v>
+      </c>
+      <c r="H41">
+        <f>_xll.acq_options_bjerksund_greeks(H$31,$F41,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0.6772793124554255</v>
+      </c>
+      <c r="I41">
+        <f>_xll.acq_options_bjerksund_greeks(I$31,$F41,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>3.3352876016579103E-3</v>
+      </c>
+      <c r="J41">
+        <f>_xll.acq_options_bjerksund_greeks(J$31,$F41,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>75.165349350507185</v>
+      </c>
+      <c r="K41">
+        <f>_xll.acq_options_bjerksund_greeks(K$31,$F41,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>95.780904985076631</v>
+      </c>
+      <c r="L41">
+        <f>_xll.acq_options_bjerksund_greeks(L$31,$F41,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>-0.4007052467613903</v>
+      </c>
+      <c r="M41">
+        <f>_xll.acq_options_bjerksund_greeks(M$31,$F41,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>211.51740933184726</v>
+      </c>
+      <c r="N41">
+        <f>_xll.acq_options_bjerksund_greeks(N$31,$F41,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>-1.1155458332723356</v>
+      </c>
+      <c r="R41" s="13">
+        <v>190</v>
+      </c>
+      <c r="S41">
+        <f>_xll.acq_options_blackscholes_greeks(S$31,$F41,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>44.046032792087559</v>
+      </c>
+      <c r="T41">
+        <f>_xll.acq_options_blackscholes_greeks(T$31,$F41,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0.6772793124339278</v>
+      </c>
+      <c r="U41">
+        <f>_xll.acq_options_blackscholes_greeks(U$31,$F41,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>3.3314283158335785E-3</v>
+      </c>
+      <c r="V41">
+        <f>_xll.acq_options_blackscholes_greeks(V$31,$F41,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>75.165351375995115</v>
+      </c>
+      <c r="W41">
+        <f>_xll.acq_options_blackscholes_greeks(W$31,$F41,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>95.780888595578617</v>
+      </c>
+      <c r="X41">
+        <f>_xll.acq_options_blackscholes_greeks(X$31,$F41,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>-0.40070576802662339</v>
+      </c>
+      <c r="Y41">
+        <f>_xll.acq_options_blackscholes_greeks(Y$31,$F41,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>211.59259142589679</v>
+      </c>
+      <c r="Z41">
+        <f>_xll.acq_options_blackscholes_greeks(Z$31,$F41,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>-1.1155056012745028</v>
+      </c>
+      <c r="AB41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC41">
+        <f t="shared" si="2"/>
+        <v>2.1497692515026756E-11</v>
+      </c>
+      <c r="AD41">
+        <f t="shared" si="3"/>
+        <v>3.8592858243318047E-6</v>
+      </c>
+      <c r="AE41">
+        <f t="shared" si="4"/>
+        <v>-2.0254879302683548E-6</v>
+      </c>
+      <c r="AF41">
+        <f t="shared" si="5"/>
+        <v>1.6389498014746096E-5</v>
+      </c>
+      <c r="AG41">
+        <f t="shared" si="6"/>
+        <v>5.21265233088819E-7</v>
+      </c>
+      <c r="AH41">
+        <f t="shared" si="7"/>
+        <v>-7.5182094049523585E-2</v>
+      </c>
+      <c r="AI41">
+        <f t="shared" si="0"/>
+        <v>-4.0231997832762545E-5</v>
+      </c>
+    </row>
+    <row r="42" spans="6:35" x14ac:dyDescent="0.25">
+      <c r="F42" s="13">
+        <v>200</v>
+      </c>
+      <c r="G42">
+        <f>_xll.acq_options_bjerksund_greeks(G$31,$F42,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>50.976817270494237</v>
+      </c>
+      <c r="H42">
+        <f>_xll.acq_options_bjerksund_greeks(H$31,$F42,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0.70804251137701613</v>
+      </c>
+      <c r="I42">
+        <f>_xll.acq_options_bjerksund_greeks(I$31,$F42,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>2.8308022592682391E-3</v>
+      </c>
+      <c r="J42">
+        <f>_xll.acq_options_bjerksund_greeks(J$31,$F42,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>70.761619529172719</v>
+      </c>
+      <c r="K42">
+        <f>_xll.acq_options_bjerksund_greeks(K$31,$F42,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>138.86481298186482</v>
+      </c>
+      <c r="L42">
+        <f>_xll.acq_options_bjerksund_greeks(L$31,$F42,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>-0.47451536033804587</v>
+      </c>
+      <c r="M42">
+        <f>_xll.acq_options_bjerksund_greeks(M$31,$F42,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>226.50843155716416</v>
+      </c>
+      <c r="N42">
+        <f>_xll.acq_options_bjerksund_greeks(N$31,$F42,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>-0.47950214678849079</v>
+      </c>
+      <c r="R42" s="13">
+        <v>200</v>
+      </c>
+      <c r="S42">
+        <f>_xll.acq_options_blackscholes_greeks(S$31,$F42,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>50.976817270494237</v>
+      </c>
+      <c r="T42">
+        <f>_xll.acq_options_blackscholes_greeks(T$31,$F42,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0.70804251141064367</v>
+      </c>
+      <c r="U42">
+        <f>_xll.acq_options_blackscholes_greeks(U$31,$F42,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>2.8304648858819411E-3</v>
+      </c>
+      <c r="V42">
+        <f>_xll.acq_options_blackscholes_greeks(V$31,$F42,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>70.761622147048541</v>
+      </c>
+      <c r="W42">
+        <f>_xll.acq_options_blackscholes_greeks(W$31,$F42,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>138.86479773727993</v>
+      </c>
+      <c r="X42">
+        <f>_xll.acq_options_blackscholes_greeks(X$31,$F42,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>-0.47451514813038681</v>
+      </c>
+      <c r="Y42">
+        <f>_xll.acq_options_blackscholes_greeks(Y$31,$F42,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>226.57921252908628</v>
+      </c>
+      <c r="Z42">
+        <f>_xll.acq_options_blackscholes_greeks(Z$31,$F42,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>-0.4794720711227729</v>
+      </c>
+      <c r="AB42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC42">
+        <f t="shared" si="2"/>
+        <v>-3.3627545192871366E-11</v>
+      </c>
+      <c r="AD42">
+        <f t="shared" si="3"/>
+        <v>3.3737338629800245E-7</v>
+      </c>
+      <c r="AE42">
+        <f t="shared" si="4"/>
+        <v>-2.6178758218975418E-6</v>
+      </c>
+      <c r="AF42">
+        <f t="shared" si="5"/>
+        <v>1.5244584886886514E-5</v>
+      </c>
+      <c r="AG42">
+        <f t="shared" si="6"/>
+        <v>-2.1220765905605177E-7</v>
+      </c>
+      <c r="AH42">
+        <f t="shared" si="7"/>
+        <v>-7.0780971922118852E-2</v>
+      </c>
+      <c r="AI42">
+        <f t="shared" si="0"/>
+        <v>-3.0075665717888E-5</v>
+      </c>
+    </row>
+    <row r="43" spans="6:35" x14ac:dyDescent="0.25">
+      <c r="V43" s="47"/>
+      <c r="W43" s="47"/>
+      <c r="X43" s="47"/>
+      <c r="Y43" s="47"/>
+      <c r="Z43" s="47"/>
+      <c r="AA43" s="47"/>
+      <c r="AB43" s="47"/>
+    </row>
+    <row r="44" spans="6:35" x14ac:dyDescent="0.25">
+      <c r="V44" s="47"/>
+      <c r="W44" s="47"/>
+      <c r="X44" s="47"/>
+      <c r="Y44" s="47"/>
+      <c r="Z44" s="47"/>
+      <c r="AA44" s="47"/>
+      <c r="AB44" s="47"/>
+    </row>
+    <row r="45" spans="6:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G45" s="48" t="s">
+        <v>149</v>
+      </c>
+      <c r="H45" s="48"/>
+      <c r="I45" s="48"/>
+      <c r="J45" s="48"/>
+      <c r="K45" s="48"/>
+      <c r="L45" s="48"/>
+      <c r="M45" s="48"/>
+      <c r="N45" s="48"/>
+      <c r="S45" s="48" t="s">
+        <v>148</v>
+      </c>
+      <c r="T45" s="48"/>
+      <c r="U45" s="48"/>
+      <c r="V45" s="48"/>
+      <c r="W45" s="48"/>
+      <c r="X45" s="48"/>
+      <c r="Y45" s="48"/>
+      <c r="Z45" s="48"/>
+      <c r="AA45" s="47"/>
+      <c r="AB45" s="47"/>
+    </row>
+    <row r="46" spans="6:35" x14ac:dyDescent="0.25">
+      <c r="F46" t="s">
+        <v>125</v>
+      </c>
+      <c r="G46" t="s">
+        <v>99</v>
+      </c>
+      <c r="H46" t="s">
+        <v>100</v>
+      </c>
+      <c r="I46" t="s">
+        <v>101</v>
+      </c>
+      <c r="J46" t="s">
+        <v>102</v>
+      </c>
+      <c r="K46" t="s">
+        <v>103</v>
+      </c>
+      <c r="L46" t="s">
+        <v>104</v>
+      </c>
+      <c r="M46" t="s">
+        <v>105</v>
+      </c>
+      <c r="N46" t="s">
+        <v>106</v>
+      </c>
+      <c r="R46" t="s">
+        <v>125</v>
+      </c>
+      <c r="S46" t="s">
+        <v>99</v>
+      </c>
+      <c r="T46" t="s">
+        <v>100</v>
+      </c>
+      <c r="U46" t="s">
+        <v>101</v>
+      </c>
+      <c r="V46" t="s">
+        <v>102</v>
+      </c>
+      <c r="W46" t="s">
+        <v>103</v>
+      </c>
+      <c r="X46" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="47" spans="6:35" x14ac:dyDescent="0.25">
+      <c r="F47" s="13">
+        <v>100</v>
+      </c>
+      <c r="G47">
+        <f>_xll.acq_options_bjerksund_greeks(G$31,$F47,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
         <v>50</v>
       </c>
-      <c r="M25">
-        <f>_xll.acq_options_bjerksund_price_approx($L25,$C$5,M$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>0</v>
-      </c>
-      <c r="N25">
-        <f>_xll.acq_options_bjerksund_price_approx($L25,$C$5,N$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>3.9011742131833671E-5</v>
-      </c>
-      <c r="O25">
-        <f>_xll.acq_options_bjerksund_price_approx($L25,$C$5,O$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>7.4050197555948216E-3</v>
-      </c>
-      <c r="P25">
-        <f>_xll.acq_options_bjerksund_price_approx($L25,$C$5,P$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>5.2216753691595841E-2</v>
-      </c>
-      <c r="Q25">
-        <f>_xll.acq_options_bjerksund_price_approx($L25,$C$5,Q$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>0.15205257865831356</v>
-      </c>
-      <c r="R25">
-        <f>_xll.acq_options_bjerksund_price_approx($L25,$C$5,R$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>0.30402918865425477</v>
-      </c>
-      <c r="S25">
-        <f>_xll.acq_options_bjerksund_price_approx($L25,$C$5,S$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>0.49849782964237477</v>
-      </c>
-      <c r="T25">
-        <f>_xll.acq_options_bjerksund_price_approx($L25,$C$5,T$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>0.7255707120744006</v>
-      </c>
-      <c r="U25">
-        <f>_xll.acq_options_bjerksund_price_approx($L25,$C$5,U$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>0.97692092619007553</v>
-      </c>
-      <c r="V25">
-        <f>_xll.acq_options_bjerksund_price_approx($L25,$C$5,V$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>1.2459665811071119</v>
-      </c>
-      <c r="W25">
-        <f>_xll.acq_options_bjerksund_price_approx($L25,$C$5,W$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>1.5276191024530448</v>
-      </c>
-      <c r="X25">
-        <f>_xll.acq_options_bjerksund_price_approx($L25,$C$5,X$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>1.8179688817930497</v>
-      </c>
-      <c r="Y25">
-        <f>_xll.acq_options_bjerksund_price_approx($L25,$C$5,Y$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>2.1140109189015988</v>
-      </c>
-      <c r="Z25">
-        <f>_xll.acq_options_bjerksund_price_approx($L25,$C$5,Z$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>2.4134283957528595</v>
-      </c>
-      <c r="AA25">
-        <f>_xll.acq_options_bjerksund_price_approx($L25,$C$5,AA$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>2.7144281247818611</v>
-      </c>
-      <c r="AB25">
-        <f>_xll.acq_options_bjerksund_price_approx($L25,$C$5,AB$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>3.0156170197063972</v>
-      </c>
-      <c r="AC25">
-        <f>_xll.acq_options_bjerksund_price_approx($L25,$C$5,AC$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>3.3159095523980255</v>
-      </c>
-      <c r="AD25">
-        <f>_xll.acq_options_bjerksund_price_approx($L25,$C$5,AD$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>3.6144582124284739</v>
-      </c>
-      <c r="AF25" s="44">
-        <v>50</v>
-      </c>
-      <c r="AG25">
-        <f>_xll.acq_options_bjerksund_price_approx($L25,$C$5,AG$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>40</v>
-      </c>
-      <c r="AH25">
-        <f>_xll.acq_options_bjerksund_price_approx($L25,$C$5,AH$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>40</v>
-      </c>
-      <c r="AI25">
-        <f>_xll.acq_options_bjerksund_price_approx($L25,$C$5,AI$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>40</v>
-      </c>
-      <c r="AJ25">
-        <f>_xll.acq_options_bjerksund_price_approx($L25,$C$5,AJ$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>40</v>
-      </c>
-      <c r="AK25">
-        <f>_xll.acq_options_bjerksund_price_approx($L25,$C$5,AK$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>40</v>
-      </c>
-      <c r="AL25">
-        <f>_xll.acq_options_bjerksund_price_approx($L25,$C$5,AL$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>40</v>
-      </c>
-      <c r="AM25">
-        <f>_xll.acq_options_bjerksund_price_approx($L25,$C$5,AM$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>40</v>
-      </c>
-      <c r="AN25">
-        <f>_xll.acq_options_bjerksund_price_approx($L25,$C$5,AN$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>40</v>
-      </c>
-      <c r="AO25">
-        <f>_xll.acq_options_bjerksund_price_approx($L25,$C$5,AO$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>40</v>
-      </c>
-      <c r="AP25">
-        <f>_xll.acq_options_bjerksund_price_approx($L25,$C$5,AP$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>40</v>
-      </c>
-      <c r="AQ25">
-        <f>_xll.acq_options_bjerksund_price_approx($L25,$C$5,AQ$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>40</v>
-      </c>
-      <c r="AR25">
-        <f>_xll.acq_options_bjerksund_price_approx($L25,$C$5,AR$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>40</v>
-      </c>
-      <c r="AS25">
-        <f>_xll.acq_options_bjerksund_price_approx($L25,$C$5,AS$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>40</v>
-      </c>
-      <c r="AT25">
-        <f>_xll.acq_options_bjerksund_price_approx($L25,$C$5,AT$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>40</v>
-      </c>
-      <c r="AU25">
-        <f>_xll.acq_options_bjerksund_price_approx($L25,$C$5,AU$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>40</v>
-      </c>
-      <c r="AV25">
-        <f>_xll.acq_options_bjerksund_price_approx($L25,$C$5,AV$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>40</v>
-      </c>
-      <c r="AW25">
-        <f>_xll.acq_options_bjerksund_price_approx($L25,$C$5,AW$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>40</v>
-      </c>
-      <c r="AX25">
-        <f>_xll.acq_options_bjerksund_price_approx($L25,$C$5,AX$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="6:50" x14ac:dyDescent="0.25">
-      <c r="L26" s="44">
-        <v>45</v>
-      </c>
-      <c r="M26">
-        <f>_xll.acq_options_bjerksund_price_approx($L26,$C$5,M$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>0</v>
-      </c>
-      <c r="N26">
-        <f>_xll.acq_options_bjerksund_price_approx($L26,$C$5,N$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>9.6946601502168051E-7</v>
-      </c>
-      <c r="O26">
-        <f>_xll.acq_options_bjerksund_price_approx($L26,$C$5,O$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>1.0174551054262793E-3</v>
-      </c>
-      <c r="P26">
-        <f>_xll.acq_options_bjerksund_price_approx($L26,$C$5,P$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>1.2805538427912211E-2</v>
-      </c>
-      <c r="Q26">
-        <f>_xll.acq_options_bjerksund_price_approx($L26,$C$5,Q$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>5.0060743819500431E-2</v>
-      </c>
-      <c r="R26">
-        <f>_xll.acq_options_bjerksund_price_approx($L26,$C$5,R$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>0.11979506007942575</v>
-      </c>
-      <c r="S26">
-        <f>_xll.acq_options_bjerksund_price_approx($L26,$C$5,S$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>0.22183690354508201</v>
-      </c>
-      <c r="T26">
-        <f>_xll.acq_options_bjerksund_price_approx($L26,$C$5,T$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>0.35267852769906938</v>
-      </c>
-      <c r="U26">
-        <f>_xll.acq_options_bjerksund_price_approx($L26,$C$5,U$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>0.50784204192041216</v>
-      </c>
-      <c r="V26">
-        <f>_xll.acq_options_bjerksund_price_approx($L26,$C$5,V$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>0.68294010107535996</v>
-      </c>
-      <c r="W26">
-        <f>_xll.acq_options_bjerksund_price_approx($L26,$C$5,W$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>0.87406581033233977</v>
-      </c>
-      <c r="X26">
-        <f>_xll.acq_options_bjerksund_price_approx($L26,$C$5,X$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>1.0778854968884133</v>
-      </c>
-      <c r="Y26">
-        <f>_xll.acq_options_bjerksund_price_approx($L26,$C$5,Y$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>1.2916121848083577</v>
-      </c>
-      <c r="Z26">
-        <f>_xll.acq_options_bjerksund_price_approx($L26,$C$5,Z$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>1.5129384734107845</v>
-      </c>
-      <c r="AA26">
-        <f>_xll.acq_options_bjerksund_price_approx($L26,$C$5,AA$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>1.7399619303594847</v>
-      </c>
-      <c r="AB26">
-        <f>_xll.acq_options_bjerksund_price_approx($L26,$C$5,AB$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>1.9711158628883396</v>
-      </c>
-      <c r="AC26">
-        <f>_xll.acq_options_bjerksund_price_approx($L26,$C$5,AC$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>2.2051095586935503</v>
-      </c>
-      <c r="AD26">
-        <f>_xll.acq_options_bjerksund_price_approx($L26,$C$5,AD$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>2.4408784398168137</v>
-      </c>
-      <c r="AF26" s="44">
-        <v>45</v>
-      </c>
-      <c r="AG26">
-        <f>_xll.acq_options_bjerksund_price_approx($L26,$C$5,AG$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>45</v>
-      </c>
-      <c r="AH26">
-        <f>_xll.acq_options_bjerksund_price_approx($L26,$C$5,AH$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>45</v>
-      </c>
-      <c r="AI26">
-        <f>_xll.acq_options_bjerksund_price_approx($L26,$C$5,AI$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>45</v>
-      </c>
-      <c r="AJ26">
-        <f>_xll.acq_options_bjerksund_price_approx($L26,$C$5,AJ$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>45</v>
-      </c>
-      <c r="AK26">
-        <f>_xll.acq_options_bjerksund_price_approx($L26,$C$5,AK$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>45</v>
-      </c>
-      <c r="AL26">
-        <f>_xll.acq_options_bjerksund_price_approx($L26,$C$5,AL$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>45</v>
-      </c>
-      <c r="AM26">
-        <f>_xll.acq_options_bjerksund_price_approx($L26,$C$5,AM$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>45</v>
-      </c>
-      <c r="AN26">
-        <f>_xll.acq_options_bjerksund_price_approx($L26,$C$5,AN$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>45</v>
-      </c>
-      <c r="AO26">
-        <f>_xll.acq_options_bjerksund_price_approx($L26,$C$5,AO$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>45</v>
-      </c>
-      <c r="AP26">
-        <f>_xll.acq_options_bjerksund_price_approx($L26,$C$5,AP$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>45</v>
-      </c>
-      <c r="AQ26">
-        <f>_xll.acq_options_bjerksund_price_approx($L26,$C$5,AQ$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>45</v>
-      </c>
-      <c r="AR26">
-        <f>_xll.acq_options_bjerksund_price_approx($L26,$C$5,AR$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>45</v>
-      </c>
-      <c r="AS26">
-        <f>_xll.acq_options_bjerksund_price_approx($L26,$C$5,AS$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>45</v>
-      </c>
-      <c r="AT26">
-        <f>_xll.acq_options_bjerksund_price_approx($L26,$C$5,AT$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>45</v>
-      </c>
-      <c r="AU26">
-        <f>_xll.acq_options_bjerksund_price_approx($L26,$C$5,AU$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>45</v>
-      </c>
-      <c r="AV26">
-        <f>_xll.acq_options_bjerksund_price_approx($L26,$C$5,AV$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>45</v>
-      </c>
-      <c r="AW26">
-        <f>_xll.acq_options_bjerksund_price_approx($L26,$C$5,AW$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>45</v>
-      </c>
-      <c r="AX26">
-        <f>_xll.acq_options_bjerksund_price_approx($L26,$C$5,AX$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="6:50" x14ac:dyDescent="0.25">
-      <c r="L27" s="44">
-        <v>40</v>
-      </c>
-      <c r="M27">
-        <f>_xll.acq_options_bjerksund_price_approx($L27,$C$5,M$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>0</v>
-      </c>
-      <c r="N27">
-        <f>_xll.acq_options_bjerksund_price_approx($L27,$C$5,N$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>8.4164213376425323E-9</v>
-      </c>
-      <c r="O27">
-        <f>_xll.acq_options_bjerksund_price_approx($L27,$C$5,O$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>8.2366539132294747E-5</v>
-      </c>
-      <c r="P27">
-        <f>_xll.acq_options_bjerksund_price_approx($L27,$C$5,P$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>2.1995682308926234E-3</v>
-      </c>
-      <c r="Q27">
-        <f>_xll.acq_options_bjerksund_price_approx($L27,$C$5,Q$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>1.2580572377771659E-2</v>
-      </c>
-      <c r="R27">
-        <f>_xll.acq_options_bjerksund_price_approx($L27,$C$5,R$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>3.7930085788659085E-2</v>
-      </c>
-      <c r="S27">
-        <f>_xll.acq_options_bjerksund_price_approx($L27,$C$5,S$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>8.2085606536708156E-2</v>
-      </c>
-      <c r="T27">
-        <f>_xll.acq_options_bjerksund_price_approx($L27,$C$5,T$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>0.14605748183076628</v>
-      </c>
-      <c r="U27">
-        <f>_xll.acq_options_bjerksund_price_approx($L27,$C$5,U$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>0.22907246667854508</v>
-      </c>
-      <c r="V27">
-        <f>_xll.acq_options_bjerksund_price_approx($L27,$C$5,V$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>0.32945719253855543</v>
-      </c>
-      <c r="W27">
-        <f>_xll.acq_options_bjerksund_price_approx($L27,$C$5,W$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>0.44519066553417019</v>
-      </c>
-      <c r="X27">
-        <f>_xll.acq_options_bjerksund_price_approx($L27,$C$5,X$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>0.5742083945564076</v>
-      </c>
-      <c r="Y27">
-        <f>_xll.acq_options_bjerksund_price_approx($L27,$C$5,Y$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>0.71455446568155878</v>
-      </c>
-      <c r="Z27">
-        <f>_xll.acq_options_bjerksund_price_approx($L27,$C$5,Z$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>0.86444794018173354</v>
-      </c>
-      <c r="AA27">
-        <f>_xll.acq_options_bjerksund_price_approx($L27,$C$5,AA$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>1.0223033691936365</v>
-      </c>
-      <c r="AB27">
-        <f>_xll.acq_options_bjerksund_price_approx($L27,$C$5,AB$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>1.1867279690586656</v>
-      </c>
-      <c r="AC27">
-        <f>_xll.acq_options_bjerksund_price_approx($L27,$C$5,AC$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>1.3565078489646112</v>
-      </c>
-      <c r="AD27">
-        <f>_xll.acq_options_bjerksund_price_approx($L27,$C$5,AD$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>1.5305899374787373</v>
-      </c>
-      <c r="AF27" s="44">
-        <v>40</v>
-      </c>
-      <c r="AG27">
-        <f>_xll.acq_options_bjerksund_price_approx($L27,$C$5,AG$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>50</v>
-      </c>
-      <c r="AH27">
-        <f>_xll.acq_options_bjerksund_price_approx($L27,$C$5,AH$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>50</v>
-      </c>
-      <c r="AI27">
-        <f>_xll.acq_options_bjerksund_price_approx($L27,$C$5,AI$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>50</v>
-      </c>
-      <c r="AJ27">
-        <f>_xll.acq_options_bjerksund_price_approx($L27,$C$5,AJ$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>50</v>
-      </c>
-      <c r="AK27">
-        <f>_xll.acq_options_bjerksund_price_approx($L27,$C$5,AK$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>50</v>
-      </c>
-      <c r="AL27">
-        <f>_xll.acq_options_bjerksund_price_approx($L27,$C$5,AL$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>50</v>
-      </c>
-      <c r="AM27">
-        <f>_xll.acq_options_bjerksund_price_approx($L27,$C$5,AM$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>50</v>
-      </c>
-      <c r="AN27">
-        <f>_xll.acq_options_bjerksund_price_approx($L27,$C$5,AN$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>50</v>
-      </c>
-      <c r="AO27">
-        <f>_xll.acq_options_bjerksund_price_approx($L27,$C$5,AO$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>50</v>
-      </c>
-      <c r="AP27">
-        <f>_xll.acq_options_bjerksund_price_approx($L27,$C$5,AP$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>50</v>
-      </c>
-      <c r="AQ27">
-        <f>_xll.acq_options_bjerksund_price_approx($L27,$C$5,AQ$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>50</v>
-      </c>
-      <c r="AR27">
-        <f>_xll.acq_options_bjerksund_price_approx($L27,$C$5,AR$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>50</v>
-      </c>
-      <c r="AS27">
-        <f>_xll.acq_options_bjerksund_price_approx($L27,$C$5,AS$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>50</v>
-      </c>
-      <c r="AT27">
-        <f>_xll.acq_options_bjerksund_price_approx($L27,$C$5,AT$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>50</v>
-      </c>
-      <c r="AU27">
-        <f>_xll.acq_options_bjerksund_price_approx($L27,$C$5,AU$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>50</v>
-      </c>
-      <c r="AV27">
-        <f>_xll.acq_options_bjerksund_price_approx($L27,$C$5,AV$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>50</v>
-      </c>
-      <c r="AW27">
-        <f>_xll.acq_options_bjerksund_price_approx($L27,$C$5,AW$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>50</v>
-      </c>
-      <c r="AX27">
-        <f>_xll.acq_options_bjerksund_price_approx($L27,$C$5,AX$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="6:50" x14ac:dyDescent="0.25">
-      <c r="L28" s="44">
-        <v>35</v>
-      </c>
-      <c r="M28">
-        <f>_xll.acq_options_bjerksund_price_approx($L28,$C$5,M$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>0</v>
-      </c>
-      <c r="N28">
-        <f>_xll.acq_options_bjerksund_price_approx($L28,$C$5,N$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>1.7436718735552859E-11</v>
-      </c>
-      <c r="O28">
-        <f>_xll.acq_options_bjerksund_price_approx($L28,$C$5,O$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>3.2425869562757725E-6</v>
-      </c>
-      <c r="P28">
-        <f>_xll.acq_options_bjerksund_price_approx($L28,$C$5,P$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>2.3265593723920119E-4</v>
-      </c>
-      <c r="Q28">
-        <f>_xll.acq_options_bjerksund_price_approx($L28,$C$5,Q$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>2.1897832440771481E-3</v>
-      </c>
-      <c r="R28">
-        <f>_xll.acq_options_bjerksund_price_approx($L28,$C$5,R$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>8.9241818710377174E-3</v>
-      </c>
-      <c r="S28">
-        <f>_xll.acq_options_bjerksund_price_approx($L28,$C$5,S$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>2.3651295807894712E-2</v>
-      </c>
-      <c r="T28">
-        <f>_xll.acq_options_bjerksund_price_approx($L28,$C$5,T$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>4.8697962595269928E-2</v>
-      </c>
-      <c r="U28">
-        <f>_xll.acq_options_bjerksund_price_approx($L28,$C$5,U$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>8.5293044053202038E-2</v>
-      </c>
-      <c r="V28">
-        <f>_xll.acq_options_bjerksund_price_approx($L28,$C$5,V$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>0.13376707218438355</v>
-      </c>
-      <c r="W28">
-        <f>_xll.acq_options_bjerksund_price_approx($L28,$C$5,W$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>0.19383421882000107</v>
-      </c>
-      <c r="X28">
-        <f>_xll.acq_options_bjerksund_price_approx($L28,$C$5,X$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>0.26483249594519975</v>
-      </c>
-      <c r="Y28">
-        <f>_xll.acq_options_bjerksund_price_approx($L28,$C$5,Y$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>0.34589728307634005</v>
-      </c>
-      <c r="Z28">
-        <f>_xll.acq_options_bjerksund_price_approx($L28,$C$5,Z$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>0.43607673576092054</v>
-      </c>
-      <c r="AA28">
-        <f>_xll.acq_options_bjerksund_price_approx($L28,$C$5,AA$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>0.53440437442502287</v>
-      </c>
-      <c r="AB28">
-        <f>_xll.acq_options_bjerksund_price_approx($L28,$C$5,AB$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>0.63994240871615204</v>
-      </c>
-      <c r="AC28">
-        <f>_xll.acq_options_bjerksund_price_approx($L28,$C$5,AC$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>0.75180588057740749</v>
-      </c>
-      <c r="AD28">
-        <f>_xll.acq_options_bjerksund_price_approx($L28,$C$5,AD$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>0.86917459368987693</v>
-      </c>
-      <c r="AF28" s="44">
-        <v>35</v>
-      </c>
-      <c r="AG28">
-        <f>_xll.acq_options_bjerksund_price_approx($L28,$C$5,AG$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>55</v>
-      </c>
-      <c r="AH28">
-        <f>_xll.acq_options_bjerksund_price_approx($L28,$C$5,AH$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>55</v>
-      </c>
-      <c r="AI28">
-        <f>_xll.acq_options_bjerksund_price_approx($L28,$C$5,AI$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>55</v>
-      </c>
-      <c r="AJ28">
-        <f>_xll.acq_options_bjerksund_price_approx($L28,$C$5,AJ$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>55</v>
-      </c>
-      <c r="AK28">
-        <f>_xll.acq_options_bjerksund_price_approx($L28,$C$5,AK$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>55</v>
-      </c>
-      <c r="AL28">
-        <f>_xll.acq_options_bjerksund_price_approx($L28,$C$5,AL$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>55</v>
-      </c>
-      <c r="AM28">
-        <f>_xll.acq_options_bjerksund_price_approx($L28,$C$5,AM$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>55</v>
-      </c>
-      <c r="AN28">
-        <f>_xll.acq_options_bjerksund_price_approx($L28,$C$5,AN$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>55</v>
-      </c>
-      <c r="AO28">
-        <f>_xll.acq_options_bjerksund_price_approx($L28,$C$5,AO$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>55</v>
-      </c>
-      <c r="AP28">
-        <f>_xll.acq_options_bjerksund_price_approx($L28,$C$5,AP$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>55</v>
-      </c>
-      <c r="AQ28">
-        <f>_xll.acq_options_bjerksund_price_approx($L28,$C$5,AQ$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>55</v>
-      </c>
-      <c r="AR28">
-        <f>_xll.acq_options_bjerksund_price_approx($L28,$C$5,AR$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>55</v>
-      </c>
-      <c r="AS28">
-        <f>_xll.acq_options_bjerksund_price_approx($L28,$C$5,AS$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>55</v>
-      </c>
-      <c r="AT28">
-        <f>_xll.acq_options_bjerksund_price_approx($L28,$C$5,AT$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>55</v>
-      </c>
-      <c r="AU28">
-        <f>_xll.acq_options_bjerksund_price_approx($L28,$C$5,AU$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>55</v>
-      </c>
-      <c r="AV28">
-        <f>_xll.acq_options_bjerksund_price_approx($L28,$C$5,AV$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>55</v>
-      </c>
-      <c r="AW28">
-        <f>_xll.acq_options_bjerksund_price_approx($L28,$C$5,AW$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>55</v>
-      </c>
-      <c r="AX28">
-        <f>_xll.acq_options_bjerksund_price_approx($L28,$C$5,AX$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="6:50" x14ac:dyDescent="0.25">
-      <c r="L29" s="44">
-        <v>30</v>
-      </c>
-      <c r="M29">
-        <f>_xll.acq_options_bjerksund_price_approx($L29,$C$5,M$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>0</v>
-      </c>
-      <c r="N29">
-        <f>_xll.acq_options_bjerksund_price_approx($L29,$C$5,N$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>0</v>
-      </c>
-      <c r="O29">
-        <f>_xll.acq_options_bjerksund_price_approx($L29,$C$5,O$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>4.6162938360794215E-8</v>
-      </c>
-      <c r="P29">
-        <f>_xll.acq_options_bjerksund_price_approx($L29,$C$5,P$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>1.2422493767871856E-5</v>
-      </c>
-      <c r="Q29">
-        <f>_xll.acq_options_bjerksund_price_approx($L29,$C$5,Q$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>2.2722104729666626E-4</v>
-      </c>
-      <c r="R29">
-        <f>_xll.acq_options_bjerksund_price_approx($L29,$C$5,R$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>1.3827349218189511E-3</v>
-      </c>
-      <c r="S29">
-        <f>_xll.acq_options_bjerksund_price_approx($L29,$C$5,S$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>4.7951661950378366E-3</v>
-      </c>
-      <c r="T29">
-        <f>_xll.acq_options_bjerksund_price_approx($L29,$C$5,T$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>1.1978004004404852E-2</v>
-      </c>
-      <c r="U29">
-        <f>_xll.acq_options_bjerksund_price_approx($L29,$C$5,U$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>2.4272846203174936E-2</v>
-      </c>
-      <c r="V29">
-        <f>_xll.acq_options_bjerksund_price_approx($L29,$C$5,V$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>4.266977880598688E-2</v>
-      </c>
-      <c r="W29">
-        <f>_xll.acq_options_bjerksund_price_approx($L29,$C$5,W$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>6.7779181916051812E-2</v>
-      </c>
-      <c r="X29">
-        <f>_xll.acq_options_bjerksund_price_approx($L29,$C$5,X$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>9.9879452109703948E-2</v>
-      </c>
-      <c r="Y29">
-        <f>_xll.acq_options_bjerksund_price_approx($L29,$C$5,Y$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>0.13898920320161778</v>
-      </c>
-      <c r="Z29">
-        <f>_xll.acq_options_bjerksund_price_approx($L29,$C$5,Z$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>0.18493831689758622</v>
-      </c>
-      <c r="AA29">
-        <f>_xll.acq_options_bjerksund_price_approx($L29,$C$5,AA$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>0.23742798248999009</v>
-      </c>
-      <c r="AB29">
-        <f>_xll.acq_options_bjerksund_price_approx($L29,$C$5,AB$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>0.29607763997400127</v>
-      </c>
-      <c r="AC29">
-        <f>_xll.acq_options_bjerksund_price_approx($L29,$C$5,AC$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>0.36045997432206889</v>
-      </c>
-      <c r="AD29">
-        <f>_xll.acq_options_bjerksund_price_approx($L29,$C$5,AD$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>0.4301261219136876</v>
-      </c>
-      <c r="AF29" s="44">
-        <v>30</v>
-      </c>
-      <c r="AG29">
-        <f>_xll.acq_options_bjerksund_price_approx($L29,$C$5,AG$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>60</v>
-      </c>
-      <c r="AH29">
-        <f>_xll.acq_options_bjerksund_price_approx($L29,$C$5,AH$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>60</v>
-      </c>
-      <c r="AI29">
-        <f>_xll.acq_options_bjerksund_price_approx($L29,$C$5,AI$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>60</v>
-      </c>
-      <c r="AJ29">
-        <f>_xll.acq_options_bjerksund_price_approx($L29,$C$5,AJ$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>60</v>
-      </c>
-      <c r="AK29">
-        <f>_xll.acq_options_bjerksund_price_approx($L29,$C$5,AK$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>60</v>
-      </c>
-      <c r="AL29">
-        <f>_xll.acq_options_bjerksund_price_approx($L29,$C$5,AL$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>60</v>
-      </c>
-      <c r="AM29">
-        <f>_xll.acq_options_bjerksund_price_approx($L29,$C$5,AM$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>60</v>
-      </c>
-      <c r="AN29">
-        <f>_xll.acq_options_bjerksund_price_approx($L29,$C$5,AN$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>60</v>
-      </c>
-      <c r="AO29">
-        <f>_xll.acq_options_bjerksund_price_approx($L29,$C$5,AO$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>60</v>
-      </c>
-      <c r="AP29">
-        <f>_xll.acq_options_bjerksund_price_approx($L29,$C$5,AP$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>60</v>
-      </c>
-      <c r="AQ29">
-        <f>_xll.acq_options_bjerksund_price_approx($L29,$C$5,AQ$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>60</v>
-      </c>
-      <c r="AR29">
-        <f>_xll.acq_options_bjerksund_price_approx($L29,$C$5,AR$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>60</v>
-      </c>
-      <c r="AS29">
-        <f>_xll.acq_options_bjerksund_price_approx($L29,$C$5,AS$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>60</v>
-      </c>
-      <c r="AT29">
-        <f>_xll.acq_options_bjerksund_price_approx($L29,$C$5,AT$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>60</v>
-      </c>
-      <c r="AU29">
-        <f>_xll.acq_options_bjerksund_price_approx($L29,$C$5,AU$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>60</v>
-      </c>
-      <c r="AV29">
-        <f>_xll.acq_options_bjerksund_price_approx($L29,$C$5,AV$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>60</v>
-      </c>
-      <c r="AW29">
-        <f>_xll.acq_options_bjerksund_price_approx($L29,$C$5,AW$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>60</v>
-      </c>
-      <c r="AX29">
-        <f>_xll.acq_options_bjerksund_price_approx($L29,$C$5,AX$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="30" spans="6:50" x14ac:dyDescent="0.25">
-      <c r="L30" s="44">
-        <v>25</v>
-      </c>
-      <c r="M30">
-        <f>_xll.acq_options_bjerksund_price_approx($L30,$C$5,M$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>0</v>
-      </c>
-      <c r="N30">
-        <f>_xll.acq_options_bjerksund_price_approx($L30,$C$5,N$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>0</v>
-      </c>
-      <c r="O30">
-        <f>_xll.acq_options_bjerksund_price_approx($L30,$C$5,O$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>1.460875864722766E-10</v>
-      </c>
-      <c r="P30">
-        <f>_xll.acq_options_bjerksund_price_approx($L30,$C$5,P$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>2.4156622657756088E-7</v>
-      </c>
-      <c r="Q30">
-        <f>_xll.acq_options_bjerksund_price_approx($L30,$C$5,Q$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>1.0986238763166511E-5</v>
-      </c>
-      <c r="R30">
-        <f>_xll.acq_options_bjerksund_price_approx($L30,$C$5,R$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>1.1571136826660222E-4</v>
-      </c>
-      <c r="S30">
-        <f>_xll.acq_options_bjerksund_price_approx($L30,$C$5,S$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>5.7930440017628371E-4</v>
-      </c>
-      <c r="T30">
-        <f>_xll.acq_options_bjerksund_price_approx($L30,$C$5,T$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>1.8830978408885812E-3</v>
-      </c>
-      <c r="U30">
-        <f>_xll.acq_options_bjerksund_price_approx($L30,$C$5,U$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>4.6533974113032173E-3</v>
-      </c>
-      <c r="V30">
-        <f>_xll.acq_options_bjerksund_price_approx($L30,$C$5,V$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>9.551661908815845E-3</v>
-      </c>
-      <c r="W30">
-        <f>_xll.acq_options_bjerksund_price_approx($L30,$C$5,W$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>1.7184649729060197E-2</v>
-      </c>
-      <c r="X30">
-        <f>_xll.acq_options_bjerksund_price_approx($L30,$C$5,X$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>2.805230246406154E-2</v>
-      </c>
-      <c r="Y30">
-        <f>_xll.acq_options_bjerksund_price_approx($L30,$C$5,Y$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>4.2528160130075321E-2</v>
-      </c>
-      <c r="Z30">
-        <f>_xll.acq_options_bjerksund_price_approx($L30,$C$5,Z$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>6.0861048335752344E-2</v>
-      </c>
-      <c r="AA30">
-        <f>_xll.acq_options_bjerksund_price_approx($L30,$C$5,AA$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>8.3188163679537297E-2</v>
-      </c>
-      <c r="AB30">
-        <f>_xll.acq_options_bjerksund_price_approx($L30,$C$5,AB$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>0.10955282589779358</v>
-      </c>
-      <c r="AC30">
-        <f>_xll.acq_options_bjerksund_price_approx($L30,$C$5,AC$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>0.13992292459367661</v>
-      </c>
-      <c r="AD30">
-        <f>_xll.acq_options_bjerksund_price_approx($L30,$C$5,AD$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>0.17420800219522903</v>
-      </c>
-      <c r="AF30" s="44">
-        <v>25</v>
-      </c>
-      <c r="AG30">
-        <f>_xll.acq_options_bjerksund_price_approx($L30,$C$5,AG$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>65</v>
-      </c>
-      <c r="AH30">
-        <f>_xll.acq_options_bjerksund_price_approx($L30,$C$5,AH$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>65</v>
-      </c>
-      <c r="AI30">
-        <f>_xll.acq_options_bjerksund_price_approx($L30,$C$5,AI$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>65</v>
-      </c>
-      <c r="AJ30">
-        <f>_xll.acq_options_bjerksund_price_approx($L30,$C$5,AJ$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>65</v>
-      </c>
-      <c r="AK30">
-        <f>_xll.acq_options_bjerksund_price_approx($L30,$C$5,AK$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>65</v>
-      </c>
-      <c r="AL30">
-        <f>_xll.acq_options_bjerksund_price_approx($L30,$C$5,AL$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>65</v>
-      </c>
-      <c r="AM30">
-        <f>_xll.acq_options_bjerksund_price_approx($L30,$C$5,AM$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>65</v>
-      </c>
-      <c r="AN30">
-        <f>_xll.acq_options_bjerksund_price_approx($L30,$C$5,AN$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>65</v>
-      </c>
-      <c r="AO30">
-        <f>_xll.acq_options_bjerksund_price_approx($L30,$C$5,AO$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>65</v>
-      </c>
-      <c r="AP30">
-        <f>_xll.acq_options_bjerksund_price_approx($L30,$C$5,AP$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>65</v>
-      </c>
-      <c r="AQ30">
-        <f>_xll.acq_options_bjerksund_price_approx($L30,$C$5,AQ$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>65</v>
-      </c>
-      <c r="AR30">
-        <f>_xll.acq_options_bjerksund_price_approx($L30,$C$5,AR$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>65</v>
-      </c>
-      <c r="AS30">
-        <f>_xll.acq_options_bjerksund_price_approx($L30,$C$5,AS$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>65</v>
-      </c>
-      <c r="AT30">
-        <f>_xll.acq_options_bjerksund_price_approx($L30,$C$5,AT$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>65</v>
-      </c>
-      <c r="AU30">
-        <f>_xll.acq_options_bjerksund_price_approx($L30,$C$5,AU$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>65</v>
-      </c>
-      <c r="AV30">
-        <f>_xll.acq_options_bjerksund_price_approx($L30,$C$5,AV$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>65</v>
-      </c>
-      <c r="AW30">
-        <f>_xll.acq_options_bjerksund_price_approx($L30,$C$5,AW$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>65</v>
-      </c>
-      <c r="AX30">
-        <f>_xll.acq_options_bjerksund_price_approx($L30,$C$5,AX$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="31" spans="6:50" x14ac:dyDescent="0.25">
-      <c r="L31" s="44">
-        <v>20</v>
-      </c>
-      <c r="M31">
-        <f>_xll.acq_options_bjerksund_price_approx($L31,$C$5,M$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>0</v>
-      </c>
-      <c r="N31">
-        <f>_xll.acq_options_bjerksund_price_approx($L31,$C$5,N$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>0</v>
-      </c>
-      <c r="O31">
-        <f>_xll.acq_options_bjerksund_price_approx($L31,$C$5,O$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>2.8421709430404007E-14</v>
-      </c>
-      <c r="P31">
-        <f>_xll.acq_options_bjerksund_price_approx($L31,$C$5,P$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>9.5455732207483379E-10</v>
-      </c>
-      <c r="Q31">
-        <f>_xll.acq_options_bjerksund_price_approx($L31,$C$5,Q$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>1.5938758224365301E-7</v>
-      </c>
-      <c r="R31">
-        <f>_xll.acq_options_bjerksund_price_approx($L31,$C$5,R$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>3.6701417798212788E-6</v>
-      </c>
-      <c r="S31">
-        <f>_xll.acq_options_bjerksund_price_approx($L31,$C$5,S$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>3.0993242688737155E-5</v>
-      </c>
-      <c r="T31">
-        <f>_xll.acq_options_bjerksund_price_approx($L31,$C$5,T$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>1.4650812374839006E-4</v>
-      </c>
-      <c r="U31">
-        <f>_xll.acq_options_bjerksund_price_approx($L31,$C$5,U$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>4.7982463594564706E-4</v>
-      </c>
-      <c r="V31">
-        <f>_xll.acq_options_bjerksund_price_approx($L31,$C$5,V$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>1.2269169447023387E-3</v>
-      </c>
-      <c r="W31">
-        <f>_xll.acq_options_bjerksund_price_approx($L31,$C$5,W$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>2.6329825971487253E-3</v>
-      </c>
-      <c r="X31">
-        <f>_xll.acq_options_bjerksund_price_approx($L31,$C$5,X$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>4.9672697063982696E-3</v>
-      </c>
-      <c r="Y31">
-        <f>_xll.acq_options_bjerksund_price_approx($L31,$C$5,Y$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>8.4987755389107633E-3</v>
-      </c>
-      <c r="Z31">
-        <f>_xll.acq_options_bjerksund_price_approx($L31,$C$5,Z$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>1.3477397699318772E-2</v>
-      </c>
-      <c r="AA31">
-        <f>_xll.acq_options_bjerksund_price_approx($L31,$C$5,AA$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>2.0121657019032568E-2</v>
-      </c>
-      <c r="AB31">
-        <f>_xll.acq_options_bjerksund_price_approx($L31,$C$5,AB$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>2.8612261598183863E-2</v>
-      </c>
-      <c r="AC31">
-        <f>_xll.acq_options_bjerksund_price_approx($L31,$C$5,AC$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>3.9090120510280713E-2</v>
-      </c>
-      <c r="AD31">
-        <f>_xll.acq_options_bjerksund_price_approx($L31,$C$5,AD$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>5.1657393701319165E-2</v>
-      </c>
-      <c r="AF31" s="44">
-        <v>20</v>
-      </c>
-      <c r="AG31">
-        <f>_xll.acq_options_bjerksund_price_approx($L31,$C$5,AG$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>70</v>
-      </c>
-      <c r="AH31">
-        <f>_xll.acq_options_bjerksund_price_approx($L31,$C$5,AH$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>70</v>
-      </c>
-      <c r="AI31">
-        <f>_xll.acq_options_bjerksund_price_approx($L31,$C$5,AI$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>70</v>
-      </c>
-      <c r="AJ31">
-        <f>_xll.acq_options_bjerksund_price_approx($L31,$C$5,AJ$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>70</v>
-      </c>
-      <c r="AK31">
-        <f>_xll.acq_options_bjerksund_price_approx($L31,$C$5,AK$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>70</v>
-      </c>
-      <c r="AL31">
-        <f>_xll.acq_options_bjerksund_price_approx($L31,$C$5,AL$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>70</v>
-      </c>
-      <c r="AM31">
-        <f>_xll.acq_options_bjerksund_price_approx($L31,$C$5,AM$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>70</v>
-      </c>
-      <c r="AN31">
-        <f>_xll.acq_options_bjerksund_price_approx($L31,$C$5,AN$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>70</v>
-      </c>
-      <c r="AO31">
-        <f>_xll.acq_options_bjerksund_price_approx($L31,$C$5,AO$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>70</v>
-      </c>
-      <c r="AP31">
-        <f>_xll.acq_options_bjerksund_price_approx($L31,$C$5,AP$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>70</v>
-      </c>
-      <c r="AQ31">
-        <f>_xll.acq_options_bjerksund_price_approx($L31,$C$5,AQ$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>70</v>
-      </c>
-      <c r="AR31">
-        <f>_xll.acq_options_bjerksund_price_approx($L31,$C$5,AR$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>70</v>
-      </c>
-      <c r="AS31">
-        <f>_xll.acq_options_bjerksund_price_approx($L31,$C$5,AS$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>70</v>
-      </c>
-      <c r="AT31">
-        <f>_xll.acq_options_bjerksund_price_approx($L31,$C$5,AT$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>70</v>
-      </c>
-      <c r="AU31">
-        <f>_xll.acq_options_bjerksund_price_approx($L31,$C$5,AU$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>70</v>
-      </c>
-      <c r="AV31">
-        <f>_xll.acq_options_bjerksund_price_approx($L31,$C$5,AV$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>70</v>
-      </c>
-      <c r="AW31">
-        <f>_xll.acq_options_bjerksund_price_approx($L31,$C$5,AW$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>70</v>
-      </c>
-      <c r="AX31">
-        <f>_xll.acq_options_bjerksund_price_approx($L31,$C$5,AX$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="32" spans="6:50" x14ac:dyDescent="0.25">
-      <c r="L32" s="44">
-        <v>15</v>
-      </c>
-      <c r="M32">
-        <f>_xll.acq_options_bjerksund_price_approx($L32,$C$5,M$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>0</v>
-      </c>
-      <c r="N32">
-        <f>_xll.acq_options_bjerksund_price_approx($L32,$C$5,N$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>0</v>
-      </c>
-      <c r="O32">
-        <f>_xll.acq_options_bjerksund_price_approx($L32,$C$5,O$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>0</v>
-      </c>
-      <c r="P32">
-        <f>_xll.acq_options_bjerksund_price_approx($L32,$C$5,P$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>2.4158453015843406E-13</v>
-      </c>
-      <c r="Q32">
-        <f>_xll.acq_options_bjerksund_price_approx($L32,$C$5,Q$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>2.8535396268125623E-10</v>
-      </c>
-      <c r="R32">
-        <f>_xll.acq_options_bjerksund_price_approx($L32,$C$5,R$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>2.1594630084109667E-8</v>
-      </c>
-      <c r="S32">
-        <f>_xll.acq_options_bjerksund_price_approx($L32,$C$5,S$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>4.0358840180942934E-7</v>
-      </c>
-      <c r="T32">
-        <f>_xll.acq_options_bjerksund_price_approx($L32,$C$5,T$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>3.3680742177466527E-6</v>
-      </c>
-      <c r="U32">
-        <f>_xll.acq_options_bjerksund_price_approx($L32,$C$5,U$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>1.6907116744846462E-5</v>
-      </c>
-      <c r="V32">
-        <f>_xll.acq_options_bjerksund_price_approx($L32,$C$5,V$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>6.0301007465568546E-5</v>
-      </c>
-      <c r="W32">
-        <f>_xll.acq_options_bjerksund_price_approx($L32,$C$5,W$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>1.6896615183270569E-4</v>
-      </c>
-      <c r="X32">
-        <f>_xll.acq_options_bjerksund_price_approx($L32,$C$5,X$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>3.9667828029621433E-4</v>
-      </c>
-      <c r="Y32">
-        <f>_xll.acq_options_bjerksund_price_approx($L32,$C$5,Y$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>8.1466411519670601E-4</v>
-      </c>
-      <c r="Z32">
-        <f>_xll.acq_options_bjerksund_price_approx($L32,$C$5,Z$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>1.5082303621056781E-3</v>
-      </c>
-      <c r="AA32">
-        <f>_xll.acq_options_bjerksund_price_approx($L32,$C$5,AA$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>2.5720460623119834E-3</v>
-      </c>
-      <c r="AB32">
-        <f>_xll.acq_options_bjerksund_price_approx($L32,$C$5,AB$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>4.1051059664169998E-3</v>
-      </c>
-      <c r="AC32">
-        <f>_xll.acq_options_bjerksund_price_approx($L32,$C$5,AC$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>6.206091758230059E-3</v>
-      </c>
-      <c r="AD32">
-        <f>_xll.acq_options_bjerksund_price_approx($L32,$C$5,AD$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>8.9695225565264991E-3</v>
-      </c>
-      <c r="AF32" s="44">
-        <v>15</v>
-      </c>
-      <c r="AG32">
-        <f>_xll.acq_options_bjerksund_price_approx($L32,$C$5,AG$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>75</v>
-      </c>
-      <c r="AH32">
-        <f>_xll.acq_options_bjerksund_price_approx($L32,$C$5,AH$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>75</v>
-      </c>
-      <c r="AI32">
-        <f>_xll.acq_options_bjerksund_price_approx($L32,$C$5,AI$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>75</v>
-      </c>
-      <c r="AJ32">
-        <f>_xll.acq_options_bjerksund_price_approx($L32,$C$5,AJ$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>75</v>
-      </c>
-      <c r="AK32">
-        <f>_xll.acq_options_bjerksund_price_approx($L32,$C$5,AK$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>75</v>
-      </c>
-      <c r="AL32">
-        <f>_xll.acq_options_bjerksund_price_approx($L32,$C$5,AL$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>75</v>
-      </c>
-      <c r="AM32">
-        <f>_xll.acq_options_bjerksund_price_approx($L32,$C$5,AM$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>75</v>
-      </c>
-      <c r="AN32">
-        <f>_xll.acq_options_bjerksund_price_approx($L32,$C$5,AN$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>75</v>
-      </c>
-      <c r="AO32">
-        <f>_xll.acq_options_bjerksund_price_approx($L32,$C$5,AO$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>75</v>
-      </c>
-      <c r="AP32">
-        <f>_xll.acq_options_bjerksund_price_approx($L32,$C$5,AP$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>75</v>
-      </c>
-      <c r="AQ32">
-        <f>_xll.acq_options_bjerksund_price_approx($L32,$C$5,AQ$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>75</v>
-      </c>
-      <c r="AR32">
-        <f>_xll.acq_options_bjerksund_price_approx($L32,$C$5,AR$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>75</v>
-      </c>
-      <c r="AS32">
-        <f>_xll.acq_options_bjerksund_price_approx($L32,$C$5,AS$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>75</v>
-      </c>
-      <c r="AT32">
-        <f>_xll.acq_options_bjerksund_price_approx($L32,$C$5,AT$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>75</v>
-      </c>
-      <c r="AU32">
-        <f>_xll.acq_options_bjerksund_price_approx($L32,$C$5,AU$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>75</v>
-      </c>
-      <c r="AV32">
-        <f>_xll.acq_options_bjerksund_price_approx($L32,$C$5,AV$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>75</v>
-      </c>
-      <c r="AW32">
-        <f>_xll.acq_options_bjerksund_price_approx($L32,$C$5,AW$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>75</v>
-      </c>
-      <c r="AX32">
-        <f>_xll.acq_options_bjerksund_price_approx($L32,$C$5,AX$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="33" spans="12:50" x14ac:dyDescent="0.25">
-      <c r="L33" s="44">
-        <v>10</v>
-      </c>
-      <c r="M33">
-        <f>_xll.acq_options_bjerksund_price_approx($L33,$C$5,M$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>0</v>
-      </c>
-      <c r="N33">
-        <f>_xll.acq_options_bjerksund_price_approx($L33,$C$5,N$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>0</v>
-      </c>
-      <c r="O33">
-        <f>_xll.acq_options_bjerksund_price_approx($L33,$C$5,O$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>0</v>
-      </c>
-      <c r="P33">
-        <f>_xll.acq_options_bjerksund_price_approx($L33,$C$5,P$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <f>_xll.acq_options_bjerksund_price_approx($L33,$C$5,Q$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>1.4210854715202004E-14</v>
-      </c>
-      <c r="R33">
-        <f>_xll.acq_options_bjerksund_price_approx($L33,$C$5,R$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>4.0785153032629751E-12</v>
-      </c>
-      <c r="S33">
-        <f>_xll.acq_options_bjerksund_price_approx($L33,$C$5,S$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>2.9459101824613754E-10</v>
-      </c>
-      <c r="T33">
-        <f>_xll.acq_options_bjerksund_price_approx($L33,$C$5,T$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>6.4615619521646295E-9</v>
-      </c>
-      <c r="U33">
-        <f>_xll.acq_options_bjerksund_price_approx($L33,$C$5,U$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>6.6999248815591272E-8</v>
-      </c>
-      <c r="V33">
-        <f>_xll.acq_options_bjerksund_price_approx($L33,$C$5,V$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>4.2035607350499049E-7</v>
-      </c>
-      <c r="W33">
-        <f>_xll.acq_options_bjerksund_price_approx($L33,$C$5,W$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>1.8515825672693609E-6</v>
-      </c>
-      <c r="X33">
-        <f>_xll.acq_options_bjerksund_price_approx($L33,$C$5,X$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>6.2964979150592626E-6</v>
-      </c>
-      <c r="Y33">
-        <f>_xll.acq_options_bjerksund_price_approx($L33,$C$5,Y$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>1.7615555833572216E-5</v>
-      </c>
-      <c r="Z33">
-        <f>_xll.acq_options_bjerksund_price_approx($L33,$C$5,Z$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>4.2376607424898793E-5</v>
-      </c>
-      <c r="AA33">
-        <f>_xll.acq_options_bjerksund_price_approx($L33,$C$5,AA$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>9.0479591989378605E-5</v>
-      </c>
-      <c r="AB33">
-        <f>_xll.acq_options_bjerksund_price_approx($L33,$C$5,AB$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>1.7550981893066364E-4</v>
-      </c>
-      <c r="AC33">
-        <f>_xll.acq_options_bjerksund_price_approx($L33,$C$5,AC$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>3.1477984845196261E-4</v>
-      </c>
-      <c r="AD33">
-        <f>_xll.acq_options_bjerksund_price_approx($L33,$C$5,AD$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>5.2908225998749003E-4</v>
-      </c>
-      <c r="AF33" s="44">
-        <v>10</v>
-      </c>
-      <c r="AG33">
-        <f>_xll.acq_options_bjerksund_price_approx($L33,$C$5,AG$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>80</v>
-      </c>
-      <c r="AH33">
-        <f>_xll.acq_options_bjerksund_price_approx($L33,$C$5,AH$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>80</v>
-      </c>
-      <c r="AI33">
-        <f>_xll.acq_options_bjerksund_price_approx($L33,$C$5,AI$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>80</v>
-      </c>
-      <c r="AJ33">
-        <f>_xll.acq_options_bjerksund_price_approx($L33,$C$5,AJ$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>80</v>
-      </c>
-      <c r="AK33">
-        <f>_xll.acq_options_bjerksund_price_approx($L33,$C$5,AK$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>80</v>
-      </c>
-      <c r="AL33">
-        <f>_xll.acq_options_bjerksund_price_approx($L33,$C$5,AL$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>80</v>
-      </c>
-      <c r="AM33">
-        <f>_xll.acq_options_bjerksund_price_approx($L33,$C$5,AM$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>80</v>
-      </c>
-      <c r="AN33">
-        <f>_xll.acq_options_bjerksund_price_approx($L33,$C$5,AN$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>80</v>
-      </c>
-      <c r="AO33">
-        <f>_xll.acq_options_bjerksund_price_approx($L33,$C$5,AO$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>80</v>
-      </c>
-      <c r="AP33">
-        <f>_xll.acq_options_bjerksund_price_approx($L33,$C$5,AP$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>80</v>
-      </c>
-      <c r="AQ33">
-        <f>_xll.acq_options_bjerksund_price_approx($L33,$C$5,AQ$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>80</v>
-      </c>
-      <c r="AR33">
-        <f>_xll.acq_options_bjerksund_price_approx($L33,$C$5,AR$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>80</v>
-      </c>
-      <c r="AS33">
-        <f>_xll.acq_options_bjerksund_price_approx($L33,$C$5,AS$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>80</v>
-      </c>
-      <c r="AT33">
-        <f>_xll.acq_options_bjerksund_price_approx($L33,$C$5,AT$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>80</v>
-      </c>
-      <c r="AU33">
-        <f>_xll.acq_options_bjerksund_price_approx($L33,$C$5,AU$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>80</v>
-      </c>
-      <c r="AV33">
-        <f>_xll.acq_options_bjerksund_price_approx($L33,$C$5,AV$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>80</v>
-      </c>
-      <c r="AW33">
-        <f>_xll.acq_options_bjerksund_price_approx($L33,$C$5,AW$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>80</v>
-      </c>
-      <c r="AX33">
-        <f>_xll.acq_options_bjerksund_price_approx($L33,$C$5,AX$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="34" spans="12:50" x14ac:dyDescent="0.25">
-      <c r="L34" s="44">
-        <v>5</v>
-      </c>
-      <c r="M34">
-        <f>_xll.acq_options_bjerksund_price_approx($L34,$C$5,M$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>0</v>
-      </c>
-      <c r="N34">
-        <f>_xll.acq_options_bjerksund_price_approx($L34,$C$5,N$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>0</v>
-      </c>
-      <c r="O34">
-        <f>_xll.acq_options_bjerksund_price_approx($L34,$C$5,O$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>0</v>
-      </c>
-      <c r="P34">
-        <f>_xll.acq_options_bjerksund_price_approx($L34,$C$5,P$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <f>_xll.acq_options_bjerksund_price_approx($L34,$C$5,Q$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>0</v>
-      </c>
-      <c r="R34">
-        <f>_xll.acq_options_bjerksund_price_approx($L34,$C$5,R$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>0</v>
-      </c>
-      <c r="S34">
-        <f>_xll.acq_options_bjerksund_price_approx($L34,$C$5,S$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>0</v>
-      </c>
-      <c r="T34">
-        <f>_xll.acq_options_bjerksund_price_approx($L34,$C$5,T$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>2.8421709430404007E-14</v>
-      </c>
-      <c r="U34">
-        <f>_xll.acq_options_bjerksund_price_approx($L34,$C$5,U$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>5.4001247917767614E-13</v>
-      </c>
-      <c r="V34">
-        <f>_xll.acq_options_bjerksund_price_approx($L34,$C$5,V$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>1.1738165994756855E-11</v>
-      </c>
-      <c r="W34">
-        <f>_xll.acq_options_bjerksund_price_approx($L34,$C$5,W$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>1.3805845355818747E-10</v>
-      </c>
-      <c r="X34">
-        <f>_xll.acq_options_bjerksund_price_approx($L34,$C$5,X$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>1.0492726687516551E-9</v>
-      </c>
-      <c r="Y34">
-        <f>_xll.acq_options_bjerksund_price_approx($L34,$C$5,Y$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>5.7399347497266717E-9</v>
-      </c>
-      <c r="Z34">
-        <f>_xll.acq_options_bjerksund_price_approx($L34,$C$5,Z$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>2.4360957695535035E-8</v>
-      </c>
-      <c r="AA34">
-        <f>_xll.acq_options_bjerksund_price_approx($L34,$C$5,AA$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>8.4640831232718483E-8</v>
-      </c>
-      <c r="AB34">
-        <f>_xll.acq_options_bjerksund_price_approx($L34,$C$5,AB$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>2.5044309381883068E-7</v>
-      </c>
-      <c r="AC34">
-        <f>_xll.acq_options_bjerksund_price_approx($L34,$C$5,AC$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>6.500866192027388E-7</v>
-      </c>
-      <c r="AD34">
-        <f>_xll.acq_options_bjerksund_price_approx($L34,$C$5,AD$4,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>1.5144178036052836E-6</v>
-      </c>
-      <c r="AF34" s="44">
-        <v>5</v>
-      </c>
-      <c r="AG34">
-        <f>_xll.acq_options_bjerksund_price_approx($L34,$C$5,AG$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>85</v>
-      </c>
-      <c r="AH34">
-        <f>_xll.acq_options_bjerksund_price_approx($L34,$C$5,AH$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>85</v>
-      </c>
-      <c r="AI34">
-        <f>_xll.acq_options_bjerksund_price_approx($L34,$C$5,AI$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>85</v>
-      </c>
-      <c r="AJ34">
-        <f>_xll.acq_options_bjerksund_price_approx($L34,$C$5,AJ$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>85</v>
-      </c>
-      <c r="AK34">
-        <f>_xll.acq_options_bjerksund_price_approx($L34,$C$5,AK$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>85</v>
-      </c>
-      <c r="AL34">
-        <f>_xll.acq_options_bjerksund_price_approx($L34,$C$5,AL$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>85</v>
-      </c>
-      <c r="AM34">
-        <f>_xll.acq_options_bjerksund_price_approx($L34,$C$5,AM$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>85</v>
-      </c>
-      <c r="AN34">
-        <f>_xll.acq_options_bjerksund_price_approx($L34,$C$5,AN$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>85</v>
-      </c>
-      <c r="AO34">
-        <f>_xll.acq_options_bjerksund_price_approx($L34,$C$5,AO$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>85</v>
-      </c>
-      <c r="AP34">
-        <f>_xll.acq_options_bjerksund_price_approx($L34,$C$5,AP$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>85</v>
-      </c>
-      <c r="AQ34">
-        <f>_xll.acq_options_bjerksund_price_approx($L34,$C$5,AQ$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>85</v>
-      </c>
-      <c r="AR34">
-        <f>_xll.acq_options_bjerksund_price_approx($L34,$C$5,AR$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>85</v>
-      </c>
-      <c r="AS34">
-        <f>_xll.acq_options_bjerksund_price_approx($L34,$C$5,AS$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>85</v>
-      </c>
-      <c r="AT34">
-        <f>_xll.acq_options_bjerksund_price_approx($L34,$C$5,AT$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>85</v>
-      </c>
-      <c r="AU34">
-        <f>_xll.acq_options_bjerksund_price_approx($L34,$C$5,AU$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>85</v>
-      </c>
-      <c r="AV34">
-        <f>_xll.acq_options_bjerksund_price_approx($L34,$C$5,AV$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>85</v>
-      </c>
-      <c r="AW34">
-        <f>_xll.acq_options_bjerksund_price_approx($L34,$C$5,AW$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>85</v>
-      </c>
-      <c r="AX34">
-        <f>_xll.acq_options_bjerksund_price_approx($L34,$C$5,AX$4,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>85</v>
+      <c r="H47">
+        <f>_xll.acq_options_bjerksund_greeks(H$31,$F47,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>-1.0000000000331966</v>
+      </c>
+      <c r="I47">
+        <f>_xll.acq_options_bjerksund_greeks(I$31,$F47,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <f>_xll.acq_options_bjerksund_greeks(J$31,$F47,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <f>_xll.acq_options_bjerksund_greeks(K$31,$F47,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <f>_xll.acq_options_bjerksund_greeks(L$31,$F47,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <f>_xll.acq_options_bjerksund_greeks(M$31,$F47,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <f>_xll.acq_options_bjerksund_greeks(N$31,$F47,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R47" s="13">
+        <v>100</v>
+      </c>
+      <c r="S47">
+        <f>_xll.acq_options_blackscholes_greeks(S$31,$F47,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>46.29908424676718</v>
+      </c>
+      <c r="T47">
+        <f>_xll.acq_options_blackscholes_greeks(T$31,$F47,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>-0.68529270708283563</v>
+      </c>
+      <c r="U47">
+        <f>_xll.acq_options_blackscholes_greeks(U$31,$F47,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>6.1651385288094013E-3</v>
+      </c>
+      <c r="V47">
+        <f>_xll.acq_options_blackscholes_greeks(V$31,$F47,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>38.532115805058758</v>
+      </c>
+      <c r="W47">
+        <f>_xll.acq_options_blackscholes_greeks(W$31,$F47,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>156.14908813078776</v>
+      </c>
+      <c r="X47">
+        <f>_xll.acq_options_blackscholes_greeks(X$31,$F47,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>1.1925600030594994</v>
+      </c>
+      <c r="Y47">
+        <f>_xll.acq_options_blackscholes_greeks(Y$31,$F47,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>-287.0708873876269</v>
+      </c>
+      <c r="Z47">
+        <f>_xll.acq_options_blackscholes_greeks(Z$31,$F47,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>0.8513392645530935</v>
+      </c>
+    </row>
+    <row r="48" spans="6:35" x14ac:dyDescent="0.25">
+      <c r="F48" s="13">
+        <v>110</v>
+      </c>
+      <c r="G48">
+        <f>_xll.acq_options_bjerksund_greeks(G$31,$F48,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>40.017066978067525</v>
+      </c>
+      <c r="H48">
+        <f>_xll.acq_options_bjerksund_greeks(H$31,$F48,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>-0.9524609334121692</v>
+      </c>
+      <c r="I48">
+        <f>_xll.acq_options_bjerksund_greeks(I$31,$F48,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>2.3065638288244372E-2</v>
+      </c>
+      <c r="J48">
+        <f>_xll.acq_options_bjerksund_greeks(J$31,$F48,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>9.1505904793730632</v>
+      </c>
+      <c r="K48">
+        <f>_xll.acq_options_bjerksund_greeks(K$31,$F48,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>913.85448826031279</v>
+      </c>
+      <c r="L48">
+        <f>_xll.acq_options_bjerksund_greeks(L$31,$F48,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>4.6372848672149303</v>
+      </c>
+      <c r="M48">
+        <f>_xll.acq_options_bjerksund_greeks(M$31,$F48,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>-3.7298693757392698</v>
+      </c>
+      <c r="N48">
+        <f>_xll.acq_options_bjerksund_greeks(N$31,$F48,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>-0.11531254486385478</v>
+      </c>
+      <c r="R48" s="13">
+        <v>110</v>
+      </c>
+      <c r="S48">
+        <f>_xll.acq_options_blackscholes_greeks(S$31,$F48,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>39.764048693079118</v>
+      </c>
+      <c r="T48">
+        <f>_xll.acq_options_blackscholes_greeks(T$31,$F48,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>-0.62091153400776877</v>
+      </c>
+      <c r="U48">
+        <f>_xll.acq_options_blackscholes_greeks(U$31,$F48,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>6.6472559788822673E-3</v>
+      </c>
+      <c r="V48">
+        <f>_xll.acq_options_blackscholes_greeks(V$31,$F48,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>50.269873340297138</v>
+      </c>
+      <c r="W48">
+        <f>_xll.acq_options_blackscholes_greeks(W$31,$F48,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>115.94090950324943</v>
+      </c>
+      <c r="X48">
+        <f>_xll.acq_options_blackscholes_greeks(X$31,$F48,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>1.1356382729549774</v>
+      </c>
+      <c r="Y48">
+        <f>_xll.acq_options_blackscholes_greeks(Y$31,$F48,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>-270.16079358483421</v>
+      </c>
+      <c r="Z48">
+        <f>_xll.acq_options_blackscholes_greeks(Z$31,$F48,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>-0.12765074543010924</v>
+      </c>
+    </row>
+    <row r="49" spans="6:26" x14ac:dyDescent="0.25">
+      <c r="F49" s="13">
+        <v>120</v>
+      </c>
+      <c r="G49">
+        <f>_xll.acq_options_bjerksund_greeks(G$31,$F49,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>31.551537480264027</v>
+      </c>
+      <c r="H49">
+        <f>_xll.acq_options_bjerksund_greeks(H$31,$F49,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>-0.74929179008975666</v>
+      </c>
+      <c r="I49">
+        <f>_xll.acq_options_bjerksund_greeks(I$31,$F49,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>1.7862333834273159E-2</v>
+      </c>
+      <c r="J49">
+        <f>_xll.acq_options_bjerksund_greeks(J$31,$F49,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>45.692384103355778</v>
+      </c>
+      <c r="K49">
+        <f>_xll.acq_options_bjerksund_greeks(K$31,$F49,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>411.82160614994245</v>
+      </c>
+      <c r="L49">
+        <f>_xll.acq_options_bjerksund_greeks(L$31,$F49,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>2.7926628121122121</v>
+      </c>
+      <c r="M49">
+        <f>_xll.acq_options_bjerksund_greeks(M$31,$F49,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>-13.778562590474053</v>
+      </c>
+      <c r="N49">
+        <f>_xll.acq_options_bjerksund_greeks(N$31,$F49,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>-0.75186854111564116</v>
+      </c>
+      <c r="R49" s="13">
+        <v>120</v>
+      </c>
+      <c r="S49">
+        <f>_xll.acq_options_blackscholes_greeks(S$31,$F49,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>33.890706915205044</v>
+      </c>
+      <c r="T49">
+        <f>_xll.acq_options_blackscholes_greeks(T$31,$F49,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>-0.55355781967081308</v>
+      </c>
+      <c r="U49">
+        <f>_xll.acq_options_blackscholes_greeks(U$31,$F49,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>6.7678048079652378E-3</v>
+      </c>
+      <c r="V49">
+        <f>_xll.acq_options_blackscholes_greeks(V$31,$F49,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>60.91024327168715</v>
+      </c>
+      <c r="W49">
+        <f>_xll.acq_options_blackscholes_greeks(W$31,$F49,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>68.125179693630088</v>
+      </c>
+      <c r="X49">
+        <f>_xll.acq_options_blackscholes_greeks(X$31,$F49,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>0.97868484003505463</v>
+      </c>
+      <c r="Y49">
+        <f>_xll.acq_options_blackscholes_greeks(Y$31,$F49,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>-250.79411318925656</v>
+      </c>
+      <c r="Z49">
+        <f>_xll.acq_options_blackscholes_greeks(Z$31,$F49,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>-1.012069748672054</v>
+      </c>
+    </row>
+    <row r="50" spans="6:26" x14ac:dyDescent="0.25">
+      <c r="F50" s="13">
+        <v>130</v>
+      </c>
+      <c r="G50">
+        <f>_xll.acq_options_bjerksund_greeks(G$31,$F50,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>24.882702630293402</v>
+      </c>
+      <c r="H50">
+        <f>_xll.acq_options_bjerksund_greeks(H$31,$F50,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>-0.59088314507960149</v>
+      </c>
+      <c r="I50">
+        <f>_xll.acq_options_bjerksund_greeks(I$31,$F50,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>1.4009060578246135E-2</v>
+      </c>
+      <c r="J50">
+        <f>_xll.acq_options_bjerksund_greeks(J$31,$F50,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>66.9671715357441</v>
+      </c>
+      <c r="K50">
+        <f>_xll.acq_options_bjerksund_greeks(K$31,$F50,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>158.0445029958355</v>
+      </c>
+      <c r="L50">
+        <f>_xll.acq_options_bjerksund_greeks(L$31,$F50,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>1.5418802234989926</v>
+      </c>
+      <c r="M50">
+        <f>_xll.acq_options_bjerksund_greeks(M$31,$F50,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>-17.565620957640249</v>
+      </c>
+      <c r="N50">
+        <f>_xll.acq_options_bjerksund_greeks(N$31,$F50,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>-1.2608148363568716</v>
+      </c>
+      <c r="R50" s="13">
+        <v>130</v>
+      </c>
+      <c r="S50">
+        <f>_xll.acq_options_blackscholes_greeks(S$31,$F50,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>28.691673290913748</v>
+      </c>
+      <c r="T50">
+        <f>_xll.acq_options_blackscholes_greeks(T$31,$F50,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>-0.48654353918606291</v>
+      </c>
+      <c r="U50">
+        <f>_xll.acq_options_blackscholes_greeks(U$31,$F50,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>6.5924254948707267E-3</v>
+      </c>
+      <c r="V50">
+        <f>_xll.acq_options_blackscholes_greeks(V$31,$F50,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>69.632494289572065</v>
+      </c>
+      <c r="W50">
+        <f>_xll.acq_options_blackscholes_greeks(W$31,$F50,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>25.62357394681667</v>
+      </c>
+      <c r="X50">
+        <f>_xll.acq_options_blackscholes_greeks(X$31,$F50,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>0.75837574370535099</v>
+      </c>
+      <c r="Y50">
+        <f>_xll.acq_options_blackscholes_greeks(Y$31,$F50,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>-229.85583346275484</v>
+      </c>
+      <c r="Z50">
+        <f>_xll.acq_options_blackscholes_greeks(Z$31,$F50,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>-1.7601243170237777</v>
+      </c>
+    </row>
+    <row r="51" spans="6:26" x14ac:dyDescent="0.25">
+      <c r="F51" s="13">
+        <v>140</v>
+      </c>
+      <c r="G51">
+        <f>_xll.acq_options_bjerksund_greeks(G$31,$F51,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>19.621669271250902</v>
+      </c>
+      <c r="H51">
+        <f>_xll.acq_options_bjerksund_greeks(H$31,$F51,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>-0.46624407396222978</v>
+      </c>
+      <c r="I51">
+        <f>_xll.acq_options_bjerksund_greeks(I$31,$F51,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>1.1033307600882836E-2</v>
+      </c>
+      <c r="J51">
+        <f>_xll.acq_options_bjerksund_greeks(J$31,$F51,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>77.851720028343195</v>
+      </c>
+      <c r="K51">
+        <f>_xll.acq_options_bjerksund_greeks(K$31,$F51,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>52.171603215356299</v>
+      </c>
+      <c r="L51">
+        <f>_xll.acq_options_bjerksund_greeks(L$31,$F51,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>0.68997323410258105</v>
+      </c>
+      <c r="M51">
+        <f>_xll.acq_options_bjerksund_greeks(M$31,$F51,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>-18.074536261352137</v>
+      </c>
+      <c r="N51">
+        <f>_xll.acq_options_bjerksund_greeks(N$31,$F51,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>-1.6248623295211928</v>
+      </c>
+      <c r="R51" s="13">
+        <v>140</v>
+      </c>
+      <c r="S51">
+        <f>_xll.acq_options_blackscholes_greeks(S$31,$F51,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>24.150101391345359</v>
+      </c>
+      <c r="T51">
+        <f>_xll.acq_options_blackscholes_greeks(T$31,$F51,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>-0.42242186843532148</v>
+      </c>
+      <c r="U51">
+        <f>_xll.acq_options_blackscholes_greeks(U$31,$F51,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>6.2031451884485686E-3</v>
+      </c>
+      <c r="V51">
+        <f>_xll.acq_options_blackscholes_greeks(V$31,$F51,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>75.988528558494963</v>
+      </c>
+      <c r="W51">
+        <f>_xll.acq_options_blackscholes_greeks(W$31,$F51,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>-2.6135177115936088</v>
+      </c>
+      <c r="X51">
+        <f>_xll.acq_options_blackscholes_greeks(X$31,$F51,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>0.51105236932348352</v>
+      </c>
+      <c r="Y51">
+        <f>_xll.acq_options_blackscholes_greeks(Y$31,$F51,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>-208.22290743072591</v>
+      </c>
+      <c r="Z51">
+        <f>_xll.acq_options_blackscholes_greeks(Z$31,$F51,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>-2.3504203444440268</v>
+      </c>
+    </row>
+    <row r="52" spans="6:26" x14ac:dyDescent="0.25">
+      <c r="F52" s="13">
+        <v>150</v>
+      </c>
+      <c r="G52">
+        <f>_xll.acq_options_bjerksund_greeks(G$31,$F52,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>15.470727171446882</v>
+      </c>
+      <c r="H52">
+        <f>_xll.acq_options_bjerksund_greeks(H$31,$F52,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>-0.3677971641025124</v>
+      </c>
+      <c r="I52">
+        <f>_xll.acq_options_bjerksund_greeks(I$31,$F52,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>8.7339913079631515E-3</v>
+      </c>
+      <c r="J52">
+        <f>_xll.acq_options_bjerksund_greeks(J$31,$F52,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>81.694007672874605</v>
+      </c>
+      <c r="K52">
+        <f>_xll.acq_options_bjerksund_greeks(K$31,$F52,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>32.489069212715549</v>
+      </c>
+      <c r="L52">
+        <f>_xll.acq_options_bjerksund_greeks(L$31,$F52,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>0.11754330841995397</v>
+      </c>
+      <c r="M52">
+        <f>_xll.acq_options_bjerksund_greeks(M$31,$F52,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>-16.959207043711899</v>
+      </c>
+      <c r="N52">
+        <f>_xll.acq_options_bjerksund_greeks(N$31,$F52,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>-1.851405528725536</v>
+      </c>
+      <c r="R52" s="13">
+        <v>150</v>
+      </c>
+      <c r="S52">
+        <f>_xll.acq_options_blackscholes_greeks(S$31,$F52,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>20.227726902988501</v>
+      </c>
+      <c r="T52">
+        <f>_xll.acq_options_blackscholes_greeks(T$31,$F52,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>-0.3629282318692339</v>
+      </c>
+      <c r="U52">
+        <f>_xll.acq_options_blackscholes_greeks(U$31,$F52,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>5.6791365019068672E-3</v>
+      </c>
+      <c r="V52">
+        <f>_xll.acq_options_blackscholes_greeks(V$31,$F52,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>79.86285705806533</v>
+      </c>
+      <c r="W52">
+        <f>_xll.acq_options_blackscholes_greeks(W$31,$F52,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>-12.478571415322708</v>
+      </c>
+      <c r="X52">
+        <f>_xll.acq_options_blackscholes_greeks(X$31,$F52,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>0.26620952352688443</v>
+      </c>
+      <c r="Y52">
+        <f>_xll.acq_options_blackscholes_greeks(Y$31,$F52,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>-186.66740420843396</v>
+      </c>
+      <c r="Z52">
+        <f>_xll.acq_options_blackscholes_greeks(Z$31,$F52,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>-2.7794792387239551</v>
+      </c>
+    </row>
+    <row r="53" spans="6:26" x14ac:dyDescent="0.25">
+      <c r="F53" s="13">
+        <v>160</v>
+      </c>
+      <c r="G53">
+        <f>_xll.acq_options_bjerksund_greeks(G$31,$F53,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>12.197163796635536</v>
+      </c>
+      <c r="H53">
+        <f>_xll.acq_options_bjerksund_greeks(H$31,$F53,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>-0.28996089064037278</v>
+      </c>
+      <c r="I53">
+        <f>_xll.acq_options_bjerksund_greeks(I$31,$F53,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>6.9050543061166536E-3</v>
+      </c>
+      <c r="J53">
+        <f>_xll.acq_options_bjerksund_greeks(J$31,$F53,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>80.866097236773655</v>
+      </c>
+      <c r="K53">
+        <f>_xll.acq_options_bjerksund_greeks(K$31,$F53,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>59.706425759031845</v>
+      </c>
+      <c r="L53">
+        <f>_xll.acq_options_bjerksund_greeks(L$31,$F53,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>-0.25508093415282929</v>
+      </c>
+      <c r="M53">
+        <f>_xll.acq_options_bjerksund_greeks(M$31,$F53,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>-15.134372397156426</v>
+      </c>
+      <c r="N53">
+        <f>_xll.acq_options_bjerksund_greeks(N$31,$F53,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>-1.9602662409567984</v>
+      </c>
+      <c r="R53" s="13">
+        <v>160</v>
+      </c>
+      <c r="S53">
+        <f>_xll.acq_options_blackscholes_greeks(S$31,$F53,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>16.872704084983141</v>
+      </c>
+      <c r="T53">
+        <f>_xll.acq_options_blackscholes_greeks(T$31,$F53,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>-0.30906484332811646</v>
+      </c>
+      <c r="U53">
+        <f>_xll.acq_options_blackscholes_greeks(U$31,$F53,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>5.0868699934212263E-3</v>
+      </c>
+      <c r="V53">
+        <f>_xll.acq_options_blackscholes_greeks(V$31,$F53,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>81.389919894739634</v>
+      </c>
+      <c r="W53">
+        <f>_xll.acq_options_blackscholes_greeks(W$31,$F53,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>-4.0385962960226589</v>
+      </c>
+      <c r="X53">
+        <f>_xll.acq_options_blackscholes_greeks(X$31,$F53,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>4.4232097050586193E-2</v>
+      </c>
+      <c r="Y53">
+        <f>_xll.acq_options_blackscholes_greeks(Y$31,$F53,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>-165.80769754370445</v>
+      </c>
+      <c r="Z53">
+        <f>_xll.acq_options_blackscholes_greeks(Z$31,$F53,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>-3.0571337496379924</v>
+      </c>
+    </row>
+    <row r="54" spans="6:26" x14ac:dyDescent="0.25">
+      <c r="F54" s="13">
+        <v>170</v>
+      </c>
+      <c r="G54">
+        <f>_xll.acq_options_bjerksund_greeks(G$31,$F54,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>9.6171978371390026</v>
+      </c>
+      <c r="H54">
+        <f>_xll.acq_options_bjerksund_greeks(H$31,$F54,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>-0.22844808022171037</v>
+      </c>
+      <c r="I54">
+        <f>_xll.acq_options_bjerksund_greeks(I$31,$F54,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>5.4527049542230088E-3</v>
+      </c>
+      <c r="J54">
+        <f>_xll.acq_options_bjerksund_greeks(J$31,$F54,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>77.068352341464632</v>
+      </c>
+      <c r="K54">
+        <f>_xll.acq_options_bjerksund_greeks(K$31,$F54,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>108.64413013678131</v>
+      </c>
+      <c r="L54">
+        <f>_xll.acq_options_bjerksund_greeks(L$31,$F54,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>-0.48441464173265558</v>
+      </c>
+      <c r="M54">
+        <f>_xll.acq_options_bjerksund_greeks(M$31,$F54,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>-13.097309789600331</v>
+      </c>
+      <c r="N54">
+        <f>_xll.acq_options_bjerksund_greeks(N$31,$F54,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>-1.9757614813897817</v>
+      </c>
+      <c r="R54" s="13">
+        <v>170</v>
+      </c>
+      <c r="S54">
+        <f>_xll.acq_options_blackscholes_greeks(S$31,$F54,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>14.026226958466978</v>
+      </c>
+      <c r="T54">
+        <f>_xll.acq_options_blackscholes_greeks(T$31,$F54,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>-0.26124821997391018</v>
+      </c>
+      <c r="U54">
+        <f>_xll.acq_options_blackscholes_greeks(U$31,$F54,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>4.4768688421219201E-3</v>
+      </c>
+      <c r="V54">
+        <f>_xll.acq_options_blackscholes_greeks(V$31,$F54,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>80.863443460827213</v>
+      </c>
+      <c r="W54">
+        <f>_xll.acq_options_blackscholes_greeks(W$31,$F54,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>19.794950167327933</v>
+      </c>
+      <c r="X54">
+        <f>_xll.acq_options_blackscholes_greeks(X$31,$F54,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>-0.14319684567580498</v>
+      </c>
+      <c r="Y54">
+        <f>_xll.acq_options_blackscholes_greeks(Y$31,$F54,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>-146.09606088507928</v>
+      </c>
+      <c r="Z54">
+        <f>_xll.acq_options_blackscholes_greeks(Z$31,$F54,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>-3.2015985555333408</v>
+      </c>
+    </row>
+    <row r="55" spans="6:26" x14ac:dyDescent="0.25">
+      <c r="F55" s="13">
+        <v>180</v>
+      </c>
+      <c r="G55">
+        <f>_xll.acq_options_bjerksund_greeks(G$31,$F55,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>7.5851013072030753</v>
+      </c>
+      <c r="H55">
+        <f>_xll.acq_options_bjerksund_greeks(H$31,$F55,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>-0.17988830094850528</v>
+      </c>
+      <c r="I55">
+        <f>_xll.acq_options_bjerksund_greeks(I$31,$F55,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>4.3172576624783687E-3</v>
+      </c>
+      <c r="J55">
+        <f>_xll.acq_options_bjerksund_greeks(J$31,$F55,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>71.516035002482482</v>
+      </c>
+      <c r="K55">
+        <f>_xll.acq_options_bjerksund_greeks(K$31,$F55,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>163.50398652775766</v>
+      </c>
+      <c r="L55">
+        <f>_xll.acq_options_bjerksund_greeks(L$31,$F55,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>-0.61191869349386252</v>
+      </c>
+      <c r="M55">
+        <f>_xll.acq_options_bjerksund_greeks(M$31,$F55,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>-11.107712442992579</v>
+      </c>
+      <c r="N55">
+        <f>_xll.acq_options_bjerksund_greeks(N$31,$F55,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>-1.922011885540087</v>
+      </c>
+      <c r="R55" s="13">
+        <v>180</v>
+      </c>
+      <c r="S55">
+        <f>_xll.acq_options_blackscholes_greeks(S$31,$F55,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>11.62758747692591</v>
+      </c>
+      <c r="T55">
+        <f>_xll.acq_options_blackscholes_greeks(T$31,$F55,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>-0.21946788422963862</v>
+      </c>
+      <c r="U55">
+        <f>_xll.acq_options_blackscholes_greeks(U$31,$F55,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>3.8843092991744498E-3</v>
+      </c>
+      <c r="V55">
+        <f>_xll.acq_options_blackscholes_greeks(V$31,$F55,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>78.657263308282623</v>
+      </c>
+      <c r="W55">
+        <f>_xll.acq_options_blackscholes_greeks(W$31,$F55,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>54.645044691036254</v>
+      </c>
+      <c r="X55">
+        <f>_xll.acq_options_blackscholes_greeks(X$31,$F55,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>-0.29140679123763585</v>
+      </c>
+      <c r="Y55">
+        <f>_xll.acq_options_blackscholes_greeks(Y$31,$F55,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>-127.82951659565217</v>
+      </c>
+      <c r="Z55">
+        <f>_xll.acq_options_blackscholes_greeks(Z$31,$F55,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>-3.2352079167985752</v>
+      </c>
+    </row>
+    <row r="56" spans="6:26" x14ac:dyDescent="0.25">
+      <c r="F56" s="13">
+        <v>190</v>
+      </c>
+      <c r="G56">
+        <f>_xll.acq_options_bjerksund_greeks(G$31,$F56,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>5.9852452016453697</v>
+      </c>
+      <c r="H56">
+        <f>_xll.acq_options_bjerksund_greeks(H$31,$F56,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>-0.14160239913962869</v>
+      </c>
+      <c r="I56">
+        <f>_xll.acq_options_bjerksund_greeks(I$31,$F56,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>3.3821834222180769E-3</v>
+      </c>
+      <c r="J56">
+        <f>_xll.acq_options_bjerksund_greeks(J$31,$F56,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>65.065637175372672</v>
+      </c>
+      <c r="K56">
+        <f>_xll.acq_options_bjerksund_greeks(K$31,$F56,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>214.88167192273977</v>
+      </c>
+      <c r="L56">
+        <f>_xll.acq_options_bjerksund_greeks(L$31,$F56,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>-0.66844592083725729</v>
+      </c>
+      <c r="M56">
+        <f>_xll.acq_options_bjerksund_greeks(M$31,$F56,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>-9.2903124588872288</v>
+      </c>
+      <c r="N56">
+        <f>_xll.acq_options_bjerksund_greeks(N$31,$F56,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>-1.8204827898671283</v>
+      </c>
+      <c r="R56" s="13">
+        <v>190</v>
+      </c>
+      <c r="S56">
+        <f>_xll.acq_options_blackscholes_greeks(S$31,$F56,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>9.6177137350852462</v>
+      </c>
+      <c r="T56">
+        <f>_xll.acq_options_blackscholes_greeks(T$31,$F56,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>-0.18342866399112998</v>
+      </c>
+      <c r="U56">
+        <f>_xll.acq_options_blackscholes_greeks(U$31,$F56,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>3.3314283158335785E-3</v>
+      </c>
+      <c r="V56">
+        <f>_xll.acq_options_blackscholes_greeks(V$31,$F56,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>75.165351375995115</v>
+      </c>
+      <c r="W56">
+        <f>_xll.acq_options_blackscholes_greeks(W$31,$F56,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>95.780888595578617</v>
+      </c>
+      <c r="X56">
+        <f>_xll.acq_options_blackscholes_greeks(X$31,$F56,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>-0.40070576802662339</v>
+      </c>
+      <c r="Y56">
+        <f>_xll.acq_options_blackscholes_greeks(Y$31,$F56,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>-111.17289973349986</v>
+      </c>
+      <c r="Z56">
+        <f>_xll.acq_options_blackscholes_greeks(Z$31,$F56,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>-3.1812047446946408</v>
+      </c>
+    </row>
+    <row r="57" spans="6:26" x14ac:dyDescent="0.25">
+      <c r="F57" s="13">
+        <v>200</v>
+      </c>
+      <c r="G57">
+        <f>_xll.acq_options_bjerksund_greeks(G$31,$F57,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>4.7259808316812553</v>
+      </c>
+      <c r="H57">
+        <f>_xll.acq_options_bjerksund_greeks(H$31,$F57,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>-0.11145255484734662</v>
+      </c>
+      <c r="I57">
+        <f>_xll.acq_options_bjerksund_greeks(I$31,$F57,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>2.6659563445718959E-3</v>
+      </c>
+      <c r="J57">
+        <f>_xll.acq_options_bjerksund_greeks(J$31,$F57,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>58.306669315164356</v>
+      </c>
+      <c r="K57">
+        <f>_xll.acq_options_bjerksund_greeks(K$31,$F57,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>257.72598917228606</v>
+      </c>
+      <c r="L57">
+        <f>_xll.acq_options_bjerksund_greeks(L$31,$F57,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>-0.67690351102100976</v>
+      </c>
+      <c r="M57">
+        <f>_xll.acq_options_bjerksund_greeks(M$31,$F57,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>-7.6942194169760114</v>
+      </c>
+      <c r="N57">
+        <f>_xll.acq_options_bjerksund_greeks(N$31,$F57,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>-1.6889631692151852</v>
+      </c>
+      <c r="R57" s="13">
+        <v>200</v>
+      </c>
+      <c r="S57">
+        <f>_xll.acq_options_blackscholes_greeks(S$31,$F57,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>7.9414184492413362</v>
+      </c>
+      <c r="T57">
+        <f>_xll.acq_options_blackscholes_greeks(T$31,$F57,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>-0.15266546501441408</v>
+      </c>
+      <c r="U57">
+        <f>_xll.acq_options_blackscholes_greeks(U$31,$F57,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>2.8304648858819411E-3</v>
+      </c>
+      <c r="V57">
+        <f>_xll.acq_options_blackscholes_greeks(V$31,$F57,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>70.761622147048541</v>
+      </c>
+      <c r="W57">
+        <f>_xll.acq_options_blackscholes_greeks(W$31,$F57,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>138.86479773727993</v>
+      </c>
+      <c r="X57">
+        <f>_xll.acq_options_blackscholes_greeks(X$31,$F57,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>-0.47451514813038681</v>
+      </c>
+      <c r="Y57">
+        <f>_xll.acq_options_blackscholes_greeks(Y$31,$F57,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>-96.186278630310397</v>
+      </c>
+      <c r="Z57">
+        <f>_xll.acq_options_blackscholes_greeks(Z$31,$F57,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>-3.0615960003979468</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="7">
+    <mergeCell ref="G45:N45"/>
+    <mergeCell ref="S45:Z45"/>
+    <mergeCell ref="S30:Z30"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="F3:H3"/>
+    <mergeCell ref="G30:N30"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B15" r:id="rId1" xr:uid="{69E1F7C3-E9DE-4863-9FC4-322489C91572}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Distribution/ACQ.Options.xlsx
+++ b/Distribution/ACQ.Options.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ACQ\ACQ.Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D3D991-A665-4434-BCA0-5D6E836C90CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FD8A835-DFCB-4540-9EE8-1895451AAA86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6555" yWindow="525" windowWidth="25785" windowHeight="14550" tabRatio="900" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3270" yWindow="1530" windowWidth="23295" windowHeight="11055" tabRatio="900" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Utils" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="BjerksundStensland2002" sheetId="16" r:id="rId5"/>
     <sheet name="BinomialAmerican" sheetId="18" r:id="rId6"/>
     <sheet name="TrinomialAmerican" sheetId="20" r:id="rId7"/>
-    <sheet name="Comparison" sheetId="19" r:id="rId8"/>
+    <sheet name="Comparison-American" sheetId="19" r:id="rId8"/>
     <sheet name="Description" sheetId="7" r:id="rId9"/>
     <sheet name="Types" sheetId="17" r:id="rId10"/>
     <sheet name="Special" sheetId="9" r:id="rId11"/>
@@ -193,7 +193,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="174">
   <si>
     <t>x</t>
   </si>
@@ -708,10 +708,13 @@
     <t>Pricing Params</t>
   </si>
   <si>
-    <t>dx</t>
+    <t>Trinomial</t>
   </si>
   <si>
-    <t>Trinomial</t>
+    <t>Call Greeks: Trinomial Numerical Greeks</t>
+  </si>
+  <si>
+    <t>Put Greeks: Trinomial Numerical Greeks</t>
   </si>
 </sst>
 </file>
@@ -3740,7 +3743,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Comparison!$F$3</c:f>
+              <c:f>'Comparison-American'!$F$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3754,7 +3757,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Comparison!$F$5:$F$21</c:f>
+              <c:f>'Comparison-American'!$F$5:$F$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -3814,7 +3817,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Comparison!$G$5:$G$21</c:f>
+              <c:f>'Comparison-American'!$G$5:$G$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -3884,7 +3887,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Comparison!$I$3</c:f>
+              <c:f>'Comparison-American'!$I$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3898,7 +3901,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Comparison!$F$5:$F$21</c:f>
+              <c:f>'Comparison-American'!$F$5:$F$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -3958,7 +3961,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Comparison!$I$5:$I$21</c:f>
+              <c:f>'Comparison-American'!$I$5:$I$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -4028,7 +4031,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Comparison!$M$3</c:f>
+              <c:f>'Comparison-American'!$M$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4037,12 +4040,17 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Comparison!$F$5:$F$21</c:f>
+              <c:f>'Comparison-American'!$F$5:$F$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -4102,7 +4110,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Comparison!$M$5:$M$21</c:f>
+              <c:f>'Comparison-American'!$M$5:$M$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -4172,7 +4180,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Comparison!$K$3</c:f>
+              <c:f>'Comparison-American'!$K$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4195,7 +4203,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Comparison!$F$5:$F$21</c:f>
+              <c:f>'Comparison-American'!$F$5:$F$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -4255,60 +4263,60 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Comparison!$K$5:$K$21</c:f>
+              <c:f>'Comparison-American'!$K$5:$K$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>63.779913678626997</c:v>
+                  <c:v>69.999999999999986</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>55.172839955210684</c:v>
+                  <c:v>59.999999999999986</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>46.567733861621804</c:v>
+                  <c:v>49.999999999999986</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>38.00798103508329</c:v>
+                  <c:v>39.999999999999986</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>29.717517847404697</c:v>
+                  <c:v>30.498380409808711</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22.147104515196297</c:v>
+                  <c:v>22.446455528312654</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15.750780237113808</c:v>
+                  <c:v>15.865993500151173</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.745087201999954</c:v>
+                  <c:v>10.789799785481252</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.0875123087075256</c:v>
+                  <c:v>7.1050671839426629</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.5506313479399365</c:v>
+                  <c:v>4.5576258454195173</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.8613150802534113</c:v>
+                  <c:v>2.8641484870550871</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.77377552046925</c:v>
+                  <c:v>1.7749433956584808</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.087041380836717</c:v>
+                  <c:v>1.0875315364274123</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.66014267245239699</c:v>
+                  <c:v>0.66035216158533605</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.4006075608123949</c:v>
+                  <c:v>0.40069869352047782</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.24193236200765178</c:v>
+                  <c:v>0.24197271431601239</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.14599463630563914</c:v>
+                  <c:v>0.14601281191060614</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4545,7 +4553,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Put Greeks Comparison</a:t>
+              <a:t>Call Greeks Comparison</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4558,26 +4566,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -4590,7 +4578,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Comparison!$F$3</c:f>
+              <c:f>'Comparison-American'!$F$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4599,21 +4587,12 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Comparison!$F$5:$F$21</c:f>
+              <c:f>'Comparison-American'!$F$5:$F$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -4673,7 +4652,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Comparison!$H$5:$H$21</c:f>
+              <c:f>'Comparison-American'!$H$5:$H$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -4734,16 +4713,16 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-AA9E-4FAD-8D93-2E6EC412F4C8}"/>
+              <c16:uniqueId val="{00000003-36CB-46E0-9543-7836A1C0E5E8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="2"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Comparison!$I$3</c:f>
+              <c:f>'Comparison-American'!$I$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4752,21 +4731,12 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Comparison!$F$5:$F$21</c:f>
+              <c:f>'Comparison-American'!$F$5:$F$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -4826,7 +4796,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Comparison!$J$5:$J$21</c:f>
+              <c:f>'Comparison-American'!$J$5:$J$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -4887,16 +4857,16 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-AA9E-4FAD-8D93-2E6EC412F4C8}"/>
+              <c16:uniqueId val="{00000004-36CB-46E0-9543-7836A1C0E5E8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="3"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Comparison!$M$3</c:f>
+              <c:f>'Comparison-American'!$M$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4905,21 +4875,12 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Comparison!$F$5:$F$21</c:f>
+              <c:f>'Comparison-American'!$F$5:$F$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -4979,7 +4940,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Comparison!$N$5:$N$21</c:f>
+              <c:f>'Comparison-American'!$N$5:$N$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -5040,7 +5001,151 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-AA9E-4FAD-8D93-2E6EC412F4C8}"/>
+              <c16:uniqueId val="{00000005-36CB-46E0-9543-7836A1C0E5E8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Comparison-American'!$K$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Trinomial</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Comparison-American'!$F$5:$F$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Comparison-American'!$L$5:$L$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>7.7531407749717081E-12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.1198396917104289E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0202104753871985E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0745317142587704E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.38081386927335337</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.480431683143093</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.8810475580777197</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.9151152949034689</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.67667721163852</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21.090392408953964</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30.037336547675785</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40.000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>50.000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>60.000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>70.000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80.000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>90.000000000000014</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-36CB-46E0-9543-7836A1C0E5E8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5179,13 +5284,6 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
@@ -5220,30 +5318,9 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -5342,7 +5419,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Comparison!$P$3</c:f>
+              <c:f>'Comparison-American'!$P$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5365,7 +5442,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Comparison!$P$5:$P$21</c:f>
+              <c:f>'Comparison-American'!$P$5:$P$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -5425,7 +5502,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Comparison!$Q$5:$Q$21</c:f>
+              <c:f>'Comparison-American'!$Q$5:$Q$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -5495,7 +5572,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Comparison!$S$3</c:f>
+              <c:f>'Comparison-American'!$S$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5518,7 +5595,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Comparison!$P$5:$P$21</c:f>
+              <c:f>'Comparison-American'!$P$5:$P$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -5578,7 +5655,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Comparison!$S$5:$S$21</c:f>
+              <c:f>'Comparison-American'!$S$5:$S$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -5648,11 +5725,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Comparison!$U$3</c:f>
+              <c:f>'Comparison-American'!$W$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Black-Scholes</c:v>
+                  <c:v>Trinomial</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5671,7 +5748,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Comparison!$P$5:$P$21</c:f>
+              <c:f>'Comparison-American'!$P$5:$P$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -5731,60 +5808,60 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Comparison!$U$5:$U$21</c:f>
+              <c:f>'Comparison-American'!$W$5:$W$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>3.3351774601797848E-4</c:v>
+                  <c:v>3.2878225846039481E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.5456678892759728E-2</c:v>
+                  <c:v>4.5362907552770448E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.35505450869495725</c:v>
+                  <c:v>0.35446037434305855</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3713969167756943</c:v>
+                  <c:v>1.3717766118614212</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.5516862799483064</c:v>
+                  <c:v>3.5552974923851526</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.4765239990462931</c:v>
+                  <c:v>5.4919312685658506</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.1184240923643642</c:v>
+                  <c:v>7.1659504190710379</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.5135393274726532</c:v>
+                  <c:v>8.6155333627550021</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.6976621265012177</c:v>
+                  <c:v>9.8821952981193775</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.70055077793285</c:v>
+                  <c:v>10.9937639191799</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.546546232333785</c:v>
+                  <c:v>11.971555048494547</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.255754166105291</c:v>
+                  <c:v>12.836507128490545</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12.845018758126805</c:v>
+                  <c:v>13.610353346017032</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13.32864340022109</c:v>
+                  <c:v>14.296489058553618</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>13.718916522506802</c:v>
+                  <c:v>14.907287728066489</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>14.026499138914556</c:v>
+                  <c:v>15.457808393273426</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>14.260715508430181</c:v>
+                  <c:v>15.954057435044053</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10110,46 +10187,6 @@
 </file>
 
 <file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -12769,522 +12806,6 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -13453,15 +12974,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>4761</xdr:rowOff>
+      <xdr:rowOff>23811</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
+      <xdr:colOff>352425</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13489,15 +13010,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
+      <xdr:colOff>381000</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13526,16 +13047,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13954,7 +13475,7 @@
       </c>
       <c r="C4" s="6" t="str">
         <f>_xll.acq_version()</f>
-        <v>1.3.8028.27719</v>
+        <v>1.3.8029.1377</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
@@ -14096,11 +13617,11 @@
       </c>
       <c r="C4" s="48">
         <f ca="1">TODAY()</f>
-        <v>44554</v>
+        <v>44555</v>
       </c>
       <c r="E4" s="49" t="str">
         <f ca="1">_xll.acq_tostring(C4)</f>
-        <v>44554</v>
+        <v>44555</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
@@ -14183,7 +13704,7 @@
       </c>
       <c r="C13" t="str">
         <f ca="1">_xll.acq_join(C3:C10)</f>
-        <v>3.14159265358979,44554,True,,,,,</v>
+        <v>3.14159265358979,44555,True,,,,,</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14192,7 +13713,7 @@
       </c>
       <c r="C14" t="str">
         <f ca="1">_xll.acq_join(E3:E10, "|")</f>
-        <v>3.14159265358979|44554|TRUE|||||</v>
+        <v>3.14159265358979|44555|TRUE|||||</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -37786,8 +37307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{508906DC-E156-44EA-9FFD-8AC3A3C029D9}">
   <dimension ref="A1:AB57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="E4" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32:K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37824,7 +37345,7 @@
       </c>
       <c r="C3" s="3"/>
       <c r="F3" s="53" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G3" s="53"/>
       <c r="H3" s="53"/>
@@ -37922,11 +37443,11 @@
       </c>
       <c r="G5">
         <f>_xll.acq_options_trinomial_american_price($C$4,F5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>69.417713217447641</v>
+        <v>70.000000000000213</v>
       </c>
       <c r="H5">
         <f>_xll.acq_options_trinomial_american_price($C$4,F5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>1.9441822304993975E-8</v>
+        <v>1.9838432261221024E-8</v>
       </c>
       <c r="I5">
         <f>_xll.acq_options_binomial_american_price($C$4,F5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
@@ -37971,32 +37492,32 @@
         <v>0.05</v>
       </c>
       <c r="V5">
-        <f>_xll.acq_options_binomial_american_price(V$4,$C$5,$U5,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>30.000000000007944</v>
+        <f>_xll.acq_options_trinomial_american_price(V$4,$C$5,$U5,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>30.000000000000085</v>
       </c>
       <c r="W5">
-        <f>_xll.acq_options_binomial_american_price(W$4,$C$5,$U5,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>20.000000000008811</v>
+        <f>_xll.acq_options_trinomial_american_price(W$4,$C$5,$U5,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>19.999999999999972</v>
       </c>
       <c r="X5">
-        <f>_xll.acq_options_binomial_american_price(X$4,$C$5,$U5,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>10.226132459460437</v>
+        <f>_xll.acq_options_trinomial_american_price(X$4,$C$5,$U5,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>10.226197462781149</v>
       </c>
       <c r="Y5">
-        <f>_xll.acq_options_binomial_american_price(Y$4,$C$5,$U5,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>3.1790029284836754</v>
+        <f>_xll.acq_options_trinomial_american_price(Y$4,$C$5,$U5,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>3.1795489421630068</v>
       </c>
       <c r="Z5">
-        <f>_xll.acq_options_binomial_american_price(Z$4,$C$5,$U5,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>0.48754530179488176</v>
+        <f>_xll.acq_options_trinomial_american_price(Z$4,$C$5,$U5,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>0.48808970976072674</v>
       </c>
       <c r="AA5">
-        <f>_xll.acq_options_binomial_american_price(AA$4,$C$5,$U5,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>3.4019614928197786E-2</v>
+        <f>_xll.acq_options_trinomial_american_price(AA$4,$C$5,$U5,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>3.4278303552810786E-2</v>
       </c>
       <c r="AB5">
-        <f>_xll.acq_options_binomial_american_price(AB$4,$C$5,$U5,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>1.1233079681879743E-3</v>
+        <f>_xll.acq_options_trinomial_american_price(AB$4,$C$5,$U5,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>1.1327941221592392E-3</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
@@ -38011,11 +37532,11 @@
       </c>
       <c r="G6">
         <f>_xll.acq_options_trinomial_american_price($C$4,F6,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>60.810850462426586</v>
+        <v>60.847772819259603</v>
       </c>
       <c r="H6">
         <f>_xll.acq_options_trinomial_american_price($C$4,F6,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>2.1702867129284723E-4</v>
+        <v>2.2423861839803312E-4</v>
       </c>
       <c r="I6">
         <f>_xll.acq_options_binomial_american_price($C$4,F6,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
@@ -38060,32 +37581,32 @@
         <v>0.1</v>
       </c>
       <c r="V6">
-        <f>_xll.acq_options_binomial_american_price(V$4,$C$5,$U6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>29.999999999996874</v>
+        <f>_xll.acq_options_trinomial_american_price(V$4,$C$5,$U6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>30.000000000000199</v>
       </c>
       <c r="W6">
-        <f>_xll.acq_options_binomial_american_price(W$4,$C$5,$U6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>19.999999999996476</v>
+        <f>_xll.acq_options_trinomial_american_price(W$4,$C$5,$U6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>20.000000000000085</v>
       </c>
       <c r="X6">
-        <f>_xll.acq_options_binomial_american_price(X$4,$C$5,$U6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>10.797609727004986</v>
+        <f>_xll.acq_options_trinomial_american_price(X$4,$C$5,$U6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>10.79701560439727</v>
       </c>
       <c r="Y6">
-        <f>_xll.acq_options_binomial_american_price(Y$4,$C$5,$U6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>4.4028779916287712</v>
+        <f>_xll.acq_options_trinomial_american_price(Y$4,$C$5,$U6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>4.4035301670215343</v>
       </c>
       <c r="Z6">
-        <f>_xll.acq_options_binomial_american_price(Z$4,$C$5,$U6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>1.2825833785772736</v>
+        <f>_xll.acq_options_trinomial_american_price(Z$4,$C$5,$U6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>1.2826416600147355</v>
       </c>
       <c r="AA6">
-        <f>_xll.acq_options_binomial_american_price(AA$4,$C$5,$U6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>0.26342580573432217</v>
+        <f>_xll.acq_options_trinomial_american_price(AA$4,$C$5,$U6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>0.26293782528294918</v>
       </c>
       <c r="AB6">
-        <f>_xll.acq_options_binomial_american_price(AB$4,$C$5,$U6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>3.8583844005032689E-2</v>
+        <f>_xll.acq_options_trinomial_american_price(AB$4,$C$5,$U6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>3.8715834382848799E-2</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
@@ -38100,11 +37621,11 @@
       </c>
       <c r="G7">
         <f>_xll.acq_options_trinomial_american_price($C$4,F7,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>52.216900111096678</v>
+        <v>52.220007038152701</v>
       </c>
       <c r="H7">
         <f>_xll.acq_options_trinomial_american_price($C$4,F7,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>1.3346441591933546E-2</v>
+        <v>1.3987024133038886E-2</v>
       </c>
       <c r="I7">
         <f>_xll.acq_options_binomial_american_price($C$4,F7,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
@@ -38149,32 +37670,32 @@
         <v>0.15</v>
       </c>
       <c r="V7">
-        <f>_xll.acq_options_binomial_american_price(V$4,$C$5,$U7,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>30.000000000002515</v>
+        <f>_xll.acq_options_trinomial_american_price(V$4,$C$5,$U7,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>29.999999999999929</v>
       </c>
       <c r="W7">
-        <f>_xll.acq_options_binomial_american_price(W$4,$C$5,$U7,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>20.027854351695026</v>
+        <f>_xll.acq_options_trinomial_american_price(W$4,$C$5,$U7,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>20.027540247320772</v>
       </c>
       <c r="X7">
-        <f>_xll.acq_options_binomial_american_price(X$4,$C$5,$U7,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>11.353356804736338</v>
+        <f>_xll.acq_options_trinomial_american_price(X$4,$C$5,$U7,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>11.354718221411151</v>
       </c>
       <c r="Y7">
-        <f>_xll.acq_options_binomial_american_price(Y$4,$C$5,$U7,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>5.3062813983176547</v>
+        <f>_xll.acq_options_trinomial_american_price(Y$4,$C$5,$U7,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>5.3069876502496989</v>
       </c>
       <c r="Z7">
-        <f>_xll.acq_options_binomial_american_price(Z$4,$C$5,$U7,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>2.0030892793519759</v>
+        <f>_xll.acq_options_trinomial_american_price(Z$4,$C$5,$U7,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>2.0019992873387218</v>
       </c>
       <c r="AA7">
-        <f>_xll.acq_options_binomial_american_price(AA$4,$C$5,$U7,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>0.60807550371991215</v>
+        <f>_xll.acq_options_trinomial_american_price(AA$4,$C$5,$U7,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>0.6077206433870892</v>
       </c>
       <c r="AB7">
-        <f>_xll.acq_options_binomial_american_price(AB$4,$C$5,$U7,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>0.14956122530436966</v>
+        <f>_xll.acq_options_trinomial_american_price(AB$4,$C$5,$U7,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>0.15017888415235259</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
@@ -38189,11 +37710,11 @@
       </c>
       <c r="G8">
         <f>_xll.acq_options_trinomial_american_price($C$4,F8,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>43.738229468156504</v>
+        <v>43.738567226021786</v>
       </c>
       <c r="H8">
         <f>_xll.acq_options_trinomial_american_price($C$4,F8,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>0.14175556290230806</v>
+        <v>0.15100831911655299</v>
       </c>
       <c r="I8">
         <f>_xll.acq_options_binomial_american_price($C$4,F8,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
@@ -38238,32 +37759,32 @@
         <v>0.2</v>
       </c>
       <c r="V8">
-        <f>_xll.acq_options_binomial_american_price(V$4,$C$5,$U8,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>29.999999999993349</v>
+        <f>_xll.acq_options_trinomial_american_price(V$4,$C$5,$U8,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>30.000000000000185</v>
       </c>
       <c r="W8">
-        <f>_xll.acq_options_binomial_american_price(W$4,$C$5,$U8,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>20.13073400794984</v>
+        <f>_xll.acq_options_trinomial_american_price(W$4,$C$5,$U8,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>20.130233975096523</v>
       </c>
       <c r="X8">
-        <f>_xll.acq_options_binomial_american_price(X$4,$C$5,$U8,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>11.863106149450129</v>
+        <f>_xll.acq_options_trinomial_american_price(X$4,$C$5,$U8,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>11.863670749603795</v>
       </c>
       <c r="Y8">
-        <f>_xll.acq_options_binomial_american_price(Y$4,$C$5,$U8,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>6.0442186276654537</v>
+        <f>_xll.acq_options_trinomial_american_price(Y$4,$C$5,$U8,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>6.044955471754049</v>
       </c>
       <c r="Z8">
-        <f>_xll.acq_options_binomial_american_price(Z$4,$C$5,$U8,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>2.6409942086201346</v>
+        <f>_xll.acq_options_trinomial_american_price(Z$4,$C$5,$U8,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>2.6381652660452843</v>
       </c>
       <c r="AA8">
-        <f>_xll.acq_options_binomial_american_price(AA$4,$C$5,$U8,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>0.98906799961525138</v>
+        <f>_xll.acq_options_trinomial_american_price(AA$4,$C$5,$U8,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>0.9881934849560724</v>
       </c>
       <c r="AB8">
-        <f>_xll.acq_options_binomial_american_price(AB$4,$C$5,$U8,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>0.3201665321074566</v>
+        <f>_xll.acq_options_trinomial_american_price(AB$4,$C$5,$U8,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>0.32032745154300857</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
@@ -38278,11 +37799,11 @@
       </c>
       <c r="G9">
         <f>_xll.acq_options_trinomial_american_price($C$4,F9,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>35.643352825004428</v>
+        <v>35.643398083535715</v>
       </c>
       <c r="H9">
         <f>_xll.acq_options_trinomial_american_price($C$4,F9,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>0.65395868400077706</v>
+        <v>0.70986511847276779</v>
       </c>
       <c r="I9">
         <f>_xll.acq_options_binomial_american_price($C$4,F9,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
@@ -38327,32 +37848,32 @@
         <v>0.25</v>
       </c>
       <c r="V9">
-        <f>_xll.acq_options_binomial_american_price(V$4,$C$5,$U9,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>30.0000000000028</v>
+        <f>_xll.acq_options_trinomial_american_price(V$4,$C$5,$U9,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>29.999999999999986</v>
       </c>
       <c r="W9">
-        <f>_xll.acq_options_binomial_american_price(W$4,$C$5,$U9,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>20.274504805299543</v>
+        <f>_xll.acq_options_trinomial_american_price(W$4,$C$5,$U9,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>20.273840359172304</v>
       </c>
       <c r="X9">
-        <f>_xll.acq_options_binomial_american_price(X$4,$C$5,$U9,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>12.327876459814949</v>
+        <f>_xll.acq_options_trinomial_american_price(X$4,$C$5,$U9,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>12.32738795120579</v>
       </c>
       <c r="Y9">
-        <f>_xll.acq_options_binomial_american_price(Y$4,$C$5,$U9,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>6.6766919114698968</v>
+        <f>_xll.acq_options_trinomial_american_price(Y$4,$C$5,$U9,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>6.6774308747271025</v>
       </c>
       <c r="Z9">
-        <f>_xll.acq_options_binomial_american_price(Z$4,$C$5,$U9,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>3.2120003339687822</v>
+        <f>_xll.acq_options_trinomial_american_price(Z$4,$C$5,$U9,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>3.2103894257139354</v>
       </c>
       <c r="AA9">
-        <f>_xll.acq_options_binomial_american_price(AA$4,$C$5,$U9,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>1.3736497278310844</v>
+        <f>_xll.acq_options_trinomial_american_price(AA$4,$C$5,$U9,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>1.3735511064280412</v>
       </c>
       <c r="AB9">
-        <f>_xll.acq_options_binomial_american_price(AB$4,$C$5,$U9,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>0.52750606510265219</v>
+        <f>_xll.acq_options_trinomial_american_price(AB$4,$C$5,$U9,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>0.52673195031613174</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
@@ -38367,11 +37888,11 @@
       </c>
       <c r="G10">
         <f>_xll.acq_options_trinomial_american_price($C$4,F10,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>28.280666850534327</v>
+        <v>28.280674045228338</v>
       </c>
       <c r="H10">
         <f>_xll.acq_options_trinomial_american_price($C$4,F10,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>1.8983524737812372</v>
+        <v>2.1047198985511906</v>
       </c>
       <c r="I10">
         <f>_xll.acq_options_binomial_american_price($C$4,F10,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
@@ -38416,32 +37937,32 @@
         <v>0.3</v>
       </c>
       <c r="V10">
-        <f>_xll.acq_options_binomial_american_price(V$4,$C$5,$U10,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>30.000000000002743</v>
+        <f>_xll.acq_options_trinomial_american_price(V$4,$C$5,$U10,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>29.999999999999787</v>
       </c>
       <c r="W10">
-        <f>_xll.acq_options_binomial_american_price(W$4,$C$5,$U10,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>20.440193582355914</v>
+        <f>_xll.acq_options_trinomial_american_price(W$4,$C$5,$U10,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>20.439543416987355</v>
       </c>
       <c r="X10">
-        <f>_xll.acq_options_binomial_american_price(X$4,$C$5,$U10,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>12.754290425942102</v>
+        <f>_xll.acq_options_trinomial_american_price(X$4,$C$5,$U10,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>12.750485718427022</v>
       </c>
       <c r="Y10">
-        <f>_xll.acq_options_binomial_american_price(Y$4,$C$5,$U10,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>7.2344336704707839</v>
+        <f>_xll.acq_options_trinomial_american_price(Y$4,$C$5,$U10,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>7.2351698299700491</v>
       </c>
       <c r="Z10">
-        <f>_xll.acq_options_binomial_american_price(Z$4,$C$5,$U10,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>3.7317306145519544</v>
+        <f>_xll.acq_options_trinomial_american_price(Z$4,$C$5,$U10,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>3.7312282242018417</v>
       </c>
       <c r="AA10">
-        <f>_xll.acq_options_binomial_american_price(AA$4,$C$5,$U10,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>1.7527580521189718</v>
+        <f>_xll.acq_options_trinomial_american_price(AA$4,$C$5,$U10,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>1.7531906557883647</v>
       </c>
       <c r="AB10">
-        <f>_xll.acq_options_binomial_american_price(AB$4,$C$5,$U10,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>0.75487996900595666</v>
+        <f>_xll.acq_options_trinomial_american_price(AB$4,$C$5,$U10,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>0.75481701955429736</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
@@ -38457,11 +37978,11 @@
       </c>
       <c r="G11">
         <f>_xll.acq_options_trinomial_american_price($C$4,F11,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>21.9146321231106</v>
+        <v>21.914633440579323</v>
       </c>
       <c r="H11">
         <f>_xll.acq_options_trinomial_american_price($C$4,F11,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>4.1393975106080756</v>
+        <v>4.7021645271668788</v>
       </c>
       <c r="I11">
         <f>_xll.acq_options_binomial_american_price($C$4,F11,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
@@ -38506,32 +38027,32 @@
         <v>0.35</v>
       </c>
       <c r="V11">
-        <f>_xll.acq_options_binomial_american_price(V$4,$C$5,$U11,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>29.999999999996248</v>
+        <f>_xll.acq_options_trinomial_american_price(V$4,$C$5,$U11,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>29.999999999999986</v>
       </c>
       <c r="W11">
-        <f>_xll.acq_options_binomial_american_price(W$4,$C$5,$U11,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>20.614981977575212</v>
+        <f>_xll.acq_options_trinomial_american_price(W$4,$C$5,$U11,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>20.614603025128417</v>
       </c>
       <c r="X11">
-        <f>_xll.acq_options_binomial_american_price(X$4,$C$5,$U11,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>13.14532203793252</v>
+        <f>_xll.acq_options_trinomial_american_price(X$4,$C$5,$U11,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>13.14453255743474</v>
       </c>
       <c r="Y11">
-        <f>_xll.acq_options_binomial_american_price(Y$4,$C$5,$U11,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>7.735689758679209</v>
+        <f>_xll.acq_options_trinomial_american_price(Y$4,$C$5,$U11,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>7.7364178380503752</v>
       </c>
       <c r="Z11">
-        <f>_xll.acq_options_binomial_american_price(Z$4,$C$5,$U11,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>4.2065120657730173</v>
+        <f>_xll.acq_options_trinomial_american_price(Z$4,$C$5,$U11,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>4.2058509474301715</v>
       </c>
       <c r="AA11">
-        <f>_xll.acq_options_binomial_american_price(AA$4,$C$5,$U11,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>2.1214486509235293</v>
+        <f>_xll.acq_options_trinomial_american_price(AA$4,$C$5,$U11,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>2.1199121590359757</v>
       </c>
       <c r="AB11">
-        <f>_xll.acq_options_binomial_american_price(AB$4,$C$5,$U11,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>0.99553681262010585</v>
+        <f>_xll.acq_options_trinomial_american_price(AB$4,$C$5,$U11,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>0.99582543304032711</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
@@ -38540,11 +38061,11 @@
       </c>
       <c r="G12">
         <f>_xll.acq_options_trinomial_american_price($C$4,F12,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>16.649674252326051</v>
+        <v>16.649674523995238</v>
       </c>
       <c r="H12">
         <f>_xll.acq_options_trinomial_american_price($C$4,F12,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>7.4815194040740458</v>
+        <v>8.7349163794104179</v>
       </c>
       <c r="I12">
         <f>_xll.acq_options_binomial_american_price($C$4,F12,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
@@ -38589,32 +38110,32 @@
         <v>0.4</v>
       </c>
       <c r="V12">
-        <f>_xll.acq_options_binomial_american_price(V$4,$C$5,$U12,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>29.999999999999787</v>
+        <f>_xll.acq_options_trinomial_american_price(V$4,$C$5,$U12,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>29.999999999999915</v>
       </c>
       <c r="W12">
-        <f>_xll.acq_options_binomial_american_price(W$4,$C$5,$U12,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>20.79423171930236</v>
+        <f>_xll.acq_options_trinomial_american_price(W$4,$C$5,$U12,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>20.794210982378068</v>
       </c>
       <c r="X12">
-        <f>_xll.acq_options_binomial_american_price(X$4,$C$5,$U12,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>13.507534862877332</v>
+        <f>_xll.acq_options_trinomial_american_price(X$4,$C$5,$U12,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>13.506746451173825</v>
       </c>
       <c r="Y12">
-        <f>_xll.acq_options_binomial_american_price(Y$4,$C$5,$U12,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>8.1923374611286697</v>
+        <f>_xll.acq_options_trinomial_american_price(Y$4,$C$5,$U12,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>8.193054851452036</v>
       </c>
       <c r="Z12">
-        <f>_xll.acq_options_binomial_american_price(Z$4,$C$5,$U12,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>4.6510025026004902</v>
+        <f>_xll.acq_options_trinomial_american_price(Z$4,$C$5,$U12,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>4.6485930564004097</v>
       </c>
       <c r="AA12">
-        <f>_xll.acq_options_binomial_american_price(AA$4,$C$5,$U12,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>2.4723128103769398</v>
+        <f>_xll.acq_options_trinomial_american_price(AA$4,$C$5,$U12,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>2.4732539536102323</v>
       </c>
       <c r="AB12">
-        <f>_xll.acq_options_binomial_american_price(AB$4,$C$5,$U12,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>1.2394163077110454</v>
+        <f>_xll.acq_options_trinomial_american_price(AB$4,$C$5,$U12,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>1.2402186145546668</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
@@ -38623,11 +38144,11 @@
       </c>
       <c r="G13">
         <f>_xll.acq_options_trinomial_american_price($C$4,F13,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>12.464444229204078</v>
+        <v>12.464444291200209</v>
       </c>
       <c r="H13">
         <f>_xll.acq_options_trinomial_american_price($C$4,F13,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>11.903369145202639</v>
+        <v>14.31290857991136</v>
       </c>
       <c r="I13">
         <f>_xll.acq_options_binomial_american_price($C$4,F13,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
@@ -38672,32 +38193,32 @@
         <v>0.45</v>
       </c>
       <c r="V13">
-        <f>_xll.acq_options_binomial_american_price(V$4,$C$5,$U13,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>29.999999999992809</v>
+        <f>_xll.acq_options_trinomial_american_price(V$4,$C$5,$U13,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>30.000000000000085</v>
       </c>
       <c r="W13">
-        <f>_xll.acq_options_binomial_american_price(W$4,$C$5,$U13,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>20.976031447468223</v>
+        <f>_xll.acq_options_trinomial_american_price(W$4,$C$5,$U13,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>20.974340280969333</v>
       </c>
       <c r="X13">
-        <f>_xll.acq_options_binomial_american_price(X$4,$C$5,$U13,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>13.850939518869161</v>
+        <f>_xll.acq_options_trinomial_american_price(X$4,$C$5,$U13,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>13.848681992043405</v>
       </c>
       <c r="Y13">
-        <f>_xll.acq_options_binomial_american_price(Y$4,$C$5,$U13,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>8.6126322014121452</v>
+        <f>_xll.acq_options_trinomial_american_price(Y$4,$C$5,$U13,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>8.6133342712048773</v>
       </c>
       <c r="Z13">
-        <f>_xll.acq_options_binomial_american_price(Z$4,$C$5,$U13,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>5.0602658139661454</v>
+        <f>_xll.acq_options_trinomial_american_price(Z$4,$C$5,$U13,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>5.0564549694806367</v>
       </c>
       <c r="AA13">
-        <f>_xll.acq_options_binomial_american_price(AA$4,$C$5,$U13,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>2.8133889019011615</v>
+        <f>_xll.acq_options_trinomial_american_price(AA$4,$C$5,$U13,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>2.8113460425379544</v>
       </c>
       <c r="AB13">
-        <f>_xll.acq_options_binomial_american_price(AB$4,$C$5,$U13,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>1.4858297365660946</v>
+        <f>_xll.acq_options_trinomial_american_price(AB$4,$C$5,$U13,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>1.486229690212765</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
@@ -38706,11 +38227,11 @@
       </c>
       <c r="G14">
         <f>_xll.acq_options_trinomial_american_price($C$4,F14,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>9.2181348293656136</v>
+        <v>9.2181348448034655</v>
       </c>
       <c r="H14">
         <f>_xll.acq_options_trinomial_american_price($C$4,F14,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>17.264139509614726</v>
+        <v>21.444518542802879</v>
       </c>
       <c r="I14">
         <f>_xll.acq_options_binomial_american_price($C$4,F14,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
@@ -38755,49 +38276,49 @@
         <v>0.5</v>
       </c>
       <c r="V14">
-        <f>_xll.acq_options_binomial_american_price(V$4,$C$5,$U14,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>30.01357994271202</v>
+        <f>_xll.acq_options_trinomial_american_price(V$4,$C$5,$U14,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>30.013545368803594</v>
       </c>
       <c r="W14">
-        <f>_xll.acq_options_binomial_american_price(W$4,$C$5,$U14,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>21.15200671396223</v>
+        <f>_xll.acq_options_trinomial_american_price(W$4,$C$5,$U14,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>21.152161544240702</v>
       </c>
       <c r="X14">
-        <f>_xll.acq_options_binomial_american_price(X$4,$C$5,$U14,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>14.170235970354575</v>
+        <f>_xll.acq_options_trinomial_american_price(X$4,$C$5,$U14,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>14.166514058300155</v>
       </c>
       <c r="Y14">
-        <f>_xll.acq_options_binomial_american_price(Y$4,$C$5,$U14,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>9.0025754232218205</v>
+        <f>_xll.acq_options_trinomial_american_price(Y$4,$C$5,$U14,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>9.0032543875590356</v>
       </c>
       <c r="Z14">
-        <f>_xll.acq_options_binomial_american_price(Z$4,$C$5,$U14,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>5.440504492483285</v>
+        <f>_xll.acq_options_trinomial_american_price(Z$4,$C$5,$U14,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>5.4424867184655321</v>
       </c>
       <c r="AA14">
-        <f>_xll.acq_options_binomial_american_price(AA$4,$C$5,$U14,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>3.1354763991069881</v>
+        <f>_xll.acq_options_trinomial_american_price(AA$4,$C$5,$U14,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>3.136415507454358</v>
       </c>
       <c r="AB14">
-        <f>_xll.acq_options_binomial_american_price(AB$4,$C$5,$U14,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>1.7335499493219952</v>
+        <f>_xll.acq_options_trinomial_american_price(AB$4,$C$5,$U14,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>1.7318514187597791</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B15">
         <f>_xll.acq_options_trinomial_american_price($C$4,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE, 300)</f>
-        <v>1.8819893179318186</v>
+        <v>1.8819893179672582</v>
       </c>
       <c r="F15">
         <v>110</v>
       </c>
       <c r="G15">
         <f>_xll.acq_options_trinomial_american_price($C$4,F15,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>6.7647070321079283</v>
+        <v>6.7647070362570041</v>
       </c>
       <c r="H15">
         <f>_xll.acq_options_trinomial_american_price($C$4,F15,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>23.417791476607594</v>
+        <v>30.106132662548632</v>
       </c>
       <c r="I15">
         <f>_xll.acq_options_binomial_american_price($C$4,F15,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
@@ -38842,49 +38363,49 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="V15">
-        <f>_xll.acq_options_binomial_american_price(V$4,$C$5,$U15,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>30.038544836649557</v>
+        <f>_xll.acq_options_trinomial_american_price(V$4,$C$5,$U15,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>30.03576256700498</v>
       </c>
       <c r="W15">
-        <f>_xll.acq_options_binomial_american_price(W$4,$C$5,$U15,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>21.330445738968635</v>
+        <f>_xll.acq_options_trinomial_american_price(W$4,$C$5,$U15,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>21.328112207718107</v>
       </c>
       <c r="X15">
-        <f>_xll.acq_options_binomial_american_price(X$4,$C$5,$U15,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>14.468681374332336</v>
+        <f>_xll.acq_options_trinomial_american_price(X$4,$C$5,$U15,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>14.466499112626494</v>
       </c>
       <c r="Y15">
-        <f>_xll.acq_options_binomial_american_price(Y$4,$C$5,$U15,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>9.3666840898581079</v>
+        <f>_xll.acq_options_trinomial_american_price(Y$4,$C$5,$U15,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>9.367345618019586</v>
       </c>
       <c r="Z15">
-        <f>_xll.acq_options_binomial_american_price(Z$4,$C$5,$U15,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>5.8034874671570558</v>
+        <f>_xll.acq_options_trinomial_american_price(Z$4,$C$5,$U15,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>5.8051905416523635</v>
       </c>
       <c r="AA15">
-        <f>_xll.acq_options_binomial_american_price(AA$4,$C$5,$U15,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>3.4522522165303364</v>
+        <f>_xll.acq_options_trinomial_american_price(AA$4,$C$5,$U15,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>3.4497239531103734</v>
       </c>
       <c r="AB15">
-        <f>_xll.acq_options_binomial_american_price(AB$4,$C$5,$U15,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>1.9708398941787317</v>
+        <f>_xll.acq_options_trinomial_american_price(AB$4,$C$5,$U15,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>1.9745881557370428</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B16">
-        <f>_xll.acq_options_binomial_american_price($C$4,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE, 100)</f>
-        <v>1.8501181480284739</v>
+        <f>_xll.acq_options_binomial_american_price($C$4,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE, 300)</f>
+        <v>1.8779824571938908</v>
       </c>
       <c r="F16">
         <v>120</v>
       </c>
       <c r="G16">
         <f>_xll.acq_options_trinomial_american_price($C$4,F16,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>4.9329615465072525</v>
+        <v>4.9329615476996596</v>
       </c>
       <c r="H16">
         <f>_xll.acq_options_trinomial_american_price($C$4,F16,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>30.193125755257469</v>
+        <v>39.999999999999787</v>
       </c>
       <c r="I16">
         <f>_xll.acq_options_binomial_american_price($C$4,F16,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
@@ -38929,32 +38450,32 @@
         <v>0.6</v>
       </c>
       <c r="V16">
-        <f>_xll.acq_options_binomial_american_price(V$4,$C$5,$U16,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>30.070414645125808</v>
+        <f>_xll.acq_options_trinomial_american_price(V$4,$C$5,$U16,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>30.070449497612046</v>
       </c>
       <c r="W16">
-        <f>_xll.acq_options_binomial_american_price(W$4,$C$5,$U16,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>21.502433988306827</v>
+        <f>_xll.acq_options_trinomial_american_price(W$4,$C$5,$U16,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>21.500783676224103</v>
       </c>
       <c r="X16">
-        <f>_xll.acq_options_binomial_american_price(X$4,$C$5,$U16,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>14.749679016584579</v>
+        <f>_xll.acq_options_trinomial_american_price(X$4,$C$5,$U16,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>14.752799744370524</v>
       </c>
       <c r="Y16">
-        <f>_xll.acq_options_binomial_american_price(Y$4,$C$5,$U16,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>9.7084828669159471</v>
+        <f>_xll.acq_options_trinomial_american_price(Y$4,$C$5,$U16,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>9.7091203060293996</v>
       </c>
       <c r="Z16">
-        <f>_xll.acq_options_binomial_american_price(Z$4,$C$5,$U16,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>6.1485117480984979</v>
+        <f>_xll.acq_options_trinomial_american_price(Z$4,$C$5,$U16,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>6.1458740039881707</v>
       </c>
       <c r="AA16">
-        <f>_xll.acq_options_binomial_american_price(AA$4,$C$5,$U16,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>3.7497888277682891</v>
+        <f>_xll.acq_options_trinomial_american_price(AA$4,$C$5,$U16,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>3.7487370511884319</v>
       </c>
       <c r="AB16">
-        <f>_xll.acq_options_binomial_american_price(AB$4,$C$5,$U16,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>2.2146665611764895</v>
+        <f>_xll.acq_options_trinomial_american_price(AB$4,$C$5,$U16,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>2.2114314848058378</v>
       </c>
     </row>
     <row r="17" spans="2:28" x14ac:dyDescent="0.25">
@@ -38964,18 +38485,18 @@
       </c>
       <c r="C17">
         <f>B17-B16</f>
-        <v>3.2730232046927599E-2</v>
+        <v>4.8659228815106648E-3</v>
       </c>
       <c r="F17">
         <v>130</v>
       </c>
       <c r="G17">
         <f>_xll.acq_options_trinomial_american_price($C$4,F17,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>3.585131515428885</v>
+        <v>3.5851315157926913</v>
       </c>
       <c r="H17">
         <f>_xll.acq_options_trinomial_american_price($C$4,F17,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>37.452375488429631</v>
+        <v>49.999999999999787</v>
       </c>
       <c r="I17">
         <f>_xll.acq_options_binomial_american_price($C$4,F17,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
@@ -39020,32 +38541,32 @@
         <v>0.65</v>
       </c>
       <c r="V17">
-        <f>_xll.acq_options_binomial_american_price(V$4,$C$5,$U17,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>30.111791078120248</v>
+        <f>_xll.acq_options_trinomial_american_price(V$4,$C$5,$U17,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>30.110778381439893</v>
       </c>
       <c r="W17">
-        <f>_xll.acq_options_binomial_american_price(W$4,$C$5,$U17,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>21.668180784889717</v>
+        <f>_xll.acq_options_trinomial_american_price(W$4,$C$5,$U17,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>21.668939174685313</v>
       </c>
       <c r="X17">
-        <f>_xll.acq_options_binomial_american_price(X$4,$C$5,$U17,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>15.022913971768219</v>
+        <f>_xll.acq_options_trinomial_american_price(X$4,$C$5,$U17,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>15.0230727218702</v>
       </c>
       <c r="Y17">
-        <f>_xll.acq_options_binomial_american_price(Y$4,$C$5,$U17,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>10.030755857159793</v>
+        <f>_xll.acq_options_trinomial_american_price(Y$4,$C$5,$U17,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>10.031376332045106</v>
       </c>
       <c r="Z17">
-        <f>_xll.acq_options_binomial_american_price(Z$4,$C$5,$U17,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>6.4738643533267375</v>
+        <f>_xll.acq_options_trinomial_american_price(Z$4,$C$5,$U17,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>6.4674483565323921</v>
       </c>
       <c r="AA17">
-        <f>_xll.acq_options_binomial_american_price(AA$4,$C$5,$U17,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>4.0351902216613516</v>
+        <f>_xll.acq_options_trinomial_american_price(AA$4,$C$5,$U17,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>4.0369511471850306</v>
       </c>
       <c r="AB17">
-        <f>_xll.acq_options_binomial_american_price(AB$4,$C$5,$U17,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>2.4447713399422337</v>
+        <f>_xll.acq_options_trinomial_american_price(AB$4,$C$5,$U17,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>2.446533098951865</v>
       </c>
     </row>
     <row r="18" spans="2:28" x14ac:dyDescent="0.25">
@@ -39054,11 +38575,11 @@
       </c>
       <c r="G18">
         <f>_xll.acq_options_trinomial_american_price($C$4,F18,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>2.5988242238298414</v>
+        <v>2.598824223946921</v>
       </c>
       <c r="H18">
         <f>_xll.acq_options_trinomial_american_price($C$4,F18,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>45.073147961081155</v>
+        <v>59.999999999999787</v>
       </c>
       <c r="I18">
         <f>_xll.acq_options_binomial_american_price($C$4,F18,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
@@ -39103,32 +38624,32 @@
         <v>0.7</v>
       </c>
       <c r="V18">
-        <f>_xll.acq_options_binomial_american_price(V$4,$C$5,$U18,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>30.155643983820472</v>
+        <f>_xll.acq_options_trinomial_american_price(V$4,$C$5,$U18,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>30.15422480921308</v>
       </c>
       <c r="W18">
-        <f>_xll.acq_options_binomial_american_price(W$4,$C$5,$U18,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>21.835712678340293</v>
+        <f>_xll.acq_options_trinomial_american_price(W$4,$C$5,$U18,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>21.832781415895354</v>
       </c>
       <c r="X18">
-        <f>_xll.acq_options_binomial_american_price(X$4,$C$5,$U18,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>15.282133973957995</v>
+        <f>_xll.acq_options_trinomial_american_price(X$4,$C$5,$U18,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>15.279049379557438</v>
       </c>
       <c r="Y18">
-        <f>_xll.acq_options_binomial_american_price(Y$4,$C$5,$U18,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>10.33578045914636</v>
+        <f>_xll.acq_options_trinomial_american_price(Y$4,$C$5,$U18,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>10.336377229691012</v>
       </c>
       <c r="Z18">
-        <f>_xll.acq_options_binomial_american_price(Z$4,$C$5,$U18,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>6.7818740437543577</v>
+        <f>_xll.acq_options_trinomial_american_price(Z$4,$C$5,$U18,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>6.7764598574079526</v>
       </c>
       <c r="AA18">
-        <f>_xll.acq_options_binomial_american_price(AA$4,$C$5,$U18,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>4.3176119877586281</v>
+        <f>_xll.acq_options_trinomial_american_price(AA$4,$C$5,$U18,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>4.3157748488366323</v>
       </c>
       <c r="AB18">
-        <f>_xll.acq_options_binomial_american_price(AB$4,$C$5,$U18,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>2.6769358533655034</v>
+        <f>_xll.acq_options_trinomial_american_price(AB$4,$C$5,$U18,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>2.6754122199919839</v>
       </c>
     </row>
     <row r="19" spans="2:28" x14ac:dyDescent="0.25">
@@ -39137,11 +38658,11 @@
       </c>
       <c r="G19">
         <f>_xll.acq_options_trinomial_american_price($C$4,F19,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>1.8805691390246011</v>
+        <v>1.8805691390641348</v>
       </c>
       <c r="H19">
         <f>_xll.acq_options_trinomial_american_price($C$4,F19,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>52.961972640526469</v>
+        <v>69.999999999999787</v>
       </c>
       <c r="I19">
         <f>_xll.acq_options_binomial_american_price($C$4,F19,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
@@ -39186,32 +38707,32 @@
         <v>0.75</v>
       </c>
       <c r="V19">
-        <f>_xll.acq_options_binomial_american_price(V$4,$C$5,$U19,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>30.207232228449922</v>
+        <f>_xll.acq_options_trinomial_american_price(V$4,$C$5,$U19,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>30.205314798010569</v>
       </c>
       <c r="W19">
-        <f>_xll.acq_options_binomial_american_price(W$4,$C$5,$U19,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>21.996417380647536</v>
+        <f>_xll.acq_options_trinomial_american_price(W$4,$C$5,$U19,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>21.99388458885857</v>
       </c>
       <c r="X19">
-        <f>_xll.acq_options_binomial_american_price(X$4,$C$5,$U19,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>15.528497549570506</v>
+        <f>_xll.acq_options_trinomial_american_price(X$4,$C$5,$U19,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>15.522235398116582</v>
       </c>
       <c r="Y19">
-        <f>_xll.acq_options_binomial_american_price(Y$4,$C$5,$U19,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>10.625411692111369</v>
+        <f>_xll.acq_options_trinomial_american_price(Y$4,$C$5,$U19,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>10.625983539647924</v>
       </c>
       <c r="Z19">
-        <f>_xll.acq_options_binomial_american_price(Z$4,$C$5,$U19,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>7.0745178030450688</v>
+        <f>_xll.acq_options_trinomial_american_price(Z$4,$C$5,$U19,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>7.0717711673632886</v>
       </c>
       <c r="AA19">
-        <f>_xll.acq_options_binomial_american_price(AA$4,$C$5,$U19,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>4.5857815788687404</v>
+        <f>_xll.acq_options_trinomial_american_price(AA$4,$C$5,$U19,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>4.5808542287965164</v>
       </c>
       <c r="AB19">
-        <f>_xll.acq_options_binomial_american_price(AB$4,$C$5,$U19,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>2.9022681246916715</v>
+        <f>_xll.acq_options_trinomial_american_price(AB$4,$C$5,$U19,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>2.9000037845180962</v>
       </c>
     </row>
     <row r="20" spans="2:28" x14ac:dyDescent="0.25">
@@ -39220,11 +38741,11 @@
       </c>
       <c r="G20">
         <f>_xll.acq_options_trinomial_american_price($C$4,F20,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>1.3627839917152551</v>
+        <v>1.3627839917292055</v>
       </c>
       <c r="H20">
         <f>_xll.acq_options_trinomial_american_price($C$4,F20,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>61.051267257467686</v>
+        <v>79.999999999999787</v>
       </c>
       <c r="I20">
         <f>_xll.acq_options_binomial_american_price($C$4,F20,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
@@ -39269,32 +38790,32 @@
         <v>0.8</v>
       </c>
       <c r="V20">
-        <f>_xll.acq_options_binomial_american_price(V$4,$C$5,$U20,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>30.259373769473957</v>
+        <f>_xll.acq_options_trinomial_american_price(V$4,$C$5,$U20,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>30.258897738385873</v>
       </c>
       <c r="W20">
-        <f>_xll.acq_options_binomial_american_price(W$4,$C$5,$U20,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>22.150453437182545</v>
+        <f>_xll.acq_options_trinomial_american_price(W$4,$C$5,$U20,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>22.148406933264198</v>
       </c>
       <c r="X20">
-        <f>_xll.acq_options_binomial_american_price(X$4,$C$5,$U20,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>15.763230324066519</v>
+        <f>_xll.acq_options_trinomial_american_price(X$4,$C$5,$U20,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>15.7573674435593</v>
       </c>
       <c r="Y20">
-        <f>_xll.acq_options_binomial_american_price(Y$4,$C$5,$U20,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>10.90120779543015</v>
+        <f>_xll.acq_options_trinomial_american_price(Y$4,$C$5,$U20,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>10.901748693979878</v>
       </c>
       <c r="Z20">
-        <f>_xll.acq_options_binomial_american_price(Z$4,$C$5,$U20,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>7.3533355204141024</v>
+        <f>_xll.acq_options_trinomial_american_price(Z$4,$C$5,$U20,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>7.3530412425421865</v>
       </c>
       <c r="AA20">
-        <f>_xll.acq_options_binomial_american_price(AA$4,$C$5,$U20,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>4.8413869253896635</v>
+        <f>_xll.acq_options_trinomial_american_price(AA$4,$C$5,$U20,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>4.8389953565423944</v>
       </c>
       <c r="AB20">
-        <f>_xll.acq_options_binomial_american_price(AB$4,$C$5,$U20,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>3.1172324099143998</v>
+        <f>_xll.acq_options_trinomial_american_price(AB$4,$C$5,$U20,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>3.1176560481668254</v>
       </c>
     </row>
     <row r="21" spans="2:28" x14ac:dyDescent="0.25">
@@ -39303,11 +38824,11 @@
       </c>
       <c r="G21">
         <f>_xll.acq_options_trinomial_american_price($C$4,F21,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>0.98708096086923391</v>
+        <v>0.98708096087435337</v>
       </c>
       <c r="H21">
         <f>_xll.acq_options_trinomial_american_price($C$4,F21,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>69.282643990872174</v>
+        <v>89.999999999999787</v>
       </c>
       <c r="I21">
         <f>_xll.acq_options_binomial_american_price($C$4,F21,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
@@ -39346,38 +38867,38 @@
       </c>
       <c r="S21">
         <f>_xll.acq_options_trinomial_american_price(S$4,$C$5,$L21,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>39.132270532085514</v>
+        <v>39.132270532085521</v>
       </c>
       <c r="U21" s="45">
         <v>0.85</v>
       </c>
       <c r="V21">
-        <f>_xll.acq_options_binomial_american_price(V$4,$C$5,$U21,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>30.314573182467761</v>
+        <f>_xll.acq_options_trinomial_american_price(V$4,$C$5,$U21,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>30.314364771486144</v>
       </c>
       <c r="W21">
-        <f>_xll.acq_options_binomial_american_price(W$4,$C$5,$U21,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>22.300254774455361</v>
+        <f>_xll.acq_options_trinomial_american_price(W$4,$C$5,$U21,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>22.30043356710938</v>
       </c>
       <c r="X21">
-        <f>_xll.acq_options_binomial_american_price(X$4,$C$5,$U21,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>15.987414079511197</v>
+        <f>_xll.acq_options_trinomial_american_price(X$4,$C$5,$U21,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>15.983320002080154</v>
       </c>
       <c r="Y21">
-        <f>_xll.acq_options_binomial_american_price(Y$4,$C$5,$U21,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>11.164487628573138</v>
+        <f>_xll.acq_options_trinomial_american_price(Y$4,$C$5,$U21,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>11.164990421439432</v>
       </c>
       <c r="Z21">
-        <f>_xll.acq_options_binomial_american_price(Z$4,$C$5,$U21,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>7.6197810921715865</v>
+        <f>_xll.acq_options_trinomial_american_price(Z$4,$C$5,$U21,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>7.6216483642098627</v>
       </c>
       <c r="AA21">
-        <f>_xll.acq_options_binomial_american_price(AA$4,$C$5,$U21,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>5.085975020532258</v>
+        <f>_xll.acq_options_trinomial_american_price(AA$4,$C$5,$U21,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>5.0896662429304138</v>
       </c>
       <c r="AB21">
-        <f>_xll.acq_options_binomial_american_price(AB$4,$C$5,$U21,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>3.3329533106290485</v>
+        <f>_xll.acq_options_trinomial_american_price(AB$4,$C$5,$U21,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>3.3337944563526767</v>
       </c>
     </row>
     <row r="22" spans="2:28" x14ac:dyDescent="0.25">
@@ -39406,42 +38927,42 @@
       </c>
       <c r="R22">
         <f>_xll.acq_options_trinomial_american_price(R$4,$C$5,$L22,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>31.433860990685339</v>
+        <v>31.433860990685353</v>
       </c>
       <c r="S22">
         <f>_xll.acq_options_trinomial_american_price(S$4,$C$5,$L22,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>39.660265349981955</v>
+        <v>39.660265349982012</v>
       </c>
       <c r="U22" s="45">
         <v>0.9</v>
       </c>
       <c r="V22">
-        <f>_xll.acq_options_binomial_american_price(V$4,$C$5,$U22,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>30.373679070968116</v>
+        <f>_xll.acq_options_trinomial_american_price(V$4,$C$5,$U22,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>30.370154317091071</v>
       </c>
       <c r="W22">
-        <f>_xll.acq_options_binomial_american_price(W$4,$C$5,$U22,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>22.450948798364585</v>
+        <f>_xll.acq_options_trinomial_american_price(W$4,$C$5,$U22,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>22.449347565665555</v>
       </c>
       <c r="X22">
-        <f>_xll.acq_options_binomial_american_price(X$4,$C$5,$U22,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>16.201952543951933</v>
+        <f>_xll.acq_options_trinomial_american_price(X$4,$C$5,$U22,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>16.199627554181735</v>
       </c>
       <c r="Y22">
-        <f>_xll.acq_options_binomial_american_price(Y$4,$C$5,$U22,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>11.416371229360646</v>
+        <f>_xll.acq_options_trinomial_american_price(Y$4,$C$5,$U22,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>11.416836324546995</v>
       </c>
       <c r="Z22">
-        <f>_xll.acq_options_binomial_american_price(Z$4,$C$5,$U22,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>7.8750764808474587</v>
+        <f>_xll.acq_options_trinomial_american_price(Z$4,$C$5,$U22,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>7.8787502763538821</v>
       </c>
       <c r="AA22">
-        <f>_xll.acq_options_binomial_american_price(AA$4,$C$5,$U22,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>5.3280983055611504</v>
+        <f>_xll.acq_options_trinomial_american_price(AA$4,$C$5,$U22,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>5.3296520173920685</v>
       </c>
       <c r="AB22">
-        <f>_xll.acq_options_binomial_american_price(AB$4,$C$5,$U22,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>3.5451577697247849</v>
+        <f>_xll.acq_options_trinomial_american_price(AB$4,$C$5,$U22,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>3.5408385783852774</v>
       </c>
     </row>
     <row r="23" spans="2:28" x14ac:dyDescent="0.25">
@@ -39466,46 +38987,46 @@
       </c>
       <c r="Q23">
         <f>_xll.acq_options_trinomial_american_price(Q$4,$C$5,$L23,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>24.456208961715234</v>
+        <v>24.456208961715241</v>
       </c>
       <c r="R23">
         <f>_xll.acq_options_trinomial_american_price(R$4,$C$5,$L23,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>31.980559082436592</v>
+        <v>31.980559082436645</v>
       </c>
       <c r="S23">
         <f>_xll.acq_options_trinomial_american_price(S$4,$C$5,$L23,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>40.183866823005275</v>
+        <v>40.183866823005502</v>
       </c>
       <c r="U23" s="45">
         <v>0.95</v>
       </c>
       <c r="V23">
-        <f>_xll.acq_options_binomial_american_price(V$4,$C$5,$U23,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>30.432535843598799</v>
+        <f>_xll.acq_options_trinomial_american_price(V$4,$C$5,$U23,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>30.429769375896086</v>
       </c>
       <c r="W23">
-        <f>_xll.acq_options_binomial_american_price(W$4,$C$5,$U23,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>22.596386076654408</v>
+        <f>_xll.acq_options_trinomial_american_price(W$4,$C$5,$U23,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>22.592831006861239</v>
       </c>
       <c r="X23">
-        <f>_xll.acq_options_binomial_american_price(X$4,$C$5,$U23,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>16.407639013932588</v>
+        <f>_xll.acq_options_trinomial_american_price(X$4,$C$5,$U23,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>16.407043908634048</v>
       </c>
       <c r="Y23">
-        <f>_xll.acq_options_binomial_american_price(Y$4,$C$5,$U23,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>11.657828910294933</v>
+        <f>_xll.acq_options_trinomial_american_price(Y$4,$C$5,$U23,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>11.658261143779338</v>
       </c>
       <c r="Z23">
-        <f>_xll.acq_options_binomial_american_price(Z$4,$C$5,$U23,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>8.1234766093562545</v>
+        <f>_xll.acq_options_trinomial_american_price(Z$4,$C$5,$U23,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>8.125342307055849</v>
       </c>
       <c r="AA23">
-        <f>_xll.acq_options_binomial_american_price(AA$4,$C$5,$U23,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>5.5642994016355161</v>
+        <f>_xll.acq_options_trinomial_american_price(AA$4,$C$5,$U23,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>5.5599858892775815</v>
       </c>
       <c r="AB23">
-        <f>_xll.acq_options_binomial_american_price(AB$4,$C$5,$U23,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>3.7486766576694794</v>
+        <f>_xll.acq_options_trinomial_american_price(AB$4,$C$5,$U23,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>3.7453949504567454</v>
       </c>
     </row>
     <row r="24" spans="2:28" x14ac:dyDescent="0.25">
@@ -39526,50 +39047,50 @@
       </c>
       <c r="P24">
         <f>_xll.acq_options_trinomial_american_price(P$4,$C$5,$L24,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>18.316209819326449</v>
+        <v>18.316209819326453</v>
       </c>
       <c r="Q24">
         <f>_xll.acq_options_trinomial_american_price(Q$4,$C$5,$L24,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>25.002839531353722</v>
+        <v>25.002839531353743</v>
       </c>
       <c r="R24">
         <f>_xll.acq_options_trinomial_american_price(R$4,$C$5,$L24,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>32.519978034256532</v>
+        <v>32.519978034256717</v>
       </c>
       <c r="S24">
         <f>_xll.acq_options_trinomial_american_price(S$4,$C$5,$L24,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>40.70268434303452</v>
+        <v>40.702684343035457</v>
       </c>
       <c r="U24" s="45">
         <v>1</v>
       </c>
       <c r="V24">
-        <f>_xll.acq_options_binomial_american_price(V$4,$C$5,$U24,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>30.49070965005788</v>
+        <f>_xll.acq_options_trinomial_american_price(V$4,$C$5,$U24,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>30.489756753274509</v>
       </c>
       <c r="W24">
-        <f>_xll.acq_options_binomial_american_price(W$4,$C$5,$U24,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>22.73665926882417</v>
+        <f>_xll.acq_options_trinomial_american_price(W$4,$C$5,$U24,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>22.731126851217205</v>
       </c>
       <c r="X24">
-        <f>_xll.acq_options_binomial_american_price(X$4,$C$5,$U24,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>16.605190083791207</v>
+        <f>_xll.acq_options_trinomial_american_price(X$4,$C$5,$U24,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>16.606298437651652</v>
       </c>
       <c r="Y24">
-        <f>_xll.acq_options_binomial_american_price(Y$4,$C$5,$U24,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>11.889697305262722</v>
+        <f>_xll.acq_options_trinomial_american_price(Y$4,$C$5,$U24,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>11.89009645996618</v>
       </c>
       <c r="Z24">
-        <f>_xll.acq_options_binomial_american_price(Z$4,$C$5,$U24,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>8.3645040630454659</v>
+        <f>_xll.acq_options_trinomial_american_price(Z$4,$C$5,$U24,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>8.362375008278832</v>
       </c>
       <c r="AA24">
-        <f>_xll.acq_options_binomial_american_price(AA$4,$C$5,$U24,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>5.7911212518975752</v>
+        <f>_xll.acq_options_trinomial_american_price(AA$4,$C$5,$U24,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>5.7849296587682364</v>
       </c>
       <c r="AB24">
-        <f>_xll.acq_options_binomial_american_price(AB$4,$C$5,$U24,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>3.9444600804233492</v>
+        <f>_xll.acq_options_trinomial_american_price(AB$4,$C$5,$U24,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>3.9462563741490442</v>
       </c>
     </row>
     <row r="26" spans="2:28" x14ac:dyDescent="0.25">
@@ -39605,7 +39126,7 @@
     </row>
     <row r="30" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G30" s="53" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="H30" s="53"/>
       <c r="I30" s="53"/>
@@ -39686,36 +39207,36 @@
         <v>100</v>
       </c>
       <c r="G32">
-        <f>_xll.acq_options_binomial_american_greeks(G$31,$F32,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>6.169387326540801</v>
+        <f>_xll.acq_options_trinomial_american_greeks(G$31,$F32,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>6.1662019346244614</v>
       </c>
       <c r="H32">
-        <f>_xll.acq_options_binomial_american_greeks(H$31,$F32,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>0.29592395660308579</v>
+        <f>_xll.acq_options_trinomial_american_greeks(H$31,$F32,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0.2908231015278151</v>
       </c>
       <c r="I32">
-        <f>_xll.acq_options_binomial_american_greeks(I$31,$F32,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>3.0730973321624327E-11</v>
+        <f>_xll.acq_options_trinomial_american_greeks(I$31,$F32,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>4.1566750041965854E-11</v>
       </c>
       <c r="J32">
-        <f>_xll.acq_options_binomial_american_greeks(J$31,$F32,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>53.831393508093804</v>
+        <f>_xll.acq_options_trinomial_american_greeks(J$31,$F32,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>52.99200276047462</v>
       </c>
       <c r="K32">
-        <f>_xll.acq_options_binomial_american_greeks(K$31,$F32,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>-126.68071885890697</v>
+        <f>_xll.acq_options_trinomial_american_greeks(K$31,$F32,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>-124.86084624363514</v>
       </c>
       <c r="L32">
-        <f>_xll.acq_options_binomial_american_greeks(L$31,$F32,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>-0.16175873485124725</v>
+        <f>_xll.acq_options_trinomial_american_greeks(L$31,$F32,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>-0.16045572825973409</v>
       </c>
       <c r="M32">
-        <f>_xll.acq_options_binomial_american_greeks(M$31,$F32,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>58.745431517306379</v>
+        <f>_xll.acq_options_trinomial_american_greeks(M$31,$F32,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>58.76336925066461</v>
       </c>
       <c r="N32">
-        <f>_xll.acq_options_binomial_american_greeks(N$31,$F32,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>-3.8049813106502128</v>
+        <f>_xll.acq_options_trinomial_american_greeks(N$31,$F32,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>-3.763398406362306</v>
       </c>
       <c r="R32" s="13">
         <v>100</v>
@@ -39758,36 +39279,36 @@
         <v>110</v>
       </c>
       <c r="G33">
-        <f>_xll.acq_options_binomial_american_greeks(G$31,$F33,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>9.5689708195948757</v>
+        <f>_xll.acq_options_trinomial_american_greeks(G$31,$F33,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>9.5713220235677099</v>
       </c>
       <c r="H33">
-        <f>_xll.acq_options_binomial_american_greeks(H$31,$F33,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>0.39283515411956604</v>
+        <f>_xll.acq_options_trinomial_american_greeks(H$31,$F33,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0.38139367158475002</v>
       </c>
       <c r="I33">
-        <f>_xll.acq_options_binomial_american_greeks(I$31,$F33,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>1.1920675649528955E-10</v>
+        <f>_xll.acq_options_trinomial_american_greeks(I$31,$F33,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>5.8722540145462823E-11</v>
       </c>
       <c r="J33">
-        <f>_xll.acq_options_binomial_american_greeks(J$31,$F33,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>66.511021577571881</v>
+        <f>_xll.acq_options_trinomial_american_greeks(J$31,$F33,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>64.949991296236519</v>
       </c>
       <c r="K33">
-        <f>_xll.acq_options_binomial_american_greeks(K$31,$F33,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>-115.56653363342662</v>
+        <f>_xll.acq_options_trinomial_american_greeks(K$31,$F33,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>-113.20838067874206</v>
       </c>
       <c r="L33">
-        <f>_xll.acq_options_binomial_american_greeks(L$31,$F33,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>-0.17917111971854638</v>
+        <f>_xll.acq_options_trinomial_american_greeks(L$31,$F33,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>-0.17769684790280849</v>
       </c>
       <c r="M33">
-        <f>_xll.acq_options_binomial_american_greeks(M$31,$F33,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>81.497589287016226</v>
+        <f>_xll.acq_options_trinomial_american_greeks(M$31,$F33,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>81.532816544747533</v>
       </c>
       <c r="N33">
-        <f>_xll.acq_options_binomial_american_greeks(N$31,$F33,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>-4.8601242276173906</v>
+        <f>_xll.acq_options_trinomial_american_greeks(N$31,$F33,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>-4.7827450419415385</v>
       </c>
       <c r="R33" s="13">
         <v>110</v>
@@ -39830,36 +39351,36 @@
         <v>120</v>
       </c>
       <c r="G34">
-        <f>_xll.acq_options_binomial_american_greeks(G$31,$F34,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>13.834259508876483</v>
+        <f>_xll.acq_options_trinomial_american_greeks(G$31,$F34,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>13.82720226720512</v>
       </c>
       <c r="H34">
-        <f>_xll.acq_options_binomial_american_greeks(H$31,$F34,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>0.46151445268451202</v>
+        <f>_xll.acq_options_trinomial_american_greeks(H$31,$F34,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0.47848197390088687</v>
       </c>
       <c r="I34">
-        <f>_xll.acq_options_binomial_american_greeks(I$31,$F34,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>2.7533531010703882E-10</v>
+        <f>_xll.acq_options_trinomial_american_greeks(I$31,$F34,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>2.2771907816200434E-10</v>
       </c>
       <c r="J34">
-        <f>_xll.acq_options_binomial_american_greeks(J$31,$F34,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>73.061597511501589</v>
+        <f>_xll.acq_options_trinomial_american_greeks(J$31,$F34,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>74.852091676898809</v>
       </c>
       <c r="K34">
-        <f>_xll.acq_options_binomial_american_greeks(K$31,$F34,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>-86.778942513632273</v>
+        <f>_xll.acq_options_trinomial_american_greeks(K$31,$F34,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>-88.392597945130547</v>
       </c>
       <c r="L34">
-        <f>_xll.acq_options_binomial_american_greeks(L$31,$F34,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>-0.18427820069888412</v>
+        <f>_xll.acq_options_trinomial_american_greeks(L$31,$F34,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>-0.18458280548472317</v>
       </c>
       <c r="M34">
-        <f>_xll.acq_options_binomial_american_greeks(M$31,$F34,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>105.75371445456661</v>
+        <f>_xll.acq_options_trinomial_american_greeks(M$31,$F34,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>105.7794469868707</v>
       </c>
       <c r="N34">
-        <f>_xll.acq_options_binomial_american_greeks(N$31,$F34,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>-5.6302197116213648</v>
+        <f>_xll.acq_options_trinomial_american_greeks(N$31,$F34,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>-5.7203410286241763</v>
       </c>
       <c r="R34" s="13">
         <v>120</v>
@@ -39902,36 +39423,36 @@
         <v>130</v>
       </c>
       <c r="G35">
-        <f>_xll.acq_options_binomial_american_greeks(G$31,$F35,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>18.900478172219707</v>
+        <f>_xll.acq_options_trinomial_american_greeks(G$31,$F35,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>18.910900777762919</v>
       </c>
       <c r="H35">
-        <f>_xll.acq_options_binomial_american_greeks(H$31,$F35,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>0.53101339550712856</v>
+        <f>_xll.acq_options_trinomial_american_greeks(H$31,$F35,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0.55201185821982346</v>
       </c>
       <c r="I35">
-        <f>_xll.acq_options_binomial_american_greeks(I$31,$F35,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>9.7205609767890623E-10</v>
+        <f>_xll.acq_options_trinomial_american_greeks(I$31,$F35,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>5.8104737326654342E-10</v>
       </c>
       <c r="J35">
-        <f>_xll.acq_options_binomial_american_greeks(J$31,$F35,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>77.886781928777111</v>
+        <f>_xll.acq_options_trinomial_american_greeks(J$31,$F35,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>79.481068669899386</v>
       </c>
       <c r="K35">
-        <f>_xll.acq_options_binomial_american_greeks(K$31,$F35,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>-52.646501274011825</v>
+        <f>_xll.acq_options_trinomial_american_greeks(K$31,$F35,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>-53.355814188194017</v>
       </c>
       <c r="L35">
-        <f>_xll.acq_options_binomial_american_greeks(L$31,$F35,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>-0.18355770148303918</v>
+        <f>_xll.acq_options_trinomial_american_greeks(L$31,$F35,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>-0.18210767560589147</v>
       </c>
       <c r="M35">
-        <f>_xll.acq_options_binomial_american_greeks(M$31,$F35,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>130.29775084520699</v>
+        <f>_xll.acq_options_trinomial_american_greeks(M$31,$F35,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>130.31398520029569</v>
       </c>
       <c r="N35">
-        <f>_xll.acq_options_binomial_american_greeks(N$31,$F35,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>-6.31179333191767</v>
+        <f>_xll.acq_options_trinomial_american_greeks(N$31,$F35,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>-6.3917393571273351</v>
       </c>
       <c r="R35" s="13">
         <v>130</v>
@@ -39974,36 +39495,36 @@
         <v>140</v>
       </c>
       <c r="G36">
-        <f>_xll.acq_options_binomial_american_greeks(G$31,$F36,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>24.726660867450761</v>
+        <f>_xll.acq_options_trinomial_american_greeks(G$31,$F36,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>24.736221086274632</v>
       </c>
       <c r="H36">
-        <f>_xll.acq_options_binomial_american_greeks(H$31,$F36,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>0.63202179102841416</v>
+        <f>_xll.acq_options_trinomial_american_greeks(H$31,$F36,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0.62326296426118732</v>
       </c>
       <c r="I36">
-        <f>_xll.acq_options_binomial_american_greeks(I$31,$F36,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>2.5322148006552546E-9</v>
+        <f>_xll.acq_options_trinomial_american_greeks(I$31,$F36,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>2.0830502855497629E-9</v>
       </c>
       <c r="J36">
-        <f>_xll.acq_options_binomial_american_greeks(J$31,$F36,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>81.860922197439052</v>
+        <f>_xll.acq_options_trinomial_american_greeks(J$31,$F36,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>81.555348545597468</v>
       </c>
       <c r="K36">
-        <f>_xll.acq_options_binomial_american_greeks(K$31,$F36,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>-16.065887145089164</v>
+        <f>_xll.acq_options_trinomial_american_greeks(K$31,$F36,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>-16.105285467915564</v>
       </c>
       <c r="L36">
-        <f>_xll.acq_options_binomial_american_greeks(L$31,$F36,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>-0.17185169554068125</v>
+        <f>_xll.acq_options_trinomial_american_greeks(L$31,$F36,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>-0.17331131552111856</v>
       </c>
       <c r="M36">
-        <f>_xll.acq_options_binomial_american_greeks(M$31,$F36,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>154.14954010589099</v>
+        <f>_xll.acq_options_trinomial_american_greeks(M$31,$F36,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>154.1532184908867</v>
       </c>
       <c r="N36">
-        <f>_xll.acq_options_binomial_american_greeks(N$31,$F36,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>-6.9293708354969397</v>
+        <f>_xll.acq_options_trinomial_american_greeks(N$31,$F36,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>-6.9140677929624417</v>
       </c>
       <c r="R36" s="13">
         <v>140</v>
@@ -40046,36 +39567,36 @@
         <v>150</v>
       </c>
       <c r="G37">
-        <f>_xll.acq_options_binomial_american_greeks(G$31,$F37,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>31.212516368497283</v>
+        <f>_xll.acq_options_trinomial_american_greeks(G$31,$F37,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>31.218139732490769</v>
       </c>
       <c r="H37">
-        <f>_xll.acq_options_binomial_american_greeks(H$31,$F37,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>0.67905092691500357</v>
+        <f>_xll.acq_options_trinomial_american_greeks(H$31,$F37,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0.67909357487404054</v>
       </c>
       <c r="I37">
-        <f>_xll.acq_options_binomial_american_greeks(I$31,$F37,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>0.20321106752210957</v>
+        <f>_xll.acq_options_trinomial_american_greeks(I$31,$F37,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0.14372810144259854</v>
       </c>
       <c r="J37">
-        <f>_xll.acq_options_binomial_american_greeks(J$31,$F37,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>80.826677292584677</v>
+        <f>_xll.acq_options_trinomial_american_greeks(J$31,$F37,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>80.84702764518596</v>
       </c>
       <c r="K37">
-        <f>_xll.acq_options_binomial_american_greeks(K$31,$F37,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>19.712196277055227</v>
+        <f>_xll.acq_options_trinomial_american_greeks(K$31,$F37,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>19.713966153744877</v>
       </c>
       <c r="L37">
-        <f>_xll.acq_options_binomial_american_greeks(L$31,$F37,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>-0.16173119110618472</v>
+        <f>_xll.acq_options_trinomial_american_greeks(L$31,$F37,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>-0.16173432548782785</v>
       </c>
       <c r="M37">
-        <f>_xll.acq_options_binomial_american_greeks(M$31,$F37,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>176.6121161331906</v>
+        <f>_xll.acq_options_trinomial_american_greeks(M$31,$F37,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>176.61404577466831</v>
       </c>
       <c r="N37">
-        <f>_xll.acq_options_binomial_american_greeks(N$31,$F37,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>-7.2621117195801332</v>
+        <f>_xll.acq_options_trinomial_american_greeks(N$31,$F37,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>-7.2631118331116795</v>
       </c>
       <c r="R37" s="13">
         <v>150</v>
@@ -40118,36 +39639,36 @@
         <v>160</v>
       </c>
       <c r="G38">
-        <f>_xll.acq_options_binomial_american_greeks(G$31,$F38,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>38.288870372719884</v>
+        <f>_xll.acq_options_trinomial_american_greeks(G$31,$F38,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>38.292345819275447</v>
       </c>
       <c r="H38">
-        <f>_xll.acq_options_binomial_american_greeks(H$31,$F38,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>0.72328811539992266</v>
+        <f>_xll.acq_options_trinomial_american_greeks(H$31,$F38,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0.73074294636117365</v>
       </c>
       <c r="I38">
-        <f>_xll.acq_options_binomial_american_greeks(I$31,$F38,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>8.0085937881335667E-9</v>
+        <f>_xll.acq_options_trinomial_american_greeks(I$31,$F38,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>6.2649885279597584E-9</v>
       </c>
       <c r="J38">
-        <f>_xll.acq_options_binomial_american_greeks(J$31,$F38,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>78.647506900910642</v>
+        <f>_xll.acq_options_trinomial_american_greeks(J$31,$F38,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>78.353014527664229</v>
       </c>
       <c r="K38">
-        <f>_xll.acq_options_binomial_american_greeks(K$31,$F38,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>51.714829908178217</v>
+        <f>_xll.acq_options_trinomial_american_greeks(K$31,$F38,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>51.448812442345115</v>
       </c>
       <c r="L38">
-        <f>_xll.acq_options_binomial_american_greeks(L$31,$F38,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>-0.14971018913456646</v>
+        <f>_xll.acq_options_trinomial_american_greeks(L$31,$F38,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>-0.14731081598995388</v>
       </c>
       <c r="M38">
-        <f>_xll.acq_options_binomial_american_greeks(M$31,$F38,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>197.16598749784353</v>
+        <f>_xll.acq_options_trinomial_american_greeks(M$31,$F38,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>197.16610791654787</v>
       </c>
       <c r="N38">
-        <f>_xll.acq_options_binomial_american_greeks(N$31,$F38,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>-7.4935158412756664</v>
+        <f>_xll.acq_options_trinomial_american_greeks(N$31,$F38,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>-7.4787564680676155</v>
       </c>
       <c r="R38" s="13">
         <v>160</v>
@@ -40190,36 +39711,36 @@
         <v>170</v>
       </c>
       <c r="G39">
-        <f>_xll.acq_options_binomial_american_greeks(G$31,$F39,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>45.850665689697209</v>
+        <f>_xll.acq_options_trinomial_american_greeks(G$31,$F39,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>45.837473168332053</v>
       </c>
       <c r="H39">
-        <f>_xll.acq_options_binomial_american_greeks(H$31,$F39,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>0.77627038080967903</v>
+        <f>_xll.acq_options_trinomial_american_greeks(H$31,$F39,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0.7784244787043092</v>
       </c>
       <c r="I39">
-        <f>_xll.acq_options_binomial_american_greeks(I$31,$F39,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>1.141785627982666E-8</v>
+        <f>_xll.acq_options_trinomial_american_greeks(I$31,$F39,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>8.581713649411199E-2</v>
       </c>
       <c r="J39">
-        <f>_xll.acq_options_binomial_american_greeks(J$31,$F39,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>74.203292985607945</v>
+        <f>_xll.acq_options_trinomial_american_greeks(J$31,$F39,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>73.832047638319338</v>
       </c>
       <c r="K39">
-        <f>_xll.acq_options_binomial_american_greeks(K$31,$F39,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>77.492788832955739</v>
+        <f>_xll.acq_options_trinomial_american_greeks(K$31,$F39,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>1075.315653878306</v>
       </c>
       <c r="L39">
-        <f>_xll.acq_options_binomial_american_greeks(L$31,$F39,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>-0.13119946729034382</v>
+        <f>_xll.acq_options_trinomial_american_greeks(L$31,$F39,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>-8.847101984343908</v>
       </c>
       <c r="M39">
-        <f>_xll.acq_options_binomial_american_greeks(M$31,$F39,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>215.63455254693764</v>
+        <f>_xll.acq_options_trinomial_american_greeks(M$31,$F39,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>215.71592047807542</v>
       </c>
       <c r="N39">
-        <f>_xll.acq_options_binomial_american_greeks(N$31,$F39,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>-7.5650842958054909</v>
+        <f>_xll.acq_options_trinomial_american_greeks(N$31,$F39,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>-7.5233023337517579</v>
       </c>
       <c r="R39" s="13">
         <v>170</v>
@@ -40262,36 +39783,36 @@
         <v>180</v>
       </c>
       <c r="G40">
-        <f>_xll.acq_options_binomial_american_greeks(G$31,$F40,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>53.806820801060468</v>
+        <f>_xll.acq_options_trinomial_american_greeks(G$31,$F40,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>53.809616845565508</v>
       </c>
       <c r="H40">
-        <f>_xll.acq_options_binomial_american_greeks(H$31,$F40,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>0.82198565685437253</v>
+        <f>_xll.acq_options_trinomial_american_greeks(H$31,$F40,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0.81779818235775781</v>
       </c>
       <c r="I40">
-        <f>_xll.acq_options_binomial_american_greeks(I$31,$F40,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>1.8799557247005813E-8</v>
+        <f>_xll.acq_options_trinomial_american_greeks(I$31,$F40,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>1.9250444859574567E-8</v>
       </c>
       <c r="J40">
-        <f>_xll.acq_options_binomial_american_greeks(J$31,$F40,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>67.871918753013404</v>
+        <f>_xll.acq_options_trinomial_american_greeks(J$31,$F40,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>68.434666958395894</v>
       </c>
       <c r="K40">
-        <f>_xll.acq_options_binomial_american_greeks(K$31,$F40,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>95.508805770805338</v>
+        <f>_xll.acq_options_trinomial_american_greeks(K$31,$F40,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>96.434884412133215</v>
       </c>
       <c r="L40">
-        <f>_xll.acq_options_binomial_american_greeks(L$31,$F40,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>-0.11134978628035697</v>
+        <f>_xll.acq_options_trinomial_american_greeks(L$31,$F40,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>-0.11328195093085469</v>
       </c>
       <c r="M40">
-        <f>_xll.acq_options_binomial_american_greeks(M$31,$F40,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>232.04529747275515</v>
+        <f>_xll.acq_options_trinomial_american_greeks(M$31,$F40,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>232.03763664032451</v>
       </c>
       <c r="N40">
-        <f>_xll.acq_options_binomial_american_greeks(N$31,$F40,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>-7.4971739234754864</v>
+        <f>_xll.acq_options_trinomial_american_greeks(N$31,$F40,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>-7.5251362879811268</v>
       </c>
       <c r="R40" s="13">
         <v>180</v>
@@ -40334,36 +39855,36 @@
         <v>190</v>
       </c>
       <c r="G41">
-        <f>_xll.acq_options_binomial_american_greeks(G$31,$F41,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>62.117916559344394</v>
+        <f>_xll.acq_options_trinomial_american_greeks(G$31,$F41,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>62.116364964224886</v>
       </c>
       <c r="H41">
-        <f>_xll.acq_options_binomial_american_greeks(H$31,$F41,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>0.84202354246964861</v>
+        <f>_xll.acq_options_trinomial_american_greeks(H$31,$F41,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0.84611319290691478</v>
       </c>
       <c r="I41">
-        <f>_xll.acq_options_binomial_american_greeks(I$31,$F41,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>3.1666980518274514E-8</v>
+        <f>_xll.acq_options_trinomial_american_greeks(I$31,$F41,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>2.9191300038941955E-8</v>
       </c>
       <c r="J41">
-        <f>_xll.acq_options_binomial_american_greeks(J$31,$F41,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>63.650941152118833</v>
+        <f>_xll.acq_options_trinomial_american_greeks(J$31,$F41,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>62.907195937505321</v>
       </c>
       <c r="K41">
-        <f>_xll.acq_options_binomial_american_greeks(K$31,$F41,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>111.96122423484667</v>
+        <f>_xll.acq_options_trinomial_american_greeks(K$31,$F41,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>110.49322016276619</v>
       </c>
       <c r="L41">
-        <f>_xll.acq_options_binomial_american_greeks(L$31,$F41,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>-0.10134426098318272</v>
+        <f>_xll.acq_options_trinomial_american_greeks(L$31,$F41,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>-9.9153728783107908E-2</v>
       </c>
       <c r="M41">
-        <f>_xll.acq_options_binomial_american_greeks(M$31,$F41,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>246.28383912638441</v>
+        <f>_xll.acq_options_trinomial_american_greeks(M$31,$F41,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>246.29950503892672</v>
       </c>
       <c r="N41">
-        <f>_xll.acq_options_binomial_american_greeks(N$31,$F41,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>-7.4878105806561734</v>
+        <f>_xll.acq_options_trinomial_american_greeks(N$31,$F41,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>-7.450945374046114</v>
       </c>
       <c r="R41" s="13">
         <v>190</v>
@@ -40406,36 +39927,36 @@
         <v>200</v>
       </c>
       <c r="G42">
-        <f>_xll.acq_options_binomial_american_greeks(G$31,$F42,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>70.697101086051191</v>
+        <f>_xll.acq_options_trinomial_american_greeks(G$31,$F42,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>70.701685113070141</v>
       </c>
       <c r="H42">
-        <f>_xll.acq_options_binomial_american_greeks(H$31,$F42,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>0.87653762333033569</v>
+        <f>_xll.acq_options_trinomial_american_greeks(H$31,$F42,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>0.87070972634769817</v>
       </c>
       <c r="I42">
-        <f>_xll.acq_options_binomial_american_greeks(I$31,$F42,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>5.924647439314866E-8</v>
+        <f>_xll.acq_options_trinomial_american_greeks(I$31,$F42,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>5.1476689577611965E-8</v>
       </c>
       <c r="J42">
-        <f>_xll.acq_options_binomial_american_greeks(J$31,$F42,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>55.588234100731832</v>
+        <f>_xll.acq_options_trinomial_american_greeks(J$31,$F42,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>56.955360588460685</v>
       </c>
       <c r="K42">
-        <f>_xll.acq_options_binomial_american_greeks(K$31,$F42,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>115.6314565946559</v>
+        <f>_xll.acq_options_trinomial_american_greeks(K$31,$F42,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>118.79238434175932</v>
       </c>
       <c r="L42">
-        <f>_xll.acq_options_binomial_american_greeks(L$31,$F42,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>-8.1957097108897869E-2</v>
+        <f>_xll.acq_options_trinomial_american_greeks(L$31,$F42,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>-8.5399495475257936E-2</v>
       </c>
       <c r="M42">
-        <f>_xll.acq_options_binomial_american_greeks(M$31,$F42,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>258.64157207402627</v>
+        <f>_xll.acq_options_trinomial_american_greeks(M$31,$F42,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>258.60972247978253</v>
       </c>
       <c r="N42">
-        <f>_xll.acq_options_binomial_american_greeks(N$31,$F42,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
-        <v>-7.2460279597805766</v>
+        <f>_xll.acq_options_trinomial_american_greeks(N$31,$F42,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
+        <v>-7.313717833113742</v>
       </c>
       <c r="R42" s="13">
         <v>200</v>
@@ -40493,7 +40014,7 @@
     </row>
     <row r="45" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G45" s="53" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="H45" s="53"/>
       <c r="I45" s="53"/>
@@ -40576,36 +40097,36 @@
         <v>100</v>
       </c>
       <c r="G47">
-        <f>_xll.acq_options_binomial_american_greeks(G$31,$F47,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>49.999999999997073</v>
+        <f>_xll.acq_options_trinomial_american_greeks(G$31,$F47,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>50.000000000000156</v>
       </c>
       <c r="H47">
-        <f>_xll.acq_options_binomial_american_greeks(H$31,$F47,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>-0.9999999999998721</v>
+        <f>_xll.acq_options_trinomial_american_greeks(H$31,$F47,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>-1.0000000000003695</v>
       </c>
       <c r="I47">
-        <f>_xll.acq_options_binomial_american_greeks(I$31,$F47,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>-1.27897692436818E-11</v>
+        <f>_xll.acq_options_trinomial_american_greeks(I$31,$F47,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>-4.8316906031686806E-11</v>
       </c>
       <c r="J47">
-        <f>_xll.acq_options_binomial_american_greeks(J$31,$F47,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>-6.0396132539608464E-10</v>
+        <f>_xll.acq_options_trinomial_american_greeks(J$31,$F47,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>-7.1054273576009954E-11</v>
       </c>
       <c r="K47">
-        <f>_xll.acq_options_binomial_american_greeks(K$31,$F47,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>1.6356693777197506E-5</v>
+        <f>_xll.acq_options_trinomial_american_greeks(K$31,$F47,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>-2.8421709430404007E-7</v>
       </c>
       <c r="L47">
-        <f>_xll.acq_options_binomial_american_greeks(L$31,$F47,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>-2.4868995751603507E-8</v>
+        <f>_xll.acq_options_trinomial_american_greeks(L$31,$F47,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>3.1974423109204508E-8</v>
       </c>
       <c r="M47">
-        <f>_xll.acq_options_binomial_american_greeks(M$31,$F47,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <f>_xll.acq_options_trinomial_american_greeks(M$31,$F47,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
         <v>0</v>
       </c>
       <c r="N47">
-        <f>_xll.acq_options_binomial_american_greeks(N$31,$F47,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>-2.4442670110147446E-9</v>
+        <f>_xll.acq_options_trinomial_american_greeks(N$31,$F47,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>-1.1368683772161603E-10</v>
       </c>
       <c r="R47" s="13">
         <v>100</v>
@@ -40648,36 +40169,36 @@
         <v>110</v>
       </c>
       <c r="G48">
-        <f>_xll.acq_options_binomial_american_greeks(G$31,$F48,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>40.231502142120917</v>
+        <f>_xll.acq_options_trinomial_american_greeks(G$31,$F48,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>40.227288075886058</v>
       </c>
       <c r="H48">
-        <f>_xll.acq_options_binomial_american_greeks(H$31,$F48,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>-0.90987473018028131</v>
+        <f>_xll.acq_options_trinomial_american_greeks(H$31,$F48,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>-0.8894063411423887</v>
       </c>
       <c r="I48">
-        <f>_xll.acq_options_binomial_american_greeks(I$31,$F48,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>3.4627434574815183E-3</v>
+        <f>_xll.acq_options_trinomial_american_greeks(I$31,$F48,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>1.5489309560954767E-2</v>
       </c>
       <c r="J48">
-        <f>_xll.acq_options_binomial_american_greeks(J$31,$F48,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>18.406934804751511</v>
+        <f>_xll.acq_options_trinomial_american_greeks(J$31,$F48,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>22.119322474541271</v>
       </c>
       <c r="K48">
-        <f>_xll.acq_options_binomial_american_greeks(K$31,$F48,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>873.34175073294773</v>
+        <f>_xll.acq_options_trinomial_american_greeks(K$31,$F48,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>550.71893198999078</v>
       </c>
       <c r="L48">
-        <f>_xll.acq_options_binomial_american_greeks(L$31,$F48,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>7.1569381336900051</v>
+        <f>_xll.acq_options_trinomial_american_greeks(L$31,$F48,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>3.1272784966063227</v>
       </c>
       <c r="M48">
-        <f>_xll.acq_options_binomial_american_greeks(M$31,$F48,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>-30.812220154164294</v>
+        <f>_xll.acq_options_trinomial_american_greeks(M$31,$F48,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>-36.629314813083624</v>
       </c>
       <c r="N48">
-        <f>_xll.acq_options_binomial_american_greeks(N$31,$F48,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>-0.29567208315484095</v>
+        <f>_xll.acq_options_trinomial_american_greeks(N$31,$F48,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>-0.33502480132341361</v>
       </c>
       <c r="R48" s="13">
         <v>110</v>
@@ -40720,36 +40241,36 @@
         <v>120</v>
       </c>
       <c r="G49">
-        <f>_xll.acq_options_binomial_american_greeks(G$31,$F49,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>32.171645652267202</v>
+        <f>_xll.acq_options_trinomial_american_greeks(G$31,$F49,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>32.166777814204401</v>
       </c>
       <c r="H49">
-        <f>_xll.acq_options_binomial_american_greeks(H$31,$F49,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>-0.7220906634614721</v>
+        <f>_xll.acq_options_trinomial_american_greeks(H$31,$F49,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>-0.71665054220713864</v>
       </c>
       <c r="I49">
-        <f>_xll.acq_options_binomial_american_greeks(I$31,$F49,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>7.4909230206464551E-3</v>
+        <f>_xll.acq_options_trinomial_american_greeks(I$31,$F49,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>9.9891035384066153E-3</v>
       </c>
       <c r="J49">
-        <f>_xll.acq_options_binomial_american_greeks(J$31,$F49,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>50.689647329619405</v>
+        <f>_xll.acq_options_trinomial_american_greeks(J$31,$F49,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>51.357774368955901</v>
       </c>
       <c r="K49">
-        <f>_xll.acq_options_binomial_american_greeks(K$31,$F49,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>119.8706003293637</v>
+        <f>_xll.acq_options_trinomial_american_greeks(K$31,$F49,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>142.84724407787053</v>
       </c>
       <c r="L49">
-        <f>_xll.acq_options_binomial_american_greeks(L$31,$F49,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>1.1280762013399226</v>
+        <f>_xll.acq_options_trinomial_american_greeks(L$31,$F49,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>1.8020900931503547</v>
       </c>
       <c r="M49">
-        <f>_xll.acq_options_binomial_american_greeks(M$31,$F49,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>-76.928191555303727</v>
+        <f>_xll.acq_options_trinomial_american_greeks(M$31,$F49,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>-77.487185436513784</v>
       </c>
       <c r="N49">
-        <f>_xll.acq_options_binomial_american_greeks(N$31,$F49,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>-0.92539108119638058</v>
+        <f>_xll.acq_options_trinomial_american_greeks(N$31,$F49,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>-0.9473947105718139</v>
       </c>
       <c r="R49" s="13">
         <v>120</v>
@@ -40792,36 +40313,36 @@
         <v>130</v>
       </c>
       <c r="G50">
-        <f>_xll.acq_options_binomial_american_greeks(G$31,$F50,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>25.708592404822586</v>
+        <f>_xll.acq_options_trinomial_american_greeks(G$31,$F50,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>25.709356904086903</v>
       </c>
       <c r="H50">
-        <f>_xll.acq_options_binomial_american_greeks(H$31,$F50,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>-0.58342210390560301</v>
+        <f>_xll.acq_options_trinomial_american_greeks(H$31,$F50,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>-0.57499768124133022</v>
       </c>
       <c r="I50">
-        <f>_xll.acq_options_binomial_american_greeks(I$31,$F50,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>1.1193959009850235E-2</v>
+        <f>_xll.acq_options_trinomial_american_greeks(I$31,$F50,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>7.0907435719474695E-3</v>
       </c>
       <c r="J50">
-        <f>_xll.acq_options_binomial_american_greeks(J$31,$F50,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>69.019607605815324</v>
+        <f>_xll.acq_options_trinomial_american_greeks(J$31,$F50,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>69.647618032519119</v>
       </c>
       <c r="K50">
-        <f>_xll.acq_options_binomial_american_greeks(K$31,$F50,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>143.99398478559533</v>
+        <f>_xll.acq_options_trinomial_american_greeks(K$31,$F50,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>45.032961764945867</v>
       </c>
       <c r="L50">
-        <f>_xll.acq_options_binomial_american_greeks(L$31,$F50,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>1.355260949686965</v>
+        <f>_xll.acq_options_trinomial_american_greeks(L$31,$F50,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>0.78662725311318127</v>
       </c>
       <c r="M50">
-        <f>_xll.acq_options_binomial_american_greeks(M$31,$F50,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>-97.693498495376119</v>
+        <f>_xll.acq_options_trinomial_american_greeks(M$31,$F50,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>-97.67336474380528</v>
       </c>
       <c r="N50">
-        <f>_xll.acq_options_binomial_american_greeks(N$31,$F50,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>-1.4121944331115799</v>
+        <f>_xll.acq_options_trinomial_american_greeks(N$31,$F50,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>-1.4440318355113391</v>
       </c>
       <c r="R50" s="13">
         <v>130</v>
@@ -40864,36 +40385,36 @@
         <v>140</v>
       </c>
       <c r="G51">
-        <f>_xll.acq_options_binomial_american_greeks(G$31,$F51,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>20.529319339336379</v>
+        <f>_xll.acq_options_trinomial_american_greeks(G$31,$F51,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>20.530861355560823</v>
       </c>
       <c r="H51">
-        <f>_xll.acq_options_binomial_american_greeks(H$31,$F51,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>-0.45755880360593332</v>
+        <f>_xll.acq_options_trinomial_american_greeks(H$31,$F51,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>-0.45915599071855789</v>
       </c>
       <c r="I51">
-        <f>_xll.acq_options_binomial_american_greeks(I$31,$F51,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>1.7545605667132987E-2</v>
+        <f>_xll.acq_options_trinomial_american_greeks(I$31,$F51,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>6.6847323435378506E-3</v>
       </c>
       <c r="J51">
-        <f>_xll.acq_options_binomial_american_greeks(J$31,$F51,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>79.537114264825277</v>
+        <f>_xll.acq_options_trinomial_american_greeks(J$31,$F51,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>79.502171362486536</v>
       </c>
       <c r="K51">
-        <f>_xll.acq_options_binomial_american_greeks(K$31,$F51,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>46.342422983514098</v>
+        <f>_xll.acq_options_trinomial_american_greeks(K$31,$F51,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>20.519248977279858</v>
       </c>
       <c r="L51">
-        <f>_xll.acq_options_binomial_american_greeks(L$31,$F51,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>1.4873137432758199</v>
+        <f>_xll.acq_options_trinomial_american_greeks(L$31,$F51,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>0.51084190388905881</v>
       </c>
       <c r="M51">
-        <f>_xll.acq_options_binomial_american_greeks(M$31,$F51,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>-103.82610656881575</v>
+        <f>_xll.acq_options_trinomial_american_greeks(M$31,$F51,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>-104.04927047039791</v>
       </c>
       <c r="N51">
-        <f>_xll.acq_options_binomial_american_greeks(N$31,$F51,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>-1.8152021949688901</v>
+        <f>_xll.acq_options_trinomial_american_greeks(N$31,$F51,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>-1.8081481572984615</v>
       </c>
       <c r="R51" s="13">
         <v>140</v>
@@ -40936,36 +40457,36 @@
         <v>150</v>
       </c>
       <c r="G52">
-        <f>_xll.acq_options_binomial_american_greeks(G$31,$F52,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>16.378604252576686</v>
+        <f>_xll.acq_options_trinomial_american_greeks(G$31,$F52,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>16.377968211394698</v>
       </c>
       <c r="H52">
-        <f>_xll.acq_options_binomial_american_greeks(H$31,$F52,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>-0.37349516746284434</v>
+        <f>_xll.acq_options_trinomial_american_greeks(H$31,$F52,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>-0.37176889697108828</v>
       </c>
       <c r="I52">
-        <f>_xll.acq_options_binomial_american_greeks(I$31,$F52,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>8.10973922840377E-2</v>
+        <f>_xll.acq_options_trinomial_american_greeks(I$31,$F52,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>6.7661235440949791E-2</v>
       </c>
       <c r="J52">
-        <f>_xll.acq_options_binomial_american_greeks(J$31,$F52,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>83.01222734064055</v>
+        <f>_xll.acq_options_trinomial_american_greeks(J$31,$F52,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>83.03101706208686</v>
       </c>
       <c r="K52">
-        <f>_xll.acq_options_binomial_american_greeks(K$31,$F52,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>17.750951514017288</v>
+        <f>_xll.acq_options_trinomial_american_greeks(K$31,$F52,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>17.390221472624035</v>
       </c>
       <c r="L52">
-        <f>_xll.acq_options_binomial_american_greeks(L$31,$F52,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>0.11649096531840542</v>
+        <f>_xll.acq_options_trinomial_american_greeks(L$31,$F52,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>0.13579878199720952</v>
       </c>
       <c r="M52">
-        <f>_xll.acq_options_binomial_american_greeks(M$31,$F52,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>-101.43057264356514</v>
+        <f>_xll.acq_options_trinomial_american_greeks(M$31,$F52,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>-101.53289379418418</v>
       </c>
       <c r="N52">
-        <f>_xll.acq_options_binomial_american_greeks(N$31,$F52,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>-2.0426651712917021</v>
+        <f>_xll.acq_options_trinomial_american_greeks(N$31,$F52,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>-2.0410383686773059</v>
       </c>
       <c r="R52" s="13">
         <v>150</v>
@@ -41008,36 +40529,36 @@
         <v>160</v>
       </c>
       <c r="G53">
-        <f>_xll.acq_options_binomial_american_greeks(G$31,$F53,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>13.064178901247107</v>
+        <f>_xll.acq_options_trinomial_american_greeks(G$31,$F53,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>13.062883099918247</v>
       </c>
       <c r="H53">
-        <f>_xll.acq_options_binomial_american_greeks(H$31,$F53,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>-0.3015324714407519</v>
+        <f>_xll.acq_options_trinomial_american_greeks(H$31,$F53,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>-0.29691488871357308</v>
       </c>
       <c r="I53">
-        <f>_xll.acq_options_binomial_american_greeks(I$31,$F53,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>3.1186186272291749E-3</v>
+        <f>_xll.acq_options_trinomial_american_greeks(I$31,$F53,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>3.4732161689754459E-3</v>
       </c>
       <c r="J53">
-        <f>_xll.acq_options_binomial_american_greeks(J$31,$F53,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>82.758584433465217</v>
+        <f>_xll.acq_options_trinomial_american_greeks(J$31,$F53,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>82.565425729446957</v>
       </c>
       <c r="K53">
-        <f>_xll.acq_options_binomial_american_greeks(K$31,$F53,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>37.902429166791762</v>
+        <f>_xll.acq_options_trinomial_american_greeks(K$31,$F53,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>36.572952396340952</v>
       </c>
       <c r="L53">
-        <f>_xll.acq_options_binomial_american_greeks(L$31,$F53,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>-6.4971204860597709E-2</v>
+        <f>_xll.acq_options_trinomial_american_greeks(L$31,$F53,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>-0.11357795859368025</v>
       </c>
       <c r="M53">
-        <f>_xll.acq_options_binomial_american_greeks(M$31,$F53,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>-94.61045354549924</v>
+        <f>_xll.acq_options_trinomial_american_greeks(M$31,$F53,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>-94.622479997800824</v>
       </c>
       <c r="N53">
-        <f>_xll.acq_options_binomial_american_greeks(N$31,$F53,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>-2.1744266617886865</v>
+        <f>_xll.acq_options_trinomial_american_greeks(N$31,$F53,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>-2.1647265994300113</v>
       </c>
       <c r="R53" s="13">
         <v>160</v>
@@ -41080,36 +40601,36 @@
         <v>170</v>
       </c>
       <c r="G54">
-        <f>_xll.acq_options_binomial_american_greeks(G$31,$F54,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>10.414585486521755</v>
+        <f>_xll.acq_options_trinomial_american_greeks(G$31,$F54,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>10.403962898100559</v>
       </c>
       <c r="H54">
-        <f>_xll.acq_options_binomial_american_greeks(H$31,$F54,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>-0.23658976884919225</v>
+        <f>_xll.acq_options_trinomial_american_greeks(H$31,$F54,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>-0.23704518330002264</v>
       </c>
       <c r="I54">
-        <f>_xll.acq_options_binomial_american_greeks(I$31,$F54,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>2.3684641677966601E-3</v>
+        <f>_xll.acq_options_trinomial_american_greeks(I$31,$F54,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>4.8244400420729104E-2</v>
       </c>
       <c r="J54">
-        <f>_xll.acq_options_binomial_american_greeks(J$31,$F54,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>79.233865331409461</v>
+        <f>_xll.acq_options_trinomial_american_greeks(J$31,$F54,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>79.160519891699295</v>
       </c>
       <c r="K54">
-        <f>_xll.acq_options_binomial_american_greeks(K$31,$F54,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>65.744231370956641</v>
+        <f>_xll.acq_options_trinomial_american_greeks(K$31,$F54,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>580.55057075634409</v>
       </c>
       <c r="L54">
-        <f>_xll.acq_options_binomial_american_greeks(L$31,$F54,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>-0.14957109595314932</v>
+        <f>_xll.acq_options_trinomial_american_greeks(L$31,$F54,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>-4.6480733431053523</v>
       </c>
       <c r="M54">
-        <f>_xll.acq_options_binomial_american_greeks(M$31,$F54,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>-85.493522714020102</v>
+        <f>_xll.acq_options_trinomial_american_greeks(M$31,$F54,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>-85.359082955794634</v>
       </c>
       <c r="N54">
-        <f>_xll.acq_options_binomial_american_greeks(N$31,$F54,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>-2.1901279545879504</v>
+        <f>_xll.acq_options_trinomial_american_greeks(N$31,$F54,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>-2.1767534966805613</v>
       </c>
       <c r="R54" s="13">
         <v>170</v>
@@ -41152,36 +40673,36 @@
         <v>180</v>
       </c>
       <c r="G55">
-        <f>_xll.acq_options_binomial_american_greeks(G$31,$F55,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>8.2906052849119263</v>
+        <f>_xll.acq_options_trinomial_american_greeks(G$31,$F55,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>8.2909842221380146</v>
       </c>
       <c r="H55">
-        <f>_xll.acq_options_binomial_american_greeks(H$31,$F55,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>-0.18388404707029909</v>
+        <f>_xll.acq_options_trinomial_american_greeks(H$31,$F55,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>-0.18632222442169283</v>
       </c>
       <c r="I55">
-        <f>_xll.acq_options_binomial_american_greeks(I$31,$F55,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>1.9879113209874E-3</v>
+        <f>_xll.acq_options_trinomial_american_greeks(I$31,$F55,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>1.8937878489531542E-3</v>
       </c>
       <c r="J55">
-        <f>_xll.acq_options_binomial_american_greeks(J$31,$F55,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>73.472132861984221</v>
+        <f>_xll.acq_options_trinomial_american_greeks(J$31,$F55,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>73.799974646326419</v>
       </c>
       <c r="K55">
-        <f>_xll.acq_options_binomial_american_greeks(K$31,$F55,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>98.51208101707698</v>
+        <f>_xll.acq_options_trinomial_american_greeks(K$31,$F55,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>97.753212308759885</v>
       </c>
       <c r="L55">
-        <f>_xll.acq_options_binomial_american_greeks(L$31,$F55,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>-0.22954692724397319</v>
+        <f>_xll.acq_options_trinomial_american_greeks(L$31,$F55,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>-0.23102755175585798</v>
       </c>
       <c r="M55">
-        <f>_xll.acq_options_binomial_american_greeks(M$31,$F55,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>-75.487511383808936</v>
+        <f>_xll.acq_options_trinomial_american_greeks(M$31,$F55,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>-75.509750560629911</v>
       </c>
       <c r="N55">
-        <f>_xll.acq_options_binomial_american_greeks(N$31,$F55,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>-2.1112875738502623</v>
+        <f>_xll.acq_options_trinomial_american_greeks(N$31,$F55,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>-2.1273655174596229</v>
       </c>
       <c r="R55" s="13">
         <v>180</v>
@@ -41224,36 +40745,36 @@
         <v>190</v>
       </c>
       <c r="G56">
-        <f>_xll.acq_options_binomial_american_greeks(G$31,$F56,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>6.6081901894160353</v>
+        <f>_xll.acq_options_trinomial_american_greeks(G$31,$F56,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>6.6048920021230355</v>
       </c>
       <c r="H56">
-        <f>_xll.acq_options_binomial_american_greeks(H$31,$F56,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>-0.15228467425900086</v>
+        <f>_xll.acq_options_trinomial_american_greeks(H$31,$F56,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>-0.14954415215775801</v>
       </c>
       <c r="I56">
-        <f>_xll.acq_options_binomial_american_greeks(I$31,$F56,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>1.0738727936558503E-3</v>
+        <f>_xll.acq_options_trinomial_american_greeks(I$31,$F56,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>1.5443315182402057E-3</v>
       </c>
       <c r="J56">
-        <f>_xll.acq_options_binomial_american_greeks(J$31,$F56,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>68.407449410813499</v>
+        <f>_xll.acq_options_trinomial_american_greeks(J$31,$F56,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>67.898838839230478</v>
       </c>
       <c r="K56">
-        <f>_xll.acq_options_binomial_american_greeks(K$31,$F56,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>120.4651042243654</v>
+        <f>_xll.acq_options_trinomial_american_greeks(K$31,$F56,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>132.37811138644417</v>
       </c>
       <c r="L56">
-        <f>_xll.acq_options_binomial_american_greeks(L$31,$F56,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>-0.2339520708272147</v>
+        <f>_xll.acq_options_trinomial_american_greeks(L$31,$F56,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>-0.31105670683650999</v>
       </c>
       <c r="M56">
-        <f>_xll.acq_options_binomial_american_greeks(M$31,$F56,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>-65.739523841137341</v>
+        <f>_xll.acq_options_trinomial_american_greeks(M$31,$F56,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>-65.716297827119959</v>
       </c>
       <c r="N56">
-        <f>_xll.acq_options_binomial_american_greeks(N$31,$F56,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>-2.0618542795149963</v>
+        <f>_xll.acq_options_trinomial_american_greeks(N$31,$F56,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>-2.0370295627349932</v>
       </c>
       <c r="R56" s="13">
         <v>190</v>
@@ -41296,36 +40817,36 @@
         <v>200</v>
       </c>
       <c r="G57">
-        <f>_xll.acq_options_binomial_american_greeks(G$31,$F57,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>5.2592397761285765</v>
+        <f>_xll.acq_options_trinomial_american_greeks(G$31,$F57,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>5.261799746378073</v>
       </c>
       <c r="H57">
-        <f>_xll.acq_options_binomial_american_greeks(H$31,$F57,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>-0.1155444655295601</v>
+        <f>_xll.acq_options_trinomial_american_greeks(H$31,$F57,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>-0.11934416277745274</v>
       </c>
       <c r="I57">
-        <f>_xll.acq_options_binomial_american_greeks(I$31,$F57,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>1.4439596922155571E-3</v>
+        <f>_xll.acq_options_trinomial_american_greeks(I$31,$F57,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>1.021320175809137E-3</v>
       </c>
       <c r="J57">
-        <f>_xll.acq_options_binomial_american_greeks(J$31,$F57,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>60.565883962435173</v>
+        <f>_xll.acq_options_trinomial_american_greeks(J$31,$F57,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>61.460196580122641</v>
       </c>
       <c r="K57">
-        <f>_xll.acq_options_binomial_american_greeks(K$31,$F57,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>164.33558030115591</v>
+        <f>_xll.acq_options_trinomial_american_greeks(K$31,$F57,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>149.0794894696279</v>
       </c>
       <c r="L57">
-        <f>_xll.acq_options_binomial_american_greeks(L$31,$F57,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>-0.323655884315599</v>
+        <f>_xll.acq_options_trinomial_american_greeks(L$31,$F57,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>-0.27238517552596875</v>
       </c>
       <c r="M57">
-        <f>_xll.acq_options_binomial_american_greeks(M$31,$F57,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>-56.4812235501293</v>
+        <f>_xll.acq_options_trinomial_american_greeks(M$31,$F57,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>-56.524295826722245</v>
       </c>
       <c r="N57">
-        <f>_xll.acq_options_binomial_american_greeks(N$31,$F57,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
-        <v>-1.8621640523202032</v>
+        <f>_xll.acq_options_trinomial_american_greeks(N$31,$F57,$C$5,$C$6,$C$8,$C$9,$C$7,FALSE)</f>
+        <v>-1.9059481586447546</v>
       </c>
       <c r="R57" s="13">
         <v>200</v>
@@ -41381,8 +40902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BF3CA9D-20A9-4DB7-AD8A-F59DC22CC79A}">
   <dimension ref="A1:AA57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41425,7 +40946,7 @@
       </c>
       <c r="J3" s="53"/>
       <c r="K3" s="53" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L3" s="53"/>
       <c r="M3" s="53" t="s">
@@ -41445,15 +40966,10 @@
         <v>137</v>
       </c>
       <c r="V3" s="53"/>
-      <c r="Y3" t="s">
-        <v>99</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>100</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>101</v>
-      </c>
+      <c r="W3" s="53" t="s">
+        <v>171</v>
+      </c>
+      <c r="X3" s="53"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
@@ -41510,6 +41026,12 @@
       <c r="V4" t="s">
         <v>138</v>
       </c>
+      <c r="W4" t="s">
+        <v>91</v>
+      </c>
+      <c r="X4" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
@@ -41539,11 +41061,11 @@
       </c>
       <c r="K5">
         <f>_xll.acq_options_trinomial_american_greeks($C$4,$C$5,F5,$C$7,$C$9,$C$10,$C$8,TRUE,500)</f>
-        <v>63.779913678626997</v>
+        <v>69.999999999999986</v>
       </c>
       <c r="L5">
         <f>_xll.acq_options_trinomial_american_greeks($C$4,$C$5,F5,$C$7,$C$9,$C$10,$C$8,FALSE,500)</f>
-        <v>7.6869737036362496E-12</v>
+        <v>7.7531407749717081E-12</v>
       </c>
       <c r="M5">
         <f>_xll.acq_options_blackscholes_greeks($C$4,$C$5,F5,$C$7,$C$9,$C$10,$C$8,TRUE)</f>
@@ -41580,21 +41102,13 @@
         <f>_xll.acq_options_blackscholes_greeks($C$4,$C$5,$C$6,P5,$C$9,$C$10,$C$8,FALSE)</f>
         <v>19.721490775620225</v>
       </c>
+      <c r="W5">
+        <f>_xll.acq_options_trinomial_american_greeks($C$4,$C$5,$C$6,P5,$C$9,$C$10,$C$8,TRUE,500)</f>
+        <v>3.2878225846039481E-4</v>
+      </c>
       <c r="X5">
-        <f>X6-Y9</f>
-        <v>99.99</v>
-      </c>
-      <c r="Y5">
-        <f>_xll.acq_options_binomial_american_greeks(Y3,$X$5,$C$6,$C$7,$C$9,$C$10,$C$8,FALSE)</f>
-        <v>9.8975330067145499</v>
-      </c>
-      <c r="Z5">
-        <f>_xll.acq_options_binomial_american_greeks(Z3,$X$5,$C$6,$C$7,$C$9,$C$10,$C$8,FALSE)</f>
-        <v>-0.39471174754918753</v>
-      </c>
-      <c r="AA5">
-        <f>_xll.acq_options_binomial_american_greeks(AA3,$X$5,$C$6,$C$7,$C$9,$C$10,$C$8,FALSE)</f>
-        <v>0.15172228637270416</v>
+        <f>_xll.acq_options_trinomial_american_greeks($C$4,$C$5,$C$6,P5,$C$9,$C$10,$C$8,FALSE)</f>
+        <v>20.000000000000043</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
@@ -41625,11 +41139,11 @@
       </c>
       <c r="K6">
         <f>_xll.acq_options_trinomial_american_greeks($C$4,$C$5,F6,$C$7,$C$9,$C$10,$C$8,TRUE,500)</f>
-        <v>55.172839955210684</v>
+        <v>59.999999999999986</v>
       </c>
       <c r="L6">
         <f>_xll.acq_options_trinomial_american_greeks($C$4,$C$5,F6,$C$7,$C$9,$C$10,$C$8,FALSE,500)</f>
-        <v>6.0408418891875387E-6</v>
+        <v>6.1198396917104289E-6</v>
       </c>
       <c r="M6">
         <f>_xll.acq_options_blackscholes_greeks($C$4,$C$5,F6,$C$7,$C$9,$C$10,$C$8,TRUE)</f>
@@ -41666,20 +41180,13 @@
         <f>_xll.acq_options_blackscholes_greeks($C$4,$C$5,$C$6,P6,$C$9,$C$10,$C$8,FALSE)</f>
         <v>19.352663939265554</v>
       </c>
+      <c r="W6">
+        <f>_xll.acq_options_trinomial_american_greeks($C$4,$C$5,$C$6,P6,$C$9,$C$10,$C$8,TRUE,500)</f>
+        <v>4.5362907552770448E-2</v>
+      </c>
       <c r="X6">
-        <v>100</v>
-      </c>
-      <c r="Y6">
-        <f>_xll.acq_options_binomial_american_greeks(Y3,$X$6,$C$6,$C$7,$C$9,$C$10,$C$8,FALSE)</f>
-        <v>9.8935133969932672</v>
-      </c>
-      <c r="Z6">
-        <f>_xll.acq_options_binomial_american_greeks(Z3,$X$6,$C$6,$C$7,$C$9,$C$10,$C$8,FALSE)</f>
-        <v>-0.39369036839271843</v>
-      </c>
-      <c r="AA6">
-        <f>_xll.acq_options_binomial_american_greeks(AA3,$X$6,$C$6,$C$7,$C$9,$C$10,$C$8,FALSE)</f>
-        <v>0.17092894572492409</v>
+        <f>_xll.acq_options_trinomial_american_greeks($C$4,$C$5,$C$6,P6,$C$9,$C$10,$C$8,FALSE)</f>
+        <v>19.999999999999872</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
@@ -41710,11 +41217,11 @@
       </c>
       <c r="K7">
         <f>_xll.acq_options_trinomial_american_greeks($C$4,$C$5,F7,$C$7,$C$9,$C$10,$C$8,TRUE,500)</f>
-        <v>46.567733861621804</v>
+        <v>49.999999999999986</v>
       </c>
       <c r="L7">
         <f>_xll.acq_options_trinomial_american_greeks($C$4,$C$5,F7,$C$7,$C$9,$C$10,$C$8,FALSE,500)</f>
-        <v>1.9797115035635783E-3</v>
+        <v>2.0202104753871985E-3</v>
       </c>
       <c r="M7">
         <f>_xll.acq_options_blackscholes_greeks($C$4,$C$5,F7,$C$7,$C$9,$C$10,$C$8,TRUE)</f>
@@ -41751,21 +41258,13 @@
         <f>_xll.acq_options_blackscholes_greeks($C$4,$C$5,$C$6,P7,$C$9,$C$10,$C$8,FALSE)</f>
         <v>18.98371399900536</v>
       </c>
+      <c r="W7">
+        <f>_xll.acq_options_trinomial_american_greeks($C$4,$C$5,$C$6,P7,$C$9,$C$10,$C$8,TRUE,500)</f>
+        <v>0.35446037434305855</v>
+      </c>
       <c r="X7">
-        <f>X6+Y9</f>
-        <v>100.01</v>
-      </c>
-      <c r="Y7">
-        <f>_xll.acq_options_binomial_american_greeks(Y3,$X$7,$C$6,$C$7,$C$9,$C$10,$C$8,FALSE)</f>
-        <v>9.8896079387560665</v>
-      </c>
-      <c r="Z7">
-        <f>_xll.acq_options_binomial_american_greeks(Z3,$X$7,$C$6,$C$7,$C$9,$C$10,$C$8,FALSE)</f>
-        <v>-0.39266406129101233</v>
-      </c>
-      <c r="AA7">
-        <f>_xll.acq_options_binomial_american_greeks(AA3,$X$7,$C$6,$C$7,$C$9,$C$10,$C$8,FALSE)</f>
-        <v>0.16754391361739748</v>
+        <f>_xll.acq_options_trinomial_american_greeks($C$4,$C$5,$C$6,P7,$C$9,$C$10,$C$8,FALSE)</f>
+        <v>19.999999999999858</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
@@ -41796,11 +41295,11 @@
       </c>
       <c r="K8">
         <f>_xll.acq_options_trinomial_american_greeks($C$4,$C$5,F8,$C$7,$C$9,$C$10,$C$8,TRUE,500)</f>
-        <v>38.00798103508329</v>
+        <v>39.999999999999986</v>
       </c>
       <c r="L8">
         <f>_xll.acq_options_trinomial_american_greeks($C$4,$C$5,F8,$C$7,$C$9,$C$10,$C$8,FALSE,500)</f>
-        <v>4.9306649215599796E-2</v>
+        <v>5.0745317142587704E-2</v>
       </c>
       <c r="M8">
         <f>_xll.acq_options_blackscholes_greeks($C$4,$C$5,F8,$C$7,$C$9,$C$10,$C$8,TRUE)</f>
@@ -41837,14 +41336,16 @@
         <f>_xll.acq_options_blackscholes_greeks($C$4,$C$5,$C$6,P8,$C$9,$C$10,$C$8,FALSE)</f>
         <v>18.684695143014714</v>
       </c>
-      <c r="Z8" s="13">
-        <f>(Y7-Y5)/(2*Y9)</f>
-        <v>-0.39625339792417336</v>
-      </c>
-      <c r="AA8" s="13">
-        <f>(Y7+Y5-2*Y6)/(Y9*Y9)</f>
-        <v>1.1415148408389086</v>
-      </c>
+      <c r="W8">
+        <f>_xll.acq_options_trinomial_american_greeks($C$4,$C$5,$C$6,P8,$C$9,$C$10,$C$8,TRUE,500)</f>
+        <v>1.3717766118614212</v>
+      </c>
+      <c r="X8">
+        <f>_xll.acq_options_trinomial_american_greeks($C$4,$C$5,$C$6,P8,$C$9,$C$10,$C$8,FALSE)</f>
+        <v>20.162507499201109</v>
+      </c>
+      <c r="Z8" s="13"/>
+      <c r="AA8" s="13"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
@@ -41874,11 +41375,11 @@
       </c>
       <c r="K9">
         <f>_xll.acq_options_trinomial_american_greeks($C$4,$C$5,F9,$C$7,$C$9,$C$10,$C$8,TRUE,500)</f>
-        <v>29.717517847404697</v>
+        <v>30.498380409808711</v>
       </c>
       <c r="L9">
         <f>_xll.acq_options_trinomial_american_greeks($C$4,$C$5,F9,$C$7,$C$9,$C$10,$C$8,FALSE,500)</f>
-        <v>0.36592322578755321</v>
+        <v>0.38081386927335337</v>
       </c>
       <c r="M9">
         <f>_xll.acq_options_blackscholes_greeks($C$4,$C$5,F9,$C$7,$C$9,$C$10,$C$8,TRUE)</f>
@@ -41915,20 +41416,15 @@
         <f>_xll.acq_options_blackscholes_greeks($C$4,$C$5,$C$6,P9,$C$9,$C$10,$C$8,FALSE)</f>
         <v>18.394422240733199</v>
       </c>
-      <c r="X9" t="s">
-        <v>171</v>
-      </c>
-      <c r="Y9" s="11">
-        <v>0.01</v>
-      </c>
-      <c r="Z9">
-        <f>Z6-Z8</f>
-        <v>2.5630295314549301E-3</v>
-      </c>
-      <c r="AA9">
-        <f>AA6-AA8</f>
-        <v>-0.97058589511398452</v>
-      </c>
+      <c r="W9">
+        <f>_xll.acq_options_trinomial_american_greeks($C$4,$C$5,$C$6,P9,$C$9,$C$10,$C$8,TRUE,500)</f>
+        <v>3.5552974923851526</v>
+      </c>
+      <c r="X9">
+        <f>_xll.acq_options_trinomial_american_greeks($C$4,$C$5,$C$6,P9,$C$9,$C$10,$C$8,FALSE)</f>
+        <v>20.7919965425789</v>
+      </c>
+      <c r="Y9" s="11"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
@@ -41958,11 +41454,11 @@
       </c>
       <c r="K10">
         <f>_xll.acq_options_trinomial_american_greeks($C$4,$C$5,F10,$C$7,$C$9,$C$10,$C$8,TRUE,500)</f>
-        <v>22.147104515196297</v>
+        <v>22.446455528312654</v>
       </c>
       <c r="L10">
         <f>_xll.acq_options_trinomial_american_greeks($C$4,$C$5,F10,$C$7,$C$9,$C$10,$C$8,FALSE,500)</f>
-        <v>1.4025896578297128</v>
+        <v>1.480431683143093</v>
       </c>
       <c r="M10">
         <f>_xll.acq_options_blackscholes_greeks($C$4,$C$5,F10,$C$7,$C$9,$C$10,$C$8,TRUE)</f>
@@ -41999,6 +41495,14 @@
         <f>_xll.acq_options_blackscholes_greeks($C$4,$C$5,$C$6,P10,$C$9,$C$10,$C$8,FALSE)</f>
         <v>18.049910202800888</v>
       </c>
+      <c r="W10">
+        <f>_xll.acq_options_trinomial_american_greeks($C$4,$C$5,$C$6,P10,$C$9,$C$10,$C$8,TRUE,500)</f>
+        <v>5.4919312685658506</v>
+      </c>
+      <c r="X10">
+        <f>_xll.acq_options_trinomial_american_greeks($C$4,$C$5,$C$6,P10,$C$9,$C$10,$C$8,FALSE)</f>
+        <v>21.363386936449352</v>
+      </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
@@ -42028,11 +41532,11 @@
       </c>
       <c r="K11">
         <f>_xll.acq_options_trinomial_american_greeks($C$4,$C$5,F11,$C$7,$C$9,$C$10,$C$8,TRUE,500)</f>
-        <v>15.750780237113808</v>
+        <v>15.865993500151173</v>
       </c>
       <c r="L11">
         <f>_xll.acq_options_trinomial_american_greeks($C$4,$C$5,F11,$C$7,$C$9,$C$10,$C$8,FALSE,500)</f>
-        <v>3.6133451439977753</v>
+        <v>3.8810475580777197</v>
       </c>
       <c r="M11">
         <f>_xll.acq_options_blackscholes_greeks($C$4,$C$5,F11,$C$7,$C$9,$C$10,$C$8,TRUE)</f>
@@ -42069,6 +41573,14 @@
         <f>_xll.acq_options_blackscholes_greeks($C$4,$C$5,$C$6,P11,$C$9,$C$10,$C$8,FALSE)</f>
         <v>17.60970708172281</v>
       </c>
+      <c r="W11">
+        <f>_xll.acq_options_trinomial_american_greeks($C$4,$C$5,$C$6,P11,$C$9,$C$10,$C$8,TRUE,500)</f>
+        <v>7.1659504190710379</v>
+      </c>
+      <c r="X11">
+        <f>_xll.acq_options_trinomial_american_greeks($C$4,$C$5,$C$6,P11,$C$9,$C$10,$C$8,FALSE)</f>
+        <v>21.831061875064631</v>
+      </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
@@ -42099,11 +41611,11 @@
       </c>
       <c r="K12">
         <f>_xll.acq_options_trinomial_american_greeks($C$4,$C$5,F12,$C$7,$C$9,$C$10,$C$8,TRUE,500)</f>
-        <v>10.745087201999954</v>
+        <v>10.789799785481252</v>
       </c>
       <c r="L12">
         <f>_xll.acq_options_trinomial_american_greeks($C$4,$C$5,F12,$C$7,$C$9,$C$10,$C$8,FALSE,500)</f>
-        <v>7.2147318731344656</v>
+        <v>7.9151152949034689</v>
       </c>
       <c r="M12">
         <f>_xll.acq_options_blackscholes_greeks($C$4,$C$5,F12,$C$7,$C$9,$C$10,$C$8,TRUE)</f>
@@ -42140,6 +41652,14 @@
         <f>_xll.acq_options_blackscholes_greeks($C$4,$C$5,$C$6,P12,$C$9,$C$10,$C$8,FALSE)</f>
         <v>17.096901149405888</v>
       </c>
+      <c r="W12">
+        <f>_xll.acq_options_trinomial_american_greeks($C$4,$C$5,$C$6,P12,$C$9,$C$10,$C$8,TRUE,500)</f>
+        <v>8.6155333627550021</v>
+      </c>
+      <c r="X12">
+        <f>_xll.acq_options_trinomial_american_greeks($C$4,$C$5,$C$6,P12,$C$9,$C$10,$C$8,FALSE)</f>
+        <v>22.210377103114283</v>
+      </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="F13">
@@ -42163,11 +41683,11 @@
       </c>
       <c r="K13">
         <f>_xll.acq_options_trinomial_american_greeks($C$4,$C$5,F13,$C$7,$C$9,$C$10,$C$8,TRUE,500)</f>
-        <v>7.0875123087075256</v>
+        <v>7.1050671839426629</v>
       </c>
       <c r="L13">
         <f>_xll.acq_options_trinomial_american_greeks($C$4,$C$5,F13,$C$7,$C$9,$C$10,$C$8,FALSE,500)</f>
-        <v>12.164236744092591</v>
+        <v>13.67667721163852</v>
       </c>
       <c r="M13">
         <f>_xll.acq_options_blackscholes_greeks($C$4,$C$5,F13,$C$7,$C$9,$C$10,$C$8,TRUE)</f>
@@ -42204,6 +41724,14 @@
         <f>_xll.acq_options_blackscholes_greeks($C$4,$C$5,$C$6,P13,$C$9,$C$10,$C$8,FALSE)</f>
         <v>16.535065848280055</v>
       </c>
+      <c r="W13">
+        <f>_xll.acq_options_trinomial_american_greeks($C$4,$C$5,$C$6,P13,$C$9,$C$10,$C$8,TRUE,500)</f>
+        <v>9.8821952981193775</v>
+      </c>
+      <c r="X13">
+        <f>_xll.acq_options_trinomial_american_greeks($C$4,$C$5,$C$6,P13,$C$9,$C$10,$C$8,FALSE)</f>
+        <v>22.521623286708291</v>
+      </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="F14">
@@ -42227,11 +41755,11 @@
       </c>
       <c r="K14">
         <f>_xll.acq_options_trinomial_american_greeks($C$4,$C$5,F14,$C$7,$C$9,$C$10,$C$8,TRUE,500)</f>
-        <v>4.5506313479399365</v>
+        <v>4.5576258454195173</v>
       </c>
       <c r="L14">
         <f>_xll.acq_options_trinomial_american_greeks($C$4,$C$5,F14,$C$7,$C$9,$C$10,$C$8,FALSE,500)</f>
-        <v>18.234435547575547</v>
+        <v>21.090392408953964</v>
       </c>
       <c r="M14">
         <f>_xll.acq_options_blackscholes_greeks($C$4,$C$5,F14,$C$7,$C$9,$C$10,$C$8,TRUE)</f>
@@ -42268,6 +41796,14 @@
         <f>_xll.acq_options_blackscholes_greeks($C$4,$C$5,$C$6,P14,$C$9,$C$10,$C$8,FALSE)</f>
         <v>15.942533442980483</v>
       </c>
+      <c r="W14">
+        <f>_xll.acq_options_trinomial_american_greeks($C$4,$C$5,$C$6,P14,$C$9,$C$10,$C$8,TRUE,500)</f>
+        <v>10.9937639191799</v>
+      </c>
+      <c r="X14">
+        <f>_xll.acq_options_trinomial_american_greeks($C$4,$C$5,$C$6,P14,$C$9,$C$10,$C$8,FALSE)</f>
+        <v>22.780982213002527</v>
+      </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="F15">
@@ -42291,11 +41827,11 @@
       </c>
       <c r="K15">
         <f>_xll.acq_options_trinomial_american_greeks($C$4,$C$5,F15,$C$7,$C$9,$C$10,$C$8,TRUE,500)</f>
-        <v>2.8613150802534113</v>
+        <v>2.8641484870550871</v>
       </c>
       <c r="L15">
         <f>_xll.acq_options_trinomial_american_greeks($C$4,$C$5,F15,$C$7,$C$9,$C$10,$C$8,FALSE,500)</f>
-        <v>25.152199044139564</v>
+        <v>30.037336547675785</v>
       </c>
       <c r="M15">
         <f>_xll.acq_options_blackscholes_greeks($C$4,$C$5,F15,$C$7,$C$9,$C$10,$C$8,TRUE)</f>
@@ -42332,6 +41868,14 @@
         <f>_xll.acq_options_blackscholes_greeks($C$4,$C$5,$C$6,P15,$C$9,$C$10,$C$8,FALSE)</f>
         <v>15.332962447052594</v>
       </c>
+      <c r="W15">
+        <f>_xll.acq_options_trinomial_american_greeks($C$4,$C$5,$C$6,P15,$C$9,$C$10,$C$8,TRUE,500)</f>
+        <v>11.971555048494547</v>
+      </c>
+      <c r="X15">
+        <f>_xll.acq_options_trinomial_american_greeks($C$4,$C$5,$C$6,P15,$C$9,$C$10,$C$8,FALSE)</f>
+        <v>23.000735550756232</v>
+      </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="F16">
@@ -42355,11 +41899,11 @@
       </c>
       <c r="K16">
         <f>_xll.acq_options_trinomial_american_greeks($C$4,$C$5,F16,$C$7,$C$9,$C$10,$C$8,TRUE,500)</f>
-        <v>1.77377552046925</v>
+        <v>1.7749433956584808</v>
       </c>
       <c r="L16">
         <f>_xll.acq_options_trinomial_american_greeks($C$4,$C$5,F16,$C$7,$C$9,$C$10,$C$8,FALSE,500)</f>
-        <v>32.671739248605974</v>
+        <v>40.000000000000014</v>
       </c>
       <c r="M16">
         <f>_xll.acq_options_blackscholes_greeks($C$4,$C$5,F16,$C$7,$C$9,$C$10,$C$8,TRUE)</f>
@@ -42396,8 +41940,16 @@
         <f>_xll.acq_options_blackscholes_greeks($C$4,$C$5,$C$6,P16,$C$9,$C$10,$C$8,FALSE)</f>
         <v>14.71647331782178</v>
       </c>
-    </row>
-    <row r="17" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W16">
+        <f>_xll.acq_options_trinomial_american_greeks($C$4,$C$5,$C$6,P16,$C$9,$C$10,$C$8,TRUE,500)</f>
+        <v>12.836507128490545</v>
+      </c>
+      <c r="X16">
+        <f>_xll.acq_options_trinomial_american_greeks($C$4,$C$5,$C$6,P16,$C$9,$C$10,$C$8,FALSE)</f>
+        <v>23.184663050501612</v>
+      </c>
+    </row>
+    <row r="17" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
         <v>169</v>
       </c>
@@ -42422,11 +41974,11 @@
       </c>
       <c r="K17">
         <f>_xll.acq_options_trinomial_american_greeks($C$4,$C$5,F17,$C$7,$C$9,$C$10,$C$8,TRUE,500)</f>
-        <v>1.087041380836717</v>
+        <v>1.0875315364274123</v>
       </c>
       <c r="L17">
         <f>_xll.acq_options_trinomial_american_greeks($C$4,$C$5,F17,$C$7,$C$9,$C$10,$C$8,FALSE,500)</f>
-        <v>40.592084873223961</v>
+        <v>50.000000000000014</v>
       </c>
       <c r="M17">
         <f>_xll.acq_options_blackscholes_greeks($C$4,$C$5,F17,$C$7,$C$9,$C$10,$C$8,TRUE)</f>
@@ -42463,8 +42015,16 @@
         <f>_xll.acq_options_blackscholes_greeks($C$4,$C$5,$C$6,P17,$C$9,$C$10,$C$8,FALSE)</f>
         <v>14.1005786846783</v>
       </c>
-    </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="W17">
+        <f>_xll.acq_options_trinomial_american_greeks($C$4,$C$5,$C$6,P17,$C$9,$C$10,$C$8,TRUE,500)</f>
+        <v>13.610353346017032</v>
+      </c>
+      <c r="X17">
+        <f>_xll.acq_options_trinomial_american_greeks($C$4,$C$5,$C$6,P17,$C$9,$C$10,$C$8,FALSE)</f>
+        <v>23.340568738630711</v>
+      </c>
+    </row>
+    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>99</v>
       </c>
@@ -42489,11 +42049,11 @@
       </c>
       <c r="K18">
         <f>_xll.acq_options_trinomial_american_greeks($C$4,$C$5,F18,$C$7,$C$9,$C$10,$C$8,TRUE,500)</f>
-        <v>0.66014267245239699</v>
+        <v>0.66035216158533605</v>
       </c>
       <c r="L18">
         <f>_xll.acq_options_trinomial_american_greeks($C$4,$C$5,F18,$C$7,$C$9,$C$10,$C$8,FALSE,500)</f>
-        <v>48.77226592909021</v>
+        <v>60.000000000000014</v>
       </c>
       <c r="M18">
         <f>_xll.acq_options_blackscholes_greeks($C$4,$C$5,F18,$C$7,$C$9,$C$10,$C$8,TRUE)</f>
@@ -42530,8 +42090,16 @@
         <f>_xll.acq_options_blackscholes_greeks($C$4,$C$5,$C$6,P18,$C$9,$C$10,$C$8,FALSE)</f>
         <v>13.490863162739707</v>
       </c>
-    </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="W18">
+        <f>_xll.acq_options_trinomial_american_greeks($C$4,$C$5,$C$6,P18,$C$9,$C$10,$C$8,TRUE,500)</f>
+        <v>14.296489058553618</v>
+      </c>
+      <c r="X18">
+        <f>_xll.acq_options_trinomial_american_greeks($C$4,$C$5,$C$6,P18,$C$9,$C$10,$C$8,FALSE)</f>
+        <v>23.470588501533062</v>
+      </c>
+    </row>
+    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>100</v>
       </c>
@@ -42556,11 +42124,11 @@
       </c>
       <c r="K19">
         <f>_xll.acq_options_trinomial_american_greeks($C$4,$C$5,F19,$C$7,$C$9,$C$10,$C$8,TRUE,500)</f>
-        <v>0.4006075608123949</v>
+        <v>0.40069869352047782</v>
       </c>
       <c r="L19">
         <f>_xll.acq_options_trinomial_american_greeks($C$4,$C$5,F19,$C$7,$C$9,$C$10,$C$8,FALSE,500)</f>
-        <v>57.119810581700747</v>
+        <v>70.000000000000014</v>
       </c>
       <c r="M19">
         <f>_xll.acq_options_blackscholes_greeks($C$4,$C$5,F19,$C$7,$C$9,$C$10,$C$8,TRUE)</f>
@@ -42597,8 +42165,16 @@
         <f>_xll.acq_options_blackscholes_greeks($C$4,$C$5,$C$6,P19,$C$9,$C$10,$C$8,FALSE)</f>
         <v>12.891470774012703</v>
       </c>
-    </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="W19">
+        <f>_xll.acq_options_trinomial_american_greeks($C$4,$C$5,$C$6,P19,$C$9,$C$10,$C$8,TRUE,500)</f>
+        <v>14.907287728066489</v>
+      </c>
+      <c r="X19">
+        <f>_xll.acq_options_trinomial_american_greeks($C$4,$C$5,$C$6,P19,$C$9,$C$10,$C$8,FALSE)</f>
+        <v>23.579038532429529</v>
+      </c>
+    </row>
+    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>101</v>
       </c>
@@ -42623,11 +42199,11 @@
       </c>
       <c r="K20">
         <f>_xll.acq_options_trinomial_american_greeks($C$4,$C$5,F20,$C$7,$C$9,$C$10,$C$8,TRUE,500)</f>
-        <v>0.24193236200765178</v>
+        <v>0.24197271431601239</v>
       </c>
       <c r="L20">
         <f>_xll.acq_options_trinomial_american_greeks($C$4,$C$5,F20,$C$7,$C$9,$C$10,$C$8,FALSE,500)</f>
-        <v>65.568215147146603</v>
+        <v>80.000000000000014</v>
       </c>
       <c r="M20">
         <f>_xll.acq_options_blackscholes_greeks($C$4,$C$5,F20,$C$7,$C$9,$C$10,$C$8,TRUE)</f>
@@ -42664,8 +42240,16 @@
         <f>_xll.acq_options_blackscholes_greeks($C$4,$C$5,$C$6,P20,$C$9,$C$10,$C$8,FALSE)</f>
         <v>12.305456431821359</v>
       </c>
-    </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="W20">
+        <f>_xll.acq_options_trinomial_american_greeks($C$4,$C$5,$C$6,P20,$C$9,$C$10,$C$8,TRUE,500)</f>
+        <v>15.457808393273426</v>
+      </c>
+      <c r="X20">
+        <f>_xll.acq_options_trinomial_american_greeks($C$4,$C$5,$C$6,P20,$C$9,$C$10,$C$8,FALSE)</f>
+        <v>23.671109322291649</v>
+      </c>
+    </row>
+    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>102</v>
       </c>
@@ -42690,11 +42274,11 @@
       </c>
       <c r="K21">
         <f>_xll.acq_options_trinomial_american_greeks($C$4,$C$5,F21,$C$7,$C$9,$C$10,$C$8,TRUE,500)</f>
-        <v>0.14599463630563914</v>
+        <v>0.14601281191060614</v>
       </c>
       <c r="L21">
         <f>_xll.acq_options_trinomial_american_greeks($C$4,$C$5,F21,$C$7,$C$9,$C$10,$C$8,FALSE,500)</f>
-        <v>74.079357185695045</v>
+        <v>90.000000000000014</v>
       </c>
       <c r="M21">
         <f>_xll.acq_options_blackscholes_greeks($C$4,$C$5,F21,$C$7,$C$9,$C$10,$C$8,TRUE)</f>
@@ -42731,23 +42315,31 @@
         <f>_xll.acq_options_blackscholes_greeks($C$4,$C$5,$C$6,P21,$C$9,$C$10,$C$8,FALSE)</f>
         <v>11.73504274343296</v>
       </c>
-    </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="W21">
+        <f>_xll.acq_options_trinomial_american_greeks($C$4,$C$5,$C$6,P21,$C$9,$C$10,$C$8,TRUE,500)</f>
+        <v>15.954057435044053</v>
+      </c>
+      <c r="X21">
+        <f>_xll.acq_options_trinomial_american_greeks($C$4,$C$5,$C$6,P21,$C$9,$C$10,$C$8,FALSE)</f>
+        <v>23.752446518069757</v>
+      </c>
+    </row>
+    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>106</v>
       </c>
@@ -42769,7 +42361,8 @@
       <c r="T57" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="W3:X3"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="S3:T3"/>
     <mergeCell ref="U3:V3"/>

--- a/Distribution/ACQ.Options.xlsx
+++ b/Distribution/ACQ.Options.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ACQ\ACQ.Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FD8A835-DFCB-4540-9EE8-1895451AAA86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F9DD7E-6CC7-4F4C-A0E8-3035623EE555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3270" yWindow="1530" windowWidth="23295" windowHeight="11055" tabRatio="900" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Utils" sheetId="3" r:id="rId1"/>
@@ -22,8 +22,7 @@
     <sheet name="TrinomialAmerican" sheetId="20" r:id="rId7"/>
     <sheet name="Comparison-American" sheetId="19" r:id="rId8"/>
     <sheet name="Description" sheetId="7" r:id="rId9"/>
-    <sheet name="Types" sheetId="17" r:id="rId10"/>
-    <sheet name="Special" sheetId="9" r:id="rId11"/>
+    <sheet name="Special" sheetId="9" r:id="rId10"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -193,7 +192,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="176">
   <si>
     <t>x</t>
   </si>
@@ -716,6 +715,12 @@
   <si>
     <t>Put Greeks: Trinomial Numerical Greeks</t>
   </si>
+  <si>
+    <t>acq_isprime</t>
+  </si>
+  <si>
+    <t>acq_isinteger</t>
+  </si>
 </sst>
 </file>
 
@@ -864,7 +869,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -1074,6 +1079,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1088,7 +1136,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1150,6 +1198,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="8" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="20% - Accent3" xfId="7" builtinId="38"/>
@@ -13441,10 +13492,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B2:C21"/>
+  <dimension ref="B2:O27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="U15" sqref="U15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13452,15 +13503,24 @@
     <col min="2" max="2" width="21.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="11" max="11" width="21.42578125" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="3"/>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="L2" t="s">
+        <v>157</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>6</v>
       </c>
@@ -13468,17 +13528,39 @@
         <f>_xll.acq_excel_version()</f>
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="K3" t="s">
+        <v>153</v>
+      </c>
+      <c r="L3" s="5">
+        <f>PI()</f>
+        <v>3.1415926535897931</v>
+      </c>
+      <c r="N3" s="6" t="str">
+        <f>_xll.acq_tostring(L3)</f>
+        <v>3.14159265358979</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="6" t="str">
         <f>_xll.acq_version()</f>
-        <v>1.3.8029.1377</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+        <v>1.3.8029.2058</v>
+      </c>
+      <c r="K4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L4" s="48">
+        <f ca="1">TODAY()</f>
+        <v>44555</v>
+      </c>
+      <c r="N4" s="49" t="str">
+        <f ca="1">_xll.acq_tostring(L4)</f>
+        <v>44555</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>5</v>
       </c>
@@ -13486,8 +13568,18 @@
         <f>_xll.acq_xllpath()</f>
         <v>D:\Github\ACQ\Distribution\ACQ64.xll</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="K5" t="s">
+        <v>154</v>
+      </c>
+      <c r="L5" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="N5" s="6" t="str">
+        <f>_xll.acq_tostring(L5)</f>
+        <v>TRUE</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>8</v>
       </c>
@@ -13495,8 +13587,19 @@
         <f>_xll.acq_exceldna_version()</f>
         <v>1.1.0.3</v>
       </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="K6" t="s">
+        <v>111</v>
+      </c>
+      <c r="L6" s="5" t="e">
+        <f>SQRT(-1)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="N6" s="6" t="str">
+        <f>_xll.acq_tostring(L6)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>12</v>
       </c>
@@ -13504,22 +13607,65 @@
         <f>_xll.acq_dotnet_version()</f>
         <v>4.0.30319.42000</v>
       </c>
-    </row>
-    <row r="9" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K7" t="s">
+        <v>155</v>
+      </c>
+      <c r="L7" s="5"/>
+      <c r="N7" s="6" t="str">
+        <f>_xll.acq_tostring(L7)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="K8" t="s">
+        <v>111</v>
+      </c>
+      <c r="L8" s="5" t="e">
+        <f ca="1">DS()</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="N8" s="6" t="str">
+        <f ca="1">_xll.acq_tostring(L8)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="K9" t="s">
+        <v>156</v>
+      </c>
+      <c r="L9" s="5" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N9" s="6" t="str">
+        <f>_xll.acq_tostring(L9)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="K10" t="s">
+        <v>159</v>
+      </c>
+      <c r="L10" s="5" t="e">
+        <f>LOOKUP(L3,)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N10" s="6" t="str">
+        <f>_xll.acq_tostring(L10)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>13</v>
       </c>
@@ -13527,13 +13673,49 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K13" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="L13" t="str">
+        <f ca="1">_xll.acq_join(L3:L10)</f>
+        <v>3.14159265358979,44555,True,,,,,</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K14" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="L14" t="str">
+        <f ca="1">_xll.acq_join(N3:N10, "|")</f>
+        <v>3.14159265358979|44555|TRUE|||||</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K15" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="L15">
+        <f ca="1">_xll.acq_count_unique(L3:L10)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K16" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="L16">
+        <f ca="1">_xll.acq_count_unique(L3:L10,FALSE)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C17" s="3"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>1</v>
       </c>
@@ -13541,7 +13723,7 @@
         <v>20150630</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>2</v>
       </c>
@@ -13549,8 +13731,16 @@
         <f>_xll.acq_convert_todate(C18)</f>
         <v>42185</v>
       </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="K19" s="19"/>
+      <c r="L19" s="55" t="s">
+        <v>174</v>
+      </c>
+      <c r="N19" s="19"/>
+      <c r="O19" s="55" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>149</v>
       </c>
@@ -13558,14 +13748,143 @@
         <f>_xll.acq_nextbusinessday(C19)</f>
         <v>42186</v>
       </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="K20" s="56">
+        <v>0</v>
+      </c>
+      <c r="L20" s="22" t="b">
+        <f>_xll.acq_isprime(K20)</f>
+        <v>0</v>
+      </c>
+      <c r="N20" s="56">
+        <v>1</v>
+      </c>
+      <c r="O20" s="22" t="b">
+        <f>_xll.acq_isinteger(N20)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>150</v>
       </c>
       <c r="C21" s="4">
         <f>_xll.acq_adjustbusinessday(C19,-1)</f>
         <v>42185</v>
+      </c>
+      <c r="K21" s="56">
+        <v>1</v>
+      </c>
+      <c r="L21" s="22" t="b">
+        <f>_xll.acq_isprime(K21)</f>
+        <v>0</v>
+      </c>
+      <c r="N21" s="56">
+        <f>PI()</f>
+        <v>3.1415926535897931</v>
+      </c>
+      <c r="O21" s="22" t="b">
+        <f>_xll.acq_isinteger(N21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="K22" s="56">
+        <v>2</v>
+      </c>
+      <c r="L22" s="22" t="b">
+        <f>_xll.acq_isprime(K22)</f>
+        <v>1</v>
+      </c>
+      <c r="N22" s="56" t="str">
+        <f>"text"</f>
+        <v>text</v>
+      </c>
+      <c r="O22" s="22" t="b">
+        <f>_xll.acq_isinteger(N22)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="K23" s="56">
+        <v>3</v>
+      </c>
+      <c r="L23" s="22" t="b">
+        <f>_xll.acq_isprime(K23)</f>
+        <v>1</v>
+      </c>
+      <c r="N23" s="56" t="str">
+        <f>"3.14"</f>
+        <v>3.14</v>
+      </c>
+      <c r="O23" s="22" t="b">
+        <f>_xll.acq_isinteger(N23)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="K24" s="56">
+        <v>4</v>
+      </c>
+      <c r="L24" s="22" t="b">
+        <f>_xll.acq_isprime(K24)</f>
+        <v>0</v>
+      </c>
+      <c r="N24" s="56" t="str">
+        <f>"3"</f>
+        <v>3</v>
+      </c>
+      <c r="O24" s="22" t="b">
+        <f>_xll.acq_isinteger(N24)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="K25" s="56">
+        <v>5</v>
+      </c>
+      <c r="L25" s="22" t="b">
+        <f>_xll.acq_isprime(K25)</f>
+        <v>1</v>
+      </c>
+      <c r="N25" s="56" t="str">
+        <f>"3.00"</f>
+        <v>3.00</v>
+      </c>
+      <c r="O25" s="22" t="b">
+        <f>_xll.acq_isinteger(N25)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="K26" s="56">
+        <v>6</v>
+      </c>
+      <c r="L26" s="22" t="b">
+        <f>_xll.acq_isprime(K26)</f>
+        <v>0</v>
+      </c>
+      <c r="N26" s="56">
+        <v>2</v>
+      </c>
+      <c r="O26" s="22" t="b">
+        <f>_xll.acq_isinteger(N26)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="K27" s="57">
+        <v>7</v>
+      </c>
+      <c r="L27" s="24" t="b">
+        <f>_xll.acq_isprime(K27)</f>
+        <v>1</v>
+      </c>
+      <c r="N27" s="57">
+        <v>8</v>
+      </c>
+      <c r="O27" s="24" t="b">
+        <f>_xll.acq_isinteger(N27)</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -13575,171 +13894,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4C39FFD-CFD5-4286-8CBC-756067E23C33}">
-  <sheetPr codeName="Sheet9"/>
-  <dimension ref="B2:E16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C3" s="5">
-        <f>PI()</f>
-        <v>3.1415926535897931</v>
-      </c>
-      <c r="E3" s="6" t="str">
-        <f>_xll.acq_tostring(C3)</f>
-        <v>3.14159265358979</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="48">
-        <f ca="1">TODAY()</f>
-        <v>44555</v>
-      </c>
-      <c r="E4" s="49" t="str">
-        <f ca="1">_xll.acq_tostring(C4)</f>
-        <v>44555</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>154</v>
-      </c>
-      <c r="C5" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" s="6" t="str">
-        <f>_xll.acq_tostring(C5)</f>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C6" s="5" t="e">
-        <f>SQRT(-1)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="E6" s="6" t="str">
-        <f>_xll.acq_tostring(C6)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>155</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="E7" s="6" t="str">
-        <f>_xll.acq_tostring(C7)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>111</v>
-      </c>
-      <c r="C8" s="5" t="e">
-        <f ca="1">DS()</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E8" s="6" t="str">
-        <f ca="1">_xll.acq_tostring(C8)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>156</v>
-      </c>
-      <c r="C9" s="5" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E9" s="6" t="str">
-        <f>_xll.acq_tostring(C9)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>159</v>
-      </c>
-      <c r="C10" s="5" t="e">
-        <f>LOOKUP(C3,)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E10" s="6" t="str">
-        <f>_xll.acq_tostring(C10)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C13" t="str">
-        <f ca="1">_xll.acq_join(C3:C10)</f>
-        <v>3.14159265358979,44555,True,,,,,</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C14" t="str">
-        <f ca="1">_xll.acq_join(E3:E10, "|")</f>
-        <v>3.14159265358979|44555|TRUE|||||</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C15">
-        <f ca="1">_xll.acq_count_unique(C3:C10)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C16">
-        <f ca="1">_xll.acq_count_unique(C3:C10,FALSE)</f>
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr codeName="Sheet7">
     <tabColor theme="2"/>
@@ -27201,7 +27355,7 @@
   <dimension ref="A1:AS56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37307,7 +37461,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{508906DC-E156-44EA-9FFD-8AC3A3C029D9}">
   <dimension ref="A1:AB57"/>
   <sheetViews>
-    <sheetView topLeftCell="E4" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="K32" sqref="K32:K41"/>
     </sheetView>
   </sheetViews>
@@ -40902,8 +41056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BF3CA9D-20A9-4DB7-AD8A-F59DC22CC79A}">
   <dimension ref="A1:AA57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40929,6 +41083,10 @@
       <c r="E1" s="54"/>
       <c r="F1" s="54"/>
       <c r="G1" s="54"/>
+      <c r="I1">
+        <f>_xll.acq_options_binomial_american_price($C$5,F14,$C$7,$C$9,$C$10,$C$8,FALSE,6)</f>
+        <v>20.986795441796307</v>
+      </c>
     </row>
     <row r="2" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -41110,6 +41268,10 @@
         <f>_xll.acq_options_trinomial_american_greeks($C$4,$C$5,$C$6,P5,$C$9,$C$10,$C$8,FALSE)</f>
         <v>20.000000000000043</v>
       </c>
+      <c r="Z5">
+        <f>K5-L5 +(F5-$C$5 *EXP(-$C$7*($C$10-$C$9)))*EXP(-$C$7*$C$9)</f>
+        <v>6.2200863213660327</v>
+      </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
@@ -41188,6 +41350,10 @@
         <f>_xll.acq_options_trinomial_american_greeks($C$4,$C$5,$C$6,P6,$C$9,$C$10,$C$8,FALSE)</f>
         <v>19.999999999999872</v>
       </c>
+      <c r="Z6">
+        <f t="shared" ref="Z6:Z21" si="0">K6-L6 +(F6-$C$5 *EXP(-$C$7*($C$10-$C$9)))*EXP(-$C$7*$C$9)</f>
+        <v>4.8271599657846807</v>
+      </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
@@ -41266,6 +41432,10 @@
         <f>_xll.acq_options_trinomial_american_greeks($C$4,$C$5,$C$6,P7,$C$9,$C$10,$C$8,FALSE)</f>
         <v>19.999999999999858</v>
       </c>
+      <c r="Z7">
+        <f t="shared" si="0"/>
+        <v>3.4322256393995616</v>
+      </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
@@ -41344,7 +41514,10 @@
         <f>_xll.acq_options_trinomial_american_greeks($C$4,$C$5,$C$6,P8,$C$9,$C$10,$C$8,FALSE)</f>
         <v>20.162507499201109</v>
       </c>
-      <c r="Z8" s="13"/>
+      <c r="Z8">
+        <f t="shared" si="0"/>
+        <v>1.9905802969829409</v>
+      </c>
       <c r="AA8" s="13"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
@@ -41425,6 +41598,10 @@
         <v>20.7919965425789</v>
       </c>
       <c r="Y9" s="11"/>
+      <c r="Z9">
+        <f t="shared" si="0"/>
+        <v>0.76597191891147176</v>
+      </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
@@ -41503,6 +41680,10 @@
         <f>_xll.acq_options_trinomial_american_greeks($C$4,$C$5,$C$6,P10,$C$9,$C$10,$C$8,FALSE)</f>
         <v>21.363386936449352</v>
       </c>
+      <c r="Z10">
+        <f t="shared" si="0"/>
+        <v>0.2215089877962555</v>
+      </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
@@ -41581,6 +41762,10 @@
         <f>_xll.acq_options_trinomial_american_greeks($C$4,$C$5,$C$6,P11,$C$9,$C$10,$C$8,FALSE)</f>
         <v>21.831061875064631</v>
       </c>
+      <c r="Z11">
+        <f t="shared" si="0"/>
+        <v>-0.15248915104927363</v>
+      </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
@@ -41660,6 +41845,10 @@
         <f>_xll.acq_options_trinomial_american_greeks($C$4,$C$5,$C$6,P12,$C$9,$C$10,$C$8,FALSE)</f>
         <v>22.210377103114283</v>
       </c>
+      <c r="Z12">
+        <f t="shared" si="0"/>
+        <v>-0.65567083829436656</v>
+      </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="F13">
@@ -41732,6 +41921,10 @@
         <f>_xll.acq_options_trinomial_american_greeks($C$4,$C$5,$C$6,P13,$C$9,$C$10,$C$8,FALSE)</f>
         <v>22.521623286708291</v>
       </c>
+      <c r="Z13">
+        <f t="shared" si="0"/>
+        <v>-1.494885592317428</v>
+      </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="F14">
@@ -41804,6 +41997,10 @@
         <f>_xll.acq_options_trinomial_american_greeks($C$4,$C$5,$C$6,P14,$C$9,$C$10,$C$8,FALSE)</f>
         <v>22.780982213002527</v>
       </c>
+      <c r="Z14">
+        <f t="shared" si="0"/>
+        <v>-2.8489623639054376</v>
+      </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="F15">
@@ -41876,6 +42073,10 @@
         <f>_xll.acq_options_trinomial_american_greeks($C$4,$C$5,$C$6,P15,$C$9,$C$10,$C$8,FALSE)</f>
         <v>23.000735550756232</v>
       </c>
+      <c r="Z15">
+        <f t="shared" si="0"/>
+        <v>-4.882304096741116</v>
+      </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="F16">
@@ -41948,8 +42149,12 @@
         <f>_xll.acq_options_trinomial_american_greeks($C$4,$C$5,$C$6,P16,$C$9,$C$10,$C$8,FALSE)</f>
         <v>23.184663050501612</v>
       </c>
-    </row>
-    <row r="17" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z16">
+        <f t="shared" si="0"/>
+        <v>-7.3270928762113705</v>
+      </c>
+    </row>
+    <row r="17" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
         <v>169</v>
       </c>
@@ -42023,8 +42228,12 @@
         <f>_xll.acq_options_trinomial_american_greeks($C$4,$C$5,$C$6,P17,$C$9,$C$10,$C$8,FALSE)</f>
         <v>23.340568738630711</v>
       </c>
-    </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Z17">
+        <f t="shared" si="0"/>
+        <v>-9.4074249711918583</v>
+      </c>
+    </row>
+    <row r="18" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>99</v>
       </c>
@@ -42098,8 +42307,12 @@
         <f>_xll.acq_options_trinomial_american_greeks($C$4,$C$5,$C$6,P18,$C$9,$C$10,$C$8,FALSE)</f>
         <v>23.470588501533062</v>
       </c>
-    </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Z18">
+        <f t="shared" si="0"/>
+        <v>-11.227524581783356</v>
+      </c>
+    </row>
+    <row r="19" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>100</v>
       </c>
@@ -42173,8 +42386,12 @@
         <f>_xll.acq_options_trinomial_american_greeks($C$4,$C$5,$C$6,P19,$C$9,$C$10,$C$8,FALSE)</f>
         <v>23.579038532429529</v>
       </c>
-    </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Z19">
+        <f t="shared" si="0"/>
+        <v>-12.880098285597633</v>
+      </c>
+    </row>
+    <row r="20" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>101</v>
       </c>
@@ -42248,8 +42465,12 @@
         <f>_xll.acq_options_trinomial_american_greeks($C$4,$C$5,$C$6,P20,$C$9,$C$10,$C$8,FALSE)</f>
         <v>23.671109322291649</v>
       </c>
-    </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Z20">
+        <f t="shared" si="0"/>
+        <v>-14.431744500551531</v>
+      </c>
+    </row>
+    <row r="21" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>102</v>
       </c>
@@ -42323,23 +42544,27 @@
         <f>_xll.acq_options_trinomial_american_greeks($C$4,$C$5,$C$6,P21,$C$9,$C$10,$C$8,FALSE)</f>
         <v>23.752446518069757</v>
       </c>
-    </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Z21">
+        <f t="shared" si="0"/>
+        <v>-15.920624638706357</v>
+      </c>
+    </row>
+    <row r="22" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>106</v>
       </c>

--- a/Distribution/ACQ.Options.xlsx
+++ b/Distribution/ACQ.Options.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ACQ\ACQ.Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F9DD7E-6CC7-4F4C-A0E8-3035623EE555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A32F697B-8C6F-418C-AB84-D10C2819383E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2430" yWindow="825" windowWidth="24465" windowHeight="12840" tabRatio="900" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Utils" sheetId="3" r:id="rId1"/>
@@ -192,7 +192,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="176">
   <si>
     <t>x</t>
   </si>
@@ -1192,15 +1192,15 @@
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="168" fontId="3" fillId="3" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="3" fillId="3" borderId="17" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="8" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="20% - Accent3" xfId="7" builtinId="38"/>
@@ -13492,10 +13492,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B2:O27"/>
+  <dimension ref="B2:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="U15" sqref="U15"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13546,7 +13546,7 @@
       </c>
       <c r="C4" s="6" t="str">
         <f>_xll.acq_version()</f>
-        <v>1.3.8029.2058</v>
+        <v>1.3.8029.25398</v>
       </c>
       <c r="K4" t="s">
         <v>1</v>
@@ -13732,11 +13732,11 @@
         <v>42185</v>
       </c>
       <c r="K19" s="19"/>
-      <c r="L19" s="55" t="s">
+      <c r="L19" s="53" t="s">
         <v>174</v>
       </c>
       <c r="N19" s="19"/>
-      <c r="O19" s="55" t="s">
+      <c r="O19" s="53" t="s">
         <v>175</v>
       </c>
     </row>
@@ -13748,14 +13748,14 @@
         <f>_xll.acq_nextbusinessday(C19)</f>
         <v>42186</v>
       </c>
-      <c r="K20" s="56">
+      <c r="K20" s="54">
         <v>0</v>
       </c>
       <c r="L20" s="22" t="b">
         <f>_xll.acq_isprime(K20)</f>
         <v>0</v>
       </c>
-      <c r="N20" s="56">
+      <c r="N20" s="54">
         <v>1</v>
       </c>
       <c r="O20" s="22" t="b">
@@ -13771,14 +13771,14 @@
         <f>_xll.acq_adjustbusinessday(C19,-1)</f>
         <v>42185</v>
       </c>
-      <c r="K21" s="56">
+      <c r="K21" s="54">
         <v>1</v>
       </c>
       <c r="L21" s="22" t="b">
         <f>_xll.acq_isprime(K21)</f>
         <v>0</v>
       </c>
-      <c r="N21" s="56">
+      <c r="N21" s="54">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
@@ -13788,14 +13788,14 @@
       </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="K22" s="56">
+      <c r="K22" s="54">
         <v>2</v>
       </c>
       <c r="L22" s="22" t="b">
         <f>_xll.acq_isprime(K22)</f>
         <v>1</v>
       </c>
-      <c r="N22" s="56" t="str">
+      <c r="N22" s="54" t="str">
         <f>"text"</f>
         <v>text</v>
       </c>
@@ -13805,14 +13805,14 @@
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="K23" s="56">
+      <c r="K23" s="54">
         <v>3</v>
       </c>
       <c r="L23" s="22" t="b">
         <f>_xll.acq_isprime(K23)</f>
         <v>1</v>
       </c>
-      <c r="N23" s="56" t="str">
+      <c r="N23" s="54" t="str">
         <f>"3.14"</f>
         <v>3.14</v>
       </c>
@@ -13822,14 +13822,14 @@
       </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="K24" s="56">
+      <c r="K24" s="54">
         <v>4</v>
       </c>
       <c r="L24" s="22" t="b">
         <f>_xll.acq_isprime(K24)</f>
         <v>0</v>
       </c>
-      <c r="N24" s="56" t="str">
+      <c r="N24" s="54" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
@@ -13839,14 +13839,14 @@
       </c>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="K25" s="56">
+      <c r="K25" s="54">
         <v>5</v>
       </c>
       <c r="L25" s="22" t="b">
         <f>_xll.acq_isprime(K25)</f>
         <v>1</v>
       </c>
-      <c r="N25" s="56" t="str">
+      <c r="N25" s="54" t="str">
         <f>"3.00"</f>
         <v>3.00</v>
       </c>
@@ -13856,14 +13856,14 @@
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="K26" s="56">
+      <c r="K26" s="54">
         <v>6</v>
       </c>
       <c r="L26" s="22" t="b">
         <f>_xll.acq_isprime(K26)</f>
         <v>0</v>
       </c>
-      <c r="N26" s="56">
+      <c r="N26" s="54">
         <v>2</v>
       </c>
       <c r="O26" s="22" t="b">
@@ -13872,19 +13872,28 @@
       </c>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="K27" s="57">
+      <c r="K27" s="55">
         <v>7</v>
       </c>
       <c r="L27" s="24" t="b">
         <f>_xll.acq_isprime(K27)</f>
         <v>1</v>
       </c>
-      <c r="N27" s="57">
+      <c r="N27" s="55">
         <v>8</v>
       </c>
       <c r="O27" s="24" t="b">
         <f>_xll.acq_isinteger(N27)</f>
         <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="K28" s="55">
+        <v>7.2</v>
+      </c>
+      <c r="L28" s="24" t="b">
+        <f>_xll.acq_isprime(K28)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -22217,37 +22226,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
     </row>
     <row r="2" spans="1:43" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="53" t="s">
+      <c r="F2" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="L2" s="53" t="s">
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="L2" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="S2" s="53" t="s">
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="S2" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="T2" s="53"/>
-      <c r="U2" s="53"/>
-      <c r="V2" s="53"/>
-      <c r="W2" s="53"/>
-      <c r="X2" s="53"/>
-      <c r="Y2" s="53"/>
-      <c r="Z2" s="53"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="56"/>
+      <c r="W2" s="56"/>
+      <c r="X2" s="56"/>
+      <c r="Y2" s="56"/>
+      <c r="Z2" s="56"/>
       <c r="AB2" s="3" t="s">
         <v>112</v>
       </c>
@@ -23422,16 +23431,16 @@
         <f>_xll.acq_options_black_vol($C$4,$C$5,$C$6,$C$8,N17,FALSE)</f>
         <v>0.65000000000000013</v>
       </c>
-      <c r="S17" s="53" t="s">
+      <c r="S17" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="T17" s="53"/>
-      <c r="U17" s="53"/>
-      <c r="V17" s="53"/>
-      <c r="W17" s="53"/>
-      <c r="X17" s="53"/>
-      <c r="Y17" s="53"/>
-      <c r="Z17" s="53"/>
+      <c r="T17" s="56"/>
+      <c r="U17" s="56"/>
+      <c r="V17" s="56"/>
+      <c r="W17" s="56"/>
+      <c r="X17" s="56"/>
+      <c r="Y17" s="56"/>
+      <c r="Z17" s="56"/>
       <c r="AB17" s="16">
         <f>C7</f>
         <v>0.2</v>
@@ -24612,37 +24621,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="57" t="s">
         <v>128</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
     </row>
     <row r="2" spans="1:43" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="53" t="s">
+      <c r="F2" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="L2" s="53" t="s">
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="L2" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="S2" s="53" t="s">
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="S2" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="T2" s="53"/>
-      <c r="U2" s="53"/>
-      <c r="V2" s="53"/>
-      <c r="W2" s="53"/>
-      <c r="X2" s="53"/>
-      <c r="Y2" s="53"/>
-      <c r="Z2" s="53"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="56"/>
+      <c r="W2" s="56"/>
+      <c r="X2" s="56"/>
+      <c r="Y2" s="56"/>
+      <c r="Z2" s="56"/>
       <c r="AB2" s="3" t="s">
         <v>112</v>
       </c>
@@ -25817,16 +25826,16 @@
         <f>_xll.acq_options_bachelier_vol($C$4,$C$5,$C$6,$C$8,N17,FALSE)</f>
         <v>25.999999999962554</v>
       </c>
-      <c r="S17" s="53" t="s">
+      <c r="S17" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="T17" s="53"/>
-      <c r="U17" s="53"/>
-      <c r="V17" s="53"/>
-      <c r="W17" s="53"/>
-      <c r="X17" s="53"/>
-      <c r="Y17" s="53"/>
-      <c r="Z17" s="53"/>
+      <c r="T17" s="56"/>
+      <c r="U17" s="56"/>
+      <c r="V17" s="56"/>
+      <c r="W17" s="56"/>
+      <c r="X17" s="56"/>
+      <c r="Y17" s="56"/>
+      <c r="Z17" s="56"/>
       <c r="AB17" s="16">
         <f>C7</f>
         <v>20</v>
@@ -26703,14 +26712,14 @@
       </c>
     </row>
     <row r="32" spans="6:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L32" s="53" t="s">
+      <c r="L32" s="56" t="s">
         <v>131</v>
       </c>
-      <c r="M32" s="53"/>
-      <c r="N32" s="53"/>
-      <c r="O32" s="53"/>
-      <c r="P32" s="53"/>
-      <c r="Q32" s="53"/>
+      <c r="M32" s="56"/>
+      <c r="N32" s="56"/>
+      <c r="O32" s="56"/>
+      <c r="P32" s="56"/>
+      <c r="Q32" s="56"/>
       <c r="AB32" t="s">
         <v>111</v>
       </c>
@@ -27370,37 +27379,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="57" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
     </row>
     <row r="2" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="53" t="s">
+      <c r="F2" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="L2" s="53" t="s">
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="L2" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="S2" s="53" t="s">
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="S2" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="T2" s="53"/>
-      <c r="U2" s="53"/>
-      <c r="V2" s="53"/>
-      <c r="W2" s="53"/>
-      <c r="X2" s="53"/>
-      <c r="Y2" s="53"/>
-      <c r="Z2" s="53"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="56"/>
+      <c r="W2" s="56"/>
+      <c r="X2" s="56"/>
+      <c r="Y2" s="56"/>
+      <c r="Z2" s="56"/>
       <c r="AA2" s="37"/>
       <c r="AB2" s="37"/>
       <c r="AD2" s="3" t="s">
@@ -28677,16 +28686,16 @@
         <f>_xll.acq_options_blackscholes_vol($C$4,$C$5,$C$6,$C$8,$C$9,$N17,FALSE)</f>
         <v>0.65</v>
       </c>
-      <c r="S17" s="53" t="s">
+      <c r="S17" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="T17" s="53"/>
-      <c r="U17" s="53"/>
-      <c r="V17" s="53"/>
-      <c r="W17" s="53"/>
-      <c r="X17" s="53"/>
-      <c r="Y17" s="53"/>
-      <c r="Z17" s="53"/>
+      <c r="T17" s="56"/>
+      <c r="U17" s="56"/>
+      <c r="V17" s="56"/>
+      <c r="W17" s="56"/>
+      <c r="X17" s="56"/>
+      <c r="Y17" s="56"/>
+      <c r="Z17" s="56"/>
       <c r="AA17" s="37"/>
       <c r="AB17" s="37"/>
       <c r="AD17" s="16">
@@ -30310,15 +30319,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="57" t="s">
         <v>135</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
     </row>
     <row r="2" spans="1:28" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="L2" t="s">
@@ -30333,15 +30342,15 @@
         <v>92</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="F3" s="53" t="s">
+      <c r="F3" s="56" t="s">
         <v>139</v>
       </c>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53" t="s">
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56" t="s">
         <v>137</v>
       </c>
-      <c r="J3" s="53"/>
+      <c r="J3" s="56"/>
       <c r="M3" t="s">
         <v>144</v>
       </c>
@@ -32100,26 +32109,26 @@
       <c r="Z29" s="46"/>
     </row>
     <row r="30" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G30" s="53" t="s">
+      <c r="G30" s="56" t="s">
         <v>145</v>
       </c>
-      <c r="H30" s="53"/>
-      <c r="I30" s="53"/>
-      <c r="J30" s="53"/>
-      <c r="K30" s="53"/>
-      <c r="L30" s="53"/>
-      <c r="M30" s="53"/>
-      <c r="N30" s="53"/>
-      <c r="S30" s="53" t="s">
+      <c r="H30" s="56"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="56"/>
+      <c r="K30" s="56"/>
+      <c r="L30" s="56"/>
+      <c r="M30" s="56"/>
+      <c r="N30" s="56"/>
+      <c r="S30" s="56" t="s">
         <v>146</v>
       </c>
-      <c r="T30" s="53"/>
-      <c r="U30" s="53"/>
-      <c r="V30" s="53"/>
-      <c r="W30" s="53"/>
-      <c r="X30" s="53"/>
-      <c r="Y30" s="53"/>
-      <c r="Z30" s="53"/>
+      <c r="T30" s="56"/>
+      <c r="U30" s="56"/>
+      <c r="V30" s="56"/>
+      <c r="W30" s="56"/>
+      <c r="X30" s="56"/>
+      <c r="Y30" s="56"/>
+      <c r="Z30" s="56"/>
     </row>
     <row r="31" spans="6:28" x14ac:dyDescent="0.25">
       <c r="F31" t="s">
@@ -32988,26 +32997,26 @@
       <c r="AB44" s="46"/>
     </row>
     <row r="45" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G45" s="53" t="s">
+      <c r="G45" s="56" t="s">
         <v>148</v>
       </c>
-      <c r="H45" s="53"/>
-      <c r="I45" s="53"/>
-      <c r="J45" s="53"/>
-      <c r="K45" s="53"/>
-      <c r="L45" s="53"/>
-      <c r="M45" s="53"/>
-      <c r="N45" s="53"/>
-      <c r="S45" s="53" t="s">
+      <c r="H45" s="56"/>
+      <c r="I45" s="56"/>
+      <c r="J45" s="56"/>
+      <c r="K45" s="56"/>
+      <c r="L45" s="56"/>
+      <c r="M45" s="56"/>
+      <c r="N45" s="56"/>
+      <c r="S45" s="56" t="s">
         <v>147</v>
       </c>
-      <c r="T45" s="53"/>
-      <c r="U45" s="53"/>
-      <c r="V45" s="53"/>
-      <c r="W45" s="53"/>
-      <c r="X45" s="53"/>
-      <c r="Y45" s="53"/>
-      <c r="Z45" s="53"/>
+      <c r="T45" s="56"/>
+      <c r="U45" s="56"/>
+      <c r="V45" s="56"/>
+      <c r="W45" s="56"/>
+      <c r="X45" s="56"/>
+      <c r="Y45" s="56"/>
+      <c r="Z45" s="56"/>
       <c r="AA45" s="46"/>
       <c r="AB45" s="46"/>
     </row>
@@ -33880,10 +33889,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A153B6B9-5563-4A5A-994F-A4DB117E644D}">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AB57"/>
+  <dimension ref="A1:AT57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C10"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AF9" sqref="AF9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33895,47 +33904,59 @@
     <col min="31" max="31" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:46" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="57" t="s">
         <v>162</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-    </row>
-    <row r="2" spans="1:28" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+    </row>
+    <row r="2" spans="1:46" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="L2" t="s">
         <v>140</v>
       </c>
       <c r="U2" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="3" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD2" t="s">
+        <v>140</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>92</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="F3" s="53" t="s">
+      <c r="F3" s="56" t="s">
         <v>139</v>
       </c>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53" t="s">
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56" t="s">
         <v>163</v>
       </c>
-      <c r="J3" s="53"/>
+      <c r="J3" s="56"/>
       <c r="M3" t="s">
         <v>144</v>
       </c>
       <c r="V3" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AE3" t="s">
+        <v>144</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>124</v>
       </c>
@@ -34005,8 +34026,56 @@
       <c r="AB4" s="43">
         <v>180</v>
       </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD4" t="s">
+        <v>136</v>
+      </c>
+      <c r="AE4">
+        <v>120</v>
+      </c>
+      <c r="AF4">
+        <v>130</v>
+      </c>
+      <c r="AG4">
+        <v>140</v>
+      </c>
+      <c r="AH4">
+        <v>150</v>
+      </c>
+      <c r="AI4">
+        <v>160</v>
+      </c>
+      <c r="AJ4">
+        <v>170</v>
+      </c>
+      <c r="AK4">
+        <v>180</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>136</v>
+      </c>
+      <c r="AN4">
+        <v>120</v>
+      </c>
+      <c r="AO4">
+        <v>130</v>
+      </c>
+      <c r="AP4">
+        <v>140</v>
+      </c>
+      <c r="AQ4">
+        <v>150</v>
+      </c>
+      <c r="AR4">
+        <v>160</v>
+      </c>
+      <c r="AS4">
+        <v>170</v>
+      </c>
+      <c r="AT4">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>87</v>
       </c>
@@ -34094,8 +34163,56 @@
         <f>_xll.acq_options_binomial_american_price(AB$4,$C$5,$U5,$C$8,$C$9,$C$7,FALSE)</f>
         <v>1.1233079681879743E-3</v>
       </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD5">
+        <v>0.05</v>
+      </c>
+      <c r="AE5">
+        <v>6.47885622121005E-5</v>
+      </c>
+      <c r="AF5">
+        <v>1.4806633008807357E-2</v>
+      </c>
+      <c r="AG5">
+        <v>0.46327538134639434</v>
+      </c>
+      <c r="AH5">
+        <v>3.5277905365628364</v>
+      </c>
+      <c r="AI5">
+        <v>10.854397955373866</v>
+      </c>
+      <c r="AJ5">
+        <v>20.398245605225771</v>
+      </c>
+      <c r="AK5">
+        <v>30.360468484994357</v>
+      </c>
+      <c r="AM5">
+        <v>0.05</v>
+      </c>
+      <c r="AN5">
+        <v>30.000000000007944</v>
+      </c>
+      <c r="AO5">
+        <v>20.000000000008811</v>
+      </c>
+      <c r="AP5">
+        <v>10.226132459460437</v>
+      </c>
+      <c r="AQ5">
+        <v>3.1790029284836754</v>
+      </c>
+      <c r="AR5">
+        <v>0.48754530179488176</v>
+      </c>
+      <c r="AS5">
+        <v>3.4019614928197786E-2</v>
+      </c>
+      <c r="AT5">
+        <v>1.1233079681879743E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>88</v>
       </c>
@@ -34183,8 +34300,56 @@
         <f>_xll.acq_options_binomial_american_price(AB$4,$C$5,$U6,$C$8,$C$9,$C$7,FALSE)</f>
         <v>3.8583844005032689E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD6">
+        <v>0.1</v>
+      </c>
+      <c r="AE6">
+        <v>9.1248830034959434E-3</v>
+      </c>
+      <c r="AF6">
+        <v>0.17885106898621184</v>
+      </c>
+      <c r="AG6">
+        <v>1.3493143126169751</v>
+      </c>
+      <c r="AH6">
+        <v>5.093879400981173</v>
+      </c>
+      <c r="AI6">
+        <v>12.008481773814808</v>
+      </c>
+      <c r="AJ6">
+        <v>20.989035434736152</v>
+      </c>
+      <c r="AK6">
+        <v>30.755768827066532</v>
+      </c>
+      <c r="AM6">
+        <v>0.1</v>
+      </c>
+      <c r="AN6">
+        <v>29.999999999996874</v>
+      </c>
+      <c r="AO6">
+        <v>19.999999999996476</v>
+      </c>
+      <c r="AP6">
+        <v>10.797609727004986</v>
+      </c>
+      <c r="AQ6">
+        <v>4.4028779916287712</v>
+      </c>
+      <c r="AR6">
+        <v>1.2825833785772736</v>
+      </c>
+      <c r="AS6">
+        <v>0.26342580573432217</v>
+      </c>
+      <c r="AT6">
+        <v>3.8583844005032689E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>89</v>
       </c>
@@ -34272,8 +34437,56 @@
         <f>_xll.acq_options_binomial_american_price(AB$4,$C$5,$U7,$C$8,$C$9,$C$7,FALSE)</f>
         <v>0.14956122530436966</v>
       </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD7">
+        <v>0.15</v>
+      </c>
+      <c r="AE7">
+        <v>5.8077899595978963E-2</v>
+      </c>
+      <c r="AF7">
+        <v>0.49244708697616602</v>
+      </c>
+      <c r="AG7">
+        <v>2.2192034827575045</v>
+      </c>
+      <c r="AH7">
+        <v>6.3354932334738869</v>
+      </c>
+      <c r="AI7">
+        <v>13.082256699580331</v>
+      </c>
+      <c r="AJ7">
+        <v>21.691322996615757</v>
+      </c>
+      <c r="AK7">
+        <v>31.222516029227904</v>
+      </c>
+      <c r="AM7">
+        <v>0.15</v>
+      </c>
+      <c r="AN7">
+        <v>30.000000000002515</v>
+      </c>
+      <c r="AO7">
+        <v>20.027854351695026</v>
+      </c>
+      <c r="AP7">
+        <v>11.353356804736338</v>
+      </c>
+      <c r="AQ7">
+        <v>5.3062813983176547</v>
+      </c>
+      <c r="AR7">
+        <v>2.0030892793519759</v>
+      </c>
+      <c r="AS7">
+        <v>0.60807550371991215</v>
+      </c>
+      <c r="AT7">
+        <v>0.14956122530436966</v>
+      </c>
+    </row>
+    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>90</v>
       </c>
@@ -34361,8 +34574,56 @@
         <f>_xll.acq_options_binomial_american_price(AB$4,$C$5,$U8,$C$8,$C$9,$C$7,FALSE)</f>
         <v>0.3201665321074566</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD8">
+        <v>0.2</v>
+      </c>
+      <c r="AE8">
+        <v>0.16136804829456403</v>
+      </c>
+      <c r="AF8">
+        <v>0.8860473909070643</v>
+      </c>
+      <c r="AG8">
+        <v>3.0435348720524895</v>
+      </c>
+      <c r="AH8">
+        <v>7.4083750302895854</v>
+      </c>
+      <c r="AI8">
+        <v>14.068853304358285</v>
+      </c>
+      <c r="AJ8">
+        <v>22.426190917393427</v>
+      </c>
+      <c r="AK8">
+        <v>31.746454818833193</v>
+      </c>
+      <c r="AM8">
+        <v>0.2</v>
+      </c>
+      <c r="AN8">
+        <v>29.999999999993349</v>
+      </c>
+      <c r="AO8">
+        <v>20.13073400794984</v>
+      </c>
+      <c r="AP8">
+        <v>11.863106149450129</v>
+      </c>
+      <c r="AQ8">
+        <v>6.0442186276654537</v>
+      </c>
+      <c r="AR8">
+        <v>2.6409942086201346</v>
+      </c>
+      <c r="AS8">
+        <v>0.98906799961525138</v>
+      </c>
+      <c r="AT8">
+        <v>0.3201665321074566</v>
+      </c>
+    </row>
+    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>123</v>
       </c>
@@ -34450,8 +34711,56 @@
         <f>_xll.acq_options_binomial_american_price(AB$4,$C$5,$U9,$C$8,$C$9,$C$7,FALSE)</f>
         <v>0.52750606510265219</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD9">
+        <v>0.25</v>
+      </c>
+      <c r="AE9">
+        <v>0.31325094901697909</v>
+      </c>
+      <c r="AF9">
+        <v>1.3206650122883798</v>
+      </c>
+      <c r="AG9">
+        <v>3.8215367979400421</v>
+      </c>
+      <c r="AH9">
+        <v>8.3729100913056413</v>
+      </c>
+      <c r="AI9">
+        <v>14.984356354747003</v>
+      </c>
+      <c r="AJ9">
+        <v>23.161178919125021</v>
+      </c>
+      <c r="AK9">
+        <v>32.304511439276084</v>
+      </c>
+      <c r="AM9">
+        <v>0.25</v>
+      </c>
+      <c r="AN9">
+        <v>30.0000000000028</v>
+      </c>
+      <c r="AO9">
+        <v>20.274504805299543</v>
+      </c>
+      <c r="AP9">
+        <v>12.327876459814949</v>
+      </c>
+      <c r="AQ9">
+        <v>6.6766919114698968</v>
+      </c>
+      <c r="AR9">
+        <v>3.2120003339687822</v>
+      </c>
+      <c r="AS9">
+        <v>1.3736497278310844</v>
+      </c>
+      <c r="AT9">
+        <v>0.52750606510265219</v>
+      </c>
+    </row>
+    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>91</v>
       </c>
@@ -34539,8 +34848,56 @@
         <f>_xll.acq_options_binomial_american_price(AB$4,$C$5,$U10,$C$8,$C$9,$C$7,FALSE)</f>
         <v>0.75487996900595666</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD10">
+        <v>0.3</v>
+      </c>
+      <c r="AE10">
+        <v>0.50723351768046687</v>
+      </c>
+      <c r="AF10">
+        <v>1.7778898294447549</v>
+      </c>
+      <c r="AG10">
+        <v>4.5610278170178651</v>
+      </c>
+      <c r="AH10">
+        <v>9.2600973651020233</v>
+      </c>
+      <c r="AI10">
+        <v>15.845950364108626</v>
+      </c>
+      <c r="AJ10">
+        <v>23.88749944641949</v>
+      </c>
+      <c r="AK10">
+        <v>32.87973756386954</v>
+      </c>
+      <c r="AM10">
+        <v>0.3</v>
+      </c>
+      <c r="AN10">
+        <v>30.000000000002743</v>
+      </c>
+      <c r="AO10">
+        <v>20.440193582355914</v>
+      </c>
+      <c r="AP10">
+        <v>12.754290425942102</v>
+      </c>
+      <c r="AQ10">
+        <v>7.2344336704707839</v>
+      </c>
+      <c r="AR10">
+        <v>3.7317306145519544</v>
+      </c>
+      <c r="AS10">
+        <v>1.7527580521189718</v>
+      </c>
+      <c r="AT10">
+        <v>0.75487996900595666</v>
+      </c>
+    </row>
+    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>161</v>
       </c>
@@ -34629,8 +34986,56 @@
         <f>_xll.acq_options_binomial_american_price(AB$4,$C$5,$U11,$C$8,$C$9,$C$7,FALSE)</f>
         <v>0.99553681262010585</v>
       </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD11">
+        <v>0.35</v>
+      </c>
+      <c r="AE11">
+        <v>0.73125251323826879</v>
+      </c>
+      <c r="AF11">
+        <v>2.2425629675526668</v>
+      </c>
+      <c r="AG11">
+        <v>5.2618578149379438</v>
+      </c>
+      <c r="AH11">
+        <v>10.08836927608</v>
+      </c>
+      <c r="AI11">
+        <v>16.658382519599211</v>
+      </c>
+      <c r="AJ11">
+        <v>24.600440523935646</v>
+      </c>
+      <c r="AK11">
+        <v>33.465938073747651</v>
+      </c>
+      <c r="AM11">
+        <v>0.35</v>
+      </c>
+      <c r="AN11">
+        <v>29.999999999996248</v>
+      </c>
+      <c r="AO11">
+        <v>20.614981977575212</v>
+      </c>
+      <c r="AP11">
+        <v>13.14532203793252</v>
+      </c>
+      <c r="AQ11">
+        <v>7.735689758679209</v>
+      </c>
+      <c r="AR11">
+        <v>4.2065120657730173</v>
+      </c>
+      <c r="AS11">
+        <v>2.1214486509235293</v>
+      </c>
+      <c r="AT11">
+        <v>0.99553681262010585</v>
+      </c>
+    </row>
+    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
       <c r="F12">
         <v>80</v>
       </c>
@@ -34712,8 +35117,56 @@
         <f>_xll.acq_options_binomial_american_price(AB$4,$C$5,$U12,$C$8,$C$9,$C$7,FALSE)</f>
         <v>1.2394163077110454</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD12">
+        <v>0.4</v>
+      </c>
+      <c r="AE12">
+        <v>0.98074725352978653</v>
+      </c>
+      <c r="AF12">
+        <v>2.7108623936882199</v>
+      </c>
+      <c r="AG12">
+        <v>5.9331503559943091</v>
+      </c>
+      <c r="AH12">
+        <v>10.869747155346124</v>
+      </c>
+      <c r="AI12">
+        <v>17.439320147336176</v>
+      </c>
+      <c r="AJ12">
+        <v>25.292119275335775</v>
+      </c>
+      <c r="AK12">
+        <v>34.052619910449579</v>
+      </c>
+      <c r="AM12">
+        <v>0.4</v>
+      </c>
+      <c r="AN12">
+        <v>29.999999999999787</v>
+      </c>
+      <c r="AO12">
+        <v>20.79423171930236</v>
+      </c>
+      <c r="AP12">
+        <v>13.507534862877332</v>
+      </c>
+      <c r="AQ12">
+        <v>8.1923374611286697</v>
+      </c>
+      <c r="AR12">
+        <v>4.6510025026004902</v>
+      </c>
+      <c r="AS12">
+        <v>2.4723128103769398</v>
+      </c>
+      <c r="AT12">
+        <v>1.2394163077110454</v>
+      </c>
+    </row>
+    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
       <c r="F13">
         <v>90</v>
       </c>
@@ -34795,8 +35248,56 @@
         <f>_xll.acq_options_binomial_american_price(AB$4,$C$5,$U13,$C$8,$C$9,$C$7,FALSE)</f>
         <v>1.4858297365660946</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD13">
+        <v>0.45</v>
+      </c>
+      <c r="AE13">
+        <v>1.2470004782783017</v>
+      </c>
+      <c r="AF13">
+        <v>3.1843266342166752</v>
+      </c>
+      <c r="AG13">
+        <v>6.5857879830962656</v>
+      </c>
+      <c r="AH13">
+        <v>11.612589204012622</v>
+      </c>
+      <c r="AI13">
+        <v>18.18171358281873</v>
+      </c>
+      <c r="AJ13">
+        <v>25.972533818763516</v>
+      </c>
+      <c r="AK13">
+        <v>34.63989179675373</v>
+      </c>
+      <c r="AM13">
+        <v>0.45</v>
+      </c>
+      <c r="AN13">
+        <v>29.999999999992809</v>
+      </c>
+      <c r="AO13">
+        <v>20.976031447468223</v>
+      </c>
+      <c r="AP13">
+        <v>13.850939518869161</v>
+      </c>
+      <c r="AQ13">
+        <v>8.6126322014121452</v>
+      </c>
+      <c r="AR13">
+        <v>5.0602658139661454</v>
+      </c>
+      <c r="AS13">
+        <v>2.8133889019011615</v>
+      </c>
+      <c r="AT13">
+        <v>1.4858297365660946</v>
+      </c>
+    </row>
+    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
       <c r="F14">
         <v>100</v>
       </c>
@@ -34878,8 +35379,56 @@
         <f>_xll.acq_options_binomial_american_price(AB$4,$C$5,$U14,$C$8,$C$9,$C$7,FALSE)</f>
         <v>1.7335499493219952</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD14">
+        <v>0.5</v>
+      </c>
+      <c r="AE14">
+        <v>1.5281847509030895</v>
+      </c>
+      <c r="AF14">
+        <v>3.6455355589481657</v>
+      </c>
+      <c r="AG14">
+        <v>7.2111511027985165</v>
+      </c>
+      <c r="AH14">
+        <v>12.322987010315092</v>
+      </c>
+      <c r="AI14">
+        <v>18.891665822159915</v>
+      </c>
+      <c r="AJ14">
+        <v>26.629771214566016</v>
+      </c>
+      <c r="AK14">
+        <v>35.225855437579256</v>
+      </c>
+      <c r="AM14">
+        <v>0.5</v>
+      </c>
+      <c r="AN14">
+        <v>30.01357994271202</v>
+      </c>
+      <c r="AO14">
+        <v>21.15200671396223</v>
+      </c>
+      <c r="AP14">
+        <v>14.170235970354575</v>
+      </c>
+      <c r="AQ14">
+        <v>9.0025754232218205</v>
+      </c>
+      <c r="AR14">
+        <v>5.440504492483285</v>
+      </c>
+      <c r="AS14">
+        <v>3.1354763991069881</v>
+      </c>
+      <c r="AT14">
+        <v>1.7335499493219952</v>
+      </c>
+    </row>
+    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
       <c r="F15">
         <v>110</v>
       </c>
@@ -34961,8 +35510,56 @@
         <f>_xll.acq_options_binomial_american_price(AB$4,$C$5,$U15,$C$8,$C$9,$C$7,FALSE)</f>
         <v>1.9708398941787317</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD15">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AE15">
+        <v>1.8239007301477845</v>
+      </c>
+      <c r="AF15">
+        <v>4.1151087291769262</v>
+      </c>
+      <c r="AG15">
+        <v>7.813111808473657</v>
+      </c>
+      <c r="AH15">
+        <v>13.005543865476119</v>
+      </c>
+      <c r="AI15">
+        <v>19.5823066688422</v>
+      </c>
+      <c r="AJ15">
+        <v>27.281215949496463</v>
+      </c>
+      <c r="AK15">
+        <v>35.798090255173449</v>
+      </c>
+      <c r="AM15">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AN15">
+        <v>30.038544836649557</v>
+      </c>
+      <c r="AO15">
+        <v>21.330445738968635</v>
+      </c>
+      <c r="AP15">
+        <v>14.468681374332336</v>
+      </c>
+      <c r="AQ15">
+        <v>9.3666840898581079</v>
+      </c>
+      <c r="AR15">
+        <v>5.8034874671570558</v>
+      </c>
+      <c r="AS15">
+        <v>3.4522522165303364</v>
+      </c>
+      <c r="AT15">
+        <v>1.9708398941787317</v>
+      </c>
+    </row>
+    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
       <c r="F16">
         <v>120</v>
       </c>
@@ -35044,8 +35641,56 @@
         <f>_xll.acq_options_binomial_american_price(AB$4,$C$5,$U16,$C$8,$C$9,$C$7,FALSE)</f>
         <v>2.2146665611764895</v>
       </c>
-    </row>
-    <row r="17" spans="6:28" x14ac:dyDescent="0.25">
+      <c r="AD16">
+        <v>0.6</v>
+      </c>
+      <c r="AE16">
+        <v>2.1215661214389336</v>
+      </c>
+      <c r="AF16">
+        <v>4.5729995607255551</v>
+      </c>
+      <c r="AG16">
+        <v>8.3961077286980821</v>
+      </c>
+      <c r="AH16">
+        <v>13.663839736257879</v>
+      </c>
+      <c r="AI16">
+        <v>20.254066648520276</v>
+      </c>
+      <c r="AJ16">
+        <v>27.910096953130402</v>
+      </c>
+      <c r="AK16">
+        <v>36.376463582641435</v>
+      </c>
+      <c r="AM16">
+        <v>0.6</v>
+      </c>
+      <c r="AN16">
+        <v>30.070414645125808</v>
+      </c>
+      <c r="AO16">
+        <v>21.502433988306827</v>
+      </c>
+      <c r="AP16">
+        <v>14.749679016584579</v>
+      </c>
+      <c r="AQ16">
+        <v>9.7084828669159471</v>
+      </c>
+      <c r="AR16">
+        <v>6.1485117480984979</v>
+      </c>
+      <c r="AS16">
+        <v>3.7497888277682891</v>
+      </c>
+      <c r="AT16">
+        <v>2.2146665611764895</v>
+      </c>
+    </row>
+    <row r="17" spans="6:46" x14ac:dyDescent="0.25">
       <c r="F17">
         <v>130</v>
       </c>
@@ -35127,8 +35772,56 @@
         <f>_xll.acq_options_binomial_american_price(AB$4,$C$5,$U17,$C$8,$C$9,$C$7,FALSE)</f>
         <v>2.4447713399422337</v>
       </c>
-    </row>
-    <row r="18" spans="6:28" x14ac:dyDescent="0.25">
+      <c r="AD17">
+        <v>0.65</v>
+      </c>
+      <c r="AE17">
+        <v>2.4322564265597215</v>
+      </c>
+      <c r="AF17">
+        <v>5.0224921872256481</v>
+      </c>
+      <c r="AG17">
+        <v>8.9736290576865478</v>
+      </c>
+      <c r="AH17">
+        <v>14.300724555368561</v>
+      </c>
+      <c r="AI17">
+        <v>20.903720858487453</v>
+      </c>
+      <c r="AJ17">
+        <v>28.523264212015864</v>
+      </c>
+      <c r="AK17">
+        <v>36.937673160665199</v>
+      </c>
+      <c r="AM17">
+        <v>0.65</v>
+      </c>
+      <c r="AN17">
+        <v>30.111791078120248</v>
+      </c>
+      <c r="AO17">
+        <v>21.668180784889717</v>
+      </c>
+      <c r="AP17">
+        <v>15.022913971768219</v>
+      </c>
+      <c r="AQ17">
+        <v>10.030755857159793</v>
+      </c>
+      <c r="AR17">
+        <v>6.4738643533267375</v>
+      </c>
+      <c r="AS17">
+        <v>4.0351902216613516</v>
+      </c>
+      <c r="AT17">
+        <v>2.4447713399422337</v>
+      </c>
+    </row>
+    <row r="18" spans="6:46" x14ac:dyDescent="0.25">
       <c r="F18">
         <v>140</v>
       </c>
@@ -35210,8 +35903,56 @@
         <f>_xll.acq_options_binomial_american_price(AB$4,$C$5,$U18,$C$8,$C$9,$C$7,FALSE)</f>
         <v>2.6769358533655034</v>
       </c>
-    </row>
-    <row r="19" spans="6:28" x14ac:dyDescent="0.25">
+      <c r="AD18">
+        <v>0.7</v>
+      </c>
+      <c r="AE18">
+        <v>2.7398970024350779</v>
+      </c>
+      <c r="AF18">
+        <v>5.4783444827316536</v>
+      </c>
+      <c r="AG18">
+        <v>9.5345453500097577</v>
+      </c>
+      <c r="AH18">
+        <v>14.918511496002189</v>
+      </c>
+      <c r="AI18">
+        <v>21.533662877514285</v>
+      </c>
+      <c r="AJ18">
+        <v>29.133690903382561</v>
+      </c>
+      <c r="AK18">
+        <v>37.498997043070389</v>
+      </c>
+      <c r="AM18">
+        <v>0.7</v>
+      </c>
+      <c r="AN18">
+        <v>30.155643983820472</v>
+      </c>
+      <c r="AO18">
+        <v>21.835712678340293</v>
+      </c>
+      <c r="AP18">
+        <v>15.282133973957995</v>
+      </c>
+      <c r="AQ18">
+        <v>10.33578045914636</v>
+      </c>
+      <c r="AR18">
+        <v>6.7818740437543577</v>
+      </c>
+      <c r="AS18">
+        <v>4.3176119877586281</v>
+      </c>
+      <c r="AT18">
+        <v>2.6769358533655034</v>
+      </c>
+    </row>
+    <row r="19" spans="6:46" x14ac:dyDescent="0.25">
       <c r="F19">
         <v>150</v>
       </c>
@@ -35293,8 +36034,56 @@
         <f>_xll.acq_options_binomial_american_price(AB$4,$C$5,$U19,$C$8,$C$9,$C$7,FALSE)</f>
         <v>2.9022681246916715</v>
       </c>
-    </row>
-    <row r="20" spans="6:28" x14ac:dyDescent="0.25">
+      <c r="AD19">
+        <v>0.75</v>
+      </c>
+      <c r="AE19">
+        <v>3.0612500938520979</v>
+      </c>
+      <c r="AF19">
+        <v>5.9229778472484842</v>
+      </c>
+      <c r="AG19">
+        <v>10.080514227124009</v>
+      </c>
+      <c r="AH19">
+        <v>15.519109012187322</v>
+      </c>
+      <c r="AI19">
+        <v>22.14586732772327</v>
+      </c>
+      <c r="AJ19">
+        <v>29.727218566263986</v>
+      </c>
+      <c r="AK19">
+        <v>38.052083397046495</v>
+      </c>
+      <c r="AM19">
+        <v>0.75</v>
+      </c>
+      <c r="AN19">
+        <v>30.207232228449922</v>
+      </c>
+      <c r="AO19">
+        <v>21.996417380647536</v>
+      </c>
+      <c r="AP19">
+        <v>15.528497549570506</v>
+      </c>
+      <c r="AQ19">
+        <v>10.625411692111369</v>
+      </c>
+      <c r="AR19">
+        <v>7.0745178030450688</v>
+      </c>
+      <c r="AS19">
+        <v>4.5857815788687404</v>
+      </c>
+      <c r="AT19">
+        <v>2.9022681246916715</v>
+      </c>
+    </row>
+    <row r="20" spans="6:46" x14ac:dyDescent="0.25">
       <c r="F20">
         <v>160</v>
       </c>
@@ -35376,8 +36165,56 @@
         <f>_xll.acq_options_binomial_american_price(AB$4,$C$5,$U20,$C$8,$C$9,$C$7,FALSE)</f>
         <v>3.1172324099143998</v>
       </c>
-    </row>
-    <row r="21" spans="6:28" x14ac:dyDescent="0.25">
+      <c r="AD20">
+        <v>0.8</v>
+      </c>
+      <c r="AE20">
+        <v>3.3760679090846142</v>
+      </c>
+      <c r="AF20">
+        <v>6.3574367666391716</v>
+      </c>
+      <c r="AG20">
+        <v>10.612922302756481</v>
+      </c>
+      <c r="AH20">
+        <v>16.104113814319668</v>
+      </c>
+      <c r="AI20">
+        <v>22.741986135096859</v>
+      </c>
+      <c r="AJ20">
+        <v>30.305423594084502</v>
+      </c>
+      <c r="AK20">
+        <v>38.591643807770645</v>
+      </c>
+      <c r="AM20">
+        <v>0.8</v>
+      </c>
+      <c r="AN20">
+        <v>30.259373769473957</v>
+      </c>
+      <c r="AO20">
+        <v>22.150453437182545</v>
+      </c>
+      <c r="AP20">
+        <v>15.763230324066519</v>
+      </c>
+      <c r="AQ20">
+        <v>10.90120779543015</v>
+      </c>
+      <c r="AR20">
+        <v>7.3533355204141024</v>
+      </c>
+      <c r="AS20">
+        <v>4.8413869253896635</v>
+      </c>
+      <c r="AT20">
+        <v>3.1172324099143998</v>
+      </c>
+    </row>
+    <row r="21" spans="6:46" x14ac:dyDescent="0.25">
       <c r="F21">
         <v>170</v>
       </c>
@@ -35459,8 +36296,56 @@
         <f>_xll.acq_options_binomial_american_price(AB$4,$C$5,$U21,$C$8,$C$9,$C$7,FALSE)</f>
         <v>3.3329533106290485</v>
       </c>
-    </row>
-    <row r="22" spans="6:28" x14ac:dyDescent="0.25">
+      <c r="AD21">
+        <v>0.85</v>
+      </c>
+      <c r="AE21">
+        <v>3.6970934807160312</v>
+      </c>
+      <c r="AF21">
+        <v>6.7878683966650888</v>
+      </c>
+      <c r="AG21">
+        <v>11.13294360230978</v>
+      </c>
+      <c r="AH21">
+        <v>16.674878044259088</v>
+      </c>
+      <c r="AI21">
+        <v>23.323418075877768</v>
+      </c>
+      <c r="AJ21">
+        <v>30.869640468009369</v>
+      </c>
+      <c r="AK21">
+        <v>39.130007454034043</v>
+      </c>
+      <c r="AM21">
+        <v>0.85</v>
+      </c>
+      <c r="AN21">
+        <v>30.314573182467761</v>
+      </c>
+      <c r="AO21">
+        <v>22.300254774455361</v>
+      </c>
+      <c r="AP21">
+        <v>15.987414079511197</v>
+      </c>
+      <c r="AQ21">
+        <v>11.164487628573138</v>
+      </c>
+      <c r="AR21">
+        <v>7.6197810921715865</v>
+      </c>
+      <c r="AS21">
+        <v>5.085975020532258</v>
+      </c>
+      <c r="AT21">
+        <v>3.3329533106290485</v>
+      </c>
+    </row>
+    <row r="22" spans="6:46" x14ac:dyDescent="0.25">
       <c r="L22" s="45">
         <v>0.9</v>
       </c>
@@ -35523,8 +36408,56 @@
         <f>_xll.acq_options_binomial_american_price(AB$4,$C$5,$U22,$C$8,$C$9,$C$7,FALSE)</f>
         <v>3.5451577697247849</v>
       </c>
-    </row>
-    <row r="23" spans="6:28" x14ac:dyDescent="0.25">
+      <c r="AD22">
+        <v>0.9</v>
+      </c>
+      <c r="AE22">
+        <v>4.0226096355607233</v>
+      </c>
+      <c r="AF22">
+        <v>7.2227377546292395</v>
+      </c>
+      <c r="AG22">
+        <v>11.641582714736746</v>
+      </c>
+      <c r="AH22">
+        <v>17.232558898229541</v>
+      </c>
+      <c r="AI22">
+        <v>23.891360149612545</v>
+      </c>
+      <c r="AJ22">
+        <v>31.42992022819066</v>
+      </c>
+      <c r="AK22">
+        <v>39.664294213456529</v>
+      </c>
+      <c r="AM22">
+        <v>0.9</v>
+      </c>
+      <c r="AN22">
+        <v>30.373679070968116</v>
+      </c>
+      <c r="AO22">
+        <v>22.450948798364585</v>
+      </c>
+      <c r="AP22">
+        <v>16.201952543951933</v>
+      </c>
+      <c r="AQ22">
+        <v>11.416371229360646</v>
+      </c>
+      <c r="AR22">
+        <v>7.8750764808474587</v>
+      </c>
+      <c r="AS22">
+        <v>5.3280983055611504</v>
+      </c>
+      <c r="AT22">
+        <v>3.5451577697247849</v>
+      </c>
+    </row>
+    <row r="23" spans="6:46" x14ac:dyDescent="0.25">
       <c r="L23" s="45">
         <v>0.95</v>
       </c>
@@ -35587,8 +36520,56 @@
         <f>_xll.acq_options_binomial_american_price(AB$4,$C$5,$U23,$C$8,$C$9,$C$7,FALSE)</f>
         <v>3.7486766576694794</v>
       </c>
-    </row>
-    <row r="24" spans="6:28" x14ac:dyDescent="0.25">
+      <c r="AD23">
+        <v>0.95</v>
+      </c>
+      <c r="AE23">
+        <v>4.3425600360567156</v>
+      </c>
+      <c r="AF23">
+        <v>7.6492287010063276</v>
+      </c>
+      <c r="AG23">
+        <v>12.13970728885575</v>
+      </c>
+      <c r="AH23">
+        <v>17.778155998949195</v>
+      </c>
+      <c r="AI23">
+        <v>24.450872926370785</v>
+      </c>
+      <c r="AJ23">
+        <v>31.983975075847844</v>
+      </c>
+      <c r="AK23">
+        <v>40.187331898399165</v>
+      </c>
+      <c r="AM23">
+        <v>0.95</v>
+      </c>
+      <c r="AN23">
+        <v>30.432535843598799</v>
+      </c>
+      <c r="AO23">
+        <v>22.596386076654408</v>
+      </c>
+      <c r="AP23">
+        <v>16.407639013932588</v>
+      </c>
+      <c r="AQ23">
+        <v>11.657828910294933</v>
+      </c>
+      <c r="AR23">
+        <v>8.1234766093562545</v>
+      </c>
+      <c r="AS23">
+        <v>5.5642994016355161</v>
+      </c>
+      <c r="AT23">
+        <v>3.7486766576694794</v>
+      </c>
+    </row>
+    <row r="24" spans="6:46" x14ac:dyDescent="0.25">
       <c r="L24" s="45">
         <v>1</v>
       </c>
@@ -35651,14 +36632,118 @@
         <f>_xll.acq_options_binomial_american_price(AB$4,$C$5,$U24,$C$8,$C$9,$C$7,FALSE)</f>
         <v>3.9444600804233492</v>
       </c>
-    </row>
-    <row r="26" spans="6:28" x14ac:dyDescent="0.25">
+      <c r="AD24">
+        <v>1</v>
+      </c>
+      <c r="AE24">
+        <v>4.6590187874285469</v>
+      </c>
+      <c r="AF24">
+        <v>8.0679435144803957</v>
+      </c>
+      <c r="AG24">
+        <v>12.628072924725879</v>
+      </c>
+      <c r="AH24">
+        <v>18.312540023842111</v>
+      </c>
+      <c r="AI24">
+        <v>25.002843572928668</v>
+      </c>
+      <c r="AJ24">
+        <v>32.526481100177023</v>
+      </c>
+      <c r="AK24">
+        <v>40.699934502208627</v>
+      </c>
+      <c r="AM24">
+        <v>1</v>
+      </c>
+      <c r="AN24">
+        <v>30.49070965005788</v>
+      </c>
+      <c r="AO24">
+        <v>22.73665926882417</v>
+      </c>
+      <c r="AP24">
+        <v>16.605190083791207</v>
+      </c>
+      <c r="AQ24">
+        <v>11.889697305262722</v>
+      </c>
+      <c r="AR24">
+        <v>8.3645040630454659</v>
+      </c>
+      <c r="AS24">
+        <v>5.7911212518975752</v>
+      </c>
+      <c r="AT24">
+        <v>3.9444600804233492</v>
+      </c>
+    </row>
+    <row r="26" spans="6:46" x14ac:dyDescent="0.25">
       <c r="V26" s="46"/>
       <c r="W26" s="46"/>
       <c r="X26" s="46"/>
       <c r="Y26" s="46"/>
-    </row>
-    <row r="27" spans="6:28" x14ac:dyDescent="0.25">
+      <c r="AE26">
+        <f>AE5-M5</f>
+        <v>0</v>
+      </c>
+      <c r="AF26">
+        <f t="shared" ref="AF26:AJ26" si="0">AF5-N5</f>
+        <v>0</v>
+      </c>
+      <c r="AG26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK26">
+        <f t="shared" ref="AK26:AK45" si="1">AK5-S5</f>
+        <v>0</v>
+      </c>
+      <c r="AN26">
+        <f t="shared" ref="AN26:AT26" si="2">AN5-V5</f>
+        <v>0</v>
+      </c>
+      <c r="AO26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AP26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AQ26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AR26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AS26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AT26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="6:46" x14ac:dyDescent="0.25">
       <c r="S27">
         <f>_xll.acq_options_bjerksund_price($F32,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
         <v>6.1672981556468613</v>
@@ -35668,44 +36753,268 @@
       <c r="X27" s="46"/>
       <c r="Y27" s="46"/>
       <c r="Z27" s="46"/>
-    </row>
-    <row r="28" spans="6:28" x14ac:dyDescent="0.25">
+      <c r="AE27">
+        <f t="shared" ref="AE27:AE43" si="3">AE6-M6</f>
+        <v>0</v>
+      </c>
+      <c r="AF27">
+        <f t="shared" ref="AF27:AF43" si="4">AF6-N6</f>
+        <v>0</v>
+      </c>
+      <c r="AG27">
+        <f t="shared" ref="AG27:AG43" si="5">AG6-O6</f>
+        <v>0</v>
+      </c>
+      <c r="AH27">
+        <f t="shared" ref="AH27:AH43" si="6">AH6-P6</f>
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <f t="shared" ref="AI27:AI43" si="7">AI6-Q6</f>
+        <v>0</v>
+      </c>
+      <c r="AJ27">
+        <f t="shared" ref="AJ27:AJ43" si="8">AJ6-R6</f>
+        <v>0</v>
+      </c>
+      <c r="AK27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AN27">
+        <f t="shared" ref="AN27:AT27" si="9">AN6-V6</f>
+        <v>0</v>
+      </c>
+      <c r="AO27">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AP27">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AQ27">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AR27">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AS27">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AT27">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="6:46" x14ac:dyDescent="0.25">
       <c r="V28" s="46"/>
       <c r="W28" s="46"/>
       <c r="X28" s="46"/>
       <c r="Y28" s="46"/>
       <c r="Z28" s="46"/>
-    </row>
-    <row r="29" spans="6:28" x14ac:dyDescent="0.25">
+      <c r="AE28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG28">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AH28">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AJ28">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AK28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AN28">
+        <f t="shared" ref="AN28:AT28" si="10">AN7-V7</f>
+        <v>0</v>
+      </c>
+      <c r="AO28">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AP28">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AQ28">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AR28">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AS28">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AT28">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="6:46" x14ac:dyDescent="0.25">
       <c r="V29" s="46"/>
       <c r="W29" s="46"/>
       <c r="X29" s="46"/>
       <c r="Y29" s="46"/>
       <c r="Z29" s="46"/>
-    </row>
-    <row r="30" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G30" s="53" t="s">
+      <c r="AE29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG29">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AH29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AJ29">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AK29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AN29">
+        <f t="shared" ref="AN29:AT29" si="11">AN8-V8</f>
+        <v>0</v>
+      </c>
+      <c r="AO29">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AP29">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AQ29">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AR29">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AS29">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AT29">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="6:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G30" s="56" t="s">
         <v>164</v>
       </c>
-      <c r="H30" s="53"/>
-      <c r="I30" s="53"/>
-      <c r="J30" s="53"/>
-      <c r="K30" s="53"/>
-      <c r="L30" s="53"/>
-      <c r="M30" s="53"/>
-      <c r="N30" s="53"/>
-      <c r="S30" s="53" t="s">
+      <c r="H30" s="56"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="56"/>
+      <c r="K30" s="56"/>
+      <c r="L30" s="56"/>
+      <c r="M30" s="56"/>
+      <c r="N30" s="56"/>
+      <c r="S30" s="56" t="s">
         <v>167</v>
       </c>
-      <c r="T30" s="53"/>
-      <c r="U30" s="53"/>
-      <c r="V30" s="53"/>
-      <c r="W30" s="53"/>
-      <c r="X30" s="53"/>
-      <c r="Y30" s="53"/>
-      <c r="Z30" s="53"/>
-    </row>
-    <row r="31" spans="6:28" x14ac:dyDescent="0.25">
+      <c r="T30" s="56"/>
+      <c r="U30" s="56"/>
+      <c r="V30" s="56"/>
+      <c r="W30" s="56"/>
+      <c r="X30" s="56"/>
+      <c r="Y30" s="56"/>
+      <c r="Z30" s="56"/>
+      <c r="AE30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG30">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AH30">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AJ30">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AK30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AN30">
+        <f t="shared" ref="AN30:AT30" si="12">AN9-V9</f>
+        <v>0</v>
+      </c>
+      <c r="AO30">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AP30">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AQ30">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AR30">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AS30">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AT30">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="6:46" x14ac:dyDescent="0.25">
       <c r="F31" t="s">
         <v>125</v>
       </c>
@@ -35760,8 +37069,64 @@
       <c r="Z31" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="32" spans="6:28" x14ac:dyDescent="0.25">
+      <c r="AE31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AH31">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AJ31">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AK31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AN31">
+        <f t="shared" ref="AN31:AT31" si="13">AN10-V10</f>
+        <v>0</v>
+      </c>
+      <c r="AO31">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AP31">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AQ31">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AR31">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AS31">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AT31">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="6:46" x14ac:dyDescent="0.25">
       <c r="F32" s="13">
         <v>100</v>
       </c>
@@ -35832,8 +37197,64 @@
         <f>_xll.acq_options_bjerksund_greeks(Z$31,$F32,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
         <v>-3.8124741214318192</v>
       </c>
-    </row>
-    <row r="33" spans="6:28" x14ac:dyDescent="0.25">
+      <c r="AE32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF32">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AH32">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AJ32">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AK32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AN32">
+        <f t="shared" ref="AN32:AT32" si="14">AN11-V11</f>
+        <v>0</v>
+      </c>
+      <c r="AO32">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AP32">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AQ32">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AR32">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AS32">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AT32">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="6:46" x14ac:dyDescent="0.25">
       <c r="F33" s="13">
         <v>110</v>
       </c>
@@ -35904,8 +37325,64 @@
         <f>_xll.acq_options_bjerksund_greeks(Z$31,$F33,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
         <v>-4.7974659680676268</v>
       </c>
-    </row>
-    <row r="34" spans="6:28" x14ac:dyDescent="0.25">
+      <c r="AE33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG33">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AH33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AJ33">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AK33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AN33">
+        <f t="shared" ref="AN33:AT33" si="15">AN12-V12</f>
+        <v>0</v>
+      </c>
+      <c r="AO33">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AP33">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AQ33">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AR33">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AS33">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AT33">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="6:46" x14ac:dyDescent="0.25">
       <c r="F34" s="13">
         <v>120</v>
       </c>
@@ -35976,8 +37453,64 @@
         <f>_xll.acq_options_bjerksund_greeks(Z$31,$F34,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
         <v>-5.6647244150695997</v>
       </c>
-    </row>
-    <row r="35" spans="6:28" x14ac:dyDescent="0.25">
+      <c r="AE34">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AH34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AJ34">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AK34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AN34">
+        <f t="shared" ref="AN34:AT34" si="16">AN13-V13</f>
+        <v>0</v>
+      </c>
+      <c r="AO34">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AP34">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AQ34">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AR34">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AS34">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AT34">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="6:46" x14ac:dyDescent="0.25">
       <c r="F35" s="13">
         <v>130</v>
       </c>
@@ -36048,8 +37581,64 @@
         <f>_xll.acq_options_bjerksund_greeks(Z$31,$F35,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
         <v>-6.3712633617853953</v>
       </c>
-    </row>
-    <row r="36" spans="6:28" x14ac:dyDescent="0.25">
+      <c r="AE35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF35">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG35">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AH35">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AJ35">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AK35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AN35">
+        <f t="shared" ref="AN35:AT35" si="17">AN14-V14</f>
+        <v>0</v>
+      </c>
+      <c r="AO35">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AP35">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AQ35">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AR35">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AS35">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AT35">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="6:46" x14ac:dyDescent="0.25">
       <c r="F36" s="13">
         <v>140</v>
       </c>
@@ -36120,8 +37709,64 @@
         <f>_xll.acq_options_bjerksund_greeks(Z$31,$F36,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
         <v>-6.9023897426347958</v>
       </c>
-    </row>
-    <row r="37" spans="6:28" x14ac:dyDescent="0.25">
+      <c r="AE36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF36">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG36">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AH36">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AJ36">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AK36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AN36">
+        <f t="shared" ref="AN36:AT36" si="18">AN15-V15</f>
+        <v>0</v>
+      </c>
+      <c r="AO36">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AP36">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AQ36">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AR36">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AS36">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AT36">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="6:46" x14ac:dyDescent="0.25">
       <c r="F37" s="13">
         <v>150</v>
       </c>
@@ -36192,8 +37837,64 @@
         <f>_xll.acq_options_bjerksund_greeks(Z$31,$F37,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
         <v>-7.2641111709899064</v>
       </c>
-    </row>
-    <row r="38" spans="6:28" x14ac:dyDescent="0.25">
+      <c r="AE37">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF37">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG37">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AH37">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AJ37">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AK37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AN37">
+        <f t="shared" ref="AN37:AT37" si="19">AN16-V16</f>
+        <v>0</v>
+      </c>
+      <c r="AO37">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AP37">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AQ37">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AR37">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AS37">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AT37">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="6:46" x14ac:dyDescent="0.25">
       <c r="F38" s="13">
         <v>160</v>
       </c>
@@ -36264,8 +37965,64 @@
         <f>_xll.acq_options_bjerksund_greeks(Z$31,$F38,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
         <v>-7.4751432483637359</v>
       </c>
-    </row>
-    <row r="39" spans="6:28" x14ac:dyDescent="0.25">
+      <c r="AE38">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG38">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AH38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AJ38">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AK38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AN38">
+        <f t="shared" ref="AN38:AT38" si="20">AN17-V17</f>
+        <v>0</v>
+      </c>
+      <c r="AO38">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AP38">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AQ38">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AR38">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AS38">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AT38">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="6:46" x14ac:dyDescent="0.25">
       <c r="F39" s="13">
         <v>170</v>
       </c>
@@ -36336,8 +38093,64 @@
         <f>_xll.acq_options_bjerksund_greeks(Z$31,$F39,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
         <v>-7.5602846421602976</v>
       </c>
-    </row>
-    <row r="40" spans="6:28" x14ac:dyDescent="0.25">
+      <c r="AE39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AH39">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AJ39">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AK39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AN39">
+        <f t="shared" ref="AN39:AT39" si="21">AN18-V18</f>
+        <v>0</v>
+      </c>
+      <c r="AO39">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AP39">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AQ39">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AR39">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AS39">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AT39">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="6:46" x14ac:dyDescent="0.25">
       <c r="F40" s="13">
         <v>180</v>
       </c>
@@ -36408,8 +38221,64 @@
         <f>_xll.acq_options_bjerksund_greeks(Z$31,$F40,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
         <v>-7.5456940949294449</v>
       </c>
-    </row>
-    <row r="41" spans="6:28" x14ac:dyDescent="0.25">
+      <c r="AE40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG40">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AH40">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AJ40">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AK40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AN40">
+        <f t="shared" ref="AN40:AT40" si="22">AN19-V19</f>
+        <v>0</v>
+      </c>
+      <c r="AO40">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AP40">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AQ40">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AR40">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AS40">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AT40">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="6:46" x14ac:dyDescent="0.25">
       <c r="F41" s="13">
         <v>190</v>
       </c>
@@ -36480,8 +38349,64 @@
         <f>_xll.acq_options_bjerksund_greeks(Z$31,$F41,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
         <v>-7.4559444641266737</v>
       </c>
-    </row>
-    <row r="42" spans="6:28" x14ac:dyDescent="0.25">
+      <c r="AE41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF41">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG41">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AH41">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AJ41">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AK41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AN41">
+        <f t="shared" ref="AN41:AT41" si="23">AN20-V20</f>
+        <v>0</v>
+      </c>
+      <c r="AO41">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AP41">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AQ41">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AR41">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AS41">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AT41">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="6:46" x14ac:dyDescent="0.25">
       <c r="F42" s="13">
         <v>200</v>
       </c>
@@ -36552,8 +38477,64 @@
         <f>_xll.acq_options_bjerksund_greeks(Z$31,$F42,$C$5,$C$6,$C$8,$C$9,$C$7,TRUE)</f>
         <v>-7.3124679884983834</v>
       </c>
-    </row>
-    <row r="43" spans="6:28" x14ac:dyDescent="0.25">
+      <c r="AE42">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AH42">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AJ42">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AK42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AN42">
+        <f t="shared" ref="AN42:AT42" si="24">AN21-V21</f>
+        <v>0</v>
+      </c>
+      <c r="AO42">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AP42">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AQ42">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AR42">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AS42">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AT42">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="6:46" x14ac:dyDescent="0.25">
       <c r="V43" s="46"/>
       <c r="W43" s="46"/>
       <c r="X43" s="46"/>
@@ -36561,8 +38542,64 @@
       <c r="Z43" s="46"/>
       <c r="AA43" s="46"/>
       <c r="AB43" s="46"/>
-    </row>
-    <row r="44" spans="6:28" x14ac:dyDescent="0.25">
+      <c r="AE43">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF43">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG43">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AH43">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AJ43">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AK43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AN43">
+        <f t="shared" ref="AN43:AT43" si="25">AN22-V22</f>
+        <v>0</v>
+      </c>
+      <c r="AO43">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AP43">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AQ43">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AR43">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AS43">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AT43">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="6:46" x14ac:dyDescent="0.25">
       <c r="V44" s="46"/>
       <c r="W44" s="46"/>
       <c r="X44" s="46"/>
@@ -36570,32 +38607,144 @@
       <c r="Z44" s="46"/>
       <c r="AA44" s="46"/>
       <c r="AB44" s="46"/>
-    </row>
-    <row r="45" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G45" s="53" t="s">
+      <c r="AE44">
+        <f t="shared" ref="AE44:AE45" si="26">AE23-M23</f>
+        <v>0</v>
+      </c>
+      <c r="AF44">
+        <f t="shared" ref="AF44:AF45" si="27">AF23-N23</f>
+        <v>0</v>
+      </c>
+      <c r="AG44">
+        <f t="shared" ref="AG44:AG45" si="28">AG23-O23</f>
+        <v>0</v>
+      </c>
+      <c r="AH44">
+        <f t="shared" ref="AH44:AH45" si="29">AH23-P23</f>
+        <v>0</v>
+      </c>
+      <c r="AI44">
+        <f t="shared" ref="AI44:AI45" si="30">AI23-Q23</f>
+        <v>0</v>
+      </c>
+      <c r="AJ44">
+        <f t="shared" ref="AJ44:AJ45" si="31">AJ23-R23</f>
+        <v>0</v>
+      </c>
+      <c r="AK44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AN44">
+        <f t="shared" ref="AN44:AT44" si="32">AN23-V23</f>
+        <v>0</v>
+      </c>
+      <c r="AO44">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="AP44">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="AQ44">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="AR44">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="AS44">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="AT44">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="6:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G45" s="56" t="s">
         <v>165</v>
       </c>
-      <c r="H45" s="53"/>
-      <c r="I45" s="53"/>
-      <c r="J45" s="53"/>
-      <c r="K45" s="53"/>
-      <c r="L45" s="53"/>
-      <c r="M45" s="53"/>
-      <c r="N45" s="53"/>
-      <c r="S45" s="53" t="s">
+      <c r="H45" s="56"/>
+      <c r="I45" s="56"/>
+      <c r="J45" s="56"/>
+      <c r="K45" s="56"/>
+      <c r="L45" s="56"/>
+      <c r="M45" s="56"/>
+      <c r="N45" s="56"/>
+      <c r="S45" s="56" t="s">
         <v>166</v>
       </c>
-      <c r="T45" s="53"/>
-      <c r="U45" s="53"/>
-      <c r="V45" s="53"/>
-      <c r="W45" s="53"/>
-      <c r="X45" s="53"/>
-      <c r="Y45" s="53"/>
-      <c r="Z45" s="53"/>
+      <c r="T45" s="56"/>
+      <c r="U45" s="56"/>
+      <c r="V45" s="56"/>
+      <c r="W45" s="56"/>
+      <c r="X45" s="56"/>
+      <c r="Y45" s="56"/>
+      <c r="Z45" s="56"/>
       <c r="AA45" s="46"/>
       <c r="AB45" s="46"/>
-    </row>
-    <row r="46" spans="6:28" x14ac:dyDescent="0.25">
+      <c r="AE45">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AF45">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="AG45">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AH45">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AI45">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AJ45">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AK45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AN45">
+        <f t="shared" ref="AN45:AT45" si="33">AN24-V24</f>
+        <v>0</v>
+      </c>
+      <c r="AO45">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="AP45">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="AQ45">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="AR45">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="AS45">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="AT45">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="6:46" x14ac:dyDescent="0.25">
       <c r="F46" t="s">
         <v>125</v>
       </c>
@@ -36651,7 +38800,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="47" spans="6:28" x14ac:dyDescent="0.25">
+    <row r="47" spans="6:46" x14ac:dyDescent="0.25">
       <c r="F47" s="13">
         <v>100</v>
       </c>
@@ -36723,7 +38872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="6:28" x14ac:dyDescent="0.25">
+    <row r="48" spans="6:46" x14ac:dyDescent="0.25">
       <c r="F48" s="13">
         <v>110</v>
       </c>
@@ -37475,15 +39624,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="57" t="s">
         <v>162</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
     </row>
     <row r="2" spans="1:28" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="L2" t="s">
@@ -37498,15 +39647,15 @@
         <v>92</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="F3" s="53" t="s">
+      <c r="F3" s="56" t="s">
         <v>171</v>
       </c>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53" t="s">
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56" t="s">
         <v>163</v>
       </c>
-      <c r="J3" s="53"/>
+      <c r="J3" s="56"/>
       <c r="M3" t="s">
         <v>144</v>
       </c>
@@ -39279,26 +41428,26 @@
       <c r="Z29" s="46"/>
     </row>
     <row r="30" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G30" s="53" t="s">
+      <c r="G30" s="56" t="s">
         <v>172</v>
       </c>
-      <c r="H30" s="53"/>
-      <c r="I30" s="53"/>
-      <c r="J30" s="53"/>
-      <c r="K30" s="53"/>
-      <c r="L30" s="53"/>
-      <c r="M30" s="53"/>
-      <c r="N30" s="53"/>
-      <c r="S30" s="53" t="s">
+      <c r="H30" s="56"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="56"/>
+      <c r="K30" s="56"/>
+      <c r="L30" s="56"/>
+      <c r="M30" s="56"/>
+      <c r="N30" s="56"/>
+      <c r="S30" s="56" t="s">
         <v>167</v>
       </c>
-      <c r="T30" s="53"/>
-      <c r="U30" s="53"/>
-      <c r="V30" s="53"/>
-      <c r="W30" s="53"/>
-      <c r="X30" s="53"/>
-      <c r="Y30" s="53"/>
-      <c r="Z30" s="53"/>
+      <c r="T30" s="56"/>
+      <c r="U30" s="56"/>
+      <c r="V30" s="56"/>
+      <c r="W30" s="56"/>
+      <c r="X30" s="56"/>
+      <c r="Y30" s="56"/>
+      <c r="Z30" s="56"/>
     </row>
     <row r="31" spans="2:28" x14ac:dyDescent="0.25">
       <c r="F31" t="s">
@@ -40167,26 +42316,26 @@
       <c r="AB44" s="46"/>
     </row>
     <row r="45" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G45" s="53" t="s">
+      <c r="G45" s="56" t="s">
         <v>173</v>
       </c>
-      <c r="H45" s="53"/>
-      <c r="I45" s="53"/>
-      <c r="J45" s="53"/>
-      <c r="K45" s="53"/>
-      <c r="L45" s="53"/>
-      <c r="M45" s="53"/>
-      <c r="N45" s="53"/>
-      <c r="S45" s="53" t="s">
+      <c r="H45" s="56"/>
+      <c r="I45" s="56"/>
+      <c r="J45" s="56"/>
+      <c r="K45" s="56"/>
+      <c r="L45" s="56"/>
+      <c r="M45" s="56"/>
+      <c r="N45" s="56"/>
+      <c r="S45" s="56" t="s">
         <v>166</v>
       </c>
-      <c r="T45" s="53"/>
-      <c r="U45" s="53"/>
-      <c r="V45" s="53"/>
-      <c r="W45" s="53"/>
-      <c r="X45" s="53"/>
-      <c r="Y45" s="53"/>
-      <c r="Z45" s="53"/>
+      <c r="T45" s="56"/>
+      <c r="U45" s="56"/>
+      <c r="V45" s="56"/>
+      <c r="W45" s="56"/>
+      <c r="X45" s="56"/>
+      <c r="Y45" s="56"/>
+      <c r="Z45" s="56"/>
       <c r="AA45" s="46"/>
       <c r="AB45" s="46"/>
     </row>
@@ -41074,15 +43223,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="57" t="s">
         <v>162</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
       <c r="I1">
         <f>_xll.acq_options_binomial_american_price($C$5,F14,$C$7,$C$9,$C$10,$C$8,FALSE,6)</f>
         <v>20.986795441796307</v>
@@ -41094,40 +43243,40 @@
         <v>170</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="F3" s="53" t="s">
+      <c r="F3" s="56" t="s">
         <v>139</v>
       </c>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53" t="s">
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56" t="s">
         <v>163</v>
       </c>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53" t="s">
+      <c r="J3" s="56"/>
+      <c r="K3" s="56" t="s">
         <v>171</v>
       </c>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53" t="s">
+      <c r="L3" s="56"/>
+      <c r="M3" s="56" t="s">
         <v>137</v>
       </c>
-      <c r="N3" s="53"/>
-      <c r="P3" s="53" t="s">
+      <c r="N3" s="56"/>
+      <c r="P3" s="56" t="s">
         <v>139</v>
       </c>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="53"/>
-      <c r="S3" s="53" t="s">
+      <c r="Q3" s="56"/>
+      <c r="R3" s="56"/>
+      <c r="S3" s="56" t="s">
         <v>163</v>
       </c>
-      <c r="T3" s="53"/>
-      <c r="U3" s="53" t="s">
+      <c r="T3" s="56"/>
+      <c r="U3" s="56" t="s">
         <v>137</v>
       </c>
-      <c r="V3" s="53"/>
-      <c r="W3" s="53" t="s">
+      <c r="V3" s="56"/>
+      <c r="W3" s="56" t="s">
         <v>171</v>
       </c>
-      <c r="X3" s="53"/>
+      <c r="X3" s="56"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B4" t="s">

--- a/Distribution/ACQ.Options.xlsx
+++ b/Distribution/ACQ.Options.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ACQ\ACQ.Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A32F697B-8C6F-418C-AB84-D10C2819383E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B1A0053-F8C5-49B0-964E-C1F0D11698FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2430" yWindow="825" windowWidth="24465" windowHeight="12840" tabRatio="900" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3300" yWindow="2595" windowWidth="24465" windowHeight="12840" tabRatio="900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Utils" sheetId="3" r:id="rId1"/>
@@ -192,7 +192,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="178">
   <si>
     <t>x</t>
   </si>
@@ -720,6 +720,12 @@
   </si>
   <si>
     <t>acq_isinteger</t>
+  </si>
+  <si>
+    <t>acq_isleap_year</t>
+  </si>
+  <si>
+    <t>year</t>
   </si>
 </sst>
 </file>
@@ -13492,35 +13498,36 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B2:O28"/>
+  <dimension ref="B2:N56"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" customWidth="1"/>
-    <col min="11" max="11" width="21.42578125" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="L2" t="s">
+      <c r="H2" t="s">
         <v>157</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>6</v>
       </c>
@@ -13528,39 +13535,39 @@
         <f>_xll.acq_excel_version()</f>
         <v>16</v>
       </c>
-      <c r="K3" t="s">
+      <c r="G3" t="s">
         <v>153</v>
       </c>
-      <c r="L3" s="5">
+      <c r="H3" s="5">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="N3" s="6" t="str">
-        <f>_xll.acq_tostring(L3)</f>
+      <c r="J3" s="6" t="str">
+        <f>_xll.acq_tostring(H3)</f>
         <v>3.14159265358979</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="6" t="str">
         <f>_xll.acq_version()</f>
-        <v>1.3.8029.25398</v>
-      </c>
-      <c r="K4" t="s">
+        <v>1.3.8029.26609</v>
+      </c>
+      <c r="G4" t="s">
         <v>1</v>
       </c>
-      <c r="L4" s="48">
+      <c r="H4" s="48">
         <f ca="1">TODAY()</f>
         <v>44555</v>
       </c>
-      <c r="N4" s="49" t="str">
-        <f ca="1">_xll.acq_tostring(L4)</f>
+      <c r="J4" s="49" t="str">
+        <f ca="1">_xll.acq_tostring(H4)</f>
         <v>44555</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>5</v>
       </c>
@@ -13568,18 +13575,18 @@
         <f>_xll.acq_xllpath()</f>
         <v>D:\Github\ACQ\Distribution\ACQ64.xll</v>
       </c>
-      <c r="K5" t="s">
+      <c r="G5" t="s">
         <v>154</v>
       </c>
-      <c r="L5" s="5" t="b">
+      <c r="H5" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="N5" s="6" t="str">
-        <f>_xll.acq_tostring(L5)</f>
+      <c r="J5" s="6" t="str">
+        <f>_xll.acq_tostring(H5)</f>
         <v>TRUE</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>8</v>
       </c>
@@ -13587,19 +13594,19 @@
         <f>_xll.acq_exceldna_version()</f>
         <v>1.1.0.3</v>
       </c>
-      <c r="K6" t="s">
+      <c r="G6" t="s">
         <v>111</v>
       </c>
-      <c r="L6" s="5" t="e">
+      <c r="H6" s="5" t="e">
         <f>SQRT(-1)</f>
         <v>#NUM!</v>
       </c>
-      <c r="N6" s="6" t="str">
-        <f>_xll.acq_tostring(L6)</f>
+      <c r="J6" s="6" t="str">
+        <f>_xll.acq_tostring(H6)</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>12</v>
       </c>
@@ -13607,65 +13614,65 @@
         <f>_xll.acq_dotnet_version()</f>
         <v>4.0.30319.42000</v>
       </c>
-      <c r="K7" t="s">
+      <c r="G7" t="s">
         <v>155</v>
       </c>
-      <c r="L7" s="5"/>
-      <c r="N7" s="6" t="str">
-        <f>_xll.acq_tostring(L7)</f>
+      <c r="H7" s="5"/>
+      <c r="J7" s="6" t="str">
+        <f>_xll.acq_tostring(H7)</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="K8" t="s">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
         <v>111</v>
       </c>
-      <c r="L8" s="5" t="e">
+      <c r="H8" s="5" t="e">
         <f ca="1">DS()</f>
         <v>#NAME?</v>
       </c>
-      <c r="N8" s="6" t="str">
-        <f ca="1">_xll.acq_tostring(L8)</f>
+      <c r="J8" s="6" t="str">
+        <f ca="1">_xll.acq_tostring(H8)</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="3"/>
-      <c r="K9" t="s">
+      <c r="G9" t="s">
         <v>156</v>
       </c>
-      <c r="L9" s="5" t="e">
+      <c r="H9" s="5" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="N9" s="6" t="str">
-        <f>_xll.acq_tostring(L9)</f>
+      <c r="J9" s="6" t="str">
+        <f>_xll.acq_tostring(H9)</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K10" t="s">
+      <c r="G10" t="s">
         <v>159</v>
       </c>
-      <c r="L10" s="5" t="e">
-        <f>LOOKUP(L3,)</f>
+      <c r="H10" s="5" t="e">
+        <f>LOOKUP(H3,)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N10" s="6" t="str">
-        <f>_xll.acq_tostring(L10)</f>
+      <c r="J10" s="6" t="str">
+        <f>_xll.acq_tostring(H10)</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>13</v>
       </c>
@@ -13673,49 +13680,49 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K13" s="3" t="s">
+    <row r="13" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G13" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="L13" t="str">
-        <f ca="1">_xll.acq_join(L3:L10)</f>
+      <c r="H13" t="str">
+        <f ca="1">_xll.acq_join(H3:H10)</f>
         <v>3.14159265358979,44555,True,,,,,</v>
       </c>
     </row>
-    <row r="14" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K14" s="3" t="s">
+    <row r="14" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G14" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="L14" t="str">
-        <f ca="1">_xll.acq_join(N3:N10, "|")</f>
+      <c r="H14" t="str">
+        <f ca="1">_xll.acq_join(J3:J10, "|")</f>
         <v>3.14159265358979|44555|TRUE|||||</v>
       </c>
     </row>
-    <row r="15" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K15" s="3" t="s">
+    <row r="15" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G15" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="L15">
-        <f ca="1">_xll.acq_count_unique(L3:L10)</f>
+      <c r="H15">
+        <f ca="1">_xll.acq_count_unique(H3:H10)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K16" s="3" t="s">
+    <row r="16" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G16" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="L16">
-        <f ca="1">_xll.acq_count_unique(L3:L10,FALSE)</f>
+      <c r="H16">
+        <f ca="1">_xll.acq_count_unique(H3:H10,FALSE)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C17" s="3"/>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>1</v>
       </c>
@@ -13723,7 +13730,7 @@
         <v>20150630</v>
       </c>
     </row>
-    <row r="19" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>2</v>
       </c>
@@ -13731,16 +13738,22 @@
         <f>_xll.acq_convert_todate(C18)</f>
         <v>42185</v>
       </c>
-      <c r="K19" s="19"/>
-      <c r="L19" s="53" t="s">
+      <c r="G19" s="19"/>
+      <c r="H19" s="53" t="s">
         <v>174</v>
       </c>
-      <c r="N19" s="19"/>
-      <c r="O19" s="53" t="s">
+      <c r="J19" s="19"/>
+      <c r="K19" s="53" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="M19" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="N19" s="53" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>149</v>
       </c>
@@ -13748,22 +13761,29 @@
         <f>_xll.acq_nextbusinessday(C19)</f>
         <v>42186</v>
       </c>
-      <c r="K20" s="54">
-        <v>0</v>
-      </c>
-      <c r="L20" s="22" t="b">
-        <f>_xll.acq_isprime(K20)</f>
-        <v>0</v>
-      </c>
-      <c r="N20" s="54">
+      <c r="G20" s="54">
+        <v>0</v>
+      </c>
+      <c r="H20" s="22" t="b">
+        <f>_xll.acq_isprime(G20)</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="54">
         <v>1</v>
       </c>
-      <c r="O20" s="22" t="b">
-        <f>_xll.acq_isinteger(N20)</f>
+      <c r="K20" s="22" t="b">
+        <f>_xll.acq_isinteger(J20)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="M20" s="33">
+        <v>1992</v>
+      </c>
+      <c r="N20" s="22" t="b">
+        <f>_xll.acq_isleap_year(M20)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>150</v>
       </c>
@@ -13771,128 +13791,436 @@
         <f>_xll.acq_adjustbusinessday(C19,-1)</f>
         <v>42185</v>
       </c>
-      <c r="K21" s="54">
+      <c r="G21" s="54">
         <v>1</v>
       </c>
-      <c r="L21" s="22" t="b">
-        <f>_xll.acq_isprime(K21)</f>
-        <v>0</v>
-      </c>
-      <c r="N21" s="54">
+      <c r="H21" s="22" t="b">
+        <f>_xll.acq_isprime(G21)</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="54">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="O21" s="22" t="b">
-        <f>_xll.acq_isinteger(N21)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="K22" s="54">
+      <c r="K21" s="22" t="b">
+        <f>_xll.acq_isinteger(J21)</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="33">
+        <v>2000</v>
+      </c>
+      <c r="N21" s="22" t="b">
+        <f>_xll.acq_isleap_year(M21)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="G22" s="54">
         <v>2</v>
       </c>
-      <c r="L22" s="22" t="b">
-        <f>_xll.acq_isprime(K22)</f>
+      <c r="H22" s="22" t="b">
+        <f>_xll.acq_isprime(G22)</f>
         <v>1</v>
       </c>
-      <c r="N22" s="54" t="str">
+      <c r="J22" s="54" t="str">
         <f>"text"</f>
         <v>text</v>
       </c>
-      <c r="O22" s="22" t="b">
-        <f>_xll.acq_isinteger(N22)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="K23" s="54">
+      <c r="K22" s="22" t="b">
+        <f>_xll.acq_isinteger(J22)</f>
+        <v>0</v>
+      </c>
+      <c r="M22" s="33">
+        <v>1900</v>
+      </c>
+      <c r="N22" s="22" t="b">
+        <f>_xll.acq_isleap_year(M22)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="G23" s="54">
         <v>3</v>
       </c>
-      <c r="L23" s="22" t="b">
-        <f>_xll.acq_isprime(K23)</f>
+      <c r="H23" s="22" t="b">
+        <f>_xll.acq_isprime(G23)</f>
         <v>1</v>
       </c>
-      <c r="N23" s="54" t="str">
+      <c r="J23" s="54" t="str">
         <f>"3.14"</f>
         <v>3.14</v>
       </c>
-      <c r="O23" s="22" t="b">
-        <f>_xll.acq_isinteger(N23)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="K24" s="54">
+      <c r="K23" s="22" t="b">
+        <f>_xll.acq_isinteger(J23)</f>
+        <v>0</v>
+      </c>
+      <c r="M23" s="33">
+        <v>1700</v>
+      </c>
+      <c r="N23" s="22" t="b">
+        <f>_xll.acq_isleap_year(M23)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="G24" s="54">
         <v>4</v>
       </c>
-      <c r="L24" s="22" t="b">
-        <f>_xll.acq_isprime(K24)</f>
-        <v>0</v>
-      </c>
-      <c r="N24" s="54" t="str">
+      <c r="H24" s="22" t="b">
+        <f>_xll.acq_isprime(G24)</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="54" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
-      <c r="O24" s="22" t="b">
-        <f>_xll.acq_isinteger(N24)</f>
+      <c r="K24" s="22" t="b">
+        <f>_xll.acq_isinteger(J24)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="K25" s="54">
+      <c r="M24" s="33">
+        <v>1800</v>
+      </c>
+      <c r="N24" s="22" t="b">
+        <f>_xll.acq_isleap_year(M24)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="G25" s="54">
         <v>5</v>
       </c>
-      <c r="L25" s="22" t="b">
-        <f>_xll.acq_isprime(K25)</f>
+      <c r="H25" s="22" t="b">
+        <f>_xll.acq_isprime(G25)</f>
         <v>1</v>
       </c>
-      <c r="N25" s="54" t="str">
+      <c r="J25" s="54" t="str">
         <f>"3.00"</f>
         <v>3.00</v>
       </c>
-      <c r="O25" s="22" t="b">
-        <f>_xll.acq_isinteger(N25)</f>
+      <c r="K25" s="22" t="b">
+        <f>_xll.acq_isinteger(J25)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="K26" s="54">
+      <c r="M25" s="33">
+        <v>1900</v>
+      </c>
+      <c r="N25" s="22" t="b">
+        <f>_xll.acq_isleap_year(M25)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="G26" s="54">
         <v>6</v>
       </c>
-      <c r="L26" s="22" t="b">
-        <f>_xll.acq_isprime(K26)</f>
-        <v>0</v>
-      </c>
-      <c r="N26" s="54">
+      <c r="H26" s="22" t="b">
+        <f>_xll.acq_isprime(G26)</f>
+        <v>0</v>
+      </c>
+      <c r="J26" s="54">
         <v>2</v>
       </c>
-      <c r="O26" s="22" t="b">
-        <f>_xll.acq_isinteger(N26)</f>
+      <c r="K26" s="22" t="b">
+        <f>_xll.acq_isinteger(J26)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="K27" s="55">
+      <c r="M26" s="33">
+        <v>2100</v>
+      </c>
+      <c r="N26" s="22" t="b">
+        <f>_xll.acq_isleap_year(M26)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="G27" s="55">
         <v>7</v>
       </c>
-      <c r="L27" s="24" t="b">
-        <f>_xll.acq_isprime(K27)</f>
+      <c r="H27" s="24" t="b">
+        <f>_xll.acq_isprime(G27)</f>
         <v>1</v>
       </c>
-      <c r="N27" s="55">
+      <c r="J27" s="55">
         <v>8</v>
       </c>
-      <c r="O27" s="24" t="b">
-        <f>_xll.acq_isinteger(N27)</f>
+      <c r="K27" s="24" t="b">
+        <f>_xll.acq_isinteger(J27)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="K28" s="55">
+      <c r="M27" s="33">
+        <v>2200</v>
+      </c>
+      <c r="N27" s="22" t="b">
+        <f>_xll.acq_isleap_year(M27)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="G28" s="55">
         <v>7.2</v>
       </c>
-      <c r="L28" s="24" t="b">
-        <f>_xll.acq_isprime(K28)</f>
+      <c r="H28" s="24" t="b">
+        <f>_xll.acq_isprime(G28)</f>
+        <v>0</v>
+      </c>
+      <c r="M28" s="33">
+        <v>2300</v>
+      </c>
+      <c r="N28" s="22" t="b">
+        <f>_xll.acq_isleap_year(M28)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M29" s="33">
+        <v>2500</v>
+      </c>
+      <c r="N29" s="22" t="b">
+        <f>_xll.acq_isleap_year(M29)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M30" s="33">
+        <v>2600</v>
+      </c>
+      <c r="N30" s="22" t="b">
+        <f>_xll.acq_isleap_year(M30)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M31" s="33">
+        <v>1600</v>
+      </c>
+      <c r="N31" s="22" t="b">
+        <f>_xll.acq_isleap_year(M31)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M32" s="33">
+        <v>2000</v>
+      </c>
+      <c r="N32" s="22" t="b">
+        <f>_xll.acq_isleap_year(M32)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M33" s="33">
+        <v>2400</v>
+      </c>
+      <c r="N33" s="22" t="b">
+        <f>_xll.acq_isleap_year(M33)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M34" s="33">
+        <v>23.4</v>
+      </c>
+      <c r="N34" s="22" t="e">
+        <f>_xll.acq_isleap_year(M34)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="35" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M35" s="33">
+        <v>2000</v>
+      </c>
+      <c r="N35" s="22" t="b">
+        <f>_xll.acq_isleap_year(M35)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M36" s="33">
+        <v>2001</v>
+      </c>
+      <c r="N36" s="22" t="b">
+        <f>_xll.acq_isleap_year(M36)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M37" s="33">
+        <v>2002</v>
+      </c>
+      <c r="N37" s="22" t="b">
+        <f>_xll.acq_isleap_year(M37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M38" s="33">
+        <v>2003</v>
+      </c>
+      <c r="N38" s="22" t="b">
+        <f>_xll.acq_isleap_year(M38)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M39" s="33">
+        <v>2004</v>
+      </c>
+      <c r="N39" s="22" t="b">
+        <f>_xll.acq_isleap_year(M39)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M40" s="33">
+        <v>2005</v>
+      </c>
+      <c r="N40" s="22" t="b">
+        <f>_xll.acq_isleap_year(M40)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M41" s="33">
+        <v>2006</v>
+      </c>
+      <c r="N41" s="22" t="b">
+        <f>_xll.acq_isleap_year(M41)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M42" s="33">
+        <v>2007</v>
+      </c>
+      <c r="N42" s="22" t="b">
+        <f>_xll.acq_isleap_year(M42)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M43" s="33">
+        <v>2008</v>
+      </c>
+      <c r="N43" s="22" t="b">
+        <f>_xll.acq_isleap_year(M43)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M44" s="33">
+        <v>2009</v>
+      </c>
+      <c r="N44" s="22" t="b">
+        <f>_xll.acq_isleap_year(M44)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M45" s="33">
+        <v>2010</v>
+      </c>
+      <c r="N45" s="22" t="b">
+        <f>_xll.acq_isleap_year(M45)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M46" s="33">
+        <v>2011</v>
+      </c>
+      <c r="N46" s="22" t="b">
+        <f>_xll.acq_isleap_year(M46)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M47" s="33">
+        <v>2012</v>
+      </c>
+      <c r="N47" s="22" t="b">
+        <f>_xll.acq_isleap_year(M47)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M48" s="33">
+        <v>2013</v>
+      </c>
+      <c r="N48" s="22" t="b">
+        <f>_xll.acq_isleap_year(M48)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M49" s="33">
+        <v>2014</v>
+      </c>
+      <c r="N49" s="22" t="b">
+        <f>_xll.acq_isleap_year(M49)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M50" s="33">
+        <v>2015</v>
+      </c>
+      <c r="N50" s="22" t="b">
+        <f>_xll.acq_isleap_year(M50)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M51" s="33">
+        <v>2016</v>
+      </c>
+      <c r="N51" s="22" t="b">
+        <f>_xll.acq_isleap_year(M51)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M52" s="33">
+        <v>2017</v>
+      </c>
+      <c r="N52" s="22" t="b">
+        <f>_xll.acq_isleap_year(M52)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M53" s="33">
+        <v>2018</v>
+      </c>
+      <c r="N53" s="22" t="b">
+        <f>_xll.acq_isleap_year(M53)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M54" s="33">
+        <v>2019</v>
+      </c>
+      <c r="N54" s="22" t="b">
+        <f>_xll.acq_isleap_year(M54)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M55" s="33">
+        <v>2020</v>
+      </c>
+      <c r="N55" s="22" t="b">
+        <f>_xll.acq_isleap_year(M55)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M56" s="34">
+        <v>2021</v>
+      </c>
+      <c r="N56" s="24" t="b">
+        <f>_xll.acq_isleap_year(M56)</f>
         <v>0</v>
       </c>
     </row>
@@ -33891,8 +34219,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:AT57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AF9" sqref="AF9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Distribution/ACQ.Options.xlsx
+++ b/Distribution/ACQ.Options.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ACQ\ACQ.Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B1A0053-F8C5-49B0-964E-C1F0D11698FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C54BC0DB-928E-4FF6-A8BA-1D02D9AE1EC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3300" yWindow="2595" windowWidth="24465" windowHeight="12840" tabRatio="900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2100" yWindow="705" windowWidth="26475" windowHeight="12885" tabRatio="900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Utils" sheetId="3" r:id="rId1"/>
@@ -13500,8 +13500,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:N56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13509,7 +13509,7 @@
     <col min="2" max="2" width="21.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" customWidth="1"/>
-    <col min="7" max="7" width="21.42578125" customWidth="1"/>
+    <col min="7" max="7" width="24.85546875" customWidth="1"/>
     <col min="8" max="8" width="12.5703125" customWidth="1"/>
     <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.28515625" bestFit="1" customWidth="1"/>
@@ -13553,7 +13553,7 @@
       </c>
       <c r="C4" s="6" t="str">
         <f>_xll.acq_version()</f>
-        <v>1.3.8029.26609</v>
+        <v>1.3.8029.27023</v>
       </c>
       <c r="G4" t="s">
         <v>1</v>
@@ -14008,7 +14008,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G33" s="12"/>
       <c r="M33" s="33">
         <v>2400</v>
       </c>
@@ -14017,7 +14018,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G34" s="12"/>
       <c r="M34" s="33">
         <v>23.4</v>
       </c>
@@ -14026,7 +14028,8 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="35" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G35" s="12"/>
       <c r="M35" s="33">
         <v>2000</v>
       </c>
@@ -14035,7 +14038,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G36" s="12"/>
       <c r="M36" s="33">
         <v>2001</v>
       </c>
@@ -14044,7 +14048,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G37" s="12"/>
       <c r="M37" s="33">
         <v>2002</v>
       </c>
@@ -14053,7 +14058,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G38" s="12"/>
       <c r="M38" s="33">
         <v>2003</v>
       </c>
@@ -14062,7 +14068,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G39" s="12"/>
       <c r="M39" s="33">
         <v>2004</v>
       </c>
@@ -14071,7 +14078,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G40" s="12"/>
       <c r="M40" s="33">
         <v>2005</v>
       </c>
@@ -14080,7 +14088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="7:14" x14ac:dyDescent="0.25">
       <c r="M41" s="33">
         <v>2006</v>
       </c>
@@ -14089,7 +14097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="7:14" x14ac:dyDescent="0.25">
       <c r="M42" s="33">
         <v>2007</v>
       </c>
@@ -14098,7 +14106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="7:14" x14ac:dyDescent="0.25">
       <c r="M43" s="33">
         <v>2008</v>
       </c>
@@ -14107,7 +14115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="7:14" x14ac:dyDescent="0.25">
       <c r="M44" s="33">
         <v>2009</v>
       </c>
@@ -14116,7 +14124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="7:14" x14ac:dyDescent="0.25">
       <c r="M45" s="33">
         <v>2010</v>
       </c>
@@ -14125,7 +14133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="7:14" x14ac:dyDescent="0.25">
       <c r="M46" s="33">
         <v>2011</v>
       </c>
@@ -14134,7 +14142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="7:14" x14ac:dyDescent="0.25">
       <c r="M47" s="33">
         <v>2012</v>
       </c>
@@ -14143,7 +14151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="7:14" x14ac:dyDescent="0.25">
       <c r="M48" s="33">
         <v>2013</v>
       </c>
@@ -22538,7 +22546,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AQ43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="AH43" sqref="AH43"/>
     </sheetView>
   </sheetViews>

--- a/Distribution/ACQ.Options.xlsx
+++ b/Distribution/ACQ.Options.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ACQ\ACQ.Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C54BC0DB-928E-4FF6-A8BA-1D02D9AE1EC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C52927-8748-480A-8AFF-3BB3B1A12830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2100" yWindow="705" windowWidth="26475" windowHeight="12885" tabRatio="900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-885" yWindow="1485" windowWidth="24450" windowHeight="12690" tabRatio="900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Utils" sheetId="3" r:id="rId1"/>
@@ -13553,18 +13553,18 @@
       </c>
       <c r="C4" s="6" t="str">
         <f>_xll.acq_version()</f>
-        <v>1.3.8029.27023</v>
+        <v>1.3.8032.39391</v>
       </c>
       <c r="G4" t="s">
         <v>1</v>
       </c>
       <c r="H4" s="48">
         <f ca="1">TODAY()</f>
-        <v>44555</v>
+        <v>44558</v>
       </c>
       <c r="J4" s="49" t="str">
         <f ca="1">_xll.acq_tostring(H4)</f>
-        <v>44555</v>
+        <v>44558</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
@@ -13686,7 +13686,7 @@
       </c>
       <c r="H13" t="str">
         <f ca="1">_xll.acq_join(H3:H10)</f>
-        <v>3.14159265358979,44555,True,,,,,</v>
+        <v>3.14159265358979,44558,True,,,,,</v>
       </c>
     </row>
     <row r="14" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13695,7 +13695,7 @@
       </c>
       <c r="H14" t="str">
         <f ca="1">_xll.acq_join(J3:J10, "|")</f>
-        <v>3.14159265358979|44555|TRUE|||||</v>
+        <v>3.14159265358979|44558|TRUE|||||</v>
       </c>
     </row>
     <row r="15" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
